--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB97E5E-BF74-437F-8E32-90FC7EDAA900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9452967-2156-497B-A8C5-38AB70F39823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -159,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\.dd\.yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -192,9 +195,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,21 +269,21 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>74.48</v>
+        <v>74.55</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Low</stp>
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>74.87</v>
+        <v>75.23</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
         <tr r="E14" s="1"/>
       </tp>
-      <tp>
-        <v>73.400000000000006</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Low</stp>
@@ -573,8 +576,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H39" s="1"/>
       </tp>
-      <tp>
-        <v>1.0000000000000009E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Change</stp>
@@ -811,8 +814,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.65</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -993,22 +996,22 @@
         <stp>Symbol</stp>
         <tr r="A18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>74.59</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>75.27</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.599999999999994</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1021,8 +1024,8 @@
         <stp>Ask</stp>
         <tr r="G12" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>76.069999999999993</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1049,8 +1052,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.510000000000005</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1063,8 +1066,8 @@
         <stp>Bid</stp>
         <tr r="F12" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>74.47</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1077,15 +1080,15 @@
         <stp>Recent Settlement</stp>
         <tr r="J27" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>75.23</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>75.790000000000006</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1112,8 +1115,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J28" s="1"/>
       </tp>
-      <tp>
-        <v>-0.5</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>High</stp>
@@ -1224,8 +1227,8 @@
         <stp>Last</stp>
         <tr r="B24" s="1"/>
       </tp>
-      <tp>
-        <v>-0.54</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Last</stp>
@@ -1281,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>140</v>
+        <v>49</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1309,7 +1312,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>25</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1323,21 +1326,21 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>715</v>
+        <v>60</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1420,8 +1423,8 @@
         <stp>Last</stp>
         <tr r="B19" s="1"/>
       </tp>
-      <tp>
-        <v>-0.5</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1484,7 +1487,7 @@
         <tr r="A28" s="1"/>
       </tp>
       <tp t="s">
-        <v>ECF 14!:ECF15!-ICN</v>
+        <v>ECF 28H:ECF28Q-ICN</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Symbol</stp>
@@ -1532,15 +1535,15 @@
         <stp>Ask</stp>
         <tr r="G31" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G30" s="1"/>
       </tp>
-      <tp>
-        <v>-0.54</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>High</stp>
@@ -1560,8 +1563,8 @@
         <stp>Change</stp>
         <tr r="C16" s="1"/>
       </tp>
-      <tp>
-        <v>-0.19999999999998863</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Change</stp>
@@ -1575,14 +1578,14 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>-9.9999999999994316E-2</v>
+        <v>-0.15000000000000568</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Change</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>0.26999999999999602</v>
+        <v>-0.20000000000000284</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1744,8 +1747,8 @@
         <stp>Low</stp>
         <tr r="E19" s="1"/>
       </tp>
-      <tp>
-        <v>-0.52</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Low</stp>
@@ -1787,7 +1790,7 @@
         <tr r="I35" s="1"/>
       </tp>
       <tp>
-        <v>72.25</v>
+        <v>72.44</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Last</stp>
@@ -1808,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>71.45</v>
+        <v>71.14</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1842,8 +1845,8 @@
         <stp>Open Interest</stp>
         <tr r="I60" s="1"/>
       </tp>
-      <tp>
-        <v>71.84</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1899,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>36</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1997,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>73.41</v>
+        <v>73.239999999999995</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>71.099999999999994</v>
+        <v>71.11</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2025,14 +2028,14 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>72.25</v>
+        <v>72.44</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>High</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>71.540000000000006</v>
+        <v>71.52</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2073,8 +2076,8 @@
         <stp>Open Interest</stp>
         <tr r="I58" s="1"/>
       </tp>
-      <tp>
-        <v>71.84</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2122,29 +2125,29 @@
         <stp>High</stp>
         <tr r="D3" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.35</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G24" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.14000000000000001</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.27</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.46</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2157,22 +2160,22 @@
         <stp>Ask</stp>
         <tr r="G19" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.49</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.12</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.12</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Ask</stp>
@@ -2192,50 +2195,50 @@
         <stp>Bid</stp>
         <tr r="F19" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F20" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.36</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F22" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.16</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F17" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.44</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F24" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.25</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2249,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>71.099999999999994</v>
+        <v>71.11</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>73.349999999999994</v>
+        <v>73.05</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2346,15 +2349,15 @@
         <stp>Open Interest</stp>
         <tr r="I30" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.54</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F25" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.49</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Ask</stp>
@@ -2416,8 +2419,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J17" s="1"/>
       </tp>
-      <tp>
-        <v>-0.54</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Low</stp>
@@ -2506,15 +2509,15 @@
         <stp>Bid</stp>
         <tr r="F26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.77</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F27" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.8</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Bid</stp>
@@ -2610,15 +2613,15 @@
         <stp>Ask</stp>
         <tr r="G26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.68</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G27" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Ask</stp>
@@ -2729,8 +2732,8 @@
         <stp>Open Interest</stp>
         <tr r="I25" s="1"/>
       </tp>
-      <tp>
-        <v>73.400000000000006</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Last</stp>
@@ -2743,64 +2746,64 @@
         <stp>Last</stp>
         <tr r="B26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.150000000000006</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.66</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.180000000000007</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.48</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>70.78</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>70.92</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.069999999999993</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.7</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.06</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2828,7 +2831,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>74.48</v>
+        <v>74.55</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Last</stp>
@@ -2841,71 +2844,71 @@
         <stp>Last</stp>
         <tr r="B31" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.59</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.02</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.08</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>75.58</v>
+        <v>75.23</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.42</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.12</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.61</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>70.87</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>71.010000000000005</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>70.739999999999995</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3149,8 +3152,8 @@
         <stp>High</stp>
         <tr r="D26" s="1"/>
       </tp>
-      <tp>
-        <v>73.5</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>High</stp>
@@ -3171,14 +3174,14 @@
         <tr r="D12" s="1"/>
       </tp>
       <tp>
-        <v>0.02</v>
+        <v>0</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>74.48</v>
+        <v>74.55</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>High</stp>
@@ -3192,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>75.650000000000006</v>
+        <v>75.38</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3304,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>72.569999999999993</v>
+        <v>72.989999999999995</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3332,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>70.27</v>
+        <v>71.11</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3374,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>70.650000000000006</v>
+        <v>71.06</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3387,8 +3390,8 @@
         <stp>High</stp>
         <tr r="D38" s="1"/>
       </tp>
-      <tp>
-        <v>71.2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3416,7 +3419,7 @@
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>72.25</v>
+        <v>72.430000000000007</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Low</stp>
@@ -3492,8 +3495,8 @@
         <stp>High</stp>
         <tr r="D29" s="1"/>
       </tp>
-      <tp>
-        <v>-2.0000000000000018E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Change</stp>
@@ -3528,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>1811</v>
+        <v>86</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>450</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3549,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>454</v>
+        <v>1</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3563,21 +3566,21 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>476</v>
+        <v>4</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>17706</v>
+        <v>1501</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>286</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3675,7 +3678,7 @@
         <tr r="A25" s="1"/>
       </tp>
       <tp>
-        <v>25</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3759,7 +3762,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0.26999999999999602</v>
+        <v>-0.15000000000000568</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
@@ -3780,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>0.30999999999998806</v>
+        <v>0.20000000000000284</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3794,21 +3797,21 @@
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>-0.21999999999999886</v>
+        <v>-0.15999999999999659</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Change</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0.29000000000000625</v>
+        <v>-0.15000000000000568</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp>
-        <v>0.17000000000000171</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -4873,31 +4876,31 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>71.099999999999994</v>
+        <v>71.11</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>0.30999999999998806</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>71.099999999999994</v>
+        <v>71.11</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>70.27</v>
-      </c>
-      <c r="F2" t="str">
+        <v>71.11</v>
+      </c>
+      <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v/>
+        <v>70.78</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>454</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
@@ -4929,17 +4932,17 @@
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>70.87</v>
+      </c>
+      <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v/>
+        <v>70.92</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
@@ -4971,13 +4974,13 @@
         <f>RTD("esrtd",,"ECF 3!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G4" t="str">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v/>
+        <v>71.069999999999993</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4999,31 +5002,31 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>71.45</v>
+        <v>71.14</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>0.29000000000000625</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>71.540000000000006</v>
+        <v>71.52</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>70.650000000000006</v>
-      </c>
-      <c r="F5" t="str">
+        <v>71.06</v>
+      </c>
+      <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
+        <v>71.12</v>
+      </c>
+      <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v/>
+        <v>71.150000000000006</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>17706</v>
+        <v>1501</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
@@ -5039,33 +5042,33 @@
         <f>RTD("esrtd",,"ECF 5!-ICN","Symbol")</f>
         <v>ECF 26H-ICN</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v>71.84</v>
-      </c>
-      <c r="C6">
+        <v/>
+      </c>
+      <c r="C6" t="str">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v>0.17000000000000171</v>
-      </c>
-      <c r="D6">
+        <v/>
+      </c>
+      <c r="D6" t="str">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v>71.84</v>
-      </c>
-      <c r="E6">
+        <v/>
+      </c>
+      <c r="E6" t="str">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v>71.2</v>
-      </c>
-      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G6" t="str">
+        <v>71.61</v>
+      </c>
+      <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v/>
+        <v>71.66</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
@@ -5097,13 +5100,13 @@
         <f>RTD("esrtd",,"ECF 6!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F7" t="str">
+      <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
+        <v>72.08</v>
+      </c>
+      <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v/>
+        <v>72.180000000000007</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5125,31 +5128,31 @@
       </c>
       <c r="B8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Last")</f>
-        <v>72.25</v>
+        <v>72.44</v>
       </c>
       <c r="C8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Change")</f>
-        <v>-0.21999999999999886</v>
+        <v>-0.15999999999999659</v>
       </c>
       <c r="D8">
         <f>RTD("esrtd",,"ECF 7!-ICN","High")</f>
-        <v>72.25</v>
+        <v>72.44</v>
       </c>
       <c r="E8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Low")</f>
-        <v>72.25</v>
-      </c>
-      <c r="F8" t="str">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
+        <v>72.42</v>
+      </c>
+      <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v/>
+        <v>72.48</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
@@ -5181,13 +5184,13 @@
         <f>RTD("esrtd",,"ECF 8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G9" t="str">
+        <v>72.59</v>
+      </c>
+      <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v/>
+        <v>72.7</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5209,31 +5212,31 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>73.349999999999994</v>
+        <v>73.05</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>0.26999999999999602</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>73.41</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>72.569999999999993</v>
-      </c>
-      <c r="F10" t="str">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G10" t="str">
+        <v>73.02</v>
+      </c>
+      <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v/>
+        <v>73.06</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>1811</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
@@ -5249,33 +5252,33 @@
         <f>RTD("esrtd",,"ECF 10!-ICN","Symbol")</f>
         <v>ECF 27H-ICN</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <f>RTD("esrtd",,"ECF 10!-ICN","Last")</f>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="C11">
+        <v/>
+      </c>
+      <c r="C11" t="str">
         <f>RTD("esrtd",,"ECF 10!-ICN","Change")</f>
-        <v>-0.19999999999998863</v>
-      </c>
-      <c r="D11">
+        <v/>
+      </c>
+      <c r="D11" t="str">
         <f>RTD("esrtd",,"ECF 10!-ICN","High")</f>
-        <v>73.5</v>
-      </c>
-      <c r="E11">
+        <v/>
+      </c>
+      <c r="E11" t="str">
         <f>RTD("esrtd",,"ECF 10!-ICN","Low")</f>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G11" t="str">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v/>
+        <v>73.599999999999994</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
@@ -5335,31 +5338,31 @@
       </c>
       <c r="B13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Last")</f>
-        <v>74.48</v>
+        <v>74.55</v>
       </c>
       <c r="C13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Change")</f>
-        <v>-9.9999999999994316E-2</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="D13">
         <f>RTD("esrtd",,"ECF 12!-ICN","High")</f>
-        <v>74.48</v>
+        <v>74.55</v>
       </c>
       <c r="E13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Low")</f>
-        <v>74.48</v>
-      </c>
-      <c r="F13" t="str">
+        <v>74.55</v>
+      </c>
+      <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G13" t="str">
+        <v>74.47</v>
+      </c>
+      <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v/>
+        <v>74.59</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
@@ -5377,31 +5380,31 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>75.58</v>
+        <v>75.23</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>0.26999999999999602</v>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>75.650000000000006</v>
+        <v>75.38</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>74.87</v>
-      </c>
-      <c r="F14" t="str">
+        <v>75.23</v>
+      </c>
+      <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G14" t="str">
+        <v>75.23</v>
+      </c>
+      <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v/>
+        <v>75.27</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>715</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
@@ -5433,13 +5436,13 @@
         <f>RTD("esrtd",,"ECF 14!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G15" t="str">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v/>
+        <v>76.069999999999993</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5517,13 +5520,13 @@
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G17" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
-        <v/>
+        <v>-0.12</v>
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
@@ -5559,13 +5562,13 @@
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G18" t="str">
+        <v>-0.16</v>
+      </c>
+      <c r="G18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v/>
+        <v>-0.12</v>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5627,33 +5630,33 @@
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Symbol")</f>
         <v>ECF 25Z:ECF26H-ICN</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="C20">
+        <v/>
+      </c>
+      <c r="C20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="D20">
+        <v/>
+      </c>
+      <c r="D20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E20">
+        <v/>
+      </c>
+      <c r="E20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
-        <v>-0.52</v>
-      </c>
-      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="F20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G20" t="str">
+        <v>-0.51</v>
+      </c>
+      <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v/>
+        <v>-0.49</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5685,13 +5688,13 @@
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G21" t="str">
+        <v>-0.53</v>
+      </c>
+      <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v/>
+        <v>-0.46</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5727,13 +5730,13 @@
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G22" t="str">
+        <v>-0.36</v>
+      </c>
+      <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v/>
+        <v>-0.27</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5769,13 +5772,13 @@
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G23" t="str">
+        <v>-0.25</v>
+      </c>
+      <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v/>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5811,13 +5814,13 @@
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G24" t="str">
+        <v>-0.44</v>
+      </c>
+      <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v/>
+        <v>-0.35</v>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
@@ -5837,33 +5840,33 @@
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Symbol")</f>
         <v>ECF 26Z:ECF27H-ICN</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="str">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Last")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Change")</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","High")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Low")</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
         <v>-0.54</v>
       </c>
-      <c r="C25">
-        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Change")</f>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="D25">
-        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","High")</f>
-        <v>-0.54</v>
-      </c>
-      <c r="E25">
-        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Low")</f>
-        <v>-0.54</v>
-      </c>
-      <c r="F25" t="str">
-        <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G25" t="str">
+      <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
-        <v/>
+        <v>-0.49</v>
       </c>
       <c r="H25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Cumulative Volume")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I25" t="str">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Open Interest")</f>
@@ -5937,13 +5940,13 @@
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Low")</f>
         <v>-0.69</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G27" t="str">
+        <v>-0.77</v>
+      </c>
+      <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v/>
+        <v>-0.68</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
@@ -5979,13 +5982,13 @@
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F28" t="str">
+      <c r="F28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G28" t="str">
+        <v>-0.8</v>
+      </c>
+      <c r="G28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Ask")</f>
-        <v/>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Cumulative Volume")</f>
@@ -6003,7 +6006,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Symbol")</f>
-        <v>ECF 14!:ECF15!-ICN</v>
+        <v>ECF 28H:ECF28Q-ICN</v>
       </c>
       <c r="B29" t="str">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Last")</f>
@@ -6029,17 +6032,17 @@
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Ask")</f>
         <v/>
       </c>
-      <c r="H29" t="str">
+      <c r="H29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Cumulative Volume")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I29" t="str">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Open Interest")</f>
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v/>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6057,7 +6060,7 @@
       </c>
       <c r="D30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","High")</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
@@ -6067,13 +6070,13 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
         <v/>
       </c>
-      <c r="G30" t="str">
+      <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -7351,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,5421 +7443,5442 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
+        <f>DATE(2025,8,20)</f>
+        <v>45889</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B6">
+        <v>55159</v>
+      </c>
+      <c r="C6">
+        <v>335216</v>
+      </c>
+      <c r="D6">
+        <v>32675</v>
+      </c>
+      <c r="E6">
+        <v>16112</v>
+      </c>
+      <c r="F6">
+        <v>166986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>55038</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>334562</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>32404</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>16244</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>166189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>54467</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>332925</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>32139</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>16114</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>165785</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>52654</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>331793</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>32139</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>16114</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>165035</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>49078</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>334724</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>31135</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>16086</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>165282</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>49075</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>333519</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>31129</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>16084</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>165259</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>49079</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>332913</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>31123</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>16080</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>164418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>49029</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>334592</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>31103</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>16080</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>164283</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>49035</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>334273</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>31046</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>16080</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>162523</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>49028</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>335278</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>30118</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>16080</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>162858</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>49028</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>333937</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>30037</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>16079</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>161752</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>48952</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>333839</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>30018</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>16079</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>161155</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>48947</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>335306</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>29963</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>16079</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>160284</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>48946</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>335217</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>29443</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>16054</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>159960</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>48458</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>334621</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>29466</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>16054</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>159968</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>48210</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>335880</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>29456</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>16054</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>159282</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>48261</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>333961</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>29447</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>16053</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>158865</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>48208</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>333078</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>29391</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>16051</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>158379</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>48527</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>332644</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>29344</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>16051</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>158783</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>48515</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>331048</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>29341</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>16051</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>157895</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>48536</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>329710</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>29291</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>16048</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>157083</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>48510</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>328708</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>28676</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>16045</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>155953</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>48350</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>327097</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>28361</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>16027</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>155293</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>48330</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>326066</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>27846</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>16025</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>154555</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>48290</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>326325</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>27426</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>16024</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>153864</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>48290</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>325885</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>27369</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>16006</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>152993</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>48290</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>323301</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>27355</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>15982</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>152111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>48290</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>321020</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>27331</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>15975</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>151848</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>48236</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>321618</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>26279</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>15958</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>150659</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>48121</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>320154</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>26263</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>15955</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>150687</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>47384</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>319320</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>26236</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>15950</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>149986</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>46088</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>318933</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>26180</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>15944</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>149479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>45908</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>319160</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>26167</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>15922</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>149447</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>45896</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>318241</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>26163</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>15918</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>149132</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>44033</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>319486</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>22147</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>15913</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>147950</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>43816</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>318476</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>22099</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>15913</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>147288</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>43451</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>319974</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>22070</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>15831</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>147310</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>42536</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>319363</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>22090</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>15797</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>146216</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>40059</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>320370</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>22093</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>15793</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>145781</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>32534</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>322739</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>22106</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>15793</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>144874</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>34154</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>321931</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>22111</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>15767</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>143864</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>33248</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>324446</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>22093</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>15765</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>143661</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>32748</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>324690</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>22083</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>15711</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>141607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>29868</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>325610</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>21978</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>15711</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>141254</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>29755</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>324035</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>21941</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>15590</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>141078</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>29755</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>325145</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>21924</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>15586</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>140266</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>29945</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>323780</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>21902</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>15585</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>139680</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>29788</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>323965</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>21895</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>15585</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>139317</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>29786</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>324500</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>21872</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>15580</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>139012</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>29802</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>322494</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>21864</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>15492</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>138712</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>29807</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>320699</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>21824</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>15492</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>137682</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>29507</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>320734</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>21788</v>
       </c>
-      <c r="E56">
+      <c r="E57">
         <v>15489</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>135467</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>29495</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>321022</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>21780</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>15489</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>135063</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>29495</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>321194</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>21775</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>15489</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>134947</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>28625</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>320187</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>21522</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>15439</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>134377</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>28625</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>319824</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>21515</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>15436</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>134162</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>28625</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>317426</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>21513</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>15431</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>134076</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>28625</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>317555</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>21513</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>15428</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>134058</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>26625</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>320491</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>21498</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>15425</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>134450</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>26367</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>320932</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>21499</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>15314</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>133557</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>26367</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>318101</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>21483</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>15311</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>131923</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>26217</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>316769</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>21445</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>15301</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>131071</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>26217</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>317448</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>21403</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>15301</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>131000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>26217</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>318727</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>21398</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>15293</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>130192</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>26217</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>318115</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>21391</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>15279</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <v>130222</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>26217</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>317798</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>21368</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>15251</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>130033</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>26217</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>316698</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>21361</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>15248</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>129719</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>26217</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>317705</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>21349</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>15234</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <v>126662</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>25937</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>317478</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>21328</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>15234</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <v>126329</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>25938</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>318806</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>21321</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>15229</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>126269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>25926</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>318809</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>21275</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>15118</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>126146</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>25926</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>322318</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>21275</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>15109</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>125191</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>25926</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>323552</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>21277</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>15059</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>124559</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>25675</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>324400</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>21262</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>15056</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>123029</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>25675</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>325047</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>21413</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>15041</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>122900</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>24625</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>328301</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>21423</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>15008</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>122781</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>24626</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>327642</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>21415</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>15003</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>122489</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>24626</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>327584</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>21413</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>14988</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>122317</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>24626</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>328038</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>21411</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>14988</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>122490</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>24626</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>329167</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>21411</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>14988</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>122383</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>24626</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>331622</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>21411</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>14985</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>122385</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>24625</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>328527</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>21402</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>14985</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>122362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>24624</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>328566</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>21395</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>14981</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>122041</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>24624</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>328740</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>21395</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>14981</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>121644</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>24624</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>328807</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>21388</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>14981</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>120938</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>24524</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>329625</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>21288</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>14981</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>120854</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>24524</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>328126</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>21270</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>14936</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>119789</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>24524</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>328130</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>21270</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>14936</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>119789</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>24523</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>327733</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>21243</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>14901</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>119296</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>24322</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>328550</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>21229</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>14880</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>118373</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>24271</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>327744</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>21201</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>14871</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>117664</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>24271</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>328218</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>21166</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>14871</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>117150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>24264</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>328856</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>21150</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>14871</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>115703</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>24263</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>329497</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>21076</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>14850</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>115523</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>24263</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>329531</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>21035</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>14649</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>112870</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>24262</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>330726</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>21023</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>14649</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>110491</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>24260</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>331383</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>18009</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>14563</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>109106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>24089</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>336361</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>17980</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>14421</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>106135</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>23788</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>336480</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>17969</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>14295</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>103490</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>23786</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>333401</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>17964</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>14295</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>103879</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>23786</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>330277</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>17949</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>14295</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>104263</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>23636</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>330548</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>17930</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>14236</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>103844</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>23596</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>330741</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>17927</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>13036</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>103166</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>22815</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>331610</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>17896</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>12961</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>102355</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>23019</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>331662</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>17893</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>12961</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>101579</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>23018</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>330494</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>17891</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>12957</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>101084</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>23018</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>330421</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>17876</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>12951</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>101012</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>23016</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>329253</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>17841</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>10931</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <v>99097</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>22777</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>328614</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>17829</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>10911</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>98997</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>23980</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>326310</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>17718</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>10911</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <v>98845</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>23980</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>322939</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>17707</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>10899</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <v>97897</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>23980</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>322745</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>17684</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>10752</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>97621</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>23980</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>321147</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>17672</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>10750</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <v>96935</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>23979</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>320702</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>17649</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>10740</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <v>96699</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>23979</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>319989</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>17640</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>10702</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>96079</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>23979</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>318886</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>17611</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>10592</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <v>96005</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>23978</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>313127</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>17610</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>10582</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>95323</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>23978</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>312131</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>17582</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <v>10532</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>94431</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <v>23777</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>309971</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>17570</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>10392</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>95612</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>23422</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>309732</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>17548</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>10340</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>94215</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>23423</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>306181</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>17445</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>10264</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <v>93953</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>23423</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>305033</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>17430</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>10264</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <v>93776</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>23622</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>306175</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>17423</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>10267</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <v>93019</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>22447</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>307467</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>17423</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>10267</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>92972</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>22447</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>308138</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>17423</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>10194</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <v>92280</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>22396</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>307865</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>17404</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>10144</v>
       </c>
-      <c r="F130">
+      <c r="F131">
         <v>92631</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>22395</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>309194</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>17387</v>
       </c>
-      <c r="E131">
+      <c r="E132">
         <v>10094</v>
       </c>
-      <c r="F131">
+      <c r="F132">
         <v>92714</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>22395</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>309737</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>17373</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <v>10094</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>92274</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>22454</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <v>309342</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>17333</v>
       </c>
-      <c r="E133">
+      <c r="E134">
         <v>10094</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <v>91041</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>22454</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>310867</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>17303</v>
       </c>
-      <c r="E134">
+      <c r="E135">
         <v>10092</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <v>90882</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>22454</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>313288</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>17292</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <v>10092</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>90577</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>22454</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>313285</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>17264</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <v>10091</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>90074</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>22454</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>313902</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>17185</v>
       </c>
-      <c r="E137">
+      <c r="E138">
         <v>10088</v>
       </c>
-      <c r="F137">
+      <c r="F138">
         <v>89936</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>22454</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>314720</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <v>17151</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <v>10076</v>
       </c>
-      <c r="F138">
+      <c r="F139">
         <v>89949</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>22454</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>312360</v>
       </c>
-      <c r="D139">
+      <c r="D140">
         <v>17120</v>
       </c>
-      <c r="E139">
+      <c r="E140">
         <v>10076</v>
       </c>
-      <c r="F139">
+      <c r="F140">
         <v>89281</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>22454</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>309021</v>
       </c>
-      <c r="D140">
+      <c r="D141">
         <v>17116</v>
       </c>
-      <c r="E140">
+      <c r="E141">
         <v>10076</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>88826</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>22454</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>307153</v>
       </c>
-      <c r="D141">
+      <c r="D142">
         <v>17082</v>
       </c>
-      <c r="E141">
+      <c r="E142">
         <v>9849</v>
       </c>
-      <c r="F141">
+      <c r="F142">
         <v>88632</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>22454</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>307136</v>
       </c>
-      <c r="D142">
+      <c r="D143">
         <v>17072</v>
       </c>
-      <c r="E142">
+      <c r="E143">
         <v>9839</v>
       </c>
-      <c r="F142">
+      <c r="F143">
         <v>88066</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>22454</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>302392</v>
       </c>
-      <c r="D143">
+      <c r="D144">
         <v>17072</v>
       </c>
-      <c r="E143">
+      <c r="E144">
         <v>9839</v>
       </c>
-      <c r="F143">
+      <c r="F144">
         <v>87813</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>22453</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>300191</v>
       </c>
-      <c r="D144">
+      <c r="D145">
         <v>17067</v>
       </c>
-      <c r="E144">
+      <c r="E145">
         <v>9824</v>
       </c>
-      <c r="F144">
+      <c r="F145">
         <v>87753</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>22453</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>299817</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>17057</v>
       </c>
-      <c r="E145">
+      <c r="E146">
         <v>9824</v>
       </c>
-      <c r="F145">
+      <c r="F146">
         <v>86175</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>22453</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <v>298024</v>
       </c>
-      <c r="D146">
+      <c r="D147">
         <v>16895</v>
       </c>
-      <c r="E146">
+      <c r="E147">
         <v>9657</v>
       </c>
-      <c r="F146">
+      <c r="F147">
         <v>85765</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>22453</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>296306</v>
       </c>
-      <c r="D147">
+      <c r="D148">
         <v>16883</v>
       </c>
-      <c r="E147">
+      <c r="E148">
         <v>9642</v>
       </c>
-      <c r="F147">
+      <c r="F148">
         <v>85276</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>22453</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <v>295720</v>
       </c>
-      <c r="D148">
+      <c r="D149">
         <v>16879</v>
       </c>
-      <c r="E148">
+      <c r="E149">
         <v>9642</v>
       </c>
-      <c r="F148">
+      <c r="F149">
         <v>84606</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>22453</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>296177</v>
       </c>
-      <c r="D149">
+      <c r="D150">
         <v>16871</v>
       </c>
-      <c r="E149">
+      <c r="E150">
         <v>9142</v>
       </c>
-      <c r="F149">
+      <c r="F150">
         <v>84342</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>22453</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>295952</v>
       </c>
-      <c r="D150">
+      <c r="D151">
         <v>16861</v>
       </c>
-      <c r="E150">
+      <c r="E151">
         <v>9127</v>
       </c>
-      <c r="F150">
+      <c r="F151">
         <v>83687</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>22453</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>295959</v>
       </c>
-      <c r="D151">
+      <c r="D152">
         <v>16599</v>
       </c>
-      <c r="E151">
+      <c r="E152">
         <v>9127</v>
       </c>
-      <c r="F151">
+      <c r="F152">
         <v>82955</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>22453</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>298028</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>16595</v>
       </c>
-      <c r="E152">
+      <c r="E153">
         <v>9124</v>
       </c>
-      <c r="F152">
+      <c r="F153">
         <v>80190</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>22453</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>298262</v>
       </c>
-      <c r="D153">
+      <c r="D154">
         <v>16572</v>
       </c>
-      <c r="E153">
+      <c r="E154">
         <v>9123</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <v>80100</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>22453</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>297541</v>
       </c>
-      <c r="D154">
+      <c r="D155">
         <v>16552</v>
       </c>
-      <c r="E154">
+      <c r="E155">
         <v>9123</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <v>79674</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>22453</v>
       </c>
-      <c r="C155">
+      <c r="C156">
         <v>298121</v>
       </c>
-      <c r="D155">
+      <c r="D156">
         <v>16513</v>
       </c>
-      <c r="E155">
+      <c r="E156">
         <v>9123</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>78519</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>22453</v>
       </c>
-      <c r="C156">
+      <c r="C157">
         <v>297810</v>
       </c>
-      <c r="D156">
+      <c r="D157">
         <v>16485</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>9097</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <v>78031</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>22453</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <v>296081</v>
       </c>
-      <c r="D157">
+      <c r="D158">
         <v>16484</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>9097</v>
       </c>
-      <c r="F157">
+      <c r="F158">
         <v>77566</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <v>22453</v>
       </c>
-      <c r="C158">
+      <c r="C159">
         <v>294142</v>
       </c>
-      <c r="D158">
+      <c r="D159">
         <v>16483</v>
       </c>
-      <c r="E158">
+      <c r="E159">
         <v>9053</v>
       </c>
-      <c r="F158">
+      <c r="F159">
         <v>76666</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <v>24453</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>293909</v>
       </c>
-      <c r="D159">
+      <c r="D160">
         <v>16545</v>
       </c>
-      <c r="E159">
+      <c r="E160">
         <v>9053</v>
       </c>
-      <c r="F159">
+      <c r="F160">
         <v>75728</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>24453</v>
       </c>
-      <c r="C160">
+      <c r="C161">
         <v>293042</v>
       </c>
-      <c r="D160">
+      <c r="D161">
         <v>16549</v>
       </c>
-      <c r="E160">
+      <c r="E161">
         <v>9053</v>
       </c>
-      <c r="F160">
+      <c r="F161">
         <v>75377</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <v>24453</v>
       </c>
-      <c r="C161">
+      <c r="C162">
         <v>293931</v>
       </c>
-      <c r="D161">
+      <c r="D162">
         <v>16550</v>
       </c>
-      <c r="E161">
+      <c r="E162">
         <v>9053</v>
       </c>
-      <c r="F161">
+      <c r="F162">
         <v>74597</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>24453</v>
       </c>
-      <c r="C162">
+      <c r="C163">
         <v>293657</v>
       </c>
-      <c r="D162">
+      <c r="D163">
         <v>16547</v>
       </c>
-      <c r="E162">
+      <c r="E163">
         <v>9053</v>
       </c>
-      <c r="F162">
+      <c r="F163">
         <v>73046</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <v>24453</v>
       </c>
-      <c r="C163">
+      <c r="C164">
         <v>293213</v>
       </c>
-      <c r="D163">
+      <c r="D164">
         <v>16545</v>
       </c>
-      <c r="E163">
+      <c r="E164">
         <v>9023</v>
       </c>
-      <c r="F163">
+      <c r="F164">
         <v>72302</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>24453</v>
       </c>
-      <c r="C164">
+      <c r="C165">
         <v>292105</v>
       </c>
-      <c r="D164">
+      <c r="D165">
         <v>16534</v>
       </c>
-      <c r="E164">
+      <c r="E165">
         <v>9023</v>
       </c>
-      <c r="F164">
+      <c r="F165">
         <v>71585</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>24453</v>
       </c>
-      <c r="C165">
+      <c r="C166">
         <v>290888</v>
       </c>
-      <c r="D165">
+      <c r="D166">
         <v>16532</v>
       </c>
-      <c r="E165">
+      <c r="E166">
         <v>9023</v>
       </c>
-      <c r="F165">
+      <c r="F166">
         <v>71078</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>24453</v>
       </c>
-      <c r="C166">
+      <c r="C167">
         <v>288274</v>
       </c>
-      <c r="D166">
+      <c r="D167">
         <v>16532</v>
       </c>
-      <c r="E166">
+      <c r="E167">
         <v>9023</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>70744</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>24453</v>
       </c>
-      <c r="C167">
+      <c r="C168">
         <v>288343</v>
       </c>
-      <c r="D167">
+      <c r="D168">
         <v>15773</v>
       </c>
-      <c r="E167">
+      <c r="E168">
         <v>9023</v>
       </c>
-      <c r="F167">
+      <c r="F168">
         <v>70613</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>24453</v>
       </c>
-      <c r="C168">
+      <c r="C169">
         <v>290057</v>
       </c>
-      <c r="D168">
+      <c r="D169">
         <v>14324</v>
       </c>
-      <c r="E168">
+      <c r="E169">
         <v>9023</v>
       </c>
-      <c r="F168">
+      <c r="F169">
         <v>71076</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <v>24453</v>
       </c>
-      <c r="C169">
+      <c r="C170">
         <v>291975</v>
       </c>
-      <c r="D169">
+      <c r="D170">
         <v>13724</v>
       </c>
-      <c r="E169">
+      <c r="E170">
         <v>9023</v>
       </c>
-      <c r="F169">
+      <c r="F170">
         <v>70945</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <v>24453</v>
       </c>
-      <c r="C170">
+      <c r="C171">
         <v>293957</v>
       </c>
-      <c r="D170">
+      <c r="D171">
         <v>13728</v>
       </c>
-      <c r="E170">
+      <c r="E171">
         <v>9023</v>
       </c>
-      <c r="F170">
+      <c r="F171">
         <v>71587</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B171">
+      <c r="B172">
         <v>24453</v>
       </c>
-      <c r="C171">
+      <c r="C172">
         <v>294546</v>
       </c>
-      <c r="D171">
+      <c r="D172">
         <v>13728</v>
       </c>
-      <c r="E171">
+      <c r="E172">
         <v>9023</v>
       </c>
-      <c r="F171">
+      <c r="F172">
         <v>71630</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <f>DATE(2024,12,25)</f>
+        <v>45651</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B172">
+      <c r="B174">
         <v>24453</v>
       </c>
-      <c r="C172">
+      <c r="C174">
         <v>294548</v>
       </c>
-      <c r="D172">
+      <c r="D174">
         <v>13728</v>
       </c>
-      <c r="E172">
+      <c r="E174">
         <v>9023</v>
       </c>
-      <c r="F172">
+      <c r="F174">
         <v>71630</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B173">
+      <c r="B175">
         <v>24453</v>
       </c>
-      <c r="C173">
+      <c r="C175">
         <v>295328</v>
       </c>
-      <c r="D173">
+      <c r="D175">
         <v>13078</v>
       </c>
-      <c r="E173">
+      <c r="E175">
         <v>9023</v>
       </c>
-      <c r="F173">
+      <c r="F175">
         <v>71607</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B174">
+      <c r="B176">
         <v>24453</v>
       </c>
-      <c r="C174">
+      <c r="C176">
         <v>295576</v>
       </c>
-      <c r="D174">
+      <c r="D176">
         <v>12928</v>
       </c>
-      <c r="E174">
+      <c r="E176">
         <v>9023</v>
       </c>
-      <c r="F174">
+      <c r="F176">
         <v>71234</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B175">
+      <c r="B177">
         <v>24563</v>
       </c>
-      <c r="C175">
+      <c r="C177">
         <v>297267</v>
       </c>
-      <c r="D175">
+      <c r="D177">
         <v>12825</v>
       </c>
-      <c r="E175">
+      <c r="E177">
         <v>9023</v>
       </c>
-      <c r="F175">
+      <c r="F177">
         <v>71235</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B176">
+      <c r="B178">
         <v>24838</v>
       </c>
-      <c r="C176">
+      <c r="C178">
         <v>301001</v>
       </c>
-      <c r="D176">
+      <c r="D178">
         <v>11878</v>
       </c>
-      <c r="E176">
+      <c r="E178">
         <v>6745</v>
       </c>
-      <c r="F176">
+      <c r="F178">
         <v>70647</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B177">
+      <c r="B179">
         <v>22948</v>
       </c>
-      <c r="C177">
+      <c r="C179">
         <v>298481</v>
       </c>
-      <c r="D177">
+      <c r="D179">
         <v>11878</v>
       </c>
-      <c r="E177">
+      <c r="E179">
         <v>6745</v>
       </c>
-      <c r="F177">
+      <c r="F179">
         <v>70240</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B178">
+      <c r="B180">
         <v>22838</v>
       </c>
-      <c r="C178">
+      <c r="C180">
         <v>294651</v>
       </c>
-      <c r="D178">
+      <c r="D180">
         <v>11550</v>
       </c>
-      <c r="E178">
+      <c r="E180">
         <v>6745</v>
       </c>
-      <c r="F178">
+      <c r="F180">
         <v>69820</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B179">
+      <c r="B181">
         <v>22838</v>
       </c>
-      <c r="C179">
+      <c r="C181">
         <v>293743</v>
       </c>
-      <c r="D179">
+      <c r="D181">
         <v>11552</v>
       </c>
-      <c r="E179">
+      <c r="E181">
         <v>6745</v>
       </c>
-      <c r="F179">
+      <c r="F181">
         <v>69282</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B180">
+      <c r="B182">
         <v>21988</v>
       </c>
-      <c r="C180">
+      <c r="C182">
         <v>288113</v>
       </c>
-      <c r="D180">
+      <c r="D182">
         <v>11508</v>
       </c>
-      <c r="E180">
+      <c r="E182">
         <v>6745</v>
       </c>
-      <c r="F180">
+      <c r="F182">
         <v>69248</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B181">
+      <c r="B183">
         <v>23418</v>
       </c>
-      <c r="C181">
+      <c r="C183">
         <v>283521</v>
       </c>
-      <c r="D181">
+      <c r="D183">
         <v>11465</v>
       </c>
-      <c r="E181">
+      <c r="E183">
         <v>6745</v>
       </c>
-      <c r="F181">
+      <c r="F183">
         <v>68433</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B182">
+      <c r="B184">
         <v>23393</v>
       </c>
-      <c r="C182">
+      <c r="C184">
         <v>278267</v>
       </c>
-      <c r="D182">
+      <c r="D184">
         <v>11221</v>
       </c>
-      <c r="E182">
+      <c r="E184">
         <v>6745</v>
       </c>
-      <c r="F182">
+      <c r="F184">
         <v>68330</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B183">
+      <c r="B185">
         <v>23343</v>
       </c>
-      <c r="C183">
+      <c r="C185">
         <v>271912</v>
       </c>
-      <c r="D183">
+      <c r="D185">
         <v>11221</v>
       </c>
-      <c r="E183">
+      <c r="E185">
         <v>6745</v>
       </c>
-      <c r="F183">
+      <c r="F185">
         <v>67798</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B184">
+      <c r="B186">
         <v>23343</v>
       </c>
-      <c r="C184">
+      <c r="C186">
         <v>262513</v>
       </c>
-      <c r="D184">
+      <c r="D186">
         <v>11153</v>
       </c>
-      <c r="E184">
+      <c r="E186">
         <v>6745</v>
       </c>
-      <c r="F184">
+      <c r="F186">
         <v>67781</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B185">
+      <c r="B187">
         <v>23343</v>
       </c>
-      <c r="C185">
+      <c r="C187">
         <v>259235</v>
       </c>
-      <c r="D185">
+      <c r="D187">
         <v>11112</v>
       </c>
-      <c r="E185">
+      <c r="E187">
         <v>6745</v>
       </c>
-      <c r="F185">
+      <c r="F187">
         <v>67474</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B186">
+      <c r="B188">
         <v>23143</v>
       </c>
-      <c r="C186">
+      <c r="C188">
         <v>254567</v>
       </c>
-      <c r="D186">
+      <c r="D188">
         <v>10602</v>
       </c>
-      <c r="E186">
+      <c r="E188">
         <v>6745</v>
       </c>
-      <c r="F186">
+      <c r="F188">
         <v>67195</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B187">
+      <c r="B189">
         <v>23143</v>
       </c>
-      <c r="C187">
+      <c r="C189">
         <v>250176</v>
       </c>
-      <c r="D187">
+      <c r="D189">
         <v>10602</v>
       </c>
-      <c r="E187">
+      <c r="E189">
         <v>6745</v>
       </c>
-      <c r="F187">
+      <c r="F189">
         <v>66414</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B188">
+      <c r="B190">
         <v>23140</v>
       </c>
-      <c r="C188">
+      <c r="C190">
         <v>247746</v>
       </c>
-      <c r="D188">
+      <c r="D190">
         <v>10565</v>
       </c>
-      <c r="E188">
+      <c r="E190">
         <v>6745</v>
       </c>
-      <c r="F188">
+      <c r="F190">
         <v>64844</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B189">
+      <c r="B191">
         <v>23140</v>
       </c>
-      <c r="C189">
+      <c r="C191">
         <v>246043</v>
       </c>
-      <c r="D189">
+      <c r="D191">
         <v>10529</v>
       </c>
-      <c r="E189">
+      <c r="E191">
         <v>6745</v>
       </c>
-      <c r="F189">
+      <c r="F191">
         <v>64045</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B190">
+      <c r="B192">
         <v>23140</v>
       </c>
-      <c r="C190">
+      <c r="C192">
         <v>244430</v>
       </c>
-      <c r="D190">
+      <c r="D192">
         <v>10469</v>
       </c>
-      <c r="E190">
+      <c r="E192">
         <v>6745</v>
       </c>
-      <c r="F190">
+      <c r="F192">
         <v>63744</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B191">
+      <c r="B193">
         <v>23140</v>
       </c>
-      <c r="C191">
+      <c r="C193">
         <v>243229</v>
       </c>
-      <c r="D191">
+      <c r="D193">
         <v>10465</v>
       </c>
-      <c r="E191">
+      <c r="E193">
         <v>6695</v>
       </c>
-      <c r="F191">
+      <c r="F193">
         <v>62851</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B192">
+      <c r="B194">
         <v>23140</v>
       </c>
-      <c r="C192">
+      <c r="C194">
         <v>241479</v>
       </c>
-      <c r="D192">
+      <c r="D194">
         <v>10465</v>
       </c>
-      <c r="E192">
+      <c r="E194">
         <v>6695</v>
       </c>
-      <c r="F192">
+      <c r="F194">
         <v>62679</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B193">
+      <c r="B195">
         <v>23135</v>
       </c>
-      <c r="C193">
+      <c r="C195">
         <v>237969</v>
       </c>
-      <c r="D193">
+      <c r="D195">
         <v>10465</v>
       </c>
-      <c r="E193">
+      <c r="E195">
         <v>6595</v>
       </c>
-      <c r="F193">
+      <c r="F195">
         <v>62260</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B194">
+      <c r="B196">
         <v>23135</v>
       </c>
-      <c r="C194">
+      <c r="C196">
         <v>241559</v>
       </c>
-      <c r="D194">
+      <c r="D196">
         <v>10465</v>
       </c>
-      <c r="E194">
+      <c r="E196">
         <v>6595</v>
       </c>
-      <c r="F194">
+      <c r="F196">
         <v>62018</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B195">
+      <c r="B197">
         <v>23135</v>
       </c>
-      <c r="C195">
+      <c r="C197">
         <v>240880</v>
       </c>
-      <c r="D195">
+      <c r="D197">
         <v>10465</v>
       </c>
-      <c r="E195">
+      <c r="E197">
         <v>6595</v>
       </c>
-      <c r="F195">
+      <c r="F197">
         <v>60231</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B196">
+      <c r="B198">
         <v>23135</v>
       </c>
-      <c r="C196">
+      <c r="C198">
         <v>242718</v>
       </c>
-      <c r="D196">
+      <c r="D198">
         <v>10410</v>
       </c>
-      <c r="E196">
+      <c r="E198">
         <v>6245</v>
       </c>
-      <c r="F196">
+      <c r="F198">
         <v>59530</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B197">
+      <c r="B199">
         <v>23135</v>
       </c>
-      <c r="C197">
+      <c r="C199">
         <v>242146</v>
       </c>
-      <c r="D197">
+      <c r="D199">
         <v>10410</v>
       </c>
-      <c r="E197">
+      <c r="E199">
         <v>6238</v>
       </c>
-      <c r="F197">
+      <c r="F199">
         <v>59300</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B198">
+      <c r="B200">
         <v>23134</v>
       </c>
-      <c r="C198">
+      <c r="C200">
         <v>240186</v>
       </c>
-      <c r="D198">
+      <c r="D200">
         <v>9470</v>
       </c>
-      <c r="E198">
+      <c r="E200">
         <v>6238</v>
       </c>
-      <c r="F198">
+      <c r="F200">
         <v>58316</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B199">
+      <c r="B201">
         <v>23134</v>
       </c>
-      <c r="C199">
+      <c r="C201">
         <v>240124</v>
       </c>
-      <c r="D199">
+      <c r="D201">
         <v>9470</v>
       </c>
-      <c r="E199">
+      <c r="E201">
         <v>6238</v>
       </c>
-      <c r="F199">
+      <c r="F201">
         <v>58006</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B200">
+      <c r="B202">
         <v>22884</v>
       </c>
-      <c r="C200">
+      <c r="C202">
         <v>239097</v>
       </c>
-      <c r="D200">
+      <c r="D202">
         <v>9474</v>
       </c>
-      <c r="E200">
+      <c r="E202">
         <v>6238</v>
       </c>
-      <c r="F200">
+      <c r="F202">
         <v>57910</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B201">
+      <c r="B203">
         <v>22884</v>
       </c>
-      <c r="C201">
+      <c r="C203">
         <v>236767</v>
       </c>
-      <c r="D201">
+      <c r="D203">
         <v>9474</v>
       </c>
-      <c r="E201">
+      <c r="E203">
         <v>6238</v>
       </c>
-      <c r="F201">
+      <c r="F203">
         <v>56984</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B202">
+      <c r="B204">
         <v>22884</v>
       </c>
-      <c r="C202">
+      <c r="C204">
         <v>237379</v>
       </c>
-      <c r="D202">
+      <c r="D204">
         <v>9469</v>
       </c>
-      <c r="E202">
+      <c r="E204">
         <v>6208</v>
       </c>
-      <c r="F202">
+      <c r="F204">
         <v>56896</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B203">
+      <c r="B205">
         <v>22884</v>
       </c>
-      <c r="C203">
+      <c r="C205">
         <v>236910</v>
       </c>
-      <c r="D203">
+      <c r="D205">
         <v>9469</v>
       </c>
-      <c r="E203">
+      <c r="E205">
         <v>6208</v>
       </c>
-      <c r="F203">
+      <c r="F205">
         <v>56929</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B204">
+      <c r="B206">
         <v>22884</v>
       </c>
-      <c r="C204">
+      <c r="C206">
         <v>235001</v>
       </c>
-      <c r="D204">
+      <c r="D206">
         <v>9519</v>
       </c>
-      <c r="E204">
+      <c r="E206">
         <v>6208</v>
       </c>
-      <c r="F204">
+      <c r="F206">
         <v>56515</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B205">
+      <c r="B207">
         <v>22884</v>
       </c>
-      <c r="C205">
+      <c r="C207">
         <v>231619</v>
       </c>
-      <c r="D205">
+      <c r="D207">
         <v>9619</v>
       </c>
-      <c r="E205">
+      <c r="E207">
         <v>6208</v>
       </c>
-      <c r="F205">
+      <c r="F207">
         <v>56072</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B206">
+      <c r="B208">
         <v>22884</v>
       </c>
-      <c r="C206">
+      <c r="C208">
         <v>230601</v>
       </c>
-      <c r="D206">
+      <c r="D208">
         <v>9690</v>
       </c>
-      <c r="E206">
+      <c r="E208">
         <v>6108</v>
       </c>
-      <c r="F206">
+      <c r="F208">
         <v>55998</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B207">
+      <c r="B209">
         <v>22884</v>
       </c>
-      <c r="C207">
+      <c r="C209">
         <v>230374</v>
       </c>
-      <c r="D207">
+      <c r="D209">
         <v>9677</v>
       </c>
-      <c r="E207">
+      <c r="E209">
         <v>5923</v>
       </c>
-      <c r="F207">
+      <c r="F209">
         <v>54727</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B208">
+      <c r="B210">
         <v>22884</v>
       </c>
-      <c r="C208">
+      <c r="C210">
         <v>229045</v>
       </c>
-      <c r="D208">
+      <c r="D210">
         <v>9677</v>
       </c>
-      <c r="E208">
+      <c r="E210">
         <v>5923</v>
       </c>
-      <c r="F208">
+      <c r="F210">
         <v>54404</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B209">
+      <c r="B211">
         <v>22884</v>
       </c>
-      <c r="C209">
+      <c r="C211">
         <v>227307</v>
       </c>
-      <c r="D209">
+      <c r="D211">
         <v>9567</v>
       </c>
-      <c r="E209">
+      <c r="E211">
         <v>5923</v>
       </c>
-      <c r="F209">
+      <c r="F211">
         <v>54456</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B210">
+      <c r="B212">
         <v>22884</v>
       </c>
-      <c r="C210">
+      <c r="C212">
         <v>227231</v>
       </c>
-      <c r="D210">
+      <c r="D212">
         <v>9567</v>
       </c>
-      <c r="E210">
+      <c r="E212">
         <v>5923</v>
       </c>
-      <c r="F210">
+      <c r="F212">
         <v>53878</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B211">
+      <c r="B213">
         <v>22884</v>
       </c>
-      <c r="C211">
+      <c r="C213">
         <v>226655</v>
       </c>
-      <c r="D211">
+      <c r="D213">
         <v>9547</v>
       </c>
-      <c r="E211">
+      <c r="E213">
         <v>5923</v>
       </c>
-      <c r="F211">
+      <c r="F213">
         <v>53986</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B212">
+      <c r="B214">
         <v>22884</v>
       </c>
-      <c r="C212">
+      <c r="C214">
         <v>226326</v>
       </c>
-      <c r="D212">
+      <c r="D214">
         <v>9540</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <v>5923</v>
       </c>
-      <c r="F212">
+      <c r="F214">
         <v>53441</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B213">
+      <c r="B215">
         <v>22884</v>
       </c>
-      <c r="C213">
+      <c r="C215">
         <v>225848</v>
       </c>
-      <c r="D213">
+      <c r="D215">
         <v>9540</v>
       </c>
-      <c r="E213">
+      <c r="E215">
         <v>5923</v>
       </c>
-      <c r="F213">
+      <c r="F215">
         <v>52683</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B214">
+      <c r="B216">
         <v>21875</v>
       </c>
-      <c r="C214">
+      <c r="C216">
         <v>225509</v>
       </c>
-      <c r="D214">
+      <c r="D216">
         <v>9540</v>
       </c>
-      <c r="E214">
+      <c r="E216">
         <v>5923</v>
       </c>
-      <c r="F214">
+      <c r="F216">
         <v>52453</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B215">
+      <c r="B217">
         <v>21875</v>
       </c>
-      <c r="C215">
+      <c r="C217">
         <v>227510</v>
       </c>
-      <c r="D215">
+      <c r="D217">
         <v>9540</v>
       </c>
-      <c r="E215">
+      <c r="E217">
         <v>5923</v>
       </c>
-      <c r="F215">
+      <c r="F217">
         <v>51188</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B216">
+      <c r="B218">
         <v>21875</v>
       </c>
-      <c r="C216">
+      <c r="C218">
         <v>226876</v>
       </c>
-      <c r="D216">
+      <c r="D218">
         <v>9540</v>
       </c>
-      <c r="E216">
+      <c r="E218">
         <v>5923</v>
       </c>
-      <c r="F216">
+      <c r="F218">
         <v>51133</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B217">
+      <c r="B219">
         <v>21875</v>
       </c>
-      <c r="C217">
+      <c r="C219">
         <v>227039</v>
       </c>
-      <c r="D217">
+      <c r="D219">
         <v>9540</v>
       </c>
-      <c r="E217">
+      <c r="E219">
         <v>5923</v>
       </c>
-      <c r="F217">
+      <c r="F219">
         <v>51049</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B218">
+      <c r="B220">
         <v>21875</v>
       </c>
-      <c r="C218">
+      <c r="C220">
         <v>225342</v>
       </c>
-      <c r="D218">
+      <c r="D220">
         <v>9536</v>
       </c>
-      <c r="E218">
+      <c r="E220">
         <v>5923</v>
       </c>
-      <c r="F218">
+      <c r="F220">
         <v>51091</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B219">
+      <c r="B221">
         <v>21875</v>
       </c>
-      <c r="C219">
+      <c r="C221">
         <v>224244</v>
       </c>
-      <c r="D219">
+      <c r="D221">
         <v>9536</v>
       </c>
-      <c r="E219">
+      <c r="E221">
         <v>5723</v>
       </c>
-      <c r="F219">
+      <c r="F221">
         <v>51028</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B220">
+      <c r="B222">
         <v>21875</v>
       </c>
-      <c r="C220">
+      <c r="C222">
         <v>223763</v>
       </c>
-      <c r="D220">
+      <c r="D222">
         <v>9536</v>
       </c>
-      <c r="E220">
+      <c r="E222">
         <v>5723</v>
       </c>
-      <c r="F220">
+      <c r="F222">
         <v>50423</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B221">
+      <c r="B223">
         <v>21875</v>
       </c>
-      <c r="C221">
+      <c r="C223">
         <v>221765</v>
       </c>
-      <c r="D221">
+      <c r="D223">
         <v>9538</v>
       </c>
-      <c r="E221">
+      <c r="E223">
         <v>5723</v>
       </c>
-      <c r="F221">
+      <c r="F223">
         <v>49665</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B222">
+      <c r="B224">
         <v>21875</v>
       </c>
-      <c r="C222">
+      <c r="C224">
         <v>221165</v>
       </c>
-      <c r="D222">
+      <c r="D224">
         <v>9530</v>
       </c>
-      <c r="E222">
+      <c r="E224">
         <v>5723</v>
       </c>
-      <c r="F222">
+      <c r="F224">
         <v>48992</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B223">
+      <c r="B225">
         <v>21875</v>
       </c>
-      <c r="C223">
+      <c r="C225">
         <v>220105</v>
       </c>
-      <c r="D223">
+      <c r="D225">
         <v>9485</v>
       </c>
-      <c r="E223">
+      <c r="E225">
         <v>5723</v>
       </c>
-      <c r="F223">
+      <c r="F225">
         <v>48124</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B224">
+      <c r="B226">
         <v>22075</v>
       </c>
-      <c r="C224">
+      <c r="C226">
         <v>219760</v>
       </c>
-      <c r="D224">
+      <c r="D226">
         <v>9485</v>
       </c>
-      <c r="E224">
+      <c r="E226">
         <v>5723</v>
       </c>
-      <c r="F224">
+      <c r="F226">
         <v>47918</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B225">
+      <c r="B227">
         <v>22075</v>
       </c>
-      <c r="C225">
+      <c r="C227">
         <v>218844</v>
       </c>
-      <c r="D225">
+      <c r="D227">
         <v>9485</v>
       </c>
-      <c r="E225">
+      <c r="E227">
         <v>5723</v>
       </c>
-      <c r="F225">
+      <c r="F227">
         <v>47824</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B226">
+      <c r="B228">
         <v>22075</v>
       </c>
-      <c r="C226">
+      <c r="C228">
         <v>218706</v>
       </c>
-      <c r="D226">
+      <c r="D228">
         <v>9480</v>
       </c>
-      <c r="E226">
+      <c r="E228">
         <v>5723</v>
       </c>
-      <c r="F226">
+      <c r="F228">
         <v>47848</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B227">
+      <c r="B229">
         <v>22075</v>
       </c>
-      <c r="C227">
+      <c r="C229">
         <v>213895</v>
       </c>
-      <c r="D227">
+      <c r="D229">
         <v>8979</v>
       </c>
-      <c r="E227">
+      <c r="E229">
         <v>5723</v>
       </c>
-      <c r="F227">
+      <c r="F229">
         <v>47418</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B228">
+      <c r="B230">
         <v>22075</v>
       </c>
-      <c r="C228">
+      <c r="C230">
         <v>212171</v>
       </c>
-      <c r="D228">
+      <c r="D230">
         <v>8549</v>
       </c>
-      <c r="E228">
+      <c r="E230">
         <v>5723</v>
       </c>
-      <c r="F228">
+      <c r="F230">
         <v>46991</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B229">
+      <c r="B231">
         <v>22075</v>
       </c>
-      <c r="C229">
+      <c r="C231">
         <v>211471</v>
       </c>
-      <c r="D229">
+      <c r="D231">
         <v>8549</v>
       </c>
-      <c r="E229">
+      <c r="E231">
         <v>5723</v>
       </c>
-      <c r="F229">
+      <c r="F231">
         <v>46777</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B230">
+      <c r="B232">
         <v>22075</v>
       </c>
-      <c r="C230">
+      <c r="C232">
         <v>210463</v>
       </c>
-      <c r="D230">
+      <c r="D232">
         <v>8530</v>
       </c>
-      <c r="E230">
+      <c r="E232">
         <v>5723</v>
       </c>
-      <c r="F230">
+      <c r="F232">
         <v>46762</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B231">
+      <c r="B233">
         <v>22075</v>
       </c>
-      <c r="C231">
+      <c r="C233">
         <v>210552</v>
       </c>
-      <c r="D231">
+      <c r="D233">
         <v>8527</v>
       </c>
-      <c r="E231">
+      <c r="E233">
         <v>5723</v>
       </c>
-      <c r="F231">
+      <c r="F233">
         <v>46600</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B232">
+      <c r="B234">
         <v>22075</v>
       </c>
-      <c r="C232">
+      <c r="C234">
         <v>203830</v>
       </c>
-      <c r="D232">
+      <c r="D234">
         <v>8527</v>
       </c>
-      <c r="E232">
+      <c r="E234">
         <v>5473</v>
       </c>
-      <c r="F232">
+      <c r="F234">
         <v>45716</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B233">
+      <c r="B235">
         <v>22075</v>
       </c>
-      <c r="C233">
+      <c r="C235">
         <v>197874</v>
       </c>
-      <c r="D233">
+      <c r="D235">
         <v>8436</v>
       </c>
-      <c r="E233">
+      <c r="E235">
         <v>5473</v>
       </c>
-      <c r="F233">
+      <c r="F235">
         <v>45261</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B234">
+      <c r="B236">
         <v>22075</v>
       </c>
-      <c r="C234">
+      <c r="C236">
         <v>197129</v>
       </c>
-      <c r="D234">
+      <c r="D236">
         <v>8436</v>
       </c>
-      <c r="E234">
+      <c r="E236">
         <v>5473</v>
       </c>
-      <c r="F234">
+      <c r="F236">
         <v>45232</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B235">
+      <c r="B237">
         <v>22075</v>
       </c>
-      <c r="C235">
+      <c r="C237">
         <v>196698</v>
       </c>
-      <c r="D235">
+      <c r="D237">
         <v>8436</v>
       </c>
-      <c r="E235">
+      <c r="E237">
         <v>5355</v>
       </c>
-      <c r="F235">
+      <c r="F237">
         <v>45271</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B236">
+      <c r="B238">
         <v>22163</v>
       </c>
-      <c r="C236">
+      <c r="C238">
         <v>194595</v>
       </c>
-      <c r="D236">
+      <c r="D238">
         <v>8436</v>
       </c>
-      <c r="E236">
+      <c r="E238">
         <v>5355</v>
       </c>
-      <c r="F236">
+      <c r="F238">
         <v>45226</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B237">
+      <c r="B239">
         <v>15813</v>
       </c>
-      <c r="C237">
+      <c r="C239">
         <v>193567</v>
       </c>
-      <c r="D237">
+      <c r="D239">
         <v>8436</v>
       </c>
-      <c r="E237">
+      <c r="E239">
         <v>5355</v>
       </c>
-      <c r="F237">
+      <c r="F239">
         <v>45184</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B238">
+      <c r="B240">
         <v>15813</v>
       </c>
-      <c r="C238">
+      <c r="C240">
         <v>192155</v>
       </c>
-      <c r="D238">
+      <c r="D240">
         <v>8436</v>
       </c>
-      <c r="E238">
+      <c r="E240">
         <v>5355</v>
       </c>
-      <c r="F238">
+      <c r="F240">
         <v>45282</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,9,20)</f>
         <v>45555</v>
       </c>
-      <c r="B239">
+      <c r="B241">
         <v>15813</v>
       </c>
-      <c r="C239">
+      <c r="C241">
         <v>190546</v>
       </c>
-      <c r="D239">
+      <c r="D241">
         <v>8436</v>
       </c>
-      <c r="E239">
+      <c r="E241">
         <v>5355</v>
       </c>
-      <c r="F239">
+      <c r="F241">
         <v>44347</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,9,19)</f>
         <v>45554</v>
       </c>
-      <c r="B240">
+      <c r="B242">
         <v>15813</v>
       </c>
-      <c r="C240">
+      <c r="C242">
         <v>190387</v>
       </c>
-      <c r="D240">
+      <c r="D242">
         <v>8436</v>
       </c>
-      <c r="E240">
+      <c r="E242">
         <v>5355</v>
       </c>
-      <c r="F240">
+      <c r="F242">
         <v>44138</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,9,18)</f>
         <v>45553</v>
       </c>
-      <c r="B241">
+      <c r="B243">
         <v>13763</v>
       </c>
-      <c r="C241">
+      <c r="C243">
         <v>189493</v>
       </c>
-      <c r="D241">
+      <c r="D243">
         <v>8411</v>
       </c>
-      <c r="E241">
+      <c r="E243">
         <v>5355</v>
       </c>
-      <c r="F241">
+      <c r="F243">
         <v>43888</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,9,17)</f>
         <v>45552</v>
       </c>
-      <c r="B242">
+      <c r="B244">
         <v>13763</v>
       </c>
-      <c r="C242">
+      <c r="C244">
         <v>189036</v>
       </c>
-      <c r="D242">
+      <c r="D244">
         <v>8405</v>
       </c>
-      <c r="E242">
+      <c r="E244">
         <v>5355</v>
       </c>
-      <c r="F242">
+      <c r="F244">
         <v>43717</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,9,16)</f>
         <v>45551</v>
       </c>
-      <c r="B243">
+      <c r="B245">
         <v>13763</v>
       </c>
-      <c r="C243">
+      <c r="C245">
         <v>189674</v>
       </c>
-      <c r="D243">
+      <c r="D245">
         <v>8405</v>
       </c>
-      <c r="E243">
+      <c r="E245">
         <v>5355</v>
       </c>
-      <c r="F243">
+      <c r="F245">
         <v>42926</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,9,13)</f>
         <v>45548</v>
       </c>
-      <c r="B244">
+      <c r="B246">
         <v>13760</v>
       </c>
-      <c r="C244">
+      <c r="C246">
         <v>190449</v>
       </c>
-      <c r="D244">
+      <c r="D246">
         <v>8368</v>
       </c>
-      <c r="E244">
+      <c r="E246">
         <v>5355</v>
       </c>
-      <c r="F244">
+      <c r="F246">
         <v>42350</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,9,12)</f>
         <v>45547</v>
       </c>
-      <c r="B245">
+      <c r="B247">
         <v>13760</v>
       </c>
-      <c r="C245">
+      <c r="C247">
         <v>190306</v>
       </c>
-      <c r="D245">
+      <c r="D247">
         <v>8368</v>
       </c>
-      <c r="E245">
+      <c r="E247">
         <v>5355</v>
       </c>
-      <c r="F245">
+      <c r="F247">
         <v>42577</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,9,11)</f>
         <v>45546</v>
       </c>
-      <c r="B246">
+      <c r="B248">
         <v>13760</v>
       </c>
-      <c r="C246">
+      <c r="C248">
         <v>190071</v>
       </c>
-      <c r="D246">
+      <c r="D248">
         <v>8367</v>
       </c>
-      <c r="E246">
+      <c r="E248">
         <v>5355</v>
       </c>
-      <c r="F246">
+      <c r="F248">
         <v>42349</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,9,10)</f>
         <v>45545</v>
       </c>
-      <c r="B247">
+      <c r="B249">
         <v>13760</v>
       </c>
-      <c r="C247">
+      <c r="C249">
         <v>191308</v>
       </c>
-      <c r="D247">
+      <c r="D249">
         <v>8357</v>
       </c>
-      <c r="E247">
+      <c r="E249">
         <v>5355</v>
       </c>
-      <c r="F247">
+      <c r="F249">
         <v>41864</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,9,9)</f>
         <v>45544</v>
       </c>
-      <c r="B248">
+      <c r="B250">
         <v>13760</v>
       </c>
-      <c r="C248">
+      <c r="C250">
         <v>190241</v>
       </c>
-      <c r="D248">
+      <c r="D250">
         <v>7636</v>
       </c>
-      <c r="E248">
+      <c r="E250">
         <v>5355</v>
       </c>
-      <c r="F248">
+      <c r="F250">
         <v>41723</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,9,6)</f>
         <v>45541</v>
       </c>
-      <c r="B249">
+      <c r="B251">
         <v>13760</v>
       </c>
-      <c r="C249">
+      <c r="C251">
         <v>188662</v>
       </c>
-      <c r="D249">
+      <c r="D251">
         <v>7083</v>
       </c>
-      <c r="E249">
+      <c r="E251">
         <v>5355</v>
       </c>
-      <c r="F249">
+      <c r="F251">
         <v>41637</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,9,5)</f>
         <v>45540</v>
       </c>
-      <c r="B250">
+      <c r="B252">
         <v>13760</v>
       </c>
-      <c r="C250">
+      <c r="C252">
         <v>181332</v>
       </c>
-      <c r="D250">
+      <c r="D252">
         <v>7083</v>
       </c>
-      <c r="E250">
+      <c r="E252">
         <v>5355</v>
       </c>
-      <c r="F250">
+      <c r="F252">
         <v>40826</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,9,4)</f>
         <v>45539</v>
       </c>
-      <c r="B251">
+      <c r="B253">
         <v>13760</v>
       </c>
-      <c r="C251">
+      <c r="C253">
         <v>180006</v>
       </c>
-      <c r="D251">
+      <c r="D253">
         <v>7082</v>
       </c>
-      <c r="E251">
+      <c r="E253">
         <v>5355</v>
       </c>
-      <c r="F251">
+      <c r="F253">
         <v>39752</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,9,3)</f>
         <v>45538</v>
       </c>
-      <c r="B252">
+      <c r="B254">
         <v>13760</v>
       </c>
-      <c r="C252">
+      <c r="C254">
         <v>178478</v>
       </c>
-      <c r="D252">
+      <c r="D254">
         <v>7061</v>
       </c>
-      <c r="E252">
+      <c r="E254">
         <v>5355</v>
       </c>
-      <c r="F252">
+      <c r="F254">
         <v>39608</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,9,2)</f>
         <v>45537</v>
       </c>
-      <c r="B253">
+      <c r="B255">
         <v>13760</v>
       </c>
-      <c r="C253">
+      <c r="C255">
         <v>177750</v>
       </c>
-      <c r="D253">
+      <c r="D255">
         <v>7061</v>
       </c>
-      <c r="E253">
+      <c r="E255">
         <v>5355</v>
       </c>
-      <c r="F253">
+      <c r="F255">
         <v>39391</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,8,30)</f>
         <v>45534</v>
       </c>
-      <c r="B254">
+      <c r="B256">
         <v>13710</v>
       </c>
-      <c r="C254">
+      <c r="C256">
         <v>177653</v>
       </c>
-      <c r="D254">
+      <c r="D256">
         <v>7061</v>
       </c>
-      <c r="E254">
+      <c r="E256">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F256">
         <v>39276</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,8,29)</f>
         <v>45533</v>
       </c>
-      <c r="B255">
+      <c r="B257">
         <v>13710</v>
       </c>
-      <c r="C255">
+      <c r="C257">
         <v>176674</v>
       </c>
-      <c r="D255">
+      <c r="D257">
         <v>7061</v>
       </c>
-      <c r="E255">
+      <c r="E257">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F257">
         <v>39072</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,8,28)</f>
         <v>45532</v>
       </c>
-      <c r="B256">
+      <c r="B258">
         <v>13710</v>
       </c>
-      <c r="C256">
+      <c r="C258">
         <v>176117</v>
       </c>
-      <c r="D256">
+      <c r="D258">
         <v>7061</v>
       </c>
-      <c r="E256">
+      <c r="E258">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F258">
         <v>37790</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,8,27)</f>
         <v>45531</v>
       </c>
-      <c r="B257">
+      <c r="B259">
         <v>13710</v>
       </c>
-      <c r="C257">
+      <c r="C259">
         <v>175271</v>
       </c>
-      <c r="D257">
+      <c r="D259">
         <v>7061</v>
       </c>
-      <c r="E257">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F257">
+      <c r="F259">
         <v>37787</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,8,26)</f>
         <v>45530</v>
       </c>
-      <c r="B258">
+      <c r="B260">
         <v>13710</v>
       </c>
-      <c r="C258">
+      <c r="C260">
         <v>175115</v>
       </c>
-      <c r="D258">
+      <c r="D260">
         <v>7061</v>
       </c>
-      <c r="E258">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F258">
+      <c r="F260">
         <v>37432</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,8,23)</f>
         <v>45527</v>
       </c>
-      <c r="B259">
+      <c r="B261">
         <v>13710</v>
       </c>
-      <c r="C259">
+      <c r="C261">
         <v>174789</v>
       </c>
-      <c r="D259">
+      <c r="D261">
         <v>7061</v>
       </c>
-      <c r="E259">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F259">
+      <c r="F261">
         <v>37384</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,8,22)</f>
         <v>45526</v>
       </c>
-      <c r="B260">
+      <c r="B262">
         <v>13710</v>
       </c>
-      <c r="C260">
+      <c r="C262">
         <v>174481</v>
       </c>
-      <c r="D260">
+      <c r="D262">
         <v>7061</v>
       </c>
-      <c r="E260">
+      <c r="E262">
         <v>5355</v>
       </c>
-      <c r="F260">
+      <c r="F262">
         <v>36792</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
         <f>DATE(2024,8,21)</f>
         <v>45525</v>
       </c>
-      <c r="B261">
+      <c r="B263">
         <v>13710</v>
       </c>
-      <c r="C261">
+      <c r="C263">
         <v>174081</v>
       </c>
-      <c r="D261">
+      <c r="D263">
         <v>7061</v>
       </c>
-      <c r="E261">
+      <c r="E263">
         <v>5355</v>
       </c>
-      <c r="F261">
+      <c r="F263">
         <v>36678</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <f>DATE(2024,8,20)</f>
-        <v>45524</v>
-      </c>
-      <c r="B262">
-        <v>13710</v>
-      </c>
-      <c r="C262">
-        <v>173956</v>
-      </c>
-      <c r="D262">
-        <v>7061</v>
-      </c>
-      <c r="E262">
-        <v>5355</v>
-      </c>
-      <c r="F262">
-        <v>36528</v>
       </c>
     </row>
   </sheetData>
@@ -12867,7 +12891,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12876,172 +12900,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <f>_xll.ICEQuotes(A2:A19,B1:B1)</f>
         <v>Quote Table</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
         <v>70.91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
         <v>71.040000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
         <v>71.180000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
         <v>71.290000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
         <v>71.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
         <v>72.31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
         <v>72.78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
         <v>73.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
         <v>73.72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
         <v>74.27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
         <v>74.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
         <v>75.430000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
         <v>76.08</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
         <v>76.73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
         <v>77.95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
         <v>80.599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
         <v>83.7</v>
       </c>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9452967-2156-497B-A8C5-38AB70F39823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F75E1D-9A92-4D39-845E-8B34FEF31329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -997,21 +997,21 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>74.59</v>
+        <v>74.599999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>75.27</v>
+        <v>75.28</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>73.599999999999994</v>
+        <v>73.61</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1025,7 +1025,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>76.069999999999993</v>
+        <v>76.08</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1053,7 +1053,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>73.510000000000005</v>
+        <v>73.53</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1067,7 +1067,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>74.47</v>
+        <v>74.489999999999995</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1081,14 +1081,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>75.23</v>
+        <v>75.25</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>75.790000000000006</v>
+        <v>75.81</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1333,7 +1333,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>60</v>
+        <v>61</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1585,7 +1585,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>-0.20000000000000284</v>
+        <v>-0.15000000000000568</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -2259,7 +2259,7 @@
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>73.05</v>
+        <v>73.069999999999993</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2510,7 +2510,7 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.77</v>
+        <v>-0.76</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>71.150000000000006</v>
+        <v>71.16</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>71.66</v>
+        <v>71.67</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>72.180000000000007</v>
+        <v>72.19</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>72.48</v>
+        <v>72.489999999999995</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>70.78</v>
+        <v>70.790000000000006</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>70.92</v>
+        <v>70.930000000000007</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>71.069999999999993</v>
+        <v>71.08</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>72.7</v>
+        <v>72.709999999999994</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>73.06</v>
+        <v>73.069999999999993</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2845,49 +2845,49 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>72.59</v>
+        <v>72.599999999999994</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>73.02</v>
+        <v>73.040000000000006</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>72.08</v>
+        <v>72.099999999999994</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>75.23</v>
+        <v>75.28</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>72.42</v>
+        <v>72.430000000000007</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>71.12</v>
+        <v>71.13</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>71.61</v>
+        <v>71.62</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
@@ -3531,7 +3531,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>86</v>
+        <v>90</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,7 +3573,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1501</v>
+        <v>1553</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3762,7 +3762,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>-0.15000000000000568</v>
+        <v>-0.13000000000000966</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>70.78</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>70.92</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>71.069999999999993</v>
+        <v>71.08</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -5018,15 +5018,15 @@
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>71.12</v>
+        <v>71.13</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>71.150000000000006</v>
+        <v>71.16</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>1501</v>
+        <v>1553</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>71.61</v>
+        <v>71.62</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>71.66</v>
+        <v>71.67</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>72.08</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>72.180000000000007</v>
+        <v>72.19</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>72.42</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>72.48</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>72.59</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>72.7</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>73.05</v>
+        <v>73.069999999999993</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.13000000000000966</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
@@ -5228,15 +5228,15 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>73.02</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>73.06</v>
+        <v>73.069999999999993</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>73.510000000000005</v>
+        <v>73.53</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>73.599999999999994</v>
+        <v>73.61</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>74.47</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>74.59</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
@@ -5380,11 +5380,11 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>75.23</v>
+        <v>75.28</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>-0.20000000000000284</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
@@ -5396,15 +5396,15 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>75.23</v>
+        <v>75.25</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>75.27</v>
+        <v>75.28</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>75.790000000000006</v>
+        <v>75.81</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>76.069999999999993</v>
+        <v>76.08</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
@@ -7354,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10972,119 +10972,119 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <f>DATE(2024,12,25)</f>
-        <v>45651</v>
+        <f>DATE(2024,12,24)</f>
+        <v>45650</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>24453</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>294548</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>13728</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>9023</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>71630</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <f>DATE(2024,12,24)</f>
-        <v>45650</v>
+        <f>DATE(2024,12,23)</f>
+        <v>45649</v>
       </c>
       <c r="B174">
         <v>24453</v>
       </c>
       <c r="C174">
-        <v>294548</v>
+        <v>295328</v>
       </c>
       <c r="D174">
-        <v>13728</v>
+        <v>13078</v>
       </c>
       <c r="E174">
         <v>9023</v>
       </c>
       <c r="F174">
-        <v>71630</v>
+        <v>71607</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <f>DATE(2024,12,23)</f>
-        <v>45649</v>
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
       </c>
       <c r="B175">
         <v>24453</v>
       </c>
       <c r="C175">
-        <v>295328</v>
+        <v>295576</v>
       </c>
       <c r="D175">
-        <v>13078</v>
+        <v>12928</v>
       </c>
       <c r="E175">
         <v>9023</v>
       </c>
       <c r="F175">
-        <v>71607</v>
+        <v>71234</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2024,12,19)</f>
+        <v>45645</v>
       </c>
       <c r="B176">
-        <v>24453</v>
+        <v>24563</v>
       </c>
       <c r="C176">
-        <v>295576</v>
+        <v>297267</v>
       </c>
       <c r="D176">
-        <v>12928</v>
+        <v>12825</v>
       </c>
       <c r="E176">
         <v>9023</v>
       </c>
       <c r="F176">
-        <v>71234</v>
+        <v>71235</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <f>DATE(2024,12,19)</f>
-        <v>45645</v>
+        <f>DATE(2024,12,18)</f>
+        <v>45644</v>
       </c>
       <c r="B177">
-        <v>24563</v>
+        <v>24838</v>
       </c>
       <c r="C177">
-        <v>297267</v>
+        <v>301001</v>
       </c>
       <c r="D177">
-        <v>12825</v>
+        <v>11878</v>
       </c>
       <c r="E177">
-        <v>9023</v>
+        <v>6745</v>
       </c>
       <c r="F177">
-        <v>71235</v>
+        <v>70647</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <f>DATE(2024,12,18)</f>
-        <v>45644</v>
+        <f>DATE(2024,12,17)</f>
+        <v>45643</v>
       </c>
       <c r="B178">
-        <v>24838</v>
+        <v>22948</v>
       </c>
       <c r="C178">
-        <v>301001</v>
+        <v>298481</v>
       </c>
       <c r="D178">
         <v>11878</v>
@@ -11093,124 +11093,124 @@
         <v>6745</v>
       </c>
       <c r="F178">
-        <v>70647</v>
+        <v>70240</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <f>DATE(2024,12,17)</f>
-        <v>45643</v>
+        <f>DATE(2024,12,16)</f>
+        <v>45642</v>
       </c>
       <c r="B179">
-        <v>22948</v>
+        <v>22838</v>
       </c>
       <c r="C179">
-        <v>298481</v>
+        <v>294651</v>
       </c>
       <c r="D179">
-        <v>11878</v>
+        <v>11550</v>
       </c>
       <c r="E179">
         <v>6745</v>
       </c>
       <c r="F179">
-        <v>70240</v>
+        <v>69820</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <f>DATE(2024,12,16)</f>
-        <v>45642</v>
+        <f>DATE(2024,12,13)</f>
+        <v>45639</v>
       </c>
       <c r="B180">
         <v>22838</v>
       </c>
       <c r="C180">
-        <v>294651</v>
+        <v>293743</v>
       </c>
       <c r="D180">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="E180">
         <v>6745</v>
       </c>
       <c r="F180">
-        <v>69820</v>
+        <v>69282</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <f>DATE(2024,12,13)</f>
-        <v>45639</v>
+        <f>DATE(2024,12,12)</f>
+        <v>45638</v>
       </c>
       <c r="B181">
-        <v>22838</v>
+        <v>21988</v>
       </c>
       <c r="C181">
-        <v>293743</v>
+        <v>288113</v>
       </c>
       <c r="D181">
-        <v>11552</v>
+        <v>11508</v>
       </c>
       <c r="E181">
         <v>6745</v>
       </c>
       <c r="F181">
-        <v>69282</v>
+        <v>69248</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <f>DATE(2024,12,12)</f>
-        <v>45638</v>
+        <f>DATE(2024,12,11)</f>
+        <v>45637</v>
       </c>
       <c r="B182">
-        <v>21988</v>
+        <v>23418</v>
       </c>
       <c r="C182">
-        <v>288113</v>
+        <v>283521</v>
       </c>
       <c r="D182">
-        <v>11508</v>
+        <v>11465</v>
       </c>
       <c r="E182">
         <v>6745</v>
       </c>
       <c r="F182">
-        <v>69248</v>
+        <v>68433</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <f>DATE(2024,12,11)</f>
-        <v>45637</v>
+        <f>DATE(2024,12,10)</f>
+        <v>45636</v>
       </c>
       <c r="B183">
-        <v>23418</v>
+        <v>23393</v>
       </c>
       <c r="C183">
-        <v>283521</v>
+        <v>278267</v>
       </c>
       <c r="D183">
-        <v>11465</v>
+        <v>11221</v>
       </c>
       <c r="E183">
         <v>6745</v>
       </c>
       <c r="F183">
-        <v>68433</v>
+        <v>68330</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <f>DATE(2024,12,10)</f>
-        <v>45636</v>
+        <f>DATE(2024,12,9)</f>
+        <v>45635</v>
       </c>
       <c r="B184">
-        <v>23393</v>
+        <v>23343</v>
       </c>
       <c r="C184">
-        <v>278267</v>
+        <v>271912</v>
       </c>
       <c r="D184">
         <v>11221</v>
@@ -11219,82 +11219,82 @@
         <v>6745</v>
       </c>
       <c r="F184">
-        <v>68330</v>
+        <v>67798</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <f>DATE(2024,12,9)</f>
-        <v>45635</v>
+        <f>DATE(2024,12,6)</f>
+        <v>45632</v>
       </c>
       <c r="B185">
         <v>23343</v>
       </c>
       <c r="C185">
-        <v>271912</v>
+        <v>262513</v>
       </c>
       <c r="D185">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E185">
         <v>6745</v>
       </c>
       <c r="F185">
-        <v>67798</v>
+        <v>67781</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <f>DATE(2024,12,6)</f>
-        <v>45632</v>
+        <f>DATE(2024,12,5)</f>
+        <v>45631</v>
       </c>
       <c r="B186">
         <v>23343</v>
       </c>
       <c r="C186">
-        <v>262513</v>
+        <v>259235</v>
       </c>
       <c r="D186">
-        <v>11153</v>
+        <v>11112</v>
       </c>
       <c r="E186">
         <v>6745</v>
       </c>
       <c r="F186">
-        <v>67781</v>
+        <v>67474</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <f>DATE(2024,12,5)</f>
-        <v>45631</v>
+        <f>DATE(2024,12,4)</f>
+        <v>45630</v>
       </c>
       <c r="B187">
-        <v>23343</v>
+        <v>23143</v>
       </c>
       <c r="C187">
-        <v>259235</v>
+        <v>254567</v>
       </c>
       <c r="D187">
-        <v>11112</v>
+        <v>10602</v>
       </c>
       <c r="E187">
         <v>6745</v>
       </c>
       <c r="F187">
-        <v>67474</v>
+        <v>67195</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <f>DATE(2024,12,4)</f>
-        <v>45630</v>
+        <f>DATE(2024,12,3)</f>
+        <v>45629</v>
       </c>
       <c r="B188">
         <v>23143</v>
       </c>
       <c r="C188">
-        <v>254567</v>
+        <v>250176</v>
       </c>
       <c r="D188">
         <v>10602</v>
@@ -11303,103 +11303,103 @@
         <v>6745</v>
       </c>
       <c r="F188">
-        <v>67195</v>
+        <v>66414</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <f>DATE(2024,12,3)</f>
-        <v>45629</v>
+        <f>DATE(2024,12,2)</f>
+        <v>45628</v>
       </c>
       <c r="B189">
-        <v>23143</v>
+        <v>23140</v>
       </c>
       <c r="C189">
-        <v>250176</v>
+        <v>247746</v>
       </c>
       <c r="D189">
-        <v>10602</v>
+        <v>10565</v>
       </c>
       <c r="E189">
         <v>6745</v>
       </c>
       <c r="F189">
-        <v>66414</v>
+        <v>64844</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <f>DATE(2024,12,2)</f>
-        <v>45628</v>
+        <f>DATE(2024,11,29)</f>
+        <v>45625</v>
       </c>
       <c r="B190">
         <v>23140</v>
       </c>
       <c r="C190">
-        <v>247746</v>
+        <v>246043</v>
       </c>
       <c r="D190">
-        <v>10565</v>
+        <v>10529</v>
       </c>
       <c r="E190">
         <v>6745</v>
       </c>
       <c r="F190">
-        <v>64844</v>
+        <v>64045</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f>DATE(2024,11,29)</f>
-        <v>45625</v>
+        <f>DATE(2024,11,28)</f>
+        <v>45624</v>
       </c>
       <c r="B191">
         <v>23140</v>
       </c>
       <c r="C191">
-        <v>246043</v>
+        <v>244430</v>
       </c>
       <c r="D191">
-        <v>10529</v>
+        <v>10469</v>
       </c>
       <c r="E191">
         <v>6745</v>
       </c>
       <c r="F191">
-        <v>64045</v>
+        <v>63744</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <f>DATE(2024,11,28)</f>
-        <v>45624</v>
+        <f>DATE(2024,11,27)</f>
+        <v>45623</v>
       </c>
       <c r="B192">
         <v>23140</v>
       </c>
       <c r="C192">
-        <v>244430</v>
+        <v>243229</v>
       </c>
       <c r="D192">
-        <v>10469</v>
+        <v>10465</v>
       </c>
       <c r="E192">
-        <v>6745</v>
+        <v>6695</v>
       </c>
       <c r="F192">
-        <v>63744</v>
+        <v>62851</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <f>DATE(2024,11,27)</f>
-        <v>45623</v>
+        <f>DATE(2024,11,26)</f>
+        <v>45622</v>
       </c>
       <c r="B193">
         <v>23140</v>
       </c>
       <c r="C193">
-        <v>243229</v>
+        <v>241479</v>
       </c>
       <c r="D193">
         <v>10465</v>
@@ -11408,40 +11408,40 @@
         <v>6695</v>
       </c>
       <c r="F193">
-        <v>62851</v>
+        <v>62679</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <f>DATE(2024,11,26)</f>
-        <v>45622</v>
+        <f>DATE(2024,11,25)</f>
+        <v>45621</v>
       </c>
       <c r="B194">
-        <v>23140</v>
+        <v>23135</v>
       </c>
       <c r="C194">
-        <v>241479</v>
+        <v>237969</v>
       </c>
       <c r="D194">
         <v>10465</v>
       </c>
       <c r="E194">
-        <v>6695</v>
+        <v>6595</v>
       </c>
       <c r="F194">
-        <v>62679</v>
+        <v>62260</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <f>DATE(2024,11,25)</f>
-        <v>45621</v>
+        <f>DATE(2024,11,22)</f>
+        <v>45618</v>
       </c>
       <c r="B195">
         <v>23135</v>
       </c>
       <c r="C195">
-        <v>237969</v>
+        <v>241559</v>
       </c>
       <c r="D195">
         <v>10465</v>
@@ -11450,19 +11450,19 @@
         <v>6595</v>
       </c>
       <c r="F195">
-        <v>62260</v>
+        <v>62018</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <f>DATE(2024,11,22)</f>
-        <v>45618</v>
+        <f>DATE(2024,11,21)</f>
+        <v>45617</v>
       </c>
       <c r="B196">
         <v>23135</v>
       </c>
       <c r="C196">
-        <v>241559</v>
+        <v>240880</v>
       </c>
       <c r="D196">
         <v>10465</v>
@@ -11471,82 +11471,82 @@
         <v>6595</v>
       </c>
       <c r="F196">
-        <v>62018</v>
+        <v>60231</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <f>DATE(2024,11,21)</f>
-        <v>45617</v>
+        <f>DATE(2024,11,20)</f>
+        <v>45616</v>
       </c>
       <c r="B197">
         <v>23135</v>
       </c>
       <c r="C197">
-        <v>240880</v>
+        <v>242718</v>
       </c>
       <c r="D197">
-        <v>10465</v>
+        <v>10410</v>
       </c>
       <c r="E197">
-        <v>6595</v>
+        <v>6245</v>
       </c>
       <c r="F197">
-        <v>60231</v>
+        <v>59530</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <f>DATE(2024,11,20)</f>
-        <v>45616</v>
+        <f>DATE(2024,11,19)</f>
+        <v>45615</v>
       </c>
       <c r="B198">
         <v>23135</v>
       </c>
       <c r="C198">
-        <v>242718</v>
+        <v>242146</v>
       </c>
       <c r="D198">
         <v>10410</v>
       </c>
       <c r="E198">
-        <v>6245</v>
+        <v>6238</v>
       </c>
       <c r="F198">
-        <v>59530</v>
+        <v>59300</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <f>DATE(2024,11,19)</f>
-        <v>45615</v>
+        <f>DATE(2024,11,18)</f>
+        <v>45614</v>
       </c>
       <c r="B199">
-        <v>23135</v>
+        <v>23134</v>
       </c>
       <c r="C199">
-        <v>242146</v>
+        <v>240186</v>
       </c>
       <c r="D199">
-        <v>10410</v>
+        <v>9470</v>
       </c>
       <c r="E199">
         <v>6238</v>
       </c>
       <c r="F199">
-        <v>59300</v>
+        <v>58316</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <f>DATE(2024,11,18)</f>
-        <v>45614</v>
+        <f>DATE(2024,11,15)</f>
+        <v>45611</v>
       </c>
       <c r="B200">
         <v>23134</v>
       </c>
       <c r="C200">
-        <v>240186</v>
+        <v>240124</v>
       </c>
       <c r="D200">
         <v>9470</v>
@@ -11555,40 +11555,40 @@
         <v>6238</v>
       </c>
       <c r="F200">
-        <v>58316</v>
+        <v>58006</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <f>DATE(2024,11,15)</f>
-        <v>45611</v>
+        <f>DATE(2024,11,14)</f>
+        <v>45610</v>
       </c>
       <c r="B201">
-        <v>23134</v>
+        <v>22884</v>
       </c>
       <c r="C201">
-        <v>240124</v>
+        <v>239097</v>
       </c>
       <c r="D201">
-        <v>9470</v>
+        <v>9474</v>
       </c>
       <c r="E201">
         <v>6238</v>
       </c>
       <c r="F201">
-        <v>58006</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <f>DATE(2024,11,14)</f>
-        <v>45610</v>
+        <f>DATE(2024,11,13)</f>
+        <v>45609</v>
       </c>
       <c r="B202">
         <v>22884</v>
       </c>
       <c r="C202">
-        <v>239097</v>
+        <v>236767</v>
       </c>
       <c r="D202">
         <v>9474</v>
@@ -11597,40 +11597,40 @@
         <v>6238</v>
       </c>
       <c r="F202">
-        <v>57910</v>
+        <v>56984</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <f>DATE(2024,11,13)</f>
-        <v>45609</v>
+        <f>DATE(2024,11,12)</f>
+        <v>45608</v>
       </c>
       <c r="B203">
         <v>22884</v>
       </c>
       <c r="C203">
-        <v>236767</v>
+        <v>237379</v>
       </c>
       <c r="D203">
-        <v>9474</v>
+        <v>9469</v>
       </c>
       <c r="E203">
-        <v>6238</v>
+        <v>6208</v>
       </c>
       <c r="F203">
-        <v>56984</v>
+        <v>56896</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <f>DATE(2024,11,12)</f>
-        <v>45608</v>
+        <f>DATE(2024,11,11)</f>
+        <v>45607</v>
       </c>
       <c r="B204">
         <v>22884</v>
       </c>
       <c r="C204">
-        <v>237379</v>
+        <v>236910</v>
       </c>
       <c r="D204">
         <v>9469</v>
@@ -11639,103 +11639,103 @@
         <v>6208</v>
       </c>
       <c r="F204">
-        <v>56896</v>
+        <v>56929</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <f>DATE(2024,11,11)</f>
-        <v>45607</v>
+        <f>DATE(2024,11,8)</f>
+        <v>45604</v>
       </c>
       <c r="B205">
         <v>22884</v>
       </c>
       <c r="C205">
-        <v>236910</v>
+        <v>235001</v>
       </c>
       <c r="D205">
-        <v>9469</v>
+        <v>9519</v>
       </c>
       <c r="E205">
         <v>6208</v>
       </c>
       <c r="F205">
-        <v>56929</v>
+        <v>56515</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <f>DATE(2024,11,8)</f>
-        <v>45604</v>
+        <f>DATE(2024,11,7)</f>
+        <v>45603</v>
       </c>
       <c r="B206">
         <v>22884</v>
       </c>
       <c r="C206">
-        <v>235001</v>
+        <v>231619</v>
       </c>
       <c r="D206">
-        <v>9519</v>
+        <v>9619</v>
       </c>
       <c r="E206">
         <v>6208</v>
       </c>
       <c r="F206">
-        <v>56515</v>
+        <v>56072</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <f>DATE(2024,11,7)</f>
-        <v>45603</v>
+        <f>DATE(2024,11,6)</f>
+        <v>45602</v>
       </c>
       <c r="B207">
         <v>22884</v>
       </c>
       <c r="C207">
-        <v>231619</v>
+        <v>230601</v>
       </c>
       <c r="D207">
-        <v>9619</v>
+        <v>9690</v>
       </c>
       <c r="E207">
-        <v>6208</v>
+        <v>6108</v>
       </c>
       <c r="F207">
-        <v>56072</v>
+        <v>55998</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <f>DATE(2024,11,6)</f>
-        <v>45602</v>
+        <f>DATE(2024,11,5)</f>
+        <v>45601</v>
       </c>
       <c r="B208">
         <v>22884</v>
       </c>
       <c r="C208">
-        <v>230601</v>
+        <v>230374</v>
       </c>
       <c r="D208">
-        <v>9690</v>
+        <v>9677</v>
       </c>
       <c r="E208">
-        <v>6108</v>
+        <v>5923</v>
       </c>
       <c r="F208">
-        <v>55998</v>
+        <v>54727</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <f>DATE(2024,11,5)</f>
-        <v>45601</v>
+        <f>DATE(2024,11,4)</f>
+        <v>45600</v>
       </c>
       <c r="B209">
         <v>22884</v>
       </c>
       <c r="C209">
-        <v>230374</v>
+        <v>229045</v>
       </c>
       <c r="D209">
         <v>9677</v>
@@ -11744,40 +11744,40 @@
         <v>5923</v>
       </c>
       <c r="F209">
-        <v>54727</v>
+        <v>54404</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <f>DATE(2024,11,4)</f>
-        <v>45600</v>
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
       </c>
       <c r="B210">
         <v>22884</v>
       </c>
       <c r="C210">
-        <v>229045</v>
+        <v>227307</v>
       </c>
       <c r="D210">
-        <v>9677</v>
+        <v>9567</v>
       </c>
       <c r="E210">
         <v>5923</v>
       </c>
       <c r="F210">
-        <v>54404</v>
+        <v>54456</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f>DATE(2024,11,1)</f>
-        <v>45597</v>
+        <f>DATE(2024,10,31)</f>
+        <v>45596</v>
       </c>
       <c r="B211">
         <v>22884</v>
       </c>
       <c r="C211">
-        <v>227307</v>
+        <v>227231</v>
       </c>
       <c r="D211">
         <v>9567</v>
@@ -11786,61 +11786,61 @@
         <v>5923</v>
       </c>
       <c r="F211">
-        <v>54456</v>
+        <v>53878</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <f>DATE(2024,10,31)</f>
-        <v>45596</v>
+        <f>DATE(2024,10,30)</f>
+        <v>45595</v>
       </c>
       <c r="B212">
         <v>22884</v>
       </c>
       <c r="C212">
-        <v>227231</v>
+        <v>226655</v>
       </c>
       <c r="D212">
-        <v>9567</v>
+        <v>9547</v>
       </c>
       <c r="E212">
         <v>5923</v>
       </c>
       <c r="F212">
-        <v>53878</v>
+        <v>53986</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <f>DATE(2024,10,30)</f>
-        <v>45595</v>
+        <f>DATE(2024,10,29)</f>
+        <v>45594</v>
       </c>
       <c r="B213">
         <v>22884</v>
       </c>
       <c r="C213">
-        <v>226655</v>
+        <v>226326</v>
       </c>
       <c r="D213">
-        <v>9547</v>
+        <v>9540</v>
       </c>
       <c r="E213">
         <v>5923</v>
       </c>
       <c r="F213">
-        <v>53986</v>
+        <v>53441</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <f>DATE(2024,10,29)</f>
-        <v>45594</v>
+        <f>DATE(2024,10,28)</f>
+        <v>45593</v>
       </c>
       <c r="B214">
         <v>22884</v>
       </c>
       <c r="C214">
-        <v>226326</v>
+        <v>225848</v>
       </c>
       <c r="D214">
         <v>9540</v>
@@ -11849,19 +11849,19 @@
         <v>5923</v>
       </c>
       <c r="F214">
-        <v>53441</v>
+        <v>52683</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <f>DATE(2024,10,28)</f>
-        <v>45593</v>
+        <f>DATE(2024,10,25)</f>
+        <v>45590</v>
       </c>
       <c r="B215">
-        <v>22884</v>
+        <v>21875</v>
       </c>
       <c r="C215">
-        <v>225848</v>
+        <v>225509</v>
       </c>
       <c r="D215">
         <v>9540</v>
@@ -11870,19 +11870,19 @@
         <v>5923</v>
       </c>
       <c r="F215">
-        <v>52683</v>
+        <v>52453</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <f>DATE(2024,10,25)</f>
-        <v>45590</v>
+        <f>DATE(2024,10,24)</f>
+        <v>45589</v>
       </c>
       <c r="B216">
         <v>21875</v>
       </c>
       <c r="C216">
-        <v>225509</v>
+        <v>227510</v>
       </c>
       <c r="D216">
         <v>9540</v>
@@ -11891,19 +11891,19 @@
         <v>5923</v>
       </c>
       <c r="F216">
-        <v>52453</v>
+        <v>51188</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <f>DATE(2024,10,24)</f>
-        <v>45589</v>
+        <f>DATE(2024,10,23)</f>
+        <v>45588</v>
       </c>
       <c r="B217">
         <v>21875</v>
       </c>
       <c r="C217">
-        <v>227510</v>
+        <v>226876</v>
       </c>
       <c r="D217">
         <v>9540</v>
@@ -11912,19 +11912,19 @@
         <v>5923</v>
       </c>
       <c r="F217">
-        <v>51188</v>
+        <v>51133</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <f>DATE(2024,10,23)</f>
-        <v>45588</v>
+        <f>DATE(2024,10,22)</f>
+        <v>45587</v>
       </c>
       <c r="B218">
         <v>21875</v>
       </c>
       <c r="C218">
-        <v>226876</v>
+        <v>227039</v>
       </c>
       <c r="D218">
         <v>9540</v>
@@ -11933,61 +11933,61 @@
         <v>5923</v>
       </c>
       <c r="F218">
-        <v>51133</v>
+        <v>51049</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <f>DATE(2024,10,22)</f>
-        <v>45587</v>
+        <f>DATE(2024,10,21)</f>
+        <v>45586</v>
       </c>
       <c r="B219">
         <v>21875</v>
       </c>
       <c r="C219">
-        <v>227039</v>
+        <v>225342</v>
       </c>
       <c r="D219">
-        <v>9540</v>
+        <v>9536</v>
       </c>
       <c r="E219">
         <v>5923</v>
       </c>
       <c r="F219">
-        <v>51049</v>
+        <v>51091</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <f>DATE(2024,10,21)</f>
-        <v>45586</v>
+        <f>DATE(2024,10,18)</f>
+        <v>45583</v>
       </c>
       <c r="B220">
         <v>21875</v>
       </c>
       <c r="C220">
-        <v>225342</v>
+        <v>224244</v>
       </c>
       <c r="D220">
         <v>9536</v>
       </c>
       <c r="E220">
-        <v>5923</v>
+        <v>5723</v>
       </c>
       <c r="F220">
-        <v>51091</v>
+        <v>51028</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <f>DATE(2024,10,18)</f>
-        <v>45583</v>
+        <f>DATE(2024,10,17)</f>
+        <v>45582</v>
       </c>
       <c r="B221">
         <v>21875</v>
       </c>
       <c r="C221">
-        <v>224244</v>
+        <v>223763</v>
       </c>
       <c r="D221">
         <v>9536</v>
@@ -11996,82 +11996,82 @@
         <v>5723</v>
       </c>
       <c r="F221">
-        <v>51028</v>
+        <v>50423</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <f>DATE(2024,10,17)</f>
-        <v>45582</v>
+        <f>DATE(2024,10,16)</f>
+        <v>45581</v>
       </c>
       <c r="B222">
         <v>21875</v>
       </c>
       <c r="C222">
-        <v>223763</v>
+        <v>221765</v>
       </c>
       <c r="D222">
-        <v>9536</v>
+        <v>9538</v>
       </c>
       <c r="E222">
         <v>5723</v>
       </c>
       <c r="F222">
-        <v>50423</v>
+        <v>49665</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <f>DATE(2024,10,16)</f>
-        <v>45581</v>
+        <f>DATE(2024,10,15)</f>
+        <v>45580</v>
       </c>
       <c r="B223">
         <v>21875</v>
       </c>
       <c r="C223">
-        <v>221765</v>
+        <v>221165</v>
       </c>
       <c r="D223">
-        <v>9538</v>
+        <v>9530</v>
       </c>
       <c r="E223">
         <v>5723</v>
       </c>
       <c r="F223">
-        <v>49665</v>
+        <v>48992</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <f>DATE(2024,10,15)</f>
-        <v>45580</v>
+        <f>DATE(2024,10,14)</f>
+        <v>45579</v>
       </c>
       <c r="B224">
         <v>21875</v>
       </c>
       <c r="C224">
-        <v>221165</v>
+        <v>220105</v>
       </c>
       <c r="D224">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="E224">
         <v>5723</v>
       </c>
       <c r="F224">
-        <v>48992</v>
+        <v>48124</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <f>DATE(2024,10,14)</f>
-        <v>45579</v>
+        <f>DATE(2024,10,11)</f>
+        <v>45576</v>
       </c>
       <c r="B225">
-        <v>21875</v>
+        <v>22075</v>
       </c>
       <c r="C225">
-        <v>220105</v>
+        <v>219760</v>
       </c>
       <c r="D225">
         <v>9485</v>
@@ -12080,19 +12080,19 @@
         <v>5723</v>
       </c>
       <c r="F225">
-        <v>48124</v>
+        <v>47918</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <f>DATE(2024,10,11)</f>
-        <v>45576</v>
+        <f>DATE(2024,10,10)</f>
+        <v>45575</v>
       </c>
       <c r="B226">
         <v>22075</v>
       </c>
       <c r="C226">
-        <v>219760</v>
+        <v>218844</v>
       </c>
       <c r="D226">
         <v>9485</v>
@@ -12101,82 +12101,82 @@
         <v>5723</v>
       </c>
       <c r="F226">
-        <v>47918</v>
+        <v>47824</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <f>DATE(2024,10,10)</f>
-        <v>45575</v>
+        <f>DATE(2024,10,9)</f>
+        <v>45574</v>
       </c>
       <c r="B227">
         <v>22075</v>
       </c>
       <c r="C227">
-        <v>218844</v>
+        <v>218706</v>
       </c>
       <c r="D227">
-        <v>9485</v>
+        <v>9480</v>
       </c>
       <c r="E227">
         <v>5723</v>
       </c>
       <c r="F227">
-        <v>47824</v>
+        <v>47848</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <f>DATE(2024,10,9)</f>
-        <v>45574</v>
+        <f>DATE(2024,10,8)</f>
+        <v>45573</v>
       </c>
       <c r="B228">
         <v>22075</v>
       </c>
       <c r="C228">
-        <v>218706</v>
+        <v>213895</v>
       </c>
       <c r="D228">
-        <v>9480</v>
+        <v>8979</v>
       </c>
       <c r="E228">
         <v>5723</v>
       </c>
       <c r="F228">
-        <v>47848</v>
+        <v>47418</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <f>DATE(2024,10,8)</f>
-        <v>45573</v>
+        <f>DATE(2024,10,7)</f>
+        <v>45572</v>
       </c>
       <c r="B229">
         <v>22075</v>
       </c>
       <c r="C229">
-        <v>213895</v>
+        <v>212171</v>
       </c>
       <c r="D229">
-        <v>8979</v>
+        <v>8549</v>
       </c>
       <c r="E229">
         <v>5723</v>
       </c>
       <c r="F229">
-        <v>47418</v>
+        <v>46991</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <f>DATE(2024,10,7)</f>
-        <v>45572</v>
+        <f>DATE(2024,10,4)</f>
+        <v>45569</v>
       </c>
       <c r="B230">
         <v>22075</v>
       </c>
       <c r="C230">
-        <v>212171</v>
+        <v>211471</v>
       </c>
       <c r="D230">
         <v>8549</v>
@@ -12185,103 +12185,103 @@
         <v>5723</v>
       </c>
       <c r="F230">
-        <v>46991</v>
+        <v>46777</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <f>DATE(2024,10,4)</f>
-        <v>45569</v>
+        <f>DATE(2024,10,3)</f>
+        <v>45568</v>
       </c>
       <c r="B231">
         <v>22075</v>
       </c>
       <c r="C231">
-        <v>211471</v>
+        <v>210463</v>
       </c>
       <c r="D231">
-        <v>8549</v>
+        <v>8530</v>
       </c>
       <c r="E231">
         <v>5723</v>
       </c>
       <c r="F231">
-        <v>46777</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <f>DATE(2024,10,3)</f>
-        <v>45568</v>
+        <f>DATE(2024,10,2)</f>
+        <v>45567</v>
       </c>
       <c r="B232">
         <v>22075</v>
       </c>
       <c r="C232">
-        <v>210463</v>
+        <v>210552</v>
       </c>
       <c r="D232">
-        <v>8530</v>
+        <v>8527</v>
       </c>
       <c r="E232">
         <v>5723</v>
       </c>
       <c r="F232">
-        <v>46762</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <f>DATE(2024,10,2)</f>
-        <v>45567</v>
+        <f>DATE(2024,10,1)</f>
+        <v>45566</v>
       </c>
       <c r="B233">
         <v>22075</v>
       </c>
       <c r="C233">
-        <v>210552</v>
+        <v>203830</v>
       </c>
       <c r="D233">
         <v>8527</v>
       </c>
       <c r="E233">
-        <v>5723</v>
+        <v>5473</v>
       </c>
       <c r="F233">
-        <v>46600</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <f>DATE(2024,10,1)</f>
-        <v>45566</v>
+        <f>DATE(2024,9,30)</f>
+        <v>45565</v>
       </c>
       <c r="B234">
         <v>22075</v>
       </c>
       <c r="C234">
-        <v>203830</v>
+        <v>197874</v>
       </c>
       <c r="D234">
-        <v>8527</v>
+        <v>8436</v>
       </c>
       <c r="E234">
         <v>5473</v>
       </c>
       <c r="F234">
-        <v>45716</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <f>DATE(2024,9,30)</f>
-        <v>45565</v>
+        <f>DATE(2024,9,27)</f>
+        <v>45562</v>
       </c>
       <c r="B235">
         <v>22075</v>
       </c>
       <c r="C235">
-        <v>197874</v>
+        <v>197129</v>
       </c>
       <c r="D235">
         <v>8436</v>
@@ -12290,40 +12290,40 @@
         <v>5473</v>
       </c>
       <c r="F235">
-        <v>45261</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <f>DATE(2024,9,27)</f>
-        <v>45562</v>
+        <f>DATE(2024,9,26)</f>
+        <v>45561</v>
       </c>
       <c r="B236">
         <v>22075</v>
       </c>
       <c r="C236">
-        <v>197129</v>
+        <v>196698</v>
       </c>
       <c r="D236">
         <v>8436</v>
       </c>
       <c r="E236">
-        <v>5473</v>
+        <v>5355</v>
       </c>
       <c r="F236">
-        <v>45232</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <f>DATE(2024,9,26)</f>
-        <v>45561</v>
+        <f>DATE(2024,9,25)</f>
+        <v>45560</v>
       </c>
       <c r="B237">
-        <v>22075</v>
+        <v>22163</v>
       </c>
       <c r="C237">
-        <v>196698</v>
+        <v>194595</v>
       </c>
       <c r="D237">
         <v>8436</v>
@@ -12332,19 +12332,19 @@
         <v>5355</v>
       </c>
       <c r="F237">
-        <v>45271</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <f>DATE(2024,9,25)</f>
-        <v>45560</v>
+        <f>DATE(2024,9,24)</f>
+        <v>45559</v>
       </c>
       <c r="B238">
-        <v>22163</v>
+        <v>15813</v>
       </c>
       <c r="C238">
-        <v>194595</v>
+        <v>193567</v>
       </c>
       <c r="D238">
         <v>8436</v>
@@ -12353,19 +12353,19 @@
         <v>5355</v>
       </c>
       <c r="F238">
-        <v>45226</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <f>DATE(2024,9,24)</f>
-        <v>45559</v>
+        <f>DATE(2024,9,23)</f>
+        <v>45558</v>
       </c>
       <c r="B239">
         <v>15813</v>
       </c>
       <c r="C239">
-        <v>193567</v>
+        <v>192155</v>
       </c>
       <c r="D239">
         <v>8436</v>
@@ -12374,19 +12374,19 @@
         <v>5355</v>
       </c>
       <c r="F239">
-        <v>45184</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <f>DATE(2024,9,23)</f>
-        <v>45558</v>
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
       </c>
       <c r="B240">
         <v>15813</v>
       </c>
       <c r="C240">
-        <v>192155</v>
+        <v>190546</v>
       </c>
       <c r="D240">
         <v>8436</v>
@@ -12395,19 +12395,19 @@
         <v>5355</v>
       </c>
       <c r="F240">
-        <v>45282</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <f>DATE(2024,9,20)</f>
-        <v>45555</v>
+        <f>DATE(2024,9,19)</f>
+        <v>45554</v>
       </c>
       <c r="B241">
         <v>15813</v>
       </c>
       <c r="C241">
-        <v>190546</v>
+        <v>190387</v>
       </c>
       <c r="D241">
         <v>8436</v>
@@ -12416,61 +12416,61 @@
         <v>5355</v>
       </c>
       <c r="F241">
-        <v>44347</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <f>DATE(2024,9,19)</f>
-        <v>45554</v>
+        <f>DATE(2024,9,18)</f>
+        <v>45553</v>
       </c>
       <c r="B242">
-        <v>15813</v>
+        <v>13763</v>
       </c>
       <c r="C242">
-        <v>190387</v>
+        <v>189493</v>
       </c>
       <c r="D242">
-        <v>8436</v>
+        <v>8411</v>
       </c>
       <c r="E242">
         <v>5355</v>
       </c>
       <c r="F242">
-        <v>44138</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
+        <f>DATE(2024,9,17)</f>
+        <v>45552</v>
       </c>
       <c r="B243">
         <v>13763</v>
       </c>
       <c r="C243">
-        <v>189493</v>
+        <v>189036</v>
       </c>
       <c r="D243">
-        <v>8411</v>
+        <v>8405</v>
       </c>
       <c r="E243">
         <v>5355</v>
       </c>
       <c r="F243">
-        <v>43888</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <f>DATE(2024,9,17)</f>
-        <v>45552</v>
+        <f>DATE(2024,9,16)</f>
+        <v>45551</v>
       </c>
       <c r="B244">
         <v>13763</v>
       </c>
       <c r="C244">
-        <v>189036</v>
+        <v>189674</v>
       </c>
       <c r="D244">
         <v>8405</v>
@@ -12479,40 +12479,40 @@
         <v>5355</v>
       </c>
       <c r="F244">
-        <v>43717</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <f>DATE(2024,9,16)</f>
-        <v>45551</v>
+        <f>DATE(2024,9,13)</f>
+        <v>45548</v>
       </c>
       <c r="B245">
-        <v>13763</v>
+        <v>13760</v>
       </c>
       <c r="C245">
-        <v>189674</v>
+        <v>190449</v>
       </c>
       <c r="D245">
-        <v>8405</v>
+        <v>8368</v>
       </c>
       <c r="E245">
         <v>5355</v>
       </c>
       <c r="F245">
-        <v>42926</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <f>DATE(2024,9,13)</f>
-        <v>45548</v>
+        <f>DATE(2024,9,12)</f>
+        <v>45547</v>
       </c>
       <c r="B246">
         <v>13760</v>
       </c>
       <c r="C246">
-        <v>190449</v>
+        <v>190306</v>
       </c>
       <c r="D246">
         <v>8368</v>
@@ -12521,103 +12521,103 @@
         <v>5355</v>
       </c>
       <c r="F246">
-        <v>42350</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <f>DATE(2024,9,12)</f>
-        <v>45547</v>
+        <f>DATE(2024,9,11)</f>
+        <v>45546</v>
       </c>
       <c r="B247">
         <v>13760</v>
       </c>
       <c r="C247">
-        <v>190306</v>
+        <v>190071</v>
       </c>
       <c r="D247">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="E247">
         <v>5355</v>
       </c>
       <c r="F247">
-        <v>42577</v>
+        <v>42349</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <f>DATE(2024,9,11)</f>
-        <v>45546</v>
+        <f>DATE(2024,9,10)</f>
+        <v>45545</v>
       </c>
       <c r="B248">
         <v>13760</v>
       </c>
       <c r="C248">
-        <v>190071</v>
+        <v>191308</v>
       </c>
       <c r="D248">
-        <v>8367</v>
+        <v>8357</v>
       </c>
       <c r="E248">
         <v>5355</v>
       </c>
       <c r="F248">
-        <v>42349</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <f>DATE(2024,9,10)</f>
-        <v>45545</v>
+        <f>DATE(2024,9,9)</f>
+        <v>45544</v>
       </c>
       <c r="B249">
         <v>13760</v>
       </c>
       <c r="C249">
-        <v>191308</v>
+        <v>190241</v>
       </c>
       <c r="D249">
-        <v>8357</v>
+        <v>7636</v>
       </c>
       <c r="E249">
         <v>5355</v>
       </c>
       <c r="F249">
-        <v>41864</v>
+        <v>41723</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <f>DATE(2024,9,9)</f>
-        <v>45544</v>
+        <f>DATE(2024,9,6)</f>
+        <v>45541</v>
       </c>
       <c r="B250">
         <v>13760</v>
       </c>
       <c r="C250">
-        <v>190241</v>
+        <v>188662</v>
       </c>
       <c r="D250">
-        <v>7636</v>
+        <v>7083</v>
       </c>
       <c r="E250">
         <v>5355</v>
       </c>
       <c r="F250">
-        <v>41723</v>
+        <v>41637</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <f>DATE(2024,9,6)</f>
-        <v>45541</v>
+        <f>DATE(2024,9,5)</f>
+        <v>45540</v>
       </c>
       <c r="B251">
         <v>13760</v>
       </c>
       <c r="C251">
-        <v>188662</v>
+        <v>181332</v>
       </c>
       <c r="D251">
         <v>7083</v>
@@ -12626,61 +12626,61 @@
         <v>5355</v>
       </c>
       <c r="F251">
-        <v>41637</v>
+        <v>40826</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <f>DATE(2024,9,5)</f>
-        <v>45540</v>
+        <f>DATE(2024,9,4)</f>
+        <v>45539</v>
       </c>
       <c r="B252">
         <v>13760</v>
       </c>
       <c r="C252">
-        <v>181332</v>
+        <v>180006</v>
       </c>
       <c r="D252">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E252">
         <v>5355</v>
       </c>
       <c r="F252">
-        <v>40826</v>
+        <v>39752</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <f>DATE(2024,9,4)</f>
-        <v>45539</v>
+        <f>DATE(2024,9,3)</f>
+        <v>45538</v>
       </c>
       <c r="B253">
         <v>13760</v>
       </c>
       <c r="C253">
-        <v>180006</v>
+        <v>178478</v>
       </c>
       <c r="D253">
-        <v>7082</v>
+        <v>7061</v>
       </c>
       <c r="E253">
         <v>5355</v>
       </c>
       <c r="F253">
-        <v>39752</v>
+        <v>39608</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <f>DATE(2024,9,3)</f>
-        <v>45538</v>
+        <f>DATE(2024,9,2)</f>
+        <v>45537</v>
       </c>
       <c r="B254">
         <v>13760</v>
       </c>
       <c r="C254">
-        <v>178478</v>
+        <v>177750</v>
       </c>
       <c r="D254">
         <v>7061</v>
@@ -12689,19 +12689,19 @@
         <v>5355</v>
       </c>
       <c r="F254">
-        <v>39608</v>
+        <v>39391</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <f>DATE(2024,9,2)</f>
-        <v>45537</v>
+        <f>DATE(2024,8,30)</f>
+        <v>45534</v>
       </c>
       <c r="B255">
-        <v>13760</v>
+        <v>13710</v>
       </c>
       <c r="C255">
-        <v>177750</v>
+        <v>177653</v>
       </c>
       <c r="D255">
         <v>7061</v>
@@ -12710,19 +12710,19 @@
         <v>5355</v>
       </c>
       <c r="F255">
-        <v>39391</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <f>DATE(2024,8,30)</f>
-        <v>45534</v>
+        <f>DATE(2024,8,29)</f>
+        <v>45533</v>
       </c>
       <c r="B256">
         <v>13710</v>
       </c>
       <c r="C256">
-        <v>177653</v>
+        <v>176674</v>
       </c>
       <c r="D256">
         <v>7061</v>
@@ -12731,19 +12731,19 @@
         <v>5355</v>
       </c>
       <c r="F256">
-        <v>39276</v>
+        <v>39072</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <f>DATE(2024,8,29)</f>
-        <v>45533</v>
+        <f>DATE(2024,8,28)</f>
+        <v>45532</v>
       </c>
       <c r="B257">
         <v>13710</v>
       </c>
       <c r="C257">
-        <v>176674</v>
+        <v>176117</v>
       </c>
       <c r="D257">
         <v>7061</v>
@@ -12752,19 +12752,19 @@
         <v>5355</v>
       </c>
       <c r="F257">
-        <v>39072</v>
+        <v>37790</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <f>DATE(2024,8,28)</f>
-        <v>45532</v>
+        <f>DATE(2024,8,27)</f>
+        <v>45531</v>
       </c>
       <c r="B258">
         <v>13710</v>
       </c>
       <c r="C258">
-        <v>176117</v>
+        <v>175271</v>
       </c>
       <c r="D258">
         <v>7061</v>
@@ -12773,19 +12773,19 @@
         <v>5355</v>
       </c>
       <c r="F258">
-        <v>37790</v>
+        <v>37787</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <f>DATE(2024,8,27)</f>
-        <v>45531</v>
+        <f>DATE(2024,8,26)</f>
+        <v>45530</v>
       </c>
       <c r="B259">
         <v>13710</v>
       </c>
       <c r="C259">
-        <v>175271</v>
+        <v>175115</v>
       </c>
       <c r="D259">
         <v>7061</v>
@@ -12794,19 +12794,19 @@
         <v>5355</v>
       </c>
       <c r="F259">
-        <v>37787</v>
+        <v>37432</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <f>DATE(2024,8,26)</f>
-        <v>45530</v>
+        <f>DATE(2024,8,23)</f>
+        <v>45527</v>
       </c>
       <c r="B260">
         <v>13710</v>
       </c>
       <c r="C260">
-        <v>175115</v>
+        <v>174789</v>
       </c>
       <c r="D260">
         <v>7061</v>
@@ -12815,19 +12815,19 @@
         <v>5355</v>
       </c>
       <c r="F260">
-        <v>37432</v>
+        <v>37384</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <f>DATE(2024,8,23)</f>
-        <v>45527</v>
+        <f>DATE(2024,8,22)</f>
+        <v>45526</v>
       </c>
       <c r="B261">
         <v>13710</v>
       </c>
       <c r="C261">
-        <v>174789</v>
+        <v>174481</v>
       </c>
       <c r="D261">
         <v>7061</v>
@@ -12836,19 +12836,19 @@
         <v>5355</v>
       </c>
       <c r="F261">
-        <v>37384</v>
+        <v>36792</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <f>DATE(2024,8,22)</f>
-        <v>45526</v>
+        <f>DATE(2024,8,21)</f>
+        <v>45525</v>
       </c>
       <c r="B262">
         <v>13710</v>
       </c>
       <c r="C262">
-        <v>174481</v>
+        <v>174081</v>
       </c>
       <c r="D262">
         <v>7061</v>
@@ -12857,27 +12857,6 @@
         <v>5355</v>
       </c>
       <c r="F262">
-        <v>36792</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <f>DATE(2024,8,21)</f>
-        <v>45525</v>
-      </c>
-      <c r="B263">
-        <v>13710</v>
-      </c>
-      <c r="C263">
-        <v>174081</v>
-      </c>
-      <c r="D263">
-        <v>7061</v>
-      </c>
-      <c r="E263">
-        <v>5355</v>
-      </c>
-      <c r="F263">
         <v>36678</v>
       </c>
     </row>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F75E1D-9A92-4D39-845E-8B34FEF31329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A1DD6-CFF8-4F79-B700-36D877D559B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -269,14 +269,14 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Low</stp>
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>75.23</v>
+        <v>76.040000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
@@ -576,8 +576,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H39" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-1.0000000000000009E-2</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Change</stp>
@@ -773,49 +773,49 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>74.27</v>
+        <v>75.540000000000006</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>73.72</v>
+        <v>74.989999999999995</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>75.430000000000007</v>
+        <v>76.69</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>74.7</v>
+        <v>75.97</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>76.73</v>
+        <v>78.010000000000005</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>76.08</v>
+        <v>77.349999999999994</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>-0.65</v>
+        <v>-0.66</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -997,21 +997,21 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>74.599999999999994</v>
+        <v>75.489999999999995</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>75.28</v>
+        <v>76.180000000000007</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>73.61</v>
+        <v>74.489999999999995</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1025,7 +1025,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>76.08</v>
+        <v>77.23</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1053,7 +1053,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>73.53</v>
+        <v>74.430000000000007</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1067,28 +1067,28 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>74.489999999999995</v>
+        <v>75.400000000000006</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>-0.73</v>
+        <v>-0.72</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>75.25</v>
+        <v>76.150000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>75.81</v>
+        <v>76.69</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1109,14 +1109,14 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>-0.65</v>
+        <v>-0.66</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J28" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>High</stp>
@@ -1284,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>49</v>
+        <v>46</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1326,14 +1326,14 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>61</v>
+        <v>161</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1375,7 +1375,7 @@
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>4.0000000000000036E-2</v>
+        <v>3.0000000000000027E-2</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Change</stp>
@@ -1423,8 +1423,8 @@
         <stp>Last</stp>
         <tr r="B19" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1578,14 +1578,14 @@
         <tr r="C12" s="1"/>
       </tp>
       <tp>
-        <v>-0.15000000000000568</v>
+        <v>-0.12000000000000455</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Change</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>-0.15000000000000568</v>
+        <v>-0.53999999999999204</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1696,8 +1696,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J53" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.01</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Bid</stp>
@@ -1747,8 +1747,8 @@
         <stp>Low</stp>
         <tr r="E19" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Low</stp>
@@ -1789,8 +1789,8 @@
         <stp>Open Interest</stp>
         <tr r="I35" s="1"/>
       </tp>
-      <tp>
-        <v>72.44</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Last</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>71.14</v>
+        <v>71.989999999999995</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1845,8 +1845,8 @@
         <stp>Open Interest</stp>
         <tr r="I60" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.52</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1902,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>31</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>73.239999999999995</v>
+        <v>74.53</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>71.11</v>
+        <v>71.650000000000006</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2027,15 +2027,15 @@
         <stp>High</stp>
         <tr r="D7" s="1"/>
       </tp>
-      <tp>
-        <v>72.44</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>High</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>71.52</v>
+        <v>72.599999999999994</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2076,8 +2076,8 @@
         <stp>Open Interest</stp>
         <tr r="I58" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.58</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2125,29 +2125,29 @@
         <stp>High</stp>
         <tr r="D3" s="1"/>
       </tp>
-      <tp>
-        <v>-0.35</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G24" s="1"/>
       </tp>
-      <tp>
-        <v>-0.14000000000000001</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.27</v>
+        <v>-0.24</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>-0.46</v>
+        <v>-0.45</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2161,21 +2161,21 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>-0.49</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
-      <tp>
-        <v>-0.12</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>-0.12</v>
+        <v>-0.11</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Ask</stp>
@@ -2196,49 +2196,49 @@
         <tr r="F19" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>-0.36</v>
+        <v>-0.38</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>-0.53</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>-0.16</v>
+        <v>-0.19</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F18" s="1"/>
       </tp>
       <tp>
-        <v>-0.15</v>
+        <v>-0.16</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F17" s="1"/>
       </tp>
-      <tp>
-        <v>-0.44</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F24" s="1"/>
       </tp>
-      <tp>
-        <v>-0.25</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>71.11</v>
+        <v>71.650000000000006</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>73.069999999999993</v>
+        <v>73.930000000000007</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2287,21 +2287,21 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3443</v>
+        <v>3449</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>48143</v>
+        <v>48750</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>664</v>
+        <v>689</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2357,7 +2357,7 @@
         <tr r="F25" s="1"/>
       </tp>
       <tp>
-        <v>-0.49</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Ask</stp>
@@ -2371,7 +2371,7 @@
         <tr r="J24" s="1"/>
       </tp>
       <tp>
-        <v>-0.18</v>
+        <v>-0.21</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2406,7 +2406,7 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2429,7 +2429,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>76.73</v>
+        <v>78.010000000000005</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 15!-ICN</stp>
@@ -2437,7 +2437,7 @@
         <tr r="B16" s="4"/>
       </tp>
       <tp>
-        <v>76.08</v>
+        <v>77.349999999999994</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 14!-ICN</stp>
@@ -2445,7 +2445,7 @@
         <tr r="B15" s="4"/>
       </tp>
       <tp>
-        <v>80.599999999999994</v>
+        <v>82.11</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 17!-ICN</stp>
@@ -2453,7 +2453,7 @@
         <tr r="B18" s="4"/>
       </tp>
       <tp>
-        <v>77.95</v>
+        <v>79.25</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 16!-ICN</stp>
@@ -2461,7 +2461,7 @@
         <tr r="B17" s="4"/>
       </tp>
       <tp>
-        <v>74.27</v>
+        <v>75.540000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 11!-ICN</stp>
@@ -2469,7 +2469,7 @@
         <tr r="B12" s="4"/>
       </tp>
       <tp>
-        <v>73.72</v>
+        <v>74.989999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 10!-ICN</stp>
@@ -2477,7 +2477,7 @@
         <tr r="B11" s="4"/>
       </tp>
       <tp>
-        <v>75.430000000000007</v>
+        <v>76.69</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 13!-ICN</stp>
@@ -2485,7 +2485,7 @@
         <tr r="B14" s="4"/>
       </tp>
       <tp>
-        <v>74.7</v>
+        <v>75.97</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 12!-ICN</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B13" s="4"/>
       </tp>
       <tp>
-        <v>83.7</v>
+        <v>85.22</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 18!-ICN</stp>
@@ -2510,14 +2510,14 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.76</v>
+        <v>-0.77</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>-0.8</v>
+        <v>-1.06</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Bid</stp>
@@ -2533,7 +2533,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>72.78</v>
+        <v>74.05</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 8!-ICN</stp>
@@ -2541,7 +2541,7 @@
         <tr r="B9" s="4"/>
       </tp>
       <tp>
-        <v>73.2</v>
+        <v>74.47</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 9!-ICN</stp>
@@ -2549,7 +2549,7 @@
         <tr r="B10" s="4"/>
       </tp>
       <tp>
-        <v>71.290000000000006</v>
+        <v>72.53</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 4!-ICN</stp>
@@ -2557,7 +2557,7 @@
         <tr r="B5" s="4"/>
       </tp>
       <tp>
-        <v>71.8</v>
+        <v>73.040000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 5!-ICN</stp>
@@ -2565,7 +2565,7 @@
         <tr r="B6" s="4"/>
       </tp>
       <tp>
-        <v>72.31</v>
+        <v>73.55</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 6!-ICN</stp>
@@ -2573,7 +2573,7 @@
         <tr r="B7" s="4"/>
       </tp>
       <tp>
-        <v>72.599999999999994</v>
+        <v>73.84</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 7!-ICN</stp>
@@ -2581,7 +2581,7 @@
         <tr r="B8" s="4"/>
       </tp>
       <tp>
-        <v>70.91</v>
+        <v>72.13</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 1!-ICN</stp>
@@ -2589,7 +2589,7 @@
         <tr r="B2" s="4"/>
       </tp>
       <tp>
-        <v>71.040000000000006</v>
+        <v>72.260000000000005</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 2!-ICN</stp>
@@ -2597,7 +2597,7 @@
         <tr r="B3" s="4"/>
       </tp>
       <tp>
-        <v>71.180000000000007</v>
+        <v>72.42</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 3!-ICN</stp>
@@ -2614,14 +2614,14 @@
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>-0.68</v>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Ask</stp>
@@ -2642,21 +2642,21 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>166986</v>
+        <v>169313</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>335216</v>
+        <v>337516</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>32675</v>
+        <v>33952</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2670,21 +2670,21 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>16112</v>
+        <v>16141</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>55159</v>
+        <v>55494</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>7921</v>
+        <v>8371</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>71.16</v>
+        <v>72</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>71.67</v>
+        <v>72.52</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>72.19</v>
+        <v>73.06</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>72.489999999999995</v>
+        <v>73.349999999999994</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>70.790000000000006</v>
+        <v>71.62</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>70.930000000000007</v>
+        <v>71.77</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>71.08</v>
+        <v>71.92</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp>
-        <v>72.709999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>73.069999999999993</v>
+        <v>73.959999999999994</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2831,7 +2831,7 @@
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Last</stp>
@@ -2844,71 +2844,71 @@
         <stp>Last</stp>
         <tr r="B31" s="1"/>
       </tp>
-      <tp>
-        <v>72.599999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>73.040000000000006</v>
+        <v>73.930000000000007</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>72.099999999999994</v>
+        <v>72.95</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>75.28</v>
+        <v>76.150000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>72.430000000000007</v>
+        <v>73.290000000000006</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>71.13</v>
+        <v>71.98</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>71.62</v>
+        <v>72.48</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>70.87</v>
+        <v>71.709999999999994</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp>
-        <v>71.010000000000005</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>70.739999999999995</v>
+        <v>71.59</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3181,7 +3181,7 @@
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>High</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>75.38</v>
+        <v>76.59</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3307,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>72.989999999999995</v>
+        <v>73.83</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3335,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>71.11</v>
+        <v>71.599999999999994</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3377,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>71.06</v>
+        <v>71.819999999999993</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3390,8 +3390,8 @@
         <stp>High</stp>
         <tr r="D38" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>72.39</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3418,8 +3418,8 @@
         <stp>High</stp>
         <tr r="D36" s="1"/>
       </tp>
-      <tp>
-        <v>72.430000000000007</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Low</stp>
@@ -3531,7 +3531,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>90</v>
+        <v>268</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>31</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3566,21 +3566,21 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1553</v>
+        <v>9864</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>331</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3762,7 +3762,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>-0.13000000000000966</v>
+        <v>-0.53999999999999204</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>0.20000000000000284</v>
+        <v>-0.47999999999998977</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3796,22 +3796,22 @@
         <stp>Change</stp>
         <tr r="C7" s="1"/>
       </tp>
-      <tp>
-        <v>-0.15999999999999659</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Change</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>-0.15000000000000568</v>
+        <v>-0.54000000000000625</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.52000000000001023</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -4441,63 +4441,63 @@
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>73.2</v>
+        <v>74.47</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>72.78</v>
+        <v>74.05</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>72.599999999999994</v>
+        <v>73.84</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>72.31</v>
+        <v>73.55</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>71.8</v>
+        <v>73.040000000000006</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>71.290000000000006</v>
+        <v>72.53</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>71.180000000000007</v>
+        <v>72.42</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>71.040000000000006</v>
+        <v>72.260000000000005</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>70.91</v>
+        <v>72.13</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4876,39 +4876,39 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>71.11</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>0.20000000000000284</v>
+        <v>-0.47999999999998977</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>71.11</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>71.11</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>70.739999999999995</v>
+        <v>71.59</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>70.790000000000006</v>
+        <v>71.62</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>55159</v>
+        <v>55494</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
-        <v>70.91</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>70.87</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>70.930000000000007</v>
+        <v>71.77</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>7921</v>
+        <v>8371</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
-        <v>71.040000000000006</v>
+        <v>72.260000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,13 +4974,13 @@
         <f>RTD("esrtd",,"ECF 3!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>71.010000000000005</v>
+        <v/>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>71.08</v>
+        <v>71.92</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="J4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Recent Settlement")</f>
-        <v>71.180000000000007</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,39 +5002,39 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>71.14</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>71.52</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>71.06</v>
+        <v>71.819999999999993</v>
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>71.13</v>
+        <v>71.98</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>71.16</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>1553</v>
+        <v>9864</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>335216</v>
+        <v>337516</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
-        <v>71.290000000000006</v>
+        <v>72.53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5042,41 +5042,41 @@
         <f>RTD("esrtd",,"ECF 5!-ICN","Symbol")</f>
         <v>ECF 26H-ICN</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C6" t="str">
+        <v>72.52</v>
+      </c>
+      <c r="C6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D6" t="str">
+        <v>-0.52000000000001023</v>
+      </c>
+      <c r="D6">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E6" t="str">
+        <v>72.58</v>
+      </c>
+      <c r="E6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v/>
+        <v>72.39</v>
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>71.62</v>
+        <v>72.48</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>71.67</v>
+        <v>72.52</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>32675</v>
+        <v>33952</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
-        <v>71.8</v>
+        <v>73.040000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>72.099999999999994</v>
+        <v>72.95</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>72.19</v>
+        <v>73.06</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="J7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Recent Settlement")</f>
-        <v>72.31</v>
+        <v>73.55</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5126,41 +5126,41 @@
         <f>RTD("esrtd",,"ECF 7!-ICN","Symbol")</f>
         <v>ECF 26Q-ICN</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <f>RTD("esrtd",,"ECF 7!-ICN","Last")</f>
-        <v>72.44</v>
-      </c>
-      <c r="C8">
+        <v/>
+      </c>
+      <c r="C8" t="str">
         <f>RTD("esrtd",,"ECF 7!-ICN","Change")</f>
-        <v>-0.15999999999999659</v>
-      </c>
-      <c r="D8">
+        <v/>
+      </c>
+      <c r="D8" t="str">
         <f>RTD("esrtd",,"ECF 7!-ICN","High")</f>
-        <v>72.44</v>
-      </c>
-      <c r="E8">
+        <v/>
+      </c>
+      <c r="E8" t="str">
         <f>RTD("esrtd",,"ECF 7!-ICN","Low")</f>
-        <v>72.430000000000007</v>
+        <v/>
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>72.430000000000007</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>72.489999999999995</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
-        <v>16112</v>
+        <v>16141</v>
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
-        <v>72.599999999999994</v>
+        <v>73.84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5184,13 +5184,13 @@
         <f>RTD("esrtd",,"ECF 8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G9">
+        <v/>
+      </c>
+      <c r="G9" t="str">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>72.709999999999994</v>
+        <v/>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Recent Settlement")</f>
-        <v>72.78</v>
+        <v>74.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>73.069999999999993</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>-0.13000000000000966</v>
+        <v>-0.53999999999999204</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>73.239999999999995</v>
+        <v>74.53</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>72.989999999999995</v>
+        <v>73.83</v>
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>73.040000000000006</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>73.069999999999993</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>166986</v>
+        <v>169313</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
-        <v>73.2</v>
+        <v>74.47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>73.53</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>73.61</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
-        <v>73.72</v>
+        <v>74.989999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="J12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Recent Settlement")</f>
-        <v>74.27</v>
+        <v>75.540000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5338,39 +5338,39 @@
       </c>
       <c r="B13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Last")</f>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="C13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Change")</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.12000000000000455</v>
       </c>
       <c r="D13">
         <f>RTD("esrtd",,"ECF 12!-ICN","High")</f>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="E13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Low")</f>
-        <v>74.55</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>74.489999999999995</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>74.599999999999994</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
-        <v>3443</v>
+        <v>3449</v>
       </c>
       <c r="J13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Recent Settlement")</f>
-        <v>74.7</v>
+        <v>75.97</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,39 +5380,39 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>75.28</v>
+        <v>76.150000000000006</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>-0.15000000000000568</v>
+        <v>-0.53999999999999204</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>75.38</v>
+        <v>76.59</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>75.23</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>75.25</v>
+        <v>76.150000000000006</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>75.28</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>48143</v>
+        <v>48750</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
-        <v>75.430000000000007</v>
+        <v>76.69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>75.81</v>
+        <v>76.69</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>76.08</v>
+        <v>77.23</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="J15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Recent Settlement")</f>
-        <v>76.08</v>
+        <v>77.349999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="J16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Recent Settlement")</f>
-        <v>76.73</v>
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="F17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Bid")</f>
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
@@ -5564,11 +5564,11 @@
       </c>
       <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v>-0.16</v>
-      </c>
-      <c r="G18">
+        <v>-0.19</v>
+      </c>
+      <c r="G18" t="str">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v>-0.12</v>
+        <v/>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="J18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Recent Settlement")</f>
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5630,33 +5630,33 @@
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Symbol")</f>
         <v>ECF 25Z:ECF26H-ICN</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C20" t="str">
+        <v>-0.52</v>
+      </c>
+      <c r="C20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D20" t="str">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="D20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+        <v>-0.52</v>
+      </c>
+      <c r="E20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
-        <v/>
+        <v>-0.52</v>
       </c>
       <c r="F20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Bid")</f>
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5690,11 +5690,11 @@
       </c>
       <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v>-0.53</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v>-0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5732,11 +5732,11 @@
       </c>
       <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.27</v>
+        <v>-0.24</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5772,13 +5772,13 @@
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v>-0.25</v>
-      </c>
-      <c r="G23">
+        <v/>
+      </c>
+      <c r="G23" t="str">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v>-0.14000000000000001</v>
+        <v/>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Recent Settlement")</f>
-        <v>-0.18</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5814,13 +5814,13 @@
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
-        <v>-0.44</v>
-      </c>
-      <c r="G24">
+        <v/>
+      </c>
+      <c r="G24" t="str">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v>-0.35</v>
+        <v/>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="H25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Cumulative Volume")</f>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="C27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Change")</f>
-        <v>4.0000000000000036E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="D27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","High")</f>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.76</v>
+        <v>-0.77</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v>-0.68</v>
+        <v>-0.69</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="J27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Recent Settlement")</f>
-        <v>-0.73</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5984,11 +5984,11 @@
       </c>
       <c r="F28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Bid")</f>
-        <v>-0.8</v>
+        <v>-1.06</v>
       </c>
       <c r="G28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Ask")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="H28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Cumulative Volume")</f>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="J28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Recent Settlement")</f>
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6066,9 +6066,9 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
         <v>0</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
-        <v/>
+        <v>-0.01</v>
       </c>
       <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -7356,8 +7356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,5411 +7444,5411 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>DATE(2025,8,22)</f>
+        <v>45891</v>
+      </c>
+      <c r="B5">
+        <v>55494</v>
+      </c>
+      <c r="C5">
+        <v>337516</v>
+      </c>
+      <c r="D5">
+        <v>33952</v>
+      </c>
+      <c r="E5">
+        <v>16141</v>
+      </c>
+      <c r="F5">
+        <v>169313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(2025,8,21)</f>
+        <v>45890</v>
+      </c>
+      <c r="B6">
+        <v>55271</v>
+      </c>
+      <c r="C6">
+        <v>336880</v>
+      </c>
+      <c r="D6">
+        <v>33466</v>
+      </c>
+      <c r="E6">
+        <v>16134</v>
+      </c>
+      <c r="F6">
+        <v>169229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f>DATE(2025,8,20)</f>
         <v>45889</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B7">
+        <v>55233</v>
+      </c>
+      <c r="C7">
+        <v>336461</v>
+      </c>
+      <c r="D7">
+        <v>32957</v>
+      </c>
+      <c r="E7">
+        <v>16282</v>
+      </c>
+      <c r="F7">
+        <v>167467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>55159</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>335216</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>32675</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>16112</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>166986</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>55038</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>334562</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>32404</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>16244</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>166189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>54467</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>332925</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>32139</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>16114</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>165785</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>52654</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>331793</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>32139</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>16114</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>165035</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>49078</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>334724</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>31135</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>16086</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>165282</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>49075</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>333519</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>31129</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>16084</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>165259</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>49079</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>332913</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>31123</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>16080</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>164418</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>49029</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>334592</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>31103</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>16080</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>164283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>49035</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>334273</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>31046</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>16080</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>162523</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>49028</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>335278</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>30118</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>16080</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>162858</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>49028</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>333937</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>30037</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>16079</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>161752</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>48952</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>333839</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>30018</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>16079</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>161155</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>48947</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>335306</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>29963</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>16079</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>160284</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>48946</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>335217</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>29443</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>16054</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>159960</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>48458</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>334621</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>29466</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>16054</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>159968</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>48210</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>335880</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>29456</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>16054</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>159282</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>48261</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>333961</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>29447</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>16053</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>158865</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>48208</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>333078</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>29391</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>16051</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>158379</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>48527</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>332644</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>29344</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>16051</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>158783</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>48515</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>331048</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>29341</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>16051</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>157895</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>48536</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>329710</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>29291</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>16048</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>157083</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>48510</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>328708</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>28676</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>16045</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>155953</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>48350</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>327097</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>28361</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>16027</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>155293</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>48330</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>326066</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>27846</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>16025</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>154555</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>48290</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>326325</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>27426</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>16024</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>153864</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>48290</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>325885</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>27369</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>16006</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>152993</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>48290</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>323301</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>27355</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>15982</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>152111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>48290</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>321020</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>27331</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>15975</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>151848</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>48236</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>321618</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>26279</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>15958</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>150659</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>48121</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>320154</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>26263</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>15955</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>150687</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>47384</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>319320</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>26236</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>15950</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>149986</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>46088</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>318933</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>26180</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>15944</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>149479</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>45908</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>319160</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>26167</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>15922</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>149447</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>45896</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>318241</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>26163</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>15918</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>149132</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>44033</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>319486</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>22147</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>15913</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>147950</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>43816</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>318476</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>22099</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>15913</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>147288</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>43451</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>319974</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>22070</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>15831</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>147310</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>42536</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>319363</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>22090</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>15797</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>146216</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>40059</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>320370</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>22093</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>15793</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <v>145781</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>32534</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>322739</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>22106</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <v>15793</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>144874</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>34154</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>321931</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>22111</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>15767</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>143864</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>33248</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>324446</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>22093</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>15765</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>143661</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>32748</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>324690</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <v>22083</v>
       </c>
-      <c r="E48">
+      <c r="E50">
         <v>15711</v>
       </c>
-      <c r="F48">
+      <c r="F50">
         <v>141607</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>29868</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>325610</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>21978</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>15711</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>141254</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>29755</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>324035</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>21941</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>15590</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>141078</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>29755</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>325145</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>21924</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>15586</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <v>140266</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>29945</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>323780</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <v>21902</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>15585</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>139680</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>29788</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>323965</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>21895</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <v>15585</v>
       </c>
-      <c r="F53">
+      <c r="F55">
         <v>139317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>29786</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>324500</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>21872</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>15580</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>139012</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>29802</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>322494</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>21864</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>15492</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>138712</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>29807</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>320699</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>21824</v>
       </c>
-      <c r="E56">
+      <c r="E58">
         <v>15492</v>
       </c>
-      <c r="F56">
+      <c r="F58">
         <v>137682</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>29507</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>320734</v>
       </c>
-      <c r="D57">
+      <c r="D59">
         <v>21788</v>
       </c>
-      <c r="E57">
+      <c r="E59">
         <v>15489</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>135467</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>29495</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>321022</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <v>21780</v>
       </c>
-      <c r="E58">
+      <c r="E60">
         <v>15489</v>
       </c>
-      <c r="F58">
+      <c r="F60">
         <v>135063</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>29495</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>321194</v>
       </c>
-      <c r="D59">
+      <c r="D61">
         <v>21775</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>15489</v>
       </c>
-      <c r="F59">
+      <c r="F61">
         <v>134947</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>28625</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <v>320187</v>
       </c>
-      <c r="D60">
+      <c r="D62">
         <v>21522</v>
       </c>
-      <c r="E60">
+      <c r="E62">
         <v>15439</v>
       </c>
-      <c r="F60">
+      <c r="F62">
         <v>134377</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>28625</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>319824</v>
       </c>
-      <c r="D61">
+      <c r="D63">
         <v>21515</v>
       </c>
-      <c r="E61">
+      <c r="E63">
         <v>15436</v>
       </c>
-      <c r="F61">
+      <c r="F63">
         <v>134162</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>28625</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>317426</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>21513</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>15431</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <v>134076</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>28625</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>317555</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <v>21513</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <v>15428</v>
       </c>
-      <c r="F63">
+      <c r="F65">
         <v>134058</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>26625</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>320491</v>
       </c>
-      <c r="D64">
+      <c r="D66">
         <v>21498</v>
       </c>
-      <c r="E64">
+      <c r="E66">
         <v>15425</v>
       </c>
-      <c r="F64">
+      <c r="F66">
         <v>134450</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>26367</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>320932</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <v>21499</v>
       </c>
-      <c r="E65">
+      <c r="E67">
         <v>15314</v>
       </c>
-      <c r="F65">
+      <c r="F67">
         <v>133557</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>26367</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>318101</v>
       </c>
-      <c r="D66">
+      <c r="D68">
         <v>21483</v>
       </c>
-      <c r="E66">
+      <c r="E68">
         <v>15311</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <v>131923</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>26217</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>316769</v>
       </c>
-      <c r="D67">
+      <c r="D69">
         <v>21445</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>15301</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <v>131071</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B68">
+      <c r="B70">
         <v>26217</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>317448</v>
       </c>
-      <c r="D68">
+      <c r="D70">
         <v>21403</v>
       </c>
-      <c r="E68">
+      <c r="E70">
         <v>15301</v>
       </c>
-      <c r="F68">
+      <c r="F70">
         <v>131000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>26217</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>318727</v>
       </c>
-      <c r="D69">
+      <c r="D71">
         <v>21398</v>
       </c>
-      <c r="E69">
+      <c r="E71">
         <v>15293</v>
       </c>
-      <c r="F69">
+      <c r="F71">
         <v>130192</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>26217</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>318115</v>
       </c>
-      <c r="D70">
+      <c r="D72">
         <v>21391</v>
       </c>
-      <c r="E70">
+      <c r="E72">
         <v>15279</v>
       </c>
-      <c r="F70">
+      <c r="F72">
         <v>130222</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B71">
+      <c r="B73">
         <v>26217</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>317798</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>21368</v>
       </c>
-      <c r="E71">
+      <c r="E73">
         <v>15251</v>
       </c>
-      <c r="F71">
+      <c r="F73">
         <v>130033</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B72">
+      <c r="B74">
         <v>26217</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>316698</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>21361</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>15248</v>
       </c>
-      <c r="F72">
+      <c r="F74">
         <v>129719</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>26217</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>317705</v>
       </c>
-      <c r="D73">
+      <c r="D75">
         <v>21349</v>
       </c>
-      <c r="E73">
+      <c r="E75">
         <v>15234</v>
       </c>
-      <c r="F73">
+      <c r="F75">
         <v>126662</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B74">
+      <c r="B76">
         <v>25937</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>317478</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <v>21328</v>
       </c>
-      <c r="E74">
+      <c r="E76">
         <v>15234</v>
       </c>
-      <c r="F74">
+      <c r="F76">
         <v>126329</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>25938</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>318806</v>
       </c>
-      <c r="D75">
+      <c r="D77">
         <v>21321</v>
       </c>
-      <c r="E75">
+      <c r="E77">
         <v>15229</v>
       </c>
-      <c r="F75">
+      <c r="F77">
         <v>126269</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>25926</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>318809</v>
       </c>
-      <c r="D76">
+      <c r="D78">
         <v>21275</v>
       </c>
-      <c r="E76">
+      <c r="E78">
         <v>15118</v>
       </c>
-      <c r="F76">
+      <c r="F78">
         <v>126146</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B77">
+      <c r="B79">
         <v>25926</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <v>322318</v>
       </c>
-      <c r="D77">
+      <c r="D79">
         <v>21275</v>
       </c>
-      <c r="E77">
+      <c r="E79">
         <v>15109</v>
       </c>
-      <c r="F77">
+      <c r="F79">
         <v>125191</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>25926</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <v>323552</v>
       </c>
-      <c r="D78">
+      <c r="D80">
         <v>21277</v>
       </c>
-      <c r="E78">
+      <c r="E80">
         <v>15059</v>
       </c>
-      <c r="F78">
+      <c r="F80">
         <v>124559</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>25675</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>324400</v>
       </c>
-      <c r="D79">
+      <c r="D81">
         <v>21262</v>
       </c>
-      <c r="E79">
+      <c r="E81">
         <v>15056</v>
       </c>
-      <c r="F79">
+      <c r="F81">
         <v>123029</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B80">
+      <c r="B82">
         <v>25675</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <v>325047</v>
       </c>
-      <c r="D80">
+      <c r="D82">
         <v>21413</v>
       </c>
-      <c r="E80">
+      <c r="E82">
         <v>15041</v>
       </c>
-      <c r="F80">
+      <c r="F82">
         <v>122900</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>24625</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>328301</v>
       </c>
-      <c r="D81">
+      <c r="D83">
         <v>21423</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>15008</v>
       </c>
-      <c r="F81">
+      <c r="F83">
         <v>122781</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B82">
+      <c r="B84">
         <v>24626</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>327642</v>
       </c>
-      <c r="D82">
+      <c r="D84">
         <v>21415</v>
       </c>
-      <c r="E82">
+      <c r="E84">
         <v>15003</v>
       </c>
-      <c r="F82">
+      <c r="F84">
         <v>122489</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>24626</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>327584</v>
       </c>
-      <c r="D83">
+      <c r="D85">
         <v>21413</v>
       </c>
-      <c r="E83">
+      <c r="E85">
         <v>14988</v>
       </c>
-      <c r="F83">
+      <c r="F85">
         <v>122317</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B84">
+      <c r="B86">
         <v>24626</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <v>328038</v>
       </c>
-      <c r="D84">
+      <c r="D86">
         <v>21411</v>
       </c>
-      <c r="E84">
+      <c r="E86">
         <v>14988</v>
       </c>
-      <c r="F84">
+      <c r="F86">
         <v>122490</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B85">
+      <c r="B87">
         <v>24626</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>329167</v>
       </c>
-      <c r="D85">
+      <c r="D87">
         <v>21411</v>
       </c>
-      <c r="E85">
+      <c r="E87">
         <v>14988</v>
       </c>
-      <c r="F85">
+      <c r="F87">
         <v>122383</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B86">
+      <c r="B88">
         <v>24626</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>331622</v>
       </c>
-      <c r="D86">
+      <c r="D88">
         <v>21411</v>
       </c>
-      <c r="E86">
+      <c r="E88">
         <v>14985</v>
       </c>
-      <c r="F86">
+      <c r="F88">
         <v>122385</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>24625</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>328527</v>
       </c>
-      <c r="D87">
+      <c r="D89">
         <v>21402</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <v>14985</v>
       </c>
-      <c r="F87">
+      <c r="F89">
         <v>122362</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>24624</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>328566</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <v>21395</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>14981</v>
       </c>
-      <c r="F88">
+      <c r="F90">
         <v>122041</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B89">
+      <c r="B91">
         <v>24624</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>328740</v>
       </c>
-      <c r="D89">
+      <c r="D91">
         <v>21395</v>
       </c>
-      <c r="E89">
+      <c r="E91">
         <v>14981</v>
       </c>
-      <c r="F89">
+      <c r="F91">
         <v>121644</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B90">
+      <c r="B92">
         <v>24624</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <v>328807</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <v>21388</v>
       </c>
-      <c r="E90">
+      <c r="E92">
         <v>14981</v>
       </c>
-      <c r="F90">
+      <c r="F92">
         <v>120938</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B91">
+      <c r="B93">
         <v>24524</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <v>329625</v>
       </c>
-      <c r="D91">
+      <c r="D93">
         <v>21288</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>14981</v>
       </c>
-      <c r="F91">
+      <c r="F93">
         <v>120854</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B92">
+      <c r="B94">
         <v>24524</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <v>328126</v>
       </c>
-      <c r="D92">
+      <c r="D94">
         <v>21270</v>
       </c>
-      <c r="E92">
+      <c r="E94">
         <v>14936</v>
       </c>
-      <c r="F92">
+      <c r="F94">
         <v>119789</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>24524</v>
       </c>
-      <c r="C93">
+      <c r="C95">
         <v>328130</v>
       </c>
-      <c r="D93">
+      <c r="D95">
         <v>21270</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>14936</v>
       </c>
-      <c r="F93">
+      <c r="F95">
         <v>119789</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B94">
+      <c r="B96">
         <v>24523</v>
       </c>
-      <c r="C94">
+      <c r="C96">
         <v>327733</v>
       </c>
-      <c r="D94">
+      <c r="D96">
         <v>21243</v>
       </c>
-      <c r="E94">
+      <c r="E96">
         <v>14901</v>
       </c>
-      <c r="F94">
+      <c r="F96">
         <v>119296</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>24322</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <v>328550</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <v>21229</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>14880</v>
       </c>
-      <c r="F95">
+      <c r="F97">
         <v>118373</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B96">
+      <c r="B98">
         <v>24271</v>
       </c>
-      <c r="C96">
+      <c r="C98">
         <v>327744</v>
       </c>
-      <c r="D96">
+      <c r="D98">
         <v>21201</v>
       </c>
-      <c r="E96">
+      <c r="E98">
         <v>14871</v>
       </c>
-      <c r="F96">
+      <c r="F98">
         <v>117664</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>24271</v>
       </c>
-      <c r="C97">
+      <c r="C99">
         <v>328218</v>
       </c>
-      <c r="D97">
+      <c r="D99">
         <v>21166</v>
       </c>
-      <c r="E97">
+      <c r="E99">
         <v>14871</v>
       </c>
-      <c r="F97">
+      <c r="F99">
         <v>117150</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B98">
+      <c r="B100">
         <v>24264</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <v>328856</v>
       </c>
-      <c r="D98">
+      <c r="D100">
         <v>21150</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>14871</v>
       </c>
-      <c r="F98">
+      <c r="F100">
         <v>115703</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B99">
+      <c r="B101">
         <v>24263</v>
       </c>
-      <c r="C99">
+      <c r="C101">
         <v>329497</v>
       </c>
-      <c r="D99">
+      <c r="D101">
         <v>21076</v>
       </c>
-      <c r="E99">
+      <c r="E101">
         <v>14850</v>
       </c>
-      <c r="F99">
+      <c r="F101">
         <v>115523</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B100">
+      <c r="B102">
         <v>24263</v>
       </c>
-      <c r="C100">
+      <c r="C102">
         <v>329531</v>
       </c>
-      <c r="D100">
+      <c r="D102">
         <v>21035</v>
       </c>
-      <c r="E100">
+      <c r="E102">
         <v>14649</v>
       </c>
-      <c r="F100">
+      <c r="F102">
         <v>112870</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B101">
+      <c r="B103">
         <v>24262</v>
       </c>
-      <c r="C101">
+      <c r="C103">
         <v>330726</v>
       </c>
-      <c r="D101">
+      <c r="D103">
         <v>21023</v>
       </c>
-      <c r="E101">
+      <c r="E103">
         <v>14649</v>
       </c>
-      <c r="F101">
+      <c r="F103">
         <v>110491</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B102">
+      <c r="B104">
         <v>24260</v>
       </c>
-      <c r="C102">
+      <c r="C104">
         <v>331383</v>
       </c>
-      <c r="D102">
+      <c r="D104">
         <v>18009</v>
       </c>
-      <c r="E102">
+      <c r="E104">
         <v>14563</v>
       </c>
-      <c r="F102">
+      <c r="F104">
         <v>109106</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B103">
+      <c r="B105">
         <v>24089</v>
       </c>
-      <c r="C103">
+      <c r="C105">
         <v>336361</v>
       </c>
-      <c r="D103">
+      <c r="D105">
         <v>17980</v>
       </c>
-      <c r="E103">
+      <c r="E105">
         <v>14421</v>
       </c>
-      <c r="F103">
+      <c r="F105">
         <v>106135</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B104">
+      <c r="B106">
         <v>23788</v>
       </c>
-      <c r="C104">
+      <c r="C106">
         <v>336480</v>
       </c>
-      <c r="D104">
+      <c r="D106">
         <v>17969</v>
       </c>
-      <c r="E104">
+      <c r="E106">
         <v>14295</v>
       </c>
-      <c r="F104">
+      <c r="F106">
         <v>103490</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B105">
+      <c r="B107">
         <v>23786</v>
       </c>
-      <c r="C105">
+      <c r="C107">
         <v>333401</v>
       </c>
-      <c r="D105">
+      <c r="D107">
         <v>17964</v>
       </c>
-      <c r="E105">
+      <c r="E107">
         <v>14295</v>
       </c>
-      <c r="F105">
+      <c r="F107">
         <v>103879</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B106">
+      <c r="B108">
         <v>23786</v>
       </c>
-      <c r="C106">
+      <c r="C108">
         <v>330277</v>
       </c>
-      <c r="D106">
+      <c r="D108">
         <v>17949</v>
       </c>
-      <c r="E106">
+      <c r="E108">
         <v>14295</v>
       </c>
-      <c r="F106">
+      <c r="F108">
         <v>104263</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B107">
+      <c r="B109">
         <v>23636</v>
       </c>
-      <c r="C107">
+      <c r="C109">
         <v>330548</v>
       </c>
-      <c r="D107">
+      <c r="D109">
         <v>17930</v>
       </c>
-      <c r="E107">
+      <c r="E109">
         <v>14236</v>
       </c>
-      <c r="F107">
+      <c r="F109">
         <v>103844</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B108">
+      <c r="B110">
         <v>23596</v>
       </c>
-      <c r="C108">
+      <c r="C110">
         <v>330741</v>
       </c>
-      <c r="D108">
+      <c r="D110">
         <v>17927</v>
       </c>
-      <c r="E108">
+      <c r="E110">
         <v>13036</v>
       </c>
-      <c r="F108">
+      <c r="F110">
         <v>103166</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B109">
+      <c r="B111">
         <v>22815</v>
       </c>
-      <c r="C109">
+      <c r="C111">
         <v>331610</v>
       </c>
-      <c r="D109">
+      <c r="D111">
         <v>17896</v>
       </c>
-      <c r="E109">
+      <c r="E111">
         <v>12961</v>
       </c>
-      <c r="F109">
+      <c r="F111">
         <v>102355</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B110">
+      <c r="B112">
         <v>23019</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <v>331662</v>
       </c>
-      <c r="D110">
+      <c r="D112">
         <v>17893</v>
       </c>
-      <c r="E110">
+      <c r="E112">
         <v>12961</v>
       </c>
-      <c r="F110">
+      <c r="F112">
         <v>101579</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B111">
+      <c r="B113">
         <v>23018</v>
       </c>
-      <c r="C111">
+      <c r="C113">
         <v>330494</v>
       </c>
-      <c r="D111">
+      <c r="D113">
         <v>17891</v>
       </c>
-      <c r="E111">
+      <c r="E113">
         <v>12957</v>
       </c>
-      <c r="F111">
+      <c r="F113">
         <v>101084</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B112">
+      <c r="B114">
         <v>23018</v>
       </c>
-      <c r="C112">
+      <c r="C114">
         <v>330421</v>
       </c>
-      <c r="D112">
+      <c r="D114">
         <v>17876</v>
       </c>
-      <c r="E112">
+      <c r="E114">
         <v>12951</v>
       </c>
-      <c r="F112">
+      <c r="F114">
         <v>101012</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B113">
+      <c r="B115">
         <v>23016</v>
       </c>
-      <c r="C113">
+      <c r="C115">
         <v>329253</v>
       </c>
-      <c r="D113">
+      <c r="D115">
         <v>17841</v>
       </c>
-      <c r="E113">
+      <c r="E115">
         <v>10931</v>
       </c>
-      <c r="F113">
+      <c r="F115">
         <v>99097</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B114">
+      <c r="B116">
         <v>22777</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <v>328614</v>
       </c>
-      <c r="D114">
+      <c r="D116">
         <v>17829</v>
       </c>
-      <c r="E114">
+      <c r="E116">
         <v>10911</v>
       </c>
-      <c r="F114">
+      <c r="F116">
         <v>98997</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B115">
+      <c r="B117">
         <v>23980</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <v>326310</v>
       </c>
-      <c r="D115">
+      <c r="D117">
         <v>17718</v>
       </c>
-      <c r="E115">
+      <c r="E117">
         <v>10911</v>
       </c>
-      <c r="F115">
+      <c r="F117">
         <v>98845</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B116">
+      <c r="B118">
         <v>23980</v>
       </c>
-      <c r="C116">
+      <c r="C118">
         <v>322939</v>
       </c>
-      <c r="D116">
+      <c r="D118">
         <v>17707</v>
       </c>
-      <c r="E116">
+      <c r="E118">
         <v>10899</v>
       </c>
-      <c r="F116">
+      <c r="F118">
         <v>97897</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B117">
+      <c r="B119">
         <v>23980</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <v>322745</v>
       </c>
-      <c r="D117">
+      <c r="D119">
         <v>17684</v>
       </c>
-      <c r="E117">
+      <c r="E119">
         <v>10752</v>
       </c>
-      <c r="F117">
+      <c r="F119">
         <v>97621</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B118">
+      <c r="B120">
         <v>23980</v>
       </c>
-      <c r="C118">
+      <c r="C120">
         <v>321147</v>
       </c>
-      <c r="D118">
+      <c r="D120">
         <v>17672</v>
       </c>
-      <c r="E118">
+      <c r="E120">
         <v>10750</v>
       </c>
-      <c r="F118">
+      <c r="F120">
         <v>96935</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B119">
+      <c r="B121">
         <v>23979</v>
       </c>
-      <c r="C119">
+      <c r="C121">
         <v>320702</v>
       </c>
-      <c r="D119">
+      <c r="D121">
         <v>17649</v>
       </c>
-      <c r="E119">
+      <c r="E121">
         <v>10740</v>
       </c>
-      <c r="F119">
+      <c r="F121">
         <v>96699</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B120">
+      <c r="B122">
         <v>23979</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <v>319989</v>
       </c>
-      <c r="D120">
+      <c r="D122">
         <v>17640</v>
       </c>
-      <c r="E120">
+      <c r="E122">
         <v>10702</v>
       </c>
-      <c r="F120">
+      <c r="F122">
         <v>96079</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B121">
+      <c r="B123">
         <v>23979</v>
       </c>
-      <c r="C121">
+      <c r="C123">
         <v>318886</v>
       </c>
-      <c r="D121">
+      <c r="D123">
         <v>17611</v>
       </c>
-      <c r="E121">
+      <c r="E123">
         <v>10592</v>
       </c>
-      <c r="F121">
+      <c r="F123">
         <v>96005</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B122">
+      <c r="B124">
         <v>23978</v>
       </c>
-      <c r="C122">
+      <c r="C124">
         <v>313127</v>
       </c>
-      <c r="D122">
+      <c r="D124">
         <v>17610</v>
       </c>
-      <c r="E122">
+      <c r="E124">
         <v>10582</v>
       </c>
-      <c r="F122">
+      <c r="F124">
         <v>95323</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B123">
+      <c r="B125">
         <v>23978</v>
       </c>
-      <c r="C123">
+      <c r="C125">
         <v>312131</v>
       </c>
-      <c r="D123">
+      <c r="D125">
         <v>17582</v>
       </c>
-      <c r="E123">
+      <c r="E125">
         <v>10532</v>
       </c>
-      <c r="F123">
+      <c r="F125">
         <v>94431</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B124">
+      <c r="B126">
         <v>23777</v>
       </c>
-      <c r="C124">
+      <c r="C126">
         <v>309971</v>
       </c>
-      <c r="D124">
+      <c r="D126">
         <v>17570</v>
       </c>
-      <c r="E124">
+      <c r="E126">
         <v>10392</v>
       </c>
-      <c r="F124">
+      <c r="F126">
         <v>95612</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B125">
+      <c r="B127">
         <v>23422</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <v>309732</v>
       </c>
-      <c r="D125">
+      <c r="D127">
         <v>17548</v>
       </c>
-      <c r="E125">
+      <c r="E127">
         <v>10340</v>
       </c>
-      <c r="F125">
+      <c r="F127">
         <v>94215</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B126">
+      <c r="B128">
         <v>23423</v>
       </c>
-      <c r="C126">
+      <c r="C128">
         <v>306181</v>
       </c>
-      <c r="D126">
+      <c r="D128">
         <v>17445</v>
       </c>
-      <c r="E126">
+      <c r="E128">
         <v>10264</v>
       </c>
-      <c r="F126">
+      <c r="F128">
         <v>93953</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B127">
+      <c r="B129">
         <v>23423</v>
       </c>
-      <c r="C127">
+      <c r="C129">
         <v>305033</v>
       </c>
-      <c r="D127">
+      <c r="D129">
         <v>17430</v>
       </c>
-      <c r="E127">
+      <c r="E129">
         <v>10264</v>
       </c>
-      <c r="F127">
+      <c r="F129">
         <v>93776</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B128">
+      <c r="B130">
         <v>23622</v>
       </c>
-      <c r="C128">
+      <c r="C130">
         <v>306175</v>
       </c>
-      <c r="D128">
+      <c r="D130">
         <v>17423</v>
       </c>
-      <c r="E128">
+      <c r="E130">
         <v>10267</v>
       </c>
-      <c r="F128">
+      <c r="F130">
         <v>93019</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B129">
+      <c r="B131">
         <v>22447</v>
       </c>
-      <c r="C129">
+      <c r="C131">
         <v>307467</v>
       </c>
-      <c r="D129">
+      <c r="D131">
         <v>17423</v>
       </c>
-      <c r="E129">
+      <c r="E131">
         <v>10267</v>
       </c>
-      <c r="F129">
+      <c r="F131">
         <v>92972</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B130">
+      <c r="B132">
         <v>22447</v>
       </c>
-      <c r="C130">
+      <c r="C132">
         <v>308138</v>
       </c>
-      <c r="D130">
+      <c r="D132">
         <v>17423</v>
       </c>
-      <c r="E130">
+      <c r="E132">
         <v>10194</v>
       </c>
-      <c r="F130">
+      <c r="F132">
         <v>92280</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B131">
+      <c r="B133">
         <v>22396</v>
       </c>
-      <c r="C131">
+      <c r="C133">
         <v>307865</v>
       </c>
-      <c r="D131">
+      <c r="D133">
         <v>17404</v>
       </c>
-      <c r="E131">
+      <c r="E133">
         <v>10144</v>
       </c>
-      <c r="F131">
+      <c r="F133">
         <v>92631</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B132">
+      <c r="B134">
         <v>22395</v>
       </c>
-      <c r="C132">
+      <c r="C134">
         <v>309194</v>
       </c>
-      <c r="D132">
+      <c r="D134">
         <v>17387</v>
       </c>
-      <c r="E132">
+      <c r="E134">
         <v>10094</v>
       </c>
-      <c r="F132">
+      <c r="F134">
         <v>92714</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B133">
+      <c r="B135">
         <v>22395</v>
       </c>
-      <c r="C133">
+      <c r="C135">
         <v>309737</v>
       </c>
-      <c r="D133">
+      <c r="D135">
         <v>17373</v>
       </c>
-      <c r="E133">
+      <c r="E135">
         <v>10094</v>
       </c>
-      <c r="F133">
+      <c r="F135">
         <v>92274</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B134">
+      <c r="B136">
         <v>22454</v>
       </c>
-      <c r="C134">
+      <c r="C136">
         <v>309342</v>
       </c>
-      <c r="D134">
+      <c r="D136">
         <v>17333</v>
       </c>
-      <c r="E134">
+      <c r="E136">
         <v>10094</v>
       </c>
-      <c r="F134">
+      <c r="F136">
         <v>91041</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B135">
+      <c r="B137">
         <v>22454</v>
       </c>
-      <c r="C135">
+      <c r="C137">
         <v>310867</v>
       </c>
-      <c r="D135">
+      <c r="D137">
         <v>17303</v>
       </c>
-      <c r="E135">
+      <c r="E137">
         <v>10092</v>
       </c>
-      <c r="F135">
+      <c r="F137">
         <v>90882</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B136">
+      <c r="B138">
         <v>22454</v>
       </c>
-      <c r="C136">
+      <c r="C138">
         <v>313288</v>
       </c>
-      <c r="D136">
+      <c r="D138">
         <v>17292</v>
       </c>
-      <c r="E136">
+      <c r="E138">
         <v>10092</v>
       </c>
-      <c r="F136">
+      <c r="F138">
         <v>90577</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B137">
+      <c r="B139">
         <v>22454</v>
       </c>
-      <c r="C137">
+      <c r="C139">
         <v>313285</v>
       </c>
-      <c r="D137">
+      <c r="D139">
         <v>17264</v>
       </c>
-      <c r="E137">
+      <c r="E139">
         <v>10091</v>
       </c>
-      <c r="F137">
+      <c r="F139">
         <v>90074</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B138">
+      <c r="B140">
         <v>22454</v>
       </c>
-      <c r="C138">
+      <c r="C140">
         <v>313902</v>
       </c>
-      <c r="D138">
+      <c r="D140">
         <v>17185</v>
       </c>
-      <c r="E138">
+      <c r="E140">
         <v>10088</v>
       </c>
-      <c r="F138">
+      <c r="F140">
         <v>89936</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B139">
+      <c r="B141">
         <v>22454</v>
       </c>
-      <c r="C139">
+      <c r="C141">
         <v>314720</v>
       </c>
-      <c r="D139">
+      <c r="D141">
         <v>17151</v>
       </c>
-      <c r="E139">
+      <c r="E141">
         <v>10076</v>
       </c>
-      <c r="F139">
+      <c r="F141">
         <v>89949</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B140">
+      <c r="B142">
         <v>22454</v>
       </c>
-      <c r="C140">
+      <c r="C142">
         <v>312360</v>
       </c>
-      <c r="D140">
+      <c r="D142">
         <v>17120</v>
       </c>
-      <c r="E140">
+      <c r="E142">
         <v>10076</v>
       </c>
-      <c r="F140">
+      <c r="F142">
         <v>89281</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B141">
+      <c r="B143">
         <v>22454</v>
       </c>
-      <c r="C141">
+      <c r="C143">
         <v>309021</v>
       </c>
-      <c r="D141">
+      <c r="D143">
         <v>17116</v>
       </c>
-      <c r="E141">
+      <c r="E143">
         <v>10076</v>
       </c>
-      <c r="F141">
+      <c r="F143">
         <v>88826</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B142">
+      <c r="B144">
         <v>22454</v>
       </c>
-      <c r="C142">
+      <c r="C144">
         <v>307153</v>
       </c>
-      <c r="D142">
+      <c r="D144">
         <v>17082</v>
       </c>
-      <c r="E142">
+      <c r="E144">
         <v>9849</v>
       </c>
-      <c r="F142">
+      <c r="F144">
         <v>88632</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B143">
+      <c r="B145">
         <v>22454</v>
       </c>
-      <c r="C143">
+      <c r="C145">
         <v>307136</v>
       </c>
-      <c r="D143">
+      <c r="D145">
         <v>17072</v>
       </c>
-      <c r="E143">
+      <c r="E145">
         <v>9839</v>
       </c>
-      <c r="F143">
+      <c r="F145">
         <v>88066</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B144">
+      <c r="B146">
         <v>22454</v>
       </c>
-      <c r="C144">
+      <c r="C146">
         <v>302392</v>
       </c>
-      <c r="D144">
+      <c r="D146">
         <v>17072</v>
       </c>
-      <c r="E144">
+      <c r="E146">
         <v>9839</v>
       </c>
-      <c r="F144">
+      <c r="F146">
         <v>87813</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B145">
+      <c r="B147">
         <v>22453</v>
       </c>
-      <c r="C145">
+      <c r="C147">
         <v>300191</v>
       </c>
-      <c r="D145">
+      <c r="D147">
         <v>17067</v>
       </c>
-      <c r="E145">
+      <c r="E147">
         <v>9824</v>
       </c>
-      <c r="F145">
+      <c r="F147">
         <v>87753</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B146">
+      <c r="B148">
         <v>22453</v>
       </c>
-      <c r="C146">
+      <c r="C148">
         <v>299817</v>
       </c>
-      <c r="D146">
+      <c r="D148">
         <v>17057</v>
       </c>
-      <c r="E146">
+      <c r="E148">
         <v>9824</v>
       </c>
-      <c r="F146">
+      <c r="F148">
         <v>86175</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B147">
+      <c r="B149">
         <v>22453</v>
       </c>
-      <c r="C147">
+      <c r="C149">
         <v>298024</v>
       </c>
-      <c r="D147">
+      <c r="D149">
         <v>16895</v>
       </c>
-      <c r="E147">
+      <c r="E149">
         <v>9657</v>
       </c>
-      <c r="F147">
+      <c r="F149">
         <v>85765</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B148">
+      <c r="B150">
         <v>22453</v>
       </c>
-      <c r="C148">
+      <c r="C150">
         <v>296306</v>
       </c>
-      <c r="D148">
+      <c r="D150">
         <v>16883</v>
       </c>
-      <c r="E148">
+      <c r="E150">
         <v>9642</v>
       </c>
-      <c r="F148">
+      <c r="F150">
         <v>85276</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B149">
+      <c r="B151">
         <v>22453</v>
       </c>
-      <c r="C149">
+      <c r="C151">
         <v>295720</v>
       </c>
-      <c r="D149">
+      <c r="D151">
         <v>16879</v>
       </c>
-      <c r="E149">
+      <c r="E151">
         <v>9642</v>
       </c>
-      <c r="F149">
+      <c r="F151">
         <v>84606</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B150">
+      <c r="B152">
         <v>22453</v>
       </c>
-      <c r="C150">
+      <c r="C152">
         <v>296177</v>
       </c>
-      <c r="D150">
+      <c r="D152">
         <v>16871</v>
       </c>
-      <c r="E150">
+      <c r="E152">
         <v>9142</v>
       </c>
-      <c r="F150">
+      <c r="F152">
         <v>84342</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B151">
+      <c r="B153">
         <v>22453</v>
       </c>
-      <c r="C151">
+      <c r="C153">
         <v>295952</v>
       </c>
-      <c r="D151">
+      <c r="D153">
         <v>16861</v>
       </c>
-      <c r="E151">
+      <c r="E153">
         <v>9127</v>
       </c>
-      <c r="F151">
+      <c r="F153">
         <v>83687</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B152">
+      <c r="B154">
         <v>22453</v>
       </c>
-      <c r="C152">
+      <c r="C154">
         <v>295959</v>
       </c>
-      <c r="D152">
+      <c r="D154">
         <v>16599</v>
       </c>
-      <c r="E152">
+      <c r="E154">
         <v>9127</v>
       </c>
-      <c r="F152">
+      <c r="F154">
         <v>82955</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B153">
+      <c r="B155">
         <v>22453</v>
       </c>
-      <c r="C153">
+      <c r="C155">
         <v>298028</v>
       </c>
-      <c r="D153">
+      <c r="D155">
         <v>16595</v>
       </c>
-      <c r="E153">
+      <c r="E155">
         <v>9124</v>
       </c>
-      <c r="F153">
+      <c r="F155">
         <v>80190</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B154">
+      <c r="B156">
         <v>22453</v>
       </c>
-      <c r="C154">
+      <c r="C156">
         <v>298262</v>
       </c>
-      <c r="D154">
+      <c r="D156">
         <v>16572</v>
       </c>
-      <c r="E154">
+      <c r="E156">
         <v>9123</v>
       </c>
-      <c r="F154">
+      <c r="F156">
         <v>80100</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B155">
+      <c r="B157">
         <v>22453</v>
       </c>
-      <c r="C155">
+      <c r="C157">
         <v>297541</v>
       </c>
-      <c r="D155">
+      <c r="D157">
         <v>16552</v>
       </c>
-      <c r="E155">
+      <c r="E157">
         <v>9123</v>
       </c>
-      <c r="F155">
+      <c r="F157">
         <v>79674</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B156">
+      <c r="B158">
         <v>22453</v>
       </c>
-      <c r="C156">
+      <c r="C158">
         <v>298121</v>
       </c>
-      <c r="D156">
+      <c r="D158">
         <v>16513</v>
       </c>
-      <c r="E156">
+      <c r="E158">
         <v>9123</v>
       </c>
-      <c r="F156">
+      <c r="F158">
         <v>78519</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B157">
+      <c r="B159">
         <v>22453</v>
       </c>
-      <c r="C157">
+      <c r="C159">
         <v>297810</v>
       </c>
-      <c r="D157">
+      <c r="D159">
         <v>16485</v>
       </c>
-      <c r="E157">
+      <c r="E159">
         <v>9097</v>
       </c>
-      <c r="F157">
+      <c r="F159">
         <v>78031</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B158">
+      <c r="B160">
         <v>22453</v>
       </c>
-      <c r="C158">
+      <c r="C160">
         <v>296081</v>
       </c>
-      <c r="D158">
+      <c r="D160">
         <v>16484</v>
       </c>
-      <c r="E158">
+      <c r="E160">
         <v>9097</v>
       </c>
-      <c r="F158">
+      <c r="F160">
         <v>77566</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B159">
+      <c r="B161">
         <v>22453</v>
       </c>
-      <c r="C159">
+      <c r="C161">
         <v>294142</v>
       </c>
-      <c r="D159">
+      <c r="D161">
         <v>16483</v>
       </c>
-      <c r="E159">
+      <c r="E161">
         <v>9053</v>
       </c>
-      <c r="F159">
+      <c r="F161">
         <v>76666</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B160">
+      <c r="B162">
         <v>24453</v>
       </c>
-      <c r="C160">
+      <c r="C162">
         <v>293909</v>
       </c>
-      <c r="D160">
+      <c r="D162">
         <v>16545</v>
       </c>
-      <c r="E160">
+      <c r="E162">
         <v>9053</v>
       </c>
-      <c r="F160">
+      <c r="F162">
         <v>75728</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B161">
+      <c r="B163">
         <v>24453</v>
       </c>
-      <c r="C161">
+      <c r="C163">
         <v>293042</v>
       </c>
-      <c r="D161">
+      <c r="D163">
         <v>16549</v>
       </c>
-      <c r="E161">
+      <c r="E163">
         <v>9053</v>
       </c>
-      <c r="F161">
+      <c r="F163">
         <v>75377</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B162">
+      <c r="B164">
         <v>24453</v>
       </c>
-      <c r="C162">
+      <c r="C164">
         <v>293931</v>
       </c>
-      <c r="D162">
+      <c r="D164">
         <v>16550</v>
       </c>
-      <c r="E162">
+      <c r="E164">
         <v>9053</v>
       </c>
-      <c r="F162">
+      <c r="F164">
         <v>74597</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B163">
+      <c r="B165">
         <v>24453</v>
       </c>
-      <c r="C163">
+      <c r="C165">
         <v>293657</v>
       </c>
-      <c r="D163">
+      <c r="D165">
         <v>16547</v>
       </c>
-      <c r="E163">
+      <c r="E165">
         <v>9053</v>
       </c>
-      <c r="F163">
+      <c r="F165">
         <v>73046</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B164">
+      <c r="B166">
         <v>24453</v>
       </c>
-      <c r="C164">
+      <c r="C166">
         <v>293213</v>
       </c>
-      <c r="D164">
+      <c r="D166">
         <v>16545</v>
       </c>
-      <c r="E164">
+      <c r="E166">
         <v>9023</v>
       </c>
-      <c r="F164">
+      <c r="F166">
         <v>72302</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B165">
+      <c r="B167">
         <v>24453</v>
       </c>
-      <c r="C165">
+      <c r="C167">
         <v>292105</v>
       </c>
-      <c r="D165">
+      <c r="D167">
         <v>16534</v>
       </c>
-      <c r="E165">
+      <c r="E167">
         <v>9023</v>
       </c>
-      <c r="F165">
+      <c r="F167">
         <v>71585</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B166">
+      <c r="B168">
         <v>24453</v>
       </c>
-      <c r="C166">
+      <c r="C168">
         <v>290888</v>
       </c>
-      <c r="D166">
+      <c r="D168">
         <v>16532</v>
       </c>
-      <c r="E166">
+      <c r="E168">
         <v>9023</v>
       </c>
-      <c r="F166">
+      <c r="F168">
         <v>71078</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B167">
+      <c r="B169">
         <v>24453</v>
       </c>
-      <c r="C167">
+      <c r="C169">
         <v>288274</v>
       </c>
-      <c r="D167">
+      <c r="D169">
         <v>16532</v>
       </c>
-      <c r="E167">
+      <c r="E169">
         <v>9023</v>
       </c>
-      <c r="F167">
+      <c r="F169">
         <v>70744</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B168">
+      <c r="B170">
         <v>24453</v>
       </c>
-      <c r="C168">
+      <c r="C170">
         <v>288343</v>
       </c>
-      <c r="D168">
+      <c r="D170">
         <v>15773</v>
       </c>
-      <c r="E168">
+      <c r="E170">
         <v>9023</v>
       </c>
-      <c r="F168">
+      <c r="F170">
         <v>70613</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B169">
+      <c r="B171">
         <v>24453</v>
       </c>
-      <c r="C169">
+      <c r="C171">
         <v>290057</v>
       </c>
-      <c r="D169">
+      <c r="D171">
         <v>14324</v>
       </c>
-      <c r="E169">
+      <c r="E171">
         <v>9023</v>
       </c>
-      <c r="F169">
+      <c r="F171">
         <v>71076</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B170">
+      <c r="B172">
         <v>24453</v>
       </c>
-      <c r="C170">
+      <c r="C172">
         <v>291975</v>
       </c>
-      <c r="D170">
+      <c r="D172">
         <v>13724</v>
       </c>
-      <c r="E170">
+      <c r="E172">
         <v>9023</v>
       </c>
-      <c r="F170">
+      <c r="F172">
         <v>70945</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B171">
+      <c r="B173">
         <v>24453</v>
       </c>
-      <c r="C171">
+      <c r="C173">
         <v>293957</v>
       </c>
-      <c r="D171">
+      <c r="D173">
         <v>13728</v>
       </c>
-      <c r="E171">
+      <c r="E173">
         <v>9023</v>
       </c>
-      <c r="F171">
+      <c r="F173">
         <v>71587</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B172">
+      <c r="B174">
         <v>24453</v>
       </c>
-      <c r="C172">
+      <c r="C174">
         <v>294546</v>
       </c>
-      <c r="D172">
+      <c r="D174">
         <v>13728</v>
       </c>
-      <c r="E172">
+      <c r="E174">
         <v>9023</v>
       </c>
-      <c r="F172">
+      <c r="F174">
         <v>71630</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <f>DATE(2024,12,25)</f>
+        <v>45651</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B173">
+      <c r="B176">
         <v>24453</v>
       </c>
-      <c r="C173">
+      <c r="C176">
         <v>294548</v>
       </c>
-      <c r="D173">
+      <c r="D176">
         <v>13728</v>
       </c>
-      <c r="E173">
+      <c r="E176">
         <v>9023</v>
       </c>
-      <c r="F173">
+      <c r="F176">
         <v>71630</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B174">
+      <c r="B177">
         <v>24453</v>
       </c>
-      <c r="C174">
+      <c r="C177">
         <v>295328</v>
       </c>
-      <c r="D174">
+      <c r="D177">
         <v>13078</v>
       </c>
-      <c r="E174">
+      <c r="E177">
         <v>9023</v>
       </c>
-      <c r="F174">
+      <c r="F177">
         <v>71607</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B175">
+      <c r="B178">
         <v>24453</v>
       </c>
-      <c r="C175">
+      <c r="C178">
         <v>295576</v>
       </c>
-      <c r="D175">
+      <c r="D178">
         <v>12928</v>
       </c>
-      <c r="E175">
+      <c r="E178">
         <v>9023</v>
       </c>
-      <c r="F175">
+      <c r="F178">
         <v>71234</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B176">
+      <c r="B179">
         <v>24563</v>
       </c>
-      <c r="C176">
+      <c r="C179">
         <v>297267</v>
       </c>
-      <c r="D176">
+      <c r="D179">
         <v>12825</v>
       </c>
-      <c r="E176">
+      <c r="E179">
         <v>9023</v>
       </c>
-      <c r="F176">
+      <c r="F179">
         <v>71235</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B177">
+      <c r="B180">
         <v>24838</v>
       </c>
-      <c r="C177">
+      <c r="C180">
         <v>301001</v>
       </c>
-      <c r="D177">
+      <c r="D180">
         <v>11878</v>
       </c>
-      <c r="E177">
+      <c r="E180">
         <v>6745</v>
       </c>
-      <c r="F177">
+      <c r="F180">
         <v>70647</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B178">
+      <c r="B181">
         <v>22948</v>
       </c>
-      <c r="C178">
+      <c r="C181">
         <v>298481</v>
       </c>
-      <c r="D178">
+      <c r="D181">
         <v>11878</v>
       </c>
-      <c r="E178">
+      <c r="E181">
         <v>6745</v>
       </c>
-      <c r="F178">
+      <c r="F181">
         <v>70240</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B179">
+      <c r="B182">
         <v>22838</v>
       </c>
-      <c r="C179">
+      <c r="C182">
         <v>294651</v>
       </c>
-      <c r="D179">
+      <c r="D182">
         <v>11550</v>
       </c>
-      <c r="E179">
+      <c r="E182">
         <v>6745</v>
       </c>
-      <c r="F179">
+      <c r="F182">
         <v>69820</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B180">
+      <c r="B183">
         <v>22838</v>
       </c>
-      <c r="C180">
+      <c r="C183">
         <v>293743</v>
       </c>
-      <c r="D180">
+      <c r="D183">
         <v>11552</v>
       </c>
-      <c r="E180">
+      <c r="E183">
         <v>6745</v>
       </c>
-      <c r="F180">
+      <c r="F183">
         <v>69282</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B181">
+      <c r="B184">
         <v>21988</v>
       </c>
-      <c r="C181">
+      <c r="C184">
         <v>288113</v>
       </c>
-      <c r="D181">
+      <c r="D184">
         <v>11508</v>
       </c>
-      <c r="E181">
+      <c r="E184">
         <v>6745</v>
       </c>
-      <c r="F181">
+      <c r="F184">
         <v>69248</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B182">
+      <c r="B185">
         <v>23418</v>
       </c>
-      <c r="C182">
+      <c r="C185">
         <v>283521</v>
       </c>
-      <c r="D182">
+      <c r="D185">
         <v>11465</v>
       </c>
-      <c r="E182">
+      <c r="E185">
         <v>6745</v>
       </c>
-      <c r="F182">
+      <c r="F185">
         <v>68433</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B183">
+      <c r="B186">
         <v>23393</v>
       </c>
-      <c r="C183">
+      <c r="C186">
         <v>278267</v>
       </c>
-      <c r="D183">
+      <c r="D186">
         <v>11221</v>
       </c>
-      <c r="E183">
+      <c r="E186">
         <v>6745</v>
       </c>
-      <c r="F183">
+      <c r="F186">
         <v>68330</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B184">
+      <c r="B187">
         <v>23343</v>
       </c>
-      <c r="C184">
+      <c r="C187">
         <v>271912</v>
       </c>
-      <c r="D184">
+      <c r="D187">
         <v>11221</v>
       </c>
-      <c r="E184">
+      <c r="E187">
         <v>6745</v>
       </c>
-      <c r="F184">
+      <c r="F187">
         <v>67798</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B185">
+      <c r="B188">
         <v>23343</v>
       </c>
-      <c r="C185">
+      <c r="C188">
         <v>262513</v>
       </c>
-      <c r="D185">
+      <c r="D188">
         <v>11153</v>
       </c>
-      <c r="E185">
+      <c r="E188">
         <v>6745</v>
       </c>
-      <c r="F185">
+      <c r="F188">
         <v>67781</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B186">
+      <c r="B189">
         <v>23343</v>
       </c>
-      <c r="C186">
+      <c r="C189">
         <v>259235</v>
       </c>
-      <c r="D186">
+      <c r="D189">
         <v>11112</v>
       </c>
-      <c r="E186">
+      <c r="E189">
         <v>6745</v>
       </c>
-      <c r="F186">
+      <c r="F189">
         <v>67474</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B187">
+      <c r="B190">
         <v>23143</v>
       </c>
-      <c r="C187">
+      <c r="C190">
         <v>254567</v>
       </c>
-      <c r="D187">
+      <c r="D190">
         <v>10602</v>
       </c>
-      <c r="E187">
+      <c r="E190">
         <v>6745</v>
       </c>
-      <c r="F187">
+      <c r="F190">
         <v>67195</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B188">
+      <c r="B191">
         <v>23143</v>
       </c>
-      <c r="C188">
+      <c r="C191">
         <v>250176</v>
       </c>
-      <c r="D188">
+      <c r="D191">
         <v>10602</v>
       </c>
-      <c r="E188">
+      <c r="E191">
         <v>6745</v>
       </c>
-      <c r="F188">
+      <c r="F191">
         <v>66414</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B189">
+      <c r="B192">
         <v>23140</v>
       </c>
-      <c r="C189">
+      <c r="C192">
         <v>247746</v>
       </c>
-      <c r="D189">
+      <c r="D192">
         <v>10565</v>
       </c>
-      <c r="E189">
+      <c r="E192">
         <v>6745</v>
       </c>
-      <c r="F189">
+      <c r="F192">
         <v>64844</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B190">
+      <c r="B193">
         <v>23140</v>
       </c>
-      <c r="C190">
+      <c r="C193">
         <v>246043</v>
       </c>
-      <c r="D190">
+      <c r="D193">
         <v>10529</v>
       </c>
-      <c r="E190">
+      <c r="E193">
         <v>6745</v>
       </c>
-      <c r="F190">
+      <c r="F193">
         <v>64045</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B191">
+      <c r="B194">
         <v>23140</v>
       </c>
-      <c r="C191">
+      <c r="C194">
         <v>244430</v>
       </c>
-      <c r="D191">
+      <c r="D194">
         <v>10469</v>
       </c>
-      <c r="E191">
+      <c r="E194">
         <v>6745</v>
       </c>
-      <c r="F191">
+      <c r="F194">
         <v>63744</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B192">
+      <c r="B195">
         <v>23140</v>
       </c>
-      <c r="C192">
+      <c r="C195">
         <v>243229</v>
       </c>
-      <c r="D192">
+      <c r="D195">
         <v>10465</v>
       </c>
-      <c r="E192">
+      <c r="E195">
         <v>6695</v>
       </c>
-      <c r="F192">
+      <c r="F195">
         <v>62851</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B193">
+      <c r="B196">
         <v>23140</v>
       </c>
-      <c r="C193">
+      <c r="C196">
         <v>241479</v>
       </c>
-      <c r="D193">
+      <c r="D196">
         <v>10465</v>
       </c>
-      <c r="E193">
+      <c r="E196">
         <v>6695</v>
       </c>
-      <c r="F193">
+      <c r="F196">
         <v>62679</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B194">
+      <c r="B197">
         <v>23135</v>
       </c>
-      <c r="C194">
+      <c r="C197">
         <v>237969</v>
       </c>
-      <c r="D194">
+      <c r="D197">
         <v>10465</v>
       </c>
-      <c r="E194">
+      <c r="E197">
         <v>6595</v>
       </c>
-      <c r="F194">
+      <c r="F197">
         <v>62260</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B195">
+      <c r="B198">
         <v>23135</v>
       </c>
-      <c r="C195">
+      <c r="C198">
         <v>241559</v>
       </c>
-      <c r="D195">
+      <c r="D198">
         <v>10465</v>
       </c>
-      <c r="E195">
+      <c r="E198">
         <v>6595</v>
       </c>
-      <c r="F195">
+      <c r="F198">
         <v>62018</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B196">
+      <c r="B199">
         <v>23135</v>
       </c>
-      <c r="C196">
+      <c r="C199">
         <v>240880</v>
       </c>
-      <c r="D196">
+      <c r="D199">
         <v>10465</v>
       </c>
-      <c r="E196">
+      <c r="E199">
         <v>6595</v>
       </c>
-      <c r="F196">
+      <c r="F199">
         <v>60231</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B197">
+      <c r="B200">
         <v>23135</v>
       </c>
-      <c r="C197">
+      <c r="C200">
         <v>242718</v>
       </c>
-      <c r="D197">
+      <c r="D200">
         <v>10410</v>
       </c>
-      <c r="E197">
+      <c r="E200">
         <v>6245</v>
       </c>
-      <c r="F197">
+      <c r="F200">
         <v>59530</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B198">
+      <c r="B201">
         <v>23135</v>
       </c>
-      <c r="C198">
+      <c r="C201">
         <v>242146</v>
       </c>
-      <c r="D198">
+      <c r="D201">
         <v>10410</v>
       </c>
-      <c r="E198">
+      <c r="E201">
         <v>6238</v>
       </c>
-      <c r="F198">
+      <c r="F201">
         <v>59300</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B199">
+      <c r="B202">
         <v>23134</v>
       </c>
-      <c r="C199">
+      <c r="C202">
         <v>240186</v>
       </c>
-      <c r="D199">
+      <c r="D202">
         <v>9470</v>
       </c>
-      <c r="E199">
+      <c r="E202">
         <v>6238</v>
       </c>
-      <c r="F199">
+      <c r="F202">
         <v>58316</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B200">
+      <c r="B203">
         <v>23134</v>
       </c>
-      <c r="C200">
+      <c r="C203">
         <v>240124</v>
       </c>
-      <c r="D200">
+      <c r="D203">
         <v>9470</v>
       </c>
-      <c r="E200">
+      <c r="E203">
         <v>6238</v>
       </c>
-      <c r="F200">
+      <c r="F203">
         <v>58006</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B201">
+      <c r="B204">
         <v>22884</v>
       </c>
-      <c r="C201">
+      <c r="C204">
         <v>239097</v>
       </c>
-      <c r="D201">
+      <c r="D204">
         <v>9474</v>
       </c>
-      <c r="E201">
+      <c r="E204">
         <v>6238</v>
       </c>
-      <c r="F201">
+      <c r="F204">
         <v>57910</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B202">
+      <c r="B205">
         <v>22884</v>
       </c>
-      <c r="C202">
+      <c r="C205">
         <v>236767</v>
       </c>
-      <c r="D202">
+      <c r="D205">
         <v>9474</v>
       </c>
-      <c r="E202">
+      <c r="E205">
         <v>6238</v>
       </c>
-      <c r="F202">
+      <c r="F205">
         <v>56984</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B203">
+      <c r="B206">
         <v>22884</v>
       </c>
-      <c r="C203">
+      <c r="C206">
         <v>237379</v>
       </c>
-      <c r="D203">
+      <c r="D206">
         <v>9469</v>
       </c>
-      <c r="E203">
+      <c r="E206">
         <v>6208</v>
       </c>
-      <c r="F203">
+      <c r="F206">
         <v>56896</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B204">
+      <c r="B207">
         <v>22884</v>
       </c>
-      <c r="C204">
+      <c r="C207">
         <v>236910</v>
       </c>
-      <c r="D204">
+      <c r="D207">
         <v>9469</v>
       </c>
-      <c r="E204">
+      <c r="E207">
         <v>6208</v>
       </c>
-      <c r="F204">
+      <c r="F207">
         <v>56929</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B205">
+      <c r="B208">
         <v>22884</v>
       </c>
-      <c r="C205">
+      <c r="C208">
         <v>235001</v>
       </c>
-      <c r="D205">
+      <c r="D208">
         <v>9519</v>
       </c>
-      <c r="E205">
+      <c r="E208">
         <v>6208</v>
       </c>
-      <c r="F205">
+      <c r="F208">
         <v>56515</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B206">
+      <c r="B209">
         <v>22884</v>
       </c>
-      <c r="C206">
+      <c r="C209">
         <v>231619</v>
       </c>
-      <c r="D206">
+      <c r="D209">
         <v>9619</v>
       </c>
-      <c r="E206">
+      <c r="E209">
         <v>6208</v>
       </c>
-      <c r="F206">
+      <c r="F209">
         <v>56072</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B207">
+      <c r="B210">
         <v>22884</v>
       </c>
-      <c r="C207">
+      <c r="C210">
         <v>230601</v>
       </c>
-      <c r="D207">
+      <c r="D210">
         <v>9690</v>
       </c>
-      <c r="E207">
+      <c r="E210">
         <v>6108</v>
       </c>
-      <c r="F207">
+      <c r="F210">
         <v>55998</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B208">
+      <c r="B211">
         <v>22884</v>
       </c>
-      <c r="C208">
+      <c r="C211">
         <v>230374</v>
       </c>
-      <c r="D208">
+      <c r="D211">
         <v>9677</v>
       </c>
-      <c r="E208">
+      <c r="E211">
         <v>5923</v>
       </c>
-      <c r="F208">
+      <c r="F211">
         <v>54727</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B209">
+      <c r="B212">
         <v>22884</v>
       </c>
-      <c r="C209">
+      <c r="C212">
         <v>229045</v>
       </c>
-      <c r="D209">
+      <c r="D212">
         <v>9677</v>
       </c>
-      <c r="E209">
+      <c r="E212">
         <v>5923</v>
       </c>
-      <c r="F209">
+      <c r="F212">
         <v>54404</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B210">
+      <c r="B213">
         <v>22884</v>
       </c>
-      <c r="C210">
+      <c r="C213">
         <v>227307</v>
       </c>
-      <c r="D210">
+      <c r="D213">
         <v>9567</v>
       </c>
-      <c r="E210">
+      <c r="E213">
         <v>5923</v>
       </c>
-      <c r="F210">
+      <c r="F213">
         <v>54456</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B211">
+      <c r="B214">
         <v>22884</v>
       </c>
-      <c r="C211">
+      <c r="C214">
         <v>227231</v>
       </c>
-      <c r="D211">
+      <c r="D214">
         <v>9567</v>
       </c>
-      <c r="E211">
+      <c r="E214">
         <v>5923</v>
       </c>
-      <c r="F211">
+      <c r="F214">
         <v>53878</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B212">
+      <c r="B215">
         <v>22884</v>
       </c>
-      <c r="C212">
+      <c r="C215">
         <v>226655</v>
       </c>
-      <c r="D212">
+      <c r="D215">
         <v>9547</v>
       </c>
-      <c r="E212">
+      <c r="E215">
         <v>5923</v>
       </c>
-      <c r="F212">
+      <c r="F215">
         <v>53986</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B213">
+      <c r="B216">
         <v>22884</v>
       </c>
-      <c r="C213">
+      <c r="C216">
         <v>226326</v>
       </c>
-      <c r="D213">
+      <c r="D216">
         <v>9540</v>
       </c>
-      <c r="E213">
+      <c r="E216">
         <v>5923</v>
       </c>
-      <c r="F213">
+      <c r="F216">
         <v>53441</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B214">
+      <c r="B217">
         <v>22884</v>
       </c>
-      <c r="C214">
+      <c r="C217">
         <v>225848</v>
       </c>
-      <c r="D214">
+      <c r="D217">
         <v>9540</v>
       </c>
-      <c r="E214">
+      <c r="E217">
         <v>5923</v>
       </c>
-      <c r="F214">
+      <c r="F217">
         <v>52683</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B215">
+      <c r="B218">
         <v>21875</v>
       </c>
-      <c r="C215">
+      <c r="C218">
         <v>225509</v>
       </c>
-      <c r="D215">
+      <c r="D218">
         <v>9540</v>
       </c>
-      <c r="E215">
+      <c r="E218">
         <v>5923</v>
       </c>
-      <c r="F215">
+      <c r="F218">
         <v>52453</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B216">
+      <c r="B219">
         <v>21875</v>
       </c>
-      <c r="C216">
+      <c r="C219">
         <v>227510</v>
       </c>
-      <c r="D216">
+      <c r="D219">
         <v>9540</v>
       </c>
-      <c r="E216">
+      <c r="E219">
         <v>5923</v>
       </c>
-      <c r="F216">
+      <c r="F219">
         <v>51188</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B217">
+      <c r="B220">
         <v>21875</v>
       </c>
-      <c r="C217">
+      <c r="C220">
         <v>226876</v>
       </c>
-      <c r="D217">
+      <c r="D220">
         <v>9540</v>
       </c>
-      <c r="E217">
+      <c r="E220">
         <v>5923</v>
       </c>
-      <c r="F217">
+      <c r="F220">
         <v>51133</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B218">
+      <c r="B221">
         <v>21875</v>
       </c>
-      <c r="C218">
+      <c r="C221">
         <v>227039</v>
       </c>
-      <c r="D218">
+      <c r="D221">
         <v>9540</v>
       </c>
-      <c r="E218">
+      <c r="E221">
         <v>5923</v>
       </c>
-      <c r="F218">
+      <c r="F221">
         <v>51049</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B219">
+      <c r="B222">
         <v>21875</v>
       </c>
-      <c r="C219">
+      <c r="C222">
         <v>225342</v>
       </c>
-      <c r="D219">
+      <c r="D222">
         <v>9536</v>
       </c>
-      <c r="E219">
+      <c r="E222">
         <v>5923</v>
       </c>
-      <c r="F219">
+      <c r="F222">
         <v>51091</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B220">
+      <c r="B223">
         <v>21875</v>
       </c>
-      <c r="C220">
+      <c r="C223">
         <v>224244</v>
       </c>
-      <c r="D220">
+      <c r="D223">
         <v>9536</v>
       </c>
-      <c r="E220">
+      <c r="E223">
         <v>5723</v>
       </c>
-      <c r="F220">
+      <c r="F223">
         <v>51028</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B221">
+      <c r="B224">
         <v>21875</v>
       </c>
-      <c r="C221">
+      <c r="C224">
         <v>223763</v>
       </c>
-      <c r="D221">
+      <c r="D224">
         <v>9536</v>
       </c>
-      <c r="E221">
+      <c r="E224">
         <v>5723</v>
       </c>
-      <c r="F221">
+      <c r="F224">
         <v>50423</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B222">
+      <c r="B225">
         <v>21875</v>
       </c>
-      <c r="C222">
+      <c r="C225">
         <v>221765</v>
       </c>
-      <c r="D222">
+      <c r="D225">
         <v>9538</v>
       </c>
-      <c r="E222">
+      <c r="E225">
         <v>5723</v>
       </c>
-      <c r="F222">
+      <c r="F225">
         <v>49665</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B223">
+      <c r="B226">
         <v>21875</v>
       </c>
-      <c r="C223">
+      <c r="C226">
         <v>221165</v>
       </c>
-      <c r="D223">
+      <c r="D226">
         <v>9530</v>
       </c>
-      <c r="E223">
+      <c r="E226">
         <v>5723</v>
       </c>
-      <c r="F223">
+      <c r="F226">
         <v>48992</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B224">
+      <c r="B227">
         <v>21875</v>
       </c>
-      <c r="C224">
+      <c r="C227">
         <v>220105</v>
       </c>
-      <c r="D224">
+      <c r="D227">
         <v>9485</v>
       </c>
-      <c r="E224">
+      <c r="E227">
         <v>5723</v>
       </c>
-      <c r="F224">
+      <c r="F227">
         <v>48124</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B225">
+      <c r="B228">
         <v>22075</v>
       </c>
-      <c r="C225">
+      <c r="C228">
         <v>219760</v>
       </c>
-      <c r="D225">
+      <c r="D228">
         <v>9485</v>
       </c>
-      <c r="E225">
+      <c r="E228">
         <v>5723</v>
       </c>
-      <c r="F225">
+      <c r="F228">
         <v>47918</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B226">
+      <c r="B229">
         <v>22075</v>
       </c>
-      <c r="C226">
+      <c r="C229">
         <v>218844</v>
       </c>
-      <c r="D226">
+      <c r="D229">
         <v>9485</v>
       </c>
-      <c r="E226">
+      <c r="E229">
         <v>5723</v>
       </c>
-      <c r="F226">
+      <c r="F229">
         <v>47824</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B227">
+      <c r="B230">
         <v>22075</v>
       </c>
-      <c r="C227">
+      <c r="C230">
         <v>218706</v>
       </c>
-      <c r="D227">
+      <c r="D230">
         <v>9480</v>
       </c>
-      <c r="E227">
+      <c r="E230">
         <v>5723</v>
       </c>
-      <c r="F227">
+      <c r="F230">
         <v>47848</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B228">
+      <c r="B231">
         <v>22075</v>
       </c>
-      <c r="C228">
+      <c r="C231">
         <v>213895</v>
       </c>
-      <c r="D228">
+      <c r="D231">
         <v>8979</v>
       </c>
-      <c r="E228">
+      <c r="E231">
         <v>5723</v>
       </c>
-      <c r="F228">
+      <c r="F231">
         <v>47418</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B229">
+      <c r="B232">
         <v>22075</v>
       </c>
-      <c r="C229">
+      <c r="C232">
         <v>212171</v>
       </c>
-      <c r="D229">
+      <c r="D232">
         <v>8549</v>
       </c>
-      <c r="E229">
+      <c r="E232">
         <v>5723</v>
       </c>
-      <c r="F229">
+      <c r="F232">
         <v>46991</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B230">
+      <c r="B233">
         <v>22075</v>
       </c>
-      <c r="C230">
+      <c r="C233">
         <v>211471</v>
       </c>
-      <c r="D230">
+      <c r="D233">
         <v>8549</v>
       </c>
-      <c r="E230">
+      <c r="E233">
         <v>5723</v>
       </c>
-      <c r="F230">
+      <c r="F233">
         <v>46777</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B231">
+      <c r="B234">
         <v>22075</v>
       </c>
-      <c r="C231">
+      <c r="C234">
         <v>210463</v>
       </c>
-      <c r="D231">
+      <c r="D234">
         <v>8530</v>
       </c>
-      <c r="E231">
+      <c r="E234">
         <v>5723</v>
       </c>
-      <c r="F231">
+      <c r="F234">
         <v>46762</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B232">
+      <c r="B235">
         <v>22075</v>
       </c>
-      <c r="C232">
+      <c r="C235">
         <v>210552</v>
       </c>
-      <c r="D232">
+      <c r="D235">
         <v>8527</v>
       </c>
-      <c r="E232">
+      <c r="E235">
         <v>5723</v>
       </c>
-      <c r="F232">
+      <c r="F235">
         <v>46600</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B233">
+      <c r="B236">
         <v>22075</v>
       </c>
-      <c r="C233">
+      <c r="C236">
         <v>203830</v>
       </c>
-      <c r="D233">
+      <c r="D236">
         <v>8527</v>
       </c>
-      <c r="E233">
+      <c r="E236">
         <v>5473</v>
       </c>
-      <c r="F233">
+      <c r="F236">
         <v>45716</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B234">
+      <c r="B237">
         <v>22075</v>
       </c>
-      <c r="C234">
+      <c r="C237">
         <v>197874</v>
       </c>
-      <c r="D234">
+      <c r="D237">
         <v>8436</v>
       </c>
-      <c r="E234">
+      <c r="E237">
         <v>5473</v>
       </c>
-      <c r="F234">
+      <c r="F237">
         <v>45261</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B235">
+      <c r="B238">
         <v>22075</v>
       </c>
-      <c r="C235">
+      <c r="C238">
         <v>197129</v>
       </c>
-      <c r="D235">
+      <c r="D238">
         <v>8436</v>
       </c>
-      <c r="E235">
+      <c r="E238">
         <v>5473</v>
       </c>
-      <c r="F235">
+      <c r="F238">
         <v>45232</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B236">
+      <c r="B239">
         <v>22075</v>
       </c>
-      <c r="C236">
+      <c r="C239">
         <v>196698</v>
       </c>
-      <c r="D236">
+      <c r="D239">
         <v>8436</v>
       </c>
-      <c r="E236">
+      <c r="E239">
         <v>5355</v>
       </c>
-      <c r="F236">
+      <c r="F239">
         <v>45271</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B237">
+      <c r="B240">
         <v>22163</v>
       </c>
-      <c r="C237">
+      <c r="C240">
         <v>194595</v>
       </c>
-      <c r="D237">
+      <c r="D240">
         <v>8436</v>
       </c>
-      <c r="E237">
+      <c r="E240">
         <v>5355</v>
       </c>
-      <c r="F237">
+      <c r="F240">
         <v>45226</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B238">
+      <c r="B241">
         <v>15813</v>
       </c>
-      <c r="C238">
+      <c r="C241">
         <v>193567</v>
       </c>
-      <c r="D238">
+      <c r="D241">
         <v>8436</v>
       </c>
-      <c r="E238">
+      <c r="E241">
         <v>5355</v>
       </c>
-      <c r="F238">
+      <c r="F241">
         <v>45184</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B239">
+      <c r="B242">
         <v>15813</v>
       </c>
-      <c r="C239">
+      <c r="C242">
         <v>192155</v>
       </c>
-      <c r="D239">
+      <c r="D242">
         <v>8436</v>
       </c>
-      <c r="E239">
+      <c r="E242">
         <v>5355</v>
       </c>
-      <c r="F239">
+      <c r="F242">
         <v>45282</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,9,20)</f>
         <v>45555</v>
       </c>
-      <c r="B240">
+      <c r="B243">
         <v>15813</v>
       </c>
-      <c r="C240">
+      <c r="C243">
         <v>190546</v>
       </c>
-      <c r="D240">
+      <c r="D243">
         <v>8436</v>
       </c>
-      <c r="E240">
+      <c r="E243">
         <v>5355</v>
       </c>
-      <c r="F240">
+      <c r="F243">
         <v>44347</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,9,19)</f>
         <v>45554</v>
       </c>
-      <c r="B241">
+      <c r="B244">
         <v>15813</v>
       </c>
-      <c r="C241">
+      <c r="C244">
         <v>190387</v>
       </c>
-      <c r="D241">
+      <c r="D244">
         <v>8436</v>
       </c>
-      <c r="E241">
+      <c r="E244">
         <v>5355</v>
       </c>
-      <c r="F241">
+      <c r="F244">
         <v>44138</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,9,18)</f>
         <v>45553</v>
       </c>
-      <c r="B242">
+      <c r="B245">
         <v>13763</v>
       </c>
-      <c r="C242">
+      <c r="C245">
         <v>189493</v>
       </c>
-      <c r="D242">
+      <c r="D245">
         <v>8411</v>
       </c>
-      <c r="E242">
+      <c r="E245">
         <v>5355</v>
       </c>
-      <c r="F242">
+      <c r="F245">
         <v>43888</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,9,17)</f>
         <v>45552</v>
       </c>
-      <c r="B243">
+      <c r="B246">
         <v>13763</v>
       </c>
-      <c r="C243">
+      <c r="C246">
         <v>189036</v>
       </c>
-      <c r="D243">
+      <c r="D246">
         <v>8405</v>
       </c>
-      <c r="E243">
+      <c r="E246">
         <v>5355</v>
       </c>
-      <c r="F243">
+      <c r="F246">
         <v>43717</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,9,16)</f>
         <v>45551</v>
       </c>
-      <c r="B244">
+      <c r="B247">
         <v>13763</v>
       </c>
-      <c r="C244">
+      <c r="C247">
         <v>189674</v>
       </c>
-      <c r="D244">
+      <c r="D247">
         <v>8405</v>
       </c>
-      <c r="E244">
+      <c r="E247">
         <v>5355</v>
       </c>
-      <c r="F244">
+      <c r="F247">
         <v>42926</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,9,13)</f>
         <v>45548</v>
       </c>
-      <c r="B245">
+      <c r="B248">
         <v>13760</v>
       </c>
-      <c r="C245">
+      <c r="C248">
         <v>190449</v>
       </c>
-      <c r="D245">
+      <c r="D248">
         <v>8368</v>
       </c>
-      <c r="E245">
+      <c r="E248">
         <v>5355</v>
       </c>
-      <c r="F245">
+      <c r="F248">
         <v>42350</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,9,12)</f>
         <v>45547</v>
       </c>
-      <c r="B246">
+      <c r="B249">
         <v>13760</v>
       </c>
-      <c r="C246">
+      <c r="C249">
         <v>190306</v>
       </c>
-      <c r="D246">
+      <c r="D249">
         <v>8368</v>
       </c>
-      <c r="E246">
+      <c r="E249">
         <v>5355</v>
       </c>
-      <c r="F246">
+      <c r="F249">
         <v>42577</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,9,11)</f>
         <v>45546</v>
       </c>
-      <c r="B247">
+      <c r="B250">
         <v>13760</v>
       </c>
-      <c r="C247">
+      <c r="C250">
         <v>190071</v>
       </c>
-      <c r="D247">
+      <c r="D250">
         <v>8367</v>
       </c>
-      <c r="E247">
+      <c r="E250">
         <v>5355</v>
       </c>
-      <c r="F247">
+      <c r="F250">
         <v>42349</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,9,10)</f>
         <v>45545</v>
       </c>
-      <c r="B248">
+      <c r="B251">
         <v>13760</v>
       </c>
-      <c r="C248">
+      <c r="C251">
         <v>191308</v>
       </c>
-      <c r="D248">
+      <c r="D251">
         <v>8357</v>
       </c>
-      <c r="E248">
+      <c r="E251">
         <v>5355</v>
       </c>
-      <c r="F248">
+      <c r="F251">
         <v>41864</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,9,9)</f>
         <v>45544</v>
       </c>
-      <c r="B249">
+      <c r="B252">
         <v>13760</v>
       </c>
-      <c r="C249">
+      <c r="C252">
         <v>190241</v>
       </c>
-      <c r="D249">
+      <c r="D252">
         <v>7636</v>
       </c>
-      <c r="E249">
+      <c r="E252">
         <v>5355</v>
       </c>
-      <c r="F249">
+      <c r="F252">
         <v>41723</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,9,6)</f>
         <v>45541</v>
       </c>
-      <c r="B250">
+      <c r="B253">
         <v>13760</v>
       </c>
-      <c r="C250">
+      <c r="C253">
         <v>188662</v>
       </c>
-      <c r="D250">
+      <c r="D253">
         <v>7083</v>
       </c>
-      <c r="E250">
+      <c r="E253">
         <v>5355</v>
       </c>
-      <c r="F250">
+      <c r="F253">
         <v>41637</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,9,5)</f>
         <v>45540</v>
       </c>
-      <c r="B251">
+      <c r="B254">
         <v>13760</v>
       </c>
-      <c r="C251">
+      <c r="C254">
         <v>181332</v>
       </c>
-      <c r="D251">
+      <c r="D254">
         <v>7083</v>
       </c>
-      <c r="E251">
+      <c r="E254">
         <v>5355</v>
       </c>
-      <c r="F251">
+      <c r="F254">
         <v>40826</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,9,4)</f>
         <v>45539</v>
       </c>
-      <c r="B252">
+      <c r="B255">
         <v>13760</v>
       </c>
-      <c r="C252">
+      <c r="C255">
         <v>180006</v>
       </c>
-      <c r="D252">
+      <c r="D255">
         <v>7082</v>
       </c>
-      <c r="E252">
+      <c r="E255">
         <v>5355</v>
       </c>
-      <c r="F252">
+      <c r="F255">
         <v>39752</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,9,3)</f>
         <v>45538</v>
       </c>
-      <c r="B253">
+      <c r="B256">
         <v>13760</v>
       </c>
-      <c r="C253">
+      <c r="C256">
         <v>178478</v>
       </c>
-      <c r="D253">
+      <c r="D256">
         <v>7061</v>
       </c>
-      <c r="E253">
+      <c r="E256">
         <v>5355</v>
       </c>
-      <c r="F253">
+      <c r="F256">
         <v>39608</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,9,2)</f>
         <v>45537</v>
       </c>
-      <c r="B254">
+      <c r="B257">
         <v>13760</v>
       </c>
-      <c r="C254">
+      <c r="C257">
         <v>177750</v>
       </c>
-      <c r="D254">
+      <c r="D257">
         <v>7061</v>
       </c>
-      <c r="E254">
+      <c r="E257">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F257">
         <v>39391</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,8,30)</f>
         <v>45534</v>
       </c>
-      <c r="B255">
+      <c r="B258">
         <v>13710</v>
       </c>
-      <c r="C255">
+      <c r="C258">
         <v>177653</v>
       </c>
-      <c r="D255">
+      <c r="D258">
         <v>7061</v>
       </c>
-      <c r="E255">
+      <c r="E258">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F258">
         <v>39276</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,8,29)</f>
         <v>45533</v>
       </c>
-      <c r="B256">
+      <c r="B259">
         <v>13710</v>
       </c>
-      <c r="C256">
+      <c r="C259">
         <v>176674</v>
       </c>
-      <c r="D256">
+      <c r="D259">
         <v>7061</v>
       </c>
-      <c r="E256">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F259">
         <v>39072</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,8,28)</f>
         <v>45532</v>
       </c>
-      <c r="B257">
+      <c r="B260">
         <v>13710</v>
       </c>
-      <c r="C257">
+      <c r="C260">
         <v>176117</v>
       </c>
-      <c r="D257">
+      <c r="D260">
         <v>7061</v>
       </c>
-      <c r="E257">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F257">
+      <c r="F260">
         <v>37790</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,8,27)</f>
         <v>45531</v>
       </c>
-      <c r="B258">
+      <c r="B261">
         <v>13710</v>
       </c>
-      <c r="C258">
+      <c r="C261">
         <v>175271</v>
       </c>
-      <c r="D258">
+      <c r="D261">
         <v>7061</v>
       </c>
-      <c r="E258">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F258">
+      <c r="F261">
         <v>37787</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,8,26)</f>
         <v>45530</v>
       </c>
-      <c r="B259">
-        <v>13710</v>
-      </c>
-      <c r="C259">
-        <v>175115</v>
-      </c>
-      <c r="D259">
-        <v>7061</v>
-      </c>
-      <c r="E259">
-        <v>5355</v>
-      </c>
-      <c r="F259">
-        <v>37432</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <f>DATE(2024,8,23)</f>
-        <v>45527</v>
-      </c>
-      <c r="B260">
-        <v>13710</v>
-      </c>
-      <c r="C260">
-        <v>174789</v>
-      </c>
-      <c r="D260">
-        <v>7061</v>
-      </c>
-      <c r="E260">
-        <v>5355</v>
-      </c>
-      <c r="F260">
-        <v>37384</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <f>DATE(2024,8,22)</f>
-        <v>45526</v>
-      </c>
-      <c r="B261">
-        <v>13710</v>
-      </c>
-      <c r="C261">
-        <v>174481</v>
-      </c>
-      <c r="D261">
-        <v>7061</v>
-      </c>
-      <c r="E261">
-        <v>5355</v>
-      </c>
-      <c r="F261">
-        <v>36792</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <f>DATE(2024,8,21)</f>
-        <v>45525</v>
-      </c>
       <c r="B262">
         <v>13710</v>
       </c>
       <c r="C262">
-        <v>174081</v>
+        <v>175115</v>
       </c>
       <c r="D262">
         <v>7061</v>
@@ -12857,7 +12857,7 @@
         <v>5355</v>
       </c>
       <c r="F262">
-        <v>36678</v>
+        <v>37432</v>
       </c>
     </row>
   </sheetData>
@@ -12870,7 +12870,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
-        <v>70.91</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12902,7 +12902,7 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
-        <v>71.040000000000006</v>
+        <v>72.260000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
-        <v>71.180000000000007</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
-        <v>71.290000000000006</v>
+        <v>72.53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
-        <v>71.8</v>
+        <v>73.040000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
-        <v>72.31</v>
+        <v>73.55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
-        <v>72.599999999999994</v>
+        <v>73.84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
-        <v>72.78</v>
+        <v>74.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
-        <v>73.2</v>
+        <v>74.47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12974,7 +12974,7 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
-        <v>73.72</v>
+        <v>74.989999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
-        <v>74.27</v>
+        <v>75.540000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
-        <v>74.7</v>
+        <v>75.97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
-        <v>75.430000000000007</v>
+        <v>76.69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -13010,7 +13010,7 @@
       </c>
       <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
-        <v>76.08</v>
+        <v>77.349999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
-        <v>76.73</v>
+        <v>78.010000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
-        <v>77.95</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
-        <v>80.599999999999994</v>
+        <v>82.11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
-        <v>83.7</v>
+        <v>85.22</v>
       </c>
     </row>
   </sheetData>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A1DD6-CFF8-4F79-B700-36D877D559B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D8359-4412-45EC-AAF3-0CA4B58B7F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,15 +268,15 @@
         <stp>Low</stp>
         <tr r="E16" s="1"/>
       </tp>
-      <tp>
-        <v>75.849999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Low</stp>
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>76.040000000000006</v>
+        <v>76.959999999999994</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
@@ -373,8 +373,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H34" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-1.999999999999999E-2</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Change</stp>
@@ -577,7 +577,7 @@
         <tr r="H39" s="1"/>
       </tp>
       <tp>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Change</stp>
@@ -773,49 +773,49 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>75.540000000000006</v>
+        <v>75.98</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>74.989999999999995</v>
+        <v>75.430000000000007</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>76.69</v>
+        <v>77.12</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>75.97</v>
+        <v>76.400000000000006</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>78.010000000000005</v>
+        <v>78.430000000000007</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>77.349999999999994</v>
+        <v>77.78</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>-0.66</v>
+        <v>-0.65</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -997,35 +997,35 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>75.489999999999995</v>
+        <v>77.47</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>76.180000000000007</v>
+        <v>78.150000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>74.489999999999995</v>
+        <v>76.459999999999994</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>77.260000000000005</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>77.23</v>
+        <v>79.209999999999994</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1046,28 +1046,28 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>-0.43</v>
+        <v>-0.42</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>74.430000000000007</v>
+        <v>76.36</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F11" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>76.86</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>75.400000000000006</v>
+        <v>77.319999999999993</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1081,14 +1081,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>76.150000000000006</v>
+        <v>78.099999999999994</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>76.69</v>
+        <v>78.650000000000006</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1116,7 +1116,7 @@
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>High</stp>
@@ -1130,7 +1130,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1284,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>46</v>
+        <v>85</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1326,14 +1326,14 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>161</v>
+        <v>192</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1346,8 +1346,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H29" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>High</stp>
@@ -1374,8 +1374,8 @@
         <stp>Change</stp>
         <tr r="C26" s="1"/>
       </tp>
-      <tp>
-        <v>3.0000000000000027E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Change</stp>
@@ -1424,7 +1424,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1577,15 +1577,15 @@
         <stp>Change</stp>
         <tr r="C12" s="1"/>
       </tp>
-      <tp>
-        <v>-0.12000000000000455</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Change</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>-0.53999999999999204</v>
+        <v>1.0799999999999983</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1647,8 +1647,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J50" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Last</stp>
@@ -1696,15 +1696,15 @@
         <stp>Recent Settlement</stp>
         <tr r="J53" s="1"/>
       </tp>
-      <tp>
-        <v>-0.01</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F30" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>ECFZ 2!-ICN</stp>
         <stp>Bid</stp>
@@ -1717,8 +1717,8 @@
         <stp>Low</stp>
         <tr r="E18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Low</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>71.989999999999995</v>
+        <v>73.97</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1846,7 +1846,7 @@
         <tr r="I60" s="1"/>
       </tp>
       <tp>
-        <v>72.52</v>
+        <v>74.06</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1902,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>31</v>
+        <v>5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1930,7 +1930,7 @@
         <tr r="H23" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>10</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1943,8 +1943,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.400000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Last</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>74.53</v>
+        <v>76</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>71.650000000000006</v>
+        <v>73.52</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2035,7 +2035,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>72.599999999999994</v>
+        <v>74.099999999999994</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2077,7 +2077,7 @@
         <tr r="I58" s="1"/>
       </tp>
       <tp>
-        <v>72.58</v>
+        <v>74.06</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2118,36 +2118,36 @@
         <stp>Open Interest</stp>
         <tr r="I57" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.400000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>High</stp>
         <tr r="D3" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.32</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G24" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.14000000000000001</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.24</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>-0.45</v>
+        <v>3.07</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2167,8 +2167,8 @@
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
@@ -2203,42 +2203,42 @@
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>-0.38</v>
+        <v>-3.9</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.57999999999999996</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>-0.19</v>
+        <v>-0.17</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F18" s="1"/>
       </tp>
       <tp>
-        <v>-0.16</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F17" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.44</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F24" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.37</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>71.650000000000006</v>
+        <v>73.650000000000006</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>73.930000000000007</v>
+        <v>75.89</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2287,21 +2287,21 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3449</v>
+        <v>3503</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>48750</v>
+        <v>49540</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>689</v>
+        <v>729</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2321,8 +2321,8 @@
         <stp>Open Interest</stp>
         <tr r="I15" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>25</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2350,7 +2350,7 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>-0.54</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Bid</stp>
@@ -2371,7 +2371,7 @@
         <tr r="J24" s="1"/>
       </tp>
       <tp>
-        <v>-0.21</v>
+        <v>-0.19</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2392,7 +2392,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2406,7 +2406,7 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>-0.16</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2429,7 +2429,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>78.010000000000005</v>
+        <v>78.430000000000007</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 15!-ICN</stp>
@@ -2437,7 +2437,7 @@
         <tr r="B16" s="4"/>
       </tp>
       <tp>
-        <v>77.349999999999994</v>
+        <v>77.78</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 14!-ICN</stp>
@@ -2445,7 +2445,7 @@
         <tr r="B15" s="4"/>
       </tp>
       <tp>
-        <v>82.11</v>
+        <v>82.59</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 17!-ICN</stp>
@@ -2453,7 +2453,7 @@
         <tr r="B18" s="4"/>
       </tp>
       <tp>
-        <v>79.25</v>
+        <v>79.64</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 16!-ICN</stp>
@@ -2461,7 +2461,7 @@
         <tr r="B17" s="4"/>
       </tp>
       <tp>
-        <v>75.540000000000006</v>
+        <v>75.98</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 11!-ICN</stp>
@@ -2469,7 +2469,7 @@
         <tr r="B12" s="4"/>
       </tp>
       <tp>
-        <v>74.989999999999995</v>
+        <v>75.430000000000007</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 10!-ICN</stp>
@@ -2477,7 +2477,7 @@
         <tr r="B11" s="4"/>
       </tp>
       <tp>
-        <v>76.69</v>
+        <v>77.12</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 13!-ICN</stp>
@@ -2485,7 +2485,7 @@
         <tr r="B14" s="4"/>
       </tp>
       <tp>
-        <v>75.97</v>
+        <v>76.400000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 12!-ICN</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B13" s="4"/>
       </tp>
       <tp>
-        <v>85.22</v>
+        <v>85.94</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 18!-ICN</stp>
@@ -2502,15 +2502,15 @@
       </tp>
     </main>
     <main first="esrtd">
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.57999999999999996</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.77</v>
+        <v>-0.78</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
@@ -2533,7 +2533,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>74.05</v>
+        <v>74.48</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 8!-ICN</stp>
@@ -2541,7 +2541,7 @@
         <tr r="B9" s="4"/>
       </tp>
       <tp>
-        <v>74.47</v>
+        <v>74.900000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 9!-ICN</stp>
@@ -2549,7 +2549,7 @@
         <tr r="B10" s="4"/>
       </tp>
       <tp>
-        <v>72.53</v>
+        <v>72.989999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 4!-ICN</stp>
@@ -2557,7 +2557,7 @@
         <tr r="B5" s="4"/>
       </tp>
       <tp>
-        <v>73.040000000000006</v>
+        <v>73.489999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 5!-ICN</stp>
@@ -2565,7 +2565,7 @@
         <tr r="B6" s="4"/>
       </tp>
       <tp>
-        <v>73.55</v>
+        <v>74</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 6!-ICN</stp>
@@ -2573,7 +2573,7 @@
         <tr r="B7" s="4"/>
       </tp>
       <tp>
-        <v>73.84</v>
+        <v>74.290000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 7!-ICN</stp>
@@ -2581,7 +2581,7 @@
         <tr r="B8" s="4"/>
       </tp>
       <tp>
-        <v>72.13</v>
+        <v>72.599999999999994</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 1!-ICN</stp>
@@ -2589,7 +2589,7 @@
         <tr r="B2" s="4"/>
       </tp>
       <tp>
-        <v>72.260000000000005</v>
+        <v>72.73</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 2!-ICN</stp>
@@ -2597,7 +2597,7 @@
         <tr r="B3" s="4"/>
       </tp>
       <tp>
-        <v>72.42</v>
+        <v>72.88</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 3!-ICN</stp>
@@ -2606,15 +2606,15 @@
       </tp>
     </main>
     <main first="esrtd">
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.1</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>-0.69</v>
+        <v>-0.68</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
@@ -2642,56 +2642,56 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>169313</v>
+        <v>170479</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>337516</v>
+        <v>340721</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>33952</v>
+        <v>34426</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>820</v>
+        <v>824</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>16141</v>
+        <v>16473</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>55494</v>
+        <v>55406</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>8371</v>
+        <v>8503</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>3138</v>
+        <v>3770</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2718,8 +2718,8 @@
         <stp>Low</stp>
         <tr r="E26" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Low</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>72</v>
+        <v>73.959999999999994</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>72.52</v>
+        <v>74.48</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>73.06</v>
+        <v>75.040000000000006</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>73.349999999999994</v>
+        <v>75.31</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>71.62</v>
+        <v>73.58</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>71.77</v>
+        <v>73.709999999999994</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>71.92</v>
+        <v>73.86</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>75.56</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>73.959999999999994</v>
+        <v>75.91</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2823,15 +2823,15 @@
         <stp>Last</stp>
         <tr r="B30" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B27" s="1"/>
       </tp>
-      <tp>
-        <v>75.849999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Last</stp>
@@ -2844,71 +2844,71 @@
         <stp>Last</stp>
         <tr r="B31" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>75.42</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>73.930000000000007</v>
+        <v>75.89</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>72.95</v>
+        <v>71.5</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>76.150000000000006</v>
+        <v>78.2</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>73.290000000000006</v>
+        <v>75.17</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>71.98</v>
+        <v>73.94</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>72.48</v>
+        <v>74.44</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>71.709999999999994</v>
+        <v>73.67</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.819999999999993</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>71.59</v>
+        <v>73.52</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3159,8 +3159,8 @@
         <stp>High</stp>
         <tr r="D11" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>High</stp>
@@ -3180,8 +3180,8 @@
         <stp>High</stp>
         <tr r="D30" s="1"/>
       </tp>
-      <tp>
-        <v>75.849999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>High</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>76.59</v>
+        <v>78.22</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3307,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>73.83</v>
+        <v>74.81</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3335,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>71.599999999999994</v>
+        <v>73.239999999999995</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3348,8 +3348,8 @@
         <stp>High</stp>
         <tr r="D35" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>73.39</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Low</stp>
@@ -3377,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>71.819999999999993</v>
+        <v>72.78</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3391,7 +3391,7 @@
         <tr r="D38" s="1"/>
       </tp>
       <tp>
-        <v>72.39</v>
+        <v>73.45</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>268</v>
+        <v>1026</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>10</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>31</v>
+        <v>269</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,14 +3573,14 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>9864</v>
+        <v>13756</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>331</v>
+        <v>5</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3762,14 +3762,14 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>-0.53999999999999204</v>
+        <v>0.98999999999999488</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
         <tr r="C10" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0.67000000000000171</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>-0.47999999999998977</v>
+        <v>0.92000000000000171</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3804,14 +3804,14 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>-0.54000000000000625</v>
+        <v>0.98000000000000398</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>-0.52000000000001023</v>
+        <v>0.57000000000000739</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -3846,7 +3846,7 @@
         <tr r="G48" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4441,63 +4441,63 @@
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>74.47</v>
+        <v>74.900000000000006</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>74.05</v>
+        <v>74.48</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>73.84</v>
+        <v>74.290000000000006</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>73.55</v>
+        <v>74</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>73.040000000000006</v>
+        <v>73.489999999999995</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>72.53</v>
+        <v>72.989999999999995</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>72.42</v>
+        <v>72.88</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>72.260000000000005</v>
+        <v>72.73</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>72.13</v>
+        <v>72.599999999999994</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4876,39 +4876,39 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>71.650000000000006</v>
+        <v>73.52</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>-0.47999999999998977</v>
+        <v>0.92000000000000171</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>71.650000000000006</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>71.599999999999994</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>71.59</v>
+        <v>73.52</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>71.62</v>
+        <v>73.58</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>55494</v>
+        <v>55406</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
-        <v>72.13</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,41 +4916,41 @@
         <f>RTD("esrtd",,"ECF 2!-ICN","Symbol")</f>
         <v>ECF 25V-ICN</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C3" t="str">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D3" t="str">
+        <v>0.67000000000000171</v>
+      </c>
+      <c r="D3">
         <f>RTD("esrtd",,"ECF 2!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E3" t="str">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
-        <v/>
+        <v>73.39</v>
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>71.709999999999994</v>
+        <v>73.67</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>71.77</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>8371</v>
+        <v>8503</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
-        <v>72.260000000000005</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,13 +4974,13 @@
         <f>RTD("esrtd",,"ECF 3!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v/>
+        <v>73.819999999999993</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>71.92</v>
+        <v>73.86</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="I4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Open Interest")</f>
-        <v>3138</v>
+        <v>3770</v>
       </c>
       <c r="J4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Recent Settlement")</f>
-        <v>72.42</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,39 +5002,39 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>71.989999999999995</v>
+        <v>73.97</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>-0.54000000000000625</v>
+        <v>0.98000000000000398</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>72.599999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>71.819999999999993</v>
+        <v>72.78</v>
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>71.98</v>
+        <v>73.94</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>72</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>9864</v>
+        <v>13756</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>337516</v>
+        <v>340721</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
-        <v>72.53</v>
+        <v>72.989999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,39 +5044,39 @@
       </c>
       <c r="B6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v>72.52</v>
+        <v>74.06</v>
       </c>
       <c r="C6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v>-0.52000000000001023</v>
+        <v>0.57000000000000739</v>
       </c>
       <c r="D6">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v>72.58</v>
+        <v>74.06</v>
       </c>
       <c r="E6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v>72.39</v>
+        <v>73.45</v>
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>72.48</v>
+        <v>74.44</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>72.52</v>
+        <v>74.48</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>331</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>33952</v>
+        <v>34426</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
-        <v>73.040000000000006</v>
+        <v>73.489999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>72.95</v>
+        <v>71.5</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>73.06</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5114,11 +5114,11 @@
       </c>
       <c r="I7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Open Interest")</f>
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="J7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Recent Settlement")</f>
-        <v>73.55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>73.290000000000006</v>
+        <v>75.17</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>73.349999999999994</v>
+        <v>75.31</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5156,11 +5156,11 @@
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
-        <v>16141</v>
+        <v>16473</v>
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
-        <v>73.84</v>
+        <v>74.290000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5184,13 +5184,13 @@
         <f>RTD("esrtd",,"ECF 8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G9" t="str">
+        <v>75.42</v>
+      </c>
+      <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v/>
+        <v>75.56</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Recent Settlement")</f>
-        <v>74.05</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>73.930000000000007</v>
+        <v>75.89</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>-0.53999999999999204</v>
+        <v>0.98999999999999488</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>74.53</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>73.83</v>
+        <v>74.81</v>
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>73.930000000000007</v>
+        <v>75.89</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>73.959999999999994</v>
+        <v>75.91</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>268</v>
+        <v>1026</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>169313</v>
+        <v>170479</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
-        <v>74.47</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>74.430000000000007</v>
+        <v>76.36</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>74.489999999999995</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
-        <v>74.989999999999995</v>
+        <v>75.430000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5310,13 +5310,13 @@
         <f>RTD("esrtd",,"ECF 11!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G12" t="str">
+        <v>76.86</v>
+      </c>
+      <c r="G12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Ask")</f>
-        <v/>
+        <v>77.260000000000005</v>
       </c>
       <c r="H12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Cumulative Volume")</f>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="J12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Recent Settlement")</f>
-        <v>75.540000000000006</v>
+        <v>75.98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5336,41 +5336,41 @@
         <f>RTD("esrtd",,"ECF 12!-ICN","Symbol")</f>
         <v>ECF 27Q-ICN</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Last")</f>
-        <v>75.849999999999994</v>
-      </c>
-      <c r="C13">
+        <v/>
+      </c>
+      <c r="C13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Change")</f>
-        <v>-0.12000000000000455</v>
-      </c>
-      <c r="D13">
+        <v/>
+      </c>
+      <c r="D13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","High")</f>
-        <v>75.849999999999994</v>
-      </c>
-      <c r="E13">
+        <v/>
+      </c>
+      <c r="E13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Low")</f>
-        <v>75.849999999999994</v>
+        <v/>
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>75.400000000000006</v>
+        <v>77.319999999999993</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>75.489999999999995</v>
+        <v>77.47</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
-        <v>3449</v>
+        <v>3503</v>
       </c>
       <c r="J13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Recent Settlement")</f>
-        <v>75.97</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,39 +5380,39 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>76.150000000000006</v>
+        <v>78.2</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>-0.53999999999999204</v>
+        <v>1.0799999999999983</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>76.59</v>
+        <v>78.22</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>76.040000000000006</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>76.150000000000006</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>76.180000000000007</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>48750</v>
+        <v>49540</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
-        <v>76.69</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>76.69</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>77.23</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="J15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Recent Settlement")</f>
-        <v>77.349999999999994</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5490,13 +5490,13 @@
         <f>RTD("esrtd",,"ECF 15!-ICN","Cumulative Volume")</f>
         <v>0</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Open Interest")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="J16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Recent Settlement")</f>
-        <v>78.010000000000005</v>
+        <v>78.430000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5504,25 +5504,25 @@
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Symbol")</f>
         <v>ECF 25U:ECF25V-ICN</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C17" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="C17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D17" t="str">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="D17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E17" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="E17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Low")</f>
-        <v/>
+        <v>-0.15</v>
       </c>
       <c r="F17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Bid")</f>
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Open Interest")</f>
@@ -5564,11 +5564,11 @@
       </c>
       <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v>-0.19</v>
-      </c>
-      <c r="G18" t="str">
+        <v>-0.17</v>
+      </c>
+      <c r="G18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v/>
+        <v>-0.13</v>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="J18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Recent Settlement")</f>
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5632,15 +5632,15 @@
       </c>
       <c r="B20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="C20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="E20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="J20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Recent Settlement")</f>
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v>-0.45</v>
+        <v>3.07</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5732,11 +5732,11 @@
       </c>
       <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v>-0.38</v>
+        <v>-3.9</v>
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.24</v>
+        <v>-0.15</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5772,13 +5772,13 @@
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G23" t="str">
+        <v>-0.37</v>
+      </c>
+      <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v/>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Recent Settlement")</f>
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5814,13 +5814,13 @@
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G24" t="str">
+        <v>-0.44</v>
+      </c>
+      <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v/>
+        <v>-0.32</v>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
-        <v>-0.54</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="J25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Recent Settlement")</f>
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5898,13 +5898,13 @@
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Bid")</f>
-        <v/>
-      </c>
-      <c r="G26" t="str">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="G26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Ask")</f>
-        <v/>
+        <v>-0.1</v>
       </c>
       <c r="H26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Cumulative Volume")</f>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="J26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Recent Settlement")</f>
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5924,33 +5924,33 @@
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Symbol")</f>
         <v>ECF 27Q:ECF27Z-ICN</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Last")</f>
-        <v>-0.69</v>
-      </c>
-      <c r="C27">
+        <v/>
+      </c>
+      <c r="C27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Change")</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="D27">
+        <v/>
+      </c>
+      <c r="D27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","High")</f>
-        <v>-0.69</v>
-      </c>
-      <c r="E27">
+        <v/>
+      </c>
+      <c r="E27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Low")</f>
-        <v>-0.69</v>
+        <v/>
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.77</v>
+        <v>-0.78</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v>-0.69</v>
+        <v>-0.68</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Open Interest")</f>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6066,9 +6066,9 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
-        <v>-0.01</v>
+        <v/>
       </c>
       <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -6108,9 +6108,9 @@
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Bid")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G31" t="str">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Ask")</f>
@@ -7356,8 +7356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,5411 +7444,5411 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>DATE(2025,8,29)</f>
+        <v>45898</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(2025,8,28)</f>
+        <v>45897</v>
+      </c>
+      <c r="B6">
+        <v>55406</v>
+      </c>
+      <c r="C6">
+        <v>340721</v>
+      </c>
+      <c r="D6">
+        <v>34426</v>
+      </c>
+      <c r="E6">
+        <v>16473</v>
+      </c>
+      <c r="F6">
+        <v>170479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>DATE(2025,8,27)</f>
+        <v>45896</v>
+      </c>
+      <c r="B7">
+        <v>55504</v>
+      </c>
+      <c r="C7">
+        <v>339452</v>
+      </c>
+      <c r="D7">
+        <v>34349</v>
+      </c>
+      <c r="E7">
+        <v>16473</v>
+      </c>
+      <c r="F7">
+        <v>169640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>DATE(2025,8,26)</f>
+        <v>45895</v>
+      </c>
+      <c r="B8">
+        <v>55650</v>
+      </c>
+      <c r="C8">
+        <v>340557</v>
+      </c>
+      <c r="D8">
+        <v>34302</v>
+      </c>
+      <c r="E8">
+        <v>16141</v>
+      </c>
+      <c r="F8">
+        <v>169468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>DATE(2025,8,25)</f>
+        <v>45894</v>
+      </c>
+      <c r="B9">
+        <v>55526</v>
+      </c>
+      <c r="C9">
+        <v>338181</v>
+      </c>
+      <c r="D9">
+        <v>34283</v>
+      </c>
+      <c r="E9">
+        <v>16141</v>
+      </c>
+      <c r="F9">
+        <v>169331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f>DATE(2025,8,22)</f>
         <v>45891</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>55494</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>337516</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>33952</v>
       </c>
-      <c r="E5">
+      <c r="E10">
         <v>16141</v>
       </c>
-      <c r="F5">
+      <c r="F10">
         <v>169313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,8,21)</f>
         <v>45890</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>55271</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>336880</v>
       </c>
-      <c r="D6">
+      <c r="D11">
         <v>33466</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>16134</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>169229</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,8,20)</f>
         <v>45889</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>55233</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>336461</v>
       </c>
-      <c r="D7">
+      <c r="D12">
         <v>32957</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>16282</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>167467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>55159</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>335216</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>32675</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>16112</v>
       </c>
-      <c r="F8">
+      <c r="F13">
         <v>166986</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>55038</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>334562</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>32404</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>16244</v>
       </c>
-      <c r="F9">
+      <c r="F14">
         <v>166189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>54467</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>332925</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>32139</v>
       </c>
-      <c r="E10">
+      <c r="E15">
         <v>16114</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>165785</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>52654</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>331793</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>32139</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>16114</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>165035</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>49078</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>334724</v>
       </c>
-      <c r="D12">
+      <c r="D17">
         <v>31135</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <v>16086</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>165282</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>49075</v>
       </c>
-      <c r="C13">
+      <c r="C18">
         <v>333519</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>31129</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>16084</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>165259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>49079</v>
       </c>
-      <c r="C14">
+      <c r="C19">
         <v>332913</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>31123</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>16080</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>164418</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>49029</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>334592</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>31103</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>16080</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>164283</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>49035</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>334273</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>31046</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>16080</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>162523</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>49028</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>335278</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>30118</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>16080</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>162858</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>49028</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>333937</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <v>30037</v>
       </c>
-      <c r="E18">
+      <c r="E23">
         <v>16079</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <v>161752</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>48952</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>333839</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>30018</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>16079</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>161155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>48947</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>335306</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>29963</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>16079</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>160284</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>48946</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>335217</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>29443</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>16054</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>159960</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>48458</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>334621</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>29466</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>16054</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>159968</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>48210</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>335880</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>29456</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>16054</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>159282</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>48261</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <v>333961</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>29447</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>16053</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>158865</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>48208</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>333078</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>29391</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <v>16051</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <v>158379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>48527</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>332644</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>29344</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>16051</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>158783</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B27">
+      <c r="B32">
         <v>48515</v>
       </c>
-      <c r="C27">
+      <c r="C32">
         <v>331048</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>29341</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>16051</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>157895</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>48536</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>329710</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>29291</v>
       </c>
-      <c r="E28">
+      <c r="E33">
         <v>16048</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <v>157083</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>48510</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>328708</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>28676</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>16045</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <v>155953</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>48350</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>327097</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>28361</v>
       </c>
-      <c r="E30">
+      <c r="E35">
         <v>16027</v>
       </c>
-      <c r="F30">
+      <c r="F35">
         <v>155293</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>48330</v>
       </c>
-      <c r="C31">
+      <c r="C36">
         <v>326066</v>
       </c>
-      <c r="D31">
+      <c r="D36">
         <v>27846</v>
       </c>
-      <c r="E31">
+      <c r="E36">
         <v>16025</v>
       </c>
-      <c r="F31">
+      <c r="F36">
         <v>154555</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>48290</v>
       </c>
-      <c r="C32">
+      <c r="C37">
         <v>326325</v>
       </c>
-      <c r="D32">
+      <c r="D37">
         <v>27426</v>
       </c>
-      <c r="E32">
+      <c r="E37">
         <v>16024</v>
       </c>
-      <c r="F32">
+      <c r="F37">
         <v>153864</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>48290</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>325885</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>27369</v>
       </c>
-      <c r="E33">
+      <c r="E38">
         <v>16006</v>
       </c>
-      <c r="F33">
+      <c r="F38">
         <v>152993</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>48290</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>323301</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>27355</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>15982</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <v>152111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>48290</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>321020</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>27331</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>15975</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>151848</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>48236</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>321618</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>26279</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>15958</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>150659</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>48121</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>320154</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>26263</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>15955</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>150687</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>47384</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>319320</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>26236</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>15950</v>
       </c>
-      <c r="F38">
+      <c r="F43">
         <v>149986</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>46088</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>318933</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>26180</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>15944</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <v>149479</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>45908</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>319160</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>26167</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>15922</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <v>149447</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>45896</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>318241</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>26163</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>15918</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <v>149132</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>44033</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>319486</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>22147</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>15913</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <v>147950</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B43">
+      <c r="B48">
         <v>43816</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>318476</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <v>22099</v>
       </c>
-      <c r="E43">
+      <c r="E48">
         <v>15913</v>
       </c>
-      <c r="F43">
+      <c r="F48">
         <v>147288</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B44">
+      <c r="B49">
         <v>43451</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>319974</v>
       </c>
-      <c r="D44">
+      <c r="D49">
         <v>22070</v>
       </c>
-      <c r="E44">
+      <c r="E49">
         <v>15831</v>
       </c>
-      <c r="F44">
+      <c r="F49">
         <v>147310</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>42536</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>319363</v>
       </c>
-      <c r="D45">
+      <c r="D50">
         <v>22090</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>15797</v>
       </c>
-      <c r="F45">
+      <c r="F50">
         <v>146216</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B46">
+      <c r="B51">
         <v>40059</v>
       </c>
-      <c r="C46">
+      <c r="C51">
         <v>320370</v>
       </c>
-      <c r="D46">
+      <c r="D51">
         <v>22093</v>
       </c>
-      <c r="E46">
+      <c r="E51">
         <v>15793</v>
       </c>
-      <c r="F46">
+      <c r="F51">
         <v>145781</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <v>32534</v>
       </c>
-      <c r="C47">
+      <c r="C52">
         <v>322739</v>
       </c>
-      <c r="D47">
+      <c r="D52">
         <v>22106</v>
       </c>
-      <c r="E47">
+      <c r="E52">
         <v>15793</v>
       </c>
-      <c r="F47">
+      <c r="F52">
         <v>144874</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B48">
+      <c r="B53">
         <v>34154</v>
       </c>
-      <c r="C48">
+      <c r="C53">
         <v>321931</v>
       </c>
-      <c r="D48">
+      <c r="D53">
         <v>22111</v>
       </c>
-      <c r="E48">
+      <c r="E53">
         <v>15767</v>
       </c>
-      <c r="F48">
+      <c r="F53">
         <v>143864</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B49">
+      <c r="B54">
         <v>33248</v>
       </c>
-      <c r="C49">
+      <c r="C54">
         <v>324446</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>22093</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>15765</v>
       </c>
-      <c r="F49">
+      <c r="F54">
         <v>143661</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B50">
+      <c r="B55">
         <v>32748</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>324690</v>
       </c>
-      <c r="D50">
+      <c r="D55">
         <v>22083</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>15711</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>141607</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B51">
+      <c r="B56">
         <v>29868</v>
       </c>
-      <c r="C51">
+      <c r="C56">
         <v>325610</v>
       </c>
-      <c r="D51">
+      <c r="D56">
         <v>21978</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>15711</v>
       </c>
-      <c r="F51">
+      <c r="F56">
         <v>141254</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B52">
+      <c r="B57">
         <v>29755</v>
       </c>
-      <c r="C52">
+      <c r="C57">
         <v>324035</v>
       </c>
-      <c r="D52">
+      <c r="D57">
         <v>21941</v>
       </c>
-      <c r="E52">
+      <c r="E57">
         <v>15590</v>
       </c>
-      <c r="F52">
+      <c r="F57">
         <v>141078</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>29755</v>
       </c>
-      <c r="C53">
+      <c r="C58">
         <v>325145</v>
       </c>
-      <c r="D53">
+      <c r="D58">
         <v>21924</v>
       </c>
-      <c r="E53">
+      <c r="E58">
         <v>15586</v>
       </c>
-      <c r="F53">
+      <c r="F58">
         <v>140266</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B54">
+      <c r="B59">
         <v>29945</v>
       </c>
-      <c r="C54">
+      <c r="C59">
         <v>323780</v>
       </c>
-      <c r="D54">
+      <c r="D59">
         <v>21902</v>
       </c>
-      <c r="E54">
+      <c r="E59">
         <v>15585</v>
       </c>
-      <c r="F54">
+      <c r="F59">
         <v>139680</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>29788</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>323965</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>21895</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>15585</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>139317</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>29786</v>
       </c>
-      <c r="C56">
+      <c r="C61">
         <v>324500</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>21872</v>
       </c>
-      <c r="E56">
+      <c r="E61">
         <v>15580</v>
       </c>
-      <c r="F56">
+      <c r="F61">
         <v>139012</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B57">
+      <c r="B62">
         <v>29802</v>
       </c>
-      <c r="C57">
+      <c r="C62">
         <v>322494</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>21864</v>
       </c>
-      <c r="E57">
+      <c r="E62">
         <v>15492</v>
       </c>
-      <c r="F57">
+      <c r="F62">
         <v>138712</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>29807</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>320699</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>21824</v>
       </c>
-      <c r="E58">
+      <c r="E63">
         <v>15492</v>
       </c>
-      <c r="F58">
+      <c r="F63">
         <v>137682</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>29507</v>
       </c>
-      <c r="C59">
+      <c r="C64">
         <v>320734</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>21788</v>
       </c>
-      <c r="E59">
+      <c r="E64">
         <v>15489</v>
       </c>
-      <c r="F59">
+      <c r="F64">
         <v>135467</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>29495</v>
       </c>
-      <c r="C60">
+      <c r="C65">
         <v>321022</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>21780</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <v>15489</v>
       </c>
-      <c r="F60">
+      <c r="F65">
         <v>135063</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B61">
+      <c r="B66">
         <v>29495</v>
       </c>
-      <c r="C61">
+      <c r="C66">
         <v>321194</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>21775</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <v>15489</v>
       </c>
-      <c r="F61">
+      <c r="F66">
         <v>134947</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B62">
+      <c r="B67">
         <v>28625</v>
       </c>
-      <c r="C62">
+      <c r="C67">
         <v>320187</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>21522</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>15439</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <v>134377</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>28625</v>
       </c>
-      <c r="C63">
+      <c r="C68">
         <v>319824</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>21515</v>
       </c>
-      <c r="E63">
+      <c r="E68">
         <v>15436</v>
       </c>
-      <c r="F63">
+      <c r="F68">
         <v>134162</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>28625</v>
       </c>
-      <c r="C64">
+      <c r="C69">
         <v>317426</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>21513</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <v>15431</v>
       </c>
-      <c r="F64">
+      <c r="F69">
         <v>134076</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>28625</v>
       </c>
-      <c r="C65">
+      <c r="C70">
         <v>317555</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>21513</v>
       </c>
-      <c r="E65">
+      <c r="E70">
         <v>15428</v>
       </c>
-      <c r="F65">
+      <c r="F70">
         <v>134058</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>26625</v>
       </c>
-      <c r="C66">
+      <c r="C71">
         <v>320491</v>
       </c>
-      <c r="D66">
+      <c r="D71">
         <v>21498</v>
       </c>
-      <c r="E66">
+      <c r="E71">
         <v>15425</v>
       </c>
-      <c r="F66">
+      <c r="F71">
         <v>134450</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>26367</v>
       </c>
-      <c r="C67">
+      <c r="C72">
         <v>320932</v>
       </c>
-      <c r="D67">
+      <c r="D72">
         <v>21499</v>
       </c>
-      <c r="E67">
+      <c r="E72">
         <v>15314</v>
       </c>
-      <c r="F67">
+      <c r="F72">
         <v>133557</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>26367</v>
       </c>
-      <c r="C68">
+      <c r="C73">
         <v>318101</v>
       </c>
-      <c r="D68">
+      <c r="D73">
         <v>21483</v>
       </c>
-      <c r="E68">
+      <c r="E73">
         <v>15311</v>
       </c>
-      <c r="F68">
+      <c r="F73">
         <v>131923</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <v>26217</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <v>316769</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>21445</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <v>15301</v>
       </c>
-      <c r="F69">
+      <c r="F74">
         <v>131071</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B70">
+      <c r="B75">
         <v>26217</v>
       </c>
-      <c r="C70">
+      <c r="C75">
         <v>317448</v>
       </c>
-      <c r="D70">
+      <c r="D75">
         <v>21403</v>
       </c>
-      <c r="E70">
+      <c r="E75">
         <v>15301</v>
       </c>
-      <c r="F70">
+      <c r="F75">
         <v>131000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B71">
+      <c r="B76">
         <v>26217</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>318727</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>21398</v>
       </c>
-      <c r="E71">
+      <c r="E76">
         <v>15293</v>
       </c>
-      <c r="F71">
+      <c r="F76">
         <v>130192</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B72">
+      <c r="B77">
         <v>26217</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>318115</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>21391</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>15279</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>130222</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B73">
+      <c r="B78">
         <v>26217</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>317798</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>21368</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>15251</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>130033</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>26217</v>
       </c>
-      <c r="C74">
+      <c r="C79">
         <v>316698</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>21361</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <v>15248</v>
       </c>
-      <c r="F74">
+      <c r="F79">
         <v>129719</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B75">
+      <c r="B80">
         <v>26217</v>
       </c>
-      <c r="C75">
+      <c r="C80">
         <v>317705</v>
       </c>
-      <c r="D75">
+      <c r="D80">
         <v>21349</v>
       </c>
-      <c r="E75">
+      <c r="E80">
         <v>15234</v>
       </c>
-      <c r="F75">
+      <c r="F80">
         <v>126662</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>25937</v>
       </c>
-      <c r="C76">
+      <c r="C81">
         <v>317478</v>
       </c>
-      <c r="D76">
+      <c r="D81">
         <v>21328</v>
       </c>
-      <c r="E76">
+      <c r="E81">
         <v>15234</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>126329</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B77">
+      <c r="B82">
         <v>25938</v>
       </c>
-      <c r="C77">
+      <c r="C82">
         <v>318806</v>
       </c>
-      <c r="D77">
+      <c r="D82">
         <v>21321</v>
       </c>
-      <c r="E77">
+      <c r="E82">
         <v>15229</v>
       </c>
-      <c r="F77">
+      <c r="F82">
         <v>126269</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>25926</v>
       </c>
-      <c r="C78">
+      <c r="C83">
         <v>318809</v>
       </c>
-      <c r="D78">
+      <c r="D83">
         <v>21275</v>
       </c>
-      <c r="E78">
+      <c r="E83">
         <v>15118</v>
       </c>
-      <c r="F78">
+      <c r="F83">
         <v>126146</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B79">
+      <c r="B84">
         <v>25926</v>
       </c>
-      <c r="C79">
+      <c r="C84">
         <v>322318</v>
       </c>
-      <c r="D79">
+      <c r="D84">
         <v>21275</v>
       </c>
-      <c r="E79">
+      <c r="E84">
         <v>15109</v>
       </c>
-      <c r="F79">
+      <c r="F84">
         <v>125191</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B80">
+      <c r="B85">
         <v>25926</v>
       </c>
-      <c r="C80">
+      <c r="C85">
         <v>323552</v>
       </c>
-      <c r="D80">
+      <c r="D85">
         <v>21277</v>
       </c>
-      <c r="E80">
+      <c r="E85">
         <v>15059</v>
       </c>
-      <c r="F80">
+      <c r="F85">
         <v>124559</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B81">
+      <c r="B86">
         <v>25675</v>
       </c>
-      <c r="C81">
+      <c r="C86">
         <v>324400</v>
       </c>
-      <c r="D81">
+      <c r="D86">
         <v>21262</v>
       </c>
-      <c r="E81">
+      <c r="E86">
         <v>15056</v>
       </c>
-      <c r="F81">
+      <c r="F86">
         <v>123029</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B82">
+      <c r="B87">
         <v>25675</v>
       </c>
-      <c r="C82">
+      <c r="C87">
         <v>325047</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>21413</v>
       </c>
-      <c r="E82">
+      <c r="E87">
         <v>15041</v>
       </c>
-      <c r="F82">
+      <c r="F87">
         <v>122900</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B83">
+      <c r="B88">
         <v>24625</v>
       </c>
-      <c r="C83">
+      <c r="C88">
         <v>328301</v>
       </c>
-      <c r="D83">
+      <c r="D88">
         <v>21423</v>
       </c>
-      <c r="E83">
+      <c r="E88">
         <v>15008</v>
       </c>
-      <c r="F83">
+      <c r="F88">
         <v>122781</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B84">
+      <c r="B89">
         <v>24626</v>
       </c>
-      <c r="C84">
+      <c r="C89">
         <v>327642</v>
       </c>
-      <c r="D84">
+      <c r="D89">
         <v>21415</v>
       </c>
-      <c r="E84">
+      <c r="E89">
         <v>15003</v>
       </c>
-      <c r="F84">
+      <c r="F89">
         <v>122489</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B85">
+      <c r="B90">
         <v>24626</v>
       </c>
-      <c r="C85">
+      <c r="C90">
         <v>327584</v>
       </c>
-      <c r="D85">
+      <c r="D90">
         <v>21413</v>
       </c>
-      <c r="E85">
+      <c r="E90">
         <v>14988</v>
       </c>
-      <c r="F85">
+      <c r="F90">
         <v>122317</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B86">
+      <c r="B91">
         <v>24626</v>
       </c>
-      <c r="C86">
+      <c r="C91">
         <v>328038</v>
       </c>
-      <c r="D86">
+      <c r="D91">
         <v>21411</v>
       </c>
-      <c r="E86">
+      <c r="E91">
         <v>14988</v>
       </c>
-      <c r="F86">
+      <c r="F91">
         <v>122490</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B87">
+      <c r="B92">
         <v>24626</v>
       </c>
-      <c r="C87">
+      <c r="C92">
         <v>329167</v>
       </c>
-      <c r="D87">
+      <c r="D92">
         <v>21411</v>
       </c>
-      <c r="E87">
+      <c r="E92">
         <v>14988</v>
       </c>
-      <c r="F87">
+      <c r="F92">
         <v>122383</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B88">
+      <c r="B93">
         <v>24626</v>
       </c>
-      <c r="C88">
+      <c r="C93">
         <v>331622</v>
       </c>
-      <c r="D88">
+      <c r="D93">
         <v>21411</v>
       </c>
-      <c r="E88">
+      <c r="E93">
         <v>14985</v>
       </c>
-      <c r="F88">
+      <c r="F93">
         <v>122385</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B89">
+      <c r="B94">
         <v>24625</v>
       </c>
-      <c r="C89">
+      <c r="C94">
         <v>328527</v>
       </c>
-      <c r="D89">
+      <c r="D94">
         <v>21402</v>
       </c>
-      <c r="E89">
+      <c r="E94">
         <v>14985</v>
       </c>
-      <c r="F89">
+      <c r="F94">
         <v>122362</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B90">
+      <c r="B95">
         <v>24624</v>
       </c>
-      <c r="C90">
+      <c r="C95">
         <v>328566</v>
       </c>
-      <c r="D90">
+      <c r="D95">
         <v>21395</v>
       </c>
-      <c r="E90">
+      <c r="E95">
         <v>14981</v>
       </c>
-      <c r="F90">
+      <c r="F95">
         <v>122041</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B91">
+      <c r="B96">
         <v>24624</v>
       </c>
-      <c r="C91">
+      <c r="C96">
         <v>328740</v>
       </c>
-      <c r="D91">
+      <c r="D96">
         <v>21395</v>
       </c>
-      <c r="E91">
+      <c r="E96">
         <v>14981</v>
       </c>
-      <c r="F91">
+      <c r="F96">
         <v>121644</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B92">
+      <c r="B97">
         <v>24624</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>328807</v>
       </c>
-      <c r="D92">
+      <c r="D97">
         <v>21388</v>
       </c>
-      <c r="E92">
+      <c r="E97">
         <v>14981</v>
       </c>
-      <c r="F92">
+      <c r="F97">
         <v>120938</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B93">
+      <c r="B98">
         <v>24524</v>
       </c>
-      <c r="C93">
+      <c r="C98">
         <v>329625</v>
       </c>
-      <c r="D93">
+      <c r="D98">
         <v>21288</v>
       </c>
-      <c r="E93">
+      <c r="E98">
         <v>14981</v>
       </c>
-      <c r="F93">
+      <c r="F98">
         <v>120854</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B94">
+      <c r="B99">
         <v>24524</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>328126</v>
       </c>
-      <c r="D94">
+      <c r="D99">
         <v>21270</v>
       </c>
-      <c r="E94">
+      <c r="E99">
         <v>14936</v>
       </c>
-      <c r="F94">
+      <c r="F99">
         <v>119789</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B95">
+      <c r="B100">
         <v>24524</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <v>328130</v>
       </c>
-      <c r="D95">
+      <c r="D100">
         <v>21270</v>
       </c>
-      <c r="E95">
+      <c r="E100">
         <v>14936</v>
       </c>
-      <c r="F95">
+      <c r="F100">
         <v>119789</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B96">
+      <c r="B101">
         <v>24523</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>327733</v>
       </c>
-      <c r="D96">
+      <c r="D101">
         <v>21243</v>
       </c>
-      <c r="E96">
+      <c r="E101">
         <v>14901</v>
       </c>
-      <c r="F96">
+      <c r="F101">
         <v>119296</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B97">
+      <c r="B102">
         <v>24322</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <v>328550</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <v>21229</v>
       </c>
-      <c r="E97">
+      <c r="E102">
         <v>14880</v>
       </c>
-      <c r="F97">
+      <c r="F102">
         <v>118373</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B98">
+      <c r="B103">
         <v>24271</v>
       </c>
-      <c r="C98">
+      <c r="C103">
         <v>327744</v>
       </c>
-      <c r="D98">
+      <c r="D103">
         <v>21201</v>
       </c>
-      <c r="E98">
+      <c r="E103">
         <v>14871</v>
       </c>
-      <c r="F98">
+      <c r="F103">
         <v>117664</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B99">
+      <c r="B104">
         <v>24271</v>
       </c>
-      <c r="C99">
+      <c r="C104">
         <v>328218</v>
       </c>
-      <c r="D99">
+      <c r="D104">
         <v>21166</v>
       </c>
-      <c r="E99">
+      <c r="E104">
         <v>14871</v>
       </c>
-      <c r="F99">
+      <c r="F104">
         <v>117150</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B100">
+      <c r="B105">
         <v>24264</v>
       </c>
-      <c r="C100">
+      <c r="C105">
         <v>328856</v>
       </c>
-      <c r="D100">
+      <c r="D105">
         <v>21150</v>
       </c>
-      <c r="E100">
+      <c r="E105">
         <v>14871</v>
       </c>
-      <c r="F100">
+      <c r="F105">
         <v>115703</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B101">
+      <c r="B106">
         <v>24263</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>329497</v>
       </c>
-      <c r="D101">
+      <c r="D106">
         <v>21076</v>
       </c>
-      <c r="E101">
+      <c r="E106">
         <v>14850</v>
       </c>
-      <c r="F101">
+      <c r="F106">
         <v>115523</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B102">
+      <c r="B107">
         <v>24263</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <v>329531</v>
       </c>
-      <c r="D102">
+      <c r="D107">
         <v>21035</v>
       </c>
-      <c r="E102">
+      <c r="E107">
         <v>14649</v>
       </c>
-      <c r="F102">
+      <c r="F107">
         <v>112870</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B103">
+      <c r="B108">
         <v>24262</v>
       </c>
-      <c r="C103">
+      <c r="C108">
         <v>330726</v>
       </c>
-      <c r="D103">
+      <c r="D108">
         <v>21023</v>
       </c>
-      <c r="E103">
+      <c r="E108">
         <v>14649</v>
       </c>
-      <c r="F103">
+      <c r="F108">
         <v>110491</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B104">
+      <c r="B109">
         <v>24260</v>
       </c>
-      <c r="C104">
+      <c r="C109">
         <v>331383</v>
       </c>
-      <c r="D104">
+      <c r="D109">
         <v>18009</v>
       </c>
-      <c r="E104">
+      <c r="E109">
         <v>14563</v>
       </c>
-      <c r="F104">
+      <c r="F109">
         <v>109106</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B105">
+      <c r="B110">
         <v>24089</v>
       </c>
-      <c r="C105">
+      <c r="C110">
         <v>336361</v>
       </c>
-      <c r="D105">
+      <c r="D110">
         <v>17980</v>
       </c>
-      <c r="E105">
+      <c r="E110">
         <v>14421</v>
       </c>
-      <c r="F105">
+      <c r="F110">
         <v>106135</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B106">
+      <c r="B111">
         <v>23788</v>
       </c>
-      <c r="C106">
+      <c r="C111">
         <v>336480</v>
       </c>
-      <c r="D106">
+      <c r="D111">
         <v>17969</v>
       </c>
-      <c r="E106">
+      <c r="E111">
         <v>14295</v>
       </c>
-      <c r="F106">
+      <c r="F111">
         <v>103490</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B107">
+      <c r="B112">
         <v>23786</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>333401</v>
       </c>
-      <c r="D107">
+      <c r="D112">
         <v>17964</v>
       </c>
-      <c r="E107">
+      <c r="E112">
         <v>14295</v>
       </c>
-      <c r="F107">
+      <c r="F112">
         <v>103879</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B108">
+      <c r="B113">
         <v>23786</v>
       </c>
-      <c r="C108">
+      <c r="C113">
         <v>330277</v>
       </c>
-      <c r="D108">
+      <c r="D113">
         <v>17949</v>
       </c>
-      <c r="E108">
+      <c r="E113">
         <v>14295</v>
       </c>
-      <c r="F108">
+      <c r="F113">
         <v>104263</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B109">
+      <c r="B114">
         <v>23636</v>
       </c>
-      <c r="C109">
+      <c r="C114">
         <v>330548</v>
       </c>
-      <c r="D109">
+      <c r="D114">
         <v>17930</v>
       </c>
-      <c r="E109">
+      <c r="E114">
         <v>14236</v>
       </c>
-      <c r="F109">
+      <c r="F114">
         <v>103844</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B110">
+      <c r="B115">
         <v>23596</v>
       </c>
-      <c r="C110">
+      <c r="C115">
         <v>330741</v>
       </c>
-      <c r="D110">
+      <c r="D115">
         <v>17927</v>
       </c>
-      <c r="E110">
+      <c r="E115">
         <v>13036</v>
       </c>
-      <c r="F110">
+      <c r="F115">
         <v>103166</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B111">
+      <c r="B116">
         <v>22815</v>
       </c>
-      <c r="C111">
+      <c r="C116">
         <v>331610</v>
       </c>
-      <c r="D111">
+      <c r="D116">
         <v>17896</v>
       </c>
-      <c r="E111">
+      <c r="E116">
         <v>12961</v>
       </c>
-      <c r="F111">
+      <c r="F116">
         <v>102355</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B112">
+      <c r="B117">
         <v>23019</v>
       </c>
-      <c r="C112">
+      <c r="C117">
         <v>331662</v>
       </c>
-      <c r="D112">
+      <c r="D117">
         <v>17893</v>
       </c>
-      <c r="E112">
+      <c r="E117">
         <v>12961</v>
       </c>
-      <c r="F112">
+      <c r="F117">
         <v>101579</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B113">
+      <c r="B118">
         <v>23018</v>
       </c>
-      <c r="C113">
+      <c r="C118">
         <v>330494</v>
       </c>
-      <c r="D113">
+      <c r="D118">
         <v>17891</v>
       </c>
-      <c r="E113">
+      <c r="E118">
         <v>12957</v>
       </c>
-      <c r="F113">
+      <c r="F118">
         <v>101084</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B114">
+      <c r="B119">
         <v>23018</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>330421</v>
       </c>
-      <c r="D114">
+      <c r="D119">
         <v>17876</v>
       </c>
-      <c r="E114">
+      <c r="E119">
         <v>12951</v>
       </c>
-      <c r="F114">
+      <c r="F119">
         <v>101012</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B115">
+      <c r="B120">
         <v>23016</v>
       </c>
-      <c r="C115">
+      <c r="C120">
         <v>329253</v>
       </c>
-      <c r="D115">
+      <c r="D120">
         <v>17841</v>
       </c>
-      <c r="E115">
+      <c r="E120">
         <v>10931</v>
       </c>
-      <c r="F115">
+      <c r="F120">
         <v>99097</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B116">
+      <c r="B121">
         <v>22777</v>
       </c>
-      <c r="C116">
+      <c r="C121">
         <v>328614</v>
       </c>
-      <c r="D116">
+      <c r="D121">
         <v>17829</v>
       </c>
-      <c r="E116">
+      <c r="E121">
         <v>10911</v>
       </c>
-      <c r="F116">
+      <c r="F121">
         <v>98997</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B117">
+      <c r="B122">
         <v>23980</v>
       </c>
-      <c r="C117">
+      <c r="C122">
         <v>326310</v>
       </c>
-      <c r="D117">
+      <c r="D122">
         <v>17718</v>
       </c>
-      <c r="E117">
+      <c r="E122">
         <v>10911</v>
       </c>
-      <c r="F117">
+      <c r="F122">
         <v>98845</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B118">
+      <c r="B123">
         <v>23980</v>
       </c>
-      <c r="C118">
+      <c r="C123">
         <v>322939</v>
       </c>
-      <c r="D118">
+      <c r="D123">
         <v>17707</v>
       </c>
-      <c r="E118">
+      <c r="E123">
         <v>10899</v>
       </c>
-      <c r="F118">
+      <c r="F123">
         <v>97897</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B119">
+      <c r="B124">
         <v>23980</v>
       </c>
-      <c r="C119">
+      <c r="C124">
         <v>322745</v>
       </c>
-      <c r="D119">
+      <c r="D124">
         <v>17684</v>
       </c>
-      <c r="E119">
+      <c r="E124">
         <v>10752</v>
       </c>
-      <c r="F119">
+      <c r="F124">
         <v>97621</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B120">
+      <c r="B125">
         <v>23980</v>
       </c>
-      <c r="C120">
+      <c r="C125">
         <v>321147</v>
       </c>
-      <c r="D120">
+      <c r="D125">
         <v>17672</v>
       </c>
-      <c r="E120">
+      <c r="E125">
         <v>10750</v>
       </c>
-      <c r="F120">
+      <c r="F125">
         <v>96935</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B121">
+      <c r="B126">
         <v>23979</v>
       </c>
-      <c r="C121">
+      <c r="C126">
         <v>320702</v>
       </c>
-      <c r="D121">
+      <c r="D126">
         <v>17649</v>
       </c>
-      <c r="E121">
+      <c r="E126">
         <v>10740</v>
       </c>
-      <c r="F121">
+      <c r="F126">
         <v>96699</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B122">
+      <c r="B127">
         <v>23979</v>
       </c>
-      <c r="C122">
+      <c r="C127">
         <v>319989</v>
       </c>
-      <c r="D122">
+      <c r="D127">
         <v>17640</v>
       </c>
-      <c r="E122">
+      <c r="E127">
         <v>10702</v>
       </c>
-      <c r="F122">
+      <c r="F127">
         <v>96079</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B123">
+      <c r="B128">
         <v>23979</v>
       </c>
-      <c r="C123">
+      <c r="C128">
         <v>318886</v>
       </c>
-      <c r="D123">
+      <c r="D128">
         <v>17611</v>
       </c>
-      <c r="E123">
+      <c r="E128">
         <v>10592</v>
       </c>
-      <c r="F123">
+      <c r="F128">
         <v>96005</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B124">
+      <c r="B129">
         <v>23978</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>313127</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>17610</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>10582</v>
       </c>
-      <c r="F124">
+      <c r="F129">
         <v>95323</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B125">
+      <c r="B130">
         <v>23978</v>
       </c>
-      <c r="C125">
+      <c r="C130">
         <v>312131</v>
       </c>
-      <c r="D125">
+      <c r="D130">
         <v>17582</v>
       </c>
-      <c r="E125">
+      <c r="E130">
         <v>10532</v>
       </c>
-      <c r="F125">
+      <c r="F130">
         <v>94431</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B126">
+      <c r="B131">
         <v>23777</v>
       </c>
-      <c r="C126">
+      <c r="C131">
         <v>309971</v>
       </c>
-      <c r="D126">
+      <c r="D131">
         <v>17570</v>
       </c>
-      <c r="E126">
+      <c r="E131">
         <v>10392</v>
       </c>
-      <c r="F126">
+      <c r="F131">
         <v>95612</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B127">
+      <c r="B132">
         <v>23422</v>
       </c>
-      <c r="C127">
+      <c r="C132">
         <v>309732</v>
       </c>
-      <c r="D127">
+      <c r="D132">
         <v>17548</v>
       </c>
-      <c r="E127">
+      <c r="E132">
         <v>10340</v>
       </c>
-      <c r="F127">
+      <c r="F132">
         <v>94215</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B128">
+      <c r="B133">
         <v>23423</v>
       </c>
-      <c r="C128">
+      <c r="C133">
         <v>306181</v>
       </c>
-      <c r="D128">
+      <c r="D133">
         <v>17445</v>
       </c>
-      <c r="E128">
+      <c r="E133">
         <v>10264</v>
       </c>
-      <c r="F128">
+      <c r="F133">
         <v>93953</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B129">
+      <c r="B134">
         <v>23423</v>
       </c>
-      <c r="C129">
+      <c r="C134">
         <v>305033</v>
       </c>
-      <c r="D129">
+      <c r="D134">
         <v>17430</v>
       </c>
-      <c r="E129">
+      <c r="E134">
         <v>10264</v>
       </c>
-      <c r="F129">
+      <c r="F134">
         <v>93776</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B130">
+      <c r="B135">
         <v>23622</v>
       </c>
-      <c r="C130">
+      <c r="C135">
         <v>306175</v>
       </c>
-      <c r="D130">
+      <c r="D135">
         <v>17423</v>
       </c>
-      <c r="E130">
+      <c r="E135">
         <v>10267</v>
       </c>
-      <c r="F130">
+      <c r="F135">
         <v>93019</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B131">
+      <c r="B136">
         <v>22447</v>
       </c>
-      <c r="C131">
+      <c r="C136">
         <v>307467</v>
       </c>
-      <c r="D131">
+      <c r="D136">
         <v>17423</v>
       </c>
-      <c r="E131">
+      <c r="E136">
         <v>10267</v>
       </c>
-      <c r="F131">
+      <c r="F136">
         <v>92972</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B132">
+      <c r="B137">
         <v>22447</v>
       </c>
-      <c r="C132">
+      <c r="C137">
         <v>308138</v>
       </c>
-      <c r="D132">
+      <c r="D137">
         <v>17423</v>
       </c>
-      <c r="E132">
+      <c r="E137">
         <v>10194</v>
       </c>
-      <c r="F132">
+      <c r="F137">
         <v>92280</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B133">
+      <c r="B138">
         <v>22396</v>
       </c>
-      <c r="C133">
+      <c r="C138">
         <v>307865</v>
       </c>
-      <c r="D133">
+      <c r="D138">
         <v>17404</v>
       </c>
-      <c r="E133">
+      <c r="E138">
         <v>10144</v>
       </c>
-      <c r="F133">
+      <c r="F138">
         <v>92631</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B134">
+      <c r="B139">
         <v>22395</v>
       </c>
-      <c r="C134">
+      <c r="C139">
         <v>309194</v>
       </c>
-      <c r="D134">
+      <c r="D139">
         <v>17387</v>
       </c>
-      <c r="E134">
+      <c r="E139">
         <v>10094</v>
       </c>
-      <c r="F134">
+      <c r="F139">
         <v>92714</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B135">
+      <c r="B140">
         <v>22395</v>
       </c>
-      <c r="C135">
+      <c r="C140">
         <v>309737</v>
       </c>
-      <c r="D135">
+      <c r="D140">
         <v>17373</v>
       </c>
-      <c r="E135">
+      <c r="E140">
         <v>10094</v>
       </c>
-      <c r="F135">
+      <c r="F140">
         <v>92274</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B136">
+      <c r="B141">
         <v>22454</v>
       </c>
-      <c r="C136">
+      <c r="C141">
         <v>309342</v>
       </c>
-      <c r="D136">
+      <c r="D141">
         <v>17333</v>
       </c>
-      <c r="E136">
+      <c r="E141">
         <v>10094</v>
       </c>
-      <c r="F136">
+      <c r="F141">
         <v>91041</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B137">
+      <c r="B142">
         <v>22454</v>
       </c>
-      <c r="C137">
+      <c r="C142">
         <v>310867</v>
       </c>
-      <c r="D137">
+      <c r="D142">
         <v>17303</v>
       </c>
-      <c r="E137">
+      <c r="E142">
         <v>10092</v>
       </c>
-      <c r="F137">
+      <c r="F142">
         <v>90882</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B138">
+      <c r="B143">
         <v>22454</v>
       </c>
-      <c r="C138">
+      <c r="C143">
         <v>313288</v>
       </c>
-      <c r="D138">
+      <c r="D143">
         <v>17292</v>
       </c>
-      <c r="E138">
+      <c r="E143">
         <v>10092</v>
       </c>
-      <c r="F138">
+      <c r="F143">
         <v>90577</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B139">
+      <c r="B144">
         <v>22454</v>
       </c>
-      <c r="C139">
+      <c r="C144">
         <v>313285</v>
       </c>
-      <c r="D139">
+      <c r="D144">
         <v>17264</v>
       </c>
-      <c r="E139">
+      <c r="E144">
         <v>10091</v>
       </c>
-      <c r="F139">
+      <c r="F144">
         <v>90074</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B140">
+      <c r="B145">
         <v>22454</v>
       </c>
-      <c r="C140">
+      <c r="C145">
         <v>313902</v>
       </c>
-      <c r="D140">
+      <c r="D145">
         <v>17185</v>
       </c>
-      <c r="E140">
+      <c r="E145">
         <v>10088</v>
       </c>
-      <c r="F140">
+      <c r="F145">
         <v>89936</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B141">
+      <c r="B146">
         <v>22454</v>
       </c>
-      <c r="C141">
+      <c r="C146">
         <v>314720</v>
       </c>
-      <c r="D141">
+      <c r="D146">
         <v>17151</v>
       </c>
-      <c r="E141">
+      <c r="E146">
         <v>10076</v>
       </c>
-      <c r="F141">
+      <c r="F146">
         <v>89949</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B142">
+      <c r="B147">
         <v>22454</v>
       </c>
-      <c r="C142">
+      <c r="C147">
         <v>312360</v>
       </c>
-      <c r="D142">
+      <c r="D147">
         <v>17120</v>
       </c>
-      <c r="E142">
+      <c r="E147">
         <v>10076</v>
       </c>
-      <c r="F142">
+      <c r="F147">
         <v>89281</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B143">
+      <c r="B148">
         <v>22454</v>
       </c>
-      <c r="C143">
+      <c r="C148">
         <v>309021</v>
       </c>
-      <c r="D143">
+      <c r="D148">
         <v>17116</v>
       </c>
-      <c r="E143">
+      <c r="E148">
         <v>10076</v>
       </c>
-      <c r="F143">
+      <c r="F148">
         <v>88826</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B144">
+      <c r="B149">
         <v>22454</v>
       </c>
-      <c r="C144">
+      <c r="C149">
         <v>307153</v>
       </c>
-      <c r="D144">
+      <c r="D149">
         <v>17082</v>
       </c>
-      <c r="E144">
+      <c r="E149">
         <v>9849</v>
       </c>
-      <c r="F144">
+      <c r="F149">
         <v>88632</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B145">
+      <c r="B150">
         <v>22454</v>
       </c>
-      <c r="C145">
+      <c r="C150">
         <v>307136</v>
       </c>
-      <c r="D145">
+      <c r="D150">
         <v>17072</v>
       </c>
-      <c r="E145">
+      <c r="E150">
         <v>9839</v>
       </c>
-      <c r="F145">
+      <c r="F150">
         <v>88066</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B146">
+      <c r="B151">
         <v>22454</v>
       </c>
-      <c r="C146">
+      <c r="C151">
         <v>302392</v>
       </c>
-      <c r="D146">
+      <c r="D151">
         <v>17072</v>
       </c>
-      <c r="E146">
+      <c r="E151">
         <v>9839</v>
       </c>
-      <c r="F146">
+      <c r="F151">
         <v>87813</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B147">
+      <c r="B152">
         <v>22453</v>
       </c>
-      <c r="C147">
+      <c r="C152">
         <v>300191</v>
       </c>
-      <c r="D147">
+      <c r="D152">
         <v>17067</v>
       </c>
-      <c r="E147">
+      <c r="E152">
         <v>9824</v>
       </c>
-      <c r="F147">
+      <c r="F152">
         <v>87753</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B148">
+      <c r="B153">
         <v>22453</v>
       </c>
-      <c r="C148">
+      <c r="C153">
         <v>299817</v>
       </c>
-      <c r="D148">
+      <c r="D153">
         <v>17057</v>
       </c>
-      <c r="E148">
+      <c r="E153">
         <v>9824</v>
       </c>
-      <c r="F148">
+      <c r="F153">
         <v>86175</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B149">
+      <c r="B154">
         <v>22453</v>
       </c>
-      <c r="C149">
+      <c r="C154">
         <v>298024</v>
       </c>
-      <c r="D149">
+      <c r="D154">
         <v>16895</v>
       </c>
-      <c r="E149">
+      <c r="E154">
         <v>9657</v>
       </c>
-      <c r="F149">
+      <c r="F154">
         <v>85765</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B150">
+      <c r="B155">
         <v>22453</v>
       </c>
-      <c r="C150">
+      <c r="C155">
         <v>296306</v>
       </c>
-      <c r="D150">
+      <c r="D155">
         <v>16883</v>
       </c>
-      <c r="E150">
+      <c r="E155">
         <v>9642</v>
       </c>
-      <c r="F150">
+      <c r="F155">
         <v>85276</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B151">
+      <c r="B156">
         <v>22453</v>
       </c>
-      <c r="C151">
+      <c r="C156">
         <v>295720</v>
       </c>
-      <c r="D151">
+      <c r="D156">
         <v>16879</v>
       </c>
-      <c r="E151">
+      <c r="E156">
         <v>9642</v>
       </c>
-      <c r="F151">
+      <c r="F156">
         <v>84606</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B152">
+      <c r="B157">
         <v>22453</v>
       </c>
-      <c r="C152">
+      <c r="C157">
         <v>296177</v>
       </c>
-      <c r="D152">
+      <c r="D157">
         <v>16871</v>
       </c>
-      <c r="E152">
+      <c r="E157">
         <v>9142</v>
       </c>
-      <c r="F152">
+      <c r="F157">
         <v>84342</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B153">
+      <c r="B158">
         <v>22453</v>
       </c>
-      <c r="C153">
+      <c r="C158">
         <v>295952</v>
       </c>
-      <c r="D153">
+      <c r="D158">
         <v>16861</v>
       </c>
-      <c r="E153">
+      <c r="E158">
         <v>9127</v>
       </c>
-      <c r="F153">
+      <c r="F158">
         <v>83687</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B154">
+      <c r="B159">
         <v>22453</v>
       </c>
-      <c r="C154">
+      <c r="C159">
         <v>295959</v>
       </c>
-      <c r="D154">
+      <c r="D159">
         <v>16599</v>
       </c>
-      <c r="E154">
+      <c r="E159">
         <v>9127</v>
       </c>
-      <c r="F154">
+      <c r="F159">
         <v>82955</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B155">
+      <c r="B160">
         <v>22453</v>
       </c>
-      <c r="C155">
+      <c r="C160">
         <v>298028</v>
       </c>
-      <c r="D155">
+      <c r="D160">
         <v>16595</v>
       </c>
-      <c r="E155">
+      <c r="E160">
         <v>9124</v>
       </c>
-      <c r="F155">
+      <c r="F160">
         <v>80190</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B156">
+      <c r="B161">
         <v>22453</v>
       </c>
-      <c r="C156">
+      <c r="C161">
         <v>298262</v>
       </c>
-      <c r="D156">
+      <c r="D161">
         <v>16572</v>
       </c>
-      <c r="E156">
+      <c r="E161">
         <v>9123</v>
       </c>
-      <c r="F156">
+      <c r="F161">
         <v>80100</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B157">
+      <c r="B162">
         <v>22453</v>
       </c>
-      <c r="C157">
+      <c r="C162">
         <v>297541</v>
       </c>
-      <c r="D157">
+      <c r="D162">
         <v>16552</v>
       </c>
-      <c r="E157">
+      <c r="E162">
         <v>9123</v>
       </c>
-      <c r="F157">
+      <c r="F162">
         <v>79674</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B158">
+      <c r="B163">
         <v>22453</v>
       </c>
-      <c r="C158">
+      <c r="C163">
         <v>298121</v>
       </c>
-      <c r="D158">
+      <c r="D163">
         <v>16513</v>
       </c>
-      <c r="E158">
+      <c r="E163">
         <v>9123</v>
       </c>
-      <c r="F158">
+      <c r="F163">
         <v>78519</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B159">
+      <c r="B164">
         <v>22453</v>
       </c>
-      <c r="C159">
+      <c r="C164">
         <v>297810</v>
       </c>
-      <c r="D159">
+      <c r="D164">
         <v>16485</v>
       </c>
-      <c r="E159">
+      <c r="E164">
         <v>9097</v>
       </c>
-      <c r="F159">
+      <c r="F164">
         <v>78031</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B160">
+      <c r="B165">
         <v>22453</v>
       </c>
-      <c r="C160">
+      <c r="C165">
         <v>296081</v>
       </c>
-      <c r="D160">
+      <c r="D165">
         <v>16484</v>
       </c>
-      <c r="E160">
+      <c r="E165">
         <v>9097</v>
       </c>
-      <c r="F160">
+      <c r="F165">
         <v>77566</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B161">
+      <c r="B166">
         <v>22453</v>
       </c>
-      <c r="C161">
+      <c r="C166">
         <v>294142</v>
       </c>
-      <c r="D161">
+      <c r="D166">
         <v>16483</v>
       </c>
-      <c r="E161">
+      <c r="E166">
         <v>9053</v>
       </c>
-      <c r="F161">
+      <c r="F166">
         <v>76666</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B162">
+      <c r="B167">
         <v>24453</v>
       </c>
-      <c r="C162">
+      <c r="C167">
         <v>293909</v>
       </c>
-      <c r="D162">
+      <c r="D167">
         <v>16545</v>
       </c>
-      <c r="E162">
+      <c r="E167">
         <v>9053</v>
       </c>
-      <c r="F162">
+      <c r="F167">
         <v>75728</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B163">
+      <c r="B168">
         <v>24453</v>
       </c>
-      <c r="C163">
+      <c r="C168">
         <v>293042</v>
       </c>
-      <c r="D163">
+      <c r="D168">
         <v>16549</v>
       </c>
-      <c r="E163">
+      <c r="E168">
         <v>9053</v>
       </c>
-      <c r="F163">
+      <c r="F168">
         <v>75377</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B164">
+      <c r="B169">
         <v>24453</v>
       </c>
-      <c r="C164">
+      <c r="C169">
         <v>293931</v>
       </c>
-      <c r="D164">
+      <c r="D169">
         <v>16550</v>
       </c>
-      <c r="E164">
+      <c r="E169">
         <v>9053</v>
       </c>
-      <c r="F164">
+      <c r="F169">
         <v>74597</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B165">
+      <c r="B170">
         <v>24453</v>
       </c>
-      <c r="C165">
+      <c r="C170">
         <v>293657</v>
       </c>
-      <c r="D165">
+      <c r="D170">
         <v>16547</v>
       </c>
-      <c r="E165">
+      <c r="E170">
         <v>9053</v>
       </c>
-      <c r="F165">
+      <c r="F170">
         <v>73046</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B166">
+      <c r="B171">
         <v>24453</v>
       </c>
-      <c r="C166">
+      <c r="C171">
         <v>293213</v>
       </c>
-      <c r="D166">
+      <c r="D171">
         <v>16545</v>
       </c>
-      <c r="E166">
+      <c r="E171">
         <v>9023</v>
       </c>
-      <c r="F166">
+      <c r="F171">
         <v>72302</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B167">
+      <c r="B172">
         <v>24453</v>
       </c>
-      <c r="C167">
+      <c r="C172">
         <v>292105</v>
       </c>
-      <c r="D167">
+      <c r="D172">
         <v>16534</v>
       </c>
-      <c r="E167">
+      <c r="E172">
         <v>9023</v>
       </c>
-      <c r="F167">
+      <c r="F172">
         <v>71585</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B168">
+      <c r="B173">
         <v>24453</v>
       </c>
-      <c r="C168">
+      <c r="C173">
         <v>290888</v>
       </c>
-      <c r="D168">
+      <c r="D173">
         <v>16532</v>
       </c>
-      <c r="E168">
+      <c r="E173">
         <v>9023</v>
       </c>
-      <c r="F168">
+      <c r="F173">
         <v>71078</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B169">
+      <c r="B174">
         <v>24453</v>
       </c>
-      <c r="C169">
+      <c r="C174">
         <v>288274</v>
       </c>
-      <c r="D169">
+      <c r="D174">
         <v>16532</v>
       </c>
-      <c r="E169">
+      <c r="E174">
         <v>9023</v>
       </c>
-      <c r="F169">
+      <c r="F174">
         <v>70744</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B170">
+      <c r="B175">
         <v>24453</v>
       </c>
-      <c r="C170">
+      <c r="C175">
         <v>288343</v>
       </c>
-      <c r="D170">
+      <c r="D175">
         <v>15773</v>
       </c>
-      <c r="E170">
+      <c r="E175">
         <v>9023</v>
       </c>
-      <c r="F170">
+      <c r="F175">
         <v>70613</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B171">
+      <c r="B176">
         <v>24453</v>
       </c>
-      <c r="C171">
+      <c r="C176">
         <v>290057</v>
       </c>
-      <c r="D171">
+      <c r="D176">
         <v>14324</v>
       </c>
-      <c r="E171">
+      <c r="E176">
         <v>9023</v>
       </c>
-      <c r="F171">
+      <c r="F176">
         <v>71076</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B172">
+      <c r="B177">
         <v>24453</v>
       </c>
-      <c r="C172">
+      <c r="C177">
         <v>291975</v>
       </c>
-      <c r="D172">
+      <c r="D177">
         <v>13724</v>
       </c>
-      <c r="E172">
+      <c r="E177">
         <v>9023</v>
       </c>
-      <c r="F172">
+      <c r="F177">
         <v>70945</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B173">
+      <c r="B178">
         <v>24453</v>
       </c>
-      <c r="C173">
+      <c r="C178">
         <v>293957</v>
       </c>
-      <c r="D173">
+      <c r="D178">
         <v>13728</v>
       </c>
-      <c r="E173">
+      <c r="E178">
         <v>9023</v>
       </c>
-      <c r="F173">
+      <c r="F178">
         <v>71587</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B174">
+      <c r="B179">
         <v>24453</v>
       </c>
-      <c r="C174">
+      <c r="C179">
         <v>294546</v>
       </c>
-      <c r="D174">
+      <c r="D179">
         <v>13728</v>
       </c>
-      <c r="E174">
+      <c r="E179">
         <v>9023</v>
       </c>
-      <c r="F174">
+      <c r="F179">
         <v>71630</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2024,12,25)</f>
         <v>45651</v>
       </c>
-      <c r="B175">
+      <c r="B180">
         <v>0</v>
       </c>
-      <c r="C175">
+      <c r="C180">
         <v>0</v>
       </c>
-      <c r="D175">
+      <c r="D180">
         <v>0</v>
       </c>
-      <c r="E175">
+      <c r="E180">
         <v>0</v>
       </c>
-      <c r="F175">
+      <c r="F180">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B176">
+      <c r="B181">
         <v>24453</v>
       </c>
-      <c r="C176">
+      <c r="C181">
         <v>294548</v>
       </c>
-      <c r="D176">
+      <c r="D181">
         <v>13728</v>
       </c>
-      <c r="E176">
+      <c r="E181">
         <v>9023</v>
       </c>
-      <c r="F176">
+      <c r="F181">
         <v>71630</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B177">
+      <c r="B182">
         <v>24453</v>
       </c>
-      <c r="C177">
+      <c r="C182">
         <v>295328</v>
       </c>
-      <c r="D177">
+      <c r="D182">
         <v>13078</v>
       </c>
-      <c r="E177">
+      <c r="E182">
         <v>9023</v>
       </c>
-      <c r="F177">
+      <c r="F182">
         <v>71607</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B178">
+      <c r="B183">
         <v>24453</v>
       </c>
-      <c r="C178">
+      <c r="C183">
         <v>295576</v>
       </c>
-      <c r="D178">
+      <c r="D183">
         <v>12928</v>
       </c>
-      <c r="E178">
+      <c r="E183">
         <v>9023</v>
       </c>
-      <c r="F178">
+      <c r="F183">
         <v>71234</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B179">
+      <c r="B184">
         <v>24563</v>
       </c>
-      <c r="C179">
+      <c r="C184">
         <v>297267</v>
       </c>
-      <c r="D179">
+      <c r="D184">
         <v>12825</v>
       </c>
-      <c r="E179">
+      <c r="E184">
         <v>9023</v>
       </c>
-      <c r="F179">
+      <c r="F184">
         <v>71235</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B180">
+      <c r="B185">
         <v>24838</v>
       </c>
-      <c r="C180">
+      <c r="C185">
         <v>301001</v>
       </c>
-      <c r="D180">
+      <c r="D185">
         <v>11878</v>
       </c>
-      <c r="E180">
+      <c r="E185">
         <v>6745</v>
       </c>
-      <c r="F180">
+      <c r="F185">
         <v>70647</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B181">
+      <c r="B186">
         <v>22948</v>
       </c>
-      <c r="C181">
+      <c r="C186">
         <v>298481</v>
       </c>
-      <c r="D181">
+      <c r="D186">
         <v>11878</v>
       </c>
-      <c r="E181">
+      <c r="E186">
         <v>6745</v>
       </c>
-      <c r="F181">
+      <c r="F186">
         <v>70240</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B182">
+      <c r="B187">
         <v>22838</v>
       </c>
-      <c r="C182">
+      <c r="C187">
         <v>294651</v>
       </c>
-      <c r="D182">
+      <c r="D187">
         <v>11550</v>
       </c>
-      <c r="E182">
+      <c r="E187">
         <v>6745</v>
       </c>
-      <c r="F182">
+      <c r="F187">
         <v>69820</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B183">
+      <c r="B188">
         <v>22838</v>
       </c>
-      <c r="C183">
+      <c r="C188">
         <v>293743</v>
       </c>
-      <c r="D183">
+      <c r="D188">
         <v>11552</v>
       </c>
-      <c r="E183">
+      <c r="E188">
         <v>6745</v>
       </c>
-      <c r="F183">
+      <c r="F188">
         <v>69282</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B184">
+      <c r="B189">
         <v>21988</v>
       </c>
-      <c r="C184">
+      <c r="C189">
         <v>288113</v>
       </c>
-      <c r="D184">
+      <c r="D189">
         <v>11508</v>
       </c>
-      <c r="E184">
+      <c r="E189">
         <v>6745</v>
       </c>
-      <c r="F184">
+      <c r="F189">
         <v>69248</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B185">
+      <c r="B190">
         <v>23418</v>
       </c>
-      <c r="C185">
+      <c r="C190">
         <v>283521</v>
       </c>
-      <c r="D185">
+      <c r="D190">
         <v>11465</v>
       </c>
-      <c r="E185">
+      <c r="E190">
         <v>6745</v>
       </c>
-      <c r="F185">
+      <c r="F190">
         <v>68433</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B186">
+      <c r="B191">
         <v>23393</v>
       </c>
-      <c r="C186">
+      <c r="C191">
         <v>278267</v>
       </c>
-      <c r="D186">
+      <c r="D191">
         <v>11221</v>
       </c>
-      <c r="E186">
+      <c r="E191">
         <v>6745</v>
       </c>
-      <c r="F186">
+      <c r="F191">
         <v>68330</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B187">
+      <c r="B192">
         <v>23343</v>
       </c>
-      <c r="C187">
+      <c r="C192">
         <v>271912</v>
       </c>
-      <c r="D187">
+      <c r="D192">
         <v>11221</v>
       </c>
-      <c r="E187">
+      <c r="E192">
         <v>6745</v>
       </c>
-      <c r="F187">
+      <c r="F192">
         <v>67798</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B188">
+      <c r="B193">
         <v>23343</v>
       </c>
-      <c r="C188">
+      <c r="C193">
         <v>262513</v>
       </c>
-      <c r="D188">
+      <c r="D193">
         <v>11153</v>
       </c>
-      <c r="E188">
+      <c r="E193">
         <v>6745</v>
       </c>
-      <c r="F188">
+      <c r="F193">
         <v>67781</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B189">
+      <c r="B194">
         <v>23343</v>
       </c>
-      <c r="C189">
+      <c r="C194">
         <v>259235</v>
       </c>
-      <c r="D189">
+      <c r="D194">
         <v>11112</v>
       </c>
-      <c r="E189">
+      <c r="E194">
         <v>6745</v>
       </c>
-      <c r="F189">
+      <c r="F194">
         <v>67474</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B190">
+      <c r="B195">
         <v>23143</v>
       </c>
-      <c r="C190">
+      <c r="C195">
         <v>254567</v>
       </c>
-      <c r="D190">
+      <c r="D195">
         <v>10602</v>
       </c>
-      <c r="E190">
+      <c r="E195">
         <v>6745</v>
       </c>
-      <c r="F190">
+      <c r="F195">
         <v>67195</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B191">
+      <c r="B196">
         <v>23143</v>
       </c>
-      <c r="C191">
+      <c r="C196">
         <v>250176</v>
       </c>
-      <c r="D191">
+      <c r="D196">
         <v>10602</v>
       </c>
-      <c r="E191">
+      <c r="E196">
         <v>6745</v>
       </c>
-      <c r="F191">
+      <c r="F196">
         <v>66414</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B192">
+      <c r="B197">
         <v>23140</v>
       </c>
-      <c r="C192">
+      <c r="C197">
         <v>247746</v>
       </c>
-      <c r="D192">
+      <c r="D197">
         <v>10565</v>
       </c>
-      <c r="E192">
+      <c r="E197">
         <v>6745</v>
       </c>
-      <c r="F192">
+      <c r="F197">
         <v>64844</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B193">
+      <c r="B198">
         <v>23140</v>
       </c>
-      <c r="C193">
+      <c r="C198">
         <v>246043</v>
       </c>
-      <c r="D193">
+      <c r="D198">
         <v>10529</v>
       </c>
-      <c r="E193">
+      <c r="E198">
         <v>6745</v>
       </c>
-      <c r="F193">
+      <c r="F198">
         <v>64045</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B194">
+      <c r="B199">
         <v>23140</v>
       </c>
-      <c r="C194">
+      <c r="C199">
         <v>244430</v>
       </c>
-      <c r="D194">
+      <c r="D199">
         <v>10469</v>
       </c>
-      <c r="E194">
+      <c r="E199">
         <v>6745</v>
       </c>
-      <c r="F194">
+      <c r="F199">
         <v>63744</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B195">
+      <c r="B200">
         <v>23140</v>
       </c>
-      <c r="C195">
+      <c r="C200">
         <v>243229</v>
       </c>
-      <c r="D195">
+      <c r="D200">
         <v>10465</v>
       </c>
-      <c r="E195">
+      <c r="E200">
         <v>6695</v>
       </c>
-      <c r="F195">
+      <c r="F200">
         <v>62851</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B196">
+      <c r="B201">
         <v>23140</v>
       </c>
-      <c r="C196">
+      <c r="C201">
         <v>241479</v>
       </c>
-      <c r="D196">
+      <c r="D201">
         <v>10465</v>
       </c>
-      <c r="E196">
+      <c r="E201">
         <v>6695</v>
       </c>
-      <c r="F196">
+      <c r="F201">
         <v>62679</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B197">
+      <c r="B202">
         <v>23135</v>
       </c>
-      <c r="C197">
+      <c r="C202">
         <v>237969</v>
       </c>
-      <c r="D197">
+      <c r="D202">
         <v>10465</v>
       </c>
-      <c r="E197">
+      <c r="E202">
         <v>6595</v>
       </c>
-      <c r="F197">
+      <c r="F202">
         <v>62260</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B198">
+      <c r="B203">
         <v>23135</v>
       </c>
-      <c r="C198">
+      <c r="C203">
         <v>241559</v>
       </c>
-      <c r="D198">
+      <c r="D203">
         <v>10465</v>
       </c>
-      <c r="E198">
+      <c r="E203">
         <v>6595</v>
       </c>
-      <c r="F198">
+      <c r="F203">
         <v>62018</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B199">
+      <c r="B204">
         <v>23135</v>
       </c>
-      <c r="C199">
+      <c r="C204">
         <v>240880</v>
       </c>
-      <c r="D199">
+      <c r="D204">
         <v>10465</v>
       </c>
-      <c r="E199">
+      <c r="E204">
         <v>6595</v>
       </c>
-      <c r="F199">
+      <c r="F204">
         <v>60231</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B200">
+      <c r="B205">
         <v>23135</v>
       </c>
-      <c r="C200">
+      <c r="C205">
         <v>242718</v>
       </c>
-      <c r="D200">
+      <c r="D205">
         <v>10410</v>
       </c>
-      <c r="E200">
+      <c r="E205">
         <v>6245</v>
       </c>
-      <c r="F200">
+      <c r="F205">
         <v>59530</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B201">
+      <c r="B206">
         <v>23135</v>
       </c>
-      <c r="C201">
+      <c r="C206">
         <v>242146</v>
       </c>
-      <c r="D201">
+      <c r="D206">
         <v>10410</v>
       </c>
-      <c r="E201">
+      <c r="E206">
         <v>6238</v>
       </c>
-      <c r="F201">
+      <c r="F206">
         <v>59300</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B202">
+      <c r="B207">
         <v>23134</v>
       </c>
-      <c r="C202">
+      <c r="C207">
         <v>240186</v>
       </c>
-      <c r="D202">
+      <c r="D207">
         <v>9470</v>
       </c>
-      <c r="E202">
+      <c r="E207">
         <v>6238</v>
       </c>
-      <c r="F202">
+      <c r="F207">
         <v>58316</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B203">
+      <c r="B208">
         <v>23134</v>
       </c>
-      <c r="C203">
+      <c r="C208">
         <v>240124</v>
       </c>
-      <c r="D203">
+      <c r="D208">
         <v>9470</v>
       </c>
-      <c r="E203">
+      <c r="E208">
         <v>6238</v>
       </c>
-      <c r="F203">
+      <c r="F208">
         <v>58006</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B204">
+      <c r="B209">
         <v>22884</v>
       </c>
-      <c r="C204">
+      <c r="C209">
         <v>239097</v>
       </c>
-      <c r="D204">
+      <c r="D209">
         <v>9474</v>
       </c>
-      <c r="E204">
+      <c r="E209">
         <v>6238</v>
       </c>
-      <c r="F204">
+      <c r="F209">
         <v>57910</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B205">
+      <c r="B210">
         <v>22884</v>
       </c>
-      <c r="C205">
+      <c r="C210">
         <v>236767</v>
       </c>
-      <c r="D205">
+      <c r="D210">
         <v>9474</v>
       </c>
-      <c r="E205">
+      <c r="E210">
         <v>6238</v>
       </c>
-      <c r="F205">
+      <c r="F210">
         <v>56984</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B206">
+      <c r="B211">
         <v>22884</v>
       </c>
-      <c r="C206">
+      <c r="C211">
         <v>237379</v>
       </c>
-      <c r="D206">
+      <c r="D211">
         <v>9469</v>
       </c>
-      <c r="E206">
+      <c r="E211">
         <v>6208</v>
       </c>
-      <c r="F206">
+      <c r="F211">
         <v>56896</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B207">
+      <c r="B212">
         <v>22884</v>
       </c>
-      <c r="C207">
+      <c r="C212">
         <v>236910</v>
       </c>
-      <c r="D207">
+      <c r="D212">
         <v>9469</v>
       </c>
-      <c r="E207">
+      <c r="E212">
         <v>6208</v>
       </c>
-      <c r="F207">
+      <c r="F212">
         <v>56929</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B208">
+      <c r="B213">
         <v>22884</v>
       </c>
-      <c r="C208">
+      <c r="C213">
         <v>235001</v>
       </c>
-      <c r="D208">
+      <c r="D213">
         <v>9519</v>
       </c>
-      <c r="E208">
+      <c r="E213">
         <v>6208</v>
       </c>
-      <c r="F208">
+      <c r="F213">
         <v>56515</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B209">
+      <c r="B214">
         <v>22884</v>
       </c>
-      <c r="C209">
+      <c r="C214">
         <v>231619</v>
       </c>
-      <c r="D209">
+      <c r="D214">
         <v>9619</v>
       </c>
-      <c r="E209">
+      <c r="E214">
         <v>6208</v>
       </c>
-      <c r="F209">
+      <c r="F214">
         <v>56072</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B210">
+      <c r="B215">
         <v>22884</v>
       </c>
-      <c r="C210">
+      <c r="C215">
         <v>230601</v>
       </c>
-      <c r="D210">
+      <c r="D215">
         <v>9690</v>
       </c>
-      <c r="E210">
+      <c r="E215">
         <v>6108</v>
       </c>
-      <c r="F210">
+      <c r="F215">
         <v>55998</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B211">
+      <c r="B216">
         <v>22884</v>
       </c>
-      <c r="C211">
+      <c r="C216">
         <v>230374</v>
       </c>
-      <c r="D211">
+      <c r="D216">
         <v>9677</v>
       </c>
-      <c r="E211">
+      <c r="E216">
         <v>5923</v>
       </c>
-      <c r="F211">
+      <c r="F216">
         <v>54727</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B212">
+      <c r="B217">
         <v>22884</v>
       </c>
-      <c r="C212">
+      <c r="C217">
         <v>229045</v>
       </c>
-      <c r="D212">
+      <c r="D217">
         <v>9677</v>
       </c>
-      <c r="E212">
+      <c r="E217">
         <v>5923</v>
       </c>
-      <c r="F212">
+      <c r="F217">
         <v>54404</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B213">
+      <c r="B218">
         <v>22884</v>
       </c>
-      <c r="C213">
+      <c r="C218">
         <v>227307</v>
       </c>
-      <c r="D213">
+      <c r="D218">
         <v>9567</v>
       </c>
-      <c r="E213">
+      <c r="E218">
         <v>5923</v>
       </c>
-      <c r="F213">
+      <c r="F218">
         <v>54456</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B214">
+      <c r="B219">
         <v>22884</v>
       </c>
-      <c r="C214">
+      <c r="C219">
         <v>227231</v>
       </c>
-      <c r="D214">
+      <c r="D219">
         <v>9567</v>
       </c>
-      <c r="E214">
+      <c r="E219">
         <v>5923</v>
       </c>
-      <c r="F214">
+      <c r="F219">
         <v>53878</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B215">
+      <c r="B220">
         <v>22884</v>
       </c>
-      <c r="C215">
+      <c r="C220">
         <v>226655</v>
       </c>
-      <c r="D215">
+      <c r="D220">
         <v>9547</v>
       </c>
-      <c r="E215">
+      <c r="E220">
         <v>5923</v>
       </c>
-      <c r="F215">
+      <c r="F220">
         <v>53986</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B216">
+      <c r="B221">
         <v>22884</v>
       </c>
-      <c r="C216">
+      <c r="C221">
         <v>226326</v>
       </c>
-      <c r="D216">
+      <c r="D221">
         <v>9540</v>
       </c>
-      <c r="E216">
+      <c r="E221">
         <v>5923</v>
       </c>
-      <c r="F216">
+      <c r="F221">
         <v>53441</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B217">
+      <c r="B222">
         <v>22884</v>
       </c>
-      <c r="C217">
+      <c r="C222">
         <v>225848</v>
       </c>
-      <c r="D217">
+      <c r="D222">
         <v>9540</v>
       </c>
-      <c r="E217">
+      <c r="E222">
         <v>5923</v>
       </c>
-      <c r="F217">
+      <c r="F222">
         <v>52683</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B218">
+      <c r="B223">
         <v>21875</v>
       </c>
-      <c r="C218">
+      <c r="C223">
         <v>225509</v>
       </c>
-      <c r="D218">
+      <c r="D223">
         <v>9540</v>
       </c>
-      <c r="E218">
+      <c r="E223">
         <v>5923</v>
       </c>
-      <c r="F218">
+      <c r="F223">
         <v>52453</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B219">
+      <c r="B224">
         <v>21875</v>
       </c>
-      <c r="C219">
+      <c r="C224">
         <v>227510</v>
       </c>
-      <c r="D219">
+      <c r="D224">
         <v>9540</v>
       </c>
-      <c r="E219">
+      <c r="E224">
         <v>5923</v>
       </c>
-      <c r="F219">
+      <c r="F224">
         <v>51188</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B220">
+      <c r="B225">
         <v>21875</v>
       </c>
-      <c r="C220">
+      <c r="C225">
         <v>226876</v>
       </c>
-      <c r="D220">
+      <c r="D225">
         <v>9540</v>
       </c>
-      <c r="E220">
+      <c r="E225">
         <v>5923</v>
       </c>
-      <c r="F220">
+      <c r="F225">
         <v>51133</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B221">
+      <c r="B226">
         <v>21875</v>
       </c>
-      <c r="C221">
+      <c r="C226">
         <v>227039</v>
       </c>
-      <c r="D221">
+      <c r="D226">
         <v>9540</v>
       </c>
-      <c r="E221">
+      <c r="E226">
         <v>5923</v>
       </c>
-      <c r="F221">
+      <c r="F226">
         <v>51049</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B222">
+      <c r="B227">
         <v>21875</v>
       </c>
-      <c r="C222">
+      <c r="C227">
         <v>225342</v>
       </c>
-      <c r="D222">
+      <c r="D227">
         <v>9536</v>
       </c>
-      <c r="E222">
+      <c r="E227">
         <v>5923</v>
       </c>
-      <c r="F222">
+      <c r="F227">
         <v>51091</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B223">
+      <c r="B228">
         <v>21875</v>
       </c>
-      <c r="C223">
+      <c r="C228">
         <v>224244</v>
       </c>
-      <c r="D223">
+      <c r="D228">
         <v>9536</v>
       </c>
-      <c r="E223">
+      <c r="E228">
         <v>5723</v>
       </c>
-      <c r="F223">
+      <c r="F228">
         <v>51028</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B224">
+      <c r="B229">
         <v>21875</v>
       </c>
-      <c r="C224">
+      <c r="C229">
         <v>223763</v>
       </c>
-      <c r="D224">
+      <c r="D229">
         <v>9536</v>
       </c>
-      <c r="E224">
+      <c r="E229">
         <v>5723</v>
       </c>
-      <c r="F224">
+      <c r="F229">
         <v>50423</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B225">
+      <c r="B230">
         <v>21875</v>
       </c>
-      <c r="C225">
+      <c r="C230">
         <v>221765</v>
       </c>
-      <c r="D225">
+      <c r="D230">
         <v>9538</v>
       </c>
-      <c r="E225">
+      <c r="E230">
         <v>5723</v>
       </c>
-      <c r="F225">
+      <c r="F230">
         <v>49665</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B226">
+      <c r="B231">
         <v>21875</v>
       </c>
-      <c r="C226">
+      <c r="C231">
         <v>221165</v>
       </c>
-      <c r="D226">
+      <c r="D231">
         <v>9530</v>
       </c>
-      <c r="E226">
+      <c r="E231">
         <v>5723</v>
       </c>
-      <c r="F226">
+      <c r="F231">
         <v>48992</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B227">
+      <c r="B232">
         <v>21875</v>
       </c>
-      <c r="C227">
+      <c r="C232">
         <v>220105</v>
       </c>
-      <c r="D227">
+      <c r="D232">
         <v>9485</v>
       </c>
-      <c r="E227">
+      <c r="E232">
         <v>5723</v>
       </c>
-      <c r="F227">
+      <c r="F232">
         <v>48124</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B228">
+      <c r="B233">
         <v>22075</v>
       </c>
-      <c r="C228">
+      <c r="C233">
         <v>219760</v>
       </c>
-      <c r="D228">
+      <c r="D233">
         <v>9485</v>
       </c>
-      <c r="E228">
+      <c r="E233">
         <v>5723</v>
       </c>
-      <c r="F228">
+      <c r="F233">
         <v>47918</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B229">
+      <c r="B234">
         <v>22075</v>
       </c>
-      <c r="C229">
+      <c r="C234">
         <v>218844</v>
       </c>
-      <c r="D229">
+      <c r="D234">
         <v>9485</v>
       </c>
-      <c r="E229">
+      <c r="E234">
         <v>5723</v>
       </c>
-      <c r="F229">
+      <c r="F234">
         <v>47824</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B230">
+      <c r="B235">
         <v>22075</v>
       </c>
-      <c r="C230">
+      <c r="C235">
         <v>218706</v>
       </c>
-      <c r="D230">
+      <c r="D235">
         <v>9480</v>
       </c>
-      <c r="E230">
+      <c r="E235">
         <v>5723</v>
       </c>
-      <c r="F230">
+      <c r="F235">
         <v>47848</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B231">
+      <c r="B236">
         <v>22075</v>
       </c>
-      <c r="C231">
+      <c r="C236">
         <v>213895</v>
       </c>
-      <c r="D231">
+      <c r="D236">
         <v>8979</v>
       </c>
-      <c r="E231">
+      <c r="E236">
         <v>5723</v>
       </c>
-      <c r="F231">
+      <c r="F236">
         <v>47418</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B232">
+      <c r="B237">
         <v>22075</v>
       </c>
-      <c r="C232">
+      <c r="C237">
         <v>212171</v>
       </c>
-      <c r="D232">
+      <c r="D237">
         <v>8549</v>
       </c>
-      <c r="E232">
+      <c r="E237">
         <v>5723</v>
       </c>
-      <c r="F232">
+      <c r="F237">
         <v>46991</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B233">
+      <c r="B238">
         <v>22075</v>
       </c>
-      <c r="C233">
+      <c r="C238">
         <v>211471</v>
       </c>
-      <c r="D233">
+      <c r="D238">
         <v>8549</v>
       </c>
-      <c r="E233">
+      <c r="E238">
         <v>5723</v>
       </c>
-      <c r="F233">
+      <c r="F238">
         <v>46777</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B234">
+      <c r="B239">
         <v>22075</v>
       </c>
-      <c r="C234">
+      <c r="C239">
         <v>210463</v>
       </c>
-      <c r="D234">
+      <c r="D239">
         <v>8530</v>
       </c>
-      <c r="E234">
+      <c r="E239">
         <v>5723</v>
       </c>
-      <c r="F234">
+      <c r="F239">
         <v>46762</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B235">
+      <c r="B240">
         <v>22075</v>
       </c>
-      <c r="C235">
+      <c r="C240">
         <v>210552</v>
       </c>
-      <c r="D235">
+      <c r="D240">
         <v>8527</v>
       </c>
-      <c r="E235">
+      <c r="E240">
         <v>5723</v>
       </c>
-      <c r="F235">
+      <c r="F240">
         <v>46600</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B236">
+      <c r="B241">
         <v>22075</v>
       </c>
-      <c r="C236">
+      <c r="C241">
         <v>203830</v>
       </c>
-      <c r="D236">
+      <c r="D241">
         <v>8527</v>
       </c>
-      <c r="E236">
+      <c r="E241">
         <v>5473</v>
       </c>
-      <c r="F236">
+      <c r="F241">
         <v>45716</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B237">
+      <c r="B242">
         <v>22075</v>
       </c>
-      <c r="C237">
+      <c r="C242">
         <v>197874</v>
       </c>
-      <c r="D237">
+      <c r="D242">
         <v>8436</v>
       </c>
-      <c r="E237">
+      <c r="E242">
         <v>5473</v>
       </c>
-      <c r="F237">
+      <c r="F242">
         <v>45261</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B238">
+      <c r="B243">
         <v>22075</v>
       </c>
-      <c r="C238">
+      <c r="C243">
         <v>197129</v>
       </c>
-      <c r="D238">
+      <c r="D243">
         <v>8436</v>
       </c>
-      <c r="E238">
+      <c r="E243">
         <v>5473</v>
       </c>
-      <c r="F238">
+      <c r="F243">
         <v>45232</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B239">
+      <c r="B244">
         <v>22075</v>
       </c>
-      <c r="C239">
+      <c r="C244">
         <v>196698</v>
       </c>
-      <c r="D239">
+      <c r="D244">
         <v>8436</v>
       </c>
-      <c r="E239">
+      <c r="E244">
         <v>5355</v>
       </c>
-      <c r="F239">
+      <c r="F244">
         <v>45271</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B240">
+      <c r="B245">
         <v>22163</v>
       </c>
-      <c r="C240">
+      <c r="C245">
         <v>194595</v>
       </c>
-      <c r="D240">
+      <c r="D245">
         <v>8436</v>
       </c>
-      <c r="E240">
+      <c r="E245">
         <v>5355</v>
       </c>
-      <c r="F240">
+      <c r="F245">
         <v>45226</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B241">
+      <c r="B246">
         <v>15813</v>
       </c>
-      <c r="C241">
+      <c r="C246">
         <v>193567</v>
       </c>
-      <c r="D241">
+      <c r="D246">
         <v>8436</v>
       </c>
-      <c r="E241">
+      <c r="E246">
         <v>5355</v>
       </c>
-      <c r="F241">
+      <c r="F246">
         <v>45184</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B242">
+      <c r="B247">
         <v>15813</v>
       </c>
-      <c r="C242">
+      <c r="C247">
         <v>192155</v>
       </c>
-      <c r="D242">
+      <c r="D247">
         <v>8436</v>
       </c>
-      <c r="E242">
+      <c r="E247">
         <v>5355</v>
       </c>
-      <c r="F242">
+      <c r="F247">
         <v>45282</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,9,20)</f>
         <v>45555</v>
       </c>
-      <c r="B243">
+      <c r="B248">
         <v>15813</v>
       </c>
-      <c r="C243">
+      <c r="C248">
         <v>190546</v>
       </c>
-      <c r="D243">
+      <c r="D248">
         <v>8436</v>
       </c>
-      <c r="E243">
+      <c r="E248">
         <v>5355</v>
       </c>
-      <c r="F243">
+      <c r="F248">
         <v>44347</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,9,19)</f>
         <v>45554</v>
       </c>
-      <c r="B244">
+      <c r="B249">
         <v>15813</v>
       </c>
-      <c r="C244">
+      <c r="C249">
         <v>190387</v>
       </c>
-      <c r="D244">
+      <c r="D249">
         <v>8436</v>
       </c>
-      <c r="E244">
+      <c r="E249">
         <v>5355</v>
       </c>
-      <c r="F244">
+      <c r="F249">
         <v>44138</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,9,18)</f>
         <v>45553</v>
       </c>
-      <c r="B245">
+      <c r="B250">
         <v>13763</v>
       </c>
-      <c r="C245">
+      <c r="C250">
         <v>189493</v>
       </c>
-      <c r="D245">
+      <c r="D250">
         <v>8411</v>
       </c>
-      <c r="E245">
+      <c r="E250">
         <v>5355</v>
       </c>
-      <c r="F245">
+      <c r="F250">
         <v>43888</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,9,17)</f>
         <v>45552</v>
       </c>
-      <c r="B246">
+      <c r="B251">
         <v>13763</v>
       </c>
-      <c r="C246">
+      <c r="C251">
         <v>189036</v>
       </c>
-      <c r="D246">
+      <c r="D251">
         <v>8405</v>
       </c>
-      <c r="E246">
+      <c r="E251">
         <v>5355</v>
       </c>
-      <c r="F246">
+      <c r="F251">
         <v>43717</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,9,16)</f>
         <v>45551</v>
       </c>
-      <c r="B247">
+      <c r="B252">
         <v>13763</v>
       </c>
-      <c r="C247">
+      <c r="C252">
         <v>189674</v>
       </c>
-      <c r="D247">
+      <c r="D252">
         <v>8405</v>
       </c>
-      <c r="E247">
+      <c r="E252">
         <v>5355</v>
       </c>
-      <c r="F247">
+      <c r="F252">
         <v>42926</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,9,13)</f>
         <v>45548</v>
       </c>
-      <c r="B248">
+      <c r="B253">
         <v>13760</v>
       </c>
-      <c r="C248">
+      <c r="C253">
         <v>190449</v>
       </c>
-      <c r="D248">
+      <c r="D253">
         <v>8368</v>
       </c>
-      <c r="E248">
+      <c r="E253">
         <v>5355</v>
       </c>
-      <c r="F248">
+      <c r="F253">
         <v>42350</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,9,12)</f>
         <v>45547</v>
       </c>
-      <c r="B249">
+      <c r="B254">
         <v>13760</v>
       </c>
-      <c r="C249">
+      <c r="C254">
         <v>190306</v>
       </c>
-      <c r="D249">
+      <c r="D254">
         <v>8368</v>
       </c>
-      <c r="E249">
+      <c r="E254">
         <v>5355</v>
       </c>
-      <c r="F249">
+      <c r="F254">
         <v>42577</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,9,11)</f>
         <v>45546</v>
       </c>
-      <c r="B250">
+      <c r="B255">
         <v>13760</v>
       </c>
-      <c r="C250">
+      <c r="C255">
         <v>190071</v>
       </c>
-      <c r="D250">
+      <c r="D255">
         <v>8367</v>
       </c>
-      <c r="E250">
+      <c r="E255">
         <v>5355</v>
       </c>
-      <c r="F250">
+      <c r="F255">
         <v>42349</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,9,10)</f>
         <v>45545</v>
       </c>
-      <c r="B251">
+      <c r="B256">
         <v>13760</v>
       </c>
-      <c r="C251">
+      <c r="C256">
         <v>191308</v>
       </c>
-      <c r="D251">
+      <c r="D256">
         <v>8357</v>
       </c>
-      <c r="E251">
+      <c r="E256">
         <v>5355</v>
       </c>
-      <c r="F251">
+      <c r="F256">
         <v>41864</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,9,9)</f>
         <v>45544</v>
       </c>
-      <c r="B252">
+      <c r="B257">
         <v>13760</v>
       </c>
-      <c r="C252">
+      <c r="C257">
         <v>190241</v>
       </c>
-      <c r="D252">
+      <c r="D257">
         <v>7636</v>
       </c>
-      <c r="E252">
+      <c r="E257">
         <v>5355</v>
       </c>
-      <c r="F252">
+      <c r="F257">
         <v>41723</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,9,6)</f>
         <v>45541</v>
       </c>
-      <c r="B253">
+      <c r="B258">
         <v>13760</v>
       </c>
-      <c r="C253">
+      <c r="C258">
         <v>188662</v>
       </c>
-      <c r="D253">
+      <c r="D258">
         <v>7083</v>
       </c>
-      <c r="E253">
+      <c r="E258">
         <v>5355</v>
       </c>
-      <c r="F253">
+      <c r="F258">
         <v>41637</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,9,5)</f>
         <v>45540</v>
       </c>
-      <c r="B254">
+      <c r="B259">
         <v>13760</v>
       </c>
-      <c r="C254">
+      <c r="C259">
         <v>181332</v>
       </c>
-      <c r="D254">
+      <c r="D259">
         <v>7083</v>
       </c>
-      <c r="E254">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F259">
         <v>40826</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,9,4)</f>
         <v>45539</v>
       </c>
-      <c r="B255">
+      <c r="B260">
         <v>13760</v>
       </c>
-      <c r="C255">
+      <c r="C260">
         <v>180006</v>
       </c>
-      <c r="D255">
+      <c r="D260">
         <v>7082</v>
       </c>
-      <c r="E255">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F260">
         <v>39752</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,9,3)</f>
         <v>45538</v>
       </c>
-      <c r="B256">
+      <c r="B261">
         <v>13760</v>
       </c>
-      <c r="C256">
+      <c r="C261">
         <v>178478</v>
       </c>
-      <c r="D256">
+      <c r="D261">
         <v>7061</v>
       </c>
-      <c r="E256">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F261">
         <v>39608</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,9,2)</f>
         <v>45537</v>
       </c>
-      <c r="B257">
+      <c r="B262">
         <v>13760</v>
       </c>
-      <c r="C257">
+      <c r="C262">
         <v>177750</v>
-      </c>
-      <c r="D257">
-        <v>7061</v>
-      </c>
-      <c r="E257">
-        <v>5355</v>
-      </c>
-      <c r="F257">
-        <v>39391</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <f>DATE(2024,8,30)</f>
-        <v>45534</v>
-      </c>
-      <c r="B258">
-        <v>13710</v>
-      </c>
-      <c r="C258">
-        <v>177653</v>
-      </c>
-      <c r="D258">
-        <v>7061</v>
-      </c>
-      <c r="E258">
-        <v>5355</v>
-      </c>
-      <c r="F258">
-        <v>39276</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <f>DATE(2024,8,29)</f>
-        <v>45533</v>
-      </c>
-      <c r="B259">
-        <v>13710</v>
-      </c>
-      <c r="C259">
-        <v>176674</v>
-      </c>
-      <c r="D259">
-        <v>7061</v>
-      </c>
-      <c r="E259">
-        <v>5355</v>
-      </c>
-      <c r="F259">
-        <v>39072</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <f>DATE(2024,8,28)</f>
-        <v>45532</v>
-      </c>
-      <c r="B260">
-        <v>13710</v>
-      </c>
-      <c r="C260">
-        <v>176117</v>
-      </c>
-      <c r="D260">
-        <v>7061</v>
-      </c>
-      <c r="E260">
-        <v>5355</v>
-      </c>
-      <c r="F260">
-        <v>37790</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <f>DATE(2024,8,27)</f>
-        <v>45531</v>
-      </c>
-      <c r="B261">
-        <v>13710</v>
-      </c>
-      <c r="C261">
-        <v>175271</v>
-      </c>
-      <c r="D261">
-        <v>7061</v>
-      </c>
-      <c r="E261">
-        <v>5355</v>
-      </c>
-      <c r="F261">
-        <v>37787</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <f>DATE(2024,8,26)</f>
-        <v>45530</v>
-      </c>
-      <c r="B262">
-        <v>13710</v>
-      </c>
-      <c r="C262">
-        <v>175115</v>
       </c>
       <c r="D262">
         <v>7061</v>
@@ -12857,7 +12857,7 @@
         <v>5355</v>
       </c>
       <c r="F262">
-        <v>37432</v>
+        <v>39391</v>
       </c>
     </row>
   </sheetData>
@@ -12869,13 +12869,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A00085-FC66-4939-BACA-8A0A5F4526C8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12893,7 +12894,7 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
-        <v>72.13</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12902,7 +12903,7 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
-        <v>72.260000000000005</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12911,7 +12912,7 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
-        <v>72.42</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12920,7 +12921,7 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
-        <v>72.53</v>
+        <v>72.989999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12929,7 +12930,7 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
-        <v>73.040000000000006</v>
+        <v>73.489999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12938,7 +12939,7 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
-        <v>73.55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12947,7 +12948,7 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
-        <v>73.84</v>
+        <v>74.290000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12956,7 +12957,7 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
-        <v>74.05</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12965,7 +12966,7 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
-        <v>74.47</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12974,7 +12975,7 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
-        <v>74.989999999999995</v>
+        <v>75.430000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12983,7 +12984,7 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
-        <v>75.540000000000006</v>
+        <v>75.98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12992,7 +12993,7 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
-        <v>75.97</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13001,7 +13002,7 @@
       </c>
       <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
-        <v>76.69</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -13010,7 +13011,7 @@
       </c>
       <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
-        <v>77.349999999999994</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13019,7 +13020,7 @@
       </c>
       <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
-        <v>78.010000000000005</v>
+        <v>78.430000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13028,7 +13029,7 @@
       </c>
       <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
-        <v>79.25</v>
+        <v>79.64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13037,7 +13038,7 @@
       </c>
       <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
-        <v>82.11</v>
+        <v>82.59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13046,7 +13047,7 @@
       </c>
       <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
-        <v>85.22</v>
+        <v>85.94</v>
       </c>
     </row>
   </sheetData>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D8359-4412-45EC-AAF3-0CA4B58B7F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E1E15-66FB-4DC3-A08D-8D20F56A7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,35 +997,35 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>77.47</v>
+        <v>77.3</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>78.150000000000006</v>
+        <v>78.010000000000005</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>76.459999999999994</v>
+        <v>76.33</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>77.260000000000005</v>
+        <v>77.13</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>79.209999999999994</v>
+        <v>79.069999999999993</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1053,21 +1053,21 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>76.36</v>
+        <v>76.239999999999995</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>76.86</v>
+        <v>76.739999999999995</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>77.319999999999993</v>
+        <v>77.17</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1081,14 +1081,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>78.099999999999994</v>
+        <v>77.97</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>78.650000000000006</v>
+        <v>78.52</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1333,7 +1333,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>192</v>
+        <v>206</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1585,7 +1585,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>1.0799999999999983</v>
+        <v>0.87999999999999545</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1696,8 +1696,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J53" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.01</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Bid</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>73.97</v>
+        <v>73.81</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1944,7 +1944,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>73.400000000000006</v>
+        <v>73.650000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Last</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>76</v>
+        <v>76.16</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>73.52</v>
+        <v>73.760000000000005</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2035,7 +2035,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>74.099999999999994</v>
+        <v>74.23</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2119,7 +2119,7 @@
         <tr r="I57" s="1"/>
       </tp>
       <tp>
-        <v>73.400000000000006</v>
+        <v>73.709999999999994</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>High</stp>
@@ -2133,21 +2133,21 @@
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.15</v>
+        <v>-0.17</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>3.07</v>
+        <v>-0.46</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2175,7 +2175,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>-0.11</v>
+        <v>-0.12</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Ask</stp>
@@ -2203,7 +2203,7 @@
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>-3.9</v>
+        <v>-0.37</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
@@ -2231,14 +2231,14 @@
         <tr r="F17" s="1"/>
       </tp>
       <tp>
-        <v>-0.44</v>
+        <v>-0.46</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F24" s="1"/>
       </tp>
       <tp>
-        <v>-0.37</v>
+        <v>-0.35</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>73.650000000000006</v>
+        <v>73.760000000000005</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>75.89</v>
+        <v>75.81</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2294,14 +2294,14 @@
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>49540</v>
+        <v>49678</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>729</v>
+        <v>754</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2350,14 +2350,14 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F25" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Ask</stp>
@@ -2503,14 +2503,14 @@
     </main>
     <main first="esrtd">
       <tp>
-        <v>-0.57999999999999996</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.78</v>
+        <v>-0.81</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
@@ -2607,14 +2607,14 @@
     </main>
     <main first="esrtd">
       <tp>
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>-0.68</v>
+        <v>-0.7</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
@@ -2642,21 +2642,21 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>170479</v>
+        <v>171131</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>340721</v>
+        <v>342992</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>34426</v>
+        <v>34444</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2670,21 +2670,21 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>16473</v>
+        <v>16773</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>55406</v>
+        <v>55423</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>8503</v>
+        <v>8510</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>73.959999999999994</v>
+        <v>73.819999999999993</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>74.48</v>
+        <v>74.34</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>75.040000000000006</v>
+        <v>74.900000000000006</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>75.31</v>
+        <v>75.17</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>73.58</v>
+        <v>73.430000000000007</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>73.709999999999994</v>
+        <v>73.569999999999993</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>73.86</v>
+        <v>73.72</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>75.56</v>
+        <v>75.42</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>75.91</v>
+        <v>75.760000000000005</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2845,70 +2845,70 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>75.42</v>
+        <v>75.290000000000006</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>75.89</v>
+        <v>75.73</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>71.5</v>
+        <v>74.790000000000006</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>78.2</v>
+        <v>78</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>75.17</v>
+        <v>75.06</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>73.94</v>
+        <v>73.81</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>74.44</v>
+        <v>74.31</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>73.67</v>
+        <v>73.540000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>73.819999999999993</v>
+        <v>73.69</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>73.52</v>
+        <v>73.39</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>78.22</v>
+        <v>78.400000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>1026</v>
+        <v>1437</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>23</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>269</v>
+        <v>270</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,14 +3573,14 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>13756</v>
+        <v>16975</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>205</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3762,14 +3762,14 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0.98999999999999488</v>
+        <v>0.90999999999999659</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>0.67000000000000171</v>
+        <v>0.92000000000000171</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>0.92000000000000171</v>
+        <v>1.1600000000000108</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3804,7 +3804,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0.98000000000000398</v>
+        <v>0.82000000000000739</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
@@ -4827,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069DF7EF-98B5-4C73-97B4-CE8D46955EE6}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,15 +4876,15 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>73.52</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>0.92000000000000171</v>
+        <v>1.1600000000000108</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>73.650000000000006</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
@@ -4892,19 +4892,19 @@
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>73.52</v>
+        <v>73.39</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>73.58</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>55406</v>
+        <v>55423</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
@@ -4918,15 +4918,15 @@
       </c>
       <c r="B3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Last")</f>
-        <v>73.400000000000006</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="C3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Change")</f>
-        <v>0.67000000000000171</v>
+        <v>0.92000000000000171</v>
       </c>
       <c r="D3">
         <f>RTD("esrtd",,"ECF 2!-ICN","High")</f>
-        <v>73.400000000000006</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="E3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
@@ -4934,19 +4934,19 @@
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>73.67</v>
+        <v>73.540000000000006</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>73.709999999999994</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>8503</v>
+        <v>8510</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
@@ -4976,11 +4976,11 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>73.819999999999993</v>
+        <v>73.69</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>73.86</v>
+        <v>73.72</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -5002,15 +5002,15 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>73.97</v>
+        <v>73.81</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>0.98000000000000398</v>
+        <v>0.82000000000000739</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>74.099999999999994</v>
+        <v>74.23</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
@@ -5018,19 +5018,19 @@
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>73.94</v>
+        <v>73.81</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>73.959999999999994</v>
+        <v>73.819999999999993</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>13756</v>
+        <v>16975</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>340721</v>
+        <v>342992</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
@@ -5060,19 +5060,19 @@
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>74.44</v>
+        <v>74.31</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>74.48</v>
+        <v>74.34</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>34426</v>
+        <v>34444</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>71.5</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>75.040000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>75.17</v>
+        <v>75.06</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>75.31</v>
+        <v>75.17</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
-        <v>16473</v>
+        <v>16773</v>
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>75.42</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>75.56</v>
+        <v>75.42</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5212,15 +5212,15 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>75.89</v>
+        <v>75.81</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>0.98999999999999488</v>
+        <v>0.90999999999999659</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>76</v>
+        <v>76.16</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
@@ -5228,19 +5228,19 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>75.89</v>
+        <v>75.73</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>75.91</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>1026</v>
+        <v>1437</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>170479</v>
+        <v>171131</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>76.36</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>76.459999999999994</v>
+        <v>76.33</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
@@ -5312,11 +5312,11 @@
       </c>
       <c r="F12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Bid")</f>
-        <v>76.86</v>
+        <v>76.739999999999995</v>
       </c>
       <c r="G12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Ask")</f>
-        <v>77.260000000000005</v>
+        <v>77.13</v>
       </c>
       <c r="H12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Cumulative Volume")</f>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>77.319999999999993</v>
+        <v>77.17</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>77.47</v>
+        <v>77.3</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
@@ -5380,15 +5380,15 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>1.0799999999999983</v>
+        <v>0.87999999999999545</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>78.22</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
@@ -5396,19 +5396,19 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>78.099999999999994</v>
+        <v>77.97</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>78.150000000000006</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>49540</v>
+        <v>49678</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>78.650000000000006</v>
+        <v>78.52</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>79.209999999999994</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v>3.07</v>
+        <v>-0.46</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5732,11 +5732,11 @@
       </c>
       <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v>-3.9</v>
+        <v>-0.37</v>
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5774,11 +5774,11 @@
       </c>
       <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v>-0.37</v>
+        <v>-0.35</v>
       </c>
       <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="F24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
-        <v>-0.44</v>
+        <v>-0.46</v>
       </c>
       <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
@@ -5858,11 +5858,11 @@
       </c>
       <c r="F25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Cumulative Volume")</f>
@@ -5900,11 +5900,11 @@
       </c>
       <c r="F26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Bid")</f>
-        <v>-0.57999999999999996</v>
+        <v>-0.53</v>
       </c>
       <c r="G26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Ask")</f>
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Cumulative Volume")</f>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.78</v>
+        <v>-0.81</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v>-0.68</v>
+        <v>-0.7</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
@@ -6066,9 +6066,9 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
         <v>0</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
-        <v/>
+        <v>-0.01</v>
       </c>
       <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
@@ -7354,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11119,119 +11119,119 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <f>DATE(2024,12,25)</f>
-        <v>45651</v>
+        <f>DATE(2024,12,24)</f>
+        <v>45650</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>24453</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>294548</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>13728</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>9023</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>71630</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <f>DATE(2024,12,24)</f>
-        <v>45650</v>
+        <f>DATE(2024,12,23)</f>
+        <v>45649</v>
       </c>
       <c r="B181">
         <v>24453</v>
       </c>
       <c r="C181">
-        <v>294548</v>
+        <v>295328</v>
       </c>
       <c r="D181">
-        <v>13728</v>
+        <v>13078</v>
       </c>
       <c r="E181">
         <v>9023</v>
       </c>
       <c r="F181">
-        <v>71630</v>
+        <v>71607</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <f>DATE(2024,12,23)</f>
-        <v>45649</v>
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
       </c>
       <c r="B182">
         <v>24453</v>
       </c>
       <c r="C182">
-        <v>295328</v>
+        <v>295576</v>
       </c>
       <c r="D182">
-        <v>13078</v>
+        <v>12928</v>
       </c>
       <c r="E182">
         <v>9023</v>
       </c>
       <c r="F182">
-        <v>71607</v>
+        <v>71234</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2024,12,19)</f>
+        <v>45645</v>
       </c>
       <c r="B183">
-        <v>24453</v>
+        <v>24563</v>
       </c>
       <c r="C183">
-        <v>295576</v>
+        <v>297267</v>
       </c>
       <c r="D183">
-        <v>12928</v>
+        <v>12825</v>
       </c>
       <c r="E183">
         <v>9023</v>
       </c>
       <c r="F183">
-        <v>71234</v>
+        <v>71235</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <f>DATE(2024,12,19)</f>
-        <v>45645</v>
+        <f>DATE(2024,12,18)</f>
+        <v>45644</v>
       </c>
       <c r="B184">
-        <v>24563</v>
+        <v>24838</v>
       </c>
       <c r="C184">
-        <v>297267</v>
+        <v>301001</v>
       </c>
       <c r="D184">
-        <v>12825</v>
+        <v>11878</v>
       </c>
       <c r="E184">
-        <v>9023</v>
+        <v>6745</v>
       </c>
       <c r="F184">
-        <v>71235</v>
+        <v>70647</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <f>DATE(2024,12,18)</f>
-        <v>45644</v>
+        <f>DATE(2024,12,17)</f>
+        <v>45643</v>
       </c>
       <c r="B185">
-        <v>24838</v>
+        <v>22948</v>
       </c>
       <c r="C185">
-        <v>301001</v>
+        <v>298481</v>
       </c>
       <c r="D185">
         <v>11878</v>
@@ -11240,124 +11240,124 @@
         <v>6745</v>
       </c>
       <c r="F185">
-        <v>70647</v>
+        <v>70240</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <f>DATE(2024,12,17)</f>
-        <v>45643</v>
+        <f>DATE(2024,12,16)</f>
+        <v>45642</v>
       </c>
       <c r="B186">
-        <v>22948</v>
+        <v>22838</v>
       </c>
       <c r="C186">
-        <v>298481</v>
+        <v>294651</v>
       </c>
       <c r="D186">
-        <v>11878</v>
+        <v>11550</v>
       </c>
       <c r="E186">
         <v>6745</v>
       </c>
       <c r="F186">
-        <v>70240</v>
+        <v>69820</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <f>DATE(2024,12,16)</f>
-        <v>45642</v>
+        <f>DATE(2024,12,13)</f>
+        <v>45639</v>
       </c>
       <c r="B187">
         <v>22838</v>
       </c>
       <c r="C187">
-        <v>294651</v>
+        <v>293743</v>
       </c>
       <c r="D187">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="E187">
         <v>6745</v>
       </c>
       <c r="F187">
-        <v>69820</v>
+        <v>69282</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <f>DATE(2024,12,13)</f>
-        <v>45639</v>
+        <f>DATE(2024,12,12)</f>
+        <v>45638</v>
       </c>
       <c r="B188">
-        <v>22838</v>
+        <v>21988</v>
       </c>
       <c r="C188">
-        <v>293743</v>
+        <v>288113</v>
       </c>
       <c r="D188">
-        <v>11552</v>
+        <v>11508</v>
       </c>
       <c r="E188">
         <v>6745</v>
       </c>
       <c r="F188">
-        <v>69282</v>
+        <v>69248</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <f>DATE(2024,12,12)</f>
-        <v>45638</v>
+        <f>DATE(2024,12,11)</f>
+        <v>45637</v>
       </c>
       <c r="B189">
-        <v>21988</v>
+        <v>23418</v>
       </c>
       <c r="C189">
-        <v>288113</v>
+        <v>283521</v>
       </c>
       <c r="D189">
-        <v>11508</v>
+        <v>11465</v>
       </c>
       <c r="E189">
         <v>6745</v>
       </c>
       <c r="F189">
-        <v>69248</v>
+        <v>68433</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <f>DATE(2024,12,11)</f>
-        <v>45637</v>
+        <f>DATE(2024,12,10)</f>
+        <v>45636</v>
       </c>
       <c r="B190">
-        <v>23418</v>
+        <v>23393</v>
       </c>
       <c r="C190">
-        <v>283521</v>
+        <v>278267</v>
       </c>
       <c r="D190">
-        <v>11465</v>
+        <v>11221</v>
       </c>
       <c r="E190">
         <v>6745</v>
       </c>
       <c r="F190">
-        <v>68433</v>
+        <v>68330</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f>DATE(2024,12,10)</f>
-        <v>45636</v>
+        <f>DATE(2024,12,9)</f>
+        <v>45635</v>
       </c>
       <c r="B191">
-        <v>23393</v>
+        <v>23343</v>
       </c>
       <c r="C191">
-        <v>278267</v>
+        <v>271912</v>
       </c>
       <c r="D191">
         <v>11221</v>
@@ -11366,82 +11366,82 @@
         <v>6745</v>
       </c>
       <c r="F191">
-        <v>68330</v>
+        <v>67798</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <f>DATE(2024,12,9)</f>
-        <v>45635</v>
+        <f>DATE(2024,12,6)</f>
+        <v>45632</v>
       </c>
       <c r="B192">
         <v>23343</v>
       </c>
       <c r="C192">
-        <v>271912</v>
+        <v>262513</v>
       </c>
       <c r="D192">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E192">
         <v>6745</v>
       </c>
       <c r="F192">
-        <v>67798</v>
+        <v>67781</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <f>DATE(2024,12,6)</f>
-        <v>45632</v>
+        <f>DATE(2024,12,5)</f>
+        <v>45631</v>
       </c>
       <c r="B193">
         <v>23343</v>
       </c>
       <c r="C193">
-        <v>262513</v>
+        <v>259235</v>
       </c>
       <c r="D193">
-        <v>11153</v>
+        <v>11112</v>
       </c>
       <c r="E193">
         <v>6745</v>
       </c>
       <c r="F193">
-        <v>67781</v>
+        <v>67474</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <f>DATE(2024,12,5)</f>
-        <v>45631</v>
+        <f>DATE(2024,12,4)</f>
+        <v>45630</v>
       </c>
       <c r="B194">
-        <v>23343</v>
+        <v>23143</v>
       </c>
       <c r="C194">
-        <v>259235</v>
+        <v>254567</v>
       </c>
       <c r="D194">
-        <v>11112</v>
+        <v>10602</v>
       </c>
       <c r="E194">
         <v>6745</v>
       </c>
       <c r="F194">
-        <v>67474</v>
+        <v>67195</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <f>DATE(2024,12,4)</f>
-        <v>45630</v>
+        <f>DATE(2024,12,3)</f>
+        <v>45629</v>
       </c>
       <c r="B195">
         <v>23143</v>
       </c>
       <c r="C195">
-        <v>254567</v>
+        <v>250176</v>
       </c>
       <c r="D195">
         <v>10602</v>
@@ -11450,103 +11450,103 @@
         <v>6745</v>
       </c>
       <c r="F195">
-        <v>67195</v>
+        <v>66414</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <f>DATE(2024,12,3)</f>
-        <v>45629</v>
+        <f>DATE(2024,12,2)</f>
+        <v>45628</v>
       </c>
       <c r="B196">
-        <v>23143</v>
+        <v>23140</v>
       </c>
       <c r="C196">
-        <v>250176</v>
+        <v>247746</v>
       </c>
       <c r="D196">
-        <v>10602</v>
+        <v>10565</v>
       </c>
       <c r="E196">
         <v>6745</v>
       </c>
       <c r="F196">
-        <v>66414</v>
+        <v>64844</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <f>DATE(2024,12,2)</f>
-        <v>45628</v>
+        <f>DATE(2024,11,29)</f>
+        <v>45625</v>
       </c>
       <c r="B197">
         <v>23140</v>
       </c>
       <c r="C197">
-        <v>247746</v>
+        <v>246043</v>
       </c>
       <c r="D197">
-        <v>10565</v>
+        <v>10529</v>
       </c>
       <c r="E197">
         <v>6745</v>
       </c>
       <c r="F197">
-        <v>64844</v>
+        <v>64045</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <f>DATE(2024,11,29)</f>
-        <v>45625</v>
+        <f>DATE(2024,11,28)</f>
+        <v>45624</v>
       </c>
       <c r="B198">
         <v>23140</v>
       </c>
       <c r="C198">
-        <v>246043</v>
+        <v>244430</v>
       </c>
       <c r="D198">
-        <v>10529</v>
+        <v>10469</v>
       </c>
       <c r="E198">
         <v>6745</v>
       </c>
       <c r="F198">
-        <v>64045</v>
+        <v>63744</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <f>DATE(2024,11,28)</f>
-        <v>45624</v>
+        <f>DATE(2024,11,27)</f>
+        <v>45623</v>
       </c>
       <c r="B199">
         <v>23140</v>
       </c>
       <c r="C199">
-        <v>244430</v>
+        <v>243229</v>
       </c>
       <c r="D199">
-        <v>10469</v>
+        <v>10465</v>
       </c>
       <c r="E199">
-        <v>6745</v>
+        <v>6695</v>
       </c>
       <c r="F199">
-        <v>63744</v>
+        <v>62851</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <f>DATE(2024,11,27)</f>
-        <v>45623</v>
+        <f>DATE(2024,11,26)</f>
+        <v>45622</v>
       </c>
       <c r="B200">
         <v>23140</v>
       </c>
       <c r="C200">
-        <v>243229</v>
+        <v>241479</v>
       </c>
       <c r="D200">
         <v>10465</v>
@@ -11555,40 +11555,40 @@
         <v>6695</v>
       </c>
       <c r="F200">
-        <v>62851</v>
+        <v>62679</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <f>DATE(2024,11,26)</f>
-        <v>45622</v>
+        <f>DATE(2024,11,25)</f>
+        <v>45621</v>
       </c>
       <c r="B201">
-        <v>23140</v>
+        <v>23135</v>
       </c>
       <c r="C201">
-        <v>241479</v>
+        <v>237969</v>
       </c>
       <c r="D201">
         <v>10465</v>
       </c>
       <c r="E201">
-        <v>6695</v>
+        <v>6595</v>
       </c>
       <c r="F201">
-        <v>62679</v>
+        <v>62260</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <f>DATE(2024,11,25)</f>
-        <v>45621</v>
+        <f>DATE(2024,11,22)</f>
+        <v>45618</v>
       </c>
       <c r="B202">
         <v>23135</v>
       </c>
       <c r="C202">
-        <v>237969</v>
+        <v>241559</v>
       </c>
       <c r="D202">
         <v>10465</v>
@@ -11597,19 +11597,19 @@
         <v>6595</v>
       </c>
       <c r="F202">
-        <v>62260</v>
+        <v>62018</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <f>DATE(2024,11,22)</f>
-        <v>45618</v>
+        <f>DATE(2024,11,21)</f>
+        <v>45617</v>
       </c>
       <c r="B203">
         <v>23135</v>
       </c>
       <c r="C203">
-        <v>241559</v>
+        <v>240880</v>
       </c>
       <c r="D203">
         <v>10465</v>
@@ -11618,82 +11618,82 @@
         <v>6595</v>
       </c>
       <c r="F203">
-        <v>62018</v>
+        <v>60231</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <f>DATE(2024,11,21)</f>
-        <v>45617</v>
+        <f>DATE(2024,11,20)</f>
+        <v>45616</v>
       </c>
       <c r="B204">
         <v>23135</v>
       </c>
       <c r="C204">
-        <v>240880</v>
+        <v>242718</v>
       </c>
       <c r="D204">
-        <v>10465</v>
+        <v>10410</v>
       </c>
       <c r="E204">
-        <v>6595</v>
+        <v>6245</v>
       </c>
       <c r="F204">
-        <v>60231</v>
+        <v>59530</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <f>DATE(2024,11,20)</f>
-        <v>45616</v>
+        <f>DATE(2024,11,19)</f>
+        <v>45615</v>
       </c>
       <c r="B205">
         <v>23135</v>
       </c>
       <c r="C205">
-        <v>242718</v>
+        <v>242146</v>
       </c>
       <c r="D205">
         <v>10410</v>
       </c>
       <c r="E205">
-        <v>6245</v>
+        <v>6238</v>
       </c>
       <c r="F205">
-        <v>59530</v>
+        <v>59300</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <f>DATE(2024,11,19)</f>
-        <v>45615</v>
+        <f>DATE(2024,11,18)</f>
+        <v>45614</v>
       </c>
       <c r="B206">
-        <v>23135</v>
+        <v>23134</v>
       </c>
       <c r="C206">
-        <v>242146</v>
+        <v>240186</v>
       </c>
       <c r="D206">
-        <v>10410</v>
+        <v>9470</v>
       </c>
       <c r="E206">
         <v>6238</v>
       </c>
       <c r="F206">
-        <v>59300</v>
+        <v>58316</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <f>DATE(2024,11,18)</f>
-        <v>45614</v>
+        <f>DATE(2024,11,15)</f>
+        <v>45611</v>
       </c>
       <c r="B207">
         <v>23134</v>
       </c>
       <c r="C207">
-        <v>240186</v>
+        <v>240124</v>
       </c>
       <c r="D207">
         <v>9470</v>
@@ -11702,40 +11702,40 @@
         <v>6238</v>
       </c>
       <c r="F207">
-        <v>58316</v>
+        <v>58006</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <f>DATE(2024,11,15)</f>
-        <v>45611</v>
+        <f>DATE(2024,11,14)</f>
+        <v>45610</v>
       </c>
       <c r="B208">
-        <v>23134</v>
+        <v>22884</v>
       </c>
       <c r="C208">
-        <v>240124</v>
+        <v>239097</v>
       </c>
       <c r="D208">
-        <v>9470</v>
+        <v>9474</v>
       </c>
       <c r="E208">
         <v>6238</v>
       </c>
       <c r="F208">
-        <v>58006</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <f>DATE(2024,11,14)</f>
-        <v>45610</v>
+        <f>DATE(2024,11,13)</f>
+        <v>45609</v>
       </c>
       <c r="B209">
         <v>22884</v>
       </c>
       <c r="C209">
-        <v>239097</v>
+        <v>236767</v>
       </c>
       <c r="D209">
         <v>9474</v>
@@ -11744,40 +11744,40 @@
         <v>6238</v>
       </c>
       <c r="F209">
-        <v>57910</v>
+        <v>56984</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <f>DATE(2024,11,13)</f>
-        <v>45609</v>
+        <f>DATE(2024,11,12)</f>
+        <v>45608</v>
       </c>
       <c r="B210">
         <v>22884</v>
       </c>
       <c r="C210">
-        <v>236767</v>
+        <v>237379</v>
       </c>
       <c r="D210">
-        <v>9474</v>
+        <v>9469</v>
       </c>
       <c r="E210">
-        <v>6238</v>
+        <v>6208</v>
       </c>
       <c r="F210">
-        <v>56984</v>
+        <v>56896</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f>DATE(2024,11,12)</f>
-        <v>45608</v>
+        <f>DATE(2024,11,11)</f>
+        <v>45607</v>
       </c>
       <c r="B211">
         <v>22884</v>
       </c>
       <c r="C211">
-        <v>237379</v>
+        <v>236910</v>
       </c>
       <c r="D211">
         <v>9469</v>
@@ -11786,103 +11786,103 @@
         <v>6208</v>
       </c>
       <c r="F211">
-        <v>56896</v>
+        <v>56929</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <f>DATE(2024,11,11)</f>
-        <v>45607</v>
+        <f>DATE(2024,11,8)</f>
+        <v>45604</v>
       </c>
       <c r="B212">
         <v>22884</v>
       </c>
       <c r="C212">
-        <v>236910</v>
+        <v>235001</v>
       </c>
       <c r="D212">
-        <v>9469</v>
+        <v>9519</v>
       </c>
       <c r="E212">
         <v>6208</v>
       </c>
       <c r="F212">
-        <v>56929</v>
+        <v>56515</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <f>DATE(2024,11,8)</f>
-        <v>45604</v>
+        <f>DATE(2024,11,7)</f>
+        <v>45603</v>
       </c>
       <c r="B213">
         <v>22884</v>
       </c>
       <c r="C213">
-        <v>235001</v>
+        <v>231619</v>
       </c>
       <c r="D213">
-        <v>9519</v>
+        <v>9619</v>
       </c>
       <c r="E213">
         <v>6208</v>
       </c>
       <c r="F213">
-        <v>56515</v>
+        <v>56072</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <f>DATE(2024,11,7)</f>
-        <v>45603</v>
+        <f>DATE(2024,11,6)</f>
+        <v>45602</v>
       </c>
       <c r="B214">
         <v>22884</v>
       </c>
       <c r="C214">
-        <v>231619</v>
+        <v>230601</v>
       </c>
       <c r="D214">
-        <v>9619</v>
+        <v>9690</v>
       </c>
       <c r="E214">
-        <v>6208</v>
+        <v>6108</v>
       </c>
       <c r="F214">
-        <v>56072</v>
+        <v>55998</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <f>DATE(2024,11,6)</f>
-        <v>45602</v>
+        <f>DATE(2024,11,5)</f>
+        <v>45601</v>
       </c>
       <c r="B215">
         <v>22884</v>
       </c>
       <c r="C215">
-        <v>230601</v>
+        <v>230374</v>
       </c>
       <c r="D215">
-        <v>9690</v>
+        <v>9677</v>
       </c>
       <c r="E215">
-        <v>6108</v>
+        <v>5923</v>
       </c>
       <c r="F215">
-        <v>55998</v>
+        <v>54727</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <f>DATE(2024,11,5)</f>
-        <v>45601</v>
+        <f>DATE(2024,11,4)</f>
+        <v>45600</v>
       </c>
       <c r="B216">
         <v>22884</v>
       </c>
       <c r="C216">
-        <v>230374</v>
+        <v>229045</v>
       </c>
       <c r="D216">
         <v>9677</v>
@@ -11891,40 +11891,40 @@
         <v>5923</v>
       </c>
       <c r="F216">
-        <v>54727</v>
+        <v>54404</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <f>DATE(2024,11,4)</f>
-        <v>45600</v>
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
       </c>
       <c r="B217">
         <v>22884</v>
       </c>
       <c r="C217">
-        <v>229045</v>
+        <v>227307</v>
       </c>
       <c r="D217">
-        <v>9677</v>
+        <v>9567</v>
       </c>
       <c r="E217">
         <v>5923</v>
       </c>
       <c r="F217">
-        <v>54404</v>
+        <v>54456</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <f>DATE(2024,11,1)</f>
-        <v>45597</v>
+        <f>DATE(2024,10,31)</f>
+        <v>45596</v>
       </c>
       <c r="B218">
         <v>22884</v>
       </c>
       <c r="C218">
-        <v>227307</v>
+        <v>227231</v>
       </c>
       <c r="D218">
         <v>9567</v>
@@ -11933,61 +11933,61 @@
         <v>5923</v>
       </c>
       <c r="F218">
-        <v>54456</v>
+        <v>53878</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <f>DATE(2024,10,31)</f>
-        <v>45596</v>
+        <f>DATE(2024,10,30)</f>
+        <v>45595</v>
       </c>
       <c r="B219">
         <v>22884</v>
       </c>
       <c r="C219">
-        <v>227231</v>
+        <v>226655</v>
       </c>
       <c r="D219">
-        <v>9567</v>
+        <v>9547</v>
       </c>
       <c r="E219">
         <v>5923</v>
       </c>
       <c r="F219">
-        <v>53878</v>
+        <v>53986</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <f>DATE(2024,10,30)</f>
-        <v>45595</v>
+        <f>DATE(2024,10,29)</f>
+        <v>45594</v>
       </c>
       <c r="B220">
         <v>22884</v>
       </c>
       <c r="C220">
-        <v>226655</v>
+        <v>226326</v>
       </c>
       <c r="D220">
-        <v>9547</v>
+        <v>9540</v>
       </c>
       <c r="E220">
         <v>5923</v>
       </c>
       <c r="F220">
-        <v>53986</v>
+        <v>53441</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <f>DATE(2024,10,29)</f>
-        <v>45594</v>
+        <f>DATE(2024,10,28)</f>
+        <v>45593</v>
       </c>
       <c r="B221">
         <v>22884</v>
       </c>
       <c r="C221">
-        <v>226326</v>
+        <v>225848</v>
       </c>
       <c r="D221">
         <v>9540</v>
@@ -11996,19 +11996,19 @@
         <v>5923</v>
       </c>
       <c r="F221">
-        <v>53441</v>
+        <v>52683</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <f>DATE(2024,10,28)</f>
-        <v>45593</v>
+        <f>DATE(2024,10,25)</f>
+        <v>45590</v>
       </c>
       <c r="B222">
-        <v>22884</v>
+        <v>21875</v>
       </c>
       <c r="C222">
-        <v>225848</v>
+        <v>225509</v>
       </c>
       <c r="D222">
         <v>9540</v>
@@ -12017,19 +12017,19 @@
         <v>5923</v>
       </c>
       <c r="F222">
-        <v>52683</v>
+        <v>52453</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <f>DATE(2024,10,25)</f>
-        <v>45590</v>
+        <f>DATE(2024,10,24)</f>
+        <v>45589</v>
       </c>
       <c r="B223">
         <v>21875</v>
       </c>
       <c r="C223">
-        <v>225509</v>
+        <v>227510</v>
       </c>
       <c r="D223">
         <v>9540</v>
@@ -12038,19 +12038,19 @@
         <v>5923</v>
       </c>
       <c r="F223">
-        <v>52453</v>
+        <v>51188</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <f>DATE(2024,10,24)</f>
-        <v>45589</v>
+        <f>DATE(2024,10,23)</f>
+        <v>45588</v>
       </c>
       <c r="B224">
         <v>21875</v>
       </c>
       <c r="C224">
-        <v>227510</v>
+        <v>226876</v>
       </c>
       <c r="D224">
         <v>9540</v>
@@ -12059,19 +12059,19 @@
         <v>5923</v>
       </c>
       <c r="F224">
-        <v>51188</v>
+        <v>51133</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <f>DATE(2024,10,23)</f>
-        <v>45588</v>
+        <f>DATE(2024,10,22)</f>
+        <v>45587</v>
       </c>
       <c r="B225">
         <v>21875</v>
       </c>
       <c r="C225">
-        <v>226876</v>
+        <v>227039</v>
       </c>
       <c r="D225">
         <v>9540</v>
@@ -12080,61 +12080,61 @@
         <v>5923</v>
       </c>
       <c r="F225">
-        <v>51133</v>
+        <v>51049</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <f>DATE(2024,10,22)</f>
-        <v>45587</v>
+        <f>DATE(2024,10,21)</f>
+        <v>45586</v>
       </c>
       <c r="B226">
         <v>21875</v>
       </c>
       <c r="C226">
-        <v>227039</v>
+        <v>225342</v>
       </c>
       <c r="D226">
-        <v>9540</v>
+        <v>9536</v>
       </c>
       <c r="E226">
         <v>5923</v>
       </c>
       <c r="F226">
-        <v>51049</v>
+        <v>51091</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <f>DATE(2024,10,21)</f>
-        <v>45586</v>
+        <f>DATE(2024,10,18)</f>
+        <v>45583</v>
       </c>
       <c r="B227">
         <v>21875</v>
       </c>
       <c r="C227">
-        <v>225342</v>
+        <v>224244</v>
       </c>
       <c r="D227">
         <v>9536</v>
       </c>
       <c r="E227">
-        <v>5923</v>
+        <v>5723</v>
       </c>
       <c r="F227">
-        <v>51091</v>
+        <v>51028</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <f>DATE(2024,10,18)</f>
-        <v>45583</v>
+        <f>DATE(2024,10,17)</f>
+        <v>45582</v>
       </c>
       <c r="B228">
         <v>21875</v>
       </c>
       <c r="C228">
-        <v>224244</v>
+        <v>223763</v>
       </c>
       <c r="D228">
         <v>9536</v>
@@ -12143,82 +12143,82 @@
         <v>5723</v>
       </c>
       <c r="F228">
-        <v>51028</v>
+        <v>50423</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <f>DATE(2024,10,17)</f>
-        <v>45582</v>
+        <f>DATE(2024,10,16)</f>
+        <v>45581</v>
       </c>
       <c r="B229">
         <v>21875</v>
       </c>
       <c r="C229">
-        <v>223763</v>
+        <v>221765</v>
       </c>
       <c r="D229">
-        <v>9536</v>
+        <v>9538</v>
       </c>
       <c r="E229">
         <v>5723</v>
       </c>
       <c r="F229">
-        <v>50423</v>
+        <v>49665</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <f>DATE(2024,10,16)</f>
-        <v>45581</v>
+        <f>DATE(2024,10,15)</f>
+        <v>45580</v>
       </c>
       <c r="B230">
         <v>21875</v>
       </c>
       <c r="C230">
-        <v>221765</v>
+        <v>221165</v>
       </c>
       <c r="D230">
-        <v>9538</v>
+        <v>9530</v>
       </c>
       <c r="E230">
         <v>5723</v>
       </c>
       <c r="F230">
-        <v>49665</v>
+        <v>48992</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <f>DATE(2024,10,15)</f>
-        <v>45580</v>
+        <f>DATE(2024,10,14)</f>
+        <v>45579</v>
       </c>
       <c r="B231">
         <v>21875</v>
       </c>
       <c r="C231">
-        <v>221165</v>
+        <v>220105</v>
       </c>
       <c r="D231">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="E231">
         <v>5723</v>
       </c>
       <c r="F231">
-        <v>48992</v>
+        <v>48124</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <f>DATE(2024,10,14)</f>
-        <v>45579</v>
+        <f>DATE(2024,10,11)</f>
+        <v>45576</v>
       </c>
       <c r="B232">
-        <v>21875</v>
+        <v>22075</v>
       </c>
       <c r="C232">
-        <v>220105</v>
+        <v>219760</v>
       </c>
       <c r="D232">
         <v>9485</v>
@@ -12227,19 +12227,19 @@
         <v>5723</v>
       </c>
       <c r="F232">
-        <v>48124</v>
+        <v>47918</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <f>DATE(2024,10,11)</f>
-        <v>45576</v>
+        <f>DATE(2024,10,10)</f>
+        <v>45575</v>
       </c>
       <c r="B233">
         <v>22075</v>
       </c>
       <c r="C233">
-        <v>219760</v>
+        <v>218844</v>
       </c>
       <c r="D233">
         <v>9485</v>
@@ -12248,82 +12248,82 @@
         <v>5723</v>
       </c>
       <c r="F233">
-        <v>47918</v>
+        <v>47824</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <f>DATE(2024,10,10)</f>
-        <v>45575</v>
+        <f>DATE(2024,10,9)</f>
+        <v>45574</v>
       </c>
       <c r="B234">
         <v>22075</v>
       </c>
       <c r="C234">
-        <v>218844</v>
+        <v>218706</v>
       </c>
       <c r="D234">
-        <v>9485</v>
+        <v>9480</v>
       </c>
       <c r="E234">
         <v>5723</v>
       </c>
       <c r="F234">
-        <v>47824</v>
+        <v>47848</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <f>DATE(2024,10,9)</f>
-        <v>45574</v>
+        <f>DATE(2024,10,8)</f>
+        <v>45573</v>
       </c>
       <c r="B235">
         <v>22075</v>
       </c>
       <c r="C235">
-        <v>218706</v>
+        <v>213895</v>
       </c>
       <c r="D235">
-        <v>9480</v>
+        <v>8979</v>
       </c>
       <c r="E235">
         <v>5723</v>
       </c>
       <c r="F235">
-        <v>47848</v>
+        <v>47418</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <f>DATE(2024,10,8)</f>
-        <v>45573</v>
+        <f>DATE(2024,10,7)</f>
+        <v>45572</v>
       </c>
       <c r="B236">
         <v>22075</v>
       </c>
       <c r="C236">
-        <v>213895</v>
+        <v>212171</v>
       </c>
       <c r="D236">
-        <v>8979</v>
+        <v>8549</v>
       </c>
       <c r="E236">
         <v>5723</v>
       </c>
       <c r="F236">
-        <v>47418</v>
+        <v>46991</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <f>DATE(2024,10,7)</f>
-        <v>45572</v>
+        <f>DATE(2024,10,4)</f>
+        <v>45569</v>
       </c>
       <c r="B237">
         <v>22075</v>
       </c>
       <c r="C237">
-        <v>212171</v>
+        <v>211471</v>
       </c>
       <c r="D237">
         <v>8549</v>
@@ -12332,103 +12332,103 @@
         <v>5723</v>
       </c>
       <c r="F237">
-        <v>46991</v>
+        <v>46777</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <f>DATE(2024,10,4)</f>
-        <v>45569</v>
+        <f>DATE(2024,10,3)</f>
+        <v>45568</v>
       </c>
       <c r="B238">
         <v>22075</v>
       </c>
       <c r="C238">
-        <v>211471</v>
+        <v>210463</v>
       </c>
       <c r="D238">
-        <v>8549</v>
+        <v>8530</v>
       </c>
       <c r="E238">
         <v>5723</v>
       </c>
       <c r="F238">
-        <v>46777</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <f>DATE(2024,10,3)</f>
-        <v>45568</v>
+        <f>DATE(2024,10,2)</f>
+        <v>45567</v>
       </c>
       <c r="B239">
         <v>22075</v>
       </c>
       <c r="C239">
-        <v>210463</v>
+        <v>210552</v>
       </c>
       <c r="D239">
-        <v>8530</v>
+        <v>8527</v>
       </c>
       <c r="E239">
         <v>5723</v>
       </c>
       <c r="F239">
-        <v>46762</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <f>DATE(2024,10,2)</f>
-        <v>45567</v>
+        <f>DATE(2024,10,1)</f>
+        <v>45566</v>
       </c>
       <c r="B240">
         <v>22075</v>
       </c>
       <c r="C240">
-        <v>210552</v>
+        <v>203830</v>
       </c>
       <c r="D240">
         <v>8527</v>
       </c>
       <c r="E240">
-        <v>5723</v>
+        <v>5473</v>
       </c>
       <c r="F240">
-        <v>46600</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <f>DATE(2024,10,1)</f>
-        <v>45566</v>
+        <f>DATE(2024,9,30)</f>
+        <v>45565</v>
       </c>
       <c r="B241">
         <v>22075</v>
       </c>
       <c r="C241">
-        <v>203830</v>
+        <v>197874</v>
       </c>
       <c r="D241">
-        <v>8527</v>
+        <v>8436</v>
       </c>
       <c r="E241">
         <v>5473</v>
       </c>
       <c r="F241">
-        <v>45716</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <f>DATE(2024,9,30)</f>
-        <v>45565</v>
+        <f>DATE(2024,9,27)</f>
+        <v>45562</v>
       </c>
       <c r="B242">
         <v>22075</v>
       </c>
       <c r="C242">
-        <v>197874</v>
+        <v>197129</v>
       </c>
       <c r="D242">
         <v>8436</v>
@@ -12437,40 +12437,40 @@
         <v>5473</v>
       </c>
       <c r="F242">
-        <v>45261</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <f>DATE(2024,9,27)</f>
-        <v>45562</v>
+        <f>DATE(2024,9,26)</f>
+        <v>45561</v>
       </c>
       <c r="B243">
         <v>22075</v>
       </c>
       <c r="C243">
-        <v>197129</v>
+        <v>196698</v>
       </c>
       <c r="D243">
         <v>8436</v>
       </c>
       <c r="E243">
-        <v>5473</v>
+        <v>5355</v>
       </c>
       <c r="F243">
-        <v>45232</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <f>DATE(2024,9,26)</f>
-        <v>45561</v>
+        <f>DATE(2024,9,25)</f>
+        <v>45560</v>
       </c>
       <c r="B244">
-        <v>22075</v>
+        <v>22163</v>
       </c>
       <c r="C244">
-        <v>196698</v>
+        <v>194595</v>
       </c>
       <c r="D244">
         <v>8436</v>
@@ -12479,19 +12479,19 @@
         <v>5355</v>
       </c>
       <c r="F244">
-        <v>45271</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <f>DATE(2024,9,25)</f>
-        <v>45560</v>
+        <f>DATE(2024,9,24)</f>
+        <v>45559</v>
       </c>
       <c r="B245">
-        <v>22163</v>
+        <v>15813</v>
       </c>
       <c r="C245">
-        <v>194595</v>
+        <v>193567</v>
       </c>
       <c r="D245">
         <v>8436</v>
@@ -12500,19 +12500,19 @@
         <v>5355</v>
       </c>
       <c r="F245">
-        <v>45226</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <f>DATE(2024,9,24)</f>
-        <v>45559</v>
+        <f>DATE(2024,9,23)</f>
+        <v>45558</v>
       </c>
       <c r="B246">
         <v>15813</v>
       </c>
       <c r="C246">
-        <v>193567</v>
+        <v>192155</v>
       </c>
       <c r="D246">
         <v>8436</v>
@@ -12521,19 +12521,19 @@
         <v>5355</v>
       </c>
       <c r="F246">
-        <v>45184</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <f>DATE(2024,9,23)</f>
-        <v>45558</v>
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
       </c>
       <c r="B247">
         <v>15813</v>
       </c>
       <c r="C247">
-        <v>192155</v>
+        <v>190546</v>
       </c>
       <c r="D247">
         <v>8436</v>
@@ -12542,19 +12542,19 @@
         <v>5355</v>
       </c>
       <c r="F247">
-        <v>45282</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <f>DATE(2024,9,20)</f>
-        <v>45555</v>
+        <f>DATE(2024,9,19)</f>
+        <v>45554</v>
       </c>
       <c r="B248">
         <v>15813</v>
       </c>
       <c r="C248">
-        <v>190546</v>
+        <v>190387</v>
       </c>
       <c r="D248">
         <v>8436</v>
@@ -12563,61 +12563,61 @@
         <v>5355</v>
       </c>
       <c r="F248">
-        <v>44347</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <f>DATE(2024,9,19)</f>
-        <v>45554</v>
+        <f>DATE(2024,9,18)</f>
+        <v>45553</v>
       </c>
       <c r="B249">
-        <v>15813</v>
+        <v>13763</v>
       </c>
       <c r="C249">
-        <v>190387</v>
+        <v>189493</v>
       </c>
       <c r="D249">
-        <v>8436</v>
+        <v>8411</v>
       </c>
       <c r="E249">
         <v>5355</v>
       </c>
       <c r="F249">
-        <v>44138</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
+        <f>DATE(2024,9,17)</f>
+        <v>45552</v>
       </c>
       <c r="B250">
         <v>13763</v>
       </c>
       <c r="C250">
-        <v>189493</v>
+        <v>189036</v>
       </c>
       <c r="D250">
-        <v>8411</v>
+        <v>8405</v>
       </c>
       <c r="E250">
         <v>5355</v>
       </c>
       <c r="F250">
-        <v>43888</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <f>DATE(2024,9,17)</f>
-        <v>45552</v>
+        <f>DATE(2024,9,16)</f>
+        <v>45551</v>
       </c>
       <c r="B251">
         <v>13763</v>
       </c>
       <c r="C251">
-        <v>189036</v>
+        <v>189674</v>
       </c>
       <c r="D251">
         <v>8405</v>
@@ -12626,40 +12626,40 @@
         <v>5355</v>
       </c>
       <c r="F251">
-        <v>43717</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <f>DATE(2024,9,16)</f>
-        <v>45551</v>
+        <f>DATE(2024,9,13)</f>
+        <v>45548</v>
       </c>
       <c r="B252">
-        <v>13763</v>
+        <v>13760</v>
       </c>
       <c r="C252">
-        <v>189674</v>
+        <v>190449</v>
       </c>
       <c r="D252">
-        <v>8405</v>
+        <v>8368</v>
       </c>
       <c r="E252">
         <v>5355</v>
       </c>
       <c r="F252">
-        <v>42926</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <f>DATE(2024,9,13)</f>
-        <v>45548</v>
+        <f>DATE(2024,9,12)</f>
+        <v>45547</v>
       </c>
       <c r="B253">
         <v>13760</v>
       </c>
       <c r="C253">
-        <v>190449</v>
+        <v>190306</v>
       </c>
       <c r="D253">
         <v>8368</v>
@@ -12668,103 +12668,103 @@
         <v>5355</v>
       </c>
       <c r="F253">
-        <v>42350</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <f>DATE(2024,9,12)</f>
-        <v>45547</v>
+        <f>DATE(2024,9,11)</f>
+        <v>45546</v>
       </c>
       <c r="B254">
         <v>13760</v>
       </c>
       <c r="C254">
-        <v>190306</v>
+        <v>190071</v>
       </c>
       <c r="D254">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="E254">
         <v>5355</v>
       </c>
       <c r="F254">
-        <v>42577</v>
+        <v>42349</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <f>DATE(2024,9,11)</f>
-        <v>45546</v>
+        <f>DATE(2024,9,10)</f>
+        <v>45545</v>
       </c>
       <c r="B255">
         <v>13760</v>
       </c>
       <c r="C255">
-        <v>190071</v>
+        <v>191308</v>
       </c>
       <c r="D255">
-        <v>8367</v>
+        <v>8357</v>
       </c>
       <c r="E255">
         <v>5355</v>
       </c>
       <c r="F255">
-        <v>42349</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <f>DATE(2024,9,10)</f>
-        <v>45545</v>
+        <f>DATE(2024,9,9)</f>
+        <v>45544</v>
       </c>
       <c r="B256">
         <v>13760</v>
       </c>
       <c r="C256">
-        <v>191308</v>
+        <v>190241</v>
       </c>
       <c r="D256">
-        <v>8357</v>
+        <v>7636</v>
       </c>
       <c r="E256">
         <v>5355</v>
       </c>
       <c r="F256">
-        <v>41864</v>
+        <v>41723</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <f>DATE(2024,9,9)</f>
-        <v>45544</v>
+        <f>DATE(2024,9,6)</f>
+        <v>45541</v>
       </c>
       <c r="B257">
         <v>13760</v>
       </c>
       <c r="C257">
-        <v>190241</v>
+        <v>188662</v>
       </c>
       <c r="D257">
-        <v>7636</v>
+        <v>7083</v>
       </c>
       <c r="E257">
         <v>5355</v>
       </c>
       <c r="F257">
-        <v>41723</v>
+        <v>41637</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <f>DATE(2024,9,6)</f>
-        <v>45541</v>
+        <f>DATE(2024,9,5)</f>
+        <v>45540</v>
       </c>
       <c r="B258">
         <v>13760</v>
       </c>
       <c r="C258">
-        <v>188662</v>
+        <v>181332</v>
       </c>
       <c r="D258">
         <v>7083</v>
@@ -12773,61 +12773,61 @@
         <v>5355</v>
       </c>
       <c r="F258">
-        <v>41637</v>
+        <v>40826</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <f>DATE(2024,9,5)</f>
-        <v>45540</v>
+        <f>DATE(2024,9,4)</f>
+        <v>45539</v>
       </c>
       <c r="B259">
         <v>13760</v>
       </c>
       <c r="C259">
-        <v>181332</v>
+        <v>180006</v>
       </c>
       <c r="D259">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E259">
         <v>5355</v>
       </c>
       <c r="F259">
-        <v>40826</v>
+        <v>39752</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <f>DATE(2024,9,4)</f>
-        <v>45539</v>
+        <f>DATE(2024,9,3)</f>
+        <v>45538</v>
       </c>
       <c r="B260">
         <v>13760</v>
       </c>
       <c r="C260">
-        <v>180006</v>
+        <v>178478</v>
       </c>
       <c r="D260">
-        <v>7082</v>
+        <v>7061</v>
       </c>
       <c r="E260">
         <v>5355</v>
       </c>
       <c r="F260">
-        <v>39752</v>
+        <v>39608</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <f>DATE(2024,9,3)</f>
-        <v>45538</v>
+        <f>DATE(2024,9,2)</f>
+        <v>45537</v>
       </c>
       <c r="B261">
         <v>13760</v>
       </c>
       <c r="C261">
-        <v>178478</v>
+        <v>177750</v>
       </c>
       <c r="D261">
         <v>7061</v>
@@ -12836,27 +12836,6 @@
         <v>5355</v>
       </c>
       <c r="F261">
-        <v>39608</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <f>DATE(2024,9,2)</f>
-        <v>45537</v>
-      </c>
-      <c r="B262">
-        <v>13760</v>
-      </c>
-      <c r="C262">
-        <v>177750</v>
-      </c>
-      <c r="D262">
-        <v>7061</v>
-      </c>
-      <c r="E262">
-        <v>5355</v>
-      </c>
-      <c r="F262">
         <v>39391</v>
       </c>
     </row>
@@ -12869,7 +12848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A00085-FC66-4939-BACA-8A0A5F4526C8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E1E15-66FB-4DC3-A08D-8D20F56A7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C062FE1B-F3F1-4EBA-8F86-F93374528E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,15 +268,15 @@
         <stp>Low</stp>
         <tr r="E16" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>79.45</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Low</stp>
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>76.959999999999994</v>
+        <v>80.14</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
@@ -773,49 +773,49 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>75.98</v>
+        <v>79.13</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>75.430000000000007</v>
+        <v>78.569999999999993</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>77.12</v>
+        <v>80.3</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>76.400000000000006</v>
+        <v>79.55</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>78.430000000000007</v>
+        <v>81.64</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>77.78</v>
+        <v>80.95</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>-0.65</v>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -997,35 +997,35 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>77.3</v>
+        <v>79.52</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>78.010000000000005</v>
+        <v>80.209999999999994</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>76.33</v>
+        <v>78.5</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>77.13</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>79.069999999999993</v>
+        <v>81.010000000000005</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1053,42 +1053,42 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>76.239999999999995</v>
+        <v>78.42</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F11" s="1"/>
       </tp>
-      <tp>
-        <v>76.739999999999995</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>77.17</v>
+        <v>79.41</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>-0.72</v>
+        <v>-0.75</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>77.97</v>
+        <v>80.150000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>78.52</v>
+        <v>80.709999999999994</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1109,14 +1109,14 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>-0.66</v>
+        <v>-0.65</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>High</stp>
@@ -1130,7 +1130,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1284,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>85</v>
+        <v>80</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1326,14 +1326,14 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>2</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>206</v>
+        <v>9</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1374,8 +1374,8 @@
         <stp>Change</stp>
         <tr r="C26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>6.0000000000000053E-2</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Change</stp>
@@ -1424,7 +1424,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1528,8 +1528,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J45" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>7.0000000000000007E-2</v>
         <stp/>
         <stp>ECFZ 2!-ICN</stp>
         <stp>Ask</stp>
@@ -1577,15 +1577,15 @@
         <stp>Change</stp>
         <tr r="C12" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-9.9999999999994316E-2</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Change</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>0.87999999999999545</v>
+        <v>-1.9999999999996021E-2</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>73.81</v>
+        <v>75.95</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1846,7 +1846,7 @@
         <tr r="I60" s="1"/>
       </tp>
       <tp>
-        <v>74.06</v>
+        <v>76.099999999999994</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1902,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>22</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1930,7 +1930,7 @@
         <tr r="H23" s="1"/>
       </tp>
       <tp>
-        <v>10</v>
+        <v>1</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1943,8 +1943,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp>
-        <v>73.650000000000006</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Last</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>76.16</v>
+        <v>78.459999999999994</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>73.760000000000005</v>
+        <v>75.489999999999995</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2035,7 +2035,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>74.23</v>
+        <v>76.47</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2077,7 +2077,7 @@
         <tr r="I58" s="1"/>
       </tp>
       <tp>
-        <v>74.06</v>
+        <v>76.97</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2118,36 +2118,36 @@
         <stp>Open Interest</stp>
         <tr r="I57" s="1"/>
       </tp>
-      <tp>
-        <v>73.709999999999994</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>High</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>-0.32</v>
+        <v>-0.4</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>-0.13</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.17</v>
+        <v>-0.27</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>-0.46</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2161,14 +2161,14 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>-0.13</v>
+        <v>-0.12</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
@@ -2210,14 +2210,14 @@
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>-0.57999999999999996</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>-0.17</v>
+        <v>-0.19</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
@@ -2238,7 +2238,7 @@
         <tr r="F24" s="1"/>
       </tp>
       <tp>
-        <v>-0.35</v>
+        <v>-0.22</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>73.760000000000005</v>
+        <v>75.91</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>75.81</v>
+        <v>78.02</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2287,21 +2287,21 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3503</v>
+        <v>3508</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>49678</v>
+        <v>50336</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>754</v>
+        <v>833</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2350,7 +2350,7 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Bid</stp>
@@ -2364,21 +2364,21 @@
         <tr r="G25" s="1"/>
       </tp>
       <tp>
-        <v>-0.42</v>
+        <v>-0.41</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J24" s="1"/>
       </tp>
       <tp>
-        <v>-0.19</v>
+        <v>-0.21</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J23" s="1"/>
       </tp>
       <tp>
-        <v>-0.28999999999999998</v>
+        <v>-0.33</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2392,7 +2392,7 @@
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2406,7 +2406,7 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>-0.15</v>
+        <v>-0.16</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2429,7 +2429,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>78.430000000000007</v>
+        <v>81.64</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 15!-ICN</stp>
@@ -2437,7 +2437,7 @@
         <tr r="B16" s="4"/>
       </tp>
       <tp>
-        <v>77.78</v>
+        <v>80.95</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 14!-ICN</stp>
@@ -2445,7 +2445,7 @@
         <tr r="B15" s="4"/>
       </tp>
       <tp>
-        <v>82.59</v>
+        <v>85.76</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 17!-ICN</stp>
@@ -2453,7 +2453,7 @@
         <tr r="B18" s="4"/>
       </tp>
       <tp>
-        <v>79.64</v>
+        <v>82.89</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 16!-ICN</stp>
@@ -2461,7 +2461,7 @@
         <tr r="B17" s="4"/>
       </tp>
       <tp>
-        <v>75.98</v>
+        <v>79.13</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 11!-ICN</stp>
@@ -2469,7 +2469,7 @@
         <tr r="B12" s="4"/>
       </tp>
       <tp>
-        <v>75.430000000000007</v>
+        <v>78.569999999999993</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 10!-ICN</stp>
@@ -2477,7 +2477,7 @@
         <tr r="B11" s="4"/>
       </tp>
       <tp>
-        <v>77.12</v>
+        <v>80.3</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 13!-ICN</stp>
@@ -2485,7 +2485,7 @@
         <tr r="B14" s="4"/>
       </tp>
       <tp>
-        <v>76.400000000000006</v>
+        <v>79.55</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 12!-ICN</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B13" s="4"/>
       </tp>
       <tp>
-        <v>85.94</v>
+        <v>89.11</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 18!-ICN</stp>
@@ -2502,22 +2502,22 @@
       </tp>
     </main>
     <main first="esrtd">
-      <tp>
-        <v>-0.53</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.81</v>
+        <v>-0.78</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>-1.06</v>
+        <v>-0.8</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Bid</stp>
@@ -2533,7 +2533,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>74.48</v>
+        <v>77.61</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 8!-ICN</stp>
@@ -2541,7 +2541,7 @@
         <tr r="B9" s="4"/>
       </tp>
       <tp>
-        <v>74.900000000000006</v>
+        <v>78.02</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 9!-ICN</stp>
@@ -2549,7 +2549,7 @@
         <tr r="B10" s="4"/>
       </tp>
       <tp>
-        <v>72.989999999999995</v>
+        <v>76.040000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 4!-ICN</stp>
@@ -2557,7 +2557,7 @@
         <tr r="B5" s="4"/>
       </tp>
       <tp>
-        <v>73.489999999999995</v>
+        <v>76.56</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 5!-ICN</stp>
@@ -2565,7 +2565,7 @@
         <tr r="B6" s="4"/>
       </tp>
       <tp>
-        <v>74</v>
+        <v>77.069999999999993</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 6!-ICN</stp>
@@ -2573,7 +2573,7 @@
         <tr r="B7" s="4"/>
       </tp>
       <tp>
-        <v>74.290000000000006</v>
+        <v>77.400000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 7!-ICN</stp>
@@ -2581,7 +2581,7 @@
         <tr r="B8" s="4"/>
       </tp>
       <tp>
-        <v>72.599999999999994</v>
+        <v>75.64</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 1!-ICN</stp>
@@ -2589,7 +2589,7 @@
         <tr r="B2" s="4"/>
       </tp>
       <tp>
-        <v>72.73</v>
+        <v>75.77</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 2!-ICN</stp>
@@ -2597,7 +2597,7 @@
         <tr r="B3" s="4"/>
       </tp>
       <tp>
-        <v>72.88</v>
+        <v>75.930000000000007</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 3!-ICN</stp>
@@ -2606,22 +2606,22 @@
       </tp>
     </main>
     <main first="esrtd">
-      <tp>
-        <v>-7.0000000000000007E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>-0.7</v>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Ask</stp>
@@ -2635,28 +2635,28 @@
         <tr r="G29" s="1"/>
       </tp>
       <tp>
-        <v>800</v>
+        <v>819</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>171131</v>
+        <v>175805</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>342992</v>
+        <v>343492</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>34444</v>
+        <v>34372</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2670,28 +2670,28 @@
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>16773</v>
+        <v>16853</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>55423</v>
+        <v>52764</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>8510</v>
+        <v>8536</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>3770</v>
+        <v>4340</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2718,8 +2718,8 @@
         <stp>Low</stp>
         <tr r="E26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Low</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>73.819999999999993</v>
+        <v>75.95</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>74.34</v>
+        <v>76.47</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>74.900000000000006</v>
+        <v>77.02</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>75.17</v>
+        <v>77.33</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>73.430000000000007</v>
+        <v>75.56</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>73.569999999999993</v>
+        <v>75.7</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>73.72</v>
+        <v>75.87</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>75.42</v>
+        <v>77.540000000000006</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>75.760000000000005</v>
+        <v>77.94</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2823,15 +2823,15 @@
         <stp>Last</stp>
         <tr r="B30" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B27" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>79.45</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Last</stp>
@@ -2845,70 +2845,70 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>75.290000000000006</v>
+        <v>77.459999999999994</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>75.73</v>
+        <v>77.91</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>74.790000000000006</v>
+        <v>76.94</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>78</v>
+        <v>80.28</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>75.06</v>
+        <v>77.27</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>73.81</v>
+        <v>75.930000000000007</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>74.31</v>
+        <v>76.44</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>73.540000000000006</v>
+        <v>75.64</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>73.69</v>
+        <v>75.8</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>73.39</v>
+        <v>75.510000000000005</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3159,8 +3159,8 @@
         <stp>High</stp>
         <tr r="D11" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.69</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>High</stp>
@@ -3180,8 +3180,8 @@
         <stp>High</stp>
         <tr r="D30" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>79.45</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>High</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>78.400000000000006</v>
+        <v>80.75</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3307,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>74.81</v>
+        <v>77.540000000000006</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3335,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>73.239999999999995</v>
+        <v>75.41</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3348,8 +3348,8 @@
         <stp>High</stp>
         <tr r="D35" s="1"/>
       </tp>
-      <tp>
-        <v>73.39</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Low</stp>
@@ -3377,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>72.78</v>
+        <v>75.5</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3391,7 +3391,7 @@
         <tr r="D38" s="1"/>
       </tp>
       <tp>
-        <v>73.45</v>
+        <v>76.069999999999993</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>1437</v>
+        <v>420</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>23</v>
+        <v>101</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>270</v>
+        <v>331</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,14 +3573,14 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>16975</v>
+        <v>8682</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>205</v>
+        <v>25</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3643,7 +3643,7 @@
         <tr r="G58" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.01</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Change</stp>
@@ -3762,14 +3762,14 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0.90999999999999659</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
         <tr r="C10" s="1"/>
       </tp>
-      <tp>
-        <v>0.92000000000000171</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>1.1600000000000108</v>
+        <v>-0.15000000000000568</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3804,14 +3804,14 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0.82000000000000739</v>
+        <v>-9.0000000000003411E-2</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>0.57000000000000739</v>
+        <v>-0.46000000000000796</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -3846,7 +3846,7 @@
         <tr r="G48" s="1"/>
       </tp>
       <tp>
-        <v>-0.53</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4441,63 +4441,63 @@
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>74.900000000000006</v>
+        <v>78.02</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>74.48</v>
+        <v>77.61</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>74.290000000000006</v>
+        <v>77.400000000000006</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>74</v>
+        <v>77.069999999999993</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>73.489999999999995</v>
+        <v>76.56</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>72.989999999999995</v>
+        <v>76.040000000000006</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>72.88</v>
+        <v>75.930000000000007</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>72.73</v>
+        <v>75.77</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>72.599999999999994</v>
+        <v>75.64</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4827,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069DF7EF-98B5-4C73-97B4-CE8D46955EE6}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -4876,39 +4876,39 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>73.760000000000005</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>1.1600000000000108</v>
+        <v>-0.15000000000000568</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>73.760000000000005</v>
+        <v>75.91</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>73.239999999999995</v>
+        <v>75.41</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>73.39</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>73.430000000000007</v>
+        <v>75.56</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>55423</v>
+        <v>52764</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
-        <v>72.599999999999994</v>
+        <v>75.64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,41 +4916,41 @@
         <f>RTD("esrtd",,"ECF 2!-ICN","Symbol")</f>
         <v>ECF 25V-ICN</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <f>RTD("esrtd",,"ECF 2!-ICN","Last")</f>
-        <v>73.650000000000006</v>
-      </c>
-      <c r="C3">
+        <v/>
+      </c>
+      <c r="C3" t="str">
         <f>RTD("esrtd",,"ECF 2!-ICN","Change")</f>
-        <v>0.92000000000000171</v>
-      </c>
-      <c r="D3">
+        <v/>
+      </c>
+      <c r="D3" t="str">
         <f>RTD("esrtd",,"ECF 2!-ICN","High")</f>
-        <v>73.709999999999994</v>
-      </c>
-      <c r="E3">
+        <v/>
+      </c>
+      <c r="E3" t="str">
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
-        <v>73.39</v>
+        <v/>
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>73.540000000000006</v>
+        <v>75.64</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>73.569999999999993</v>
+        <v>75.7</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>8510</v>
+        <v>8536</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
-        <v>72.73</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,11 +4976,11 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>73.69</v>
+        <v>75.8</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>73.72</v>
+        <v>75.87</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="I4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Open Interest")</f>
-        <v>3770</v>
+        <v>4340</v>
       </c>
       <c r="J4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Recent Settlement")</f>
-        <v>72.88</v>
+        <v>75.930000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,39 +5002,39 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>73.81</v>
+        <v>75.95</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>0.82000000000000739</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>74.23</v>
+        <v>76.47</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>72.78</v>
+        <v>75.5</v>
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>73.81</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>73.819999999999993</v>
+        <v>75.95</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>16975</v>
+        <v>8682</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>342992</v>
+        <v>343492</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
-        <v>72.989999999999995</v>
+        <v>76.040000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,39 +5044,39 @@
       </c>
       <c r="B6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v>74.06</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v>0.57000000000000739</v>
+        <v>-0.46000000000000796</v>
       </c>
       <c r="D6">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v>74.06</v>
+        <v>76.97</v>
       </c>
       <c r="E6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v>73.45</v>
+        <v>76.069999999999993</v>
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>74.31</v>
+        <v>76.44</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>74.34</v>
+        <v>76.47</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>34444</v>
+        <v>34372</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
-        <v>73.489999999999995</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>74.790000000000006</v>
+        <v>76.94</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>74.900000000000006</v>
+        <v>77.02</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="J7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Recent Settlement")</f>
-        <v>74</v>
+        <v>77.069999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>75.06</v>
+        <v>77.27</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>75.17</v>
+        <v>77.33</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5156,11 +5156,11 @@
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
-        <v>16773</v>
+        <v>16853</v>
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
-        <v>74.290000000000006</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>75.290000000000006</v>
+        <v>77.459999999999994</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>75.42</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="I9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Open Interest")</f>
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="J9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Recent Settlement")</f>
-        <v>74.48</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>75.81</v>
+        <v>78.02</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>0.90999999999999659</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>76.16</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>74.81</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>75.73</v>
+        <v>77.91</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>75.760000000000005</v>
+        <v>77.94</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>1437</v>
+        <v>420</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>171131</v>
+        <v>175805</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
-        <v>74.900000000000006</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>76.239999999999995</v>
+        <v>78.42</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>76.33</v>
+        <v>78.5</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>754</v>
+        <v>833</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
-        <v>75.430000000000007</v>
+        <v>78.569999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5310,13 +5310,13 @@
         <f>RTD("esrtd",,"ECF 11!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>RTD("esrtd",,"ECF 11!-ICN","Bid")</f>
-        <v>76.739999999999995</v>
-      </c>
-      <c r="G12">
+        <v/>
+      </c>
+      <c r="G12" t="str">
         <f>RTD("esrtd",,"ECF 11!-ICN","Ask")</f>
-        <v>77.13</v>
+        <v/>
       </c>
       <c r="H12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Cumulative Volume")</f>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="J12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Recent Settlement")</f>
-        <v>75.98</v>
+        <v>79.13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5336,41 +5336,41 @@
         <f>RTD("esrtd",,"ECF 12!-ICN","Symbol")</f>
         <v>ECF 27Q-ICN</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C13" t="str">
+        <v>79.45</v>
+      </c>
+      <c r="C13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D13" t="str">
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="D13">
         <f>RTD("esrtd",,"ECF 12!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E13" t="str">
+        <v>79.45</v>
+      </c>
+      <c r="E13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Low")</f>
-        <v/>
+        <v>79.45</v>
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>77.17</v>
+        <v>79.41</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>77.3</v>
+        <v>79.52</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
-        <v>3503</v>
+        <v>3508</v>
       </c>
       <c r="J13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Recent Settlement")</f>
-        <v>76.400000000000006</v>
+        <v>79.55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,39 +5380,39 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>78</v>
+        <v>80.28</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>0.87999999999999545</v>
+        <v>-1.9999999999996021E-2</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>78.400000000000006</v>
+        <v>80.75</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>76.959999999999994</v>
+        <v>80.14</v>
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>77.97</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>78.010000000000005</v>
+        <v>80.209999999999994</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>49678</v>
+        <v>50336</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
-        <v>77.12</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>78.52</v>
+        <v>80.709999999999994</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>79.069999999999993</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="J15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Recent Settlement")</f>
-        <v>77.78</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="J16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Recent Settlement")</f>
-        <v>78.430000000000007</v>
+        <v>81.64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Open Interest")</f>
@@ -5564,11 +5564,11 @@
       </c>
       <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="G18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="J18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Recent Settlement")</f>
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="C20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="D20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="E20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="J20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Recent Settlement")</f>
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v>-0.57999999999999996</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v>-0.46</v>
+        <v>-0.5</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="J22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Recent Settlement")</f>
-        <v>-0.28999999999999998</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5774,11 +5774,11 @@
       </c>
       <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v>-0.35</v>
+        <v>-0.22</v>
       </c>
       <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Recent Settlement")</f>
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v>-0.32</v>
+        <v>-0.4</v>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="J24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Recent Settlement")</f>
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="J25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Recent Settlement")</f>
-        <v>-0.53</v>
+        <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5898,13 +5898,13 @@
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Low")</f>
         <v/>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Bid")</f>
-        <v>-0.53</v>
-      </c>
-      <c r="G26">
+        <v/>
+      </c>
+      <c r="G26" t="str">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Ask")</f>
-        <v>-7.0000000000000007E-2</v>
+        <v/>
       </c>
       <c r="H26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Cumulative Volume")</f>
@@ -5924,33 +5924,33 @@
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Symbol")</f>
         <v>ECF 27Q:ECF27Z-ICN</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C27" t="str">
+        <v>-0.69</v>
+      </c>
+      <c r="C27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D27" t="str">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="D27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E27" t="str">
+        <v>-0.69</v>
+      </c>
+      <c r="E27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Low")</f>
-        <v/>
+        <v>-0.69</v>
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.81</v>
+        <v>-0.78</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v>-0.7</v>
+        <v>-0.69</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Open Interest")</f>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="J27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Recent Settlement")</f>
-        <v>-0.72</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5984,11 +5984,11 @@
       </c>
       <c r="F28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Bid")</f>
-        <v>-1.06</v>
+        <v>-0.8</v>
       </c>
       <c r="G28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Ask")</f>
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Cumulative Volume")</f>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="J28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Recent Settlement")</f>
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v>-0.65</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Change")</f>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="D30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","High")</f>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -6112,9 +6112,9 @@
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Bid")</f>
         <v>0</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Ask")</f>
-        <v/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Cumulative Volume")</f>
@@ -7354,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,5399 +7444,5420 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>DATE(2025,9,5)</f>
+        <v>45905</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(2025,9,4)</f>
+        <v>45904</v>
+      </c>
+      <c r="B6">
+        <v>52764</v>
+      </c>
+      <c r="C6">
+        <v>343492</v>
+      </c>
+      <c r="D6">
+        <v>34372</v>
+      </c>
+      <c r="E6">
+        <v>16853</v>
+      </c>
+      <c r="F6">
+        <v>175805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>DATE(2025,9,3)</f>
+        <v>45903</v>
+      </c>
+      <c r="B7">
+        <v>52996</v>
+      </c>
+      <c r="C7">
+        <v>342971</v>
+      </c>
+      <c r="D7">
+        <v>34171</v>
+      </c>
+      <c r="E7">
+        <v>16853</v>
+      </c>
+      <c r="F7">
+        <v>175671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>DATE(2025,9,2)</f>
+        <v>45902</v>
+      </c>
+      <c r="B8">
+        <v>53280</v>
+      </c>
+      <c r="C8">
+        <v>344044</v>
+      </c>
+      <c r="D8">
+        <v>34054</v>
+      </c>
+      <c r="E8">
+        <v>16773</v>
+      </c>
+      <c r="F8">
+        <v>173844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="B9">
+        <v>53879</v>
+      </c>
+      <c r="C9">
+        <v>345801</v>
+      </c>
+      <c r="D9">
+        <v>34023</v>
+      </c>
+      <c r="E9">
+        <v>16773</v>
+      </c>
+      <c r="F9">
+        <v>171783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f>DATE(2025,8,29)</f>
         <v>45898</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B10">
+        <v>55423</v>
+      </c>
+      <c r="C10">
+        <v>342992</v>
+      </c>
+      <c r="D10">
+        <v>34444</v>
+      </c>
+      <c r="E10">
+        <v>16773</v>
+      </c>
+      <c r="F10">
+        <v>171131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,8,28)</f>
         <v>45897</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>55406</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>340721</v>
       </c>
-      <c r="D6">
+      <c r="D11">
         <v>34426</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>16473</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>170479</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,8,27)</f>
         <v>45896</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>55504</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>339452</v>
       </c>
-      <c r="D7">
+      <c r="D12">
         <v>34349</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>16473</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>169640</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,8,26)</f>
         <v>45895</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>55650</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>340557</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>34302</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>16141</v>
       </c>
-      <c r="F8">
+      <c r="F13">
         <v>169468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,8,25)</f>
         <v>45894</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>55526</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>338181</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>34283</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>16141</v>
       </c>
-      <c r="F9">
+      <c r="F14">
         <v>169331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,8,22)</f>
         <v>45891</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>55494</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>337516</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>33952</v>
       </c>
-      <c r="E10">
+      <c r="E15">
         <v>16141</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>169313</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,8,21)</f>
         <v>45890</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>55271</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>336880</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>33466</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>16134</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>169229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,8,20)</f>
         <v>45889</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>55233</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>336461</v>
       </c>
-      <c r="D12">
+      <c r="D17">
         <v>32957</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <v>16282</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>167467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>55159</v>
       </c>
-      <c r="C13">
+      <c r="C18">
         <v>335216</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>32675</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>16112</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>166986</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>55038</v>
       </c>
-      <c r="C14">
+      <c r="C19">
         <v>334562</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>32404</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>16244</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>166189</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>54467</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>332925</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>32139</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>16114</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>165785</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>52654</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>331793</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>32139</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>16114</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>165035</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>49078</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>334724</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>31135</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>16086</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>165282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>49075</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>333519</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <v>31129</v>
       </c>
-      <c r="E18">
+      <c r="E23">
         <v>16084</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <v>165259</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>49079</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>332913</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>31123</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>16080</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>164418</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>49029</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>334592</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>31103</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>16080</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>164283</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>49035</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>334273</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>31046</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>16080</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>162523</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>49028</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>335278</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>30118</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>16080</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>162858</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>49028</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>333937</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>30037</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>16079</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>161752</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>48952</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <v>333839</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>30018</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>16079</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>161155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>48947</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>335306</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>29963</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <v>16079</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <v>160284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>48946</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>335217</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>29443</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>16054</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>159960</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B27">
+      <c r="B32">
         <v>48458</v>
       </c>
-      <c r="C27">
+      <c r="C32">
         <v>334621</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>29466</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>16054</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>159968</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>48210</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>335880</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>29456</v>
       </c>
-      <c r="E28">
+      <c r="E33">
         <v>16054</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <v>159282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>48261</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>333961</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>29447</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>16053</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <v>158865</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>48208</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>333078</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>29391</v>
       </c>
-      <c r="E30">
+      <c r="E35">
         <v>16051</v>
       </c>
-      <c r="F30">
+      <c r="F35">
         <v>158379</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>48527</v>
       </c>
-      <c r="C31">
+      <c r="C36">
         <v>332644</v>
       </c>
-      <c r="D31">
+      <c r="D36">
         <v>29344</v>
       </c>
-      <c r="E31">
+      <c r="E36">
         <v>16051</v>
       </c>
-      <c r="F31">
+      <c r="F36">
         <v>158783</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>48515</v>
       </c>
-      <c r="C32">
+      <c r="C37">
         <v>331048</v>
       </c>
-      <c r="D32">
+      <c r="D37">
         <v>29341</v>
       </c>
-      <c r="E32">
+      <c r="E37">
         <v>16051</v>
       </c>
-      <c r="F32">
+      <c r="F37">
         <v>157895</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>48536</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>329710</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>29291</v>
       </c>
-      <c r="E33">
+      <c r="E38">
         <v>16048</v>
       </c>
-      <c r="F33">
+      <c r="F38">
         <v>157083</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>48510</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>328708</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>28676</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>16045</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <v>155953</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>48350</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>327097</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>28361</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>16027</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>155293</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>48330</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>326066</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>27846</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>16025</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>154555</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>48290</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>326325</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>27426</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>16024</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>153864</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>48290</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>325885</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>27369</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>16006</v>
       </c>
-      <c r="F38">
+      <c r="F43">
         <v>152993</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>48290</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>323301</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>27355</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>15982</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <v>152111</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>48290</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>321020</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>27331</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>15975</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <v>151848</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>48236</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>321618</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>26279</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>15958</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <v>150659</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>48121</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>320154</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>26263</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>15955</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <v>150687</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B43">
+      <c r="B48">
         <v>47384</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>319320</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <v>26236</v>
       </c>
-      <c r="E43">
+      <c r="E48">
         <v>15950</v>
       </c>
-      <c r="F43">
+      <c r="F48">
         <v>149986</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B44">
+      <c r="B49">
         <v>46088</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>318933</v>
       </c>
-      <c r="D44">
+      <c r="D49">
         <v>26180</v>
       </c>
-      <c r="E44">
+      <c r="E49">
         <v>15944</v>
       </c>
-      <c r="F44">
+      <c r="F49">
         <v>149479</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>45908</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>319160</v>
       </c>
-      <c r="D45">
+      <c r="D50">
         <v>26167</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>15922</v>
       </c>
-      <c r="F45">
+      <c r="F50">
         <v>149447</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B46">
+      <c r="B51">
         <v>45896</v>
       </c>
-      <c r="C46">
+      <c r="C51">
         <v>318241</v>
       </c>
-      <c r="D46">
+      <c r="D51">
         <v>26163</v>
       </c>
-      <c r="E46">
+      <c r="E51">
         <v>15918</v>
       </c>
-      <c r="F46">
+      <c r="F51">
         <v>149132</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <v>44033</v>
       </c>
-      <c r="C47">
+      <c r="C52">
         <v>319486</v>
       </c>
-      <c r="D47">
+      <c r="D52">
         <v>22147</v>
       </c>
-      <c r="E47">
+      <c r="E52">
         <v>15913</v>
       </c>
-      <c r="F47">
+      <c r="F52">
         <v>147950</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B48">
+      <c r="B53">
         <v>43816</v>
       </c>
-      <c r="C48">
+      <c r="C53">
         <v>318476</v>
       </c>
-      <c r="D48">
+      <c r="D53">
         <v>22099</v>
       </c>
-      <c r="E48">
+      <c r="E53">
         <v>15913</v>
       </c>
-      <c r="F48">
+      <c r="F53">
         <v>147288</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B49">
+      <c r="B54">
         <v>43451</v>
       </c>
-      <c r="C49">
+      <c r="C54">
         <v>319974</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>22070</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>15831</v>
       </c>
-      <c r="F49">
+      <c r="F54">
         <v>147310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B50">
+      <c r="B55">
         <v>42536</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>319363</v>
       </c>
-      <c r="D50">
+      <c r="D55">
         <v>22090</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>15797</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>146216</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B51">
+      <c r="B56">
         <v>40059</v>
       </c>
-      <c r="C51">
+      <c r="C56">
         <v>320370</v>
       </c>
-      <c r="D51">
+      <c r="D56">
         <v>22093</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>15793</v>
       </c>
-      <c r="F51">
+      <c r="F56">
         <v>145781</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B52">
+      <c r="B57">
         <v>32534</v>
       </c>
-      <c r="C52">
+      <c r="C57">
         <v>322739</v>
       </c>
-      <c r="D52">
+      <c r="D57">
         <v>22106</v>
       </c>
-      <c r="E52">
+      <c r="E57">
         <v>15793</v>
       </c>
-      <c r="F52">
+      <c r="F57">
         <v>144874</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>34154</v>
       </c>
-      <c r="C53">
+      <c r="C58">
         <v>321931</v>
       </c>
-      <c r="D53">
+      <c r="D58">
         <v>22111</v>
       </c>
-      <c r="E53">
+      <c r="E58">
         <v>15767</v>
       </c>
-      <c r="F53">
+      <c r="F58">
         <v>143864</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B54">
+      <c r="B59">
         <v>33248</v>
       </c>
-      <c r="C54">
+      <c r="C59">
         <v>324446</v>
       </c>
-      <c r="D54">
+      <c r="D59">
         <v>22093</v>
       </c>
-      <c r="E54">
+      <c r="E59">
         <v>15765</v>
       </c>
-      <c r="F54">
+      <c r="F59">
         <v>143661</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>32748</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>324690</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>22083</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>15711</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>141607</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>29868</v>
       </c>
-      <c r="C56">
+      <c r="C61">
         <v>325610</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>21978</v>
       </c>
-      <c r="E56">
+      <c r="E61">
         <v>15711</v>
       </c>
-      <c r="F56">
+      <c r="F61">
         <v>141254</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B57">
+      <c r="B62">
         <v>29755</v>
       </c>
-      <c r="C57">
+      <c r="C62">
         <v>324035</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>21941</v>
       </c>
-      <c r="E57">
+      <c r="E62">
         <v>15590</v>
       </c>
-      <c r="F57">
+      <c r="F62">
         <v>141078</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>29755</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>325145</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>21924</v>
       </c>
-      <c r="E58">
+      <c r="E63">
         <v>15586</v>
       </c>
-      <c r="F58">
+      <c r="F63">
         <v>140266</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>29945</v>
       </c>
-      <c r="C59">
+      <c r="C64">
         <v>323780</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>21902</v>
       </c>
-      <c r="E59">
+      <c r="E64">
         <v>15585</v>
       </c>
-      <c r="F59">
+      <c r="F64">
         <v>139680</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>29788</v>
       </c>
-      <c r="C60">
+      <c r="C65">
         <v>323965</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>21895</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <v>15585</v>
       </c>
-      <c r="F60">
+      <c r="F65">
         <v>139317</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B61">
+      <c r="B66">
         <v>29786</v>
       </c>
-      <c r="C61">
+      <c r="C66">
         <v>324500</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>21872</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <v>15580</v>
       </c>
-      <c r="F61">
+      <c r="F66">
         <v>139012</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B62">
+      <c r="B67">
         <v>29802</v>
       </c>
-      <c r="C62">
+      <c r="C67">
         <v>322494</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>21864</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>15492</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <v>138712</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>29807</v>
       </c>
-      <c r="C63">
+      <c r="C68">
         <v>320699</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>21824</v>
       </c>
-      <c r="E63">
+      <c r="E68">
         <v>15492</v>
       </c>
-      <c r="F63">
+      <c r="F68">
         <v>137682</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>29507</v>
       </c>
-      <c r="C64">
+      <c r="C69">
         <v>320734</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>21788</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <v>15489</v>
       </c>
-      <c r="F64">
+      <c r="F69">
         <v>135467</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>29495</v>
       </c>
-      <c r="C65">
+      <c r="C70">
         <v>321022</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>21780</v>
       </c>
-      <c r="E65">
+      <c r="E70">
         <v>15489</v>
       </c>
-      <c r="F65">
+      <c r="F70">
         <v>135063</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>29495</v>
       </c>
-      <c r="C66">
+      <c r="C71">
         <v>321194</v>
       </c>
-      <c r="D66">
+      <c r="D71">
         <v>21775</v>
       </c>
-      <c r="E66">
+      <c r="E71">
         <v>15489</v>
       </c>
-      <c r="F66">
+      <c r="F71">
         <v>134947</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>28625</v>
       </c>
-      <c r="C67">
+      <c r="C72">
         <v>320187</v>
       </c>
-      <c r="D67">
+      <c r="D72">
         <v>21522</v>
       </c>
-      <c r="E67">
+      <c r="E72">
         <v>15439</v>
       </c>
-      <c r="F67">
+      <c r="F72">
         <v>134377</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>28625</v>
       </c>
-      <c r="C68">
+      <c r="C73">
         <v>319824</v>
       </c>
-      <c r="D68">
+      <c r="D73">
         <v>21515</v>
       </c>
-      <c r="E68">
+      <c r="E73">
         <v>15436</v>
       </c>
-      <c r="F68">
+      <c r="F73">
         <v>134162</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <v>28625</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <v>317426</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>21513</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <v>15431</v>
       </c>
-      <c r="F69">
+      <c r="F74">
         <v>134076</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B70">
+      <c r="B75">
         <v>28625</v>
       </c>
-      <c r="C70">
+      <c r="C75">
         <v>317555</v>
       </c>
-      <c r="D70">
+      <c r="D75">
         <v>21513</v>
       </c>
-      <c r="E70">
+      <c r="E75">
         <v>15428</v>
       </c>
-      <c r="F70">
+      <c r="F75">
         <v>134058</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B71">
+      <c r="B76">
         <v>26625</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>320491</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>21498</v>
       </c>
-      <c r="E71">
+      <c r="E76">
         <v>15425</v>
       </c>
-      <c r="F71">
+      <c r="F76">
         <v>134450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B72">
+      <c r="B77">
         <v>26367</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>320932</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>21499</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>15314</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>133557</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B73">
+      <c r="B78">
         <v>26367</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>318101</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>21483</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>15311</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>131923</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>26217</v>
       </c>
-      <c r="C74">
+      <c r="C79">
         <v>316769</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>21445</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <v>15301</v>
       </c>
-      <c r="F74">
+      <c r="F79">
         <v>131071</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B75">
+      <c r="B80">
         <v>26217</v>
       </c>
-      <c r="C75">
+      <c r="C80">
         <v>317448</v>
       </c>
-      <c r="D75">
+      <c r="D80">
         <v>21403</v>
       </c>
-      <c r="E75">
+      <c r="E80">
         <v>15301</v>
       </c>
-      <c r="F75">
+      <c r="F80">
         <v>131000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>26217</v>
       </c>
-      <c r="C76">
+      <c r="C81">
         <v>318727</v>
       </c>
-      <c r="D76">
+      <c r="D81">
         <v>21398</v>
       </c>
-      <c r="E76">
+      <c r="E81">
         <v>15293</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>130192</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B77">
+      <c r="B82">
         <v>26217</v>
       </c>
-      <c r="C77">
+      <c r="C82">
         <v>318115</v>
       </c>
-      <c r="D77">
+      <c r="D82">
         <v>21391</v>
       </c>
-      <c r="E77">
+      <c r="E82">
         <v>15279</v>
       </c>
-      <c r="F77">
+      <c r="F82">
         <v>130222</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>26217</v>
       </c>
-      <c r="C78">
+      <c r="C83">
         <v>317798</v>
       </c>
-      <c r="D78">
+      <c r="D83">
         <v>21368</v>
       </c>
-      <c r="E78">
+      <c r="E83">
         <v>15251</v>
       </c>
-      <c r="F78">
+      <c r="F83">
         <v>130033</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B79">
+      <c r="B84">
         <v>26217</v>
       </c>
-      <c r="C79">
+      <c r="C84">
         <v>316698</v>
       </c>
-      <c r="D79">
+      <c r="D84">
         <v>21361</v>
       </c>
-      <c r="E79">
+      <c r="E84">
         <v>15248</v>
       </c>
-      <c r="F79">
+      <c r="F84">
         <v>129719</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B80">
+      <c r="B85">
         <v>26217</v>
       </c>
-      <c r="C80">
+      <c r="C85">
         <v>317705</v>
       </c>
-      <c r="D80">
+      <c r="D85">
         <v>21349</v>
       </c>
-      <c r="E80">
+      <c r="E85">
         <v>15234</v>
       </c>
-      <c r="F80">
+      <c r="F85">
         <v>126662</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B81">
+      <c r="B86">
         <v>25937</v>
       </c>
-      <c r="C81">
+      <c r="C86">
         <v>317478</v>
       </c>
-      <c r="D81">
+      <c r="D86">
         <v>21328</v>
       </c>
-      <c r="E81">
+      <c r="E86">
         <v>15234</v>
       </c>
-      <c r="F81">
+      <c r="F86">
         <v>126329</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B82">
+      <c r="B87">
         <v>25938</v>
       </c>
-      <c r="C82">
+      <c r="C87">
         <v>318806</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>21321</v>
       </c>
-      <c r="E82">
+      <c r="E87">
         <v>15229</v>
       </c>
-      <c r="F82">
+      <c r="F87">
         <v>126269</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B83">
+      <c r="B88">
         <v>25926</v>
       </c>
-      <c r="C83">
+      <c r="C88">
         <v>318809</v>
       </c>
-      <c r="D83">
+      <c r="D88">
         <v>21275</v>
       </c>
-      <c r="E83">
+      <c r="E88">
         <v>15118</v>
       </c>
-      <c r="F83">
+      <c r="F88">
         <v>126146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B84">
+      <c r="B89">
         <v>25926</v>
       </c>
-      <c r="C84">
+      <c r="C89">
         <v>322318</v>
       </c>
-      <c r="D84">
+      <c r="D89">
         <v>21275</v>
       </c>
-      <c r="E84">
+      <c r="E89">
         <v>15109</v>
       </c>
-      <c r="F84">
+      <c r="F89">
         <v>125191</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B85">
+      <c r="B90">
         <v>25926</v>
       </c>
-      <c r="C85">
+      <c r="C90">
         <v>323552</v>
       </c>
-      <c r="D85">
+      <c r="D90">
         <v>21277</v>
       </c>
-      <c r="E85">
+      <c r="E90">
         <v>15059</v>
       </c>
-      <c r="F85">
+      <c r="F90">
         <v>124559</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B86">
+      <c r="B91">
         <v>25675</v>
       </c>
-      <c r="C86">
+      <c r="C91">
         <v>324400</v>
       </c>
-      <c r="D86">
+      <c r="D91">
         <v>21262</v>
       </c>
-      <c r="E86">
+      <c r="E91">
         <v>15056</v>
       </c>
-      <c r="F86">
+      <c r="F91">
         <v>123029</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B87">
+      <c r="B92">
         <v>25675</v>
       </c>
-      <c r="C87">
+      <c r="C92">
         <v>325047</v>
       </c>
-      <c r="D87">
+      <c r="D92">
         <v>21413</v>
       </c>
-      <c r="E87">
+      <c r="E92">
         <v>15041</v>
       </c>
-      <c r="F87">
+      <c r="F92">
         <v>122900</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B88">
+      <c r="B93">
         <v>24625</v>
       </c>
-      <c r="C88">
+      <c r="C93">
         <v>328301</v>
       </c>
-      <c r="D88">
+      <c r="D93">
         <v>21423</v>
       </c>
-      <c r="E88">
+      <c r="E93">
         <v>15008</v>
       </c>
-      <c r="F88">
+      <c r="F93">
         <v>122781</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B89">
+      <c r="B94">
         <v>24626</v>
       </c>
-      <c r="C89">
+      <c r="C94">
         <v>327642</v>
       </c>
-      <c r="D89">
+      <c r="D94">
         <v>21415</v>
       </c>
-      <c r="E89">
+      <c r="E94">
         <v>15003</v>
       </c>
-      <c r="F89">
+      <c r="F94">
         <v>122489</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B90">
+      <c r="B95">
         <v>24626</v>
       </c>
-      <c r="C90">
+      <c r="C95">
         <v>327584</v>
       </c>
-      <c r="D90">
+      <c r="D95">
         <v>21413</v>
       </c>
-      <c r="E90">
+      <c r="E95">
         <v>14988</v>
       </c>
-      <c r="F90">
+      <c r="F95">
         <v>122317</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B91">
+      <c r="B96">
         <v>24626</v>
       </c>
-      <c r="C91">
+      <c r="C96">
         <v>328038</v>
       </c>
-      <c r="D91">
+      <c r="D96">
         <v>21411</v>
       </c>
-      <c r="E91">
+      <c r="E96">
         <v>14988</v>
       </c>
-      <c r="F91">
+      <c r="F96">
         <v>122490</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B92">
+      <c r="B97">
         <v>24626</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>329167</v>
       </c>
-      <c r="D92">
+      <c r="D97">
         <v>21411</v>
       </c>
-      <c r="E92">
+      <c r="E97">
         <v>14988</v>
       </c>
-      <c r="F92">
+      <c r="F97">
         <v>122383</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B93">
+      <c r="B98">
         <v>24626</v>
       </c>
-      <c r="C93">
+      <c r="C98">
         <v>331622</v>
       </c>
-      <c r="D93">
+      <c r="D98">
         <v>21411</v>
       </c>
-      <c r="E93">
+      <c r="E98">
         <v>14985</v>
       </c>
-      <c r="F93">
+      <c r="F98">
         <v>122385</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B94">
+      <c r="B99">
         <v>24625</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>328527</v>
       </c>
-      <c r="D94">
+      <c r="D99">
         <v>21402</v>
       </c>
-      <c r="E94">
+      <c r="E99">
         <v>14985</v>
       </c>
-      <c r="F94">
+      <c r="F99">
         <v>122362</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B95">
+      <c r="B100">
         <v>24624</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <v>328566</v>
       </c>
-      <c r="D95">
+      <c r="D100">
         <v>21395</v>
       </c>
-      <c r="E95">
+      <c r="E100">
         <v>14981</v>
       </c>
-      <c r="F95">
+      <c r="F100">
         <v>122041</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B96">
+      <c r="B101">
         <v>24624</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>328740</v>
       </c>
-      <c r="D96">
+      <c r="D101">
         <v>21395</v>
       </c>
-      <c r="E96">
+      <c r="E101">
         <v>14981</v>
       </c>
-      <c r="F96">
+      <c r="F101">
         <v>121644</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B97">
+      <c r="B102">
         <v>24624</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <v>328807</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <v>21388</v>
       </c>
-      <c r="E97">
+      <c r="E102">
         <v>14981</v>
       </c>
-      <c r="F97">
+      <c r="F102">
         <v>120938</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B98">
+      <c r="B103">
         <v>24524</v>
       </c>
-      <c r="C98">
+      <c r="C103">
         <v>329625</v>
       </c>
-      <c r="D98">
+      <c r="D103">
         <v>21288</v>
       </c>
-      <c r="E98">
+      <c r="E103">
         <v>14981</v>
       </c>
-      <c r="F98">
+      <c r="F103">
         <v>120854</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B99">
+      <c r="B104">
         <v>24524</v>
       </c>
-      <c r="C99">
+      <c r="C104">
         <v>328126</v>
       </c>
-      <c r="D99">
+      <c r="D104">
         <v>21270</v>
       </c>
-      <c r="E99">
+      <c r="E104">
         <v>14936</v>
       </c>
-      <c r="F99">
+      <c r="F104">
         <v>119789</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B100">
+      <c r="B105">
         <v>24524</v>
       </c>
-      <c r="C100">
+      <c r="C105">
         <v>328130</v>
       </c>
-      <c r="D100">
+      <c r="D105">
         <v>21270</v>
       </c>
-      <c r="E100">
+      <c r="E105">
         <v>14936</v>
       </c>
-      <c r="F100">
+      <c r="F105">
         <v>119789</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B101">
+      <c r="B106">
         <v>24523</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>327733</v>
       </c>
-      <c r="D101">
+      <c r="D106">
         <v>21243</v>
       </c>
-      <c r="E101">
+      <c r="E106">
         <v>14901</v>
       </c>
-      <c r="F101">
+      <c r="F106">
         <v>119296</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B102">
+      <c r="B107">
         <v>24322</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <v>328550</v>
       </c>
-      <c r="D102">
+      <c r="D107">
         <v>21229</v>
       </c>
-      <c r="E102">
+      <c r="E107">
         <v>14880</v>
       </c>
-      <c r="F102">
+      <c r="F107">
         <v>118373</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B103">
+      <c r="B108">
         <v>24271</v>
       </c>
-      <c r="C103">
+      <c r="C108">
         <v>327744</v>
       </c>
-      <c r="D103">
+      <c r="D108">
         <v>21201</v>
       </c>
-      <c r="E103">
+      <c r="E108">
         <v>14871</v>
       </c>
-      <c r="F103">
+      <c r="F108">
         <v>117664</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B104">
+      <c r="B109">
         <v>24271</v>
       </c>
-      <c r="C104">
+      <c r="C109">
         <v>328218</v>
       </c>
-      <c r="D104">
+      <c r="D109">
         <v>21166</v>
       </c>
-      <c r="E104">
+      <c r="E109">
         <v>14871</v>
       </c>
-      <c r="F104">
+      <c r="F109">
         <v>117150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B105">
+      <c r="B110">
         <v>24264</v>
       </c>
-      <c r="C105">
+      <c r="C110">
         <v>328856</v>
       </c>
-      <c r="D105">
+      <c r="D110">
         <v>21150</v>
       </c>
-      <c r="E105">
+      <c r="E110">
         <v>14871</v>
       </c>
-      <c r="F105">
+      <c r="F110">
         <v>115703</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B106">
+      <c r="B111">
         <v>24263</v>
       </c>
-      <c r="C106">
+      <c r="C111">
         <v>329497</v>
       </c>
-      <c r="D106">
+      <c r="D111">
         <v>21076</v>
       </c>
-      <c r="E106">
+      <c r="E111">
         <v>14850</v>
       </c>
-      <c r="F106">
+      <c r="F111">
         <v>115523</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B107">
+      <c r="B112">
         <v>24263</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>329531</v>
       </c>
-      <c r="D107">
+      <c r="D112">
         <v>21035</v>
       </c>
-      <c r="E107">
+      <c r="E112">
         <v>14649</v>
       </c>
-      <c r="F107">
+      <c r="F112">
         <v>112870</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B108">
+      <c r="B113">
         <v>24262</v>
       </c>
-      <c r="C108">
+      <c r="C113">
         <v>330726</v>
       </c>
-      <c r="D108">
+      <c r="D113">
         <v>21023</v>
       </c>
-      <c r="E108">
+      <c r="E113">
         <v>14649</v>
       </c>
-      <c r="F108">
+      <c r="F113">
         <v>110491</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B109">
+      <c r="B114">
         <v>24260</v>
       </c>
-      <c r="C109">
+      <c r="C114">
         <v>331383</v>
       </c>
-      <c r="D109">
+      <c r="D114">
         <v>18009</v>
       </c>
-      <c r="E109">
+      <c r="E114">
         <v>14563</v>
       </c>
-      <c r="F109">
+      <c r="F114">
         <v>109106</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B110">
+      <c r="B115">
         <v>24089</v>
       </c>
-      <c r="C110">
+      <c r="C115">
         <v>336361</v>
       </c>
-      <c r="D110">
+      <c r="D115">
         <v>17980</v>
       </c>
-      <c r="E110">
+      <c r="E115">
         <v>14421</v>
       </c>
-      <c r="F110">
+      <c r="F115">
         <v>106135</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B111">
+      <c r="B116">
         <v>23788</v>
       </c>
-      <c r="C111">
+      <c r="C116">
         <v>336480</v>
       </c>
-      <c r="D111">
+      <c r="D116">
         <v>17969</v>
       </c>
-      <c r="E111">
+      <c r="E116">
         <v>14295</v>
       </c>
-      <c r="F111">
+      <c r="F116">
         <v>103490</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B112">
+      <c r="B117">
         <v>23786</v>
       </c>
-      <c r="C112">
+      <c r="C117">
         <v>333401</v>
       </c>
-      <c r="D112">
+      <c r="D117">
         <v>17964</v>
       </c>
-      <c r="E112">
+      <c r="E117">
         <v>14295</v>
       </c>
-      <c r="F112">
+      <c r="F117">
         <v>103879</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B113">
+      <c r="B118">
         <v>23786</v>
       </c>
-      <c r="C113">
+      <c r="C118">
         <v>330277</v>
       </c>
-      <c r="D113">
+      <c r="D118">
         <v>17949</v>
       </c>
-      <c r="E113">
+      <c r="E118">
         <v>14295</v>
       </c>
-      <c r="F113">
+      <c r="F118">
         <v>104263</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B114">
+      <c r="B119">
         <v>23636</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>330548</v>
       </c>
-      <c r="D114">
+      <c r="D119">
         <v>17930</v>
       </c>
-      <c r="E114">
+      <c r="E119">
         <v>14236</v>
       </c>
-      <c r="F114">
+      <c r="F119">
         <v>103844</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B115">
+      <c r="B120">
         <v>23596</v>
       </c>
-      <c r="C115">
+      <c r="C120">
         <v>330741</v>
       </c>
-      <c r="D115">
+      <c r="D120">
         <v>17927</v>
       </c>
-      <c r="E115">
+      <c r="E120">
         <v>13036</v>
       </c>
-      <c r="F115">
+      <c r="F120">
         <v>103166</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B116">
+      <c r="B121">
         <v>22815</v>
       </c>
-      <c r="C116">
+      <c r="C121">
         <v>331610</v>
       </c>
-      <c r="D116">
+      <c r="D121">
         <v>17896</v>
       </c>
-      <c r="E116">
+      <c r="E121">
         <v>12961</v>
       </c>
-      <c r="F116">
+      <c r="F121">
         <v>102355</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B117">
+      <c r="B122">
         <v>23019</v>
       </c>
-      <c r="C117">
+      <c r="C122">
         <v>331662</v>
       </c>
-      <c r="D117">
+      <c r="D122">
         <v>17893</v>
       </c>
-      <c r="E117">
+      <c r="E122">
         <v>12961</v>
       </c>
-      <c r="F117">
+      <c r="F122">
         <v>101579</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B118">
+      <c r="B123">
         <v>23018</v>
       </c>
-      <c r="C118">
+      <c r="C123">
         <v>330494</v>
       </c>
-      <c r="D118">
+      <c r="D123">
         <v>17891</v>
       </c>
-      <c r="E118">
+      <c r="E123">
         <v>12957</v>
       </c>
-      <c r="F118">
+      <c r="F123">
         <v>101084</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B119">
+      <c r="B124">
         <v>23018</v>
       </c>
-      <c r="C119">
+      <c r="C124">
         <v>330421</v>
       </c>
-      <c r="D119">
+      <c r="D124">
         <v>17876</v>
       </c>
-      <c r="E119">
+      <c r="E124">
         <v>12951</v>
       </c>
-      <c r="F119">
+      <c r="F124">
         <v>101012</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B120">
+      <c r="B125">
         <v>23016</v>
       </c>
-      <c r="C120">
+      <c r="C125">
         <v>329253</v>
       </c>
-      <c r="D120">
+      <c r="D125">
         <v>17841</v>
       </c>
-      <c r="E120">
+      <c r="E125">
         <v>10931</v>
       </c>
-      <c r="F120">
+      <c r="F125">
         <v>99097</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B121">
+      <c r="B126">
         <v>22777</v>
       </c>
-      <c r="C121">
+      <c r="C126">
         <v>328614</v>
       </c>
-      <c r="D121">
+      <c r="D126">
         <v>17829</v>
       </c>
-      <c r="E121">
+      <c r="E126">
         <v>10911</v>
       </c>
-      <c r="F121">
+      <c r="F126">
         <v>98997</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B122">
+      <c r="B127">
         <v>23980</v>
       </c>
-      <c r="C122">
+      <c r="C127">
         <v>326310</v>
       </c>
-      <c r="D122">
+      <c r="D127">
         <v>17718</v>
       </c>
-      <c r="E122">
+      <c r="E127">
         <v>10911</v>
       </c>
-      <c r="F122">
+      <c r="F127">
         <v>98845</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B123">
+      <c r="B128">
         <v>23980</v>
       </c>
-      <c r="C123">
+      <c r="C128">
         <v>322939</v>
       </c>
-      <c r="D123">
+      <c r="D128">
         <v>17707</v>
       </c>
-      <c r="E123">
+      <c r="E128">
         <v>10899</v>
       </c>
-      <c r="F123">
+      <c r="F128">
         <v>97897</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B124">
+      <c r="B129">
         <v>23980</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>322745</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>17684</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>10752</v>
       </c>
-      <c r="F124">
+      <c r="F129">
         <v>97621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B125">
+      <c r="B130">
         <v>23980</v>
       </c>
-      <c r="C125">
+      <c r="C130">
         <v>321147</v>
       </c>
-      <c r="D125">
+      <c r="D130">
         <v>17672</v>
       </c>
-      <c r="E125">
+      <c r="E130">
         <v>10750</v>
       </c>
-      <c r="F125">
+      <c r="F130">
         <v>96935</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B126">
+      <c r="B131">
         <v>23979</v>
       </c>
-      <c r="C126">
+      <c r="C131">
         <v>320702</v>
       </c>
-      <c r="D126">
+      <c r="D131">
         <v>17649</v>
       </c>
-      <c r="E126">
+      <c r="E131">
         <v>10740</v>
       </c>
-      <c r="F126">
+      <c r="F131">
         <v>96699</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B127">
+      <c r="B132">
         <v>23979</v>
       </c>
-      <c r="C127">
+      <c r="C132">
         <v>319989</v>
       </c>
-      <c r="D127">
+      <c r="D132">
         <v>17640</v>
       </c>
-      <c r="E127">
+      <c r="E132">
         <v>10702</v>
       </c>
-      <c r="F127">
+      <c r="F132">
         <v>96079</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B128">
+      <c r="B133">
         <v>23979</v>
       </c>
-      <c r="C128">
+      <c r="C133">
         <v>318886</v>
       </c>
-      <c r="D128">
+      <c r="D133">
         <v>17611</v>
       </c>
-      <c r="E128">
+      <c r="E133">
         <v>10592</v>
       </c>
-      <c r="F128">
+      <c r="F133">
         <v>96005</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B129">
+      <c r="B134">
         <v>23978</v>
       </c>
-      <c r="C129">
+      <c r="C134">
         <v>313127</v>
       </c>
-      <c r="D129">
+      <c r="D134">
         <v>17610</v>
       </c>
-      <c r="E129">
+      <c r="E134">
         <v>10582</v>
       </c>
-      <c r="F129">
+      <c r="F134">
         <v>95323</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B130">
+      <c r="B135">
         <v>23978</v>
       </c>
-      <c r="C130">
+      <c r="C135">
         <v>312131</v>
       </c>
-      <c r="D130">
+      <c r="D135">
         <v>17582</v>
       </c>
-      <c r="E130">
+      <c r="E135">
         <v>10532</v>
       </c>
-      <c r="F130">
+      <c r="F135">
         <v>94431</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B131">
+      <c r="B136">
         <v>23777</v>
       </c>
-      <c r="C131">
+      <c r="C136">
         <v>309971</v>
       </c>
-      <c r="D131">
+      <c r="D136">
         <v>17570</v>
       </c>
-      <c r="E131">
+      <c r="E136">
         <v>10392</v>
       </c>
-      <c r="F131">
+      <c r="F136">
         <v>95612</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B132">
+      <c r="B137">
         <v>23422</v>
       </c>
-      <c r="C132">
+      <c r="C137">
         <v>309732</v>
       </c>
-      <c r="D132">
+      <c r="D137">
         <v>17548</v>
       </c>
-      <c r="E132">
+      <c r="E137">
         <v>10340</v>
       </c>
-      <c r="F132">
+      <c r="F137">
         <v>94215</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B133">
+      <c r="B138">
         <v>23423</v>
       </c>
-      <c r="C133">
+      <c r="C138">
         <v>306181</v>
       </c>
-      <c r="D133">
+      <c r="D138">
         <v>17445</v>
       </c>
-      <c r="E133">
+      <c r="E138">
         <v>10264</v>
       </c>
-      <c r="F133">
+      <c r="F138">
         <v>93953</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B134">
+      <c r="B139">
         <v>23423</v>
       </c>
-      <c r="C134">
+      <c r="C139">
         <v>305033</v>
       </c>
-      <c r="D134">
+      <c r="D139">
         <v>17430</v>
       </c>
-      <c r="E134">
+      <c r="E139">
         <v>10264</v>
       </c>
-      <c r="F134">
+      <c r="F139">
         <v>93776</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B135">
+      <c r="B140">
         <v>23622</v>
       </c>
-      <c r="C135">
+      <c r="C140">
         <v>306175</v>
       </c>
-      <c r="D135">
+      <c r="D140">
         <v>17423</v>
       </c>
-      <c r="E135">
+      <c r="E140">
         <v>10267</v>
       </c>
-      <c r="F135">
+      <c r="F140">
         <v>93019</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B136">
+      <c r="B141">
         <v>22447</v>
       </c>
-      <c r="C136">
+      <c r="C141">
         <v>307467</v>
       </c>
-      <c r="D136">
+      <c r="D141">
         <v>17423</v>
       </c>
-      <c r="E136">
+      <c r="E141">
         <v>10267</v>
       </c>
-      <c r="F136">
+      <c r="F141">
         <v>92972</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B137">
+      <c r="B142">
         <v>22447</v>
       </c>
-      <c r="C137">
+      <c r="C142">
         <v>308138</v>
       </c>
-      <c r="D137">
+      <c r="D142">
         <v>17423</v>
       </c>
-      <c r="E137">
+      <c r="E142">
         <v>10194</v>
       </c>
-      <c r="F137">
+      <c r="F142">
         <v>92280</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B138">
+      <c r="B143">
         <v>22396</v>
       </c>
-      <c r="C138">
+      <c r="C143">
         <v>307865</v>
       </c>
-      <c r="D138">
+      <c r="D143">
         <v>17404</v>
       </c>
-      <c r="E138">
+      <c r="E143">
         <v>10144</v>
       </c>
-      <c r="F138">
+      <c r="F143">
         <v>92631</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B139">
+      <c r="B144">
         <v>22395</v>
       </c>
-      <c r="C139">
+      <c r="C144">
         <v>309194</v>
       </c>
-      <c r="D139">
+      <c r="D144">
         <v>17387</v>
       </c>
-      <c r="E139">
+      <c r="E144">
         <v>10094</v>
       </c>
-      <c r="F139">
+      <c r="F144">
         <v>92714</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B140">
+      <c r="B145">
         <v>22395</v>
       </c>
-      <c r="C140">
+      <c r="C145">
         <v>309737</v>
       </c>
-      <c r="D140">
+      <c r="D145">
         <v>17373</v>
       </c>
-      <c r="E140">
+      <c r="E145">
         <v>10094</v>
       </c>
-      <c r="F140">
+      <c r="F145">
         <v>92274</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B141">
+      <c r="B146">
         <v>22454</v>
       </c>
-      <c r="C141">
+      <c r="C146">
         <v>309342</v>
       </c>
-      <c r="D141">
+      <c r="D146">
         <v>17333</v>
       </c>
-      <c r="E141">
+      <c r="E146">
         <v>10094</v>
       </c>
-      <c r="F141">
+      <c r="F146">
         <v>91041</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B142">
+      <c r="B147">
         <v>22454</v>
       </c>
-      <c r="C142">
+      <c r="C147">
         <v>310867</v>
       </c>
-      <c r="D142">
+      <c r="D147">
         <v>17303</v>
       </c>
-      <c r="E142">
+      <c r="E147">
         <v>10092</v>
       </c>
-      <c r="F142">
+      <c r="F147">
         <v>90882</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B143">
+      <c r="B148">
         <v>22454</v>
       </c>
-      <c r="C143">
+      <c r="C148">
         <v>313288</v>
       </c>
-      <c r="D143">
+      <c r="D148">
         <v>17292</v>
       </c>
-      <c r="E143">
+      <c r="E148">
         <v>10092</v>
       </c>
-      <c r="F143">
+      <c r="F148">
         <v>90577</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B144">
+      <c r="B149">
         <v>22454</v>
       </c>
-      <c r="C144">
+      <c r="C149">
         <v>313285</v>
       </c>
-      <c r="D144">
+      <c r="D149">
         <v>17264</v>
       </c>
-      <c r="E144">
+      <c r="E149">
         <v>10091</v>
       </c>
-      <c r="F144">
+      <c r="F149">
         <v>90074</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B145">
+      <c r="B150">
         <v>22454</v>
       </c>
-      <c r="C145">
+      <c r="C150">
         <v>313902</v>
       </c>
-      <c r="D145">
+      <c r="D150">
         <v>17185</v>
       </c>
-      <c r="E145">
+      <c r="E150">
         <v>10088</v>
       </c>
-      <c r="F145">
+      <c r="F150">
         <v>89936</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B146">
+      <c r="B151">
         <v>22454</v>
       </c>
-      <c r="C146">
+      <c r="C151">
         <v>314720</v>
       </c>
-      <c r="D146">
+      <c r="D151">
         <v>17151</v>
       </c>
-      <c r="E146">
+      <c r="E151">
         <v>10076</v>
       </c>
-      <c r="F146">
+      <c r="F151">
         <v>89949</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B147">
+      <c r="B152">
         <v>22454</v>
       </c>
-      <c r="C147">
+      <c r="C152">
         <v>312360</v>
       </c>
-      <c r="D147">
+      <c r="D152">
         <v>17120</v>
       </c>
-      <c r="E147">
+      <c r="E152">
         <v>10076</v>
       </c>
-      <c r="F147">
+      <c r="F152">
         <v>89281</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B148">
+      <c r="B153">
         <v>22454</v>
       </c>
-      <c r="C148">
+      <c r="C153">
         <v>309021</v>
       </c>
-      <c r="D148">
+      <c r="D153">
         <v>17116</v>
       </c>
-      <c r="E148">
+      <c r="E153">
         <v>10076</v>
       </c>
-      <c r="F148">
+      <c r="F153">
         <v>88826</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B149">
+      <c r="B154">
         <v>22454</v>
       </c>
-      <c r="C149">
+      <c r="C154">
         <v>307153</v>
       </c>
-      <c r="D149">
+      <c r="D154">
         <v>17082</v>
       </c>
-      <c r="E149">
+      <c r="E154">
         <v>9849</v>
       </c>
-      <c r="F149">
+      <c r="F154">
         <v>88632</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B150">
+      <c r="B155">
         <v>22454</v>
       </c>
-      <c r="C150">
+      <c r="C155">
         <v>307136</v>
       </c>
-      <c r="D150">
+      <c r="D155">
         <v>17072</v>
       </c>
-      <c r="E150">
+      <c r="E155">
         <v>9839</v>
       </c>
-      <c r="F150">
+      <c r="F155">
         <v>88066</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B151">
+      <c r="B156">
         <v>22454</v>
       </c>
-      <c r="C151">
+      <c r="C156">
         <v>302392</v>
       </c>
-      <c r="D151">
+      <c r="D156">
         <v>17072</v>
       </c>
-      <c r="E151">
+      <c r="E156">
         <v>9839</v>
       </c>
-      <c r="F151">
+      <c r="F156">
         <v>87813</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B152">
+      <c r="B157">
         <v>22453</v>
       </c>
-      <c r="C152">
+      <c r="C157">
         <v>300191</v>
       </c>
-      <c r="D152">
+      <c r="D157">
         <v>17067</v>
       </c>
-      <c r="E152">
+      <c r="E157">
         <v>9824</v>
       </c>
-      <c r="F152">
+      <c r="F157">
         <v>87753</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B153">
+      <c r="B158">
         <v>22453</v>
       </c>
-      <c r="C153">
+      <c r="C158">
         <v>299817</v>
       </c>
-      <c r="D153">
+      <c r="D158">
         <v>17057</v>
       </c>
-      <c r="E153">
+      <c r="E158">
         <v>9824</v>
       </c>
-      <c r="F153">
+      <c r="F158">
         <v>86175</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B154">
+      <c r="B159">
         <v>22453</v>
       </c>
-      <c r="C154">
+      <c r="C159">
         <v>298024</v>
       </c>
-      <c r="D154">
+      <c r="D159">
         <v>16895</v>
       </c>
-      <c r="E154">
+      <c r="E159">
         <v>9657</v>
       </c>
-      <c r="F154">
+      <c r="F159">
         <v>85765</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B155">
+      <c r="B160">
         <v>22453</v>
       </c>
-      <c r="C155">
+      <c r="C160">
         <v>296306</v>
       </c>
-      <c r="D155">
+      <c r="D160">
         <v>16883</v>
       </c>
-      <c r="E155">
+      <c r="E160">
         <v>9642</v>
       </c>
-      <c r="F155">
+      <c r="F160">
         <v>85276</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B156">
+      <c r="B161">
         <v>22453</v>
       </c>
-      <c r="C156">
+      <c r="C161">
         <v>295720</v>
       </c>
-      <c r="D156">
+      <c r="D161">
         <v>16879</v>
       </c>
-      <c r="E156">
+      <c r="E161">
         <v>9642</v>
       </c>
-      <c r="F156">
+      <c r="F161">
         <v>84606</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B157">
+      <c r="B162">
         <v>22453</v>
       </c>
-      <c r="C157">
+      <c r="C162">
         <v>296177</v>
       </c>
-      <c r="D157">
+      <c r="D162">
         <v>16871</v>
       </c>
-      <c r="E157">
+      <c r="E162">
         <v>9142</v>
       </c>
-      <c r="F157">
+      <c r="F162">
         <v>84342</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B158">
+      <c r="B163">
         <v>22453</v>
       </c>
-      <c r="C158">
+      <c r="C163">
         <v>295952</v>
       </c>
-      <c r="D158">
+      <c r="D163">
         <v>16861</v>
       </c>
-      <c r="E158">
+      <c r="E163">
         <v>9127</v>
       </c>
-      <c r="F158">
+      <c r="F163">
         <v>83687</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B159">
+      <c r="B164">
         <v>22453</v>
       </c>
-      <c r="C159">
+      <c r="C164">
         <v>295959</v>
       </c>
-      <c r="D159">
+      <c r="D164">
         <v>16599</v>
       </c>
-      <c r="E159">
+      <c r="E164">
         <v>9127</v>
       </c>
-      <c r="F159">
+      <c r="F164">
         <v>82955</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B160">
+      <c r="B165">
         <v>22453</v>
       </c>
-      <c r="C160">
+      <c r="C165">
         <v>298028</v>
       </c>
-      <c r="D160">
+      <c r="D165">
         <v>16595</v>
       </c>
-      <c r="E160">
+      <c r="E165">
         <v>9124</v>
       </c>
-      <c r="F160">
+      <c r="F165">
         <v>80190</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B161">
+      <c r="B166">
         <v>22453</v>
       </c>
-      <c r="C161">
+      <c r="C166">
         <v>298262</v>
       </c>
-      <c r="D161">
+      <c r="D166">
         <v>16572</v>
       </c>
-      <c r="E161">
+      <c r="E166">
         <v>9123</v>
       </c>
-      <c r="F161">
+      <c r="F166">
         <v>80100</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B162">
+      <c r="B167">
         <v>22453</v>
       </c>
-      <c r="C162">
+      <c r="C167">
         <v>297541</v>
       </c>
-      <c r="D162">
+      <c r="D167">
         <v>16552</v>
       </c>
-      <c r="E162">
+      <c r="E167">
         <v>9123</v>
       </c>
-      <c r="F162">
+      <c r="F167">
         <v>79674</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B163">
+      <c r="B168">
         <v>22453</v>
       </c>
-      <c r="C163">
+      <c r="C168">
         <v>298121</v>
       </c>
-      <c r="D163">
+      <c r="D168">
         <v>16513</v>
       </c>
-      <c r="E163">
+      <c r="E168">
         <v>9123</v>
       </c>
-      <c r="F163">
+      <c r="F168">
         <v>78519</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B164">
+      <c r="B169">
         <v>22453</v>
       </c>
-      <c r="C164">
+      <c r="C169">
         <v>297810</v>
       </c>
-      <c r="D164">
+      <c r="D169">
         <v>16485</v>
       </c>
-      <c r="E164">
+      <c r="E169">
         <v>9097</v>
       </c>
-      <c r="F164">
+      <c r="F169">
         <v>78031</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B165">
+      <c r="B170">
         <v>22453</v>
       </c>
-      <c r="C165">
+      <c r="C170">
         <v>296081</v>
       </c>
-      <c r="D165">
+      <c r="D170">
         <v>16484</v>
       </c>
-      <c r="E165">
+      <c r="E170">
         <v>9097</v>
       </c>
-      <c r="F165">
+      <c r="F170">
         <v>77566</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B166">
+      <c r="B171">
         <v>22453</v>
       </c>
-      <c r="C166">
+      <c r="C171">
         <v>294142</v>
       </c>
-      <c r="D166">
+      <c r="D171">
         <v>16483</v>
       </c>
-      <c r="E166">
+      <c r="E171">
         <v>9053</v>
       </c>
-      <c r="F166">
+      <c r="F171">
         <v>76666</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B167">
+      <c r="B172">
         <v>24453</v>
       </c>
-      <c r="C167">
+      <c r="C172">
         <v>293909</v>
       </c>
-      <c r="D167">
+      <c r="D172">
         <v>16545</v>
       </c>
-      <c r="E167">
+      <c r="E172">
         <v>9053</v>
       </c>
-      <c r="F167">
+      <c r="F172">
         <v>75728</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B168">
+      <c r="B173">
         <v>24453</v>
       </c>
-      <c r="C168">
+      <c r="C173">
         <v>293042</v>
       </c>
-      <c r="D168">
+      <c r="D173">
         <v>16549</v>
       </c>
-      <c r="E168">
+      <c r="E173">
         <v>9053</v>
       </c>
-      <c r="F168">
+      <c r="F173">
         <v>75377</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B169">
+      <c r="B174">
         <v>24453</v>
       </c>
-      <c r="C169">
+      <c r="C174">
         <v>293931</v>
       </c>
-      <c r="D169">
+      <c r="D174">
         <v>16550</v>
       </c>
-      <c r="E169">
+      <c r="E174">
         <v>9053</v>
       </c>
-      <c r="F169">
+      <c r="F174">
         <v>74597</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B170">
+      <c r="B175">
         <v>24453</v>
       </c>
-      <c r="C170">
+      <c r="C175">
         <v>293657</v>
       </c>
-      <c r="D170">
+      <c r="D175">
         <v>16547</v>
       </c>
-      <c r="E170">
+      <c r="E175">
         <v>9053</v>
       </c>
-      <c r="F170">
+      <c r="F175">
         <v>73046</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B171">
+      <c r="B176">
         <v>24453</v>
       </c>
-      <c r="C171">
+      <c r="C176">
         <v>293213</v>
       </c>
-      <c r="D171">
+      <c r="D176">
         <v>16545</v>
       </c>
-      <c r="E171">
+      <c r="E176">
         <v>9023</v>
       </c>
-      <c r="F171">
+      <c r="F176">
         <v>72302</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B172">
+      <c r="B177">
         <v>24453</v>
       </c>
-      <c r="C172">
+      <c r="C177">
         <v>292105</v>
       </c>
-      <c r="D172">
+      <c r="D177">
         <v>16534</v>
       </c>
-      <c r="E172">
+      <c r="E177">
         <v>9023</v>
       </c>
-      <c r="F172">
+      <c r="F177">
         <v>71585</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B173">
+      <c r="B178">
         <v>24453</v>
       </c>
-      <c r="C173">
+      <c r="C178">
         <v>290888</v>
       </c>
-      <c r="D173">
+      <c r="D178">
         <v>16532</v>
       </c>
-      <c r="E173">
+      <c r="E178">
         <v>9023</v>
       </c>
-      <c r="F173">
+      <c r="F178">
         <v>71078</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B174">
+      <c r="B179">
         <v>24453</v>
       </c>
-      <c r="C174">
+      <c r="C179">
         <v>288274</v>
       </c>
-      <c r="D174">
+      <c r="D179">
         <v>16532</v>
       </c>
-      <c r="E174">
+      <c r="E179">
         <v>9023</v>
       </c>
-      <c r="F174">
+      <c r="F179">
         <v>70744</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B175">
+      <c r="B180">
         <v>24453</v>
       </c>
-      <c r="C175">
+      <c r="C180">
         <v>288343</v>
       </c>
-      <c r="D175">
+      <c r="D180">
         <v>15773</v>
       </c>
-      <c r="E175">
+      <c r="E180">
         <v>9023</v>
       </c>
-      <c r="F175">
+      <c r="F180">
         <v>70613</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B176">
+      <c r="B181">
         <v>24453</v>
       </c>
-      <c r="C176">
+      <c r="C181">
         <v>290057</v>
       </c>
-      <c r="D176">
+      <c r="D181">
         <v>14324</v>
       </c>
-      <c r="E176">
+      <c r="E181">
         <v>9023</v>
       </c>
-      <c r="F176">
+      <c r="F181">
         <v>71076</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B177">
+      <c r="B182">
         <v>24453</v>
       </c>
-      <c r="C177">
+      <c r="C182">
         <v>291975</v>
       </c>
-      <c r="D177">
+      <c r="D182">
         <v>13724</v>
       </c>
-      <c r="E177">
+      <c r="E182">
         <v>9023</v>
       </c>
-      <c r="F177">
+      <c r="F182">
         <v>70945</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B178">
+      <c r="B183">
         <v>24453</v>
       </c>
-      <c r="C178">
+      <c r="C183">
         <v>293957</v>
       </c>
-      <c r="D178">
+      <c r="D183">
         <v>13728</v>
       </c>
-      <c r="E178">
+      <c r="E183">
         <v>9023</v>
       </c>
-      <c r="F178">
+      <c r="F183">
         <v>71587</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B179">
+      <c r="B184">
         <v>24453</v>
       </c>
-      <c r="C179">
+      <c r="C184">
         <v>294546</v>
       </c>
-      <c r="D179">
+      <c r="D184">
         <v>13728</v>
       </c>
-      <c r="E179">
+      <c r="E184">
         <v>9023</v>
       </c>
-      <c r="F179">
+      <c r="F184">
         <v>71630</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f>DATE(2024,12,25)</f>
+        <v>45651</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B180">
+      <c r="B186">
         <v>24453</v>
       </c>
-      <c r="C180">
+      <c r="C186">
         <v>294548</v>
       </c>
-      <c r="D180">
+      <c r="D186">
         <v>13728</v>
       </c>
-      <c r="E180">
+      <c r="E186">
         <v>9023</v>
       </c>
-      <c r="F180">
+      <c r="F186">
         <v>71630</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B181">
+      <c r="B187">
         <v>24453</v>
       </c>
-      <c r="C181">
+      <c r="C187">
         <v>295328</v>
       </c>
-      <c r="D181">
+      <c r="D187">
         <v>13078</v>
       </c>
-      <c r="E181">
+      <c r="E187">
         <v>9023</v>
       </c>
-      <c r="F181">
+      <c r="F187">
         <v>71607</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B182">
+      <c r="B188">
         <v>24453</v>
       </c>
-      <c r="C182">
+      <c r="C188">
         <v>295576</v>
       </c>
-      <c r="D182">
+      <c r="D188">
         <v>12928</v>
       </c>
-      <c r="E182">
+      <c r="E188">
         <v>9023</v>
       </c>
-      <c r="F182">
+      <c r="F188">
         <v>71234</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B183">
+      <c r="B189">
         <v>24563</v>
       </c>
-      <c r="C183">
+      <c r="C189">
         <v>297267</v>
       </c>
-      <c r="D183">
+      <c r="D189">
         <v>12825</v>
       </c>
-      <c r="E183">
+      <c r="E189">
         <v>9023</v>
       </c>
-      <c r="F183">
+      <c r="F189">
         <v>71235</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B184">
+      <c r="B190">
         <v>24838</v>
       </c>
-      <c r="C184">
+      <c r="C190">
         <v>301001</v>
       </c>
-      <c r="D184">
+      <c r="D190">
         <v>11878</v>
       </c>
-      <c r="E184">
+      <c r="E190">
         <v>6745</v>
       </c>
-      <c r="F184">
+      <c r="F190">
         <v>70647</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B185">
+      <c r="B191">
         <v>22948</v>
       </c>
-      <c r="C185">
+      <c r="C191">
         <v>298481</v>
       </c>
-      <c r="D185">
+      <c r="D191">
         <v>11878</v>
       </c>
-      <c r="E185">
+      <c r="E191">
         <v>6745</v>
       </c>
-      <c r="F185">
+      <c r="F191">
         <v>70240</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B186">
+      <c r="B192">
         <v>22838</v>
       </c>
-      <c r="C186">
+      <c r="C192">
         <v>294651</v>
       </c>
-      <c r="D186">
+      <c r="D192">
         <v>11550</v>
       </c>
-      <c r="E186">
+      <c r="E192">
         <v>6745</v>
       </c>
-      <c r="F186">
+      <c r="F192">
         <v>69820</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B187">
+      <c r="B193">
         <v>22838</v>
       </c>
-      <c r="C187">
+      <c r="C193">
         <v>293743</v>
       </c>
-      <c r="D187">
+      <c r="D193">
         <v>11552</v>
       </c>
-      <c r="E187">
+      <c r="E193">
         <v>6745</v>
       </c>
-      <c r="F187">
+      <c r="F193">
         <v>69282</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B188">
+      <c r="B194">
         <v>21988</v>
       </c>
-      <c r="C188">
+      <c r="C194">
         <v>288113</v>
       </c>
-      <c r="D188">
+      <c r="D194">
         <v>11508</v>
       </c>
-      <c r="E188">
+      <c r="E194">
         <v>6745</v>
       </c>
-      <c r="F188">
+      <c r="F194">
         <v>69248</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B189">
+      <c r="B195">
         <v>23418</v>
       </c>
-      <c r="C189">
+      <c r="C195">
         <v>283521</v>
       </c>
-      <c r="D189">
+      <c r="D195">
         <v>11465</v>
       </c>
-      <c r="E189">
+      <c r="E195">
         <v>6745</v>
       </c>
-      <c r="F189">
+      <c r="F195">
         <v>68433</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B190">
+      <c r="B196">
         <v>23393</v>
       </c>
-      <c r="C190">
+      <c r="C196">
         <v>278267</v>
       </c>
-      <c r="D190">
+      <c r="D196">
         <v>11221</v>
       </c>
-      <c r="E190">
+      <c r="E196">
         <v>6745</v>
       </c>
-      <c r="F190">
+      <c r="F196">
         <v>68330</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B191">
+      <c r="B197">
         <v>23343</v>
       </c>
-      <c r="C191">
+      <c r="C197">
         <v>271912</v>
       </c>
-      <c r="D191">
+      <c r="D197">
         <v>11221</v>
       </c>
-      <c r="E191">
+      <c r="E197">
         <v>6745</v>
       </c>
-      <c r="F191">
+      <c r="F197">
         <v>67798</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B192">
+      <c r="B198">
         <v>23343</v>
       </c>
-      <c r="C192">
+      <c r="C198">
         <v>262513</v>
       </c>
-      <c r="D192">
+      <c r="D198">
         <v>11153</v>
       </c>
-      <c r="E192">
+      <c r="E198">
         <v>6745</v>
       </c>
-      <c r="F192">
+      <c r="F198">
         <v>67781</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B193">
+      <c r="B199">
         <v>23343</v>
       </c>
-      <c r="C193">
+      <c r="C199">
         <v>259235</v>
       </c>
-      <c r="D193">
+      <c r="D199">
         <v>11112</v>
       </c>
-      <c r="E193">
+      <c r="E199">
         <v>6745</v>
       </c>
-      <c r="F193">
+      <c r="F199">
         <v>67474</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B194">
+      <c r="B200">
         <v>23143</v>
       </c>
-      <c r="C194">
+      <c r="C200">
         <v>254567</v>
       </c>
-      <c r="D194">
+      <c r="D200">
         <v>10602</v>
       </c>
-      <c r="E194">
+      <c r="E200">
         <v>6745</v>
       </c>
-      <c r="F194">
+      <c r="F200">
         <v>67195</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B195">
+      <c r="B201">
         <v>23143</v>
       </c>
-      <c r="C195">
+      <c r="C201">
         <v>250176</v>
       </c>
-      <c r="D195">
+      <c r="D201">
         <v>10602</v>
       </c>
-      <c r="E195">
+      <c r="E201">
         <v>6745</v>
       </c>
-      <c r="F195">
+      <c r="F201">
         <v>66414</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B196">
+      <c r="B202">
         <v>23140</v>
       </c>
-      <c r="C196">
+      <c r="C202">
         <v>247746</v>
       </c>
-      <c r="D196">
+      <c r="D202">
         <v>10565</v>
       </c>
-      <c r="E196">
+      <c r="E202">
         <v>6745</v>
       </c>
-      <c r="F196">
+      <c r="F202">
         <v>64844</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B197">
+      <c r="B203">
         <v>23140</v>
       </c>
-      <c r="C197">
+      <c r="C203">
         <v>246043</v>
       </c>
-      <c r="D197">
+      <c r="D203">
         <v>10529</v>
       </c>
-      <c r="E197">
+      <c r="E203">
         <v>6745</v>
       </c>
-      <c r="F197">
+      <c r="F203">
         <v>64045</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B198">
+      <c r="B204">
         <v>23140</v>
       </c>
-      <c r="C198">
+      <c r="C204">
         <v>244430</v>
       </c>
-      <c r="D198">
+      <c r="D204">
         <v>10469</v>
       </c>
-      <c r="E198">
+      <c r="E204">
         <v>6745</v>
       </c>
-      <c r="F198">
+      <c r="F204">
         <v>63744</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B199">
+      <c r="B205">
         <v>23140</v>
       </c>
-      <c r="C199">
+      <c r="C205">
         <v>243229</v>
       </c>
-      <c r="D199">
+      <c r="D205">
         <v>10465</v>
       </c>
-      <c r="E199">
+      <c r="E205">
         <v>6695</v>
       </c>
-      <c r="F199">
+      <c r="F205">
         <v>62851</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B200">
+      <c r="B206">
         <v>23140</v>
       </c>
-      <c r="C200">
+      <c r="C206">
         <v>241479</v>
       </c>
-      <c r="D200">
+      <c r="D206">
         <v>10465</v>
       </c>
-      <c r="E200">
+      <c r="E206">
         <v>6695</v>
       </c>
-      <c r="F200">
+      <c r="F206">
         <v>62679</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B201">
+      <c r="B207">
         <v>23135</v>
       </c>
-      <c r="C201">
+      <c r="C207">
         <v>237969</v>
       </c>
-      <c r="D201">
+      <c r="D207">
         <v>10465</v>
       </c>
-      <c r="E201">
+      <c r="E207">
         <v>6595</v>
       </c>
-      <c r="F201">
+      <c r="F207">
         <v>62260</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B202">
+      <c r="B208">
         <v>23135</v>
       </c>
-      <c r="C202">
+      <c r="C208">
         <v>241559</v>
       </c>
-      <c r="D202">
+      <c r="D208">
         <v>10465</v>
       </c>
-      <c r="E202">
+      <c r="E208">
         <v>6595</v>
       </c>
-      <c r="F202">
+      <c r="F208">
         <v>62018</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B203">
+      <c r="B209">
         <v>23135</v>
       </c>
-      <c r="C203">
+      <c r="C209">
         <v>240880</v>
       </c>
-      <c r="D203">
+      <c r="D209">
         <v>10465</v>
       </c>
-      <c r="E203">
+      <c r="E209">
         <v>6595</v>
       </c>
-      <c r="F203">
+      <c r="F209">
         <v>60231</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B204">
+      <c r="B210">
         <v>23135</v>
       </c>
-      <c r="C204">
+      <c r="C210">
         <v>242718</v>
       </c>
-      <c r="D204">
+      <c r="D210">
         <v>10410</v>
       </c>
-      <c r="E204">
+      <c r="E210">
         <v>6245</v>
       </c>
-      <c r="F204">
+      <c r="F210">
         <v>59530</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B205">
+      <c r="B211">
         <v>23135</v>
       </c>
-      <c r="C205">
+      <c r="C211">
         <v>242146</v>
       </c>
-      <c r="D205">
+      <c r="D211">
         <v>10410</v>
       </c>
-      <c r="E205">
+      <c r="E211">
         <v>6238</v>
       </c>
-      <c r="F205">
+      <c r="F211">
         <v>59300</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B206">
+      <c r="B212">
         <v>23134</v>
       </c>
-      <c r="C206">
+      <c r="C212">
         <v>240186</v>
       </c>
-      <c r="D206">
+      <c r="D212">
         <v>9470</v>
       </c>
-      <c r="E206">
+      <c r="E212">
         <v>6238</v>
       </c>
-      <c r="F206">
+      <c r="F212">
         <v>58316</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B207">
+      <c r="B213">
         <v>23134</v>
       </c>
-      <c r="C207">
+      <c r="C213">
         <v>240124</v>
       </c>
-      <c r="D207">
+      <c r="D213">
         <v>9470</v>
       </c>
-      <c r="E207">
+      <c r="E213">
         <v>6238</v>
       </c>
-      <c r="F207">
+      <c r="F213">
         <v>58006</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B208">
+      <c r="B214">
         <v>22884</v>
       </c>
-      <c r="C208">
+      <c r="C214">
         <v>239097</v>
       </c>
-      <c r="D208">
+      <c r="D214">
         <v>9474</v>
       </c>
-      <c r="E208">
+      <c r="E214">
         <v>6238</v>
       </c>
-      <c r="F208">
+      <c r="F214">
         <v>57910</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B209">
+      <c r="B215">
         <v>22884</v>
       </c>
-      <c r="C209">
+      <c r="C215">
         <v>236767</v>
       </c>
-      <c r="D209">
+      <c r="D215">
         <v>9474</v>
       </c>
-      <c r="E209">
+      <c r="E215">
         <v>6238</v>
       </c>
-      <c r="F209">
+      <c r="F215">
         <v>56984</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B210">
+      <c r="B216">
         <v>22884</v>
       </c>
-      <c r="C210">
+      <c r="C216">
         <v>237379</v>
       </c>
-      <c r="D210">
+      <c r="D216">
         <v>9469</v>
       </c>
-      <c r="E210">
+      <c r="E216">
         <v>6208</v>
       </c>
-      <c r="F210">
+      <c r="F216">
         <v>56896</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B211">
+      <c r="B217">
         <v>22884</v>
       </c>
-      <c r="C211">
+      <c r="C217">
         <v>236910</v>
       </c>
-      <c r="D211">
+      <c r="D217">
         <v>9469</v>
       </c>
-      <c r="E211">
+      <c r="E217">
         <v>6208</v>
       </c>
-      <c r="F211">
+      <c r="F217">
         <v>56929</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B212">
+      <c r="B218">
         <v>22884</v>
       </c>
-      <c r="C212">
+      <c r="C218">
         <v>235001</v>
       </c>
-      <c r="D212">
+      <c r="D218">
         <v>9519</v>
       </c>
-      <c r="E212">
+      <c r="E218">
         <v>6208</v>
       </c>
-      <c r="F212">
+      <c r="F218">
         <v>56515</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B213">
+      <c r="B219">
         <v>22884</v>
       </c>
-      <c r="C213">
+      <c r="C219">
         <v>231619</v>
       </c>
-      <c r="D213">
+      <c r="D219">
         <v>9619</v>
       </c>
-      <c r="E213">
+      <c r="E219">
         <v>6208</v>
       </c>
-      <c r="F213">
+      <c r="F219">
         <v>56072</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B214">
+      <c r="B220">
         <v>22884</v>
       </c>
-      <c r="C214">
+      <c r="C220">
         <v>230601</v>
       </c>
-      <c r="D214">
+      <c r="D220">
         <v>9690</v>
       </c>
-      <c r="E214">
+      <c r="E220">
         <v>6108</v>
       </c>
-      <c r="F214">
+      <c r="F220">
         <v>55998</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B215">
+      <c r="B221">
         <v>22884</v>
       </c>
-      <c r="C215">
+      <c r="C221">
         <v>230374</v>
       </c>
-      <c r="D215">
+      <c r="D221">
         <v>9677</v>
       </c>
-      <c r="E215">
+      <c r="E221">
         <v>5923</v>
       </c>
-      <c r="F215">
+      <c r="F221">
         <v>54727</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B216">
+      <c r="B222">
         <v>22884</v>
       </c>
-      <c r="C216">
+      <c r="C222">
         <v>229045</v>
       </c>
-      <c r="D216">
+      <c r="D222">
         <v>9677</v>
       </c>
-      <c r="E216">
+      <c r="E222">
         <v>5923</v>
       </c>
-      <c r="F216">
+      <c r="F222">
         <v>54404</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B217">
+      <c r="B223">
         <v>22884</v>
       </c>
-      <c r="C217">
+      <c r="C223">
         <v>227307</v>
       </c>
-      <c r="D217">
+      <c r="D223">
         <v>9567</v>
       </c>
-      <c r="E217">
+      <c r="E223">
         <v>5923</v>
       </c>
-      <c r="F217">
+      <c r="F223">
         <v>54456</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B218">
+      <c r="B224">
         <v>22884</v>
       </c>
-      <c r="C218">
+      <c r="C224">
         <v>227231</v>
       </c>
-      <c r="D218">
+      <c r="D224">
         <v>9567</v>
       </c>
-      <c r="E218">
+      <c r="E224">
         <v>5923</v>
       </c>
-      <c r="F218">
+      <c r="F224">
         <v>53878</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B219">
+      <c r="B225">
         <v>22884</v>
       </c>
-      <c r="C219">
+      <c r="C225">
         <v>226655</v>
       </c>
-      <c r="D219">
+      <c r="D225">
         <v>9547</v>
       </c>
-      <c r="E219">
+      <c r="E225">
         <v>5923</v>
       </c>
-      <c r="F219">
+      <c r="F225">
         <v>53986</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B220">
+      <c r="B226">
         <v>22884</v>
       </c>
-      <c r="C220">
+      <c r="C226">
         <v>226326</v>
       </c>
-      <c r="D220">
+      <c r="D226">
         <v>9540</v>
       </c>
-      <c r="E220">
+      <c r="E226">
         <v>5923</v>
       </c>
-      <c r="F220">
+      <c r="F226">
         <v>53441</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B221">
+      <c r="B227">
         <v>22884</v>
       </c>
-      <c r="C221">
+      <c r="C227">
         <v>225848</v>
       </c>
-      <c r="D221">
+      <c r="D227">
         <v>9540</v>
       </c>
-      <c r="E221">
+      <c r="E227">
         <v>5923</v>
       </c>
-      <c r="F221">
+      <c r="F227">
         <v>52683</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B222">
+      <c r="B228">
         <v>21875</v>
       </c>
-      <c r="C222">
+      <c r="C228">
         <v>225509</v>
       </c>
-      <c r="D222">
+      <c r="D228">
         <v>9540</v>
       </c>
-      <c r="E222">
+      <c r="E228">
         <v>5923</v>
       </c>
-      <c r="F222">
+      <c r="F228">
         <v>52453</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B223">
+      <c r="B229">
         <v>21875</v>
       </c>
-      <c r="C223">
+      <c r="C229">
         <v>227510</v>
       </c>
-      <c r="D223">
+      <c r="D229">
         <v>9540</v>
       </c>
-      <c r="E223">
+      <c r="E229">
         <v>5923</v>
       </c>
-      <c r="F223">
+      <c r="F229">
         <v>51188</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B224">
+      <c r="B230">
         <v>21875</v>
       </c>
-      <c r="C224">
+      <c r="C230">
         <v>226876</v>
       </c>
-      <c r="D224">
+      <c r="D230">
         <v>9540</v>
       </c>
-      <c r="E224">
+      <c r="E230">
         <v>5923</v>
       </c>
-      <c r="F224">
+      <c r="F230">
         <v>51133</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B225">
+      <c r="B231">
         <v>21875</v>
       </c>
-      <c r="C225">
+      <c r="C231">
         <v>227039</v>
       </c>
-      <c r="D225">
+      <c r="D231">
         <v>9540</v>
       </c>
-      <c r="E225">
+      <c r="E231">
         <v>5923</v>
       </c>
-      <c r="F225">
+      <c r="F231">
         <v>51049</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B226">
+      <c r="B232">
         <v>21875</v>
       </c>
-      <c r="C226">
+      <c r="C232">
         <v>225342</v>
       </c>
-      <c r="D226">
+      <c r="D232">
         <v>9536</v>
       </c>
-      <c r="E226">
+      <c r="E232">
         <v>5923</v>
       </c>
-      <c r="F226">
+      <c r="F232">
         <v>51091</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B227">
+      <c r="B233">
         <v>21875</v>
       </c>
-      <c r="C227">
+      <c r="C233">
         <v>224244</v>
       </c>
-      <c r="D227">
+      <c r="D233">
         <v>9536</v>
       </c>
-      <c r="E227">
+      <c r="E233">
         <v>5723</v>
       </c>
-      <c r="F227">
+      <c r="F233">
         <v>51028</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B228">
+      <c r="B234">
         <v>21875</v>
       </c>
-      <c r="C228">
+      <c r="C234">
         <v>223763</v>
       </c>
-      <c r="D228">
+      <c r="D234">
         <v>9536</v>
       </c>
-      <c r="E228">
+      <c r="E234">
         <v>5723</v>
       </c>
-      <c r="F228">
+      <c r="F234">
         <v>50423</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B229">
+      <c r="B235">
         <v>21875</v>
       </c>
-      <c r="C229">
+      <c r="C235">
         <v>221765</v>
       </c>
-      <c r="D229">
+      <c r="D235">
         <v>9538</v>
       </c>
-      <c r="E229">
+      <c r="E235">
         <v>5723</v>
       </c>
-      <c r="F229">
+      <c r="F235">
         <v>49665</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B230">
+      <c r="B236">
         <v>21875</v>
       </c>
-      <c r="C230">
+      <c r="C236">
         <v>221165</v>
       </c>
-      <c r="D230">
+      <c r="D236">
         <v>9530</v>
       </c>
-      <c r="E230">
+      <c r="E236">
         <v>5723</v>
       </c>
-      <c r="F230">
+      <c r="F236">
         <v>48992</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B231">
+      <c r="B237">
         <v>21875</v>
       </c>
-      <c r="C231">
+      <c r="C237">
         <v>220105</v>
       </c>
-      <c r="D231">
+      <c r="D237">
         <v>9485</v>
       </c>
-      <c r="E231">
+      <c r="E237">
         <v>5723</v>
       </c>
-      <c r="F231">
+      <c r="F237">
         <v>48124</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B232">
+      <c r="B238">
         <v>22075</v>
       </c>
-      <c r="C232">
+      <c r="C238">
         <v>219760</v>
       </c>
-      <c r="D232">
+      <c r="D238">
         <v>9485</v>
       </c>
-      <c r="E232">
+      <c r="E238">
         <v>5723</v>
       </c>
-      <c r="F232">
+      <c r="F238">
         <v>47918</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B233">
+      <c r="B239">
         <v>22075</v>
       </c>
-      <c r="C233">
+      <c r="C239">
         <v>218844</v>
       </c>
-      <c r="D233">
+      <c r="D239">
         <v>9485</v>
       </c>
-      <c r="E233">
+      <c r="E239">
         <v>5723</v>
       </c>
-      <c r="F233">
+      <c r="F239">
         <v>47824</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B234">
+      <c r="B240">
         <v>22075</v>
       </c>
-      <c r="C234">
+      <c r="C240">
         <v>218706</v>
       </c>
-      <c r="D234">
+      <c r="D240">
         <v>9480</v>
       </c>
-      <c r="E234">
+      <c r="E240">
         <v>5723</v>
       </c>
-      <c r="F234">
+      <c r="F240">
         <v>47848</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B235">
+      <c r="B241">
         <v>22075</v>
       </c>
-      <c r="C235">
+      <c r="C241">
         <v>213895</v>
       </c>
-      <c r="D235">
+      <c r="D241">
         <v>8979</v>
       </c>
-      <c r="E235">
+      <c r="E241">
         <v>5723</v>
       </c>
-      <c r="F235">
+      <c r="F241">
         <v>47418</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B236">
+      <c r="B242">
         <v>22075</v>
       </c>
-      <c r="C236">
+      <c r="C242">
         <v>212171</v>
       </c>
-      <c r="D236">
+      <c r="D242">
         <v>8549</v>
       </c>
-      <c r="E236">
+      <c r="E242">
         <v>5723</v>
       </c>
-      <c r="F236">
+      <c r="F242">
         <v>46991</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B237">
+      <c r="B243">
         <v>22075</v>
       </c>
-      <c r="C237">
+      <c r="C243">
         <v>211471</v>
       </c>
-      <c r="D237">
+      <c r="D243">
         <v>8549</v>
       </c>
-      <c r="E237">
+      <c r="E243">
         <v>5723</v>
       </c>
-      <c r="F237">
+      <c r="F243">
         <v>46777</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B238">
+      <c r="B244">
         <v>22075</v>
       </c>
-      <c r="C238">
+      <c r="C244">
         <v>210463</v>
       </c>
-      <c r="D238">
+      <c r="D244">
         <v>8530</v>
       </c>
-      <c r="E238">
+      <c r="E244">
         <v>5723</v>
       </c>
-      <c r="F238">
+      <c r="F244">
         <v>46762</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B239">
+      <c r="B245">
         <v>22075</v>
       </c>
-      <c r="C239">
+      <c r="C245">
         <v>210552</v>
       </c>
-      <c r="D239">
+      <c r="D245">
         <v>8527</v>
       </c>
-      <c r="E239">
+      <c r="E245">
         <v>5723</v>
       </c>
-      <c r="F239">
+      <c r="F245">
         <v>46600</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B240">
+      <c r="B246">
         <v>22075</v>
       </c>
-      <c r="C240">
+      <c r="C246">
         <v>203830</v>
       </c>
-      <c r="D240">
+      <c r="D246">
         <v>8527</v>
       </c>
-      <c r="E240">
+      <c r="E246">
         <v>5473</v>
       </c>
-      <c r="F240">
+      <c r="F246">
         <v>45716</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B241">
+      <c r="B247">
         <v>22075</v>
       </c>
-      <c r="C241">
+      <c r="C247">
         <v>197874</v>
       </c>
-      <c r="D241">
+      <c r="D247">
         <v>8436</v>
       </c>
-      <c r="E241">
+      <c r="E247">
         <v>5473</v>
       </c>
-      <c r="F241">
+      <c r="F247">
         <v>45261</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B242">
+      <c r="B248">
         <v>22075</v>
       </c>
-      <c r="C242">
+      <c r="C248">
         <v>197129</v>
       </c>
-      <c r="D242">
+      <c r="D248">
         <v>8436</v>
       </c>
-      <c r="E242">
+      <c r="E248">
         <v>5473</v>
       </c>
-      <c r="F242">
+      <c r="F248">
         <v>45232</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B243">
+      <c r="B249">
         <v>22075</v>
       </c>
-      <c r="C243">
+      <c r="C249">
         <v>196698</v>
       </c>
-      <c r="D243">
+      <c r="D249">
         <v>8436</v>
       </c>
-      <c r="E243">
+      <c r="E249">
         <v>5355</v>
       </c>
-      <c r="F243">
+      <c r="F249">
         <v>45271</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B244">
+      <c r="B250">
         <v>22163</v>
       </c>
-      <c r="C244">
+      <c r="C250">
         <v>194595</v>
       </c>
-      <c r="D244">
+      <c r="D250">
         <v>8436</v>
       </c>
-      <c r="E244">
+      <c r="E250">
         <v>5355</v>
       </c>
-      <c r="F244">
+      <c r="F250">
         <v>45226</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B245">
+      <c r="B251">
         <v>15813</v>
       </c>
-      <c r="C245">
+      <c r="C251">
         <v>193567</v>
       </c>
-      <c r="D245">
+      <c r="D251">
         <v>8436</v>
       </c>
-      <c r="E245">
+      <c r="E251">
         <v>5355</v>
       </c>
-      <c r="F245">
+      <c r="F251">
         <v>45184</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B246">
+      <c r="B252">
         <v>15813</v>
       </c>
-      <c r="C246">
+      <c r="C252">
         <v>192155</v>
       </c>
-      <c r="D246">
+      <c r="D252">
         <v>8436</v>
       </c>
-      <c r="E246">
+      <c r="E252">
         <v>5355</v>
       </c>
-      <c r="F246">
+      <c r="F252">
         <v>45282</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,9,20)</f>
         <v>45555</v>
       </c>
-      <c r="B247">
+      <c r="B253">
         <v>15813</v>
       </c>
-      <c r="C247">
+      <c r="C253">
         <v>190546</v>
       </c>
-      <c r="D247">
+      <c r="D253">
         <v>8436</v>
       </c>
-      <c r="E247">
+      <c r="E253">
         <v>5355</v>
       </c>
-      <c r="F247">
+      <c r="F253">
         <v>44347</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,9,19)</f>
         <v>45554</v>
       </c>
-      <c r="B248">
+      <c r="B254">
         <v>15813</v>
       </c>
-      <c r="C248">
+      <c r="C254">
         <v>190387</v>
       </c>
-      <c r="D248">
+      <c r="D254">
         <v>8436</v>
       </c>
-      <c r="E248">
+      <c r="E254">
         <v>5355</v>
       </c>
-      <c r="F248">
+      <c r="F254">
         <v>44138</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,9,18)</f>
         <v>45553</v>
       </c>
-      <c r="B249">
+      <c r="B255">
         <v>13763</v>
       </c>
-      <c r="C249">
+      <c r="C255">
         <v>189493</v>
       </c>
-      <c r="D249">
+      <c r="D255">
         <v>8411</v>
       </c>
-      <c r="E249">
+      <c r="E255">
         <v>5355</v>
       </c>
-      <c r="F249">
+      <c r="F255">
         <v>43888</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,9,17)</f>
         <v>45552</v>
       </c>
-      <c r="B250">
+      <c r="B256">
         <v>13763</v>
       </c>
-      <c r="C250">
+      <c r="C256">
         <v>189036</v>
       </c>
-      <c r="D250">
+      <c r="D256">
         <v>8405</v>
       </c>
-      <c r="E250">
+      <c r="E256">
         <v>5355</v>
       </c>
-      <c r="F250">
+      <c r="F256">
         <v>43717</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,9,16)</f>
         <v>45551</v>
       </c>
-      <c r="B251">
+      <c r="B257">
         <v>13763</v>
       </c>
-      <c r="C251">
+      <c r="C257">
         <v>189674</v>
       </c>
-      <c r="D251">
+      <c r="D257">
         <v>8405</v>
       </c>
-      <c r="E251">
+      <c r="E257">
         <v>5355</v>
       </c>
-      <c r="F251">
+      <c r="F257">
         <v>42926</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,9,13)</f>
         <v>45548</v>
       </c>
-      <c r="B252">
+      <c r="B258">
         <v>13760</v>
       </c>
-      <c r="C252">
+      <c r="C258">
         <v>190449</v>
       </c>
-      <c r="D252">
+      <c r="D258">
         <v>8368</v>
       </c>
-      <c r="E252">
+      <c r="E258">
         <v>5355</v>
       </c>
-      <c r="F252">
+      <c r="F258">
         <v>42350</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,9,12)</f>
         <v>45547</v>
       </c>
-      <c r="B253">
+      <c r="B259">
         <v>13760</v>
       </c>
-      <c r="C253">
+      <c r="C259">
         <v>190306</v>
       </c>
-      <c r="D253">
+      <c r="D259">
         <v>8368</v>
       </c>
-      <c r="E253">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F253">
+      <c r="F259">
         <v>42577</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,9,11)</f>
         <v>45546</v>
       </c>
-      <c r="B254">
+      <c r="B260">
         <v>13760</v>
       </c>
-      <c r="C254">
+      <c r="C260">
         <v>190071</v>
       </c>
-      <c r="D254">
+      <c r="D260">
         <v>8367</v>
       </c>
-      <c r="E254">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F260">
         <v>42349</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,9,10)</f>
         <v>45545</v>
       </c>
-      <c r="B255">
+      <c r="B261">
         <v>13760</v>
       </c>
-      <c r="C255">
+      <c r="C261">
         <v>191308</v>
       </c>
-      <c r="D255">
+      <c r="D261">
         <v>8357</v>
       </c>
-      <c r="E255">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F261">
         <v>41864</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,9,9)</f>
         <v>45544</v>
       </c>
-      <c r="B256">
+      <c r="B262">
         <v>13760</v>
       </c>
-      <c r="C256">
+      <c r="C262">
         <v>190241</v>
       </c>
-      <c r="D256">
+      <c r="D262">
         <v>7636</v>
       </c>
-      <c r="E256">
+      <c r="E262">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F262">
         <v>41723</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <f>DATE(2024,9,6)</f>
-        <v>45541</v>
-      </c>
-      <c r="B257">
-        <v>13760</v>
-      </c>
-      <c r="C257">
-        <v>188662</v>
-      </c>
-      <c r="D257">
-        <v>7083</v>
-      </c>
-      <c r="E257">
-        <v>5355</v>
-      </c>
-      <c r="F257">
-        <v>41637</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <f>DATE(2024,9,5)</f>
-        <v>45540</v>
-      </c>
-      <c r="B258">
-        <v>13760</v>
-      </c>
-      <c r="C258">
-        <v>181332</v>
-      </c>
-      <c r="D258">
-        <v>7083</v>
-      </c>
-      <c r="E258">
-        <v>5355</v>
-      </c>
-      <c r="F258">
-        <v>40826</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <f>DATE(2024,9,4)</f>
-        <v>45539</v>
-      </c>
-      <c r="B259">
-        <v>13760</v>
-      </c>
-      <c r="C259">
-        <v>180006</v>
-      </c>
-      <c r="D259">
-        <v>7082</v>
-      </c>
-      <c r="E259">
-        <v>5355</v>
-      </c>
-      <c r="F259">
-        <v>39752</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <f>DATE(2024,9,3)</f>
-        <v>45538</v>
-      </c>
-      <c r="B260">
-        <v>13760</v>
-      </c>
-      <c r="C260">
-        <v>178478</v>
-      </c>
-      <c r="D260">
-        <v>7061</v>
-      </c>
-      <c r="E260">
-        <v>5355</v>
-      </c>
-      <c r="F260">
-        <v>39608</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <f>DATE(2024,9,2)</f>
-        <v>45537</v>
-      </c>
-      <c r="B261">
-        <v>13760</v>
-      </c>
-      <c r="C261">
-        <v>177750</v>
-      </c>
-      <c r="D261">
-        <v>7061</v>
-      </c>
-      <c r="E261">
-        <v>5355</v>
-      </c>
-      <c r="F261">
-        <v>39391</v>
       </c>
     </row>
   </sheetData>
@@ -12848,8 +12869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A00085-FC66-4939-BACA-8A0A5F4526C8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12873,7 +12894,7 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
-        <v>72.599999999999994</v>
+        <v>75.64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12882,7 +12903,7 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
-        <v>72.73</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12891,7 +12912,7 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
-        <v>72.88</v>
+        <v>75.930000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12900,7 +12921,7 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
-        <v>72.989999999999995</v>
+        <v>76.040000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12909,7 +12930,7 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
-        <v>73.489999999999995</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12918,7 +12939,7 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
-        <v>74</v>
+        <v>77.069999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12927,7 +12948,7 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
-        <v>74.290000000000006</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12936,7 +12957,7 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
-        <v>74.48</v>
+        <v>77.61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12945,7 +12966,7 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
-        <v>74.900000000000006</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12954,7 +12975,7 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
-        <v>75.430000000000007</v>
+        <v>78.569999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12963,7 +12984,7 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
-        <v>75.98</v>
+        <v>79.13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12972,7 +12993,7 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
-        <v>76.400000000000006</v>
+        <v>79.55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12981,7 +13002,7 @@
       </c>
       <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
-        <v>77.12</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12990,7 +13011,7 @@
       </c>
       <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
-        <v>77.78</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12999,7 +13020,7 @@
       </c>
       <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
-        <v>78.430000000000007</v>
+        <v>81.64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13008,7 +13029,7 @@
       </c>
       <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
-        <v>79.64</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13017,7 +13038,7 @@
       </c>
       <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
-        <v>82.59</v>
+        <v>85.76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13026,7 +13047,7 @@
       </c>
       <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
-        <v>85.94</v>
+        <v>89.11</v>
       </c>
     </row>
   </sheetData>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C062FE1B-F3F1-4EBA-8F86-F93374528E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F20959-7E90-4C71-ADC7-06CA5DA76EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,21 +997,21 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>79.52</v>
+        <v>79.569999999999993</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>80.209999999999994</v>
+        <v>80.260000000000005</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>78.5</v>
+        <v>78.55</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1025,7 +1025,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>81.010000000000005</v>
+        <v>81.06</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1053,7 +1053,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>78.42</v>
+        <v>78.47</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1067,7 +1067,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>79.41</v>
+        <v>79.459999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1081,14 +1081,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>80.150000000000006</v>
+        <v>80.2</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>80.709999999999994</v>
+        <v>80.760000000000005</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>75.95</v>
+        <v>76</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -2161,7 +2161,7 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
@@ -2259,7 +2259,7 @@
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>78.02</v>
+        <v>77.97</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>75.95</v>
+        <v>76</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>76.47</v>
+        <v>76.52</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>77.02</v>
+        <v>77.069999999999993</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>77.33</v>
+        <v>77.38</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>75.56</v>
+        <v>75.61</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>75.7</v>
+        <v>75.75</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>75.87</v>
+        <v>75.92</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>77.540000000000006</v>
+        <v>77.59</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>77.94</v>
+        <v>77.989999999999995</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2845,21 +2845,21 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>77.459999999999994</v>
+        <v>77.510000000000005</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>77.91</v>
+        <v>77.959999999999994</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>76.94</v>
+        <v>76.989999999999995</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
@@ -2873,42 +2873,42 @@
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>77.27</v>
+        <v>77.319999999999993</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>75.930000000000007</v>
+        <v>75.98</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>76.44</v>
+        <v>76.48</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>75.64</v>
+        <v>75.69</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>75.8</v>
+        <v>75.849999999999994</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>75.510000000000005</v>
+        <v>75.56</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>420</v>
+        <v>424</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>101</v>
+        <v>301</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>331</v>
+        <v>831</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,7 +3573,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>8682</v>
+        <v>9330</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3762,7 +3762,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.9999999999997158E-2</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
@@ -3804,7 +3804,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>-9.0000000000003411E-2</v>
+        <v>-4.0000000000006253E-2</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
@@ -4892,15 +4892,15 @@
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>75.510000000000005</v>
+        <v>75.56</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>75.56</v>
+        <v>75.61</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>331</v>
+        <v>831</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>75.64</v>
+        <v>75.69</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>75.7</v>
+        <v>75.75</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
@@ -4976,11 +4976,11 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>75.8</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>75.87</v>
+        <v>75.92</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -5002,11 +5002,11 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>75.95</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>-9.0000000000003411E-2</v>
+        <v>-4.0000000000006253E-2</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
@@ -5018,15 +5018,15 @@
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>75.930000000000007</v>
+        <v>75.98</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>75.95</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>8682</v>
+        <v>9330</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>76.44</v>
+        <v>76.48</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>76.47</v>
+        <v>76.52</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>76.94</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>77.02</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>77.27</v>
+        <v>77.319999999999993</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>77.33</v>
+        <v>77.38</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>77.459999999999994</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>77.540000000000006</v>
+        <v>77.59</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>78.02</v>
+        <v>77.97</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>0</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
@@ -5228,15 +5228,15 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>77.91</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>77.94</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>78.42</v>
+        <v>78.47</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>78.5</v>
+        <v>78.55</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>79.41</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>79.52</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
@@ -5396,11 +5396,11 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>80.150000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>80.209999999999994</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>80.709999999999994</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>81.010000000000005</v>
+        <v>81.06</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v>-0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
@@ -7354,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11224,119 +11224,119 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <f>DATE(2024,12,25)</f>
-        <v>45651</v>
+        <f>DATE(2024,12,24)</f>
+        <v>45650</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>24453</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>294548</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>13728</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>9023</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>71630</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <f>DATE(2024,12,24)</f>
-        <v>45650</v>
+        <f>DATE(2024,12,23)</f>
+        <v>45649</v>
       </c>
       <c r="B186">
         <v>24453</v>
       </c>
       <c r="C186">
-        <v>294548</v>
+        <v>295328</v>
       </c>
       <c r="D186">
-        <v>13728</v>
+        <v>13078</v>
       </c>
       <c r="E186">
         <v>9023</v>
       </c>
       <c r="F186">
-        <v>71630</v>
+        <v>71607</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <f>DATE(2024,12,23)</f>
-        <v>45649</v>
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
       </c>
       <c r="B187">
         <v>24453</v>
       </c>
       <c r="C187">
-        <v>295328</v>
+        <v>295576</v>
       </c>
       <c r="D187">
-        <v>13078</v>
+        <v>12928</v>
       </c>
       <c r="E187">
         <v>9023</v>
       </c>
       <c r="F187">
-        <v>71607</v>
+        <v>71234</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2024,12,19)</f>
+        <v>45645</v>
       </c>
       <c r="B188">
-        <v>24453</v>
+        <v>24563</v>
       </c>
       <c r="C188">
-        <v>295576</v>
+        <v>297267</v>
       </c>
       <c r="D188">
-        <v>12928</v>
+        <v>12825</v>
       </c>
       <c r="E188">
         <v>9023</v>
       </c>
       <c r="F188">
-        <v>71234</v>
+        <v>71235</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <f>DATE(2024,12,19)</f>
-        <v>45645</v>
+        <f>DATE(2024,12,18)</f>
+        <v>45644</v>
       </c>
       <c r="B189">
-        <v>24563</v>
+        <v>24838</v>
       </c>
       <c r="C189">
-        <v>297267</v>
+        <v>301001</v>
       </c>
       <c r="D189">
-        <v>12825</v>
+        <v>11878</v>
       </c>
       <c r="E189">
-        <v>9023</v>
+        <v>6745</v>
       </c>
       <c r="F189">
-        <v>71235</v>
+        <v>70647</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <f>DATE(2024,12,18)</f>
-        <v>45644</v>
+        <f>DATE(2024,12,17)</f>
+        <v>45643</v>
       </c>
       <c r="B190">
-        <v>24838</v>
+        <v>22948</v>
       </c>
       <c r="C190">
-        <v>301001</v>
+        <v>298481</v>
       </c>
       <c r="D190">
         <v>11878</v>
@@ -11345,124 +11345,124 @@
         <v>6745</v>
       </c>
       <c r="F190">
-        <v>70647</v>
+        <v>70240</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f>DATE(2024,12,17)</f>
-        <v>45643</v>
+        <f>DATE(2024,12,16)</f>
+        <v>45642</v>
       </c>
       <c r="B191">
-        <v>22948</v>
+        <v>22838</v>
       </c>
       <c r="C191">
-        <v>298481</v>
+        <v>294651</v>
       </c>
       <c r="D191">
-        <v>11878</v>
+        <v>11550</v>
       </c>
       <c r="E191">
         <v>6745</v>
       </c>
       <c r="F191">
-        <v>70240</v>
+        <v>69820</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <f>DATE(2024,12,16)</f>
-        <v>45642</v>
+        <f>DATE(2024,12,13)</f>
+        <v>45639</v>
       </c>
       <c r="B192">
         <v>22838</v>
       </c>
       <c r="C192">
-        <v>294651</v>
+        <v>293743</v>
       </c>
       <c r="D192">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="E192">
         <v>6745</v>
       </c>
       <c r="F192">
-        <v>69820</v>
+        <v>69282</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <f>DATE(2024,12,13)</f>
-        <v>45639</v>
+        <f>DATE(2024,12,12)</f>
+        <v>45638</v>
       </c>
       <c r="B193">
-        <v>22838</v>
+        <v>21988</v>
       </c>
       <c r="C193">
-        <v>293743</v>
+        <v>288113</v>
       </c>
       <c r="D193">
-        <v>11552</v>
+        <v>11508</v>
       </c>
       <c r="E193">
         <v>6745</v>
       </c>
       <c r="F193">
-        <v>69282</v>
+        <v>69248</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <f>DATE(2024,12,12)</f>
-        <v>45638</v>
+        <f>DATE(2024,12,11)</f>
+        <v>45637</v>
       </c>
       <c r="B194">
-        <v>21988</v>
+        <v>23418</v>
       </c>
       <c r="C194">
-        <v>288113</v>
+        <v>283521</v>
       </c>
       <c r="D194">
-        <v>11508</v>
+        <v>11465</v>
       </c>
       <c r="E194">
         <v>6745</v>
       </c>
       <c r="F194">
-        <v>69248</v>
+        <v>68433</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <f>DATE(2024,12,11)</f>
-        <v>45637</v>
+        <f>DATE(2024,12,10)</f>
+        <v>45636</v>
       </c>
       <c r="B195">
-        <v>23418</v>
+        <v>23393</v>
       </c>
       <c r="C195">
-        <v>283521</v>
+        <v>278267</v>
       </c>
       <c r="D195">
-        <v>11465</v>
+        <v>11221</v>
       </c>
       <c r="E195">
         <v>6745</v>
       </c>
       <c r="F195">
-        <v>68433</v>
+        <v>68330</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <f>DATE(2024,12,10)</f>
-        <v>45636</v>
+        <f>DATE(2024,12,9)</f>
+        <v>45635</v>
       </c>
       <c r="B196">
-        <v>23393</v>
+        <v>23343</v>
       </c>
       <c r="C196">
-        <v>278267</v>
+        <v>271912</v>
       </c>
       <c r="D196">
         <v>11221</v>
@@ -11471,82 +11471,82 @@
         <v>6745</v>
       </c>
       <c r="F196">
-        <v>68330</v>
+        <v>67798</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <f>DATE(2024,12,9)</f>
-        <v>45635</v>
+        <f>DATE(2024,12,6)</f>
+        <v>45632</v>
       </c>
       <c r="B197">
         <v>23343</v>
       </c>
       <c r="C197">
-        <v>271912</v>
+        <v>262513</v>
       </c>
       <c r="D197">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="E197">
         <v>6745</v>
       </c>
       <c r="F197">
-        <v>67798</v>
+        <v>67781</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <f>DATE(2024,12,6)</f>
-        <v>45632</v>
+        <f>DATE(2024,12,5)</f>
+        <v>45631</v>
       </c>
       <c r="B198">
         <v>23343</v>
       </c>
       <c r="C198">
-        <v>262513</v>
+        <v>259235</v>
       </c>
       <c r="D198">
-        <v>11153</v>
+        <v>11112</v>
       </c>
       <c r="E198">
         <v>6745</v>
       </c>
       <c r="F198">
-        <v>67781</v>
+        <v>67474</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <f>DATE(2024,12,5)</f>
-        <v>45631</v>
+        <f>DATE(2024,12,4)</f>
+        <v>45630</v>
       </c>
       <c r="B199">
-        <v>23343</v>
+        <v>23143</v>
       </c>
       <c r="C199">
-        <v>259235</v>
+        <v>254567</v>
       </c>
       <c r="D199">
-        <v>11112</v>
+        <v>10602</v>
       </c>
       <c r="E199">
         <v>6745</v>
       </c>
       <c r="F199">
-        <v>67474</v>
+        <v>67195</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <f>DATE(2024,12,4)</f>
-        <v>45630</v>
+        <f>DATE(2024,12,3)</f>
+        <v>45629</v>
       </c>
       <c r="B200">
         <v>23143</v>
       </c>
       <c r="C200">
-        <v>254567</v>
+        <v>250176</v>
       </c>
       <c r="D200">
         <v>10602</v>
@@ -11555,103 +11555,103 @@
         <v>6745</v>
       </c>
       <c r="F200">
-        <v>67195</v>
+        <v>66414</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <f>DATE(2024,12,3)</f>
-        <v>45629</v>
+        <f>DATE(2024,12,2)</f>
+        <v>45628</v>
       </c>
       <c r="B201">
-        <v>23143</v>
+        <v>23140</v>
       </c>
       <c r="C201">
-        <v>250176</v>
+        <v>247746</v>
       </c>
       <c r="D201">
-        <v>10602</v>
+        <v>10565</v>
       </c>
       <c r="E201">
         <v>6745</v>
       </c>
       <c r="F201">
-        <v>66414</v>
+        <v>64844</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <f>DATE(2024,12,2)</f>
-        <v>45628</v>
+        <f>DATE(2024,11,29)</f>
+        <v>45625</v>
       </c>
       <c r="B202">
         <v>23140</v>
       </c>
       <c r="C202">
-        <v>247746</v>
+        <v>246043</v>
       </c>
       <c r="D202">
-        <v>10565</v>
+        <v>10529</v>
       </c>
       <c r="E202">
         <v>6745</v>
       </c>
       <c r="F202">
-        <v>64844</v>
+        <v>64045</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <f>DATE(2024,11,29)</f>
-        <v>45625</v>
+        <f>DATE(2024,11,28)</f>
+        <v>45624</v>
       </c>
       <c r="B203">
         <v>23140</v>
       </c>
       <c r="C203">
-        <v>246043</v>
+        <v>244430</v>
       </c>
       <c r="D203">
-        <v>10529</v>
+        <v>10469</v>
       </c>
       <c r="E203">
         <v>6745</v>
       </c>
       <c r="F203">
-        <v>64045</v>
+        <v>63744</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <f>DATE(2024,11,28)</f>
-        <v>45624</v>
+        <f>DATE(2024,11,27)</f>
+        <v>45623</v>
       </c>
       <c r="B204">
         <v>23140</v>
       </c>
       <c r="C204">
-        <v>244430</v>
+        <v>243229</v>
       </c>
       <c r="D204">
-        <v>10469</v>
+        <v>10465</v>
       </c>
       <c r="E204">
-        <v>6745</v>
+        <v>6695</v>
       </c>
       <c r="F204">
-        <v>63744</v>
+        <v>62851</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <f>DATE(2024,11,27)</f>
-        <v>45623</v>
+        <f>DATE(2024,11,26)</f>
+        <v>45622</v>
       </c>
       <c r="B205">
         <v>23140</v>
       </c>
       <c r="C205">
-        <v>243229</v>
+        <v>241479</v>
       </c>
       <c r="D205">
         <v>10465</v>
@@ -11660,40 +11660,40 @@
         <v>6695</v>
       </c>
       <c r="F205">
-        <v>62851</v>
+        <v>62679</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <f>DATE(2024,11,26)</f>
-        <v>45622</v>
+        <f>DATE(2024,11,25)</f>
+        <v>45621</v>
       </c>
       <c r="B206">
-        <v>23140</v>
+        <v>23135</v>
       </c>
       <c r="C206">
-        <v>241479</v>
+        <v>237969</v>
       </c>
       <c r="D206">
         <v>10465</v>
       </c>
       <c r="E206">
-        <v>6695</v>
+        <v>6595</v>
       </c>
       <c r="F206">
-        <v>62679</v>
+        <v>62260</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <f>DATE(2024,11,25)</f>
-        <v>45621</v>
+        <f>DATE(2024,11,22)</f>
+        <v>45618</v>
       </c>
       <c r="B207">
         <v>23135</v>
       </c>
       <c r="C207">
-        <v>237969</v>
+        <v>241559</v>
       </c>
       <c r="D207">
         <v>10465</v>
@@ -11702,19 +11702,19 @@
         <v>6595</v>
       </c>
       <c r="F207">
-        <v>62260</v>
+        <v>62018</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <f>DATE(2024,11,22)</f>
-        <v>45618</v>
+        <f>DATE(2024,11,21)</f>
+        <v>45617</v>
       </c>
       <c r="B208">
         <v>23135</v>
       </c>
       <c r="C208">
-        <v>241559</v>
+        <v>240880</v>
       </c>
       <c r="D208">
         <v>10465</v>
@@ -11723,82 +11723,82 @@
         <v>6595</v>
       </c>
       <c r="F208">
-        <v>62018</v>
+        <v>60231</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <f>DATE(2024,11,21)</f>
-        <v>45617</v>
+        <f>DATE(2024,11,20)</f>
+        <v>45616</v>
       </c>
       <c r="B209">
         <v>23135</v>
       </c>
       <c r="C209">
-        <v>240880</v>
+        <v>242718</v>
       </c>
       <c r="D209">
-        <v>10465</v>
+        <v>10410</v>
       </c>
       <c r="E209">
-        <v>6595</v>
+        <v>6245</v>
       </c>
       <c r="F209">
-        <v>60231</v>
+        <v>59530</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <f>DATE(2024,11,20)</f>
-        <v>45616</v>
+        <f>DATE(2024,11,19)</f>
+        <v>45615</v>
       </c>
       <c r="B210">
         <v>23135</v>
       </c>
       <c r="C210">
-        <v>242718</v>
+        <v>242146</v>
       </c>
       <c r="D210">
         <v>10410</v>
       </c>
       <c r="E210">
-        <v>6245</v>
+        <v>6238</v>
       </c>
       <c r="F210">
-        <v>59530</v>
+        <v>59300</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f>DATE(2024,11,19)</f>
-        <v>45615</v>
+        <f>DATE(2024,11,18)</f>
+        <v>45614</v>
       </c>
       <c r="B211">
-        <v>23135</v>
+        <v>23134</v>
       </c>
       <c r="C211">
-        <v>242146</v>
+        <v>240186</v>
       </c>
       <c r="D211">
-        <v>10410</v>
+        <v>9470</v>
       </c>
       <c r="E211">
         <v>6238</v>
       </c>
       <c r="F211">
-        <v>59300</v>
+        <v>58316</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <f>DATE(2024,11,18)</f>
-        <v>45614</v>
+        <f>DATE(2024,11,15)</f>
+        <v>45611</v>
       </c>
       <c r="B212">
         <v>23134</v>
       </c>
       <c r="C212">
-        <v>240186</v>
+        <v>240124</v>
       </c>
       <c r="D212">
         <v>9470</v>
@@ -11807,40 +11807,40 @@
         <v>6238</v>
       </c>
       <c r="F212">
-        <v>58316</v>
+        <v>58006</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <f>DATE(2024,11,15)</f>
-        <v>45611</v>
+        <f>DATE(2024,11,14)</f>
+        <v>45610</v>
       </c>
       <c r="B213">
-        <v>23134</v>
+        <v>22884</v>
       </c>
       <c r="C213">
-        <v>240124</v>
+        <v>239097</v>
       </c>
       <c r="D213">
-        <v>9470</v>
+        <v>9474</v>
       </c>
       <c r="E213">
         <v>6238</v>
       </c>
       <c r="F213">
-        <v>58006</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <f>DATE(2024,11,14)</f>
-        <v>45610</v>
+        <f>DATE(2024,11,13)</f>
+        <v>45609</v>
       </c>
       <c r="B214">
         <v>22884</v>
       </c>
       <c r="C214">
-        <v>239097</v>
+        <v>236767</v>
       </c>
       <c r="D214">
         <v>9474</v>
@@ -11849,40 +11849,40 @@
         <v>6238</v>
       </c>
       <c r="F214">
-        <v>57910</v>
+        <v>56984</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <f>DATE(2024,11,13)</f>
-        <v>45609</v>
+        <f>DATE(2024,11,12)</f>
+        <v>45608</v>
       </c>
       <c r="B215">
         <v>22884</v>
       </c>
       <c r="C215">
-        <v>236767</v>
+        <v>237379</v>
       </c>
       <c r="D215">
-        <v>9474</v>
+        <v>9469</v>
       </c>
       <c r="E215">
-        <v>6238</v>
+        <v>6208</v>
       </c>
       <c r="F215">
-        <v>56984</v>
+        <v>56896</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <f>DATE(2024,11,12)</f>
-        <v>45608</v>
+        <f>DATE(2024,11,11)</f>
+        <v>45607</v>
       </c>
       <c r="B216">
         <v>22884</v>
       </c>
       <c r="C216">
-        <v>237379</v>
+        <v>236910</v>
       </c>
       <c r="D216">
         <v>9469</v>
@@ -11891,103 +11891,103 @@
         <v>6208</v>
       </c>
       <c r="F216">
-        <v>56896</v>
+        <v>56929</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <f>DATE(2024,11,11)</f>
-        <v>45607</v>
+        <f>DATE(2024,11,8)</f>
+        <v>45604</v>
       </c>
       <c r="B217">
         <v>22884</v>
       </c>
       <c r="C217">
-        <v>236910</v>
+        <v>235001</v>
       </c>
       <c r="D217">
-        <v>9469</v>
+        <v>9519</v>
       </c>
       <c r="E217">
         <v>6208</v>
       </c>
       <c r="F217">
-        <v>56929</v>
+        <v>56515</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <f>DATE(2024,11,8)</f>
-        <v>45604</v>
+        <f>DATE(2024,11,7)</f>
+        <v>45603</v>
       </c>
       <c r="B218">
         <v>22884</v>
       </c>
       <c r="C218">
-        <v>235001</v>
+        <v>231619</v>
       </c>
       <c r="D218">
-        <v>9519</v>
+        <v>9619</v>
       </c>
       <c r="E218">
         <v>6208</v>
       </c>
       <c r="F218">
-        <v>56515</v>
+        <v>56072</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <f>DATE(2024,11,7)</f>
-        <v>45603</v>
+        <f>DATE(2024,11,6)</f>
+        <v>45602</v>
       </c>
       <c r="B219">
         <v>22884</v>
       </c>
       <c r="C219">
-        <v>231619</v>
+        <v>230601</v>
       </c>
       <c r="D219">
-        <v>9619</v>
+        <v>9690</v>
       </c>
       <c r="E219">
-        <v>6208</v>
+        <v>6108</v>
       </c>
       <c r="F219">
-        <v>56072</v>
+        <v>55998</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <f>DATE(2024,11,6)</f>
-        <v>45602</v>
+        <f>DATE(2024,11,5)</f>
+        <v>45601</v>
       </c>
       <c r="B220">
         <v>22884</v>
       </c>
       <c r="C220">
-        <v>230601</v>
+        <v>230374</v>
       </c>
       <c r="D220">
-        <v>9690</v>
+        <v>9677</v>
       </c>
       <c r="E220">
-        <v>6108</v>
+        <v>5923</v>
       </c>
       <c r="F220">
-        <v>55998</v>
+        <v>54727</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <f>DATE(2024,11,5)</f>
-        <v>45601</v>
+        <f>DATE(2024,11,4)</f>
+        <v>45600</v>
       </c>
       <c r="B221">
         <v>22884</v>
       </c>
       <c r="C221">
-        <v>230374</v>
+        <v>229045</v>
       </c>
       <c r="D221">
         <v>9677</v>
@@ -11996,40 +11996,40 @@
         <v>5923</v>
       </c>
       <c r="F221">
-        <v>54727</v>
+        <v>54404</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <f>DATE(2024,11,4)</f>
-        <v>45600</v>
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
       </c>
       <c r="B222">
         <v>22884</v>
       </c>
       <c r="C222">
-        <v>229045</v>
+        <v>227307</v>
       </c>
       <c r="D222">
-        <v>9677</v>
+        <v>9567</v>
       </c>
       <c r="E222">
         <v>5923</v>
       </c>
       <c r="F222">
-        <v>54404</v>
+        <v>54456</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <f>DATE(2024,11,1)</f>
-        <v>45597</v>
+        <f>DATE(2024,10,31)</f>
+        <v>45596</v>
       </c>
       <c r="B223">
         <v>22884</v>
       </c>
       <c r="C223">
-        <v>227307</v>
+        <v>227231</v>
       </c>
       <c r="D223">
         <v>9567</v>
@@ -12038,61 +12038,61 @@
         <v>5923</v>
       </c>
       <c r="F223">
-        <v>54456</v>
+        <v>53878</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <f>DATE(2024,10,31)</f>
-        <v>45596</v>
+        <f>DATE(2024,10,30)</f>
+        <v>45595</v>
       </c>
       <c r="B224">
         <v>22884</v>
       </c>
       <c r="C224">
-        <v>227231</v>
+        <v>226655</v>
       </c>
       <c r="D224">
-        <v>9567</v>
+        <v>9547</v>
       </c>
       <c r="E224">
         <v>5923</v>
       </c>
       <c r="F224">
-        <v>53878</v>
+        <v>53986</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <f>DATE(2024,10,30)</f>
-        <v>45595</v>
+        <f>DATE(2024,10,29)</f>
+        <v>45594</v>
       </c>
       <c r="B225">
         <v>22884</v>
       </c>
       <c r="C225">
-        <v>226655</v>
+        <v>226326</v>
       </c>
       <c r="D225">
-        <v>9547</v>
+        <v>9540</v>
       </c>
       <c r="E225">
         <v>5923</v>
       </c>
       <c r="F225">
-        <v>53986</v>
+        <v>53441</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <f>DATE(2024,10,29)</f>
-        <v>45594</v>
+        <f>DATE(2024,10,28)</f>
+        <v>45593</v>
       </c>
       <c r="B226">
         <v>22884</v>
       </c>
       <c r="C226">
-        <v>226326</v>
+        <v>225848</v>
       </c>
       <c r="D226">
         <v>9540</v>
@@ -12101,19 +12101,19 @@
         <v>5923</v>
       </c>
       <c r="F226">
-        <v>53441</v>
+        <v>52683</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <f>DATE(2024,10,28)</f>
-        <v>45593</v>
+        <f>DATE(2024,10,25)</f>
+        <v>45590</v>
       </c>
       <c r="B227">
-        <v>22884</v>
+        <v>21875</v>
       </c>
       <c r="C227">
-        <v>225848</v>
+        <v>225509</v>
       </c>
       <c r="D227">
         <v>9540</v>
@@ -12122,19 +12122,19 @@
         <v>5923</v>
       </c>
       <c r="F227">
-        <v>52683</v>
+        <v>52453</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <f>DATE(2024,10,25)</f>
-        <v>45590</v>
+        <f>DATE(2024,10,24)</f>
+        <v>45589</v>
       </c>
       <c r="B228">
         <v>21875</v>
       </c>
       <c r="C228">
-        <v>225509</v>
+        <v>227510</v>
       </c>
       <c r="D228">
         <v>9540</v>
@@ -12143,19 +12143,19 @@
         <v>5923</v>
       </c>
       <c r="F228">
-        <v>52453</v>
+        <v>51188</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <f>DATE(2024,10,24)</f>
-        <v>45589</v>
+        <f>DATE(2024,10,23)</f>
+        <v>45588</v>
       </c>
       <c r="B229">
         <v>21875</v>
       </c>
       <c r="C229">
-        <v>227510</v>
+        <v>226876</v>
       </c>
       <c r="D229">
         <v>9540</v>
@@ -12164,19 +12164,19 @@
         <v>5923</v>
       </c>
       <c r="F229">
-        <v>51188</v>
+        <v>51133</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <f>DATE(2024,10,23)</f>
-        <v>45588</v>
+        <f>DATE(2024,10,22)</f>
+        <v>45587</v>
       </c>
       <c r="B230">
         <v>21875</v>
       </c>
       <c r="C230">
-        <v>226876</v>
+        <v>227039</v>
       </c>
       <c r="D230">
         <v>9540</v>
@@ -12185,61 +12185,61 @@
         <v>5923</v>
       </c>
       <c r="F230">
-        <v>51133</v>
+        <v>51049</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <f>DATE(2024,10,22)</f>
-        <v>45587</v>
+        <f>DATE(2024,10,21)</f>
+        <v>45586</v>
       </c>
       <c r="B231">
         <v>21875</v>
       </c>
       <c r="C231">
-        <v>227039</v>
+        <v>225342</v>
       </c>
       <c r="D231">
-        <v>9540</v>
+        <v>9536</v>
       </c>
       <c r="E231">
         <v>5923</v>
       </c>
       <c r="F231">
-        <v>51049</v>
+        <v>51091</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <f>DATE(2024,10,21)</f>
-        <v>45586</v>
+        <f>DATE(2024,10,18)</f>
+        <v>45583</v>
       </c>
       <c r="B232">
         <v>21875</v>
       </c>
       <c r="C232">
-        <v>225342</v>
+        <v>224244</v>
       </c>
       <c r="D232">
         <v>9536</v>
       </c>
       <c r="E232">
-        <v>5923</v>
+        <v>5723</v>
       </c>
       <c r="F232">
-        <v>51091</v>
+        <v>51028</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <f>DATE(2024,10,18)</f>
-        <v>45583</v>
+        <f>DATE(2024,10,17)</f>
+        <v>45582</v>
       </c>
       <c r="B233">
         <v>21875</v>
       </c>
       <c r="C233">
-        <v>224244</v>
+        <v>223763</v>
       </c>
       <c r="D233">
         <v>9536</v>
@@ -12248,82 +12248,82 @@
         <v>5723</v>
       </c>
       <c r="F233">
-        <v>51028</v>
+        <v>50423</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <f>DATE(2024,10,17)</f>
-        <v>45582</v>
+        <f>DATE(2024,10,16)</f>
+        <v>45581</v>
       </c>
       <c r="B234">
         <v>21875</v>
       </c>
       <c r="C234">
-        <v>223763</v>
+        <v>221765</v>
       </c>
       <c r="D234">
-        <v>9536</v>
+        <v>9538</v>
       </c>
       <c r="E234">
         <v>5723</v>
       </c>
       <c r="F234">
-        <v>50423</v>
+        <v>49665</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <f>DATE(2024,10,16)</f>
-        <v>45581</v>
+        <f>DATE(2024,10,15)</f>
+        <v>45580</v>
       </c>
       <c r="B235">
         <v>21875</v>
       </c>
       <c r="C235">
-        <v>221765</v>
+        <v>221165</v>
       </c>
       <c r="D235">
-        <v>9538</v>
+        <v>9530</v>
       </c>
       <c r="E235">
         <v>5723</v>
       </c>
       <c r="F235">
-        <v>49665</v>
+        <v>48992</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <f>DATE(2024,10,15)</f>
-        <v>45580</v>
+        <f>DATE(2024,10,14)</f>
+        <v>45579</v>
       </c>
       <c r="B236">
         <v>21875</v>
       </c>
       <c r="C236">
-        <v>221165</v>
+        <v>220105</v>
       </c>
       <c r="D236">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="E236">
         <v>5723</v>
       </c>
       <c r="F236">
-        <v>48992</v>
+        <v>48124</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <f>DATE(2024,10,14)</f>
-        <v>45579</v>
+        <f>DATE(2024,10,11)</f>
+        <v>45576</v>
       </c>
       <c r="B237">
-        <v>21875</v>
+        <v>22075</v>
       </c>
       <c r="C237">
-        <v>220105</v>
+        <v>219760</v>
       </c>
       <c r="D237">
         <v>9485</v>
@@ -12332,19 +12332,19 @@
         <v>5723</v>
       </c>
       <c r="F237">
-        <v>48124</v>
+        <v>47918</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <f>DATE(2024,10,11)</f>
-        <v>45576</v>
+        <f>DATE(2024,10,10)</f>
+        <v>45575</v>
       </c>
       <c r="B238">
         <v>22075</v>
       </c>
       <c r="C238">
-        <v>219760</v>
+        <v>218844</v>
       </c>
       <c r="D238">
         <v>9485</v>
@@ -12353,82 +12353,82 @@
         <v>5723</v>
       </c>
       <c r="F238">
-        <v>47918</v>
+        <v>47824</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <f>DATE(2024,10,10)</f>
-        <v>45575</v>
+        <f>DATE(2024,10,9)</f>
+        <v>45574</v>
       </c>
       <c r="B239">
         <v>22075</v>
       </c>
       <c r="C239">
-        <v>218844</v>
+        <v>218706</v>
       </c>
       <c r="D239">
-        <v>9485</v>
+        <v>9480</v>
       </c>
       <c r="E239">
         <v>5723</v>
       </c>
       <c r="F239">
-        <v>47824</v>
+        <v>47848</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <f>DATE(2024,10,9)</f>
-        <v>45574</v>
+        <f>DATE(2024,10,8)</f>
+        <v>45573</v>
       </c>
       <c r="B240">
         <v>22075</v>
       </c>
       <c r="C240">
-        <v>218706</v>
+        <v>213895</v>
       </c>
       <c r="D240">
-        <v>9480</v>
+        <v>8979</v>
       </c>
       <c r="E240">
         <v>5723</v>
       </c>
       <c r="F240">
-        <v>47848</v>
+        <v>47418</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <f>DATE(2024,10,8)</f>
-        <v>45573</v>
+        <f>DATE(2024,10,7)</f>
+        <v>45572</v>
       </c>
       <c r="B241">
         <v>22075</v>
       </c>
       <c r="C241">
-        <v>213895</v>
+        <v>212171</v>
       </c>
       <c r="D241">
-        <v>8979</v>
+        <v>8549</v>
       </c>
       <c r="E241">
         <v>5723</v>
       </c>
       <c r="F241">
-        <v>47418</v>
+        <v>46991</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <f>DATE(2024,10,7)</f>
-        <v>45572</v>
+        <f>DATE(2024,10,4)</f>
+        <v>45569</v>
       </c>
       <c r="B242">
         <v>22075</v>
       </c>
       <c r="C242">
-        <v>212171</v>
+        <v>211471</v>
       </c>
       <c r="D242">
         <v>8549</v>
@@ -12437,103 +12437,103 @@
         <v>5723</v>
       </c>
       <c r="F242">
-        <v>46991</v>
+        <v>46777</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <f>DATE(2024,10,4)</f>
-        <v>45569</v>
+        <f>DATE(2024,10,3)</f>
+        <v>45568</v>
       </c>
       <c r="B243">
         <v>22075</v>
       </c>
       <c r="C243">
-        <v>211471</v>
+        <v>210463</v>
       </c>
       <c r="D243">
-        <v>8549</v>
+        <v>8530</v>
       </c>
       <c r="E243">
         <v>5723</v>
       </c>
       <c r="F243">
-        <v>46777</v>
+        <v>46762</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <f>DATE(2024,10,3)</f>
-        <v>45568</v>
+        <f>DATE(2024,10,2)</f>
+        <v>45567</v>
       </c>
       <c r="B244">
         <v>22075</v>
       </c>
       <c r="C244">
-        <v>210463</v>
+        <v>210552</v>
       </c>
       <c r="D244">
-        <v>8530</v>
+        <v>8527</v>
       </c>
       <c r="E244">
         <v>5723</v>
       </c>
       <c r="F244">
-        <v>46762</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <f>DATE(2024,10,2)</f>
-        <v>45567</v>
+        <f>DATE(2024,10,1)</f>
+        <v>45566</v>
       </c>
       <c r="B245">
         <v>22075</v>
       </c>
       <c r="C245">
-        <v>210552</v>
+        <v>203830</v>
       </c>
       <c r="D245">
         <v>8527</v>
       </c>
       <c r="E245">
-        <v>5723</v>
+        <v>5473</v>
       </c>
       <c r="F245">
-        <v>46600</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <f>DATE(2024,10,1)</f>
-        <v>45566</v>
+        <f>DATE(2024,9,30)</f>
+        <v>45565</v>
       </c>
       <c r="B246">
         <v>22075</v>
       </c>
       <c r="C246">
-        <v>203830</v>
+        <v>197874</v>
       </c>
       <c r="D246">
-        <v>8527</v>
+        <v>8436</v>
       </c>
       <c r="E246">
         <v>5473</v>
       </c>
       <c r="F246">
-        <v>45716</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <f>DATE(2024,9,30)</f>
-        <v>45565</v>
+        <f>DATE(2024,9,27)</f>
+        <v>45562</v>
       </c>
       <c r="B247">
         <v>22075</v>
       </c>
       <c r="C247">
-        <v>197874</v>
+        <v>197129</v>
       </c>
       <c r="D247">
         <v>8436</v>
@@ -12542,40 +12542,40 @@
         <v>5473</v>
       </c>
       <c r="F247">
-        <v>45261</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <f>DATE(2024,9,27)</f>
-        <v>45562</v>
+        <f>DATE(2024,9,26)</f>
+        <v>45561</v>
       </c>
       <c r="B248">
         <v>22075</v>
       </c>
       <c r="C248">
-        <v>197129</v>
+        <v>196698</v>
       </c>
       <c r="D248">
         <v>8436</v>
       </c>
       <c r="E248">
-        <v>5473</v>
+        <v>5355</v>
       </c>
       <c r="F248">
-        <v>45232</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <f>DATE(2024,9,26)</f>
-        <v>45561</v>
+        <f>DATE(2024,9,25)</f>
+        <v>45560</v>
       </c>
       <c r="B249">
-        <v>22075</v>
+        <v>22163</v>
       </c>
       <c r="C249">
-        <v>196698</v>
+        <v>194595</v>
       </c>
       <c r="D249">
         <v>8436</v>
@@ -12584,19 +12584,19 @@
         <v>5355</v>
       </c>
       <c r="F249">
-        <v>45271</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <f>DATE(2024,9,25)</f>
-        <v>45560</v>
+        <f>DATE(2024,9,24)</f>
+        <v>45559</v>
       </c>
       <c r="B250">
-        <v>22163</v>
+        <v>15813</v>
       </c>
       <c r="C250">
-        <v>194595</v>
+        <v>193567</v>
       </c>
       <c r="D250">
         <v>8436</v>
@@ -12605,19 +12605,19 @@
         <v>5355</v>
       </c>
       <c r="F250">
-        <v>45226</v>
+        <v>45184</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <f>DATE(2024,9,24)</f>
-        <v>45559</v>
+        <f>DATE(2024,9,23)</f>
+        <v>45558</v>
       </c>
       <c r="B251">
         <v>15813</v>
       </c>
       <c r="C251">
-        <v>193567</v>
+        <v>192155</v>
       </c>
       <c r="D251">
         <v>8436</v>
@@ -12626,19 +12626,19 @@
         <v>5355</v>
       </c>
       <c r="F251">
-        <v>45184</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <f>DATE(2024,9,23)</f>
-        <v>45558</v>
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
       </c>
       <c r="B252">
         <v>15813</v>
       </c>
       <c r="C252">
-        <v>192155</v>
+        <v>190546</v>
       </c>
       <c r="D252">
         <v>8436</v>
@@ -12647,19 +12647,19 @@
         <v>5355</v>
       </c>
       <c r="F252">
-        <v>45282</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <f>DATE(2024,9,20)</f>
-        <v>45555</v>
+        <f>DATE(2024,9,19)</f>
+        <v>45554</v>
       </c>
       <c r="B253">
         <v>15813</v>
       </c>
       <c r="C253">
-        <v>190546</v>
+        <v>190387</v>
       </c>
       <c r="D253">
         <v>8436</v>
@@ -12668,61 +12668,61 @@
         <v>5355</v>
       </c>
       <c r="F253">
-        <v>44347</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <f>DATE(2024,9,19)</f>
-        <v>45554</v>
+        <f>DATE(2024,9,18)</f>
+        <v>45553</v>
       </c>
       <c r="B254">
-        <v>15813</v>
+        <v>13763</v>
       </c>
       <c r="C254">
-        <v>190387</v>
+        <v>189493</v>
       </c>
       <c r="D254">
-        <v>8436</v>
+        <v>8411</v>
       </c>
       <c r="E254">
         <v>5355</v>
       </c>
       <c r="F254">
-        <v>44138</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
+        <f>DATE(2024,9,17)</f>
+        <v>45552</v>
       </c>
       <c r="B255">
         <v>13763</v>
       </c>
       <c r="C255">
-        <v>189493</v>
+        <v>189036</v>
       </c>
       <c r="D255">
-        <v>8411</v>
+        <v>8405</v>
       </c>
       <c r="E255">
         <v>5355</v>
       </c>
       <c r="F255">
-        <v>43888</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <f>DATE(2024,9,17)</f>
-        <v>45552</v>
+        <f>DATE(2024,9,16)</f>
+        <v>45551</v>
       </c>
       <c r="B256">
         <v>13763</v>
       </c>
       <c r="C256">
-        <v>189036</v>
+        <v>189674</v>
       </c>
       <c r="D256">
         <v>8405</v>
@@ -12731,40 +12731,40 @@
         <v>5355</v>
       </c>
       <c r="F256">
-        <v>43717</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <f>DATE(2024,9,16)</f>
-        <v>45551</v>
+        <f>DATE(2024,9,13)</f>
+        <v>45548</v>
       </c>
       <c r="B257">
-        <v>13763</v>
+        <v>13760</v>
       </c>
       <c r="C257">
-        <v>189674</v>
+        <v>190449</v>
       </c>
       <c r="D257">
-        <v>8405</v>
+        <v>8368</v>
       </c>
       <c r="E257">
         <v>5355</v>
       </c>
       <c r="F257">
-        <v>42926</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <f>DATE(2024,9,13)</f>
-        <v>45548</v>
+        <f>DATE(2024,9,12)</f>
+        <v>45547</v>
       </c>
       <c r="B258">
         <v>13760</v>
       </c>
       <c r="C258">
-        <v>190449</v>
+        <v>190306</v>
       </c>
       <c r="D258">
         <v>8368</v>
@@ -12773,90 +12773,69 @@
         <v>5355</v>
       </c>
       <c r="F258">
-        <v>42350</v>
+        <v>42577</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <f>DATE(2024,9,12)</f>
-        <v>45547</v>
+        <f>DATE(2024,9,11)</f>
+        <v>45546</v>
       </c>
       <c r="B259">
         <v>13760</v>
       </c>
       <c r="C259">
-        <v>190306</v>
+        <v>190071</v>
       </c>
       <c r="D259">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="E259">
         <v>5355</v>
       </c>
       <c r="F259">
-        <v>42577</v>
+        <v>42349</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <f>DATE(2024,9,11)</f>
-        <v>45546</v>
+        <f>DATE(2024,9,10)</f>
+        <v>45545</v>
       </c>
       <c r="B260">
         <v>13760</v>
       </c>
       <c r="C260">
-        <v>190071</v>
+        <v>191308</v>
       </c>
       <c r="D260">
-        <v>8367</v>
+        <v>8357</v>
       </c>
       <c r="E260">
         <v>5355</v>
       </c>
       <c r="F260">
-        <v>42349</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <f>DATE(2024,9,10)</f>
-        <v>45545</v>
+        <f>DATE(2024,9,9)</f>
+        <v>45544</v>
       </c>
       <c r="B261">
         <v>13760</v>
       </c>
       <c r="C261">
-        <v>191308</v>
+        <v>190241</v>
       </c>
       <c r="D261">
-        <v>8357</v>
+        <v>7636</v>
       </c>
       <c r="E261">
         <v>5355</v>
       </c>
       <c r="F261">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <f>DATE(2024,9,9)</f>
-        <v>45544</v>
-      </c>
-      <c r="B262">
-        <v>13760</v>
-      </c>
-      <c r="C262">
-        <v>190241</v>
-      </c>
-      <c r="D262">
-        <v>7636</v>
-      </c>
-      <c r="E262">
-        <v>5355</v>
-      </c>
-      <c r="F262">
         <v>41723</v>
       </c>
     </row>
@@ -12869,7 +12848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A00085-FC66-4939-BACA-8A0A5F4526C8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F20959-7E90-4C71-ADC7-06CA5DA76EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37876B68-4E1D-4C34-8D10-95297B14DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -268,15 +268,15 @@
         <stp>Low</stp>
         <tr r="E16" s="1"/>
       </tp>
-      <tp>
-        <v>79.45</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Low</stp>
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>80.14</v>
+        <v>80.94</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
@@ -373,8 +373,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H34" s="1"/>
       </tp>
-      <tp>
-        <v>-1.999999999999999E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Change</stp>
@@ -577,7 +577,7 @@
         <tr r="H39" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.0000000000000009E-2</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Change</stp>
@@ -773,49 +773,49 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>79.13</v>
+        <v>79.849999999999994</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>78.569999999999993</v>
+        <v>79.290000000000006</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>80.3</v>
+        <v>81.040000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>79.55</v>
+        <v>80.3</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>81.64</v>
+        <v>82.32</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>80.95</v>
+        <v>81.67</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>-0.69</v>
+        <v>-0.65</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -997,21 +997,21 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>79.569999999999993</v>
+        <v>80.349999999999994</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>80.260000000000005</v>
+        <v>81.05</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>78.55</v>
+        <v>79.33</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1025,7 +1025,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>81.06</v>
+        <v>81.8</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1046,14 +1046,14 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>-0.42</v>
+        <v>-0.45</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>78.47</v>
+        <v>79.25</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1067,28 +1067,28 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>79.459999999999994</v>
+        <v>80.22</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>-0.75</v>
+        <v>-0.74</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>80.2</v>
+        <v>81</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>80.760000000000005</v>
+        <v>81.55</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1109,14 +1109,14 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>-0.65</v>
+        <v>-0.63</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J28" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>High</stp>
@@ -1130,7 +1130,7 @@
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1284,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>80</v>
+        <v>47</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1326,14 +1326,14 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>9</v>
+        <v>6</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1346,8 +1346,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H29" s="1"/>
       </tp>
-      <tp>
-        <v>-0.15</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>High</stp>
@@ -1374,8 +1374,8 @@
         <stp>Change</stp>
         <tr r="C26" s="1"/>
       </tp>
-      <tp>
-        <v>6.0000000000000053E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Change</stp>
@@ -1424,7 +1424,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1528,8 +1528,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J45" s="1"/>
       </tp>
-      <tp>
-        <v>7.0000000000000007E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECFZ 2!-ICN</stp>
         <stp>Ask</stp>
@@ -1577,15 +1577,15 @@
         <stp>Change</stp>
         <tr r="C12" s="1"/>
       </tp>
-      <tp>
-        <v>-9.9999999999994316E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Change</stp>
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>-1.9999999999996021E-2</v>
+        <v>-0.10000000000000853</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1647,8 +1647,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J50" s="1"/>
       </tp>
-      <tp>
-        <v>-0.15</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Last</stp>
@@ -1696,8 +1696,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J53" s="1"/>
       </tp>
-      <tp>
-        <v>-0.01</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Bid</stp>
@@ -1717,8 +1717,8 @@
         <stp>Low</stp>
         <tr r="E18" s="1"/>
       </tp>
-      <tp>
-        <v>-0.15</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Low</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>76</v>
+        <v>76.739999999999995</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1846,7 +1846,7 @@
         <tr r="I60" s="1"/>
       </tp>
       <tp>
-        <v>76.099999999999994</v>
+        <v>77.17</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1902,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>22</v>
+        <v>5</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1930,7 +1930,7 @@
         <tr r="H23" s="1"/>
       </tp>
       <tp>
-        <v>1</v>
+        <v>0</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1943,8 +1943,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>76.849999999999994</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Last</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>78.459999999999994</v>
+        <v>79.12</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>75.489999999999995</v>
+        <v>76.27</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2035,7 +2035,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>76.47</v>
+        <v>77.11</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2077,7 +2077,7 @@
         <tr r="I58" s="1"/>
       </tp>
       <tp>
-        <v>76.97</v>
+        <v>77.56</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2118,15 +2118,15 @@
         <stp>Open Interest</stp>
         <tr r="I57" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>76.849999999999994</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>High</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>-0.4</v>
+        <v>-0.41</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
@@ -2140,14 +2140,14 @@
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.27</v>
+        <v>-0.25</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.49</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Ask</stp>
@@ -2161,21 +2161,21 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>-0.5</v>
+        <v>-0.51</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>-0.12</v>
+        <v>-0.11</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>-0.12</v>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Ask</stp>
@@ -2203,21 +2203,21 @@
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>-0.37</v>
+        <v>-0.4</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>-0.19</v>
+        <v>-0.2</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
@@ -2231,14 +2231,14 @@
         <tr r="F17" s="1"/>
       </tp>
       <tp>
-        <v>-0.46</v>
+        <v>-0.47</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F24" s="1"/>
       </tp>
       <tp>
-        <v>-0.22</v>
+        <v>-0.26</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>75.91</v>
+        <v>76.72</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>77.97</v>
+        <v>78.67</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2287,21 +2287,21 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3508</v>
+        <v>3545</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>50336</v>
+        <v>52015</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>833</v>
+        <v>933</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2350,28 +2350,28 @@
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F25" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G25" s="1"/>
       </tp>
       <tp>
-        <v>-0.41</v>
+        <v>-0.43</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J24" s="1"/>
       </tp>
       <tp>
-        <v>-0.21</v>
+        <v>-0.19</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2385,7 +2385,7 @@
         <tr r="J22" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2406,14 +2406,14 @@
         <tr r="J19" s="1"/>
       </tp>
       <tp>
-        <v>-0.16</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J18" s="1"/>
       </tp>
       <tp>
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2429,7 +2429,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>81.64</v>
+        <v>82.32</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 15!-ICN</stp>
@@ -2437,7 +2437,7 @@
         <tr r="B16" s="4"/>
       </tp>
       <tp>
-        <v>80.95</v>
+        <v>81.67</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 14!-ICN</stp>
@@ -2445,7 +2445,7 @@
         <tr r="B15" s="4"/>
       </tp>
       <tp>
-        <v>85.76</v>
+        <v>86.33</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 17!-ICN</stp>
@@ -2453,7 +2453,7 @@
         <tr r="B18" s="4"/>
       </tp>
       <tp>
-        <v>82.89</v>
+        <v>83.55</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 16!-ICN</stp>
@@ -2461,7 +2461,7 @@
         <tr r="B17" s="4"/>
       </tp>
       <tp>
-        <v>79.13</v>
+        <v>79.849999999999994</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 11!-ICN</stp>
@@ -2469,7 +2469,7 @@
         <tr r="B12" s="4"/>
       </tp>
       <tp>
-        <v>78.569999999999993</v>
+        <v>79.290000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 10!-ICN</stp>
@@ -2477,7 +2477,7 @@
         <tr r="B11" s="4"/>
       </tp>
       <tp>
-        <v>80.3</v>
+        <v>81.040000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 13!-ICN</stp>
@@ -2485,7 +2485,7 @@
         <tr r="B14" s="4"/>
       </tp>
       <tp>
-        <v>79.55</v>
+        <v>80.3</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 12!-ICN</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B13" s="4"/>
       </tp>
       <tp>
-        <v>89.11</v>
+        <v>89.59</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 18!-ICN</stp>
@@ -2517,7 +2517,7 @@
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>-0.8</v>
+        <v>-0.75</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Bid</stp>
@@ -2533,7 +2533,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>77.61</v>
+        <v>78.319999999999993</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 8!-ICN</stp>
@@ -2541,7 +2541,7 @@
         <tr r="B9" s="4"/>
       </tp>
       <tp>
-        <v>78.02</v>
+        <v>78.75</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 9!-ICN</stp>
@@ -2549,7 +2549,7 @@
         <tr r="B10" s="4"/>
       </tp>
       <tp>
-        <v>76.040000000000006</v>
+        <v>76.75</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 4!-ICN</stp>
@@ -2557,7 +2557,7 @@
         <tr r="B5" s="4"/>
       </tp>
       <tp>
-        <v>76.56</v>
+        <v>77.27</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 5!-ICN</stp>
@@ -2565,7 +2565,7 @@
         <tr r="B6" s="4"/>
       </tp>
       <tp>
-        <v>77.069999999999993</v>
+        <v>77.8</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 6!-ICN</stp>
@@ -2573,7 +2573,7 @@
         <tr r="B7" s="4"/>
       </tp>
       <tp>
-        <v>77.400000000000006</v>
+        <v>78.13</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 7!-ICN</stp>
@@ -2581,7 +2581,7 @@
         <tr r="B8" s="4"/>
       </tp>
       <tp>
-        <v>75.64</v>
+        <v>76.36</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 1!-ICN</stp>
@@ -2589,7 +2589,7 @@
         <tr r="B2" s="4"/>
       </tp>
       <tp>
-        <v>75.77</v>
+        <v>76.5</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 2!-ICN</stp>
@@ -2597,7 +2597,7 @@
         <tr r="B3" s="4"/>
       </tp>
       <tp>
-        <v>75.930000000000007</v>
+        <v>76.650000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 3!-ICN</stp>
@@ -2621,7 +2621,7 @@
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>-0.56000000000000005</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Ask</stp>
@@ -2642,49 +2642,49 @@
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>175805</v>
+        <v>176344</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>343492</v>
+        <v>351133</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>34372</v>
+        <v>35210</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>824</v>
+        <v>1160</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>16853</v>
+        <v>16909</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>52764</v>
+        <v>52611</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>8536</v>
+        <v>10239</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2718,8 +2718,8 @@
         <stp>Low</stp>
         <tr r="E26" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Low</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>76</v>
+        <v>76.75</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>76.52</v>
+        <v>77.260000000000005</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>77.069999999999993</v>
+        <v>77.83</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>77.38</v>
+        <v>78.14</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>75.61</v>
+        <v>76.349999999999994</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>75.75</v>
+        <v>76.489999999999995</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>75.92</v>
+        <v>76.66</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>77.59</v>
+        <v>78.34</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>77.989999999999995</v>
+        <v>78.760000000000005</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2823,15 +2823,15 @@
         <stp>Last</stp>
         <tr r="B30" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B27" s="1"/>
       </tp>
-      <tp>
-        <v>79.45</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Last</stp>
@@ -2845,70 +2845,70 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>77.510000000000005</v>
+        <v>78.28</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>77.959999999999994</v>
+        <v>78.73</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>76.989999999999995</v>
+        <v>77.73</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>80.28</v>
+        <v>80.94</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>77.319999999999993</v>
+        <v>78.069999999999993</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>75.98</v>
+        <v>76.73</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>76.48</v>
+        <v>77.239999999999995</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>75.69</v>
+        <v>76.45</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>75.849999999999994</v>
+        <v>76.58</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>75.56</v>
+        <v>76.319999999999993</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3159,8 +3159,8 @@
         <stp>High</stp>
         <tr r="D11" s="1"/>
       </tp>
-      <tp>
-        <v>-0.69</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>High</stp>
@@ -3180,8 +3180,8 @@
         <stp>High</stp>
         <tr r="D30" s="1"/>
       </tp>
-      <tp>
-        <v>79.45</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>High</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>80.75</v>
+        <v>80.94</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3307,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>77.540000000000006</v>
+        <v>78.64</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3335,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>75.41</v>
+        <v>76.27</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3348,8 +3348,8 @@
         <stp>High</stp>
         <tr r="D35" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>76.72</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Low</stp>
@@ -3377,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>75.5</v>
+        <v>76.63</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3391,7 +3391,7 @@
         <tr r="D38" s="1"/>
       </tp>
       <tp>
-        <v>76.069999999999993</v>
+        <v>77.17</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>424</v>
+        <v>402</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>301</v>
+        <v>4</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>831</v>
+        <v>3</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,14 +3573,14 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>9330</v>
+        <v>2664</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>25</v>
+        <v>5</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3643,7 +3643,7 @@
         <tr r="G58" s="1"/>
       </tp>
       <tp>
-        <v>-0.01</v>
+        <v>0</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Change</stp>
@@ -3762,14 +3762,14 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>-4.9999999999997158E-2</v>
+        <v>-7.9999999999998295E-2</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
         <tr r="C10" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0.34999999999999432</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3783,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>-0.15000000000000568</v>
+        <v>-9.0000000000003411E-2</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3804,14 +3804,14 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>-4.0000000000006253E-2</v>
+        <v>-1.0000000000005116E-2</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>-0.46000000000000796</v>
+        <v>-9.9999999999994316E-2</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -3846,7 +3846,7 @@
         <tr r="G48" s="1"/>
       </tp>
       <tp>
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4441,63 +4441,63 @@
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>78.02</v>
+        <v>78.75</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>77.61</v>
+        <v>78.319999999999993</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>77.400000000000006</v>
+        <v>78.13</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>77.069999999999993</v>
+        <v>77.8</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>76.56</v>
+        <v>77.27</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>76.040000000000006</v>
+        <v>76.75</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>75.930000000000007</v>
+        <v>76.650000000000006</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>75.77</v>
+        <v>76.5</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>75.64</v>
+        <v>76.36</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4876,39 +4876,39 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>75.489999999999995</v>
+        <v>76.27</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>-0.15000000000000568</v>
+        <v>-9.0000000000003411E-2</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>75.91</v>
+        <v>76.72</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>75.41</v>
+        <v>76.27</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>75.56</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>75.61</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>831</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>52764</v>
+        <v>52611</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
-        <v>75.64</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,41 +4916,41 @@
         <f>RTD("esrtd",,"ECF 2!-ICN","Symbol")</f>
         <v>ECF 25V-ICN</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C3" t="str">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="C3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D3" t="str">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="D3">
         <f>RTD("esrtd",,"ECF 2!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E3" t="str">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="E3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
-        <v/>
+        <v>76.72</v>
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>75.69</v>
+        <v>76.45</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>75.75</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>8536</v>
+        <v>10239</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
-        <v>75.77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,11 +4976,11 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>75.849999999999994</v>
+        <v>76.58</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>75.92</v>
+        <v>76.66</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="J4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Recent Settlement")</f>
-        <v>75.930000000000007</v>
+        <v>76.650000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,39 +5002,39 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>76</v>
+        <v>76.739999999999995</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>-4.0000000000006253E-2</v>
+        <v>-1.0000000000005116E-2</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>76.47</v>
+        <v>77.11</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>75.5</v>
+        <v>76.63</v>
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>75.98</v>
+        <v>76.73</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>76</v>
+        <v>76.75</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>9330</v>
+        <v>2664</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>343492</v>
+        <v>351133</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
-        <v>76.040000000000006</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,39 +5044,39 @@
       </c>
       <c r="B6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v>76.099999999999994</v>
+        <v>77.17</v>
       </c>
       <c r="C6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v>-0.46000000000000796</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="D6">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v>76.97</v>
+        <v>77.56</v>
       </c>
       <c r="E6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v>76.069999999999993</v>
+        <v>77.17</v>
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>76.48</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>76.52</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>34372</v>
+        <v>35210</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
-        <v>76.56</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>76.989999999999995</v>
+        <v>77.73</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>77.069999999999993</v>
+        <v>77.83</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5114,11 +5114,11 @@
       </c>
       <c r="I7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Open Interest")</f>
-        <v>824</v>
+        <v>1160</v>
       </c>
       <c r="J7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Recent Settlement")</f>
-        <v>77.069999999999993</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>77.319999999999993</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>77.38</v>
+        <v>78.14</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5156,11 +5156,11 @@
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
-        <v>16853</v>
+        <v>16909</v>
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
-        <v>77.400000000000006</v>
+        <v>78.13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>77.510000000000005</v>
+        <v>78.28</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>77.59</v>
+        <v>78.34</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Recent Settlement")</f>
-        <v>77.61</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>77.97</v>
+        <v>78.67</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>-4.9999999999997158E-2</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>78.459999999999994</v>
+        <v>79.12</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>77.540000000000006</v>
+        <v>78.64</v>
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>77.959999999999994</v>
+        <v>78.73</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>77.989999999999995</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>175805</v>
+        <v>176344</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
-        <v>78.02</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>78.47</v>
+        <v>79.25</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>78.55</v>
+        <v>79.33</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
-        <v>78.569999999999993</v>
+        <v>79.290000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="J12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Recent Settlement")</f>
-        <v>79.13</v>
+        <v>79.849999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5336,41 +5336,41 @@
         <f>RTD("esrtd",,"ECF 12!-ICN","Symbol")</f>
         <v>ECF 27Q-ICN</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Last")</f>
-        <v>79.45</v>
-      </c>
-      <c r="C13">
+        <v/>
+      </c>
+      <c r="C13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Change")</f>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-      <c r="D13">
+        <v/>
+      </c>
+      <c r="D13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","High")</f>
-        <v>79.45</v>
-      </c>
-      <c r="E13">
+        <v/>
+      </c>
+      <c r="E13" t="str">
         <f>RTD("esrtd",,"ECF 12!-ICN","Low")</f>
-        <v>79.45</v>
+        <v/>
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>79.459999999999994</v>
+        <v>80.22</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>79.569999999999993</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
-        <v>3508</v>
+        <v>3545</v>
       </c>
       <c r="J13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Recent Settlement")</f>
-        <v>79.55</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,39 +5380,39 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>80.28</v>
+        <v>80.94</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>-1.9999999999996021E-2</v>
+        <v>-0.10000000000000853</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>80.75</v>
+        <v>80.94</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>80.14</v>
+        <v>80.94</v>
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>80.2</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>80.260000000000005</v>
+        <v>81.05</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>50336</v>
+        <v>52015</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
-        <v>80.3</v>
+        <v>81.040000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>80.760000000000005</v>
+        <v>81.55</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>81.06</v>
+        <v>81.8</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="J15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Recent Settlement")</f>
-        <v>80.95</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="J16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Recent Settlement")</f>
-        <v>81.64</v>
+        <v>82.32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5504,21 +5504,21 @@
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Symbol")</f>
         <v>ECF 25U:ECF25V-ICN</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Last")</f>
-        <v>-0.15</v>
-      </c>
-      <c r="C17">
+        <v/>
+      </c>
+      <c r="C17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Change")</f>
-        <v>-1.999999999999999E-2</v>
-      </c>
-      <c r="D17">
+        <v/>
+      </c>
+      <c r="D17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","High")</f>
-        <v>-0.15</v>
-      </c>
-      <c r="E17">
+        <v/>
+      </c>
+      <c r="E17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Low")</f>
-        <v>-0.15</v>
+        <v/>
       </c>
       <c r="F17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Bid")</f>
@@ -5526,11 +5526,11 @@
       </c>
       <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Open Interest")</f>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="J17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Recent Settlement")</f>
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5564,11 +5564,11 @@
       </c>
       <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="G18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="J18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Recent Settlement")</f>
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5632,15 +5632,15 @@
       </c>
       <c r="B20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="C20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
-        <v>0</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="D20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="E20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5690,11 +5690,11 @@
       </c>
       <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="H21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Cumulative Volume")</f>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="J21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Recent Settlement")</f>
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5732,11 +5732,11 @@
       </c>
       <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v>-0.37</v>
+        <v>-0.4</v>
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v>-0.22</v>
+        <v>-0.26</v>
       </c>
       <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Recent Settlement")</f>
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5816,11 +5816,11 @@
       </c>
       <c r="F24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
-        <v>-0.46</v>
+        <v>-0.47</v>
       </c>
       <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="J24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Recent Settlement")</f>
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5858,11 +5858,11 @@
       </c>
       <c r="F25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Bid")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="H25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Cumulative Volume")</f>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="J25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Recent Settlement")</f>
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="J26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Recent Settlement")</f>
-        <v>-0.42</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5924,21 +5924,21 @@
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Symbol")</f>
         <v>ECF 27Q:ECF27Z-ICN</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Last")</f>
-        <v>-0.69</v>
-      </c>
-      <c r="C27">
+        <v/>
+      </c>
+      <c r="C27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Change")</f>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="D27">
+        <v/>
+      </c>
+      <c r="D27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","High")</f>
-        <v>-0.69</v>
-      </c>
-      <c r="E27">
+        <v/>
+      </c>
+      <c r="E27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Low")</f>
-        <v>-0.69</v>
+        <v/>
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="str">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Open Interest")</f>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="J27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Recent Settlement")</f>
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5984,11 +5984,11 @@
       </c>
       <c r="F28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Bid")</f>
-        <v>-0.8</v>
+        <v>-0.75</v>
       </c>
       <c r="G28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Ask")</f>
-        <v>-0.56000000000000005</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="H28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Cumulative Volume")</f>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="J28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Recent Settlement")</f>
-        <v>-0.65</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v>-0.69</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Change")</f>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","High")</f>
@@ -6066,9 +6066,9 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
-        <v>-0.01</v>
+        <v/>
       </c>
       <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -6112,9 +6112,9 @@
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Bid")</f>
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="str">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Ask")</f>
-        <v>7.0000000000000007E-2</v>
+        <v/>
       </c>
       <c r="H31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Cumulative Volume")</f>
@@ -7354,10 +7354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,5399 +7444,5420 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>DATE(2025,9,15)</f>
+        <v>45915</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(2025,9,12)</f>
+        <v>45912</v>
+      </c>
+      <c r="B6">
+        <v>52611</v>
+      </c>
+      <c r="C6">
+        <v>351133</v>
+      </c>
+      <c r="D6">
+        <v>35210</v>
+      </c>
+      <c r="E6">
+        <v>16909</v>
+      </c>
+      <c r="F6">
+        <v>176344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>DATE(2025,9,11)</f>
+        <v>45911</v>
+      </c>
+      <c r="B7">
+        <v>52574</v>
+      </c>
+      <c r="C7">
+        <v>349117</v>
+      </c>
+      <c r="D7">
+        <v>34669</v>
+      </c>
+      <c r="E7">
+        <v>16909</v>
+      </c>
+      <c r="F7">
+        <v>176245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>DATE(2025,9,10)</f>
+        <v>45910</v>
+      </c>
+      <c r="B8">
+        <v>52537</v>
+      </c>
+      <c r="C8">
+        <v>348331</v>
+      </c>
+      <c r="D8">
+        <v>34600</v>
+      </c>
+      <c r="E8">
+        <v>16904</v>
+      </c>
+      <c r="F8">
+        <v>174401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>DATE(2025,9,9)</f>
+        <v>45909</v>
+      </c>
+      <c r="B9">
+        <v>52569</v>
+      </c>
+      <c r="C9">
+        <v>346299</v>
+      </c>
+      <c r="D9">
+        <v>34549</v>
+      </c>
+      <c r="E9">
+        <v>16853</v>
+      </c>
+      <c r="F9">
+        <v>173517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>DATE(2025,9,8)</f>
+        <v>45908</v>
+      </c>
+      <c r="B10">
+        <v>53114</v>
+      </c>
+      <c r="C10">
+        <v>344793</v>
+      </c>
+      <c r="D10">
+        <v>34477</v>
+      </c>
+      <c r="E10">
+        <v>16853</v>
+      </c>
+      <c r="F10">
+        <v>173160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,9,5)</f>
         <v>45905</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B11">
+        <v>52743</v>
+      </c>
+      <c r="C11">
+        <v>343314</v>
+      </c>
+      <c r="D11">
+        <v>34434</v>
+      </c>
+      <c r="E11">
+        <v>16853</v>
+      </c>
+      <c r="F11">
+        <v>173497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,9,4)</f>
         <v>45904</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>52764</v>
       </c>
-      <c r="C6">
+      <c r="C12">
         <v>343492</v>
       </c>
-      <c r="D6">
+      <c r="D12">
         <v>34372</v>
       </c>
-      <c r="E6">
+      <c r="E12">
         <v>16853</v>
       </c>
-      <c r="F6">
+      <c r="F12">
         <v>175805</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,9,3)</f>
         <v>45903</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>52996</v>
       </c>
-      <c r="C7">
+      <c r="C13">
         <v>342971</v>
       </c>
-      <c r="D7">
+      <c r="D13">
         <v>34171</v>
       </c>
-      <c r="E7">
+      <c r="E13">
         <v>16853</v>
       </c>
-      <c r="F7">
+      <c r="F13">
         <v>175671</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,9,2)</f>
         <v>45902</v>
       </c>
-      <c r="B8">
+      <c r="B14">
         <v>53280</v>
       </c>
-      <c r="C8">
+      <c r="C14">
         <v>344044</v>
       </c>
-      <c r="D8">
+      <c r="D14">
         <v>34054</v>
       </c>
-      <c r="E8">
+      <c r="E14">
         <v>16773</v>
       </c>
-      <c r="F8">
+      <c r="F14">
         <v>173844</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="B9">
+      <c r="B15">
         <v>53879</v>
       </c>
-      <c r="C9">
+      <c r="C15">
         <v>345801</v>
       </c>
-      <c r="D9">
+      <c r="D15">
         <v>34023</v>
       </c>
-      <c r="E9">
+      <c r="E15">
         <v>16773</v>
       </c>
-      <c r="F9">
+      <c r="F15">
         <v>171783</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,8,29)</f>
         <v>45898</v>
       </c>
-      <c r="B10">
+      <c r="B16">
         <v>55423</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>342992</v>
       </c>
-      <c r="D10">
+      <c r="D16">
         <v>34444</v>
       </c>
-      <c r="E10">
+      <c r="E16">
         <v>16773</v>
       </c>
-      <c r="F10">
+      <c r="F16">
         <v>171131</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,8,28)</f>
         <v>45897</v>
       </c>
-      <c r="B11">
+      <c r="B17">
         <v>55406</v>
       </c>
-      <c r="C11">
+      <c r="C17">
         <v>340721</v>
       </c>
-      <c r="D11">
+      <c r="D17">
         <v>34426</v>
       </c>
-      <c r="E11">
+      <c r="E17">
         <v>16473</v>
       </c>
-      <c r="F11">
+      <c r="F17">
         <v>170479</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,8,27)</f>
         <v>45896</v>
       </c>
-      <c r="B12">
+      <c r="B18">
         <v>55504</v>
       </c>
-      <c r="C12">
+      <c r="C18">
         <v>339452</v>
       </c>
-      <c r="D12">
+      <c r="D18">
         <v>34349</v>
       </c>
-      <c r="E12">
+      <c r="E18">
         <v>16473</v>
       </c>
-      <c r="F12">
+      <c r="F18">
         <v>169640</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,8,26)</f>
         <v>45895</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <v>55650</v>
       </c>
-      <c r="C13">
+      <c r="C19">
         <v>340557</v>
       </c>
-      <c r="D13">
+      <c r="D19">
         <v>34302</v>
       </c>
-      <c r="E13">
+      <c r="E19">
         <v>16141</v>
       </c>
-      <c r="F13">
+      <c r="F19">
         <v>169468</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,8,25)</f>
         <v>45894</v>
       </c>
-      <c r="B14">
+      <c r="B20">
         <v>55526</v>
       </c>
-      <c r="C14">
+      <c r="C20">
         <v>338181</v>
       </c>
-      <c r="D14">
+      <c r="D20">
         <v>34283</v>
       </c>
-      <c r="E14">
+      <c r="E20">
         <v>16141</v>
       </c>
-      <c r="F14">
+      <c r="F20">
         <v>169331</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,8,22)</f>
         <v>45891</v>
       </c>
-      <c r="B15">
+      <c r="B21">
         <v>55494</v>
       </c>
-      <c r="C15">
+      <c r="C21">
         <v>337516</v>
       </c>
-      <c r="D15">
+      <c r="D21">
         <v>33952</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>16141</v>
       </c>
-      <c r="F15">
+      <c r="F21">
         <v>169313</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,8,21)</f>
         <v>45890</v>
       </c>
-      <c r="B16">
+      <c r="B22">
         <v>55271</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <v>336880</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>33466</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>16134</v>
       </c>
-      <c r="F16">
+      <c r="F22">
         <v>169229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,8,20)</f>
         <v>45889</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>55233</v>
       </c>
-      <c r="C17">
+      <c r="C23">
         <v>336461</v>
       </c>
-      <c r="D17">
+      <c r="D23">
         <v>32957</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <v>16282</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <v>167467</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B18">
+      <c r="B24">
         <v>55159</v>
       </c>
-      <c r="C18">
+      <c r="C24">
         <v>335216</v>
       </c>
-      <c r="D18">
+      <c r="D24">
         <v>32675</v>
       </c>
-      <c r="E18">
+      <c r="E24">
         <v>16112</v>
       </c>
-      <c r="F18">
+      <c r="F24">
         <v>166986</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B19">
+      <c r="B25">
         <v>55038</v>
       </c>
-      <c r="C19">
+      <c r="C25">
         <v>334562</v>
       </c>
-      <c r="D19">
+      <c r="D25">
         <v>32404</v>
       </c>
-      <c r="E19">
+      <c r="E25">
         <v>16244</v>
       </c>
-      <c r="F19">
+      <c r="F25">
         <v>166189</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B20">
+      <c r="B26">
         <v>54467</v>
       </c>
-      <c r="C20">
+      <c r="C26">
         <v>332925</v>
       </c>
-      <c r="D20">
+      <c r="D26">
         <v>32139</v>
       </c>
-      <c r="E20">
+      <c r="E26">
         <v>16114</v>
       </c>
-      <c r="F20">
+      <c r="F26">
         <v>165785</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B21">
+      <c r="B27">
         <v>52654</v>
       </c>
-      <c r="C21">
+      <c r="C27">
         <v>331793</v>
       </c>
-      <c r="D21">
+      <c r="D27">
         <v>32139</v>
       </c>
-      <c r="E21">
+      <c r="E27">
         <v>16114</v>
       </c>
-      <c r="F21">
+      <c r="F27">
         <v>165035</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B22">
+      <c r="B28">
         <v>49078</v>
       </c>
-      <c r="C22">
+      <c r="C28">
         <v>334724</v>
       </c>
-      <c r="D22">
+      <c r="D28">
         <v>31135</v>
       </c>
-      <c r="E22">
+      <c r="E28">
         <v>16086</v>
       </c>
-      <c r="F22">
+      <c r="F28">
         <v>165282</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>49075</v>
       </c>
-      <c r="C23">
+      <c r="C29">
         <v>333519</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <v>31129</v>
       </c>
-      <c r="E23">
+      <c r="E29">
         <v>16084</v>
       </c>
-      <c r="F23">
+      <c r="F29">
         <v>165259</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>49079</v>
       </c>
-      <c r="C24">
+      <c r="C30">
         <v>332913</v>
       </c>
-      <c r="D24">
+      <c r="D30">
         <v>31123</v>
       </c>
-      <c r="E24">
+      <c r="E30">
         <v>16080</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <v>164418</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>49029</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <v>334592</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <v>31103</v>
       </c>
-      <c r="E25">
+      <c r="E31">
         <v>16080</v>
       </c>
-      <c r="F25">
+      <c r="F31">
         <v>164283</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>49035</v>
       </c>
-      <c r="C26">
+      <c r="C32">
         <v>334273</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <v>31046</v>
       </c>
-      <c r="E26">
+      <c r="E32">
         <v>16080</v>
       </c>
-      <c r="F26">
+      <c r="F32">
         <v>162523</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>49028</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>335278</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <v>30118</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>16080</v>
       </c>
-      <c r="F27">
+      <c r="F33">
         <v>162858</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>49028</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>333937</v>
       </c>
-      <c r="D28">
+      <c r="D34">
         <v>30037</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>16079</v>
       </c>
-      <c r="F28">
+      <c r="F34">
         <v>161752</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B29">
+      <c r="B35">
         <v>48952</v>
       </c>
-      <c r="C29">
+      <c r="C35">
         <v>333839</v>
       </c>
-      <c r="D29">
+      <c r="D35">
         <v>30018</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>16079</v>
       </c>
-      <c r="F29">
+      <c r="F35">
         <v>161155</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B30">
+      <c r="B36">
         <v>48947</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>335306</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <v>29963</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>16079</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>160284</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B31">
+      <c r="B37">
         <v>48946</v>
       </c>
-      <c r="C31">
+      <c r="C37">
         <v>335217</v>
       </c>
-      <c r="D31">
+      <c r="D37">
         <v>29443</v>
       </c>
-      <c r="E31">
+      <c r="E37">
         <v>16054</v>
       </c>
-      <c r="F31">
+      <c r="F37">
         <v>159960</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>48458</v>
       </c>
-      <c r="C32">
+      <c r="C38">
         <v>334621</v>
       </c>
-      <c r="D32">
+      <c r="D38">
         <v>29466</v>
       </c>
-      <c r="E32">
+      <c r="E38">
         <v>16054</v>
       </c>
-      <c r="F32">
+      <c r="F38">
         <v>159968</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B33">
+      <c r="B39">
         <v>48210</v>
       </c>
-      <c r="C33">
+      <c r="C39">
         <v>335880</v>
       </c>
-      <c r="D33">
+      <c r="D39">
         <v>29456</v>
       </c>
-      <c r="E33">
+      <c r="E39">
         <v>16054</v>
       </c>
-      <c r="F33">
+      <c r="F39">
         <v>159282</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B34">
+      <c r="B40">
         <v>48261</v>
       </c>
-      <c r="C34">
+      <c r="C40">
         <v>333961</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <v>29447</v>
       </c>
-      <c r="E34">
+      <c r="E40">
         <v>16053</v>
       </c>
-      <c r="F34">
+      <c r="F40">
         <v>158865</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B35">
+      <c r="B41">
         <v>48208</v>
       </c>
-      <c r="C35">
+      <c r="C41">
         <v>333078</v>
       </c>
-      <c r="D35">
+      <c r="D41">
         <v>29391</v>
       </c>
-      <c r="E35">
+      <c r="E41">
         <v>16051</v>
       </c>
-      <c r="F35">
+      <c r="F41">
         <v>158379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B36">
+      <c r="B42">
         <v>48527</v>
       </c>
-      <c r="C36">
+      <c r="C42">
         <v>332644</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <v>29344</v>
       </c>
-      <c r="E36">
+      <c r="E42">
         <v>16051</v>
       </c>
-      <c r="F36">
+      <c r="F42">
         <v>158783</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B37">
+      <c r="B43">
         <v>48515</v>
       </c>
-      <c r="C37">
+      <c r="C43">
         <v>331048</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <v>29341</v>
       </c>
-      <c r="E37">
+      <c r="E43">
         <v>16051</v>
       </c>
-      <c r="F37">
+      <c r="F43">
         <v>157895</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B38">
+      <c r="B44">
         <v>48536</v>
       </c>
-      <c r="C38">
+      <c r="C44">
         <v>329710</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <v>29291</v>
       </c>
-      <c r="E38">
+      <c r="E44">
         <v>16048</v>
       </c>
-      <c r="F38">
+      <c r="F44">
         <v>157083</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B39">
+      <c r="B45">
         <v>48510</v>
       </c>
-      <c r="C39">
+      <c r="C45">
         <v>328708</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <v>28676</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>16045</v>
       </c>
-      <c r="F39">
+      <c r="F45">
         <v>155953</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B40">
+      <c r="B46">
         <v>48350</v>
       </c>
-      <c r="C40">
+      <c r="C46">
         <v>327097</v>
       </c>
-      <c r="D40">
+      <c r="D46">
         <v>28361</v>
       </c>
-      <c r="E40">
+      <c r="E46">
         <v>16027</v>
       </c>
-      <c r="F40">
+      <c r="F46">
         <v>155293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B41">
+      <c r="B47">
         <v>48330</v>
       </c>
-      <c r="C41">
+      <c r="C47">
         <v>326066</v>
       </c>
-      <c r="D41">
+      <c r="D47">
         <v>27846</v>
       </c>
-      <c r="E41">
+      <c r="E47">
         <v>16025</v>
       </c>
-      <c r="F41">
+      <c r="F47">
         <v>154555</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B42">
+      <c r="B48">
         <v>48290</v>
       </c>
-      <c r="C42">
+      <c r="C48">
         <v>326325</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>27426</v>
       </c>
-      <c r="E42">
+      <c r="E48">
         <v>16024</v>
       </c>
-      <c r="F42">
+      <c r="F48">
         <v>153864</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B43">
+      <c r="B49">
         <v>48290</v>
       </c>
-      <c r="C43">
+      <c r="C49">
         <v>325885</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>27369</v>
       </c>
-      <c r="E43">
+      <c r="E49">
         <v>16006</v>
       </c>
-      <c r="F43">
+      <c r="F49">
         <v>152993</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B44">
+      <c r="B50">
         <v>48290</v>
       </c>
-      <c r="C44">
+      <c r="C50">
         <v>323301</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <v>27355</v>
       </c>
-      <c r="E44">
+      <c r="E50">
         <v>15982</v>
       </c>
-      <c r="F44">
+      <c r="F50">
         <v>152111</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B45">
+      <c r="B51">
         <v>48290</v>
       </c>
-      <c r="C45">
+      <c r="C51">
         <v>321020</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <v>27331</v>
       </c>
-      <c r="E45">
+      <c r="E51">
         <v>15975</v>
       </c>
-      <c r="F45">
+      <c r="F51">
         <v>151848</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B46">
+      <c r="B52">
         <v>48236</v>
       </c>
-      <c r="C46">
+      <c r="C52">
         <v>321618</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <v>26279</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <v>15958</v>
       </c>
-      <c r="F46">
+      <c r="F52">
         <v>150659</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B47">
+      <c r="B53">
         <v>48121</v>
       </c>
-      <c r="C47">
+      <c r="C53">
         <v>320154</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <v>26263</v>
       </c>
-      <c r="E47">
+      <c r="E53">
         <v>15955</v>
       </c>
-      <c r="F47">
+      <c r="F53">
         <v>150687</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B48">
+      <c r="B54">
         <v>47384</v>
       </c>
-      <c r="C48">
+      <c r="C54">
         <v>319320</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>26236</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>15950</v>
       </c>
-      <c r="F48">
+      <c r="F54">
         <v>149986</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B49">
+      <c r="B55">
         <v>46088</v>
       </c>
-      <c r="C49">
+      <c r="C55">
         <v>318933</v>
       </c>
-      <c r="D49">
+      <c r="D55">
         <v>26180</v>
       </c>
-      <c r="E49">
+      <c r="E55">
         <v>15944</v>
       </c>
-      <c r="F49">
+      <c r="F55">
         <v>149479</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B50">
+      <c r="B56">
         <v>45908</v>
       </c>
-      <c r="C50">
+      <c r="C56">
         <v>319160</v>
       </c>
-      <c r="D50">
+      <c r="D56">
         <v>26167</v>
       </c>
-      <c r="E50">
+      <c r="E56">
         <v>15922</v>
       </c>
-      <c r="F50">
+      <c r="F56">
         <v>149447</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B51">
+      <c r="B57">
         <v>45896</v>
       </c>
-      <c r="C51">
+      <c r="C57">
         <v>318241</v>
       </c>
-      <c r="D51">
+      <c r="D57">
         <v>26163</v>
       </c>
-      <c r="E51">
+      <c r="E57">
         <v>15918</v>
       </c>
-      <c r="F51">
+      <c r="F57">
         <v>149132</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B52">
+      <c r="B58">
         <v>44033</v>
       </c>
-      <c r="C52">
+      <c r="C58">
         <v>319486</v>
       </c>
-      <c r="D52">
+      <c r="D58">
         <v>22147</v>
       </c>
-      <c r="E52">
+      <c r="E58">
         <v>15913</v>
       </c>
-      <c r="F52">
+      <c r="F58">
         <v>147950</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B53">
+      <c r="B59">
         <v>43816</v>
       </c>
-      <c r="C53">
+      <c r="C59">
         <v>318476</v>
       </c>
-      <c r="D53">
+      <c r="D59">
         <v>22099</v>
       </c>
-      <c r="E53">
+      <c r="E59">
         <v>15913</v>
       </c>
-      <c r="F53">
+      <c r="F59">
         <v>147288</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B54">
+      <c r="B60">
         <v>43451</v>
       </c>
-      <c r="C54">
+      <c r="C60">
         <v>319974</v>
       </c>
-      <c r="D54">
+      <c r="D60">
         <v>22070</v>
       </c>
-      <c r="E54">
+      <c r="E60">
         <v>15831</v>
       </c>
-      <c r="F54">
+      <c r="F60">
         <v>147310</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B55">
+      <c r="B61">
         <v>42536</v>
       </c>
-      <c r="C55">
+      <c r="C61">
         <v>319363</v>
       </c>
-      <c r="D55">
+      <c r="D61">
         <v>22090</v>
       </c>
-      <c r="E55">
+      <c r="E61">
         <v>15797</v>
       </c>
-      <c r="F55">
+      <c r="F61">
         <v>146216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B56">
+      <c r="B62">
         <v>40059</v>
       </c>
-      <c r="C56">
+      <c r="C62">
         <v>320370</v>
       </c>
-      <c r="D56">
+      <c r="D62">
         <v>22093</v>
       </c>
-      <c r="E56">
+      <c r="E62">
         <v>15793</v>
       </c>
-      <c r="F56">
+      <c r="F62">
         <v>145781</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B57">
+      <c r="B63">
         <v>32534</v>
       </c>
-      <c r="C57">
+      <c r="C63">
         <v>322739</v>
       </c>
-      <c r="D57">
+      <c r="D63">
         <v>22106</v>
       </c>
-      <c r="E57">
+      <c r="E63">
         <v>15793</v>
       </c>
-      <c r="F57">
+      <c r="F63">
         <v>144874</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B58">
+      <c r="B64">
         <v>34154</v>
       </c>
-      <c r="C58">
+      <c r="C64">
         <v>321931</v>
       </c>
-      <c r="D58">
+      <c r="D64">
         <v>22111</v>
       </c>
-      <c r="E58">
+      <c r="E64">
         <v>15767</v>
       </c>
-      <c r="F58">
+      <c r="F64">
         <v>143864</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B59">
+      <c r="B65">
         <v>33248</v>
       </c>
-      <c r="C59">
+      <c r="C65">
         <v>324446</v>
       </c>
-      <c r="D59">
+      <c r="D65">
         <v>22093</v>
       </c>
-      <c r="E59">
+      <c r="E65">
         <v>15765</v>
       </c>
-      <c r="F59">
+      <c r="F65">
         <v>143661</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B60">
+      <c r="B66">
         <v>32748</v>
       </c>
-      <c r="C60">
+      <c r="C66">
         <v>324690</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <v>22083</v>
       </c>
-      <c r="E60">
+      <c r="E66">
         <v>15711</v>
       </c>
-      <c r="F60">
+      <c r="F66">
         <v>141607</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B61">
+      <c r="B67">
         <v>29868</v>
       </c>
-      <c r="C61">
+      <c r="C67">
         <v>325610</v>
       </c>
-      <c r="D61">
+      <c r="D67">
         <v>21978</v>
       </c>
-      <c r="E61">
+      <c r="E67">
         <v>15711</v>
       </c>
-      <c r="F61">
+      <c r="F67">
         <v>141254</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B62">
+      <c r="B68">
         <v>29755</v>
       </c>
-      <c r="C62">
+      <c r="C68">
         <v>324035</v>
       </c>
-      <c r="D62">
+      <c r="D68">
         <v>21941</v>
       </c>
-      <c r="E62">
+      <c r="E68">
         <v>15590</v>
       </c>
-      <c r="F62">
+      <c r="F68">
         <v>141078</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B63">
+      <c r="B69">
         <v>29755</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>325145</v>
       </c>
-      <c r="D63">
+      <c r="D69">
         <v>21924</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>15586</v>
       </c>
-      <c r="F63">
+      <c r="F69">
         <v>140266</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B64">
+      <c r="B70">
         <v>29945</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>323780</v>
       </c>
-      <c r="D64">
+      <c r="D70">
         <v>21902</v>
       </c>
-      <c r="E64">
+      <c r="E70">
         <v>15585</v>
       </c>
-      <c r="F64">
+      <c r="F70">
         <v>139680</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B65">
+      <c r="B71">
         <v>29788</v>
       </c>
-      <c r="C65">
+      <c r="C71">
         <v>323965</v>
       </c>
-      <c r="D65">
+      <c r="D71">
         <v>21895</v>
       </c>
-      <c r="E65">
+      <c r="E71">
         <v>15585</v>
       </c>
-      <c r="F65">
+      <c r="F71">
         <v>139317</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B66">
+      <c r="B72">
         <v>29786</v>
       </c>
-      <c r="C66">
+      <c r="C72">
         <v>324500</v>
       </c>
-      <c r="D66">
+      <c r="D72">
         <v>21872</v>
       </c>
-      <c r="E66">
+      <c r="E72">
         <v>15580</v>
       </c>
-      <c r="F66">
+      <c r="F72">
         <v>139012</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B67">
+      <c r="B73">
         <v>29802</v>
       </c>
-      <c r="C67">
+      <c r="C73">
         <v>322494</v>
       </c>
-      <c r="D67">
+      <c r="D73">
         <v>21864</v>
       </c>
-      <c r="E67">
+      <c r="E73">
         <v>15492</v>
       </c>
-      <c r="F67">
+      <c r="F73">
         <v>138712</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B68">
+      <c r="B74">
         <v>29807</v>
       </c>
-      <c r="C68">
+      <c r="C74">
         <v>320699</v>
       </c>
-      <c r="D68">
+      <c r="D74">
         <v>21824</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <v>15492</v>
       </c>
-      <c r="F68">
+      <c r="F74">
         <v>137682</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B69">
+      <c r="B75">
         <v>29507</v>
       </c>
-      <c r="C69">
+      <c r="C75">
         <v>320734</v>
       </c>
-      <c r="D69">
+      <c r="D75">
         <v>21788</v>
       </c>
-      <c r="E69">
+      <c r="E75">
         <v>15489</v>
       </c>
-      <c r="F69">
+      <c r="F75">
         <v>135467</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B70">
+      <c r="B76">
         <v>29495</v>
       </c>
-      <c r="C70">
+      <c r="C76">
         <v>321022</v>
       </c>
-      <c r="D70">
+      <c r="D76">
         <v>21780</v>
       </c>
-      <c r="E70">
+      <c r="E76">
         <v>15489</v>
       </c>
-      <c r="F70">
+      <c r="F76">
         <v>135063</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B71">
+      <c r="B77">
         <v>29495</v>
       </c>
-      <c r="C71">
+      <c r="C77">
         <v>321194</v>
       </c>
-      <c r="D71">
+      <c r="D77">
         <v>21775</v>
       </c>
-      <c r="E71">
+      <c r="E77">
         <v>15489</v>
       </c>
-      <c r="F71">
+      <c r="F77">
         <v>134947</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B72">
+      <c r="B78">
         <v>28625</v>
       </c>
-      <c r="C72">
+      <c r="C78">
         <v>320187</v>
       </c>
-      <c r="D72">
+      <c r="D78">
         <v>21522</v>
       </c>
-      <c r="E72">
+      <c r="E78">
         <v>15439</v>
       </c>
-      <c r="F72">
+      <c r="F78">
         <v>134377</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B73">
+      <c r="B79">
         <v>28625</v>
       </c>
-      <c r="C73">
+      <c r="C79">
         <v>319824</v>
       </c>
-      <c r="D73">
+      <c r="D79">
         <v>21515</v>
       </c>
-      <c r="E73">
+      <c r="E79">
         <v>15436</v>
       </c>
-      <c r="F73">
+      <c r="F79">
         <v>134162</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B74">
+      <c r="B80">
         <v>28625</v>
       </c>
-      <c r="C74">
+      <c r="C80">
         <v>317426</v>
       </c>
-      <c r="D74">
+      <c r="D80">
         <v>21513</v>
       </c>
-      <c r="E74">
+      <c r="E80">
         <v>15431</v>
       </c>
-      <c r="F74">
+      <c r="F80">
         <v>134076</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B75">
+      <c r="B81">
         <v>28625</v>
       </c>
-      <c r="C75">
+      <c r="C81">
         <v>317555</v>
       </c>
-      <c r="D75">
+      <c r="D81">
         <v>21513</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>15428</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>134058</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B76">
+      <c r="B82">
         <v>26625</v>
       </c>
-      <c r="C76">
+      <c r="C82">
         <v>320491</v>
       </c>
-      <c r="D76">
+      <c r="D82">
         <v>21498</v>
       </c>
-      <c r="E76">
+      <c r="E82">
         <v>15425</v>
       </c>
-      <c r="F76">
+      <c r="F82">
         <v>134450</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B77">
+      <c r="B83">
         <v>26367</v>
       </c>
-      <c r="C77">
+      <c r="C83">
         <v>320932</v>
       </c>
-      <c r="D77">
+      <c r="D83">
         <v>21499</v>
       </c>
-      <c r="E77">
+      <c r="E83">
         <v>15314</v>
       </c>
-      <c r="F77">
+      <c r="F83">
         <v>133557</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B78">
+      <c r="B84">
         <v>26367</v>
       </c>
-      <c r="C78">
+      <c r="C84">
         <v>318101</v>
       </c>
-      <c r="D78">
+      <c r="D84">
         <v>21483</v>
       </c>
-      <c r="E78">
+      <c r="E84">
         <v>15311</v>
       </c>
-      <c r="F78">
+      <c r="F84">
         <v>131923</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B79">
+      <c r="B85">
         <v>26217</v>
       </c>
-      <c r="C79">
+      <c r="C85">
         <v>316769</v>
       </c>
-      <c r="D79">
+      <c r="D85">
         <v>21445</v>
       </c>
-      <c r="E79">
+      <c r="E85">
         <v>15301</v>
       </c>
-      <c r="F79">
+      <c r="F85">
         <v>131071</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B80">
+      <c r="B86">
         <v>26217</v>
       </c>
-      <c r="C80">
+      <c r="C86">
         <v>317448</v>
       </c>
-      <c r="D80">
+      <c r="D86">
         <v>21403</v>
       </c>
-      <c r="E80">
+      <c r="E86">
         <v>15301</v>
       </c>
-      <c r="F80">
+      <c r="F86">
         <v>131000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B81">
+      <c r="B87">
         <v>26217</v>
       </c>
-      <c r="C81">
+      <c r="C87">
         <v>318727</v>
       </c>
-      <c r="D81">
+      <c r="D87">
         <v>21398</v>
       </c>
-      <c r="E81">
+      <c r="E87">
         <v>15293</v>
       </c>
-      <c r="F81">
+      <c r="F87">
         <v>130192</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B82">
+      <c r="B88">
         <v>26217</v>
       </c>
-      <c r="C82">
+      <c r="C88">
         <v>318115</v>
       </c>
-      <c r="D82">
+      <c r="D88">
         <v>21391</v>
       </c>
-      <c r="E82">
+      <c r="E88">
         <v>15279</v>
       </c>
-      <c r="F82">
+      <c r="F88">
         <v>130222</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B83">
+      <c r="B89">
         <v>26217</v>
       </c>
-      <c r="C83">
+      <c r="C89">
         <v>317798</v>
       </c>
-      <c r="D83">
+      <c r="D89">
         <v>21368</v>
       </c>
-      <c r="E83">
+      <c r="E89">
         <v>15251</v>
       </c>
-      <c r="F83">
+      <c r="F89">
         <v>130033</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B84">
+      <c r="B90">
         <v>26217</v>
       </c>
-      <c r="C84">
+      <c r="C90">
         <v>316698</v>
       </c>
-      <c r="D84">
+      <c r="D90">
         <v>21361</v>
       </c>
-      <c r="E84">
+      <c r="E90">
         <v>15248</v>
       </c>
-      <c r="F84">
+      <c r="F90">
         <v>129719</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B85">
+      <c r="B91">
         <v>26217</v>
       </c>
-      <c r="C85">
+      <c r="C91">
         <v>317705</v>
       </c>
-      <c r="D85">
+      <c r="D91">
         <v>21349</v>
       </c>
-      <c r="E85">
+      <c r="E91">
         <v>15234</v>
       </c>
-      <c r="F85">
+      <c r="F91">
         <v>126662</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B86">
+      <c r="B92">
         <v>25937</v>
       </c>
-      <c r="C86">
+      <c r="C92">
         <v>317478</v>
       </c>
-      <c r="D86">
+      <c r="D92">
         <v>21328</v>
       </c>
-      <c r="E86">
+      <c r="E92">
         <v>15234</v>
       </c>
-      <c r="F86">
+      <c r="F92">
         <v>126329</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B87">
+      <c r="B93">
         <v>25938</v>
       </c>
-      <c r="C87">
+      <c r="C93">
         <v>318806</v>
       </c>
-      <c r="D87">
+      <c r="D93">
         <v>21321</v>
       </c>
-      <c r="E87">
+      <c r="E93">
         <v>15229</v>
       </c>
-      <c r="F87">
+      <c r="F93">
         <v>126269</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B88">
+      <c r="B94">
         <v>25926</v>
       </c>
-      <c r="C88">
+      <c r="C94">
         <v>318809</v>
       </c>
-      <c r="D88">
+      <c r="D94">
         <v>21275</v>
       </c>
-      <c r="E88">
+      <c r="E94">
         <v>15118</v>
       </c>
-      <c r="F88">
+      <c r="F94">
         <v>126146</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B89">
+      <c r="B95">
         <v>25926</v>
       </c>
-      <c r="C89">
+      <c r="C95">
         <v>322318</v>
       </c>
-      <c r="D89">
+      <c r="D95">
         <v>21275</v>
       </c>
-      <c r="E89">
+      <c r="E95">
         <v>15109</v>
       </c>
-      <c r="F89">
+      <c r="F95">
         <v>125191</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B90">
+      <c r="B96">
         <v>25926</v>
       </c>
-      <c r="C90">
+      <c r="C96">
         <v>323552</v>
       </c>
-      <c r="D90">
+      <c r="D96">
         <v>21277</v>
       </c>
-      <c r="E90">
+      <c r="E96">
         <v>15059</v>
       </c>
-      <c r="F90">
+      <c r="F96">
         <v>124559</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B91">
+      <c r="B97">
         <v>25675</v>
       </c>
-      <c r="C91">
+      <c r="C97">
         <v>324400</v>
       </c>
-      <c r="D91">
+      <c r="D97">
         <v>21262</v>
       </c>
-      <c r="E91">
+      <c r="E97">
         <v>15056</v>
       </c>
-      <c r="F91">
+      <c r="F97">
         <v>123029</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B92">
+      <c r="B98">
         <v>25675</v>
       </c>
-      <c r="C92">
+      <c r="C98">
         <v>325047</v>
       </c>
-      <c r="D92">
+      <c r="D98">
         <v>21413</v>
       </c>
-      <c r="E92">
+      <c r="E98">
         <v>15041</v>
       </c>
-      <c r="F92">
+      <c r="F98">
         <v>122900</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B93">
+      <c r="B99">
         <v>24625</v>
       </c>
-      <c r="C93">
+      <c r="C99">
         <v>328301</v>
       </c>
-      <c r="D93">
+      <c r="D99">
         <v>21423</v>
       </c>
-      <c r="E93">
+      <c r="E99">
         <v>15008</v>
       </c>
-      <c r="F93">
+      <c r="F99">
         <v>122781</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B94">
+      <c r="B100">
         <v>24626</v>
       </c>
-      <c r="C94">
+      <c r="C100">
         <v>327642</v>
       </c>
-      <c r="D94">
+      <c r="D100">
         <v>21415</v>
       </c>
-      <c r="E94">
+      <c r="E100">
         <v>15003</v>
       </c>
-      <c r="F94">
+      <c r="F100">
         <v>122489</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B95">
+      <c r="B101">
         <v>24626</v>
       </c>
-      <c r="C95">
+      <c r="C101">
         <v>327584</v>
       </c>
-      <c r="D95">
+      <c r="D101">
         <v>21413</v>
       </c>
-      <c r="E95">
+      <c r="E101">
         <v>14988</v>
       </c>
-      <c r="F95">
+      <c r="F101">
         <v>122317</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B96">
+      <c r="B102">
         <v>24626</v>
       </c>
-      <c r="C96">
+      <c r="C102">
         <v>328038</v>
       </c>
-      <c r="D96">
+      <c r="D102">
         <v>21411</v>
       </c>
-      <c r="E96">
+      <c r="E102">
         <v>14988</v>
       </c>
-      <c r="F96">
+      <c r="F102">
         <v>122490</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B97">
+      <c r="B103">
         <v>24626</v>
       </c>
-      <c r="C97">
+      <c r="C103">
         <v>329167</v>
       </c>
-      <c r="D97">
+      <c r="D103">
         <v>21411</v>
       </c>
-      <c r="E97">
+      <c r="E103">
         <v>14988</v>
       </c>
-      <c r="F97">
+      <c r="F103">
         <v>122383</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B98">
+      <c r="B104">
         <v>24626</v>
       </c>
-      <c r="C98">
+      <c r="C104">
         <v>331622</v>
       </c>
-      <c r="D98">
+      <c r="D104">
         <v>21411</v>
       </c>
-      <c r="E98">
+      <c r="E104">
         <v>14985</v>
       </c>
-      <c r="F98">
+      <c r="F104">
         <v>122385</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B99">
+      <c r="B105">
         <v>24625</v>
       </c>
-      <c r="C99">
+      <c r="C105">
         <v>328527</v>
       </c>
-      <c r="D99">
+      <c r="D105">
         <v>21402</v>
       </c>
-      <c r="E99">
+      <c r="E105">
         <v>14985</v>
       </c>
-      <c r="F99">
+      <c r="F105">
         <v>122362</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B100">
+      <c r="B106">
         <v>24624</v>
       </c>
-      <c r="C100">
+      <c r="C106">
         <v>328566</v>
       </c>
-      <c r="D100">
+      <c r="D106">
         <v>21395</v>
       </c>
-      <c r="E100">
+      <c r="E106">
         <v>14981</v>
       </c>
-      <c r="F100">
+      <c r="F106">
         <v>122041</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B101">
+      <c r="B107">
         <v>24624</v>
       </c>
-      <c r="C101">
+      <c r="C107">
         <v>328740</v>
       </c>
-      <c r="D101">
+      <c r="D107">
         <v>21395</v>
       </c>
-      <c r="E101">
+      <c r="E107">
         <v>14981</v>
       </c>
-      <c r="F101">
+      <c r="F107">
         <v>121644</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B102">
+      <c r="B108">
         <v>24624</v>
       </c>
-      <c r="C102">
+      <c r="C108">
         <v>328807</v>
       </c>
-      <c r="D102">
+      <c r="D108">
         <v>21388</v>
       </c>
-      <c r="E102">
+      <c r="E108">
         <v>14981</v>
       </c>
-      <c r="F102">
+      <c r="F108">
         <v>120938</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B103">
+      <c r="B109">
         <v>24524</v>
       </c>
-      <c r="C103">
+      <c r="C109">
         <v>329625</v>
       </c>
-      <c r="D103">
+      <c r="D109">
         <v>21288</v>
       </c>
-      <c r="E103">
+      <c r="E109">
         <v>14981</v>
       </c>
-      <c r="F103">
+      <c r="F109">
         <v>120854</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B104">
+      <c r="B110">
         <v>24524</v>
       </c>
-      <c r="C104">
+      <c r="C110">
         <v>328126</v>
       </c>
-      <c r="D104">
+      <c r="D110">
         <v>21270</v>
       </c>
-      <c r="E104">
+      <c r="E110">
         <v>14936</v>
       </c>
-      <c r="F104">
+      <c r="F110">
         <v>119789</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B105">
+      <c r="B111">
         <v>24524</v>
       </c>
-      <c r="C105">
+      <c r="C111">
         <v>328130</v>
       </c>
-      <c r="D105">
+      <c r="D111">
         <v>21270</v>
       </c>
-      <c r="E105">
+      <c r="E111">
         <v>14936</v>
       </c>
-      <c r="F105">
+      <c r="F111">
         <v>119789</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B106">
+      <c r="B112">
         <v>24523</v>
       </c>
-      <c r="C106">
+      <c r="C112">
         <v>327733</v>
       </c>
-      <c r="D106">
+      <c r="D112">
         <v>21243</v>
       </c>
-      <c r="E106">
+      <c r="E112">
         <v>14901</v>
       </c>
-      <c r="F106">
+      <c r="F112">
         <v>119296</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B107">
+      <c r="B113">
         <v>24322</v>
       </c>
-      <c r="C107">
+      <c r="C113">
         <v>328550</v>
       </c>
-      <c r="D107">
+      <c r="D113">
         <v>21229</v>
       </c>
-      <c r="E107">
+      <c r="E113">
         <v>14880</v>
       </c>
-      <c r="F107">
+      <c r="F113">
         <v>118373</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B108">
+      <c r="B114">
         <v>24271</v>
       </c>
-      <c r="C108">
+      <c r="C114">
         <v>327744</v>
       </c>
-      <c r="D108">
+      <c r="D114">
         <v>21201</v>
       </c>
-      <c r="E108">
+      <c r="E114">
         <v>14871</v>
       </c>
-      <c r="F108">
+      <c r="F114">
         <v>117664</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B109">
+      <c r="B115">
         <v>24271</v>
       </c>
-      <c r="C109">
+      <c r="C115">
         <v>328218</v>
       </c>
-      <c r="D109">
+      <c r="D115">
         <v>21166</v>
       </c>
-      <c r="E109">
+      <c r="E115">
         <v>14871</v>
       </c>
-      <c r="F109">
+      <c r="F115">
         <v>117150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B110">
+      <c r="B116">
         <v>24264</v>
       </c>
-      <c r="C110">
+      <c r="C116">
         <v>328856</v>
       </c>
-      <c r="D110">
+      <c r="D116">
         <v>21150</v>
       </c>
-      <c r="E110">
+      <c r="E116">
         <v>14871</v>
       </c>
-      <c r="F110">
+      <c r="F116">
         <v>115703</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B111">
+      <c r="B117">
         <v>24263</v>
       </c>
-      <c r="C111">
+      <c r="C117">
         <v>329497</v>
       </c>
-      <c r="D111">
+      <c r="D117">
         <v>21076</v>
       </c>
-      <c r="E111">
+      <c r="E117">
         <v>14850</v>
       </c>
-      <c r="F111">
+      <c r="F117">
         <v>115523</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B112">
+      <c r="B118">
         <v>24263</v>
       </c>
-      <c r="C112">
+      <c r="C118">
         <v>329531</v>
       </c>
-      <c r="D112">
+      <c r="D118">
         <v>21035</v>
       </c>
-      <c r="E112">
+      <c r="E118">
         <v>14649</v>
       </c>
-      <c r="F112">
+      <c r="F118">
         <v>112870</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B113">
+      <c r="B119">
         <v>24262</v>
       </c>
-      <c r="C113">
+      <c r="C119">
         <v>330726</v>
       </c>
-      <c r="D113">
+      <c r="D119">
         <v>21023</v>
       </c>
-      <c r="E113">
+      <c r="E119">
         <v>14649</v>
       </c>
-      <c r="F113">
+      <c r="F119">
         <v>110491</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B114">
+      <c r="B120">
         <v>24260</v>
       </c>
-      <c r="C114">
+      <c r="C120">
         <v>331383</v>
       </c>
-      <c r="D114">
+      <c r="D120">
         <v>18009</v>
       </c>
-      <c r="E114">
+      <c r="E120">
         <v>14563</v>
       </c>
-      <c r="F114">
+      <c r="F120">
         <v>109106</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B115">
+      <c r="B121">
         <v>24089</v>
       </c>
-      <c r="C115">
+      <c r="C121">
         <v>336361</v>
       </c>
-      <c r="D115">
+      <c r="D121">
         <v>17980</v>
       </c>
-      <c r="E115">
+      <c r="E121">
         <v>14421</v>
       </c>
-      <c r="F115">
+      <c r="F121">
         <v>106135</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B116">
+      <c r="B122">
         <v>23788</v>
       </c>
-      <c r="C116">
+      <c r="C122">
         <v>336480</v>
       </c>
-      <c r="D116">
+      <c r="D122">
         <v>17969</v>
       </c>
-      <c r="E116">
+      <c r="E122">
         <v>14295</v>
       </c>
-      <c r="F116">
+      <c r="F122">
         <v>103490</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B117">
+      <c r="B123">
         <v>23786</v>
       </c>
-      <c r="C117">
+      <c r="C123">
         <v>333401</v>
       </c>
-      <c r="D117">
+      <c r="D123">
         <v>17964</v>
       </c>
-      <c r="E117">
+      <c r="E123">
         <v>14295</v>
       </c>
-      <c r="F117">
+      <c r="F123">
         <v>103879</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B118">
+      <c r="B124">
         <v>23786</v>
       </c>
-      <c r="C118">
+      <c r="C124">
         <v>330277</v>
       </c>
-      <c r="D118">
+      <c r="D124">
         <v>17949</v>
       </c>
-      <c r="E118">
+      <c r="E124">
         <v>14295</v>
       </c>
-      <c r="F118">
+      <c r="F124">
         <v>104263</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B119">
+      <c r="B125">
         <v>23636</v>
       </c>
-      <c r="C119">
+      <c r="C125">
         <v>330548</v>
       </c>
-      <c r="D119">
+      <c r="D125">
         <v>17930</v>
       </c>
-      <c r="E119">
+      <c r="E125">
         <v>14236</v>
       </c>
-      <c r="F119">
+      <c r="F125">
         <v>103844</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B120">
+      <c r="B126">
         <v>23596</v>
       </c>
-      <c r="C120">
+      <c r="C126">
         <v>330741</v>
       </c>
-      <c r="D120">
+      <c r="D126">
         <v>17927</v>
       </c>
-      <c r="E120">
+      <c r="E126">
         <v>13036</v>
       </c>
-      <c r="F120">
+      <c r="F126">
         <v>103166</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B121">
+      <c r="B127">
         <v>22815</v>
       </c>
-      <c r="C121">
+      <c r="C127">
         <v>331610</v>
       </c>
-      <c r="D121">
+      <c r="D127">
         <v>17896</v>
       </c>
-      <c r="E121">
+      <c r="E127">
         <v>12961</v>
       </c>
-      <c r="F121">
+      <c r="F127">
         <v>102355</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B122">
+      <c r="B128">
         <v>23019</v>
       </c>
-      <c r="C122">
+      <c r="C128">
         <v>331662</v>
       </c>
-      <c r="D122">
+      <c r="D128">
         <v>17893</v>
       </c>
-      <c r="E122">
+      <c r="E128">
         <v>12961</v>
       </c>
-      <c r="F122">
+      <c r="F128">
         <v>101579</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B123">
+      <c r="B129">
         <v>23018</v>
       </c>
-      <c r="C123">
+      <c r="C129">
         <v>330494</v>
       </c>
-      <c r="D123">
+      <c r="D129">
         <v>17891</v>
       </c>
-      <c r="E123">
+      <c r="E129">
         <v>12957</v>
       </c>
-      <c r="F123">
+      <c r="F129">
         <v>101084</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B124">
+      <c r="B130">
         <v>23018</v>
       </c>
-      <c r="C124">
+      <c r="C130">
         <v>330421</v>
       </c>
-      <c r="D124">
+      <c r="D130">
         <v>17876</v>
       </c>
-      <c r="E124">
+      <c r="E130">
         <v>12951</v>
       </c>
-      <c r="F124">
+      <c r="F130">
         <v>101012</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B125">
+      <c r="B131">
         <v>23016</v>
       </c>
-      <c r="C125">
+      <c r="C131">
         <v>329253</v>
       </c>
-      <c r="D125">
+      <c r="D131">
         <v>17841</v>
       </c>
-      <c r="E125">
+      <c r="E131">
         <v>10931</v>
       </c>
-      <c r="F125">
+      <c r="F131">
         <v>99097</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B126">
+      <c r="B132">
         <v>22777</v>
       </c>
-      <c r="C126">
+      <c r="C132">
         <v>328614</v>
       </c>
-      <c r="D126">
+      <c r="D132">
         <v>17829</v>
       </c>
-      <c r="E126">
+      <c r="E132">
         <v>10911</v>
       </c>
-      <c r="F126">
+      <c r="F132">
         <v>98997</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B127">
+      <c r="B133">
         <v>23980</v>
       </c>
-      <c r="C127">
+      <c r="C133">
         <v>326310</v>
       </c>
-      <c r="D127">
+      <c r="D133">
         <v>17718</v>
       </c>
-      <c r="E127">
+      <c r="E133">
         <v>10911</v>
       </c>
-      <c r="F127">
+      <c r="F133">
         <v>98845</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B128">
+      <c r="B134">
         <v>23980</v>
       </c>
-      <c r="C128">
+      <c r="C134">
         <v>322939</v>
       </c>
-      <c r="D128">
+      <c r="D134">
         <v>17707</v>
       </c>
-      <c r="E128">
+      <c r="E134">
         <v>10899</v>
       </c>
-      <c r="F128">
+      <c r="F134">
         <v>97897</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B129">
+      <c r="B135">
         <v>23980</v>
       </c>
-      <c r="C129">
+      <c r="C135">
         <v>322745</v>
       </c>
-      <c r="D129">
+      <c r="D135">
         <v>17684</v>
       </c>
-      <c r="E129">
+      <c r="E135">
         <v>10752</v>
       </c>
-      <c r="F129">
+      <c r="F135">
         <v>97621</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B130">
+      <c r="B136">
         <v>23980</v>
       </c>
-      <c r="C130">
+      <c r="C136">
         <v>321147</v>
       </c>
-      <c r="D130">
+      <c r="D136">
         <v>17672</v>
       </c>
-      <c r="E130">
+      <c r="E136">
         <v>10750</v>
       </c>
-      <c r="F130">
+      <c r="F136">
         <v>96935</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B131">
+      <c r="B137">
         <v>23979</v>
       </c>
-      <c r="C131">
+      <c r="C137">
         <v>320702</v>
       </c>
-      <c r="D131">
+      <c r="D137">
         <v>17649</v>
       </c>
-      <c r="E131">
+      <c r="E137">
         <v>10740</v>
       </c>
-      <c r="F131">
+      <c r="F137">
         <v>96699</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B132">
+      <c r="B138">
         <v>23979</v>
       </c>
-      <c r="C132">
+      <c r="C138">
         <v>319989</v>
       </c>
-      <c r="D132">
+      <c r="D138">
         <v>17640</v>
       </c>
-      <c r="E132">
+      <c r="E138">
         <v>10702</v>
       </c>
-      <c r="F132">
+      <c r="F138">
         <v>96079</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B133">
+      <c r="B139">
         <v>23979</v>
       </c>
-      <c r="C133">
+      <c r="C139">
         <v>318886</v>
       </c>
-      <c r="D133">
+      <c r="D139">
         <v>17611</v>
       </c>
-      <c r="E133">
+      <c r="E139">
         <v>10592</v>
       </c>
-      <c r="F133">
+      <c r="F139">
         <v>96005</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B134">
+      <c r="B140">
         <v>23978</v>
       </c>
-      <c r="C134">
+      <c r="C140">
         <v>313127</v>
       </c>
-      <c r="D134">
+      <c r="D140">
         <v>17610</v>
       </c>
-      <c r="E134">
+      <c r="E140">
         <v>10582</v>
       </c>
-      <c r="F134">
+      <c r="F140">
         <v>95323</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B135">
+      <c r="B141">
         <v>23978</v>
       </c>
-      <c r="C135">
+      <c r="C141">
         <v>312131</v>
       </c>
-      <c r="D135">
+      <c r="D141">
         <v>17582</v>
       </c>
-      <c r="E135">
+      <c r="E141">
         <v>10532</v>
       </c>
-      <c r="F135">
+      <c r="F141">
         <v>94431</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B136">
+      <c r="B142">
         <v>23777</v>
       </c>
-      <c r="C136">
+      <c r="C142">
         <v>309971</v>
       </c>
-      <c r="D136">
+      <c r="D142">
         <v>17570</v>
       </c>
-      <c r="E136">
+      <c r="E142">
         <v>10392</v>
       </c>
-      <c r="F136">
+      <c r="F142">
         <v>95612</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B137">
+      <c r="B143">
         <v>23422</v>
       </c>
-      <c r="C137">
+      <c r="C143">
         <v>309732</v>
       </c>
-      <c r="D137">
+      <c r="D143">
         <v>17548</v>
       </c>
-      <c r="E137">
+      <c r="E143">
         <v>10340</v>
       </c>
-      <c r="F137">
+      <c r="F143">
         <v>94215</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B138">
+      <c r="B144">
         <v>23423</v>
       </c>
-      <c r="C138">
+      <c r="C144">
         <v>306181</v>
       </c>
-      <c r="D138">
+      <c r="D144">
         <v>17445</v>
       </c>
-      <c r="E138">
+      <c r="E144">
         <v>10264</v>
       </c>
-      <c r="F138">
+      <c r="F144">
         <v>93953</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B139">
+      <c r="B145">
         <v>23423</v>
       </c>
-      <c r="C139">
+      <c r="C145">
         <v>305033</v>
       </c>
-      <c r="D139">
+      <c r="D145">
         <v>17430</v>
       </c>
-      <c r="E139">
+      <c r="E145">
         <v>10264</v>
       </c>
-      <c r="F139">
+      <c r="F145">
         <v>93776</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B140">
+      <c r="B146">
         <v>23622</v>
       </c>
-      <c r="C140">
+      <c r="C146">
         <v>306175</v>
       </c>
-      <c r="D140">
+      <c r="D146">
         <v>17423</v>
       </c>
-      <c r="E140">
+      <c r="E146">
         <v>10267</v>
       </c>
-      <c r="F140">
+      <c r="F146">
         <v>93019</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B141">
+      <c r="B147">
         <v>22447</v>
       </c>
-      <c r="C141">
+      <c r="C147">
         <v>307467</v>
       </c>
-      <c r="D141">
+      <c r="D147">
         <v>17423</v>
       </c>
-      <c r="E141">
+      <c r="E147">
         <v>10267</v>
       </c>
-      <c r="F141">
+      <c r="F147">
         <v>92972</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B142">
+      <c r="B148">
         <v>22447</v>
       </c>
-      <c r="C142">
+      <c r="C148">
         <v>308138</v>
       </c>
-      <c r="D142">
+      <c r="D148">
         <v>17423</v>
       </c>
-      <c r="E142">
+      <c r="E148">
         <v>10194</v>
       </c>
-      <c r="F142">
+      <c r="F148">
         <v>92280</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B143">
+      <c r="B149">
         <v>22396</v>
       </c>
-      <c r="C143">
+      <c r="C149">
         <v>307865</v>
       </c>
-      <c r="D143">
+      <c r="D149">
         <v>17404</v>
       </c>
-      <c r="E143">
+      <c r="E149">
         <v>10144</v>
       </c>
-      <c r="F143">
+      <c r="F149">
         <v>92631</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B144">
+      <c r="B150">
         <v>22395</v>
       </c>
-      <c r="C144">
+      <c r="C150">
         <v>309194</v>
       </c>
-      <c r="D144">
+      <c r="D150">
         <v>17387</v>
       </c>
-      <c r="E144">
+      <c r="E150">
         <v>10094</v>
       </c>
-      <c r="F144">
+      <c r="F150">
         <v>92714</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B145">
+      <c r="B151">
         <v>22395</v>
       </c>
-      <c r="C145">
+      <c r="C151">
         <v>309737</v>
       </c>
-      <c r="D145">
+      <c r="D151">
         <v>17373</v>
       </c>
-      <c r="E145">
+      <c r="E151">
         <v>10094</v>
       </c>
-      <c r="F145">
+      <c r="F151">
         <v>92274</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B146">
+      <c r="B152">
         <v>22454</v>
       </c>
-      <c r="C146">
+      <c r="C152">
         <v>309342</v>
       </c>
-      <c r="D146">
+      <c r="D152">
         <v>17333</v>
       </c>
-      <c r="E146">
+      <c r="E152">
         <v>10094</v>
       </c>
-      <c r="F146">
+      <c r="F152">
         <v>91041</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B147">
+      <c r="B153">
         <v>22454</v>
       </c>
-      <c r="C147">
+      <c r="C153">
         <v>310867</v>
       </c>
-      <c r="D147">
+      <c r="D153">
         <v>17303</v>
       </c>
-      <c r="E147">
+      <c r="E153">
         <v>10092</v>
       </c>
-      <c r="F147">
+      <c r="F153">
         <v>90882</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B148">
+      <c r="B154">
         <v>22454</v>
       </c>
-      <c r="C148">
+      <c r="C154">
         <v>313288</v>
       </c>
-      <c r="D148">
+      <c r="D154">
         <v>17292</v>
       </c>
-      <c r="E148">
+      <c r="E154">
         <v>10092</v>
       </c>
-      <c r="F148">
+      <c r="F154">
         <v>90577</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B149">
+      <c r="B155">
         <v>22454</v>
       </c>
-      <c r="C149">
+      <c r="C155">
         <v>313285</v>
       </c>
-      <c r="D149">
+      <c r="D155">
         <v>17264</v>
       </c>
-      <c r="E149">
+      <c r="E155">
         <v>10091</v>
       </c>
-      <c r="F149">
+      <c r="F155">
         <v>90074</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B150">
+      <c r="B156">
         <v>22454</v>
       </c>
-      <c r="C150">
+      <c r="C156">
         <v>313902</v>
       </c>
-      <c r="D150">
+      <c r="D156">
         <v>17185</v>
       </c>
-      <c r="E150">
+      <c r="E156">
         <v>10088</v>
       </c>
-      <c r="F150">
+      <c r="F156">
         <v>89936</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B151">
+      <c r="B157">
         <v>22454</v>
       </c>
-      <c r="C151">
+      <c r="C157">
         <v>314720</v>
       </c>
-      <c r="D151">
+      <c r="D157">
         <v>17151</v>
       </c>
-      <c r="E151">
+      <c r="E157">
         <v>10076</v>
       </c>
-      <c r="F151">
+      <c r="F157">
         <v>89949</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B152">
+      <c r="B158">
         <v>22454</v>
       </c>
-      <c r="C152">
+      <c r="C158">
         <v>312360</v>
       </c>
-      <c r="D152">
+      <c r="D158">
         <v>17120</v>
       </c>
-      <c r="E152">
+      <c r="E158">
         <v>10076</v>
       </c>
-      <c r="F152">
+      <c r="F158">
         <v>89281</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B153">
+      <c r="B159">
         <v>22454</v>
       </c>
-      <c r="C153">
+      <c r="C159">
         <v>309021</v>
       </c>
-      <c r="D153">
+      <c r="D159">
         <v>17116</v>
       </c>
-      <c r="E153">
+      <c r="E159">
         <v>10076</v>
       </c>
-      <c r="F153">
+      <c r="F159">
         <v>88826</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B154">
+      <c r="B160">
         <v>22454</v>
       </c>
-      <c r="C154">
+      <c r="C160">
         <v>307153</v>
       </c>
-      <c r="D154">
+      <c r="D160">
         <v>17082</v>
       </c>
-      <c r="E154">
+      <c r="E160">
         <v>9849</v>
       </c>
-      <c r="F154">
+      <c r="F160">
         <v>88632</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B155">
+      <c r="B161">
         <v>22454</v>
       </c>
-      <c r="C155">
+      <c r="C161">
         <v>307136</v>
       </c>
-      <c r="D155">
+      <c r="D161">
         <v>17072</v>
       </c>
-      <c r="E155">
+      <c r="E161">
         <v>9839</v>
       </c>
-      <c r="F155">
+      <c r="F161">
         <v>88066</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B156">
+      <c r="B162">
         <v>22454</v>
       </c>
-      <c r="C156">
+      <c r="C162">
         <v>302392</v>
       </c>
-      <c r="D156">
+      <c r="D162">
         <v>17072</v>
       </c>
-      <c r="E156">
+      <c r="E162">
         <v>9839</v>
       </c>
-      <c r="F156">
+      <c r="F162">
         <v>87813</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B157">
+      <c r="B163">
         <v>22453</v>
       </c>
-      <c r="C157">
+      <c r="C163">
         <v>300191</v>
       </c>
-      <c r="D157">
+      <c r="D163">
         <v>17067</v>
       </c>
-      <c r="E157">
+      <c r="E163">
         <v>9824</v>
       </c>
-      <c r="F157">
+      <c r="F163">
         <v>87753</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B158">
+      <c r="B164">
         <v>22453</v>
       </c>
-      <c r="C158">
+      <c r="C164">
         <v>299817</v>
       </c>
-      <c r="D158">
+      <c r="D164">
         <v>17057</v>
       </c>
-      <c r="E158">
+      <c r="E164">
         <v>9824</v>
       </c>
-      <c r="F158">
+      <c r="F164">
         <v>86175</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B159">
+      <c r="B165">
         <v>22453</v>
       </c>
-      <c r="C159">
+      <c r="C165">
         <v>298024</v>
       </c>
-      <c r="D159">
+      <c r="D165">
         <v>16895</v>
       </c>
-      <c r="E159">
+      <c r="E165">
         <v>9657</v>
       </c>
-      <c r="F159">
+      <c r="F165">
         <v>85765</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B160">
+      <c r="B166">
         <v>22453</v>
       </c>
-      <c r="C160">
+      <c r="C166">
         <v>296306</v>
       </c>
-      <c r="D160">
+      <c r="D166">
         <v>16883</v>
       </c>
-      <c r="E160">
+      <c r="E166">
         <v>9642</v>
       </c>
-      <c r="F160">
+      <c r="F166">
         <v>85276</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B161">
+      <c r="B167">
         <v>22453</v>
       </c>
-      <c r="C161">
+      <c r="C167">
         <v>295720</v>
       </c>
-      <c r="D161">
+      <c r="D167">
         <v>16879</v>
       </c>
-      <c r="E161">
+      <c r="E167">
         <v>9642</v>
       </c>
-      <c r="F161">
+      <c r="F167">
         <v>84606</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B162">
+      <c r="B168">
         <v>22453</v>
       </c>
-      <c r="C162">
+      <c r="C168">
         <v>296177</v>
       </c>
-      <c r="D162">
+      <c r="D168">
         <v>16871</v>
       </c>
-      <c r="E162">
+      <c r="E168">
         <v>9142</v>
       </c>
-      <c r="F162">
+      <c r="F168">
         <v>84342</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B163">
+      <c r="B169">
         <v>22453</v>
       </c>
-      <c r="C163">
+      <c r="C169">
         <v>295952</v>
       </c>
-      <c r="D163">
+      <c r="D169">
         <v>16861</v>
       </c>
-      <c r="E163">
+      <c r="E169">
         <v>9127</v>
       </c>
-      <c r="F163">
+      <c r="F169">
         <v>83687</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B164">
+      <c r="B170">
         <v>22453</v>
       </c>
-      <c r="C164">
+      <c r="C170">
         <v>295959</v>
       </c>
-      <c r="D164">
+      <c r="D170">
         <v>16599</v>
       </c>
-      <c r="E164">
+      <c r="E170">
         <v>9127</v>
       </c>
-      <c r="F164">
+      <c r="F170">
         <v>82955</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B165">
+      <c r="B171">
         <v>22453</v>
       </c>
-      <c r="C165">
+      <c r="C171">
         <v>298028</v>
       </c>
-      <c r="D165">
+      <c r="D171">
         <v>16595</v>
       </c>
-      <c r="E165">
+      <c r="E171">
         <v>9124</v>
       </c>
-      <c r="F165">
+      <c r="F171">
         <v>80190</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B166">
+      <c r="B172">
         <v>22453</v>
       </c>
-      <c r="C166">
+      <c r="C172">
         <v>298262</v>
       </c>
-      <c r="D166">
+      <c r="D172">
         <v>16572</v>
       </c>
-      <c r="E166">
+      <c r="E172">
         <v>9123</v>
       </c>
-      <c r="F166">
+      <c r="F172">
         <v>80100</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B167">
+      <c r="B173">
         <v>22453</v>
       </c>
-      <c r="C167">
+      <c r="C173">
         <v>297541</v>
       </c>
-      <c r="D167">
+      <c r="D173">
         <v>16552</v>
       </c>
-      <c r="E167">
+      <c r="E173">
         <v>9123</v>
       </c>
-      <c r="F167">
+      <c r="F173">
         <v>79674</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B168">
+      <c r="B174">
         <v>22453</v>
       </c>
-      <c r="C168">
+      <c r="C174">
         <v>298121</v>
       </c>
-      <c r="D168">
+      <c r="D174">
         <v>16513</v>
       </c>
-      <c r="E168">
+      <c r="E174">
         <v>9123</v>
       </c>
-      <c r="F168">
+      <c r="F174">
         <v>78519</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B169">
+      <c r="B175">
         <v>22453</v>
       </c>
-      <c r="C169">
+      <c r="C175">
         <v>297810</v>
       </c>
-      <c r="D169">
+      <c r="D175">
         <v>16485</v>
       </c>
-      <c r="E169">
+      <c r="E175">
         <v>9097</v>
       </c>
-      <c r="F169">
+      <c r="F175">
         <v>78031</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B170">
+      <c r="B176">
         <v>22453</v>
       </c>
-      <c r="C170">
+      <c r="C176">
         <v>296081</v>
       </c>
-      <c r="D170">
+      <c r="D176">
         <v>16484</v>
       </c>
-      <c r="E170">
+      <c r="E176">
         <v>9097</v>
       </c>
-      <c r="F170">
+      <c r="F176">
         <v>77566</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B171">
+      <c r="B177">
         <v>22453</v>
       </c>
-      <c r="C171">
+      <c r="C177">
         <v>294142</v>
       </c>
-      <c r="D171">
+      <c r="D177">
         <v>16483</v>
       </c>
-      <c r="E171">
+      <c r="E177">
         <v>9053</v>
       </c>
-      <c r="F171">
+      <c r="F177">
         <v>76666</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B172">
+      <c r="B178">
         <v>24453</v>
       </c>
-      <c r="C172">
+      <c r="C178">
         <v>293909</v>
       </c>
-      <c r="D172">
+      <c r="D178">
         <v>16545</v>
       </c>
-      <c r="E172">
+      <c r="E178">
         <v>9053</v>
       </c>
-      <c r="F172">
+      <c r="F178">
         <v>75728</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B173">
+      <c r="B179">
         <v>24453</v>
       </c>
-      <c r="C173">
+      <c r="C179">
         <v>293042</v>
       </c>
-      <c r="D173">
+      <c r="D179">
         <v>16549</v>
       </c>
-      <c r="E173">
+      <c r="E179">
         <v>9053</v>
       </c>
-      <c r="F173">
+      <c r="F179">
         <v>75377</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B174">
+      <c r="B180">
         <v>24453</v>
       </c>
-      <c r="C174">
+      <c r="C180">
         <v>293931</v>
       </c>
-      <c r="D174">
+      <c r="D180">
         <v>16550</v>
       </c>
-      <c r="E174">
+      <c r="E180">
         <v>9053</v>
       </c>
-      <c r="F174">
+      <c r="F180">
         <v>74597</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B175">
+      <c r="B181">
         <v>24453</v>
       </c>
-      <c r="C175">
+      <c r="C181">
         <v>293657</v>
       </c>
-      <c r="D175">
+      <c r="D181">
         <v>16547</v>
       </c>
-      <c r="E175">
+      <c r="E181">
         <v>9053</v>
       </c>
-      <c r="F175">
+      <c r="F181">
         <v>73046</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B176">
+      <c r="B182">
         <v>24453</v>
       </c>
-      <c r="C176">
+      <c r="C182">
         <v>293213</v>
       </c>
-      <c r="D176">
+      <c r="D182">
         <v>16545</v>
       </c>
-      <c r="E176">
+      <c r="E182">
         <v>9023</v>
       </c>
-      <c r="F176">
+      <c r="F182">
         <v>72302</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B177">
+      <c r="B183">
         <v>24453</v>
       </c>
-      <c r="C177">
+      <c r="C183">
         <v>292105</v>
       </c>
-      <c r="D177">
+      <c r="D183">
         <v>16534</v>
       </c>
-      <c r="E177">
+      <c r="E183">
         <v>9023</v>
       </c>
-      <c r="F177">
+      <c r="F183">
         <v>71585</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B178">
+      <c r="B184">
         <v>24453</v>
       </c>
-      <c r="C178">
+      <c r="C184">
         <v>290888</v>
       </c>
-      <c r="D178">
+      <c r="D184">
         <v>16532</v>
       </c>
-      <c r="E178">
+      <c r="E184">
         <v>9023</v>
       </c>
-      <c r="F178">
+      <c r="F184">
         <v>71078</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B179">
+      <c r="B185">
         <v>24453</v>
       </c>
-      <c r="C179">
+      <c r="C185">
         <v>288274</v>
       </c>
-      <c r="D179">
+      <c r="D185">
         <v>16532</v>
       </c>
-      <c r="E179">
+      <c r="E185">
         <v>9023</v>
       </c>
-      <c r="F179">
+      <c r="F185">
         <v>70744</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B180">
+      <c r="B186">
         <v>24453</v>
       </c>
-      <c r="C180">
+      <c r="C186">
         <v>288343</v>
       </c>
-      <c r="D180">
+      <c r="D186">
         <v>15773</v>
       </c>
-      <c r="E180">
+      <c r="E186">
         <v>9023</v>
       </c>
-      <c r="F180">
+      <c r="F186">
         <v>70613</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B181">
+      <c r="B187">
         <v>24453</v>
       </c>
-      <c r="C181">
+      <c r="C187">
         <v>290057</v>
       </c>
-      <c r="D181">
+      <c r="D187">
         <v>14324</v>
       </c>
-      <c r="E181">
+      <c r="E187">
         <v>9023</v>
       </c>
-      <c r="F181">
+      <c r="F187">
         <v>71076</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B182">
+      <c r="B188">
         <v>24453</v>
       </c>
-      <c r="C182">
+      <c r="C188">
         <v>291975</v>
       </c>
-      <c r="D182">
+      <c r="D188">
         <v>13724</v>
       </c>
-      <c r="E182">
+      <c r="E188">
         <v>9023</v>
       </c>
-      <c r="F182">
+      <c r="F188">
         <v>70945</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B183">
+      <c r="B189">
         <v>24453</v>
       </c>
-      <c r="C183">
+      <c r="C189">
         <v>293957</v>
       </c>
-      <c r="D183">
+      <c r="D189">
         <v>13728</v>
       </c>
-      <c r="E183">
+      <c r="E189">
         <v>9023</v>
       </c>
-      <c r="F183">
+      <c r="F189">
         <v>71587</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B184">
+      <c r="B190">
         <v>24453</v>
       </c>
-      <c r="C184">
+      <c r="C190">
         <v>294546</v>
       </c>
-      <c r="D184">
+      <c r="D190">
         <v>13728</v>
       </c>
-      <c r="E184">
+      <c r="E190">
         <v>9023</v>
       </c>
-      <c r="F184">
+      <c r="F190">
         <v>71630</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B185">
+      <c r="B191">
         <v>24453</v>
       </c>
-      <c r="C185">
+      <c r="C191">
         <v>294548</v>
       </c>
-      <c r="D185">
+      <c r="D191">
         <v>13728</v>
       </c>
-      <c r="E185">
+      <c r="E191">
         <v>9023</v>
       </c>
-      <c r="F185">
+      <c r="F191">
         <v>71630</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B186">
+      <c r="B192">
         <v>24453</v>
       </c>
-      <c r="C186">
+      <c r="C192">
         <v>295328</v>
       </c>
-      <c r="D186">
+      <c r="D192">
         <v>13078</v>
       </c>
-      <c r="E186">
+      <c r="E192">
         <v>9023</v>
       </c>
-      <c r="F186">
+      <c r="F192">
         <v>71607</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B187">
+      <c r="B193">
         <v>24453</v>
       </c>
-      <c r="C187">
+      <c r="C193">
         <v>295576</v>
       </c>
-      <c r="D187">
+      <c r="D193">
         <v>12928</v>
       </c>
-      <c r="E187">
+      <c r="E193">
         <v>9023</v>
       </c>
-      <c r="F187">
+      <c r="F193">
         <v>71234</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B188">
+      <c r="B194">
         <v>24563</v>
       </c>
-      <c r="C188">
+      <c r="C194">
         <v>297267</v>
       </c>
-      <c r="D188">
+      <c r="D194">
         <v>12825</v>
       </c>
-      <c r="E188">
+      <c r="E194">
         <v>9023</v>
       </c>
-      <c r="F188">
+      <c r="F194">
         <v>71235</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B189">
+      <c r="B195">
         <v>24838</v>
       </c>
-      <c r="C189">
+      <c r="C195">
         <v>301001</v>
       </c>
-      <c r="D189">
+      <c r="D195">
         <v>11878</v>
       </c>
-      <c r="E189">
+      <c r="E195">
         <v>6745</v>
       </c>
-      <c r="F189">
+      <c r="F195">
         <v>70647</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B190">
+      <c r="B196">
         <v>22948</v>
       </c>
-      <c r="C190">
+      <c r="C196">
         <v>298481</v>
       </c>
-      <c r="D190">
+      <c r="D196">
         <v>11878</v>
       </c>
-      <c r="E190">
+      <c r="E196">
         <v>6745</v>
       </c>
-      <c r="F190">
+      <c r="F196">
         <v>70240</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B191">
+      <c r="B197">
         <v>22838</v>
       </c>
-      <c r="C191">
+      <c r="C197">
         <v>294651</v>
       </c>
-      <c r="D191">
+      <c r="D197">
         <v>11550</v>
       </c>
-      <c r="E191">
+      <c r="E197">
         <v>6745</v>
       </c>
-      <c r="F191">
+      <c r="F197">
         <v>69820</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B192">
+      <c r="B198">
         <v>22838</v>
       </c>
-      <c r="C192">
+      <c r="C198">
         <v>293743</v>
       </c>
-      <c r="D192">
+      <c r="D198">
         <v>11552</v>
       </c>
-      <c r="E192">
+      <c r="E198">
         <v>6745</v>
       </c>
-      <c r="F192">
+      <c r="F198">
         <v>69282</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B193">
+      <c r="B199">
         <v>21988</v>
       </c>
-      <c r="C193">
+      <c r="C199">
         <v>288113</v>
       </c>
-      <c r="D193">
+      <c r="D199">
         <v>11508</v>
       </c>
-      <c r="E193">
+      <c r="E199">
         <v>6745</v>
       </c>
-      <c r="F193">
+      <c r="F199">
         <v>69248</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B194">
+      <c r="B200">
         <v>23418</v>
       </c>
-      <c r="C194">
+      <c r="C200">
         <v>283521</v>
       </c>
-      <c r="D194">
+      <c r="D200">
         <v>11465</v>
       </c>
-      <c r="E194">
+      <c r="E200">
         <v>6745</v>
       </c>
-      <c r="F194">
+      <c r="F200">
         <v>68433</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B195">
+      <c r="B201">
         <v>23393</v>
       </c>
-      <c r="C195">
+      <c r="C201">
         <v>278267</v>
       </c>
-      <c r="D195">
+      <c r="D201">
         <v>11221</v>
       </c>
-      <c r="E195">
+      <c r="E201">
         <v>6745</v>
       </c>
-      <c r="F195">
+      <c r="F201">
         <v>68330</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B196">
+      <c r="B202">
         <v>23343</v>
       </c>
-      <c r="C196">
+      <c r="C202">
         <v>271912</v>
       </c>
-      <c r="D196">
+      <c r="D202">
         <v>11221</v>
       </c>
-      <c r="E196">
+      <c r="E202">
         <v>6745</v>
       </c>
-      <c r="F196">
+      <c r="F202">
         <v>67798</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B197">
+      <c r="B203">
         <v>23343</v>
       </c>
-      <c r="C197">
+      <c r="C203">
         <v>262513</v>
       </c>
-      <c r="D197">
+      <c r="D203">
         <v>11153</v>
       </c>
-      <c r="E197">
+      <c r="E203">
         <v>6745</v>
       </c>
-      <c r="F197">
+      <c r="F203">
         <v>67781</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B198">
+      <c r="B204">
         <v>23343</v>
       </c>
-      <c r="C198">
+      <c r="C204">
         <v>259235</v>
       </c>
-      <c r="D198">
+      <c r="D204">
         <v>11112</v>
       </c>
-      <c r="E198">
+      <c r="E204">
         <v>6745</v>
       </c>
-      <c r="F198">
+      <c r="F204">
         <v>67474</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B199">
+      <c r="B205">
         <v>23143</v>
       </c>
-      <c r="C199">
+      <c r="C205">
         <v>254567</v>
       </c>
-      <c r="D199">
+      <c r="D205">
         <v>10602</v>
       </c>
-      <c r="E199">
+      <c r="E205">
         <v>6745</v>
       </c>
-      <c r="F199">
+      <c r="F205">
         <v>67195</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B200">
+      <c r="B206">
         <v>23143</v>
       </c>
-      <c r="C200">
+      <c r="C206">
         <v>250176</v>
       </c>
-      <c r="D200">
+      <c r="D206">
         <v>10602</v>
       </c>
-      <c r="E200">
+      <c r="E206">
         <v>6745</v>
       </c>
-      <c r="F200">
+      <c r="F206">
         <v>66414</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B201">
+      <c r="B207">
         <v>23140</v>
       </c>
-      <c r="C201">
+      <c r="C207">
         <v>247746</v>
       </c>
-      <c r="D201">
+      <c r="D207">
         <v>10565</v>
       </c>
-      <c r="E201">
+      <c r="E207">
         <v>6745</v>
       </c>
-      <c r="F201">
+      <c r="F207">
         <v>64844</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B202">
+      <c r="B208">
         <v>23140</v>
       </c>
-      <c r="C202">
+      <c r="C208">
         <v>246043</v>
       </c>
-      <c r="D202">
+      <c r="D208">
         <v>10529</v>
       </c>
-      <c r="E202">
+      <c r="E208">
         <v>6745</v>
       </c>
-      <c r="F202">
+      <c r="F208">
         <v>64045</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B203">
+      <c r="B209">
         <v>23140</v>
       </c>
-      <c r="C203">
+      <c r="C209">
         <v>244430</v>
       </c>
-      <c r="D203">
+      <c r="D209">
         <v>10469</v>
       </c>
-      <c r="E203">
+      <c r="E209">
         <v>6745</v>
       </c>
-      <c r="F203">
+      <c r="F209">
         <v>63744</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B204">
+      <c r="B210">
         <v>23140</v>
       </c>
-      <c r="C204">
+      <c r="C210">
         <v>243229</v>
       </c>
-      <c r="D204">
+      <c r="D210">
         <v>10465</v>
       </c>
-      <c r="E204">
+      <c r="E210">
         <v>6695</v>
       </c>
-      <c r="F204">
+      <c r="F210">
         <v>62851</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B205">
+      <c r="B211">
         <v>23140</v>
       </c>
-      <c r="C205">
+      <c r="C211">
         <v>241479</v>
       </c>
-      <c r="D205">
+      <c r="D211">
         <v>10465</v>
       </c>
-      <c r="E205">
+      <c r="E211">
         <v>6695</v>
       </c>
-      <c r="F205">
+      <c r="F211">
         <v>62679</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B206">
+      <c r="B212">
         <v>23135</v>
       </c>
-      <c r="C206">
+      <c r="C212">
         <v>237969</v>
       </c>
-      <c r="D206">
+      <c r="D212">
         <v>10465</v>
       </c>
-      <c r="E206">
+      <c r="E212">
         <v>6595</v>
       </c>
-      <c r="F206">
+      <c r="F212">
         <v>62260</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B207">
+      <c r="B213">
         <v>23135</v>
       </c>
-      <c r="C207">
+      <c r="C213">
         <v>241559</v>
       </c>
-      <c r="D207">
+      <c r="D213">
         <v>10465</v>
       </c>
-      <c r="E207">
+      <c r="E213">
         <v>6595</v>
       </c>
-      <c r="F207">
+      <c r="F213">
         <v>62018</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B208">
+      <c r="B214">
         <v>23135</v>
       </c>
-      <c r="C208">
+      <c r="C214">
         <v>240880</v>
       </c>
-      <c r="D208">
+      <c r="D214">
         <v>10465</v>
       </c>
-      <c r="E208">
+      <c r="E214">
         <v>6595</v>
       </c>
-      <c r="F208">
+      <c r="F214">
         <v>60231</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B209">
+      <c r="B215">
         <v>23135</v>
       </c>
-      <c r="C209">
+      <c r="C215">
         <v>242718</v>
       </c>
-      <c r="D209">
+      <c r="D215">
         <v>10410</v>
       </c>
-      <c r="E209">
+      <c r="E215">
         <v>6245</v>
       </c>
-      <c r="F209">
+      <c r="F215">
         <v>59530</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B210">
+      <c r="B216">
         <v>23135</v>
       </c>
-      <c r="C210">
+      <c r="C216">
         <v>242146</v>
       </c>
-      <c r="D210">
+      <c r="D216">
         <v>10410</v>
       </c>
-      <c r="E210">
+      <c r="E216">
         <v>6238</v>
       </c>
-      <c r="F210">
+      <c r="F216">
         <v>59300</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B211">
+      <c r="B217">
         <v>23134</v>
       </c>
-      <c r="C211">
+      <c r="C217">
         <v>240186</v>
       </c>
-      <c r="D211">
+      <c r="D217">
         <v>9470</v>
       </c>
-      <c r="E211">
+      <c r="E217">
         <v>6238</v>
       </c>
-      <c r="F211">
+      <c r="F217">
         <v>58316</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B212">
+      <c r="B218">
         <v>23134</v>
       </c>
-      <c r="C212">
+      <c r="C218">
         <v>240124</v>
       </c>
-      <c r="D212">
+      <c r="D218">
         <v>9470</v>
       </c>
-      <c r="E212">
+      <c r="E218">
         <v>6238</v>
       </c>
-      <c r="F212">
+      <c r="F218">
         <v>58006</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B213">
+      <c r="B219">
         <v>22884</v>
       </c>
-      <c r="C213">
+      <c r="C219">
         <v>239097</v>
       </c>
-      <c r="D213">
+      <c r="D219">
         <v>9474</v>
       </c>
-      <c r="E213">
+      <c r="E219">
         <v>6238</v>
       </c>
-      <c r="F213">
+      <c r="F219">
         <v>57910</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B214">
+      <c r="B220">
         <v>22884</v>
       </c>
-      <c r="C214">
+      <c r="C220">
         <v>236767</v>
       </c>
-      <c r="D214">
+      <c r="D220">
         <v>9474</v>
       </c>
-      <c r="E214">
+      <c r="E220">
         <v>6238</v>
       </c>
-      <c r="F214">
+      <c r="F220">
         <v>56984</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B215">
+      <c r="B221">
         <v>22884</v>
       </c>
-      <c r="C215">
+      <c r="C221">
         <v>237379</v>
       </c>
-      <c r="D215">
+      <c r="D221">
         <v>9469</v>
       </c>
-      <c r="E215">
+      <c r="E221">
         <v>6208</v>
       </c>
-      <c r="F215">
+      <c r="F221">
         <v>56896</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B216">
+      <c r="B222">
         <v>22884</v>
       </c>
-      <c r="C216">
+      <c r="C222">
         <v>236910</v>
       </c>
-      <c r="D216">
+      <c r="D222">
         <v>9469</v>
       </c>
-      <c r="E216">
+      <c r="E222">
         <v>6208</v>
       </c>
-      <c r="F216">
+      <c r="F222">
         <v>56929</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B217">
+      <c r="B223">
         <v>22884</v>
       </c>
-      <c r="C217">
+      <c r="C223">
         <v>235001</v>
       </c>
-      <c r="D217">
+      <c r="D223">
         <v>9519</v>
       </c>
-      <c r="E217">
+      <c r="E223">
         <v>6208</v>
       </c>
-      <c r="F217">
+      <c r="F223">
         <v>56515</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B218">
+      <c r="B224">
         <v>22884</v>
       </c>
-      <c r="C218">
+      <c r="C224">
         <v>231619</v>
       </c>
-      <c r="D218">
+      <c r="D224">
         <v>9619</v>
       </c>
-      <c r="E218">
+      <c r="E224">
         <v>6208</v>
       </c>
-      <c r="F218">
+      <c r="F224">
         <v>56072</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B219">
+      <c r="B225">
         <v>22884</v>
       </c>
-      <c r="C219">
+      <c r="C225">
         <v>230601</v>
       </c>
-      <c r="D219">
+      <c r="D225">
         <v>9690</v>
       </c>
-      <c r="E219">
+      <c r="E225">
         <v>6108</v>
       </c>
-      <c r="F219">
+      <c r="F225">
         <v>55998</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B220">
+      <c r="B226">
         <v>22884</v>
       </c>
-      <c r="C220">
+      <c r="C226">
         <v>230374</v>
       </c>
-      <c r="D220">
+      <c r="D226">
         <v>9677</v>
       </c>
-      <c r="E220">
+      <c r="E226">
         <v>5923</v>
       </c>
-      <c r="F220">
+      <c r="F226">
         <v>54727</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B221">
+      <c r="B227">
         <v>22884</v>
       </c>
-      <c r="C221">
+      <c r="C227">
         <v>229045</v>
       </c>
-      <c r="D221">
+      <c r="D227">
         <v>9677</v>
       </c>
-      <c r="E221">
+      <c r="E227">
         <v>5923</v>
       </c>
-      <c r="F221">
+      <c r="F227">
         <v>54404</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B222">
+      <c r="B228">
         <v>22884</v>
       </c>
-      <c r="C222">
+      <c r="C228">
         <v>227307</v>
       </c>
-      <c r="D222">
+      <c r="D228">
         <v>9567</v>
       </c>
-      <c r="E222">
+      <c r="E228">
         <v>5923</v>
       </c>
-      <c r="F222">
+      <c r="F228">
         <v>54456</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B223">
+      <c r="B229">
         <v>22884</v>
       </c>
-      <c r="C223">
+      <c r="C229">
         <v>227231</v>
       </c>
-      <c r="D223">
+      <c r="D229">
         <v>9567</v>
       </c>
-      <c r="E223">
+      <c r="E229">
         <v>5923</v>
       </c>
-      <c r="F223">
+      <c r="F229">
         <v>53878</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B224">
+      <c r="B230">
         <v>22884</v>
       </c>
-      <c r="C224">
+      <c r="C230">
         <v>226655</v>
       </c>
-      <c r="D224">
+      <c r="D230">
         <v>9547</v>
       </c>
-      <c r="E224">
+      <c r="E230">
         <v>5923</v>
       </c>
-      <c r="F224">
+      <c r="F230">
         <v>53986</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B225">
+      <c r="B231">
         <v>22884</v>
       </c>
-      <c r="C225">
+      <c r="C231">
         <v>226326</v>
       </c>
-      <c r="D225">
+      <c r="D231">
         <v>9540</v>
       </c>
-      <c r="E225">
+      <c r="E231">
         <v>5923</v>
       </c>
-      <c r="F225">
+      <c r="F231">
         <v>53441</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B226">
+      <c r="B232">
         <v>22884</v>
       </c>
-      <c r="C226">
+      <c r="C232">
         <v>225848</v>
       </c>
-      <c r="D226">
+      <c r="D232">
         <v>9540</v>
       </c>
-      <c r="E226">
+      <c r="E232">
         <v>5923</v>
       </c>
-      <c r="F226">
+      <c r="F232">
         <v>52683</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B227">
+      <c r="B233">
         <v>21875</v>
       </c>
-      <c r="C227">
+      <c r="C233">
         <v>225509</v>
       </c>
-      <c r="D227">
+      <c r="D233">
         <v>9540</v>
       </c>
-      <c r="E227">
+      <c r="E233">
         <v>5923</v>
       </c>
-      <c r="F227">
+      <c r="F233">
         <v>52453</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B228">
+      <c r="B234">
         <v>21875</v>
       </c>
-      <c r="C228">
+      <c r="C234">
         <v>227510</v>
       </c>
-      <c r="D228">
+      <c r="D234">
         <v>9540</v>
       </c>
-      <c r="E228">
+      <c r="E234">
         <v>5923</v>
       </c>
-      <c r="F228">
+      <c r="F234">
         <v>51188</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B229">
+      <c r="B235">
         <v>21875</v>
       </c>
-      <c r="C229">
+      <c r="C235">
         <v>226876</v>
       </c>
-      <c r="D229">
+      <c r="D235">
         <v>9540</v>
       </c>
-      <c r="E229">
+      <c r="E235">
         <v>5923</v>
       </c>
-      <c r="F229">
+      <c r="F235">
         <v>51133</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B230">
+      <c r="B236">
         <v>21875</v>
       </c>
-      <c r="C230">
+      <c r="C236">
         <v>227039</v>
       </c>
-      <c r="D230">
+      <c r="D236">
         <v>9540</v>
       </c>
-      <c r="E230">
+      <c r="E236">
         <v>5923</v>
       </c>
-      <c r="F230">
+      <c r="F236">
         <v>51049</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B231">
+      <c r="B237">
         <v>21875</v>
       </c>
-      <c r="C231">
+      <c r="C237">
         <v>225342</v>
       </c>
-      <c r="D231">
+      <c r="D237">
         <v>9536</v>
       </c>
-      <c r="E231">
+      <c r="E237">
         <v>5923</v>
       </c>
-      <c r="F231">
+      <c r="F237">
         <v>51091</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B232">
+      <c r="B238">
         <v>21875</v>
       </c>
-      <c r="C232">
+      <c r="C238">
         <v>224244</v>
       </c>
-      <c r="D232">
+      <c r="D238">
         <v>9536</v>
       </c>
-      <c r="E232">
+      <c r="E238">
         <v>5723</v>
       </c>
-      <c r="F232">
+      <c r="F238">
         <v>51028</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B233">
+      <c r="B239">
         <v>21875</v>
       </c>
-      <c r="C233">
+      <c r="C239">
         <v>223763</v>
       </c>
-      <c r="D233">
+      <c r="D239">
         <v>9536</v>
       </c>
-      <c r="E233">
+      <c r="E239">
         <v>5723</v>
       </c>
-      <c r="F233">
+      <c r="F239">
         <v>50423</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B234">
+      <c r="B240">
         <v>21875</v>
       </c>
-      <c r="C234">
+      <c r="C240">
         <v>221765</v>
       </c>
-      <c r="D234">
+      <c r="D240">
         <v>9538</v>
       </c>
-      <c r="E234">
+      <c r="E240">
         <v>5723</v>
       </c>
-      <c r="F234">
+      <c r="F240">
         <v>49665</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B235">
+      <c r="B241">
         <v>21875</v>
       </c>
-      <c r="C235">
+      <c r="C241">
         <v>221165</v>
       </c>
-      <c r="D235">
+      <c r="D241">
         <v>9530</v>
       </c>
-      <c r="E235">
+      <c r="E241">
         <v>5723</v>
       </c>
-      <c r="F235">
+      <c r="F241">
         <v>48992</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B236">
+      <c r="B242">
         <v>21875</v>
       </c>
-      <c r="C236">
+      <c r="C242">
         <v>220105</v>
       </c>
-      <c r="D236">
+      <c r="D242">
         <v>9485</v>
       </c>
-      <c r="E236">
+      <c r="E242">
         <v>5723</v>
       </c>
-      <c r="F236">
+      <c r="F242">
         <v>48124</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B237">
+      <c r="B243">
         <v>22075</v>
       </c>
-      <c r="C237">
+      <c r="C243">
         <v>219760</v>
       </c>
-      <c r="D237">
+      <c r="D243">
         <v>9485</v>
       </c>
-      <c r="E237">
+      <c r="E243">
         <v>5723</v>
       </c>
-      <c r="F237">
+      <c r="F243">
         <v>47918</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B238">
+      <c r="B244">
         <v>22075</v>
       </c>
-      <c r="C238">
+      <c r="C244">
         <v>218844</v>
       </c>
-      <c r="D238">
+      <c r="D244">
         <v>9485</v>
       </c>
-      <c r="E238">
+      <c r="E244">
         <v>5723</v>
       </c>
-      <c r="F238">
+      <c r="F244">
         <v>47824</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B239">
+      <c r="B245">
         <v>22075</v>
       </c>
-      <c r="C239">
+      <c r="C245">
         <v>218706</v>
       </c>
-      <c r="D239">
+      <c r="D245">
         <v>9480</v>
       </c>
-      <c r="E239">
+      <c r="E245">
         <v>5723</v>
       </c>
-      <c r="F239">
+      <c r="F245">
         <v>47848</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B240">
+      <c r="B246">
         <v>22075</v>
       </c>
-      <c r="C240">
+      <c r="C246">
         <v>213895</v>
       </c>
-      <c r="D240">
+      <c r="D246">
         <v>8979</v>
       </c>
-      <c r="E240">
+      <c r="E246">
         <v>5723</v>
       </c>
-      <c r="F240">
+      <c r="F246">
         <v>47418</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B241">
+      <c r="B247">
         <v>22075</v>
       </c>
-      <c r="C241">
+      <c r="C247">
         <v>212171</v>
       </c>
-      <c r="D241">
+      <c r="D247">
         <v>8549</v>
       </c>
-      <c r="E241">
+      <c r="E247">
         <v>5723</v>
       </c>
-      <c r="F241">
+      <c r="F247">
         <v>46991</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B242">
+      <c r="B248">
         <v>22075</v>
       </c>
-      <c r="C242">
+      <c r="C248">
         <v>211471</v>
       </c>
-      <c r="D242">
+      <c r="D248">
         <v>8549</v>
       </c>
-      <c r="E242">
+      <c r="E248">
         <v>5723</v>
       </c>
-      <c r="F242">
+      <c r="F248">
         <v>46777</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B243">
+      <c r="B249">
         <v>22075</v>
       </c>
-      <c r="C243">
+      <c r="C249">
         <v>210463</v>
       </c>
-      <c r="D243">
+      <c r="D249">
         <v>8530</v>
       </c>
-      <c r="E243">
+      <c r="E249">
         <v>5723</v>
       </c>
-      <c r="F243">
+      <c r="F249">
         <v>46762</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B244">
+      <c r="B250">
         <v>22075</v>
       </c>
-      <c r="C244">
+      <c r="C250">
         <v>210552</v>
       </c>
-      <c r="D244">
+      <c r="D250">
         <v>8527</v>
       </c>
-      <c r="E244">
+      <c r="E250">
         <v>5723</v>
       </c>
-      <c r="F244">
+      <c r="F250">
         <v>46600</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B245">
+      <c r="B251">
         <v>22075</v>
       </c>
-      <c r="C245">
+      <c r="C251">
         <v>203830</v>
       </c>
-      <c r="D245">
+      <c r="D251">
         <v>8527</v>
       </c>
-      <c r="E245">
+      <c r="E251">
         <v>5473</v>
       </c>
-      <c r="F245">
+      <c r="F251">
         <v>45716</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B246">
+      <c r="B252">
         <v>22075</v>
       </c>
-      <c r="C246">
+      <c r="C252">
         <v>197874</v>
       </c>
-      <c r="D246">
+      <c r="D252">
         <v>8436</v>
       </c>
-      <c r="E246">
+      <c r="E252">
         <v>5473</v>
       </c>
-      <c r="F246">
+      <c r="F252">
         <v>45261</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B247">
+      <c r="B253">
         <v>22075</v>
       </c>
-      <c r="C247">
+      <c r="C253">
         <v>197129</v>
       </c>
-      <c r="D247">
+      <c r="D253">
         <v>8436</v>
       </c>
-      <c r="E247">
+      <c r="E253">
         <v>5473</v>
       </c>
-      <c r="F247">
+      <c r="F253">
         <v>45232</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B248">
+      <c r="B254">
         <v>22075</v>
       </c>
-      <c r="C248">
+      <c r="C254">
         <v>196698</v>
       </c>
-      <c r="D248">
+      <c r="D254">
         <v>8436</v>
       </c>
-      <c r="E248">
+      <c r="E254">
         <v>5355</v>
       </c>
-      <c r="F248">
+      <c r="F254">
         <v>45271</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B249">
+      <c r="B255">
         <v>22163</v>
       </c>
-      <c r="C249">
+      <c r="C255">
         <v>194595</v>
       </c>
-      <c r="D249">
+      <c r="D255">
         <v>8436</v>
       </c>
-      <c r="E249">
+      <c r="E255">
         <v>5355</v>
       </c>
-      <c r="F249">
+      <c r="F255">
         <v>45226</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B250">
+      <c r="B256">
         <v>15813</v>
       </c>
-      <c r="C250">
+      <c r="C256">
         <v>193567</v>
       </c>
-      <c r="D250">
+      <c r="D256">
         <v>8436</v>
       </c>
-      <c r="E250">
+      <c r="E256">
         <v>5355</v>
       </c>
-      <c r="F250">
+      <c r="F256">
         <v>45184</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B251">
+      <c r="B257">
         <v>15813</v>
       </c>
-      <c r="C251">
+      <c r="C257">
         <v>192155</v>
       </c>
-      <c r="D251">
+      <c r="D257">
         <v>8436</v>
       </c>
-      <c r="E251">
+      <c r="E257">
         <v>5355</v>
       </c>
-      <c r="F251">
+      <c r="F257">
         <v>45282</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,9,20)</f>
         <v>45555</v>
       </c>
-      <c r="B252">
+      <c r="B258">
         <v>15813</v>
       </c>
-      <c r="C252">
+      <c r="C258">
         <v>190546</v>
       </c>
-      <c r="D252">
+      <c r="D258">
         <v>8436</v>
       </c>
-      <c r="E252">
+      <c r="E258">
         <v>5355</v>
       </c>
-      <c r="F252">
+      <c r="F258">
         <v>44347</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,9,19)</f>
         <v>45554</v>
       </c>
-      <c r="B253">
+      <c r="B259">
         <v>15813</v>
       </c>
-      <c r="C253">
+      <c r="C259">
         <v>190387</v>
       </c>
-      <c r="D253">
+      <c r="D259">
         <v>8436</v>
       </c>
-      <c r="E253">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F253">
+      <c r="F259">
         <v>44138</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,9,18)</f>
         <v>45553</v>
       </c>
-      <c r="B254">
+      <c r="B260">
         <v>13763</v>
       </c>
-      <c r="C254">
+      <c r="C260">
         <v>189493</v>
       </c>
-      <c r="D254">
+      <c r="D260">
         <v>8411</v>
       </c>
-      <c r="E254">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F260">
         <v>43888</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,9,17)</f>
         <v>45552</v>
       </c>
-      <c r="B255">
+      <c r="B261">
         <v>13763</v>
       </c>
-      <c r="C255">
+      <c r="C261">
         <v>189036</v>
       </c>
-      <c r="D255">
+      <c r="D261">
         <v>8405</v>
       </c>
-      <c r="E255">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F261">
         <v>43717</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,9,16)</f>
         <v>45551</v>
       </c>
-      <c r="B256">
+      <c r="B262">
         <v>13763</v>
       </c>
-      <c r="C256">
+      <c r="C262">
         <v>189674</v>
       </c>
-      <c r="D256">
+      <c r="D262">
         <v>8405</v>
       </c>
-      <c r="E256">
+      <c r="E262">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F262">
         <v>42926</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <f>DATE(2024,9,13)</f>
-        <v>45548</v>
-      </c>
-      <c r="B257">
-        <v>13760</v>
-      </c>
-      <c r="C257">
-        <v>190449</v>
-      </c>
-      <c r="D257">
-        <v>8368</v>
-      </c>
-      <c r="E257">
-        <v>5355</v>
-      </c>
-      <c r="F257">
-        <v>42350</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <f>DATE(2024,9,12)</f>
-        <v>45547</v>
-      </c>
-      <c r="B258">
-        <v>13760</v>
-      </c>
-      <c r="C258">
-        <v>190306</v>
-      </c>
-      <c r="D258">
-        <v>8368</v>
-      </c>
-      <c r="E258">
-        <v>5355</v>
-      </c>
-      <c r="F258">
-        <v>42577</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <f>DATE(2024,9,11)</f>
-        <v>45546</v>
-      </c>
-      <c r="B259">
-        <v>13760</v>
-      </c>
-      <c r="C259">
-        <v>190071</v>
-      </c>
-      <c r="D259">
-        <v>8367</v>
-      </c>
-      <c r="E259">
-        <v>5355</v>
-      </c>
-      <c r="F259">
-        <v>42349</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <f>DATE(2024,9,10)</f>
-        <v>45545</v>
-      </c>
-      <c r="B260">
-        <v>13760</v>
-      </c>
-      <c r="C260">
-        <v>191308</v>
-      </c>
-      <c r="D260">
-        <v>8357</v>
-      </c>
-      <c r="E260">
-        <v>5355</v>
-      </c>
-      <c r="F260">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <f>DATE(2024,9,9)</f>
-        <v>45544</v>
-      </c>
-      <c r="B261">
-        <v>13760</v>
-      </c>
-      <c r="C261">
-        <v>190241</v>
-      </c>
-      <c r="D261">
-        <v>7636</v>
-      </c>
-      <c r="E261">
-        <v>5355</v>
-      </c>
-      <c r="F261">
-        <v>41723</v>
       </c>
     </row>
   </sheetData>
@@ -12849,7 +12870,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12873,7 +12894,7 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
-        <v>75.64</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12882,7 +12903,7 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
-        <v>75.77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12891,7 +12912,7 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
-        <v>75.930000000000007</v>
+        <v>76.650000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12900,7 +12921,7 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
-        <v>76.040000000000006</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12909,7 +12930,7 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
-        <v>76.56</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12918,7 +12939,7 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
-        <v>77.069999999999993</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12927,7 +12948,7 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
-        <v>77.400000000000006</v>
+        <v>78.13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12936,7 +12957,7 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
-        <v>77.61</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12945,7 +12966,7 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
-        <v>78.02</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12954,7 +12975,7 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
-        <v>78.569999999999993</v>
+        <v>79.290000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12963,7 +12984,7 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
-        <v>79.13</v>
+        <v>79.849999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12972,7 +12993,7 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
-        <v>79.55</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12981,7 +13002,7 @@
       </c>
       <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
-        <v>80.3</v>
+        <v>81.040000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12990,7 +13011,7 @@
       </c>
       <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
-        <v>80.95</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12999,7 +13020,7 @@
       </c>
       <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
-        <v>81.64</v>
+        <v>82.32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13008,7 +13029,7 @@
       </c>
       <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
-        <v>82.89</v>
+        <v>83.55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13017,7 +13038,7 @@
       </c>
       <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
-        <v>85.76</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13026,7 +13047,7 @@
       </c>
       <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
-        <v>89.11</v>
+        <v>89.59</v>
       </c>
     </row>
   </sheetData>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37876B68-4E1D-4C34-8D10-95297B14DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7AFCC1-FB20-4752-95E5-49B57AD9F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -276,7 +276,7 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>80.94</v>
+        <v>80.23</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Low</stp>
@@ -373,8 +373,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H34" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Change</stp>
@@ -577,7 +577,7 @@
         <tr r="H39" s="1"/>
       </tp>
       <tp>
-        <v>1.0000000000000009E-2</v>
+        <v>-2.0000000000000018E-2</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Change</stp>
@@ -773,49 +773,49 @@
         <tr r="A22" s="1"/>
       </tp>
       <tp>
-        <v>79.849999999999994</v>
+        <v>79.33</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J12" s="1"/>
       </tp>
       <tp>
-        <v>79.290000000000006</v>
+        <v>78.78</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J11" s="1"/>
       </tp>
       <tp>
-        <v>81.040000000000006</v>
+        <v>80.510000000000005</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J14" s="1"/>
       </tp>
       <tp>
-        <v>80.3</v>
+        <v>79.77</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J13" s="1"/>
       </tp>
       <tp>
-        <v>82.32</v>
+        <v>81.83</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J16" s="1"/>
       </tp>
       <tp>
-        <v>81.67</v>
+        <v>81.17</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J15" s="1"/>
       </tp>
       <tp>
-        <v>-0.65</v>
+        <v>-0.66</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -997,21 +997,21 @@
         <tr r="A18" s="1"/>
       </tp>
       <tp>
-        <v>80.349999999999994</v>
+        <v>80.09</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>81.05</v>
+        <v>80.819999999999993</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>79.33</v>
+        <v>79.099999999999994</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Ask</stp>
@@ -1025,7 +1025,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>81.8</v>
+        <v>81.650000000000006</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
@@ -1046,14 +1046,14 @@
         <tr r="A19" s="1"/>
       </tp>
       <tp>
-        <v>-0.45</v>
+        <v>-0.44</v>
         <stp/>
         <stp>ECF 11!:ECF12!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>79.25</v>
+        <v>79.02</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1067,7 +1067,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>80.22</v>
+        <v>79.989999999999995</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1081,14 +1081,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>81</v>
+        <v>80.760000000000005</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>81.55</v>
+        <v>81.319999999999993</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1109,7 +1109,7 @@
         <tr r="A17" s="1"/>
       </tp>
       <tp>
-        <v>-0.63</v>
+        <v>-0.66</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -1284,7 +1284,7 @@
         <tr r="J52" s="1"/>
       </tp>
       <tp>
-        <v>47</v>
+        <v>89</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1333,7 +1333,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>6</v>
+        <v>241</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1346,8 +1346,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H29" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>High</stp>
@@ -1424,7 +1424,7 @@
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Last</stp>
@@ -1528,8 +1528,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J45" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp>ECFZ 2!-ICN</stp>
         <stp>Ask</stp>
@@ -1585,7 +1585,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>-0.10000000000000853</v>
+        <v>0.3399999999999892</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1647,8 +1647,8 @@
         <stp>Recent Settlement</stp>
         <tr r="J50" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Last</stp>
@@ -1696,15 +1696,15 @@
         <stp>Recent Settlement</stp>
         <tr r="J53" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.01</v>
         <stp/>
         <stp>ECFZ 1!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F30" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.04</v>
         <stp/>
         <stp>ECFZ 2!-ICN</stp>
         <stp>Bid</stp>
@@ -1717,8 +1717,8 @@
         <stp>Low</stp>
         <tr r="E18" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Low</stp>
@@ -1748,7 +1748,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Low</stp>
@@ -1811,7 +1811,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>76.739999999999995</v>
+        <v>76.47</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -1846,7 +1846,7 @@
         <tr r="I60" s="1"/>
       </tp>
       <tp>
-        <v>77.17</v>
+        <v>77</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Last</stp>
@@ -1902,7 +1902,7 @@
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>59</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1930,7 +1930,7 @@
         <tr r="H23" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>7</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1944,7 +1944,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>76.849999999999994</v>
+        <v>76.17</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Last</stp>
@@ -2000,14 +2000,14 @@
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>79.12</v>
+        <v>78.819999999999993</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>High</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>76.27</v>
+        <v>76.2</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2035,7 +2035,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>77.11</v>
+        <v>76.790000000000006</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>High</stp>
@@ -2077,7 +2077,7 @@
         <tr r="I58" s="1"/>
       </tp>
       <tp>
-        <v>77.56</v>
+        <v>77.05</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>High</stp>
@@ -2119,7 +2119,7 @@
         <tr r="I57" s="1"/>
       </tp>
       <tp>
-        <v>76.849999999999994</v>
+        <v>76.37</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>High</stp>
@@ -2133,14 +2133,14 @@
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>-0.15</v>
+        <v>-0.17</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>-0.25</v>
+        <v>-0.28000000000000003</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Ask</stp>
@@ -2161,21 +2161,21 @@
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>-0.51</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>-0.11</v>
+        <v>-0.12</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Ask</stp>
@@ -2196,28 +2196,28 @@
         <tr r="F19" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>-0.4</v>
+        <v>-0.37</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>-0.56999999999999995</v>
+        <v>-0.55000000000000004</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>-0.2</v>
+        <v>-0.15</v>
         <stp/>
         <stp>ECF 2!:ECF3!-ICN</stp>
         <stp>Bid</stp>
@@ -2238,7 +2238,7 @@
         <tr r="F24" s="1"/>
       </tp>
       <tp>
-        <v>-0.26</v>
+        <v>-0.23</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Bid</stp>
@@ -2252,14 +2252,14 @@
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>76.72</v>
+        <v>76.2</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>High</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>78.67</v>
+        <v>78.45</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2287,21 +2287,21 @@
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3545</v>
+        <v>3613</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I13" s="1"/>
       </tp>
       <tp>
-        <v>52015</v>
+        <v>55600</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I14" s="1"/>
       </tp>
       <tp>
-        <v>933</v>
+        <v>1060</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2357,42 +2357,42 @@
         <tr r="F25" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 9!:ECF10!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G25" s="1"/>
       </tp>
       <tp>
-        <v>-0.43</v>
+        <v>-0.45</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J24" s="1"/>
       </tp>
       <tp>
-        <v>-0.19</v>
+        <v>-0.2</v>
         <stp/>
         <stp>ECF 7!:ECF8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J23" s="1"/>
       </tp>
       <tp>
-        <v>-0.33</v>
+        <v>-0.35</v>
         <stp/>
         <stp>ECF 6!:ECF7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J22" s="1"/>
       </tp>
       <tp>
-        <v>-0.53</v>
+        <v>-0.5</v>
         <stp/>
         <stp>ECF 5!:ECF6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>-0.52</v>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 4!:ECF5!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2413,7 +2413,7 @@
         <tr r="J18" s="1"/>
       </tp>
       <tp>
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
         <stp/>
         <stp>ECF 1!:ECF2!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -2429,7 +2429,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>82.32</v>
+        <v>81.83</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 15!-ICN</stp>
@@ -2437,7 +2437,7 @@
         <tr r="B16" s="4"/>
       </tp>
       <tp>
-        <v>81.67</v>
+        <v>81.17</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 14!-ICN</stp>
@@ -2445,7 +2445,7 @@
         <tr r="B15" s="4"/>
       </tp>
       <tp>
-        <v>86.33</v>
+        <v>85.93</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 17!-ICN</stp>
@@ -2453,7 +2453,7 @@
         <tr r="B18" s="4"/>
       </tp>
       <tp>
-        <v>83.55</v>
+        <v>83.06</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 16!-ICN</stp>
@@ -2461,7 +2461,7 @@
         <tr r="B17" s="4"/>
       </tp>
       <tp>
-        <v>79.849999999999994</v>
+        <v>79.33</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 11!-ICN</stp>
@@ -2469,7 +2469,7 @@
         <tr r="B12" s="4"/>
       </tp>
       <tp>
-        <v>79.290000000000006</v>
+        <v>78.78</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 10!-ICN</stp>
@@ -2477,7 +2477,7 @@
         <tr r="B11" s="4"/>
       </tp>
       <tp>
-        <v>81.040000000000006</v>
+        <v>80.510000000000005</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 13!-ICN</stp>
@@ -2485,7 +2485,7 @@
         <tr r="B14" s="4"/>
       </tp>
       <tp>
-        <v>80.3</v>
+        <v>79.77</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 12!-ICN</stp>
@@ -2493,7 +2493,7 @@
         <tr r="B13" s="4"/>
       </tp>
       <tp>
-        <v>89.59</v>
+        <v>89.2</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 18!-ICN</stp>
@@ -2510,14 +2510,14 @@
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>-0.78</v>
+        <v>-0.79</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>-0.75</v>
+        <v>-0.83</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Bid</stp>
@@ -2533,7 +2533,7 @@
     </main>
     <main first="ixl">
       <tp>
-        <v>78.319999999999993</v>
+        <v>77.790000000000006</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 8!-ICN</stp>
@@ -2541,7 +2541,7 @@
         <tr r="B9" s="4"/>
       </tp>
       <tp>
-        <v>78.75</v>
+        <v>78.239999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 9!-ICN</stp>
@@ -2549,7 +2549,7 @@
         <tr r="B10" s="4"/>
       </tp>
       <tp>
-        <v>76.75</v>
+        <v>76.209999999999994</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 4!-ICN</stp>
@@ -2557,7 +2557,7 @@
         <tr r="B5" s="4"/>
       </tp>
       <tp>
-        <v>77.27</v>
+        <v>76.739999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 5!-ICN</stp>
@@ -2565,7 +2565,7 @@
         <tr r="B6" s="4"/>
       </tp>
       <tp>
-        <v>77.8</v>
+        <v>77.239999999999995</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 6!-ICN</stp>
@@ -2573,7 +2573,7 @@
         <tr r="B7" s="4"/>
       </tp>
       <tp>
-        <v>78.13</v>
+        <v>77.59</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 7!-ICN</stp>
@@ -2581,7 +2581,7 @@
         <tr r="B8" s="4"/>
       </tp>
       <tp>
-        <v>76.36</v>
+        <v>75.819999999999993</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 1!-ICN</stp>
@@ -2589,7 +2589,7 @@
         <tr r="B2" s="4"/>
       </tp>
       <tp>
-        <v>76.5</v>
+        <v>75.95</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 2!-ICN</stp>
@@ -2597,7 +2597,7 @@
         <tr r="B3" s="4"/>
       </tp>
       <tp>
-        <v>76.650000000000006</v>
+        <v>76.099999999999994</v>
         <stp/>
         <stp>*QC</stp>
         <stp>ECF 3!-ICN</stp>
@@ -2614,14 +2614,14 @@
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>-0.69</v>
+        <v>-0.71</v>
         <stp/>
         <stp>ECF 12!:ECF13!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
         <stp/>
         <stp>ECF 13!:ECF14!-ICN</stp>
         <stp>Ask</stp>
@@ -2635,28 +2635,28 @@
         <tr r="G29" s="1"/>
       </tp>
       <tp>
-        <v>819</v>
+        <v>939</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>176344</v>
+        <v>181177</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>351133</v>
+        <v>355535</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>35210</v>
+        <v>35279</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2677,21 +2677,21 @@
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>52611</v>
+        <v>53002</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>10239</v>
+        <v>11360</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Open Interest</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>4340</v>
+        <v>4390</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Open Interest</stp>
@@ -2747,63 +2747,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>76.75</v>
+        <v>76.489999999999995</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>77.260000000000005</v>
+        <v>77.040000000000006</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>77.83</v>
+        <v>77.569999999999993</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>78.14</v>
+        <v>77.89</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>76.349999999999994</v>
+        <v>76.099999999999994</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>76.489999999999995</v>
+        <v>76.239999999999995</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>76.66</v>
+        <v>76.39</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>78.34</v>
+        <v>78.099999999999994</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>78.760000000000005</v>
+        <v>78.53</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2845,70 +2845,70 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>78.28</v>
+        <v>78.03</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>78.73</v>
+        <v>78.489999999999995</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>77.73</v>
+        <v>77.489999999999995</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>80.94</v>
+        <v>80.849999999999994</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>78.069999999999993</v>
+        <v>77.819999999999993</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>76.73</v>
+        <v>76.459999999999994</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>77.239999999999995</v>
+        <v>76.989999999999995</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>76.45</v>
+        <v>76.2</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>76.58</v>
+        <v>76.33</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>76.319999999999993</v>
+        <v>76.06</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3195,7 +3195,7 @@
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>80.94</v>
+        <v>80.959999999999994</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>High</stp>
@@ -3307,7 +3307,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>78.64</v>
+        <v>77.81</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Low</stp>
@@ -3335,7 +3335,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>76.27</v>
+        <v>75.38</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3349,7 +3349,7 @@
         <tr r="D35" s="1"/>
       </tp>
       <tp>
-        <v>76.72</v>
+        <v>76.150000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Low</stp>
@@ -3377,7 +3377,7 @@
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>76.63</v>
+        <v>75.77</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Low</stp>
@@ -3391,7 +3391,7 @@
         <tr r="D38" s="1"/>
       </tp>
       <tp>
-        <v>77.17</v>
+        <v>76.36</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Low</stp>
@@ -3531,14 +3531,14 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>402</v>
+        <v>2183</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>4</v>
+        <v>49</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3552,7 +3552,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>278</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3573,14 +3573,14 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>2664</v>
+        <v>17074</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>5</v>
+        <v>61</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3656,6 +3656,8 @@
         <stp>Change</stp>
         <tr r="C31" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v>ECFZ 25Z-ICN</v>
         <stp/>
@@ -3762,14 +3764,14 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>-7.9999999999998295E-2</v>
+        <v>0.21000000000000796</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>0.34999999999999432</v>
+        <v>0.21999999999999886</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Change</stp>
@@ -3783,7 +3785,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>-9.0000000000003411E-2</v>
+        <v>0.38000000000000966</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -3804,14 +3806,14 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>-1.0000000000005116E-2</v>
+        <v>0.26000000000000512</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>-9.9999999999994316E-2</v>
+        <v>0.26000000000000512</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Change</stp>
@@ -4441,63 +4443,63 @@
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>78.75</v>
+        <v>78.239999999999995</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp>
-        <v>78.319999999999993</v>
+        <v>77.790000000000006</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp>
-        <v>78.13</v>
+        <v>77.59</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp>
-        <v>77.8</v>
+        <v>77.239999999999995</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>77.27</v>
+        <v>76.739999999999995</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp>
-        <v>76.75</v>
+        <v>76.209999999999994</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp>
-        <v>76.650000000000006</v>
+        <v>76.099999999999994</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp>
-        <v>76.5</v>
+        <v>75.95</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Recent Settlement</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>76.36</v>
+        <v>75.819999999999993</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Recent Settlement</stp>
@@ -4876,39 +4878,39 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>76.27</v>
+        <v>76.2</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>-9.0000000000003411E-2</v>
+        <v>0.38000000000000966</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
-        <v>76.72</v>
+        <v>76.2</v>
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>76.27</v>
+        <v>75.38</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>76.319999999999993</v>
+        <v>76.06</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>76.349999999999994</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
-        <v>52611</v>
+        <v>53002</v>
       </c>
       <c r="J2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Recent Settlement")</f>
-        <v>76.36</v>
+        <v>75.819999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4918,39 +4920,39 @@
       </c>
       <c r="B3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Last")</f>
-        <v>76.849999999999994</v>
+        <v>76.17</v>
       </c>
       <c r="C3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Change")</f>
-        <v>0.34999999999999432</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="D3">
         <f>RTD("esrtd",,"ECF 2!-ICN","High")</f>
-        <v>76.849999999999994</v>
+        <v>76.37</v>
       </c>
       <c r="E3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Low")</f>
-        <v>76.72</v>
+        <v>76.150000000000006</v>
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>76.45</v>
+        <v>76.2</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>76.489999999999995</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Open Interest")</f>
-        <v>10239</v>
+        <v>11360</v>
       </c>
       <c r="J3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Recent Settlement")</f>
-        <v>76.5</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,11 +4978,11 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>76.58</v>
+        <v>76.33</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>76.66</v>
+        <v>76.39</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
@@ -4988,11 +4990,11 @@
       </c>
       <c r="I4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Open Interest")</f>
-        <v>4340</v>
+        <v>4390</v>
       </c>
       <c r="J4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Recent Settlement")</f>
-        <v>76.650000000000006</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5002,39 +5004,39 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>76.739999999999995</v>
+        <v>76.47</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>-1.0000000000005116E-2</v>
+        <v>0.26000000000000512</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
-        <v>77.11</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="E5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Low")</f>
-        <v>76.63</v>
+        <v>75.77</v>
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>76.73</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>76.75</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>2664</v>
+        <v>17074</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
-        <v>351133</v>
+        <v>355535</v>
       </c>
       <c r="J5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Recent Settlement")</f>
-        <v>76.75</v>
+        <v>76.209999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,39 +5046,39 @@
       </c>
       <c r="B6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Last")</f>
-        <v>77.17</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Change")</f>
-        <v>-9.9999999999994316E-2</v>
+        <v>0.26000000000000512</v>
       </c>
       <c r="D6">
         <f>RTD("esrtd",,"ECF 5!-ICN","High")</f>
-        <v>77.56</v>
+        <v>77.05</v>
       </c>
       <c r="E6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Low")</f>
-        <v>77.17</v>
+        <v>76.36</v>
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>77.239999999999995</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>77.260000000000005</v>
+        <v>77.040000000000006</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Open Interest")</f>
-        <v>35210</v>
+        <v>35279</v>
       </c>
       <c r="J6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Recent Settlement")</f>
-        <v>77.27</v>
+        <v>76.739999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5102,11 +5104,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>77.73</v>
+        <v>77.489999999999995</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>77.83</v>
+        <v>77.569999999999993</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5118,7 +5120,7 @@
       </c>
       <c r="J7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Recent Settlement")</f>
-        <v>77.8</v>
+        <v>77.239999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,11 +5146,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>78.069999999999993</v>
+        <v>77.819999999999993</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>78.14</v>
+        <v>77.89</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5160,7 +5162,7 @@
       </c>
       <c r="J8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Recent Settlement")</f>
-        <v>78.13</v>
+        <v>77.59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5186,11 +5188,11 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>78.28</v>
+        <v>78.03</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>78.34</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
@@ -5198,11 +5200,11 @@
       </c>
       <c r="I9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Open Interest")</f>
-        <v>819</v>
+        <v>939</v>
       </c>
       <c r="J9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Recent Settlement")</f>
-        <v>78.319999999999993</v>
+        <v>77.790000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,39 +5214,39 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>78.67</v>
+        <v>78.45</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>-7.9999999999998295E-2</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
-        <v>79.12</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="E10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Low")</f>
-        <v>78.64</v>
+        <v>77.81</v>
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>78.73</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>78.760000000000005</v>
+        <v>78.53</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>402</v>
+        <v>2183</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
-        <v>176344</v>
+        <v>181177</v>
       </c>
       <c r="J10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Recent Settlement")</f>
-        <v>78.75</v>
+        <v>78.239999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5270,11 +5272,11 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>79.25</v>
+        <v>79.02</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
-        <v>79.33</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Cumulative Volume")</f>
@@ -5282,11 +5284,11 @@
       </c>
       <c r="I11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Open Interest")</f>
-        <v>933</v>
+        <v>1060</v>
       </c>
       <c r="J11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Recent Settlement")</f>
-        <v>79.290000000000006</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,7 +5330,7 @@
       </c>
       <c r="J12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Recent Settlement")</f>
-        <v>79.849999999999994</v>
+        <v>79.33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5354,11 +5356,11 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>80.22</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
-        <v>80.349999999999994</v>
+        <v>80.09</v>
       </c>
       <c r="H13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Cumulative Volume")</f>
@@ -5366,11 +5368,11 @@
       </c>
       <c r="I13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Open Interest")</f>
-        <v>3545</v>
+        <v>3613</v>
       </c>
       <c r="J13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Recent Settlement")</f>
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,39 +5382,39 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>80.94</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>-0.10000000000000853</v>
+        <v>0.3399999999999892</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
-        <v>80.94</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="E14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Low")</f>
-        <v>80.94</v>
+        <v>80.23</v>
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>81</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>81.05</v>
+        <v>80.819999999999993</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
-        <v>52015</v>
+        <v>55600</v>
       </c>
       <c r="J14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Recent Settlement")</f>
-        <v>81.040000000000006</v>
+        <v>80.510000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,11 +5440,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>81.55</v>
+        <v>81.319999999999993</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>81.8</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5454,7 +5456,7 @@
       </c>
       <c r="J15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Recent Settlement")</f>
-        <v>81.67</v>
+        <v>81.17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,7 +5498,7 @@
       </c>
       <c r="J16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Recent Settlement")</f>
-        <v>82.32</v>
+        <v>81.83</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5504,21 +5506,21 @@
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Symbol")</f>
         <v>ECF 25U:ECF25V-ICN</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C17" t="str">
+        <v>-0.13</v>
+      </c>
+      <c r="C17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E17" t="str">
+        <v>-0.13</v>
+      </c>
+      <c r="E17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Low")</f>
-        <v/>
+        <v>-0.15</v>
       </c>
       <c r="F17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Bid")</f>
@@ -5526,11 +5528,11 @@
       </c>
       <c r="G17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Ask")</f>
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" t="str">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Open Interest")</f>
@@ -5538,7 +5540,7 @@
       </c>
       <c r="J17">
         <f>RTD("esrtd",,"ECF 1!:ECF2!-ICN","Recent Settlement")</f>
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5564,11 +5566,11 @@
       </c>
       <c r="F18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Bid")</f>
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="G18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Ask")</f>
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="H18">
         <f>RTD("esrtd",,"ECF 2!:ECF3!-ICN","Cumulative Volume")</f>
@@ -5632,11 +5634,11 @@
       </c>
       <c r="B20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Last")</f>
-        <v>-0.51</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Change")</f>
-        <v>1.0000000000000009E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="D20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","High")</f>
@@ -5644,19 +5646,19 @@
       </c>
       <c r="E20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Low")</f>
-        <v>-0.52</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Bid")</f>
-        <v>-0.52</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Ask")</f>
-        <v>-0.51</v>
+        <v>-0.53</v>
       </c>
       <c r="H20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Cumulative Volume")</f>
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I20" t="str">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Open Interest")</f>
@@ -5664,7 +5666,7 @@
       </c>
       <c r="J20">
         <f>RTD("esrtd",,"ECF 4!:ECF5!-ICN","Recent Settlement")</f>
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5690,7 +5692,7 @@
       </c>
       <c r="F21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Bid")</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Ask")</f>
@@ -5706,7 +5708,7 @@
       </c>
       <c r="J21">
         <f>RTD("esrtd",,"ECF 5!:ECF6!-ICN","Recent Settlement")</f>
-        <v>-0.53</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5732,11 +5734,11 @@
       </c>
       <c r="F22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Bid")</f>
-        <v>-0.4</v>
+        <v>-0.37</v>
       </c>
       <c r="G22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Ask")</f>
-        <v>-0.25</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Cumulative Volume")</f>
@@ -5748,7 +5750,7 @@
       </c>
       <c r="J22">
         <f>RTD("esrtd",,"ECF 6!:ECF7!-ICN","Recent Settlement")</f>
-        <v>-0.33</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5774,11 +5776,11 @@
       </c>
       <c r="F23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Bid")</f>
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="G23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Ask")</f>
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="H23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Cumulative Volume")</f>
@@ -5790,7 +5792,7 @@
       </c>
       <c r="J23">
         <f>RTD("esrtd",,"ECF 7!:ECF8!-ICN","Recent Settlement")</f>
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5832,7 +5834,7 @@
       </c>
       <c r="J24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Recent Settlement")</f>
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5862,7 +5864,7 @@
       </c>
       <c r="G25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Ask")</f>
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="H25">
         <f>RTD("esrtd",,"ECF 9!:ECF10!-ICN","Cumulative Volume")</f>
@@ -5916,7 +5918,7 @@
       </c>
       <c r="J26">
         <f>RTD("esrtd",,"ECF 11!:ECF12!-ICN","Recent Settlement")</f>
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5942,11 +5944,11 @@
       </c>
       <c r="F27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Bid")</f>
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
       <c r="G27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Ask")</f>
-        <v>-0.69</v>
+        <v>-0.71</v>
       </c>
       <c r="H27">
         <f>RTD("esrtd",,"ECF 12!:ECF13!-ICN","Cumulative Volume")</f>
@@ -5984,11 +5986,11 @@
       </c>
       <c r="F28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Bid")</f>
-        <v>-0.75</v>
+        <v>-0.83</v>
       </c>
       <c r="G28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Ask")</f>
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="H28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Cumulative Volume")</f>
@@ -6000,7 +6002,7 @@
       </c>
       <c r="J28">
         <f>RTD("esrtd",,"ECF 13!:ECF14!-ICN","Recent Settlement")</f>
-        <v>-0.63</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,7 +6044,7 @@
       </c>
       <c r="J29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Recent Settlement")</f>
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6066,9 +6068,9 @@
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Low")</f>
         <v>0</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Bid")</f>
-        <v/>
+        <v>-0.01</v>
       </c>
       <c r="G30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Ask")</f>
@@ -6076,7 +6078,7 @@
       </c>
       <c r="H30">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Cumulative Volume")</f>
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I30" t="str">
         <f>RTD("esrtd",,"ECFZ 1!-ICN","Open Interest")</f>
@@ -6110,11 +6112,11 @@
       </c>
       <c r="F31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Bid")</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="str">
+        <v>-0.04</v>
+      </c>
+      <c r="G31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Ask")</f>
-        <v/>
+        <v>0.06</v>
       </c>
       <c r="H31">
         <f>RTD("esrtd",,"ECFZ 2!-ICN","Cumulative Volume")</f>
@@ -7356,8 +7358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="N187" sqref="N187"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="N173" sqref="N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,5420 +7446,5420 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>DATE(2025,9,22)</f>
+        <v>45922</v>
+      </c>
+      <c r="B5">
+        <v>53002</v>
+      </c>
+      <c r="C5">
+        <v>355535</v>
+      </c>
+      <c r="D5">
+        <v>35279</v>
+      </c>
+      <c r="E5">
+        <v>16909</v>
+      </c>
+      <c r="F5">
+        <v>181177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(2025,9,19)</f>
+        <v>45919</v>
+      </c>
+      <c r="B6">
+        <v>53089</v>
+      </c>
+      <c r="C6">
+        <v>353508</v>
+      </c>
+      <c r="D6">
+        <v>35212</v>
+      </c>
+      <c r="E6">
+        <v>16909</v>
+      </c>
+      <c r="F6">
+        <v>181271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>DATE(2025,9,18)</f>
+        <v>45918</v>
+      </c>
+      <c r="B7">
+        <v>53094</v>
+      </c>
+      <c r="C7">
+        <v>352301</v>
+      </c>
+      <c r="D7">
+        <v>35368</v>
+      </c>
+      <c r="E7">
+        <v>16909</v>
+      </c>
+      <c r="F7">
+        <v>181386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>DATE(2025,9,17)</f>
+        <v>45917</v>
+      </c>
+      <c r="B8">
+        <v>52458</v>
+      </c>
+      <c r="C8">
+        <v>351066</v>
+      </c>
+      <c r="D8">
+        <v>35371</v>
+      </c>
+      <c r="E8">
+        <v>16909</v>
+      </c>
+      <c r="F8">
+        <v>180453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>DATE(2025,9,16)</f>
+        <v>45916</v>
+      </c>
+      <c r="B9">
+        <v>52385</v>
+      </c>
+      <c r="C9">
+        <v>352111</v>
+      </c>
+      <c r="D9">
+        <v>35340</v>
+      </c>
+      <c r="E9">
+        <v>16909</v>
+      </c>
+      <c r="F9">
+        <v>179147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f>DATE(2025,9,15)</f>
         <v>45915</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B10">
+        <v>52634</v>
+      </c>
+      <c r="C10">
+        <v>353026</v>
+      </c>
+      <c r="D10">
+        <v>35249</v>
+      </c>
+      <c r="E10">
+        <v>16909</v>
+      </c>
+      <c r="F10">
+        <v>177490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f>DATE(2025,9,12)</f>
         <v>45912</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>52611</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>351133</v>
       </c>
-      <c r="D6">
+      <c r="D11">
         <v>35210</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>16909</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>176344</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f>DATE(2025,9,11)</f>
         <v>45911</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>52574</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>349117</v>
       </c>
-      <c r="D7">
+      <c r="D12">
         <v>34669</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>16909</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>176245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>DATE(2025,9,10)</f>
         <v>45910</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>52537</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>348331</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>34600</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>16904</v>
       </c>
-      <c r="F8">
+      <c r="F13">
         <v>174401</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f>DATE(2025,9,9)</f>
         <v>45909</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>52569</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>346299</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>34549</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>16853</v>
       </c>
-      <c r="F9">
+      <c r="F14">
         <v>173517</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f>DATE(2025,9,8)</f>
         <v>45908</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>53114</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>344793</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>34477</v>
       </c>
-      <c r="E10">
+      <c r="E15">
         <v>16853</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>173160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f>DATE(2025,9,5)</f>
         <v>45905</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>52743</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>343314</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>34434</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>16853</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>173497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f>DATE(2025,9,4)</f>
         <v>45904</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>52764</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>343492</v>
       </c>
-      <c r="D12">
+      <c r="D17">
         <v>34372</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <v>16853</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>175805</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f>DATE(2025,9,3)</f>
         <v>45903</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>52996</v>
       </c>
-      <c r="C13">
+      <c r="C18">
         <v>342971</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>34171</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>16853</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>175671</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f>DATE(2025,9,2)</f>
         <v>45902</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>53280</v>
       </c>
-      <c r="C14">
+      <c r="C19">
         <v>344044</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>34054</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>16773</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>173844</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>53879</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>345801</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>34023</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>16773</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>171783</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f>DATE(2025,8,29)</f>
         <v>45898</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>55423</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>342992</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>34444</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>16773</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>171131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f>DATE(2025,8,28)</f>
         <v>45897</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>55406</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>340721</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>34426</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>16473</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>170479</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f>DATE(2025,8,27)</f>
         <v>45896</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>55504</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>339452</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <v>34349</v>
       </c>
-      <c r="E18">
+      <c r="E23">
         <v>16473</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <v>169640</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f>DATE(2025,8,26)</f>
         <v>45895</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>55650</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>340557</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>34302</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>16141</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>169468</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f>DATE(2025,8,25)</f>
         <v>45894</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>55526</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>338181</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>34283</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>16141</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>169331</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f>DATE(2025,8,22)</f>
         <v>45891</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>55494</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>337516</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>33952</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>16141</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>169313</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f>DATE(2025,8,21)</f>
         <v>45890</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>55271</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>336880</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>33466</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>16134</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>169229</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f>DATE(2025,8,20)</f>
         <v>45889</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>55233</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>336461</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>32957</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>16282</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>167467</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f>DATE(2025,8,19)</f>
         <v>45888</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>55159</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <v>335216</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>32675</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>16112</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>166986</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f>DATE(2025,8,18)</f>
         <v>45887</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>55038</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>334562</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>32404</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <v>16244</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <v>166189</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f>DATE(2025,8,15)</f>
         <v>45884</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>54467</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>332925</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>32139</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>16114</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>165785</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f>DATE(2025,8,14)</f>
         <v>45883</v>
       </c>
-      <c r="B27">
+      <c r="B32">
         <v>52654</v>
       </c>
-      <c r="C27">
+      <c r="C32">
         <v>331793</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>32139</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>16114</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>165035</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f>DATE(2025,8,13)</f>
         <v>45882</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>49078</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>334724</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>31135</v>
       </c>
-      <c r="E28">
+      <c r="E33">
         <v>16086</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <v>165282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f>DATE(2025,8,12)</f>
         <v>45881</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>49075</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>333519</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>31129</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>16084</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <v>165259</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>49079</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>332913</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>31123</v>
       </c>
-      <c r="E30">
+      <c r="E35">
         <v>16080</v>
       </c>
-      <c r="F30">
+      <c r="F35">
         <v>164418</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f>DATE(2025,8,8)</f>
         <v>45877</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>49029</v>
       </c>
-      <c r="C31">
+      <c r="C36">
         <v>334592</v>
       </c>
-      <c r="D31">
+      <c r="D36">
         <v>31103</v>
       </c>
-      <c r="E31">
+      <c r="E36">
         <v>16080</v>
       </c>
-      <c r="F31">
+      <c r="F36">
         <v>164283</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f>DATE(2025,8,7)</f>
         <v>45876</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>49035</v>
       </c>
-      <c r="C32">
+      <c r="C37">
         <v>334273</v>
       </c>
-      <c r="D32">
+      <c r="D37">
         <v>31046</v>
       </c>
-      <c r="E32">
+      <c r="E37">
         <v>16080</v>
       </c>
-      <c r="F32">
+      <c r="F37">
         <v>162523</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f>DATE(2025,8,6)</f>
         <v>45875</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>49028</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>335278</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>30118</v>
       </c>
-      <c r="E33">
+      <c r="E38">
         <v>16080</v>
       </c>
-      <c r="F33">
+      <c r="F38">
         <v>162858</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f>DATE(2025,8,5)</f>
         <v>45874</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>49028</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>333937</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>30037</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>16079</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <v>161752</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f>DATE(2025,8,4)</f>
         <v>45873</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>48952</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>333839</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>30018</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>16079</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>161155</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f>DATE(2025,8,1)</f>
         <v>45870</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>48947</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>335306</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>29963</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>16079</v>
       </c>
-      <c r="F36">
+      <c r="F41">
         <v>160284</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f>DATE(2025,7,31)</f>
         <v>45869</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>48946</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>335217</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>29443</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>16054</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>159960</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f>DATE(2025,7,30)</f>
         <v>45868</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>48458</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>334621</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>29466</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>16054</v>
       </c>
-      <c r="F38">
+      <c r="F43">
         <v>159968</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f>DATE(2025,7,29)</f>
         <v>45867</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>48210</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>335880</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>29456</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>16054</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <v>159282</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f>DATE(2025,7,28)</f>
         <v>45866</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>48261</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>333961</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>29447</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>16053</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <v>158865</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f>DATE(2025,7,25)</f>
         <v>45863</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>48208</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>333078</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>29391</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>16051</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <v>158379</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f>DATE(2025,7,24)</f>
         <v>45862</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>48527</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>332644</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>29344</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>16051</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <v>158783</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="B43">
+      <c r="B48">
         <v>48515</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>331048</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <v>29341</v>
       </c>
-      <c r="E43">
+      <c r="E48">
         <v>16051</v>
       </c>
-      <c r="F43">
+      <c r="F48">
         <v>157895</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f>DATE(2025,7,22)</f>
         <v>45860</v>
       </c>
-      <c r="B44">
+      <c r="B49">
         <v>48536</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>329710</v>
       </c>
-      <c r="D44">
+      <c r="D49">
         <v>29291</v>
       </c>
-      <c r="E44">
+      <c r="E49">
         <v>16048</v>
       </c>
-      <c r="F44">
+      <c r="F49">
         <v>157083</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f>DATE(2025,7,21)</f>
         <v>45859</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>48510</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>328708</v>
       </c>
-      <c r="D45">
+      <c r="D50">
         <v>28676</v>
       </c>
-      <c r="E45">
+      <c r="E50">
         <v>16045</v>
       </c>
-      <c r="F45">
+      <c r="F50">
         <v>155953</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f>DATE(2025,7,18)</f>
         <v>45856</v>
       </c>
-      <c r="B46">
+      <c r="B51">
         <v>48350</v>
       </c>
-      <c r="C46">
+      <c r="C51">
         <v>327097</v>
       </c>
-      <c r="D46">
+      <c r="D51">
         <v>28361</v>
       </c>
-      <c r="E46">
+      <c r="E51">
         <v>16027</v>
       </c>
-      <c r="F46">
+      <c r="F51">
         <v>155293</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f>DATE(2025,7,17)</f>
         <v>45855</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <v>48330</v>
       </c>
-      <c r="C47">
+      <c r="C52">
         <v>326066</v>
       </c>
-      <c r="D47">
+      <c r="D52">
         <v>27846</v>
       </c>
-      <c r="E47">
+      <c r="E52">
         <v>16025</v>
       </c>
-      <c r="F47">
+      <c r="F52">
         <v>154555</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f>DATE(2025,7,16)</f>
         <v>45854</v>
       </c>
-      <c r="B48">
+      <c r="B53">
         <v>48290</v>
       </c>
-      <c r="C48">
+      <c r="C53">
         <v>326325</v>
       </c>
-      <c r="D48">
+      <c r="D53">
         <v>27426</v>
       </c>
-      <c r="E48">
+      <c r="E53">
         <v>16024</v>
       </c>
-      <c r="F48">
+      <c r="F53">
         <v>153864</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f>DATE(2025,7,15)</f>
         <v>45853</v>
       </c>
-      <c r="B49">
+      <c r="B54">
         <v>48290</v>
       </c>
-      <c r="C49">
+      <c r="C54">
         <v>325885</v>
       </c>
-      <c r="D49">
+      <c r="D54">
         <v>27369</v>
       </c>
-      <c r="E49">
+      <c r="E54">
         <v>16006</v>
       </c>
-      <c r="F49">
+      <c r="F54">
         <v>152993</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f>DATE(2025,7,14)</f>
         <v>45852</v>
       </c>
-      <c r="B50">
+      <c r="B55">
         <v>48290</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>323301</v>
       </c>
-      <c r="D50">
+      <c r="D55">
         <v>27355</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>15982</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>152111</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f>DATE(2025,7,11)</f>
         <v>45849</v>
       </c>
-      <c r="B51">
+      <c r="B56">
         <v>48290</v>
       </c>
-      <c r="C51">
+      <c r="C56">
         <v>321020</v>
       </c>
-      <c r="D51">
+      <c r="D56">
         <v>27331</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>15975</v>
       </c>
-      <c r="F51">
+      <c r="F56">
         <v>151848</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f>DATE(2025,7,10)</f>
         <v>45848</v>
       </c>
-      <c r="B52">
+      <c r="B57">
         <v>48236</v>
       </c>
-      <c r="C52">
+      <c r="C57">
         <v>321618</v>
       </c>
-      <c r="D52">
+      <c r="D57">
         <v>26279</v>
       </c>
-      <c r="E52">
+      <c r="E57">
         <v>15958</v>
       </c>
-      <c r="F52">
+      <c r="F57">
         <v>150659</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>DATE(2025,7,9)</f>
         <v>45847</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>48121</v>
       </c>
-      <c r="C53">
+      <c r="C58">
         <v>320154</v>
       </c>
-      <c r="D53">
+      <c r="D58">
         <v>26263</v>
       </c>
-      <c r="E53">
+      <c r="E58">
         <v>15955</v>
       </c>
-      <c r="F53">
+      <c r="F58">
         <v>150687</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f>DATE(2025,7,8)</f>
         <v>45846</v>
       </c>
-      <c r="B54">
+      <c r="B59">
         <v>47384</v>
       </c>
-      <c r="C54">
+      <c r="C59">
         <v>319320</v>
       </c>
-      <c r="D54">
+      <c r="D59">
         <v>26236</v>
       </c>
-      <c r="E54">
+      <c r="E59">
         <v>15950</v>
       </c>
-      <c r="F54">
+      <c r="F59">
         <v>149986</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f>DATE(2025,7,7)</f>
         <v>45845</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>46088</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>318933</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>26180</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>15944</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>149479</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f>DATE(2025,7,4)</f>
         <v>45842</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>45908</v>
       </c>
-      <c r="C56">
+      <c r="C61">
         <v>319160</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>26167</v>
       </c>
-      <c r="E56">
+      <c r="E61">
         <v>15922</v>
       </c>
-      <c r="F56">
+      <c r="F61">
         <v>149447</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f>DATE(2025,7,3)</f>
         <v>45841</v>
       </c>
-      <c r="B57">
+      <c r="B62">
         <v>45896</v>
       </c>
-      <c r="C57">
+      <c r="C62">
         <v>318241</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>26163</v>
       </c>
-      <c r="E57">
+      <c r="E62">
         <v>15918</v>
       </c>
-      <c r="F57">
+      <c r="F62">
         <v>149132</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f>DATE(2025,7,2)</f>
         <v>45840</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>44033</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>319486</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>22147</v>
       </c>
-      <c r="E58">
+      <c r="E63">
         <v>15913</v>
       </c>
-      <c r="F58">
+      <c r="F63">
         <v>147950</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f>DATE(2025,7,1)</f>
         <v>45839</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>43816</v>
       </c>
-      <c r="C59">
+      <c r="C64">
         <v>318476</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>22099</v>
       </c>
-      <c r="E59">
+      <c r="E64">
         <v>15913</v>
       </c>
-      <c r="F59">
+      <c r="F64">
         <v>147288</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f>DATE(2025,6,30)</f>
         <v>45838</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>43451</v>
       </c>
-      <c r="C60">
+      <c r="C65">
         <v>319974</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>22070</v>
       </c>
-      <c r="E60">
+      <c r="E65">
         <v>15831</v>
       </c>
-      <c r="F60">
+      <c r="F65">
         <v>147310</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f>DATE(2025,6,27)</f>
         <v>45835</v>
       </c>
-      <c r="B61">
+      <c r="B66">
         <v>42536</v>
       </c>
-      <c r="C61">
+      <c r="C66">
         <v>319363</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>22090</v>
       </c>
-      <c r="E61">
+      <c r="E66">
         <v>15797</v>
       </c>
-      <c r="F61">
+      <c r="F66">
         <v>146216</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f>DATE(2025,6,26)</f>
         <v>45834</v>
       </c>
-      <c r="B62">
+      <c r="B67">
         <v>40059</v>
       </c>
-      <c r="C62">
+      <c r="C67">
         <v>320370</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>22093</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>15793</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <v>145781</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f>DATE(2025,6,25)</f>
         <v>45833</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>32534</v>
       </c>
-      <c r="C63">
+      <c r="C68">
         <v>322739</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>22106</v>
       </c>
-      <c r="E63">
+      <c r="E68">
         <v>15793</v>
       </c>
-      <c r="F63">
+      <c r="F68">
         <v>144874</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f>DATE(2025,6,24)</f>
         <v>45832</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>34154</v>
       </c>
-      <c r="C64">
+      <c r="C69">
         <v>321931</v>
       </c>
-      <c r="D64">
+      <c r="D69">
         <v>22111</v>
       </c>
-      <c r="E64">
+      <c r="E69">
         <v>15767</v>
       </c>
-      <c r="F64">
+      <c r="F69">
         <v>143864</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f>DATE(2025,6,23)</f>
         <v>45831</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>33248</v>
       </c>
-      <c r="C65">
+      <c r="C70">
         <v>324446</v>
       </c>
-      <c r="D65">
+      <c r="D70">
         <v>22093</v>
       </c>
-      <c r="E65">
+      <c r="E70">
         <v>15765</v>
       </c>
-      <c r="F65">
+      <c r="F70">
         <v>143661</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f>DATE(2025,6,20)</f>
         <v>45828</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>32748</v>
       </c>
-      <c r="C66">
+      <c r="C71">
         <v>324690</v>
       </c>
-      <c r="D66">
+      <c r="D71">
         <v>22083</v>
       </c>
-      <c r="E66">
+      <c r="E71">
         <v>15711</v>
       </c>
-      <c r="F66">
+      <c r="F71">
         <v>141607</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f>DATE(2025,6,19)</f>
         <v>45827</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>29868</v>
       </c>
-      <c r="C67">
+      <c r="C72">
         <v>325610</v>
       </c>
-      <c r="D67">
+      <c r="D72">
         <v>21978</v>
       </c>
-      <c r="E67">
+      <c r="E72">
         <v>15711</v>
       </c>
-      <c r="F67">
+      <c r="F72">
         <v>141254</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f>DATE(2025,6,18)</f>
         <v>45826</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>29755</v>
       </c>
-      <c r="C68">
+      <c r="C73">
         <v>324035</v>
       </c>
-      <c r="D68">
+      <c r="D73">
         <v>21941</v>
       </c>
-      <c r="E68">
+      <c r="E73">
         <v>15590</v>
       </c>
-      <c r="F68">
+      <c r="F73">
         <v>141078</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f>DATE(2025,6,17)</f>
         <v>45825</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <v>29755</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <v>325145</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <v>21924</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <v>15586</v>
       </c>
-      <c r="F69">
+      <c r="F74">
         <v>140266</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f>DATE(2025,6,16)</f>
         <v>45824</v>
       </c>
-      <c r="B70">
+      <c r="B75">
         <v>29945</v>
       </c>
-      <c r="C70">
+      <c r="C75">
         <v>323780</v>
       </c>
-      <c r="D70">
+      <c r="D75">
         <v>21902</v>
       </c>
-      <c r="E70">
+      <c r="E75">
         <v>15585</v>
       </c>
-      <c r="F70">
+      <c r="F75">
         <v>139680</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>DATE(2025,6,13)</f>
         <v>45821</v>
       </c>
-      <c r="B71">
+      <c r="B76">
         <v>29788</v>
       </c>
-      <c r="C71">
+      <c r="C76">
         <v>323965</v>
       </c>
-      <c r="D71">
+      <c r="D76">
         <v>21895</v>
       </c>
-      <c r="E71">
+      <c r="E76">
         <v>15585</v>
       </c>
-      <c r="F71">
+      <c r="F76">
         <v>139317</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f>DATE(2025,6,12)</f>
         <v>45820</v>
       </c>
-      <c r="B72">
+      <c r="B77">
         <v>29786</v>
       </c>
-      <c r="C72">
+      <c r="C77">
         <v>324500</v>
       </c>
-      <c r="D72">
+      <c r="D77">
         <v>21872</v>
       </c>
-      <c r="E72">
+      <c r="E77">
         <v>15580</v>
       </c>
-      <c r="F72">
+      <c r="F77">
         <v>139012</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f>DATE(2025,6,11)</f>
         <v>45819</v>
       </c>
-      <c r="B73">
+      <c r="B78">
         <v>29802</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>322494</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>21864</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>15492</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>138712</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f>DATE(2025,6,10)</f>
         <v>45818</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>29807</v>
       </c>
-      <c r="C74">
+      <c r="C79">
         <v>320699</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>21824</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <v>15492</v>
       </c>
-      <c r="F74">
+      <c r="F79">
         <v>137682</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f>DATE(2025,6,9)</f>
         <v>45817</v>
       </c>
-      <c r="B75">
+      <c r="B80">
         <v>29507</v>
       </c>
-      <c r="C75">
+      <c r="C80">
         <v>320734</v>
       </c>
-      <c r="D75">
+      <c r="D80">
         <v>21788</v>
       </c>
-      <c r="E75">
+      <c r="E80">
         <v>15489</v>
       </c>
-      <c r="F75">
+      <c r="F80">
         <v>135467</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f>DATE(2025,6,6)</f>
         <v>45814</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>29495</v>
       </c>
-      <c r="C76">
+      <c r="C81">
         <v>321022</v>
       </c>
-      <c r="D76">
+      <c r="D81">
         <v>21780</v>
       </c>
-      <c r="E76">
+      <c r="E81">
         <v>15489</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>135063</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f>DATE(2025,6,5)</f>
         <v>45813</v>
       </c>
-      <c r="B77">
+      <c r="B82">
         <v>29495</v>
       </c>
-      <c r="C77">
+      <c r="C82">
         <v>321194</v>
       </c>
-      <c r="D77">
+      <c r="D82">
         <v>21775</v>
       </c>
-      <c r="E77">
+      <c r="E82">
         <v>15489</v>
       </c>
-      <c r="F77">
+      <c r="F82">
         <v>134947</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f>DATE(2025,6,4)</f>
         <v>45812</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>28625</v>
       </c>
-      <c r="C78">
+      <c r="C83">
         <v>320187</v>
       </c>
-      <c r="D78">
+      <c r="D83">
         <v>21522</v>
       </c>
-      <c r="E78">
+      <c r="E83">
         <v>15439</v>
       </c>
-      <c r="F78">
+      <c r="F83">
         <v>134377</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
-      <c r="B79">
+      <c r="B84">
         <v>28625</v>
       </c>
-      <c r="C79">
+      <c r="C84">
         <v>319824</v>
       </c>
-      <c r="D79">
+      <c r="D84">
         <v>21515</v>
       </c>
-      <c r="E79">
+      <c r="E84">
         <v>15436</v>
       </c>
-      <c r="F79">
+      <c r="F84">
         <v>134162</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f>DATE(2025,6,2)</f>
         <v>45810</v>
       </c>
-      <c r="B80">
+      <c r="B85">
         <v>28625</v>
       </c>
-      <c r="C80">
+      <c r="C85">
         <v>317426</v>
       </c>
-      <c r="D80">
+      <c r="D85">
         <v>21513</v>
       </c>
-      <c r="E80">
+      <c r="E85">
         <v>15431</v>
       </c>
-      <c r="F80">
+      <c r="F85">
         <v>134076</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <f>DATE(2025,5,30)</f>
         <v>45807</v>
       </c>
-      <c r="B81">
+      <c r="B86">
         <v>28625</v>
       </c>
-      <c r="C81">
+      <c r="C86">
         <v>317555</v>
       </c>
-      <c r="D81">
+      <c r="D86">
         <v>21513</v>
       </c>
-      <c r="E81">
+      <c r="E86">
         <v>15428</v>
       </c>
-      <c r="F81">
+      <c r="F86">
         <v>134058</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <f>DATE(2025,5,29)</f>
         <v>45806</v>
       </c>
-      <c r="B82">
+      <c r="B87">
         <v>26625</v>
       </c>
-      <c r="C82">
+      <c r="C87">
         <v>320491</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>21498</v>
       </c>
-      <c r="E82">
+      <c r="E87">
         <v>15425</v>
       </c>
-      <c r="F82">
+      <c r="F87">
         <v>134450</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <f>DATE(2025,5,28)</f>
         <v>45805</v>
       </c>
-      <c r="B83">
+      <c r="B88">
         <v>26367</v>
       </c>
-      <c r="C83">
+      <c r="C88">
         <v>320932</v>
       </c>
-      <c r="D83">
+      <c r="D88">
         <v>21499</v>
       </c>
-      <c r="E83">
+      <c r="E88">
         <v>15314</v>
       </c>
-      <c r="F83">
+      <c r="F88">
         <v>133557</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <f>DATE(2025,5,27)</f>
         <v>45804</v>
       </c>
-      <c r="B84">
+      <c r="B89">
         <v>26367</v>
       </c>
-      <c r="C84">
+      <c r="C89">
         <v>318101</v>
       </c>
-      <c r="D84">
+      <c r="D89">
         <v>21483</v>
       </c>
-      <c r="E84">
+      <c r="E89">
         <v>15311</v>
       </c>
-      <c r="F84">
+      <c r="F89">
         <v>131923</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <f>DATE(2025,5,26)</f>
         <v>45803</v>
       </c>
-      <c r="B85">
+      <c r="B90">
         <v>26217</v>
       </c>
-      <c r="C85">
+      <c r="C90">
         <v>316769</v>
       </c>
-      <c r="D85">
+      <c r="D90">
         <v>21445</v>
       </c>
-      <c r="E85">
+      <c r="E90">
         <v>15301</v>
       </c>
-      <c r="F85">
+      <c r="F90">
         <v>131071</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <f>DATE(2025,5,23)</f>
         <v>45800</v>
       </c>
-      <c r="B86">
+      <c r="B91">
         <v>26217</v>
       </c>
-      <c r="C86">
+      <c r="C91">
         <v>317448</v>
       </c>
-      <c r="D86">
+      <c r="D91">
         <v>21403</v>
       </c>
-      <c r="E86">
+      <c r="E91">
         <v>15301</v>
       </c>
-      <c r="F86">
+      <c r="F91">
         <v>131000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <f>DATE(2025,5,22)</f>
         <v>45799</v>
       </c>
-      <c r="B87">
+      <c r="B92">
         <v>26217</v>
       </c>
-      <c r="C87">
+      <c r="C92">
         <v>318727</v>
       </c>
-      <c r="D87">
+      <c r="D92">
         <v>21398</v>
       </c>
-      <c r="E87">
+      <c r="E92">
         <v>15293</v>
       </c>
-      <c r="F87">
+      <c r="F92">
         <v>130192</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <f>DATE(2025,5,21)</f>
         <v>45798</v>
       </c>
-      <c r="B88">
+      <c r="B93">
         <v>26217</v>
       </c>
-      <c r="C88">
+      <c r="C93">
         <v>318115</v>
       </c>
-      <c r="D88">
+      <c r="D93">
         <v>21391</v>
       </c>
-      <c r="E88">
+      <c r="E93">
         <v>15279</v>
       </c>
-      <c r="F88">
+      <c r="F93">
         <v>130222</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <f>DATE(2025,5,20)</f>
         <v>45797</v>
       </c>
-      <c r="B89">
+      <c r="B94">
         <v>26217</v>
       </c>
-      <c r="C89">
+      <c r="C94">
         <v>317798</v>
       </c>
-      <c r="D89">
+      <c r="D94">
         <v>21368</v>
       </c>
-      <c r="E89">
+      <c r="E94">
         <v>15251</v>
       </c>
-      <c r="F89">
+      <c r="F94">
         <v>130033</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <f>DATE(2025,5,19)</f>
         <v>45796</v>
       </c>
-      <c r="B90">
+      <c r="B95">
         <v>26217</v>
       </c>
-      <c r="C90">
+      <c r="C95">
         <v>316698</v>
       </c>
-      <c r="D90">
+      <c r="D95">
         <v>21361</v>
       </c>
-      <c r="E90">
+      <c r="E95">
         <v>15248</v>
       </c>
-      <c r="F90">
+      <c r="F95">
         <v>129719</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <f>DATE(2025,5,16)</f>
         <v>45793</v>
       </c>
-      <c r="B91">
+      <c r="B96">
         <v>26217</v>
       </c>
-      <c r="C91">
+      <c r="C96">
         <v>317705</v>
       </c>
-      <c r="D91">
+      <c r="D96">
         <v>21349</v>
       </c>
-      <c r="E91">
+      <c r="E96">
         <v>15234</v>
       </c>
-      <c r="F91">
+      <c r="F96">
         <v>126662</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="B92">
+      <c r="B97">
         <v>25937</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>317478</v>
       </c>
-      <c r="D92">
+      <c r="D97">
         <v>21328</v>
       </c>
-      <c r="E92">
+      <c r="E97">
         <v>15234</v>
       </c>
-      <c r="F92">
+      <c r="F97">
         <v>126329</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <f>DATE(2025,5,14)</f>
         <v>45791</v>
       </c>
-      <c r="B93">
+      <c r="B98">
         <v>25938</v>
       </c>
-      <c r="C93">
+      <c r="C98">
         <v>318806</v>
       </c>
-      <c r="D93">
+      <c r="D98">
         <v>21321</v>
       </c>
-      <c r="E93">
+      <c r="E98">
         <v>15229</v>
       </c>
-      <c r="F93">
+      <c r="F98">
         <v>126269</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <f>DATE(2025,5,13)</f>
         <v>45790</v>
       </c>
-      <c r="B94">
+      <c r="B99">
         <v>25926</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>318809</v>
       </c>
-      <c r="D94">
+      <c r="D99">
         <v>21275</v>
       </c>
-      <c r="E94">
+      <c r="E99">
         <v>15118</v>
       </c>
-      <c r="F94">
+      <c r="F99">
         <v>126146</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <f>DATE(2025,5,12)</f>
         <v>45789</v>
       </c>
-      <c r="B95">
+      <c r="B100">
         <v>25926</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <v>322318</v>
       </c>
-      <c r="D95">
+      <c r="D100">
         <v>21275</v>
       </c>
-      <c r="E95">
+      <c r="E100">
         <v>15109</v>
       </c>
-      <c r="F95">
+      <c r="F100">
         <v>125191</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <f>DATE(2025,5,9)</f>
         <v>45786</v>
       </c>
-      <c r="B96">
+      <c r="B101">
         <v>25926</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>323552</v>
       </c>
-      <c r="D96">
+      <c r="D101">
         <v>21277</v>
       </c>
-      <c r="E96">
+      <c r="E101">
         <v>15059</v>
       </c>
-      <c r="F96">
+      <c r="F101">
         <v>124559</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="B97">
+      <c r="B102">
         <v>25675</v>
       </c>
-      <c r="C97">
+      <c r="C102">
         <v>324400</v>
       </c>
-      <c r="D97">
+      <c r="D102">
         <v>21262</v>
       </c>
-      <c r="E97">
+      <c r="E102">
         <v>15056</v>
       </c>
-      <c r="F97">
+      <c r="F102">
         <v>123029</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <f>DATE(2025,5,7)</f>
         <v>45784</v>
       </c>
-      <c r="B98">
+      <c r="B103">
         <v>25675</v>
       </c>
-      <c r="C98">
+      <c r="C103">
         <v>325047</v>
       </c>
-      <c r="D98">
+      <c r="D103">
         <v>21413</v>
       </c>
-      <c r="E98">
+      <c r="E103">
         <v>15041</v>
       </c>
-      <c r="F98">
+      <c r="F103">
         <v>122900</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <f>DATE(2025,5,6)</f>
         <v>45783</v>
       </c>
-      <c r="B99">
+      <c r="B104">
         <v>24625</v>
       </c>
-      <c r="C99">
+      <c r="C104">
         <v>328301</v>
       </c>
-      <c r="D99">
+      <c r="D104">
         <v>21423</v>
       </c>
-      <c r="E99">
+      <c r="E104">
         <v>15008</v>
       </c>
-      <c r="F99">
+      <c r="F104">
         <v>122781</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <f>DATE(2025,5,5)</f>
         <v>45782</v>
       </c>
-      <c r="B100">
+      <c r="B105">
         <v>24626</v>
       </c>
-      <c r="C100">
+      <c r="C105">
         <v>327642</v>
       </c>
-      <c r="D100">
+      <c r="D105">
         <v>21415</v>
       </c>
-      <c r="E100">
+      <c r="E105">
         <v>15003</v>
       </c>
-      <c r="F100">
+      <c r="F105">
         <v>122489</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="B101">
+      <c r="B106">
         <v>24626</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>327584</v>
       </c>
-      <c r="D101">
+      <c r="D106">
         <v>21413</v>
       </c>
-      <c r="E101">
+      <c r="E106">
         <v>14988</v>
       </c>
-      <c r="F101">
+      <c r="F106">
         <v>122317</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <f>DATE(2025,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="B102">
+      <c r="B107">
         <v>24626</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <v>328038</v>
       </c>
-      <c r="D102">
+      <c r="D107">
         <v>21411</v>
       </c>
-      <c r="E102">
+      <c r="E107">
         <v>14988</v>
       </c>
-      <c r="F102">
+      <c r="F107">
         <v>122490</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <f>DATE(2025,4,30)</f>
         <v>45777</v>
       </c>
-      <c r="B103">
+      <c r="B108">
         <v>24626</v>
       </c>
-      <c r="C103">
+      <c r="C108">
         <v>329167</v>
       </c>
-      <c r="D103">
+      <c r="D108">
         <v>21411</v>
       </c>
-      <c r="E103">
+      <c r="E108">
         <v>14988</v>
       </c>
-      <c r="F103">
+      <c r="F108">
         <v>122383</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <f>DATE(2025,4,29)</f>
         <v>45776</v>
       </c>
-      <c r="B104">
+      <c r="B109">
         <v>24626</v>
       </c>
-      <c r="C104">
+      <c r="C109">
         <v>331622</v>
       </c>
-      <c r="D104">
+      <c r="D109">
         <v>21411</v>
       </c>
-      <c r="E104">
+      <c r="E109">
         <v>14985</v>
       </c>
-      <c r="F104">
+      <c r="F109">
         <v>122385</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <f>DATE(2025,4,28)</f>
         <v>45775</v>
       </c>
-      <c r="B105">
+      <c r="B110">
         <v>24625</v>
       </c>
-      <c r="C105">
+      <c r="C110">
         <v>328527</v>
       </c>
-      <c r="D105">
+      <c r="D110">
         <v>21402</v>
       </c>
-      <c r="E105">
+      <c r="E110">
         <v>14985</v>
       </c>
-      <c r="F105">
+      <c r="F110">
         <v>122362</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <f>DATE(2025,4,25)</f>
         <v>45772</v>
       </c>
-      <c r="B106">
+      <c r="B111">
         <v>24624</v>
       </c>
-      <c r="C106">
+      <c r="C111">
         <v>328566</v>
       </c>
-      <c r="D106">
+      <c r="D111">
         <v>21395</v>
       </c>
-      <c r="E106">
+      <c r="E111">
         <v>14981</v>
       </c>
-      <c r="F106">
+      <c r="F111">
         <v>122041</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <f>DATE(2025,4,24)</f>
         <v>45771</v>
       </c>
-      <c r="B107">
+      <c r="B112">
         <v>24624</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>328740</v>
       </c>
-      <c r="D107">
+      <c r="D112">
         <v>21395</v>
       </c>
-      <c r="E107">
+      <c r="E112">
         <v>14981</v>
       </c>
-      <c r="F107">
+      <c r="F112">
         <v>121644</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <f>DATE(2025,4,23)</f>
         <v>45770</v>
       </c>
-      <c r="B108">
+      <c r="B113">
         <v>24624</v>
       </c>
-      <c r="C108">
+      <c r="C113">
         <v>328807</v>
       </c>
-      <c r="D108">
+      <c r="D113">
         <v>21388</v>
       </c>
-      <c r="E108">
+      <c r="E113">
         <v>14981</v>
       </c>
-      <c r="F108">
+      <c r="F113">
         <v>120938</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <f>DATE(2025,4,22)</f>
         <v>45769</v>
       </c>
-      <c r="B109">
+      <c r="B114">
         <v>24524</v>
       </c>
-      <c r="C109">
+      <c r="C114">
         <v>329625</v>
       </c>
-      <c r="D109">
+      <c r="D114">
         <v>21288</v>
       </c>
-      <c r="E109">
+      <c r="E114">
         <v>14981</v>
       </c>
-      <c r="F109">
+      <c r="F114">
         <v>120854</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <f>DATE(2025,4,21)</f>
         <v>45768</v>
       </c>
-      <c r="B110">
+      <c r="B115">
         <v>24524</v>
       </c>
-      <c r="C110">
+      <c r="C115">
         <v>328126</v>
       </c>
-      <c r="D110">
+      <c r="D115">
         <v>21270</v>
       </c>
-      <c r="E110">
+      <c r="E115">
         <v>14936</v>
       </c>
-      <c r="F110">
+      <c r="F115">
         <v>119789</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <f>DATE(2025,4,17)</f>
         <v>45764</v>
       </c>
-      <c r="B111">
+      <c r="B116">
         <v>24524</v>
       </c>
-      <c r="C111">
+      <c r="C116">
         <v>328130</v>
       </c>
-      <c r="D111">
+      <c r="D116">
         <v>21270</v>
       </c>
-      <c r="E111">
+      <c r="E116">
         <v>14936</v>
       </c>
-      <c r="F111">
+      <c r="F116">
         <v>119789</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <f>DATE(2025,4,16)</f>
         <v>45763</v>
       </c>
-      <c r="B112">
+      <c r="B117">
         <v>24523</v>
       </c>
-      <c r="C112">
+      <c r="C117">
         <v>327733</v>
       </c>
-      <c r="D112">
+      <c r="D117">
         <v>21243</v>
       </c>
-      <c r="E112">
+      <c r="E117">
         <v>14901</v>
       </c>
-      <c r="F112">
+      <c r="F117">
         <v>119296</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <f>DATE(2025,4,15)</f>
         <v>45762</v>
       </c>
-      <c r="B113">
+      <c r="B118">
         <v>24322</v>
       </c>
-      <c r="C113">
+      <c r="C118">
         <v>328550</v>
       </c>
-      <c r="D113">
+      <c r="D118">
         <v>21229</v>
       </c>
-      <c r="E113">
+      <c r="E118">
         <v>14880</v>
       </c>
-      <c r="F113">
+      <c r="F118">
         <v>118373</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <f>DATE(2025,4,14)</f>
         <v>45761</v>
       </c>
-      <c r="B114">
+      <c r="B119">
         <v>24271</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>327744</v>
       </c>
-      <c r="D114">
+      <c r="D119">
         <v>21201</v>
       </c>
-      <c r="E114">
+      <c r="E119">
         <v>14871</v>
       </c>
-      <c r="F114">
+      <c r="F119">
         <v>117664</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <f>DATE(2025,4,11)</f>
         <v>45758</v>
       </c>
-      <c r="B115">
+      <c r="B120">
         <v>24271</v>
       </c>
-      <c r="C115">
+      <c r="C120">
         <v>328218</v>
       </c>
-      <c r="D115">
+      <c r="D120">
         <v>21166</v>
       </c>
-      <c r="E115">
+      <c r="E120">
         <v>14871</v>
       </c>
-      <c r="F115">
+      <c r="F120">
         <v>117150</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <f>DATE(2025,4,10)</f>
         <v>45757</v>
       </c>
-      <c r="B116">
+      <c r="B121">
         <v>24264</v>
       </c>
-      <c r="C116">
+      <c r="C121">
         <v>328856</v>
       </c>
-      <c r="D116">
+      <c r="D121">
         <v>21150</v>
       </c>
-      <c r="E116">
+      <c r="E121">
         <v>14871</v>
       </c>
-      <c r="F116">
+      <c r="F121">
         <v>115703</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <f>DATE(2025,4,9)</f>
         <v>45756</v>
       </c>
-      <c r="B117">
+      <c r="B122">
         <v>24263</v>
       </c>
-      <c r="C117">
+      <c r="C122">
         <v>329497</v>
       </c>
-      <c r="D117">
+      <c r="D122">
         <v>21076</v>
       </c>
-      <c r="E117">
+      <c r="E122">
         <v>14850</v>
       </c>
-      <c r="F117">
+      <c r="F122">
         <v>115523</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <f>DATE(2025,4,8)</f>
         <v>45755</v>
       </c>
-      <c r="B118">
+      <c r="B123">
         <v>24263</v>
       </c>
-      <c r="C118">
+      <c r="C123">
         <v>329531</v>
       </c>
-      <c r="D118">
+      <c r="D123">
         <v>21035</v>
       </c>
-      <c r="E118">
+      <c r="E123">
         <v>14649</v>
       </c>
-      <c r="F118">
+      <c r="F123">
         <v>112870</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <f>DATE(2025,4,7)</f>
         <v>45754</v>
       </c>
-      <c r="B119">
+      <c r="B124">
         <v>24262</v>
       </c>
-      <c r="C119">
+      <c r="C124">
         <v>330726</v>
       </c>
-      <c r="D119">
+      <c r="D124">
         <v>21023</v>
       </c>
-      <c r="E119">
+      <c r="E124">
         <v>14649</v>
       </c>
-      <c r="F119">
+      <c r="F124">
         <v>110491</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <f>DATE(2025,4,4)</f>
         <v>45751</v>
       </c>
-      <c r="B120">
+      <c r="B125">
         <v>24260</v>
       </c>
-      <c r="C120">
+      <c r="C125">
         <v>331383</v>
       </c>
-      <c r="D120">
+      <c r="D125">
         <v>18009</v>
       </c>
-      <c r="E120">
+      <c r="E125">
         <v>14563</v>
       </c>
-      <c r="F120">
+      <c r="F125">
         <v>109106</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <f>DATE(2025,4,3)</f>
         <v>45750</v>
       </c>
-      <c r="B121">
+      <c r="B126">
         <v>24089</v>
       </c>
-      <c r="C121">
+      <c r="C126">
         <v>336361</v>
       </c>
-      <c r="D121">
+      <c r="D126">
         <v>17980</v>
       </c>
-      <c r="E121">
+      <c r="E126">
         <v>14421</v>
       </c>
-      <c r="F121">
+      <c r="F126">
         <v>106135</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <f>DATE(2025,4,2)</f>
         <v>45749</v>
       </c>
-      <c r="B122">
+      <c r="B127">
         <v>23788</v>
       </c>
-      <c r="C122">
+      <c r="C127">
         <v>336480</v>
       </c>
-      <c r="D122">
+      <c r="D127">
         <v>17969</v>
       </c>
-      <c r="E122">
+      <c r="E127">
         <v>14295</v>
       </c>
-      <c r="F122">
+      <c r="F127">
         <v>103490</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <f>DATE(2025,4,1)</f>
         <v>45748</v>
       </c>
-      <c r="B123">
+      <c r="B128">
         <v>23786</v>
       </c>
-      <c r="C123">
+      <c r="C128">
         <v>333401</v>
       </c>
-      <c r="D123">
+      <c r="D128">
         <v>17964</v>
       </c>
-      <c r="E123">
+      <c r="E128">
         <v>14295</v>
       </c>
-      <c r="F123">
+      <c r="F128">
         <v>103879</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <f>DATE(2025,3,31)</f>
         <v>45747</v>
       </c>
-      <c r="B124">
+      <c r="B129">
         <v>23786</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>330277</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>17949</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>14295</v>
       </c>
-      <c r="F124">
+      <c r="F129">
         <v>104263</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <f>DATE(2025,3,28)</f>
         <v>45744</v>
       </c>
-      <c r="B125">
+      <c r="B130">
         <v>23636</v>
       </c>
-      <c r="C125">
+      <c r="C130">
         <v>330548</v>
       </c>
-      <c r="D125">
+      <c r="D130">
         <v>17930</v>
       </c>
-      <c r="E125">
+      <c r="E130">
         <v>14236</v>
       </c>
-      <c r="F125">
+      <c r="F130">
         <v>103844</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <f>DATE(2025,3,27)</f>
         <v>45743</v>
       </c>
-      <c r="B126">
+      <c r="B131">
         <v>23596</v>
       </c>
-      <c r="C126">
+      <c r="C131">
         <v>330741</v>
       </c>
-      <c r="D126">
+      <c r="D131">
         <v>17927</v>
       </c>
-      <c r="E126">
+      <c r="E131">
         <v>13036</v>
       </c>
-      <c r="F126">
+      <c r="F131">
         <v>103166</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <f>DATE(2025,3,26)</f>
         <v>45742</v>
       </c>
-      <c r="B127">
+      <c r="B132">
         <v>22815</v>
       </c>
-      <c r="C127">
+      <c r="C132">
         <v>331610</v>
       </c>
-      <c r="D127">
+      <c r="D132">
         <v>17896</v>
       </c>
-      <c r="E127">
+      <c r="E132">
         <v>12961</v>
       </c>
-      <c r="F127">
+      <c r="F132">
         <v>102355</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <f>DATE(2025,3,25)</f>
         <v>45741</v>
       </c>
-      <c r="B128">
+      <c r="B133">
         <v>23019</v>
       </c>
-      <c r="C128">
+      <c r="C133">
         <v>331662</v>
       </c>
-      <c r="D128">
+      <c r="D133">
         <v>17893</v>
       </c>
-      <c r="E128">
+      <c r="E133">
         <v>12961</v>
       </c>
-      <c r="F128">
+      <c r="F133">
         <v>101579</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <f>DATE(2025,3,24)</f>
         <v>45740</v>
       </c>
-      <c r="B129">
+      <c r="B134">
         <v>23018</v>
       </c>
-      <c r="C129">
+      <c r="C134">
         <v>330494</v>
       </c>
-      <c r="D129">
+      <c r="D134">
         <v>17891</v>
       </c>
-      <c r="E129">
+      <c r="E134">
         <v>12957</v>
       </c>
-      <c r="F129">
+      <c r="F134">
         <v>101084</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <f>DATE(2025,3,21)</f>
         <v>45737</v>
       </c>
-      <c r="B130">
+      <c r="B135">
         <v>23018</v>
       </c>
-      <c r="C130">
+      <c r="C135">
         <v>330421</v>
       </c>
-      <c r="D130">
+      <c r="D135">
         <v>17876</v>
       </c>
-      <c r="E130">
+      <c r="E135">
         <v>12951</v>
       </c>
-      <c r="F130">
+      <c r="F135">
         <v>101012</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <f>DATE(2025,3,20)</f>
         <v>45736</v>
       </c>
-      <c r="B131">
+      <c r="B136">
         <v>23016</v>
       </c>
-      <c r="C131">
+      <c r="C136">
         <v>329253</v>
       </c>
-      <c r="D131">
+      <c r="D136">
         <v>17841</v>
       </c>
-      <c r="E131">
+      <c r="E136">
         <v>10931</v>
       </c>
-      <c r="F131">
+      <c r="F136">
         <v>99097</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <f>DATE(2025,3,19)</f>
         <v>45735</v>
       </c>
-      <c r="B132">
+      <c r="B137">
         <v>22777</v>
       </c>
-      <c r="C132">
+      <c r="C137">
         <v>328614</v>
       </c>
-      <c r="D132">
+      <c r="D137">
         <v>17829</v>
       </c>
-      <c r="E132">
+      <c r="E137">
         <v>10911</v>
       </c>
-      <c r="F132">
+      <c r="F137">
         <v>98997</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <f>DATE(2025,3,18)</f>
         <v>45734</v>
       </c>
-      <c r="B133">
+      <c r="B138">
         <v>23980</v>
       </c>
-      <c r="C133">
+      <c r="C138">
         <v>326310</v>
       </c>
-      <c r="D133">
+      <c r="D138">
         <v>17718</v>
       </c>
-      <c r="E133">
+      <c r="E138">
         <v>10911</v>
       </c>
-      <c r="F133">
+      <c r="F138">
         <v>98845</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <f>DATE(2025,3,17)</f>
         <v>45733</v>
       </c>
-      <c r="B134">
+      <c r="B139">
         <v>23980</v>
       </c>
-      <c r="C134">
+      <c r="C139">
         <v>322939</v>
       </c>
-      <c r="D134">
+      <c r="D139">
         <v>17707</v>
       </c>
-      <c r="E134">
+      <c r="E139">
         <v>10899</v>
       </c>
-      <c r="F134">
+      <c r="F139">
         <v>97897</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <f>DATE(2025,3,14)</f>
         <v>45730</v>
       </c>
-      <c r="B135">
+      <c r="B140">
         <v>23980</v>
       </c>
-      <c r="C135">
+      <c r="C140">
         <v>322745</v>
       </c>
-      <c r="D135">
+      <c r="D140">
         <v>17684</v>
       </c>
-      <c r="E135">
+      <c r="E140">
         <v>10752</v>
       </c>
-      <c r="F135">
+      <c r="F140">
         <v>97621</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <f>DATE(2025,3,13)</f>
         <v>45729</v>
       </c>
-      <c r="B136">
+      <c r="B141">
         <v>23980</v>
       </c>
-      <c r="C136">
+      <c r="C141">
         <v>321147</v>
       </c>
-      <c r="D136">
+      <c r="D141">
         <v>17672</v>
       </c>
-      <c r="E136">
+      <c r="E141">
         <v>10750</v>
       </c>
-      <c r="F136">
+      <c r="F141">
         <v>96935</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <f>DATE(2025,3,12)</f>
         <v>45728</v>
       </c>
-      <c r="B137">
+      <c r="B142">
         <v>23979</v>
       </c>
-      <c r="C137">
+      <c r="C142">
         <v>320702</v>
       </c>
-      <c r="D137">
+      <c r="D142">
         <v>17649</v>
       </c>
-      <c r="E137">
+      <c r="E142">
         <v>10740</v>
       </c>
-      <c r="F137">
+      <c r="F142">
         <v>96699</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <f>DATE(2025,3,11)</f>
         <v>45727</v>
       </c>
-      <c r="B138">
+      <c r="B143">
         <v>23979</v>
       </c>
-      <c r="C138">
+      <c r="C143">
         <v>319989</v>
       </c>
-      <c r="D138">
+      <c r="D143">
         <v>17640</v>
       </c>
-      <c r="E138">
+      <c r="E143">
         <v>10702</v>
       </c>
-      <c r="F138">
+      <c r="F143">
         <v>96079</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <f>DATE(2025,3,10)</f>
         <v>45726</v>
       </c>
-      <c r="B139">
+      <c r="B144">
         <v>23979</v>
       </c>
-      <c r="C139">
+      <c r="C144">
         <v>318886</v>
       </c>
-      <c r="D139">
+      <c r="D144">
         <v>17611</v>
       </c>
-      <c r="E139">
+      <c r="E144">
         <v>10592</v>
       </c>
-      <c r="F139">
+      <c r="F144">
         <v>96005</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <f>DATE(2025,3,7)</f>
         <v>45723</v>
       </c>
-      <c r="B140">
+      <c r="B145">
         <v>23978</v>
       </c>
-      <c r="C140">
+      <c r="C145">
         <v>313127</v>
       </c>
-      <c r="D140">
+      <c r="D145">
         <v>17610</v>
       </c>
-      <c r="E140">
+      <c r="E145">
         <v>10582</v>
       </c>
-      <c r="F140">
+      <c r="F145">
         <v>95323</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <f>DATE(2025,3,6)</f>
         <v>45722</v>
       </c>
-      <c r="B141">
+      <c r="B146">
         <v>23978</v>
       </c>
-      <c r="C141">
+      <c r="C146">
         <v>312131</v>
       </c>
-      <c r="D141">
+      <c r="D146">
         <v>17582</v>
       </c>
-      <c r="E141">
+      <c r="E146">
         <v>10532</v>
       </c>
-      <c r="F141">
+      <c r="F146">
         <v>94431</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <f>DATE(2025,3,5)</f>
         <v>45721</v>
       </c>
-      <c r="B142">
+      <c r="B147">
         <v>23777</v>
       </c>
-      <c r="C142">
+      <c r="C147">
         <v>309971</v>
       </c>
-      <c r="D142">
+      <c r="D147">
         <v>17570</v>
       </c>
-      <c r="E142">
+      <c r="E147">
         <v>10392</v>
       </c>
-      <c r="F142">
+      <c r="F147">
         <v>95612</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <f>DATE(2025,3,4)</f>
         <v>45720</v>
       </c>
-      <c r="B143">
+      <c r="B148">
         <v>23422</v>
       </c>
-      <c r="C143">
+      <c r="C148">
         <v>309732</v>
       </c>
-      <c r="D143">
+      <c r="D148">
         <v>17548</v>
       </c>
-      <c r="E143">
+      <c r="E148">
         <v>10340</v>
       </c>
-      <c r="F143">
+      <c r="F148">
         <v>94215</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <f>DATE(2025,3,3)</f>
         <v>45719</v>
       </c>
-      <c r="B144">
+      <c r="B149">
         <v>23423</v>
       </c>
-      <c r="C144">
+      <c r="C149">
         <v>306181</v>
       </c>
-      <c r="D144">
+      <c r="D149">
         <v>17445</v>
       </c>
-      <c r="E144">
+      <c r="E149">
         <v>10264</v>
       </c>
-      <c r="F144">
+      <c r="F149">
         <v>93953</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <f>DATE(2025,2,28)</f>
         <v>45716</v>
       </c>
-      <c r="B145">
+      <c r="B150">
         <v>23423</v>
       </c>
-      <c r="C145">
+      <c r="C150">
         <v>305033</v>
       </c>
-      <c r="D145">
+      <c r="D150">
         <v>17430</v>
       </c>
-      <c r="E145">
+      <c r="E150">
         <v>10264</v>
       </c>
-      <c r="F145">
+      <c r="F150">
         <v>93776</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <f>DATE(2025,2,27)</f>
         <v>45715</v>
       </c>
-      <c r="B146">
+      <c r="B151">
         <v>23622</v>
       </c>
-      <c r="C146">
+      <c r="C151">
         <v>306175</v>
       </c>
-      <c r="D146">
+      <c r="D151">
         <v>17423</v>
       </c>
-      <c r="E146">
+      <c r="E151">
         <v>10267</v>
       </c>
-      <c r="F146">
+      <c r="F151">
         <v>93019</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <f>DATE(2025,2,26)</f>
         <v>45714</v>
       </c>
-      <c r="B147">
+      <c r="B152">
         <v>22447</v>
       </c>
-      <c r="C147">
+      <c r="C152">
         <v>307467</v>
       </c>
-      <c r="D147">
+      <c r="D152">
         <v>17423</v>
       </c>
-      <c r="E147">
+      <c r="E152">
         <v>10267</v>
       </c>
-      <c r="F147">
+      <c r="F152">
         <v>92972</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <f>DATE(2025,2,25)</f>
         <v>45713</v>
       </c>
-      <c r="B148">
+      <c r="B153">
         <v>22447</v>
       </c>
-      <c r="C148">
+      <c r="C153">
         <v>308138</v>
       </c>
-      <c r="D148">
+      <c r="D153">
         <v>17423</v>
       </c>
-      <c r="E148">
+      <c r="E153">
         <v>10194</v>
       </c>
-      <c r="F148">
+      <c r="F153">
         <v>92280</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <f>DATE(2025,2,24)</f>
         <v>45712</v>
       </c>
-      <c r="B149">
+      <c r="B154">
         <v>22396</v>
       </c>
-      <c r="C149">
+      <c r="C154">
         <v>307865</v>
       </c>
-      <c r="D149">
+      <c r="D154">
         <v>17404</v>
       </c>
-      <c r="E149">
+      <c r="E154">
         <v>10144</v>
       </c>
-      <c r="F149">
+      <c r="F154">
         <v>92631</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <f>DATE(2025,2,21)</f>
         <v>45709</v>
       </c>
-      <c r="B150">
+      <c r="B155">
         <v>22395</v>
       </c>
-      <c r="C150">
+      <c r="C155">
         <v>309194</v>
       </c>
-      <c r="D150">
+      <c r="D155">
         <v>17387</v>
       </c>
-      <c r="E150">
+      <c r="E155">
         <v>10094</v>
       </c>
-      <c r="F150">
+      <c r="F155">
         <v>92714</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <f>DATE(2025,2,20)</f>
         <v>45708</v>
       </c>
-      <c r="B151">
+      <c r="B156">
         <v>22395</v>
       </c>
-      <c r="C151">
+      <c r="C156">
         <v>309737</v>
       </c>
-      <c r="D151">
+      <c r="D156">
         <v>17373</v>
       </c>
-      <c r="E151">
+      <c r="E156">
         <v>10094</v>
       </c>
-      <c r="F151">
+      <c r="F156">
         <v>92274</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <f>DATE(2025,2,19)</f>
         <v>45707</v>
       </c>
-      <c r="B152">
+      <c r="B157">
         <v>22454</v>
       </c>
-      <c r="C152">
+      <c r="C157">
         <v>309342</v>
       </c>
-      <c r="D152">
+      <c r="D157">
         <v>17333</v>
       </c>
-      <c r="E152">
+      <c r="E157">
         <v>10094</v>
       </c>
-      <c r="F152">
+      <c r="F157">
         <v>91041</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <f>DATE(2025,2,18)</f>
         <v>45706</v>
       </c>
-      <c r="B153">
+      <c r="B158">
         <v>22454</v>
       </c>
-      <c r="C153">
+      <c r="C158">
         <v>310867</v>
       </c>
-      <c r="D153">
+      <c r="D158">
         <v>17303</v>
       </c>
-      <c r="E153">
+      <c r="E158">
         <v>10092</v>
       </c>
-      <c r="F153">
+      <c r="F158">
         <v>90882</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <f>DATE(2025,2,17)</f>
         <v>45705</v>
       </c>
-      <c r="B154">
+      <c r="B159">
         <v>22454</v>
       </c>
-      <c r="C154">
+      <c r="C159">
         <v>313288</v>
       </c>
-      <c r="D154">
+      <c r="D159">
         <v>17292</v>
       </c>
-      <c r="E154">
+      <c r="E159">
         <v>10092</v>
       </c>
-      <c r="F154">
+      <c r="F159">
         <v>90577</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <f>DATE(2025,2,14)</f>
         <v>45702</v>
       </c>
-      <c r="B155">
+      <c r="B160">
         <v>22454</v>
       </c>
-      <c r="C155">
+      <c r="C160">
         <v>313285</v>
       </c>
-      <c r="D155">
+      <c r="D160">
         <v>17264</v>
       </c>
-      <c r="E155">
+      <c r="E160">
         <v>10091</v>
       </c>
-      <c r="F155">
+      <c r="F160">
         <v>90074</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <f>DATE(2025,2,13)</f>
         <v>45701</v>
       </c>
-      <c r="B156">
+      <c r="B161">
         <v>22454</v>
       </c>
-      <c r="C156">
+      <c r="C161">
         <v>313902</v>
       </c>
-      <c r="D156">
+      <c r="D161">
         <v>17185</v>
       </c>
-      <c r="E156">
+      <c r="E161">
         <v>10088</v>
       </c>
-      <c r="F156">
+      <c r="F161">
         <v>89936</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <f>DATE(2025,2,12)</f>
         <v>45700</v>
       </c>
-      <c r="B157">
+      <c r="B162">
         <v>22454</v>
       </c>
-      <c r="C157">
+      <c r="C162">
         <v>314720</v>
       </c>
-      <c r="D157">
+      <c r="D162">
         <v>17151</v>
       </c>
-      <c r="E157">
+      <c r="E162">
         <v>10076</v>
       </c>
-      <c r="F157">
+      <c r="F162">
         <v>89949</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <f>DATE(2025,2,11)</f>
         <v>45699</v>
       </c>
-      <c r="B158">
+      <c r="B163">
         <v>22454</v>
       </c>
-      <c r="C158">
+      <c r="C163">
         <v>312360</v>
       </c>
-      <c r="D158">
+      <c r="D163">
         <v>17120</v>
       </c>
-      <c r="E158">
+      <c r="E163">
         <v>10076</v>
       </c>
-      <c r="F158">
+      <c r="F163">
         <v>89281</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <f>DATE(2025,2,10)</f>
         <v>45698</v>
       </c>
-      <c r="B159">
+      <c r="B164">
         <v>22454</v>
       </c>
-      <c r="C159">
+      <c r="C164">
         <v>309021</v>
       </c>
-      <c r="D159">
+      <c r="D164">
         <v>17116</v>
       </c>
-      <c r="E159">
+      <c r="E164">
         <v>10076</v>
       </c>
-      <c r="F159">
+      <c r="F164">
         <v>88826</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <f>DATE(2025,2,7)</f>
         <v>45695</v>
       </c>
-      <c r="B160">
+      <c r="B165">
         <v>22454</v>
       </c>
-      <c r="C160">
+      <c r="C165">
         <v>307153</v>
       </c>
-      <c r="D160">
+      <c r="D165">
         <v>17082</v>
       </c>
-      <c r="E160">
+      <c r="E165">
         <v>9849</v>
       </c>
-      <c r="F160">
+      <c r="F165">
         <v>88632</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <f>DATE(2025,2,6)</f>
         <v>45694</v>
       </c>
-      <c r="B161">
+      <c r="B166">
         <v>22454</v>
       </c>
-      <c r="C161">
+      <c r="C166">
         <v>307136</v>
       </c>
-      <c r="D161">
+      <c r="D166">
         <v>17072</v>
       </c>
-      <c r="E161">
+      <c r="E166">
         <v>9839</v>
       </c>
-      <c r="F161">
+      <c r="F166">
         <v>88066</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <f>DATE(2025,2,5)</f>
         <v>45693</v>
       </c>
-      <c r="B162">
+      <c r="B167">
         <v>22454</v>
       </c>
-      <c r="C162">
+      <c r="C167">
         <v>302392</v>
       </c>
-      <c r="D162">
+      <c r="D167">
         <v>17072</v>
       </c>
-      <c r="E162">
+      <c r="E167">
         <v>9839</v>
       </c>
-      <c r="F162">
+      <c r="F167">
         <v>87813</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <f>DATE(2025,2,4)</f>
         <v>45692</v>
       </c>
-      <c r="B163">
+      <c r="B168">
         <v>22453</v>
       </c>
-      <c r="C163">
+      <c r="C168">
         <v>300191</v>
       </c>
-      <c r="D163">
+      <c r="D168">
         <v>17067</v>
       </c>
-      <c r="E163">
+      <c r="E168">
         <v>9824</v>
       </c>
-      <c r="F163">
+      <c r="F168">
         <v>87753</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="B164">
+      <c r="B169">
         <v>22453</v>
       </c>
-      <c r="C164">
+      <c r="C169">
         <v>299817</v>
       </c>
-      <c r="D164">
+      <c r="D169">
         <v>17057</v>
       </c>
-      <c r="E164">
+      <c r="E169">
         <v>9824</v>
       </c>
-      <c r="F164">
+      <c r="F169">
         <v>86175</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <f>DATE(2025,1,31)</f>
         <v>45688</v>
       </c>
-      <c r="B165">
+      <c r="B170">
         <v>22453</v>
       </c>
-      <c r="C165">
+      <c r="C170">
         <v>298024</v>
       </c>
-      <c r="D165">
+      <c r="D170">
         <v>16895</v>
       </c>
-      <c r="E165">
+      <c r="E170">
         <v>9657</v>
       </c>
-      <c r="F165">
+      <c r="F170">
         <v>85765</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <f>DATE(2025,1,30)</f>
         <v>45687</v>
       </c>
-      <c r="B166">
+      <c r="B171">
         <v>22453</v>
       </c>
-      <c r="C166">
+      <c r="C171">
         <v>296306</v>
       </c>
-      <c r="D166">
+      <c r="D171">
         <v>16883</v>
       </c>
-      <c r="E166">
+      <c r="E171">
         <v>9642</v>
       </c>
-      <c r="F166">
+      <c r="F171">
         <v>85276</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <f>DATE(2025,1,29)</f>
         <v>45686</v>
       </c>
-      <c r="B167">
+      <c r="B172">
         <v>22453</v>
       </c>
-      <c r="C167">
+      <c r="C172">
         <v>295720</v>
       </c>
-      <c r="D167">
+      <c r="D172">
         <v>16879</v>
       </c>
-      <c r="E167">
+      <c r="E172">
         <v>9642</v>
       </c>
-      <c r="F167">
+      <c r="F172">
         <v>84606</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <f>DATE(2025,1,28)</f>
         <v>45685</v>
       </c>
-      <c r="B168">
+      <c r="B173">
         <v>22453</v>
       </c>
-      <c r="C168">
+      <c r="C173">
         <v>296177</v>
       </c>
-      <c r="D168">
+      <c r="D173">
         <v>16871</v>
       </c>
-      <c r="E168">
+      <c r="E173">
         <v>9142</v>
       </c>
-      <c r="F168">
+      <c r="F173">
         <v>84342</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <f>DATE(2025,1,27)</f>
         <v>45684</v>
       </c>
-      <c r="B169">
+      <c r="B174">
         <v>22453</v>
       </c>
-      <c r="C169">
+      <c r="C174">
         <v>295952</v>
       </c>
-      <c r="D169">
+      <c r="D174">
         <v>16861</v>
       </c>
-      <c r="E169">
+      <c r="E174">
         <v>9127</v>
       </c>
-      <c r="F169">
+      <c r="F174">
         <v>83687</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <f>DATE(2025,1,24)</f>
         <v>45681</v>
       </c>
-      <c r="B170">
+      <c r="B175">
         <v>22453</v>
       </c>
-      <c r="C170">
+      <c r="C175">
         <v>295959</v>
       </c>
-      <c r="D170">
+      <c r="D175">
         <v>16599</v>
       </c>
-      <c r="E170">
+      <c r="E175">
         <v>9127</v>
       </c>
-      <c r="F170">
+      <c r="F175">
         <v>82955</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <f>DATE(2025,1,23)</f>
         <v>45680</v>
       </c>
-      <c r="B171">
+      <c r="B176">
         <v>22453</v>
       </c>
-      <c r="C171">
+      <c r="C176">
         <v>298028</v>
       </c>
-      <c r="D171">
+      <c r="D176">
         <v>16595</v>
       </c>
-      <c r="E171">
+      <c r="E176">
         <v>9124</v>
       </c>
-      <c r="F171">
+      <c r="F176">
         <v>80190</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <f>DATE(2025,1,22)</f>
         <v>45679</v>
       </c>
-      <c r="B172">
+      <c r="B177">
         <v>22453</v>
       </c>
-      <c r="C172">
+      <c r="C177">
         <v>298262</v>
       </c>
-      <c r="D172">
+      <c r="D177">
         <v>16572</v>
       </c>
-      <c r="E172">
+      <c r="E177">
         <v>9123</v>
       </c>
-      <c r="F172">
+      <c r="F177">
         <v>80100</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <f>DATE(2025,1,21)</f>
         <v>45678</v>
       </c>
-      <c r="B173">
+      <c r="B178">
         <v>22453</v>
       </c>
-      <c r="C173">
+      <c r="C178">
         <v>297541</v>
       </c>
-      <c r="D173">
+      <c r="D178">
         <v>16552</v>
       </c>
-      <c r="E173">
+      <c r="E178">
         <v>9123</v>
       </c>
-      <c r="F173">
+      <c r="F178">
         <v>79674</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <f>DATE(2025,1,20)</f>
         <v>45677</v>
       </c>
-      <c r="B174">
+      <c r="B179">
         <v>22453</v>
       </c>
-      <c r="C174">
+      <c r="C179">
         <v>298121</v>
       </c>
-      <c r="D174">
+      <c r="D179">
         <v>16513</v>
       </c>
-      <c r="E174">
+      <c r="E179">
         <v>9123</v>
       </c>
-      <c r="F174">
+      <c r="F179">
         <v>78519</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="B175">
+      <c r="B180">
         <v>22453</v>
       </c>
-      <c r="C175">
+      <c r="C180">
         <v>297810</v>
       </c>
-      <c r="D175">
+      <c r="D180">
         <v>16485</v>
       </c>
-      <c r="E175">
+      <c r="E180">
         <v>9097</v>
       </c>
-      <c r="F175">
+      <c r="F180">
         <v>78031</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <f>DATE(2025,1,16)</f>
         <v>45673</v>
       </c>
-      <c r="B176">
+      <c r="B181">
         <v>22453</v>
       </c>
-      <c r="C176">
+      <c r="C181">
         <v>296081</v>
       </c>
-      <c r="D176">
+      <c r="D181">
         <v>16484</v>
       </c>
-      <c r="E176">
+      <c r="E181">
         <v>9097</v>
       </c>
-      <c r="F176">
+      <c r="F181">
         <v>77566</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <f>DATE(2025,1,15)</f>
         <v>45672</v>
       </c>
-      <c r="B177">
+      <c r="B182">
         <v>22453</v>
       </c>
-      <c r="C177">
+      <c r="C182">
         <v>294142</v>
       </c>
-      <c r="D177">
+      <c r="D182">
         <v>16483</v>
       </c>
-      <c r="E177">
+      <c r="E182">
         <v>9053</v>
       </c>
-      <c r="F177">
+      <c r="F182">
         <v>76666</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <f>DATE(2025,1,14)</f>
         <v>45671</v>
       </c>
-      <c r="B178">
+      <c r="B183">
         <v>24453</v>
       </c>
-      <c r="C178">
+      <c r="C183">
         <v>293909</v>
       </c>
-      <c r="D178">
+      <c r="D183">
         <v>16545</v>
       </c>
-      <c r="E178">
+      <c r="E183">
         <v>9053</v>
       </c>
-      <c r="F178">
+      <c r="F183">
         <v>75728</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <f>DATE(2025,1,13)</f>
         <v>45670</v>
       </c>
-      <c r="B179">
+      <c r="B184">
         <v>24453</v>
       </c>
-      <c r="C179">
+      <c r="C184">
         <v>293042</v>
       </c>
-      <c r="D179">
+      <c r="D184">
         <v>16549</v>
       </c>
-      <c r="E179">
+      <c r="E184">
         <v>9053</v>
       </c>
-      <c r="F179">
+      <c r="F184">
         <v>75377</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <f>DATE(2025,1,10)</f>
         <v>45667</v>
       </c>
-      <c r="B180">
+      <c r="B185">
         <v>24453</v>
       </c>
-      <c r="C180">
+      <c r="C185">
         <v>293931</v>
       </c>
-      <c r="D180">
+      <c r="D185">
         <v>16550</v>
       </c>
-      <c r="E180">
+      <c r="E185">
         <v>9053</v>
       </c>
-      <c r="F180">
+      <c r="F185">
         <v>74597</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <f>DATE(2025,1,9)</f>
         <v>45666</v>
       </c>
-      <c r="B181">
+      <c r="B186">
         <v>24453</v>
       </c>
-      <c r="C181">
+      <c r="C186">
         <v>293657</v>
       </c>
-      <c r="D181">
+      <c r="D186">
         <v>16547</v>
       </c>
-      <c r="E181">
+      <c r="E186">
         <v>9053</v>
       </c>
-      <c r="F181">
+      <c r="F186">
         <v>73046</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <f>DATE(2025,1,8)</f>
         <v>45665</v>
       </c>
-      <c r="B182">
+      <c r="B187">
         <v>24453</v>
       </c>
-      <c r="C182">
+      <c r="C187">
         <v>293213</v>
       </c>
-      <c r="D182">
+      <c r="D187">
         <v>16545</v>
       </c>
-      <c r="E182">
+      <c r="E187">
         <v>9023</v>
       </c>
-      <c r="F182">
+      <c r="F187">
         <v>72302</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <f>DATE(2025,1,7)</f>
         <v>45664</v>
       </c>
-      <c r="B183">
+      <c r="B188">
         <v>24453</v>
       </c>
-      <c r="C183">
+      <c r="C188">
         <v>292105</v>
       </c>
-      <c r="D183">
+      <c r="D188">
         <v>16534</v>
       </c>
-      <c r="E183">
+      <c r="E188">
         <v>9023</v>
       </c>
-      <c r="F183">
+      <c r="F188">
         <v>71585</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <f>DATE(2025,1,6)</f>
         <v>45663</v>
       </c>
-      <c r="B184">
+      <c r="B189">
         <v>24453</v>
       </c>
-      <c r="C184">
+      <c r="C189">
         <v>290888</v>
       </c>
-      <c r="D184">
+      <c r="D189">
         <v>16532</v>
       </c>
-      <c r="E184">
+      <c r="E189">
         <v>9023</v>
       </c>
-      <c r="F184">
+      <c r="F189">
         <v>71078</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <f>DATE(2025,1,3)</f>
         <v>45660</v>
       </c>
-      <c r="B185">
+      <c r="B190">
         <v>24453</v>
       </c>
-      <c r="C185">
+      <c r="C190">
         <v>288274</v>
       </c>
-      <c r="D185">
+      <c r="D190">
         <v>16532</v>
       </c>
-      <c r="E185">
+      <c r="E190">
         <v>9023</v>
       </c>
-      <c r="F185">
+      <c r="F190">
         <v>70744</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <f>DATE(2025,1,2)</f>
         <v>45659</v>
       </c>
-      <c r="B186">
+      <c r="B191">
         <v>24453</v>
       </c>
-      <c r="C186">
+      <c r="C191">
         <v>288343</v>
       </c>
-      <c r="D186">
+      <c r="D191">
         <v>15773</v>
       </c>
-      <c r="E186">
+      <c r="E191">
         <v>9023</v>
       </c>
-      <c r="F186">
+      <c r="F191">
         <v>70613</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <f>DATE(2024,12,31)</f>
         <v>45657</v>
       </c>
-      <c r="B187">
+      <c r="B192">
         <v>24453</v>
       </c>
-      <c r="C187">
+      <c r="C192">
         <v>290057</v>
       </c>
-      <c r="D187">
+      <c r="D192">
         <v>14324</v>
       </c>
-      <c r="E187">
+      <c r="E192">
         <v>9023</v>
       </c>
-      <c r="F187">
+      <c r="F192">
         <v>71076</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
       </c>
-      <c r="B188">
+      <c r="B193">
         <v>24453</v>
       </c>
-      <c r="C188">
+      <c r="C193">
         <v>291975</v>
       </c>
-      <c r="D188">
+      <c r="D193">
         <v>13724</v>
       </c>
-      <c r="E188">
+      <c r="E193">
         <v>9023</v>
       </c>
-      <c r="F188">
+      <c r="F193">
         <v>70945</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
       </c>
-      <c r="B189">
+      <c r="B194">
         <v>24453</v>
       </c>
-      <c r="C189">
+      <c r="C194">
         <v>293957</v>
       </c>
-      <c r="D189">
+      <c r="D194">
         <v>13728</v>
       </c>
-      <c r="E189">
+      <c r="E194">
         <v>9023</v>
       </c>
-      <c r="F189">
+      <c r="F194">
         <v>71587</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
       </c>
-      <c r="B190">
+      <c r="B195">
         <v>24453</v>
       </c>
-      <c r="C190">
+      <c r="C195">
         <v>294546</v>
       </c>
-      <c r="D190">
+      <c r="D195">
         <v>13728</v>
       </c>
-      <c r="E190">
+      <c r="E195">
         <v>9023</v>
       </c>
-      <c r="F190">
+      <c r="F195">
         <v>71630</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
       </c>
-      <c r="B191">
+      <c r="B196">
         <v>24453</v>
       </c>
-      <c r="C191">
+      <c r="C196">
         <v>294548</v>
       </c>
-      <c r="D191">
+      <c r="D196">
         <v>13728</v>
       </c>
-      <c r="E191">
+      <c r="E196">
         <v>9023</v>
       </c>
-      <c r="F191">
+      <c r="F196">
         <v>71630</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
       </c>
-      <c r="B192">
+      <c r="B197">
         <v>24453</v>
       </c>
-      <c r="C192">
+      <c r="C197">
         <v>295328</v>
       </c>
-      <c r="D192">
+      <c r="D197">
         <v>13078</v>
       </c>
-      <c r="E192">
+      <c r="E197">
         <v>9023</v>
       </c>
-      <c r="F192">
+      <c r="F197">
         <v>71607</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="B193">
+      <c r="B198">
         <v>24453</v>
       </c>
-      <c r="C193">
+      <c r="C198">
         <v>295576</v>
       </c>
-      <c r="D193">
+      <c r="D198">
         <v>12928</v>
       </c>
-      <c r="E193">
+      <c r="E198">
         <v>9023</v>
       </c>
-      <c r="F193">
+      <c r="F198">
         <v>71234</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
       </c>
-      <c r="B194">
+      <c r="B199">
         <v>24563</v>
       </c>
-      <c r="C194">
+      <c r="C199">
         <v>297267</v>
       </c>
-      <c r="D194">
+      <c r="D199">
         <v>12825</v>
       </c>
-      <c r="E194">
+      <c r="E199">
         <v>9023</v>
       </c>
-      <c r="F194">
+      <c r="F199">
         <v>71235</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
       </c>
-      <c r="B195">
+      <c r="B200">
         <v>24838</v>
       </c>
-      <c r="C195">
+      <c r="C200">
         <v>301001</v>
       </c>
-      <c r="D195">
+      <c r="D200">
         <v>11878</v>
       </c>
-      <c r="E195">
+      <c r="E200">
         <v>6745</v>
       </c>
-      <c r="F195">
+      <c r="F200">
         <v>70647</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
       </c>
-      <c r="B196">
+      <c r="B201">
         <v>22948</v>
       </c>
-      <c r="C196">
+      <c r="C201">
         <v>298481</v>
       </c>
-      <c r="D196">
+      <c r="D201">
         <v>11878</v>
       </c>
-      <c r="E196">
+      <c r="E201">
         <v>6745</v>
       </c>
-      <c r="F196">
+      <c r="F201">
         <v>70240</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
       </c>
-      <c r="B197">
+      <c r="B202">
         <v>22838</v>
       </c>
-      <c r="C197">
+      <c r="C202">
         <v>294651</v>
       </c>
-      <c r="D197">
+      <c r="D202">
         <v>11550</v>
       </c>
-      <c r="E197">
+      <c r="E202">
         <v>6745</v>
       </c>
-      <c r="F197">
+      <c r="F202">
         <v>69820</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
       </c>
-      <c r="B198">
+      <c r="B203">
         <v>22838</v>
       </c>
-      <c r="C198">
+      <c r="C203">
         <v>293743</v>
       </c>
-      <c r="D198">
+      <c r="D203">
         <v>11552</v>
       </c>
-      <c r="E198">
+      <c r="E203">
         <v>6745</v>
       </c>
-      <c r="F198">
+      <c r="F203">
         <v>69282</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
       </c>
-      <c r="B199">
+      <c r="B204">
         <v>21988</v>
       </c>
-      <c r="C199">
+      <c r="C204">
         <v>288113</v>
       </c>
-      <c r="D199">
+      <c r="D204">
         <v>11508</v>
       </c>
-      <c r="E199">
+      <c r="E204">
         <v>6745</v>
       </c>
-      <c r="F199">
+      <c r="F204">
         <v>69248</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
       </c>
-      <c r="B200">
+      <c r="B205">
         <v>23418</v>
       </c>
-      <c r="C200">
+      <c r="C205">
         <v>283521</v>
       </c>
-      <c r="D200">
+      <c r="D205">
         <v>11465</v>
       </c>
-      <c r="E200">
+      <c r="E205">
         <v>6745</v>
       </c>
-      <c r="F200">
+      <c r="F205">
         <v>68433</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
       </c>
-      <c r="B201">
+      <c r="B206">
         <v>23393</v>
       </c>
-      <c r="C201">
+      <c r="C206">
         <v>278267</v>
       </c>
-      <c r="D201">
+      <c r="D206">
         <v>11221</v>
       </c>
-      <c r="E201">
+      <c r="E206">
         <v>6745</v>
       </c>
-      <c r="F201">
+      <c r="F206">
         <v>68330</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
       </c>
-      <c r="B202">
+      <c r="B207">
         <v>23343</v>
       </c>
-      <c r="C202">
+      <c r="C207">
         <v>271912</v>
       </c>
-      <c r="D202">
+      <c r="D207">
         <v>11221</v>
       </c>
-      <c r="E202">
+      <c r="E207">
         <v>6745</v>
       </c>
-      <c r="F202">
+      <c r="F207">
         <v>67798</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
       </c>
-      <c r="B203">
+      <c r="B208">
         <v>23343</v>
       </c>
-      <c r="C203">
+      <c r="C208">
         <v>262513</v>
       </c>
-      <c r="D203">
+      <c r="D208">
         <v>11153</v>
       </c>
-      <c r="E203">
+      <c r="E208">
         <v>6745</v>
       </c>
-      <c r="F203">
+      <c r="F208">
         <v>67781</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
       </c>
-      <c r="B204">
+      <c r="B209">
         <v>23343</v>
       </c>
-      <c r="C204">
+      <c r="C209">
         <v>259235</v>
       </c>
-      <c r="D204">
+      <c r="D209">
         <v>11112</v>
       </c>
-      <c r="E204">
+      <c r="E209">
         <v>6745</v>
       </c>
-      <c r="F204">
+      <c r="F209">
         <v>67474</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
       </c>
-      <c r="B205">
+      <c r="B210">
         <v>23143</v>
       </c>
-      <c r="C205">
+      <c r="C210">
         <v>254567</v>
       </c>
-      <c r="D205">
+      <c r="D210">
         <v>10602</v>
       </c>
-      <c r="E205">
+      <c r="E210">
         <v>6745</v>
       </c>
-      <c r="F205">
+      <c r="F210">
         <v>67195</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
       </c>
-      <c r="B206">
+      <c r="B211">
         <v>23143</v>
       </c>
-      <c r="C206">
+      <c r="C211">
         <v>250176</v>
       </c>
-      <c r="D206">
+      <c r="D211">
         <v>10602</v>
       </c>
-      <c r="E206">
+      <c r="E211">
         <v>6745</v>
       </c>
-      <c r="F206">
+      <c r="F211">
         <v>66414</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
       </c>
-      <c r="B207">
+      <c r="B212">
         <v>23140</v>
       </c>
-      <c r="C207">
+      <c r="C212">
         <v>247746</v>
       </c>
-      <c r="D207">
+      <c r="D212">
         <v>10565</v>
       </c>
-      <c r="E207">
+      <c r="E212">
         <v>6745</v>
       </c>
-      <c r="F207">
+      <c r="F212">
         <v>64844</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
       </c>
-      <c r="B208">
+      <c r="B213">
         <v>23140</v>
       </c>
-      <c r="C208">
+      <c r="C213">
         <v>246043</v>
       </c>
-      <c r="D208">
+      <c r="D213">
         <v>10529</v>
       </c>
-      <c r="E208">
+      <c r="E213">
         <v>6745</v>
       </c>
-      <c r="F208">
+      <c r="F213">
         <v>64045</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
       </c>
-      <c r="B209">
+      <c r="B214">
         <v>23140</v>
       </c>
-      <c r="C209">
+      <c r="C214">
         <v>244430</v>
       </c>
-      <c r="D209">
+      <c r="D214">
         <v>10469</v>
       </c>
-      <c r="E209">
+      <c r="E214">
         <v>6745</v>
       </c>
-      <c r="F209">
+      <c r="F214">
         <v>63744</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
       </c>
-      <c r="B210">
+      <c r="B215">
         <v>23140</v>
       </c>
-      <c r="C210">
+      <c r="C215">
         <v>243229</v>
       </c>
-      <c r="D210">
+      <c r="D215">
         <v>10465</v>
       </c>
-      <c r="E210">
+      <c r="E215">
         <v>6695</v>
       </c>
-      <c r="F210">
+      <c r="F215">
         <v>62851</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
       </c>
-      <c r="B211">
+      <c r="B216">
         <v>23140</v>
       </c>
-      <c r="C211">
+      <c r="C216">
         <v>241479</v>
       </c>
-      <c r="D211">
+      <c r="D216">
         <v>10465</v>
       </c>
-      <c r="E211">
+      <c r="E216">
         <v>6695</v>
       </c>
-      <c r="F211">
+      <c r="F216">
         <v>62679</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
       </c>
-      <c r="B212">
+      <c r="B217">
         <v>23135</v>
       </c>
-      <c r="C212">
+      <c r="C217">
         <v>237969</v>
       </c>
-      <c r="D212">
+      <c r="D217">
         <v>10465</v>
       </c>
-      <c r="E212">
+      <c r="E217">
         <v>6595</v>
       </c>
-      <c r="F212">
+      <c r="F217">
         <v>62260</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
       </c>
-      <c r="B213">
+      <c r="B218">
         <v>23135</v>
       </c>
-      <c r="C213">
+      <c r="C218">
         <v>241559</v>
       </c>
-      <c r="D213">
+      <c r="D218">
         <v>10465</v>
       </c>
-      <c r="E213">
+      <c r="E218">
         <v>6595</v>
       </c>
-      <c r="F213">
+      <c r="F218">
         <v>62018</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
       </c>
-      <c r="B214">
+      <c r="B219">
         <v>23135</v>
       </c>
-      <c r="C214">
+      <c r="C219">
         <v>240880</v>
       </c>
-      <c r="D214">
+      <c r="D219">
         <v>10465</v>
       </c>
-      <c r="E214">
+      <c r="E219">
         <v>6595</v>
       </c>
-      <c r="F214">
+      <c r="F219">
         <v>60231</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
       </c>
-      <c r="B215">
+      <c r="B220">
         <v>23135</v>
       </c>
-      <c r="C215">
+      <c r="C220">
         <v>242718</v>
       </c>
-      <c r="D215">
+      <c r="D220">
         <v>10410</v>
       </c>
-      <c r="E215">
+      <c r="E220">
         <v>6245</v>
       </c>
-      <c r="F215">
+      <c r="F220">
         <v>59530</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
       </c>
-      <c r="B216">
+      <c r="B221">
         <v>23135</v>
       </c>
-      <c r="C216">
+      <c r="C221">
         <v>242146</v>
       </c>
-      <c r="D216">
+      <c r="D221">
         <v>10410</v>
       </c>
-      <c r="E216">
+      <c r="E221">
         <v>6238</v>
       </c>
-      <c r="F216">
+      <c r="F221">
         <v>59300</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
       </c>
-      <c r="B217">
+      <c r="B222">
         <v>23134</v>
       </c>
-      <c r="C217">
+      <c r="C222">
         <v>240186</v>
       </c>
-      <c r="D217">
+      <c r="D222">
         <v>9470</v>
       </c>
-      <c r="E217">
+      <c r="E222">
         <v>6238</v>
       </c>
-      <c r="F217">
+      <c r="F222">
         <v>58316</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
       </c>
-      <c r="B218">
+      <c r="B223">
         <v>23134</v>
       </c>
-      <c r="C218">
+      <c r="C223">
         <v>240124</v>
       </c>
-      <c r="D218">
+      <c r="D223">
         <v>9470</v>
       </c>
-      <c r="E218">
+      <c r="E223">
         <v>6238</v>
       </c>
-      <c r="F218">
+      <c r="F223">
         <v>58006</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
       </c>
-      <c r="B219">
+      <c r="B224">
         <v>22884</v>
       </c>
-      <c r="C219">
+      <c r="C224">
         <v>239097</v>
       </c>
-      <c r="D219">
+      <c r="D224">
         <v>9474</v>
       </c>
-      <c r="E219">
+      <c r="E224">
         <v>6238</v>
       </c>
-      <c r="F219">
+      <c r="F224">
         <v>57910</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
       </c>
-      <c r="B220">
+      <c r="B225">
         <v>22884</v>
       </c>
-      <c r="C220">
+      <c r="C225">
         <v>236767</v>
       </c>
-      <c r="D220">
+      <c r="D225">
         <v>9474</v>
       </c>
-      <c r="E220">
+      <c r="E225">
         <v>6238</v>
       </c>
-      <c r="F220">
+      <c r="F225">
         <v>56984</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
       </c>
-      <c r="B221">
+      <c r="B226">
         <v>22884</v>
       </c>
-      <c r="C221">
+      <c r="C226">
         <v>237379</v>
       </c>
-      <c r="D221">
+      <c r="D226">
         <v>9469</v>
       </c>
-      <c r="E221">
+      <c r="E226">
         <v>6208</v>
       </c>
-      <c r="F221">
+      <c r="F226">
         <v>56896</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
       </c>
-      <c r="B222">
+      <c r="B227">
         <v>22884</v>
       </c>
-      <c r="C222">
+      <c r="C227">
         <v>236910</v>
       </c>
-      <c r="D222">
+      <c r="D227">
         <v>9469</v>
       </c>
-      <c r="E222">
+      <c r="E227">
         <v>6208</v>
       </c>
-      <c r="F222">
+      <c r="F227">
         <v>56929</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
       </c>
-      <c r="B223">
+      <c r="B228">
         <v>22884</v>
       </c>
-      <c r="C223">
+      <c r="C228">
         <v>235001</v>
       </c>
-      <c r="D223">
+      <c r="D228">
         <v>9519</v>
       </c>
-      <c r="E223">
+      <c r="E228">
         <v>6208</v>
       </c>
-      <c r="F223">
+      <c r="F228">
         <v>56515</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
       </c>
-      <c r="B224">
+      <c r="B229">
         <v>22884</v>
       </c>
-      <c r="C224">
+      <c r="C229">
         <v>231619</v>
       </c>
-      <c r="D224">
+      <c r="D229">
         <v>9619</v>
       </c>
-      <c r="E224">
+      <c r="E229">
         <v>6208</v>
       </c>
-      <c r="F224">
+      <c r="F229">
         <v>56072</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
       </c>
-      <c r="B225">
+      <c r="B230">
         <v>22884</v>
       </c>
-      <c r="C225">
+      <c r="C230">
         <v>230601</v>
       </c>
-      <c r="D225">
+      <c r="D230">
         <v>9690</v>
       </c>
-      <c r="E225">
+      <c r="E230">
         <v>6108</v>
       </c>
-      <c r="F225">
+      <c r="F230">
         <v>55998</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
       </c>
-      <c r="B226">
+      <c r="B231">
         <v>22884</v>
       </c>
-      <c r="C226">
+      <c r="C231">
         <v>230374</v>
       </c>
-      <c r="D226">
+      <c r="D231">
         <v>9677</v>
       </c>
-      <c r="E226">
+      <c r="E231">
         <v>5923</v>
       </c>
-      <c r="F226">
+      <c r="F231">
         <v>54727</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
       </c>
-      <c r="B227">
+      <c r="B232">
         <v>22884</v>
       </c>
-      <c r="C227">
+      <c r="C232">
         <v>229045</v>
       </c>
-      <c r="D227">
+      <c r="D232">
         <v>9677</v>
       </c>
-      <c r="E227">
+      <c r="E232">
         <v>5923</v>
       </c>
-      <c r="F227">
+      <c r="F232">
         <v>54404</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="B228">
+      <c r="B233">
         <v>22884</v>
       </c>
-      <c r="C228">
+      <c r="C233">
         <v>227307</v>
       </c>
-      <c r="D228">
+      <c r="D233">
         <v>9567</v>
       </c>
-      <c r="E228">
+      <c r="E233">
         <v>5923</v>
       </c>
-      <c r="F228">
+      <c r="F233">
         <v>54456</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
       </c>
-      <c r="B229">
+      <c r="B234">
         <v>22884</v>
       </c>
-      <c r="C229">
+      <c r="C234">
         <v>227231</v>
       </c>
-      <c r="D229">
+      <c r="D234">
         <v>9567</v>
       </c>
-      <c r="E229">
+      <c r="E234">
         <v>5923</v>
       </c>
-      <c r="F229">
+      <c r="F234">
         <v>53878</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
       </c>
-      <c r="B230">
+      <c r="B235">
         <v>22884</v>
       </c>
-      <c r="C230">
+      <c r="C235">
         <v>226655</v>
       </c>
-      <c r="D230">
+      <c r="D235">
         <v>9547</v>
       </c>
-      <c r="E230">
+      <c r="E235">
         <v>5923</v>
       </c>
-      <c r="F230">
+      <c r="F235">
         <v>53986</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
       </c>
-      <c r="B231">
+      <c r="B236">
         <v>22884</v>
       </c>
-      <c r="C231">
+      <c r="C236">
         <v>226326</v>
       </c>
-      <c r="D231">
+      <c r="D236">
         <v>9540</v>
       </c>
-      <c r="E231">
+      <c r="E236">
         <v>5923</v>
       </c>
-      <c r="F231">
+      <c r="F236">
         <v>53441</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
       </c>
-      <c r="B232">
+      <c r="B237">
         <v>22884</v>
       </c>
-      <c r="C232">
+      <c r="C237">
         <v>225848</v>
       </c>
-      <c r="D232">
+      <c r="D237">
         <v>9540</v>
       </c>
-      <c r="E232">
+      <c r="E237">
         <v>5923</v>
       </c>
-      <c r="F232">
+      <c r="F237">
         <v>52683</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
       </c>
-      <c r="B233">
+      <c r="B238">
         <v>21875</v>
       </c>
-      <c r="C233">
+      <c r="C238">
         <v>225509</v>
       </c>
-      <c r="D233">
+      <c r="D238">
         <v>9540</v>
       </c>
-      <c r="E233">
+      <c r="E238">
         <v>5923</v>
       </c>
-      <c r="F233">
+      <c r="F238">
         <v>52453</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
       </c>
-      <c r="B234">
+      <c r="B239">
         <v>21875</v>
       </c>
-      <c r="C234">
+      <c r="C239">
         <v>227510</v>
       </c>
-      <c r="D234">
+      <c r="D239">
         <v>9540</v>
       </c>
-      <c r="E234">
+      <c r="E239">
         <v>5923</v>
       </c>
-      <c r="F234">
+      <c r="F239">
         <v>51188</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
       </c>
-      <c r="B235">
+      <c r="B240">
         <v>21875</v>
       </c>
-      <c r="C235">
+      <c r="C240">
         <v>226876</v>
       </c>
-      <c r="D235">
+      <c r="D240">
         <v>9540</v>
       </c>
-      <c r="E235">
+      <c r="E240">
         <v>5923</v>
       </c>
-      <c r="F235">
+      <c r="F240">
         <v>51133</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
       </c>
-      <c r="B236">
+      <c r="B241">
         <v>21875</v>
       </c>
-      <c r="C236">
+      <c r="C241">
         <v>227039</v>
       </c>
-      <c r="D236">
+      <c r="D241">
         <v>9540</v>
       </c>
-      <c r="E236">
+      <c r="E241">
         <v>5923</v>
       </c>
-      <c r="F236">
+      <c r="F241">
         <v>51049</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
       </c>
-      <c r="B237">
+      <c r="B242">
         <v>21875</v>
       </c>
-      <c r="C237">
+      <c r="C242">
         <v>225342</v>
       </c>
-      <c r="D237">
+      <c r="D242">
         <v>9536</v>
       </c>
-      <c r="E237">
+      <c r="E242">
         <v>5923</v>
       </c>
-      <c r="F237">
+      <c r="F242">
         <v>51091</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
       </c>
-      <c r="B238">
+      <c r="B243">
         <v>21875</v>
       </c>
-      <c r="C238">
+      <c r="C243">
         <v>224244</v>
       </c>
-      <c r="D238">
+      <c r="D243">
         <v>9536</v>
       </c>
-      <c r="E238">
+      <c r="E243">
         <v>5723</v>
       </c>
-      <c r="F238">
+      <c r="F243">
         <v>51028</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
       </c>
-      <c r="B239">
+      <c r="B244">
         <v>21875</v>
       </c>
-      <c r="C239">
+      <c r="C244">
         <v>223763</v>
       </c>
-      <c r="D239">
+      <c r="D244">
         <v>9536</v>
       </c>
-      <c r="E239">
+      <c r="E244">
         <v>5723</v>
       </c>
-      <c r="F239">
+      <c r="F244">
         <v>50423</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
       </c>
-      <c r="B240">
+      <c r="B245">
         <v>21875</v>
       </c>
-      <c r="C240">
+      <c r="C245">
         <v>221765</v>
       </c>
-      <c r="D240">
+      <c r="D245">
         <v>9538</v>
       </c>
-      <c r="E240">
+      <c r="E245">
         <v>5723</v>
       </c>
-      <c r="F240">
+      <c r="F245">
         <v>49665</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
       </c>
-      <c r="B241">
+      <c r="B246">
         <v>21875</v>
       </c>
-      <c r="C241">
+      <c r="C246">
         <v>221165</v>
       </c>
-      <c r="D241">
+      <c r="D246">
         <v>9530</v>
       </c>
-      <c r="E241">
+      <c r="E246">
         <v>5723</v>
       </c>
-      <c r="F241">
+      <c r="F246">
         <v>48992</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
       </c>
-      <c r="B242">
+      <c r="B247">
         <v>21875</v>
       </c>
-      <c r="C242">
+      <c r="C247">
         <v>220105</v>
       </c>
-      <c r="D242">
+      <c r="D247">
         <v>9485</v>
       </c>
-      <c r="E242">
+      <c r="E247">
         <v>5723</v>
       </c>
-      <c r="F242">
+      <c r="F247">
         <v>48124</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
       </c>
-      <c r="B243">
+      <c r="B248">
         <v>22075</v>
       </c>
-      <c r="C243">
+      <c r="C248">
         <v>219760</v>
       </c>
-      <c r="D243">
+      <c r="D248">
         <v>9485</v>
       </c>
-      <c r="E243">
+      <c r="E248">
         <v>5723</v>
       </c>
-      <c r="F243">
+      <c r="F248">
         <v>47918</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
       </c>
-      <c r="B244">
+      <c r="B249">
         <v>22075</v>
       </c>
-      <c r="C244">
+      <c r="C249">
         <v>218844</v>
       </c>
-      <c r="D244">
+      <c r="D249">
         <v>9485</v>
       </c>
-      <c r="E244">
+      <c r="E249">
         <v>5723</v>
       </c>
-      <c r="F244">
+      <c r="F249">
         <v>47824</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
       </c>
-      <c r="B245">
+      <c r="B250">
         <v>22075</v>
       </c>
-      <c r="C245">
+      <c r="C250">
         <v>218706</v>
       </c>
-      <c r="D245">
+      <c r="D250">
         <v>9480</v>
       </c>
-      <c r="E245">
+      <c r="E250">
         <v>5723</v>
       </c>
-      <c r="F245">
+      <c r="F250">
         <v>47848</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
       </c>
-      <c r="B246">
+      <c r="B251">
         <v>22075</v>
       </c>
-      <c r="C246">
+      <c r="C251">
         <v>213895</v>
       </c>
-      <c r="D246">
+      <c r="D251">
         <v>8979</v>
       </c>
-      <c r="E246">
+      <c r="E251">
         <v>5723</v>
       </c>
-      <c r="F246">
+      <c r="F251">
         <v>47418</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
       </c>
-      <c r="B247">
+      <c r="B252">
         <v>22075</v>
       </c>
-      <c r="C247">
+      <c r="C252">
         <v>212171</v>
       </c>
-      <c r="D247">
+      <c r="D252">
         <v>8549</v>
       </c>
-      <c r="E247">
+      <c r="E252">
         <v>5723</v>
       </c>
-      <c r="F247">
+      <c r="F252">
         <v>46991</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
       </c>
-      <c r="B248">
+      <c r="B253">
         <v>22075</v>
       </c>
-      <c r="C248">
+      <c r="C253">
         <v>211471</v>
       </c>
-      <c r="D248">
+      <c r="D253">
         <v>8549</v>
       </c>
-      <c r="E248">
+      <c r="E253">
         <v>5723</v>
       </c>
-      <c r="F248">
+      <c r="F253">
         <v>46777</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
       </c>
-      <c r="B249">
+      <c r="B254">
         <v>22075</v>
       </c>
-      <c r="C249">
+      <c r="C254">
         <v>210463</v>
       </c>
-      <c r="D249">
+      <c r="D254">
         <v>8530</v>
       </c>
-      <c r="E249">
+      <c r="E254">
         <v>5723</v>
       </c>
-      <c r="F249">
+      <c r="F254">
         <v>46762</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
       </c>
-      <c r="B250">
+      <c r="B255">
         <v>22075</v>
       </c>
-      <c r="C250">
+      <c r="C255">
         <v>210552</v>
       </c>
-      <c r="D250">
+      <c r="D255">
         <v>8527</v>
       </c>
-      <c r="E250">
+      <c r="E255">
         <v>5723</v>
       </c>
-      <c r="F250">
+      <c r="F255">
         <v>46600</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="B251">
+      <c r="B256">
         <v>22075</v>
       </c>
-      <c r="C251">
+      <c r="C256">
         <v>203830</v>
       </c>
-      <c r="D251">
+      <c r="D256">
         <v>8527</v>
       </c>
-      <c r="E251">
+      <c r="E256">
         <v>5473</v>
       </c>
-      <c r="F251">
+      <c r="F256">
         <v>45716</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
       </c>
-      <c r="B252">
+      <c r="B257">
         <v>22075</v>
       </c>
-      <c r="C252">
+      <c r="C257">
         <v>197874</v>
       </c>
-      <c r="D252">
+      <c r="D257">
         <v>8436</v>
       </c>
-      <c r="E252">
+      <c r="E257">
         <v>5473</v>
       </c>
-      <c r="F252">
+      <c r="F257">
         <v>45261</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
       </c>
-      <c r="B253">
+      <c r="B258">
         <v>22075</v>
       </c>
-      <c r="C253">
+      <c r="C258">
         <v>197129</v>
       </c>
-      <c r="D253">
+      <c r="D258">
         <v>8436</v>
       </c>
-      <c r="E253">
+      <c r="E258">
         <v>5473</v>
       </c>
-      <c r="F253">
+      <c r="F258">
         <v>45232</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
       </c>
-      <c r="B254">
+      <c r="B259">
         <v>22075</v>
       </c>
-      <c r="C254">
+      <c r="C259">
         <v>196698</v>
       </c>
-      <c r="D254">
+      <c r="D259">
         <v>8436</v>
       </c>
-      <c r="E254">
+      <c r="E259">
         <v>5355</v>
       </c>
-      <c r="F254">
+      <c r="F259">
         <v>45271</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
       </c>
-      <c r="B255">
+      <c r="B260">
         <v>22163</v>
       </c>
-      <c r="C255">
+      <c r="C260">
         <v>194595</v>
       </c>
-      <c r="D255">
+      <c r="D260">
         <v>8436</v>
       </c>
-      <c r="E255">
+      <c r="E260">
         <v>5355</v>
       </c>
-      <c r="F255">
+      <c r="F260">
         <v>45226</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
       </c>
-      <c r="B256">
+      <c r="B261">
         <v>15813</v>
       </c>
-      <c r="C256">
+      <c r="C261">
         <v>193567</v>
       </c>
-      <c r="D256">
+      <c r="D261">
         <v>8436</v>
       </c>
-      <c r="E256">
+      <c r="E261">
         <v>5355</v>
       </c>
-      <c r="F256">
+      <c r="F261">
         <v>45184</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
       </c>
-      <c r="B257">
+      <c r="B262">
         <v>15813</v>
       </c>
-      <c r="C257">
+      <c r="C262">
         <v>192155</v>
       </c>
-      <c r="D257">
+      <c r="D262">
         <v>8436</v>
-      </c>
-      <c r="E257">
-        <v>5355</v>
-      </c>
-      <c r="F257">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <f>DATE(2024,9,20)</f>
-        <v>45555</v>
-      </c>
-      <c r="B258">
-        <v>15813</v>
-      </c>
-      <c r="C258">
-        <v>190546</v>
-      </c>
-      <c r="D258">
-        <v>8436</v>
-      </c>
-      <c r="E258">
-        <v>5355</v>
-      </c>
-      <c r="F258">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <f>DATE(2024,9,19)</f>
-        <v>45554</v>
-      </c>
-      <c r="B259">
-        <v>15813</v>
-      </c>
-      <c r="C259">
-        <v>190387</v>
-      </c>
-      <c r="D259">
-        <v>8436</v>
-      </c>
-      <c r="E259">
-        <v>5355</v>
-      </c>
-      <c r="F259">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
-      </c>
-      <c r="B260">
-        <v>13763</v>
-      </c>
-      <c r="C260">
-        <v>189493</v>
-      </c>
-      <c r="D260">
-        <v>8411</v>
-      </c>
-      <c r="E260">
-        <v>5355</v>
-      </c>
-      <c r="F260">
-        <v>43888</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <f>DATE(2024,9,17)</f>
-        <v>45552</v>
-      </c>
-      <c r="B261">
-        <v>13763</v>
-      </c>
-      <c r="C261">
-        <v>189036</v>
-      </c>
-      <c r="D261">
-        <v>8405</v>
-      </c>
-      <c r="E261">
-        <v>5355</v>
-      </c>
-      <c r="F261">
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <f>DATE(2024,9,16)</f>
-        <v>45551</v>
-      </c>
-      <c r="B262">
-        <v>13763</v>
-      </c>
-      <c r="C262">
-        <v>189674</v>
-      </c>
-      <c r="D262">
-        <v>8405</v>
       </c>
       <c r="E262">
         <v>5355</v>
       </c>
       <c r="F262">
-        <v>42926</v>
+        <v>45282</v>
       </c>
     </row>
   </sheetData>
@@ -12870,7 +12872,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12894,7 +12896,7 @@
       </c>
       <c r="B2" s="2">
         <f>_xll.ICEQuote($A2,B$1)</f>
-        <v>76.36</v>
+        <v>75.819999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12903,7 +12905,7 @@
       </c>
       <c r="B3" s="2">
         <f>_xll.ICEQuote($A3,B$1)</f>
-        <v>76.5</v>
+        <v>75.95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12912,7 +12914,7 @@
       </c>
       <c r="B4" s="2">
         <f>_xll.ICEQuote($A4,B$1)</f>
-        <v>76.650000000000006</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12921,7 +12923,7 @@
       </c>
       <c r="B5" s="2">
         <f>_xll.ICEQuote($A5,B$1)</f>
-        <v>76.75</v>
+        <v>76.209999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12930,7 +12932,7 @@
       </c>
       <c r="B6" s="2">
         <f>_xll.ICEQuote($A6,B$1)</f>
-        <v>77.27</v>
+        <v>76.739999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12939,7 +12941,7 @@
       </c>
       <c r="B7" s="2">
         <f>_xll.ICEQuote($A7,B$1)</f>
-        <v>77.8</v>
+        <v>77.239999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12948,7 +12950,7 @@
       </c>
       <c r="B8" s="2">
         <f>_xll.ICEQuote($A8,B$1)</f>
-        <v>78.13</v>
+        <v>77.59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12957,7 +12959,7 @@
       </c>
       <c r="B9" s="2">
         <f>_xll.ICEQuote($A9,B$1)</f>
-        <v>78.319999999999993</v>
+        <v>77.790000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12966,7 +12968,7 @@
       </c>
       <c r="B10" s="2">
         <f>_xll.ICEQuote($A10,B$1)</f>
-        <v>78.75</v>
+        <v>78.239999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12975,7 +12977,7 @@
       </c>
       <c r="B11" s="2">
         <f>_xll.ICEQuote($A11,B$1)</f>
-        <v>79.290000000000006</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12984,7 +12986,7 @@
       </c>
       <c r="B12" s="2">
         <f>_xll.ICEQuote($A12,B$1)</f>
-        <v>79.849999999999994</v>
+        <v>79.33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12993,7 +12995,7 @@
       </c>
       <c r="B13" s="2">
         <f>_xll.ICEQuote($A13,B$1)</f>
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13002,7 +13004,7 @@
       </c>
       <c r="B14" s="2">
         <f>_xll.ICEQuote($A14,B$1)</f>
-        <v>81.040000000000006</v>
+        <v>80.510000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -13011,7 +13013,7 @@
       </c>
       <c r="B15" s="2">
         <f>_xll.ICEQuote($A15,B$1)</f>
-        <v>81.67</v>
+        <v>81.17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13020,7 +13022,7 @@
       </c>
       <c r="B16" s="2">
         <f>_xll.ICEQuote($A16,B$1)</f>
-        <v>82.32</v>
+        <v>81.83</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13029,7 +13031,7 @@
       </c>
       <c r="B17" s="2">
         <f>_xll.ICEQuote($A17,B$1)</f>
-        <v>83.55</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13038,7 +13040,7 @@
       </c>
       <c r="B18" s="2">
         <f>_xll.ICEQuote($A18,B$1)</f>
-        <v>86.33</v>
+        <v>85.93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13047,7 +13049,7 @@
       </c>
       <c r="B19" s="2">
         <f>_xll.ICEQuote($A19,B$1)</f>
-        <v>89.59</v>
+        <v>89.2</v>
       </c>
     </row>
   </sheetData>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BAFFA8-9726-4031-8A2E-5E68939FB2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA9F3D-375A-444E-AF08-4BAA8FFD60D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm\.dd\.yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1063,7 +1063,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>79.3</v>
+        <v>79.31</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1077,7 +1077,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>80.28</v>
+        <v>80.290000000000006</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1091,14 +1091,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>81.040000000000006</v>
+        <v>81.05</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>81.599999999999994</v>
+        <v>81.61</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1343,7 +1343,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>314</v>
+        <v>333</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1595,7 +1595,7 @@
         <tr r="C13" s="1"/>
       </tp>
       <tp>
-        <v>0.5899999999999892</v>
+        <v>0.53000000000000114</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Change</stp>
@@ -1821,7 +1821,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>76.75</v>
+        <v>76.739999999999995</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -2269,7 +2269,7 @@
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>78.72</v>
+        <v>78.77</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Last</stp>
@@ -2862,7 +2862,7 @@
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>78.760000000000005</v>
+        <v>78.77</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
@@ -2876,7 +2876,7 @@
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>81.099999999999994</v>
+        <v>81.040000000000006</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Last</stp>
@@ -3541,7 +3541,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>2981</v>
+        <v>2997</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3583,7 +3583,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>24613</v>
+        <v>24701</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3772,7 +3772,7 @@
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>0.48000000000000398</v>
+        <v>0.53000000000000114</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Change</stp>
@@ -3814,7 +3814,7 @@
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0.54000000000000625</v>
+        <v>0.53000000000000114</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
@@ -5012,11 +5012,11 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>76.75</v>
+        <v>76.739999999999995</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>0.54000000000000625</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>24613</v>
+        <v>24701</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="B10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Last")</f>
-        <v>78.72</v>
+        <v>78.77</v>
       </c>
       <c r="C10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Change")</f>
-        <v>0.48000000000000398</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="D10">
         <f>RTD("esrtd",,"ECF 9!-ICN","High")</f>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>78.760000000000005</v>
+        <v>78.77</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>2981</v>
+        <v>2997</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>79.3</v>
+        <v>79.31</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>80.28</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
@@ -5390,11 +5390,11 @@
       </c>
       <c r="B14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Last")</f>
-        <v>81.099999999999994</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="C14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Change")</f>
-        <v>0.5899999999999892</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="D14">
         <f>RTD("esrtd",,"ECF 13!-ICN","High")</f>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>81.040000000000006</v>
+        <v>81.05</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>81.599999999999994</v>
+        <v>81.61</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
@@ -7364,10 +7364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="M507" sqref="M507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7378,9 +7378,10 @@
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -7396,10 +7397,13 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f ca="1">_xll.ICESeries(B2:F2,B3:F3,,EDATE(TODAY(),-12),TODAY(),,"TimelineMerge=Union","DayOfWeek=12345")</f>
+        <f ca="1">_xll.ICESeries(B2:G2,B3:G3,,EDATE(TODAY(),-24),TODAY(),,"TimelineMerge=Union","DayOfWeek=12345")</f>
         <v>Time Series</v>
       </c>
       <c r="B2" t="s">
@@ -7417,8 +7421,11 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -7434,8 +7441,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -7451,8 +7461,11 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>DATE(2025,9,22)</f>
         <v>45922</v>
@@ -7473,7 +7486,7 @@
         <v>181177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>DATE(2025,9,19)</f>
         <v>45919</v>
@@ -7494,7 +7507,7 @@
         <v>181271</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>DATE(2025,9,18)</f>
         <v>45918</v>
@@ -7515,7 +7528,7 @@
         <v>181386</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>DATE(2025,9,17)</f>
         <v>45917</v>
@@ -7536,7 +7549,7 @@
         <v>180453</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>DATE(2025,9,16)</f>
         <v>45916</v>
@@ -7557,7 +7570,7 @@
         <v>179147</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>DATE(2025,9,15)</f>
         <v>45915</v>
@@ -7578,7 +7591,7 @@
         <v>177490</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>DATE(2025,9,12)</f>
         <v>45912</v>
@@ -7599,7 +7612,7 @@
         <v>176344</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f>DATE(2025,9,11)</f>
         <v>45911</v>
@@ -7620,7 +7633,7 @@
         <v>176245</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>DATE(2025,9,10)</f>
         <v>45910</v>
@@ -7641,7 +7654,7 @@
         <v>174401</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>DATE(2025,9,9)</f>
         <v>45909</v>
@@ -7662,7 +7675,7 @@
         <v>173517</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>DATE(2025,9,8)</f>
         <v>45908</v>
@@ -7683,7 +7696,7 @@
         <v>173160</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f>DATE(2025,9,5)</f>
         <v>45905</v>
@@ -11400,7 +11413,7 @@
         <v>71076</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f>DATE(2024,12,30)</f>
         <v>45656</v>
@@ -11421,7 +11434,7 @@
         <v>70945</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <f>DATE(2024,12,27)</f>
         <v>45653</v>
@@ -11442,7 +11455,7 @@
         <v>71587</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <f>DATE(2024,12,26)</f>
         <v>45652</v>
@@ -11463,7 +11476,7 @@
         <v>71630</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <f>DATE(2024,12,25)</f>
         <v>45651</v>
@@ -11484,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <f>DATE(2024,12,24)</f>
         <v>45650</v>
@@ -11505,7 +11518,7 @@
         <v>71630</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <f>DATE(2024,12,23)</f>
         <v>45649</v>
@@ -11526,7 +11539,7 @@
         <v>71607</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
@@ -11547,7 +11560,7 @@
         <v>71234</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <f>DATE(2024,12,19)</f>
         <v>45645</v>
@@ -11568,7 +11581,7 @@
         <v>71235</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <f>DATE(2024,12,18)</f>
         <v>45644</v>
@@ -11589,7 +11602,7 @@
         <v>70647</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <f>DATE(2024,12,17)</f>
         <v>45643</v>
@@ -11609,8 +11622,11 @@
       <c r="F202">
         <v>70240</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <f>DATE(2024,12,16)</f>
         <v>45642</v>
@@ -11630,8 +11646,11 @@
       <c r="F203">
         <v>69820</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>236119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <f>DATE(2024,12,13)</f>
         <v>45639</v>
@@ -11651,8 +11670,11 @@
       <c r="F204">
         <v>69282</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>238631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <f>DATE(2024,12,12)</f>
         <v>45638</v>
@@ -11672,8 +11694,11 @@
       <c r="F205">
         <v>69248</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>244224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <f>DATE(2024,12,11)</f>
         <v>45637</v>
@@ -11693,8 +11718,11 @@
       <c r="F206">
         <v>68433</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>250883</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <f>DATE(2024,12,10)</f>
         <v>45636</v>
@@ -11714,8 +11742,11 @@
       <c r="F207">
         <v>68330</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>272021</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <f>DATE(2024,12,9)</f>
         <v>45635</v>
@@ -11735,8 +11766,11 @@
       <c r="F208">
         <v>67798</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>282208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <f>DATE(2024,12,6)</f>
         <v>45632</v>
@@ -11756,8 +11790,11 @@
       <c r="F209">
         <v>67781</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>309974</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <f>DATE(2024,12,5)</f>
         <v>45631</v>
@@ -11777,8 +11814,11 @@
       <c r="F210">
         <v>67474</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>316854</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <f>DATE(2024,12,4)</f>
         <v>45630</v>
@@ -11798,8 +11838,11 @@
       <c r="F211">
         <v>67195</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>317900</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <f>DATE(2024,12,3)</f>
         <v>45629</v>
@@ -11819,8 +11862,11 @@
       <c r="F212">
         <v>66414</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>323554</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <f>DATE(2024,12,2)</f>
         <v>45628</v>
@@ -11840,8 +11886,11 @@
       <c r="F213">
         <v>64844</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>329030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <f>DATE(2024,11,29)</f>
         <v>45625</v>
@@ -11861,8 +11910,11 @@
       <c r="F214">
         <v>64045</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>332063</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <f>DATE(2024,11,28)</f>
         <v>45624</v>
@@ -11882,8 +11934,11 @@
       <c r="F215">
         <v>63744</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>332902</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <f>DATE(2024,11,27)</f>
         <v>45623</v>
@@ -11903,8 +11958,11 @@
       <c r="F216">
         <v>62851</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>334774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <f>DATE(2024,11,26)</f>
         <v>45622</v>
@@ -11924,8 +11982,11 @@
       <c r="F217">
         <v>62679</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>339732</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <f>DATE(2024,11,25)</f>
         <v>45621</v>
@@ -11945,8 +12006,11 @@
       <c r="F218">
         <v>62260</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>346078</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <f>DATE(2024,11,22)</f>
         <v>45618</v>
@@ -11966,8 +12030,11 @@
       <c r="F219">
         <v>62018</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>349180</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <f>DATE(2024,11,21)</f>
         <v>45617</v>
@@ -11987,8 +12054,11 @@
       <c r="F220">
         <v>60231</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>359378</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <f>DATE(2024,11,20)</f>
         <v>45616</v>
@@ -12008,8 +12078,11 @@
       <c r="F221">
         <v>59530</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>363160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <f>DATE(2024,11,19)</f>
         <v>45615</v>
@@ -12029,8 +12102,11 @@
       <c r="F222">
         <v>59300</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>363424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <f>DATE(2024,11,18)</f>
         <v>45614</v>
@@ -12050,8 +12126,11 @@
       <c r="F223">
         <v>58316</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>368896</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <f>DATE(2024,11,15)</f>
         <v>45611</v>
@@ -12071,8 +12150,11 @@
       <c r="F224">
         <v>58006</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>367017</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <f>DATE(2024,11,14)</f>
         <v>45610</v>
@@ -12092,8 +12174,11 @@
       <c r="F225">
         <v>57910</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>370048</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <f>DATE(2024,11,13)</f>
         <v>45609</v>
@@ -12113,8 +12198,11 @@
       <c r="F226">
         <v>56984</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>371081</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <f>DATE(2024,11,12)</f>
         <v>45608</v>
@@ -12134,8 +12222,11 @@
       <c r="F227">
         <v>56896</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>377282</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <f>DATE(2024,11,11)</f>
         <v>45607</v>
@@ -12155,8 +12246,11 @@
       <c r="F228">
         <v>56929</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>379654</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <f>DATE(2024,11,8)</f>
         <v>45604</v>
@@ -12176,8 +12270,11 @@
       <c r="F229">
         <v>56515</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>377527</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <f>DATE(2024,11,7)</f>
         <v>45603</v>
@@ -12197,8 +12294,11 @@
       <c r="F230">
         <v>56072</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>377881</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <f>DATE(2024,11,6)</f>
         <v>45602</v>
@@ -12218,8 +12318,11 @@
       <c r="F231">
         <v>55998</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>380268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <f>DATE(2024,11,5)</f>
         <v>45601</v>
@@ -12239,8 +12342,11 @@
       <c r="F232">
         <v>54727</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>380625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <f>DATE(2024,11,4)</f>
         <v>45600</v>
@@ -12260,8 +12366,11 @@
       <c r="F233">
         <v>54404</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>380345</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
@@ -12281,8 +12390,11 @@
       <c r="F234">
         <v>54456</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>380760</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <f>DATE(2024,10,31)</f>
         <v>45596</v>
@@ -12302,8 +12414,11 @@
       <c r="F235">
         <v>53878</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>381074</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <f>DATE(2024,10,30)</f>
         <v>45595</v>
@@ -12323,8 +12438,11 @@
       <c r="F236">
         <v>53986</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>377423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <f>DATE(2024,10,29)</f>
         <v>45594</v>
@@ -12344,8 +12462,11 @@
       <c r="F237">
         <v>53441</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>379961</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <f>DATE(2024,10,28)</f>
         <v>45593</v>
@@ -12365,8 +12486,11 @@
       <c r="F238">
         <v>52683</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>383677</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <f>DATE(2024,10,25)</f>
         <v>45590</v>
@@ -12386,8 +12510,11 @@
       <c r="F239">
         <v>52453</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>385602</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <f>DATE(2024,10,24)</f>
         <v>45589</v>
@@ -12407,8 +12534,11 @@
       <c r="F240">
         <v>51188</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>389085</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <f>DATE(2024,10,23)</f>
         <v>45588</v>
@@ -12428,8 +12558,11 @@
       <c r="F241">
         <v>51133</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>389968</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <f>DATE(2024,10,22)</f>
         <v>45587</v>
@@ -12449,8 +12582,11 @@
       <c r="F242">
         <v>51049</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>391398</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <f>DATE(2024,10,21)</f>
         <v>45586</v>
@@ -12470,8 +12606,11 @@
       <c r="F243">
         <v>51091</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>389463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <f>DATE(2024,10,18)</f>
         <v>45583</v>
@@ -12491,8 +12630,11 @@
       <c r="F244">
         <v>51028</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>387564</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <f>DATE(2024,10,17)</f>
         <v>45582</v>
@@ -12512,8 +12654,11 @@
       <c r="F245">
         <v>50423</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>386770</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <f>DATE(2024,10,16)</f>
         <v>45581</v>
@@ -12533,8 +12678,11 @@
       <c r="F246">
         <v>49665</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>386277</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <f>DATE(2024,10,15)</f>
         <v>45580</v>
@@ -12554,8 +12702,11 @@
       <c r="F247">
         <v>48992</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>385968</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <f>DATE(2024,10,14)</f>
         <v>45579</v>
@@ -12575,8 +12726,11 @@
       <c r="F248">
         <v>48124</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>386732</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <f>DATE(2024,10,11)</f>
         <v>45576</v>
@@ -12596,8 +12750,11 @@
       <c r="F249">
         <v>47918</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>386382</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <f>DATE(2024,10,10)</f>
         <v>45575</v>
@@ -12617,8 +12774,11 @@
       <c r="F250">
         <v>47824</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>389537</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <f>DATE(2024,10,9)</f>
         <v>45574</v>
@@ -12638,8 +12798,11 @@
       <c r="F251">
         <v>47848</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>392335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <f>DATE(2024,10,8)</f>
         <v>45573</v>
@@ -12659,8 +12822,11 @@
       <c r="F252">
         <v>47418</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>393311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <f>DATE(2024,10,7)</f>
         <v>45572</v>
@@ -12680,8 +12846,11 @@
       <c r="F253">
         <v>46991</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>393040</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <f>DATE(2024,10,4)</f>
         <v>45569</v>
@@ -12701,8 +12870,11 @@
       <c r="F254">
         <v>46777</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>414837</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <f>DATE(2024,10,3)</f>
         <v>45568</v>
@@ -12722,8 +12894,11 @@
       <c r="F255">
         <v>46762</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>413145</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <f>DATE(2024,10,2)</f>
         <v>45567</v>
@@ -12743,8 +12918,11 @@
       <c r="F256">
         <v>46600</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>412005</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <f>DATE(2024,10,1)</f>
         <v>45566</v>
@@ -12764,8 +12942,11 @@
       <c r="F257">
         <v>45716</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>405300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <f>DATE(2024,9,30)</f>
         <v>45565</v>
@@ -12785,8 +12966,11 @@
       <c r="F258">
         <v>45261</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>398090</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <f>DATE(2024,9,27)</f>
         <v>45562</v>
@@ -12806,8 +12990,11 @@
       <c r="F259">
         <v>45232</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>396531</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <f>DATE(2024,9,26)</f>
         <v>45561</v>
@@ -12827,8 +13014,11 @@
       <c r="F260">
         <v>45271</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>396747</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <f>DATE(2024,9,25)</f>
         <v>45560</v>
@@ -12848,8 +13038,11 @@
       <c r="F261">
         <v>45226</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>392421</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <f>DATE(2024,9,24)</f>
         <v>45559</v>
@@ -12869,8 +13062,11 @@
       <c r="F262">
         <v>45184</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>389549</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <f>DATE(2024,9,23)</f>
         <v>45558</v>
@@ -12889,6 +13085,6150 @@
       </c>
       <c r="F263">
         <v>45282</v>
+      </c>
+      <c r="G263">
+        <v>388015</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
+      </c>
+      <c r="B264">
+        <v>15813</v>
+      </c>
+      <c r="C264">
+        <v>190546</v>
+      </c>
+      <c r="D264">
+        <v>8436</v>
+      </c>
+      <c r="E264">
+        <v>5355</v>
+      </c>
+      <c r="F264">
+        <v>44347</v>
+      </c>
+      <c r="G264">
+        <v>385967</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <f>DATE(2024,9,19)</f>
+        <v>45554</v>
+      </c>
+      <c r="B265">
+        <v>15813</v>
+      </c>
+      <c r="C265">
+        <v>190387</v>
+      </c>
+      <c r="D265">
+        <v>8436</v>
+      </c>
+      <c r="E265">
+        <v>5355</v>
+      </c>
+      <c r="F265">
+        <v>44138</v>
+      </c>
+      <c r="G265">
+        <v>386025</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <f>DATE(2024,9,18)</f>
+        <v>45553</v>
+      </c>
+      <c r="B266">
+        <v>13763</v>
+      </c>
+      <c r="C266">
+        <v>189493</v>
+      </c>
+      <c r="D266">
+        <v>8411</v>
+      </c>
+      <c r="E266">
+        <v>5355</v>
+      </c>
+      <c r="F266">
+        <v>43888</v>
+      </c>
+      <c r="G266">
+        <v>381654</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <f>DATE(2024,9,17)</f>
+        <v>45552</v>
+      </c>
+      <c r="B267">
+        <v>13763</v>
+      </c>
+      <c r="C267">
+        <v>189036</v>
+      </c>
+      <c r="D267">
+        <v>8405</v>
+      </c>
+      <c r="E267">
+        <v>5355</v>
+      </c>
+      <c r="F267">
+        <v>43717</v>
+      </c>
+      <c r="G267">
+        <v>380589</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <f>DATE(2024,9,16)</f>
+        <v>45551</v>
+      </c>
+      <c r="B268">
+        <v>13763</v>
+      </c>
+      <c r="C268">
+        <v>189674</v>
+      </c>
+      <c r="D268">
+        <v>8405</v>
+      </c>
+      <c r="E268">
+        <v>5355</v>
+      </c>
+      <c r="F268">
+        <v>42926</v>
+      </c>
+      <c r="G268">
+        <v>381133</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <f>DATE(2024,9,13)</f>
+        <v>45548</v>
+      </c>
+      <c r="B269">
+        <v>13760</v>
+      </c>
+      <c r="C269">
+        <v>190449</v>
+      </c>
+      <c r="D269">
+        <v>8368</v>
+      </c>
+      <c r="E269">
+        <v>5355</v>
+      </c>
+      <c r="F269">
+        <v>42350</v>
+      </c>
+      <c r="G269">
+        <v>378833</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <f>DATE(2024,9,12)</f>
+        <v>45547</v>
+      </c>
+      <c r="B270">
+        <v>13760</v>
+      </c>
+      <c r="C270">
+        <v>190306</v>
+      </c>
+      <c r="D270">
+        <v>8368</v>
+      </c>
+      <c r="E270">
+        <v>5355</v>
+      </c>
+      <c r="F270">
+        <v>42577</v>
+      </c>
+      <c r="G270">
+        <v>376051</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <f>DATE(2024,9,11)</f>
+        <v>45546</v>
+      </c>
+      <c r="B271">
+        <v>13760</v>
+      </c>
+      <c r="C271">
+        <v>190071</v>
+      </c>
+      <c r="D271">
+        <v>8367</v>
+      </c>
+      <c r="E271">
+        <v>5355</v>
+      </c>
+      <c r="F271">
+        <v>42349</v>
+      </c>
+      <c r="G271">
+        <v>372897</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <f>DATE(2024,9,10)</f>
+        <v>45545</v>
+      </c>
+      <c r="B272">
+        <v>13760</v>
+      </c>
+      <c r="C272">
+        <v>191308</v>
+      </c>
+      <c r="D272">
+        <v>8357</v>
+      </c>
+      <c r="E272">
+        <v>5355</v>
+      </c>
+      <c r="F272">
+        <v>41864</v>
+      </c>
+      <c r="G272">
+        <v>371505</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <f>DATE(2024,9,9)</f>
+        <v>45544</v>
+      </c>
+      <c r="B273">
+        <v>13760</v>
+      </c>
+      <c r="C273">
+        <v>190241</v>
+      </c>
+      <c r="D273">
+        <v>7636</v>
+      </c>
+      <c r="E273">
+        <v>5355</v>
+      </c>
+      <c r="F273">
+        <v>41723</v>
+      </c>
+      <c r="G273">
+        <v>369933</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <f>DATE(2024,9,6)</f>
+        <v>45541</v>
+      </c>
+      <c r="B274">
+        <v>13760</v>
+      </c>
+      <c r="C274">
+        <v>188662</v>
+      </c>
+      <c r="D274">
+        <v>7083</v>
+      </c>
+      <c r="E274">
+        <v>5355</v>
+      </c>
+      <c r="F274">
+        <v>41637</v>
+      </c>
+      <c r="G274">
+        <v>368659</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <f>DATE(2024,9,5)</f>
+        <v>45540</v>
+      </c>
+      <c r="B275">
+        <v>13760</v>
+      </c>
+      <c r="C275">
+        <v>181332</v>
+      </c>
+      <c r="D275">
+        <v>7083</v>
+      </c>
+      <c r="E275">
+        <v>5355</v>
+      </c>
+      <c r="F275">
+        <v>40826</v>
+      </c>
+      <c r="G275">
+        <v>372667</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <f>DATE(2024,9,4)</f>
+        <v>45539</v>
+      </c>
+      <c r="B276">
+        <v>13760</v>
+      </c>
+      <c r="C276">
+        <v>180006</v>
+      </c>
+      <c r="D276">
+        <v>7082</v>
+      </c>
+      <c r="E276">
+        <v>5355</v>
+      </c>
+      <c r="F276">
+        <v>39752</v>
+      </c>
+      <c r="G276">
+        <v>373027</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <f>DATE(2024,9,3)</f>
+        <v>45538</v>
+      </c>
+      <c r="B277">
+        <v>13760</v>
+      </c>
+      <c r="C277">
+        <v>178478</v>
+      </c>
+      <c r="D277">
+        <v>7061</v>
+      </c>
+      <c r="E277">
+        <v>5355</v>
+      </c>
+      <c r="F277">
+        <v>39608</v>
+      </c>
+      <c r="G277">
+        <v>374203</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <f>DATE(2024,9,2)</f>
+        <v>45537</v>
+      </c>
+      <c r="B278">
+        <v>13760</v>
+      </c>
+      <c r="C278">
+        <v>177750</v>
+      </c>
+      <c r="D278">
+        <v>7061</v>
+      </c>
+      <c r="E278">
+        <v>5355</v>
+      </c>
+      <c r="F278">
+        <v>39391</v>
+      </c>
+      <c r="G278">
+        <v>370115</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <f>DATE(2024,8,30)</f>
+        <v>45534</v>
+      </c>
+      <c r="B279">
+        <v>13710</v>
+      </c>
+      <c r="C279">
+        <v>177653</v>
+      </c>
+      <c r="D279">
+        <v>7061</v>
+      </c>
+      <c r="E279">
+        <v>5355</v>
+      </c>
+      <c r="F279">
+        <v>39276</v>
+      </c>
+      <c r="G279">
+        <v>370621</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <f>DATE(2024,8,29)</f>
+        <v>45533</v>
+      </c>
+      <c r="B280">
+        <v>13710</v>
+      </c>
+      <c r="C280">
+        <v>176674</v>
+      </c>
+      <c r="D280">
+        <v>7061</v>
+      </c>
+      <c r="E280">
+        <v>5355</v>
+      </c>
+      <c r="F280">
+        <v>39072</v>
+      </c>
+      <c r="G280">
+        <v>372277</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <f>DATE(2024,8,28)</f>
+        <v>45532</v>
+      </c>
+      <c r="B281">
+        <v>13710</v>
+      </c>
+      <c r="C281">
+        <v>176117</v>
+      </c>
+      <c r="D281">
+        <v>7061</v>
+      </c>
+      <c r="E281">
+        <v>5355</v>
+      </c>
+      <c r="F281">
+        <v>37790</v>
+      </c>
+      <c r="G281">
+        <v>372699</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <f>DATE(2024,8,27)</f>
+        <v>45531</v>
+      </c>
+      <c r="B282">
+        <v>13710</v>
+      </c>
+      <c r="C282">
+        <v>175271</v>
+      </c>
+      <c r="D282">
+        <v>7061</v>
+      </c>
+      <c r="E282">
+        <v>5355</v>
+      </c>
+      <c r="F282">
+        <v>37787</v>
+      </c>
+      <c r="G282">
+        <v>371185</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <f>DATE(2024,8,26)</f>
+        <v>45530</v>
+      </c>
+      <c r="B283">
+        <v>13710</v>
+      </c>
+      <c r="C283">
+        <v>175115</v>
+      </c>
+      <c r="D283">
+        <v>7061</v>
+      </c>
+      <c r="E283">
+        <v>5355</v>
+      </c>
+      <c r="F283">
+        <v>37432</v>
+      </c>
+      <c r="G283">
+        <v>368185</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <f>DATE(2024,8,23)</f>
+        <v>45527</v>
+      </c>
+      <c r="B284">
+        <v>13710</v>
+      </c>
+      <c r="C284">
+        <v>174789</v>
+      </c>
+      <c r="D284">
+        <v>7061</v>
+      </c>
+      <c r="E284">
+        <v>5355</v>
+      </c>
+      <c r="F284">
+        <v>37384</v>
+      </c>
+      <c r="G284">
+        <v>367336</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <f>DATE(2024,8,22)</f>
+        <v>45526</v>
+      </c>
+      <c r="B285">
+        <v>13710</v>
+      </c>
+      <c r="C285">
+        <v>174481</v>
+      </c>
+      <c r="D285">
+        <v>7061</v>
+      </c>
+      <c r="E285">
+        <v>5355</v>
+      </c>
+      <c r="F285">
+        <v>36792</v>
+      </c>
+      <c r="G285">
+        <v>367127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <f>DATE(2024,8,21)</f>
+        <v>45525</v>
+      </c>
+      <c r="B286">
+        <v>13710</v>
+      </c>
+      <c r="C286">
+        <v>174081</v>
+      </c>
+      <c r="D286">
+        <v>7061</v>
+      </c>
+      <c r="E286">
+        <v>5355</v>
+      </c>
+      <c r="F286">
+        <v>36678</v>
+      </c>
+      <c r="G286">
+        <v>363999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <f>DATE(2024,8,20)</f>
+        <v>45524</v>
+      </c>
+      <c r="B287">
+        <v>13710</v>
+      </c>
+      <c r="C287">
+        <v>173956</v>
+      </c>
+      <c r="D287">
+        <v>7061</v>
+      </c>
+      <c r="E287">
+        <v>5355</v>
+      </c>
+      <c r="F287">
+        <v>36528</v>
+      </c>
+      <c r="G287">
+        <v>363977</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <f>DATE(2024,8,19)</f>
+        <v>45523</v>
+      </c>
+      <c r="B288">
+        <v>13710</v>
+      </c>
+      <c r="C288">
+        <v>173342</v>
+      </c>
+      <c r="D288">
+        <v>7050</v>
+      </c>
+      <c r="E288">
+        <v>5355</v>
+      </c>
+      <c r="F288">
+        <v>35628</v>
+      </c>
+      <c r="G288">
+        <v>364945</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <f>DATE(2024,8,16)</f>
+        <v>45520</v>
+      </c>
+      <c r="B289">
+        <v>13710</v>
+      </c>
+      <c r="C289">
+        <v>172958</v>
+      </c>
+      <c r="D289">
+        <v>7050</v>
+      </c>
+      <c r="E289">
+        <v>5355</v>
+      </c>
+      <c r="F289">
+        <v>35526</v>
+      </c>
+      <c r="G289">
+        <v>364313</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <f>DATE(2024,8,15)</f>
+        <v>45519</v>
+      </c>
+      <c r="B290">
+        <v>13710</v>
+      </c>
+      <c r="C290">
+        <v>172595</v>
+      </c>
+      <c r="D290">
+        <v>7050</v>
+      </c>
+      <c r="E290">
+        <v>5355</v>
+      </c>
+      <c r="F290">
+        <v>35430</v>
+      </c>
+      <c r="G290">
+        <v>364324</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <f>DATE(2024,8,14)</f>
+        <v>45518</v>
+      </c>
+      <c r="B291">
+        <v>13710</v>
+      </c>
+      <c r="C291">
+        <v>171517</v>
+      </c>
+      <c r="D291">
+        <v>7050</v>
+      </c>
+      <c r="E291">
+        <v>5355</v>
+      </c>
+      <c r="F291">
+        <v>35292</v>
+      </c>
+      <c r="G291">
+        <v>364817</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <f>DATE(2024,8,13)</f>
+        <v>45517</v>
+      </c>
+      <c r="B292">
+        <v>13710</v>
+      </c>
+      <c r="C292">
+        <v>171117</v>
+      </c>
+      <c r="D292">
+        <v>7037</v>
+      </c>
+      <c r="E292">
+        <v>5355</v>
+      </c>
+      <c r="F292">
+        <v>35189</v>
+      </c>
+      <c r="G292">
+        <v>362022</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <f>DATE(2024,8,12)</f>
+        <v>45516</v>
+      </c>
+      <c r="B293">
+        <v>13710</v>
+      </c>
+      <c r="C293">
+        <v>171091</v>
+      </c>
+      <c r="D293">
+        <v>7036</v>
+      </c>
+      <c r="E293">
+        <v>5355</v>
+      </c>
+      <c r="F293">
+        <v>35118</v>
+      </c>
+      <c r="G293">
+        <v>362516</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <f>DATE(2024,8,9)</f>
+        <v>45513</v>
+      </c>
+      <c r="B294">
+        <v>13700</v>
+      </c>
+      <c r="C294">
+        <v>171297</v>
+      </c>
+      <c r="D294">
+        <v>7037</v>
+      </c>
+      <c r="E294">
+        <v>5355</v>
+      </c>
+      <c r="F294">
+        <v>35039</v>
+      </c>
+      <c r="G294">
+        <v>362925</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <f>DATE(2024,8,8)</f>
+        <v>45512</v>
+      </c>
+      <c r="B295">
+        <v>13700</v>
+      </c>
+      <c r="C295">
+        <v>171422</v>
+      </c>
+      <c r="D295">
+        <v>7037</v>
+      </c>
+      <c r="E295">
+        <v>5355</v>
+      </c>
+      <c r="F295">
+        <v>34917</v>
+      </c>
+      <c r="G295">
+        <v>362435</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <f>DATE(2024,8,7)</f>
+        <v>45511</v>
+      </c>
+      <c r="B296">
+        <v>13700</v>
+      </c>
+      <c r="C296">
+        <v>170526</v>
+      </c>
+      <c r="D296">
+        <v>7037</v>
+      </c>
+      <c r="E296">
+        <v>5355</v>
+      </c>
+      <c r="F296">
+        <v>34467</v>
+      </c>
+      <c r="G296">
+        <v>362445</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <f>DATE(2024,8,6)</f>
+        <v>45510</v>
+      </c>
+      <c r="B297">
+        <v>13700</v>
+      </c>
+      <c r="C297">
+        <v>169899</v>
+      </c>
+      <c r="D297">
+        <v>7037</v>
+      </c>
+      <c r="E297">
+        <v>5355</v>
+      </c>
+      <c r="F297">
+        <v>34403</v>
+      </c>
+      <c r="G297">
+        <v>362409</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <f>DATE(2024,8,5)</f>
+        <v>45509</v>
+      </c>
+      <c r="B298">
+        <v>13950</v>
+      </c>
+      <c r="C298">
+        <v>169100</v>
+      </c>
+      <c r="D298">
+        <v>7037</v>
+      </c>
+      <c r="E298">
+        <v>5355</v>
+      </c>
+      <c r="F298">
+        <v>34726</v>
+      </c>
+      <c r="G298">
+        <v>362639</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <f>DATE(2024,8,2)</f>
+        <v>45506</v>
+      </c>
+      <c r="B299">
+        <v>13950</v>
+      </c>
+      <c r="C299">
+        <v>167969</v>
+      </c>
+      <c r="D299">
+        <v>7026</v>
+      </c>
+      <c r="E299">
+        <v>4505</v>
+      </c>
+      <c r="F299">
+        <v>35249</v>
+      </c>
+      <c r="G299">
+        <v>364941</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <f>DATE(2024,8,1)</f>
+        <v>45505</v>
+      </c>
+      <c r="B300">
+        <v>13950</v>
+      </c>
+      <c r="C300">
+        <v>167889</v>
+      </c>
+      <c r="D300">
+        <v>7026</v>
+      </c>
+      <c r="E300">
+        <v>4505</v>
+      </c>
+      <c r="F300">
+        <v>34918</v>
+      </c>
+      <c r="G300">
+        <v>366962</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <f>DATE(2024,7,31)</f>
+        <v>45504</v>
+      </c>
+      <c r="B301">
+        <v>13950</v>
+      </c>
+      <c r="C301">
+        <v>167681</v>
+      </c>
+      <c r="D301">
+        <v>7002</v>
+      </c>
+      <c r="E301">
+        <v>4505</v>
+      </c>
+      <c r="F301">
+        <v>34508</v>
+      </c>
+      <c r="G301">
+        <v>368504</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <f>DATE(2024,7,30)</f>
+        <v>45503</v>
+      </c>
+      <c r="B302">
+        <v>13950</v>
+      </c>
+      <c r="C302">
+        <v>167790</v>
+      </c>
+      <c r="D302">
+        <v>7002</v>
+      </c>
+      <c r="E302">
+        <v>4505</v>
+      </c>
+      <c r="F302">
+        <v>32751</v>
+      </c>
+      <c r="G302">
+        <v>370149</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <f>DATE(2024,7,29)</f>
+        <v>45502</v>
+      </c>
+      <c r="B303">
+        <v>13950</v>
+      </c>
+      <c r="C303">
+        <v>167500</v>
+      </c>
+      <c r="D303">
+        <v>7002</v>
+      </c>
+      <c r="E303">
+        <v>4505</v>
+      </c>
+      <c r="F303">
+        <v>32202</v>
+      </c>
+      <c r="G303">
+        <v>368552</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <f>DATE(2024,7,26)</f>
+        <v>45499</v>
+      </c>
+      <c r="B304">
+        <v>14950</v>
+      </c>
+      <c r="C304">
+        <v>166817</v>
+      </c>
+      <c r="D304">
+        <v>7002</v>
+      </c>
+      <c r="E304">
+        <v>4505</v>
+      </c>
+      <c r="F304">
+        <v>32244</v>
+      </c>
+      <c r="G304">
+        <v>367607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <f>DATE(2024,7,25)</f>
+        <v>45498</v>
+      </c>
+      <c r="B305">
+        <v>14950</v>
+      </c>
+      <c r="C305">
+        <v>166425</v>
+      </c>
+      <c r="D305">
+        <v>7002</v>
+      </c>
+      <c r="E305">
+        <v>4505</v>
+      </c>
+      <c r="F305">
+        <v>32154</v>
+      </c>
+      <c r="G305">
+        <v>372183</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <f>DATE(2024,7,24)</f>
+        <v>45497</v>
+      </c>
+      <c r="B306">
+        <v>14950</v>
+      </c>
+      <c r="C306">
+        <v>166297</v>
+      </c>
+      <c r="D306">
+        <v>7002</v>
+      </c>
+      <c r="E306">
+        <v>4505</v>
+      </c>
+      <c r="F306">
+        <v>31506</v>
+      </c>
+      <c r="G306">
+        <v>372504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <f>DATE(2024,7,23)</f>
+        <v>45496</v>
+      </c>
+      <c r="B307">
+        <v>14950</v>
+      </c>
+      <c r="C307">
+        <v>164885</v>
+      </c>
+      <c r="D307">
+        <v>7002</v>
+      </c>
+      <c r="E307">
+        <v>4505</v>
+      </c>
+      <c r="F307">
+        <v>30714</v>
+      </c>
+      <c r="G307">
+        <v>372909</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <f>DATE(2024,7,22)</f>
+        <v>45495</v>
+      </c>
+      <c r="B308">
+        <v>14950</v>
+      </c>
+      <c r="C308">
+        <v>165646</v>
+      </c>
+      <c r="D308">
+        <v>4002</v>
+      </c>
+      <c r="E308">
+        <v>4505</v>
+      </c>
+      <c r="F308">
+        <v>30702</v>
+      </c>
+      <c r="G308">
+        <v>372152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <f>DATE(2024,7,19)</f>
+        <v>45492</v>
+      </c>
+      <c r="B309">
+        <v>14950</v>
+      </c>
+      <c r="C309">
+        <v>165167</v>
+      </c>
+      <c r="D309">
+        <v>4002</v>
+      </c>
+      <c r="E309">
+        <v>4255</v>
+      </c>
+      <c r="F309">
+        <v>30035</v>
+      </c>
+      <c r="G309">
+        <v>368656</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <f>DATE(2024,7,18)</f>
+        <v>45491</v>
+      </c>
+      <c r="B310">
+        <v>14950</v>
+      </c>
+      <c r="C310">
+        <v>164764</v>
+      </c>
+      <c r="D310">
+        <v>4002</v>
+      </c>
+      <c r="E310">
+        <v>4255</v>
+      </c>
+      <c r="F310">
+        <v>29951</v>
+      </c>
+      <c r="G310">
+        <v>367825</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <f>DATE(2024,7,17)</f>
+        <v>45490</v>
+      </c>
+      <c r="B311">
+        <v>14650</v>
+      </c>
+      <c r="C311">
+        <v>164639</v>
+      </c>
+      <c r="D311">
+        <v>4002</v>
+      </c>
+      <c r="E311">
+        <v>4255</v>
+      </c>
+      <c r="F311">
+        <v>29547</v>
+      </c>
+      <c r="G311">
+        <v>366585</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <f>DATE(2024,7,16)</f>
+        <v>45489</v>
+      </c>
+      <c r="B312">
+        <v>14650</v>
+      </c>
+      <c r="C312">
+        <v>163811</v>
+      </c>
+      <c r="D312">
+        <v>4002</v>
+      </c>
+      <c r="E312">
+        <v>4255</v>
+      </c>
+      <c r="F312">
+        <v>29351</v>
+      </c>
+      <c r="G312">
+        <v>363416</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <f>DATE(2024,7,15)</f>
+        <v>45488</v>
+      </c>
+      <c r="B313">
+        <v>14650</v>
+      </c>
+      <c r="C313">
+        <v>163718</v>
+      </c>
+      <c r="D313">
+        <v>3991</v>
+      </c>
+      <c r="E313">
+        <v>4255</v>
+      </c>
+      <c r="F313">
+        <v>29640</v>
+      </c>
+      <c r="G313">
+        <v>363566</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <f>DATE(2024,7,12)</f>
+        <v>45485</v>
+      </c>
+      <c r="B314">
+        <v>14650</v>
+      </c>
+      <c r="C314">
+        <v>164274</v>
+      </c>
+      <c r="D314">
+        <v>3990</v>
+      </c>
+      <c r="E314">
+        <v>4255</v>
+      </c>
+      <c r="F314">
+        <v>29658</v>
+      </c>
+      <c r="G314">
+        <v>362207</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <f>DATE(2024,7,11)</f>
+        <v>45484</v>
+      </c>
+      <c r="B315">
+        <v>14650</v>
+      </c>
+      <c r="C315">
+        <v>163356</v>
+      </c>
+      <c r="D315">
+        <v>3990</v>
+      </c>
+      <c r="E315">
+        <v>4255</v>
+      </c>
+      <c r="F315">
+        <v>29273</v>
+      </c>
+      <c r="G315">
+        <v>363359</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <f>DATE(2024,7,10)</f>
+        <v>45483</v>
+      </c>
+      <c r="B316">
+        <v>14650</v>
+      </c>
+      <c r="C316">
+        <v>162986</v>
+      </c>
+      <c r="D316">
+        <v>3990</v>
+      </c>
+      <c r="E316">
+        <v>4255</v>
+      </c>
+      <c r="F316">
+        <v>29464</v>
+      </c>
+      <c r="G316">
+        <v>363609</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <f>DATE(2024,7,9)</f>
+        <v>45482</v>
+      </c>
+      <c r="B317">
+        <v>14650</v>
+      </c>
+      <c r="C317">
+        <v>160065</v>
+      </c>
+      <c r="D317">
+        <v>3990</v>
+      </c>
+      <c r="E317">
+        <v>4255</v>
+      </c>
+      <c r="F317">
+        <v>29434</v>
+      </c>
+      <c r="G317">
+        <v>362325</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <f>DATE(2024,7,8)</f>
+        <v>45481</v>
+      </c>
+      <c r="B318">
+        <v>10650</v>
+      </c>
+      <c r="C318">
+        <v>159894</v>
+      </c>
+      <c r="D318">
+        <v>3990</v>
+      </c>
+      <c r="E318">
+        <v>4255</v>
+      </c>
+      <c r="F318">
+        <v>29249</v>
+      </c>
+      <c r="G318">
+        <v>361404</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <f>DATE(2024,7,5)</f>
+        <v>45478</v>
+      </c>
+      <c r="B319">
+        <v>10650</v>
+      </c>
+      <c r="C319">
+        <v>157897</v>
+      </c>
+      <c r="D319">
+        <v>3940</v>
+      </c>
+      <c r="E319">
+        <v>3755</v>
+      </c>
+      <c r="F319">
+        <v>28867</v>
+      </c>
+      <c r="G319">
+        <v>359688</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <f>DATE(2024,7,4)</f>
+        <v>45477</v>
+      </c>
+      <c r="B320">
+        <v>10650</v>
+      </c>
+      <c r="C320">
+        <v>161709</v>
+      </c>
+      <c r="D320">
+        <v>1940</v>
+      </c>
+      <c r="E320">
+        <v>455</v>
+      </c>
+      <c r="F320">
+        <v>27475</v>
+      </c>
+      <c r="G320">
+        <v>359778</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <f>DATE(2024,7,3)</f>
+        <v>45476</v>
+      </c>
+      <c r="B321">
+        <v>10650</v>
+      </c>
+      <c r="C321">
+        <v>160541</v>
+      </c>
+      <c r="D321">
+        <v>1940</v>
+      </c>
+      <c r="E321">
+        <v>300</v>
+      </c>
+      <c r="F321">
+        <v>27107</v>
+      </c>
+      <c r="G321">
+        <v>359447</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <f>DATE(2024,7,2)</f>
+        <v>45475</v>
+      </c>
+      <c r="B322">
+        <v>10650</v>
+      </c>
+      <c r="C322">
+        <v>161889</v>
+      </c>
+      <c r="D322">
+        <v>1940</v>
+      </c>
+      <c r="E322">
+        <v>300</v>
+      </c>
+      <c r="F322">
+        <v>26946</v>
+      </c>
+      <c r="G322">
+        <v>358571</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <f>DATE(2024,7,1)</f>
+        <v>45474</v>
+      </c>
+      <c r="B323">
+        <v>10650</v>
+      </c>
+      <c r="C323">
+        <v>160176</v>
+      </c>
+      <c r="D323">
+        <v>1941</v>
+      </c>
+      <c r="E323">
+        <v>300</v>
+      </c>
+      <c r="F323">
+        <v>26516</v>
+      </c>
+      <c r="G323">
+        <v>357779</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <f>DATE(2024,6,28)</f>
+        <v>45471</v>
+      </c>
+      <c r="B324">
+        <v>10650</v>
+      </c>
+      <c r="C324">
+        <v>159890</v>
+      </c>
+      <c r="D324">
+        <v>1940</v>
+      </c>
+      <c r="E324">
+        <v>300</v>
+      </c>
+      <c r="F324">
+        <v>26407</v>
+      </c>
+      <c r="G324">
+        <v>357843</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <f>DATE(2024,6,27)</f>
+        <v>45470</v>
+      </c>
+      <c r="B325">
+        <v>10650</v>
+      </c>
+      <c r="C325">
+        <v>160257</v>
+      </c>
+      <c r="D325">
+        <v>1940</v>
+      </c>
+      <c r="E325">
+        <v>300</v>
+      </c>
+      <c r="F325">
+        <v>26254</v>
+      </c>
+      <c r="G325">
+        <v>358346</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <f>DATE(2024,6,26)</f>
+        <v>45469</v>
+      </c>
+      <c r="B326">
+        <v>10650</v>
+      </c>
+      <c r="C326">
+        <v>159993</v>
+      </c>
+      <c r="D326">
+        <v>1890</v>
+      </c>
+      <c r="E326">
+        <v>300</v>
+      </c>
+      <c r="F326">
+        <v>25985</v>
+      </c>
+      <c r="G326">
+        <v>355843</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <f>DATE(2024,6,25)</f>
+        <v>45468</v>
+      </c>
+      <c r="B327">
+        <v>10650</v>
+      </c>
+      <c r="C327">
+        <v>160264</v>
+      </c>
+      <c r="D327">
+        <v>1890</v>
+      </c>
+      <c r="E327">
+        <v>300</v>
+      </c>
+      <c r="F327">
+        <v>25802</v>
+      </c>
+      <c r="G327">
+        <v>354577</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <f>DATE(2024,6,24)</f>
+        <v>45467</v>
+      </c>
+      <c r="B328">
+        <v>10650</v>
+      </c>
+      <c r="C328">
+        <v>159409</v>
+      </c>
+      <c r="D328">
+        <v>1840</v>
+      </c>
+      <c r="E328">
+        <v>300</v>
+      </c>
+      <c r="F328">
+        <v>25467</v>
+      </c>
+      <c r="G328">
+        <v>353485</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <f>DATE(2024,6,21)</f>
+        <v>45464</v>
+      </c>
+      <c r="B329">
+        <v>9650</v>
+      </c>
+      <c r="C329">
+        <v>158226</v>
+      </c>
+      <c r="D329">
+        <v>1790</v>
+      </c>
+      <c r="E329">
+        <v>300</v>
+      </c>
+      <c r="F329">
+        <v>25151</v>
+      </c>
+      <c r="G329">
+        <v>349260</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <f>DATE(2024,6,20)</f>
+        <v>45463</v>
+      </c>
+      <c r="B330">
+        <v>9650</v>
+      </c>
+      <c r="C330">
+        <v>155505</v>
+      </c>
+      <c r="D330">
+        <v>1790</v>
+      </c>
+      <c r="E330">
+        <v>300</v>
+      </c>
+      <c r="F330">
+        <v>24818</v>
+      </c>
+      <c r="G330">
+        <v>342937</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <f>DATE(2024,6,19)</f>
+        <v>45462</v>
+      </c>
+      <c r="B331">
+        <v>9650</v>
+      </c>
+      <c r="C331">
+        <v>153770</v>
+      </c>
+      <c r="D331">
+        <v>1790</v>
+      </c>
+      <c r="E331">
+        <v>300</v>
+      </c>
+      <c r="F331">
+        <v>24633</v>
+      </c>
+      <c r="G331">
+        <v>342582</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <f>DATE(2024,6,18)</f>
+        <v>45461</v>
+      </c>
+      <c r="B332">
+        <v>9650</v>
+      </c>
+      <c r="C332">
+        <v>153737</v>
+      </c>
+      <c r="D332">
+        <v>1790</v>
+      </c>
+      <c r="E332">
+        <v>300</v>
+      </c>
+      <c r="F332">
+        <v>24553</v>
+      </c>
+      <c r="G332">
+        <v>346400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <f>DATE(2024,6,17)</f>
+        <v>45460</v>
+      </c>
+      <c r="B333">
+        <v>9650</v>
+      </c>
+      <c r="C333">
+        <v>153579</v>
+      </c>
+      <c r="D333">
+        <v>1790</v>
+      </c>
+      <c r="E333">
+        <v>300</v>
+      </c>
+      <c r="F333">
+        <v>24376</v>
+      </c>
+      <c r="G333">
+        <v>338785</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <f>DATE(2024,6,14)</f>
+        <v>45457</v>
+      </c>
+      <c r="B334">
+        <v>9650</v>
+      </c>
+      <c r="C334">
+        <v>153559</v>
+      </c>
+      <c r="D334">
+        <v>1790</v>
+      </c>
+      <c r="E334">
+        <v>300</v>
+      </c>
+      <c r="F334">
+        <v>24272</v>
+      </c>
+      <c r="G334">
+        <v>338682</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <f>DATE(2024,6,13)</f>
+        <v>45456</v>
+      </c>
+      <c r="B335">
+        <v>8600</v>
+      </c>
+      <c r="C335">
+        <v>148000</v>
+      </c>
+      <c r="D335">
+        <v>1790</v>
+      </c>
+      <c r="E335">
+        <v>300</v>
+      </c>
+      <c r="F335">
+        <v>23667</v>
+      </c>
+      <c r="G335">
+        <v>334373</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <f>DATE(2024,6,12)</f>
+        <v>45455</v>
+      </c>
+      <c r="B336">
+        <v>8600</v>
+      </c>
+      <c r="C336">
+        <v>147981</v>
+      </c>
+      <c r="D336">
+        <v>1760</v>
+      </c>
+      <c r="E336">
+        <v>300</v>
+      </c>
+      <c r="F336">
+        <v>23606</v>
+      </c>
+      <c r="G336">
+        <v>333805</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <f>DATE(2024,6,11)</f>
+        <v>45454</v>
+      </c>
+      <c r="B337">
+        <v>8600</v>
+      </c>
+      <c r="C337">
+        <v>147524</v>
+      </c>
+      <c r="D337">
+        <v>1760</v>
+      </c>
+      <c r="E337">
+        <v>300</v>
+      </c>
+      <c r="F337">
+        <v>23505</v>
+      </c>
+      <c r="G337">
+        <v>333575</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <f>DATE(2024,6,10)</f>
+        <v>45453</v>
+      </c>
+      <c r="B338">
+        <v>8600</v>
+      </c>
+      <c r="C338">
+        <v>146438</v>
+      </c>
+      <c r="D338">
+        <v>1760</v>
+      </c>
+      <c r="E338">
+        <v>300</v>
+      </c>
+      <c r="F338">
+        <v>23394</v>
+      </c>
+      <c r="G338">
+        <v>331242</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <f>DATE(2024,6,7)</f>
+        <v>45450</v>
+      </c>
+      <c r="B339">
+        <v>8600</v>
+      </c>
+      <c r="C339">
+        <v>146728</v>
+      </c>
+      <c r="D339">
+        <v>1760</v>
+      </c>
+      <c r="E339">
+        <v>300</v>
+      </c>
+      <c r="F339">
+        <v>23318</v>
+      </c>
+      <c r="G339">
+        <v>331118</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <f>DATE(2024,6,6)</f>
+        <v>45449</v>
+      </c>
+      <c r="B340">
+        <v>8600</v>
+      </c>
+      <c r="C340">
+        <v>145469</v>
+      </c>
+      <c r="D340">
+        <v>1760</v>
+      </c>
+      <c r="E340">
+        <v>300</v>
+      </c>
+      <c r="F340">
+        <v>23226</v>
+      </c>
+      <c r="G340">
+        <v>330186</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <f>DATE(2024,6,5)</f>
+        <v>45448</v>
+      </c>
+      <c r="B341">
+        <v>8600</v>
+      </c>
+      <c r="C341">
+        <v>145667</v>
+      </c>
+      <c r="D341">
+        <v>1760</v>
+      </c>
+      <c r="E341">
+        <v>300</v>
+      </c>
+      <c r="F341">
+        <v>23126</v>
+      </c>
+      <c r="G341">
+        <v>330342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <f>DATE(2024,6,4)</f>
+        <v>45447</v>
+      </c>
+      <c r="B342">
+        <v>8600</v>
+      </c>
+      <c r="C342">
+        <v>145957</v>
+      </c>
+      <c r="D342">
+        <v>1754</v>
+      </c>
+      <c r="E342">
+        <v>300</v>
+      </c>
+      <c r="F342">
+        <v>22659</v>
+      </c>
+      <c r="G342">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <f>DATE(2024,6,3)</f>
+        <v>45446</v>
+      </c>
+      <c r="B343">
+        <v>8600</v>
+      </c>
+      <c r="C343">
+        <v>146098</v>
+      </c>
+      <c r="D343">
+        <v>1728</v>
+      </c>
+      <c r="E343">
+        <v>300</v>
+      </c>
+      <c r="F343">
+        <v>22600</v>
+      </c>
+      <c r="G343">
+        <v>330170</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <f>DATE(2024,5,31)</f>
+        <v>45443</v>
+      </c>
+      <c r="B344">
+        <v>8600</v>
+      </c>
+      <c r="C344">
+        <v>145778</v>
+      </c>
+      <c r="D344">
+        <v>1728</v>
+      </c>
+      <c r="E344">
+        <v>300</v>
+      </c>
+      <c r="F344">
+        <v>22480</v>
+      </c>
+      <c r="G344">
+        <v>329627</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <f>DATE(2024,5,30)</f>
+        <v>45442</v>
+      </c>
+      <c r="B345">
+        <v>8600</v>
+      </c>
+      <c r="C345">
+        <v>145416</v>
+      </c>
+      <c r="D345">
+        <v>1717</v>
+      </c>
+      <c r="E345">
+        <v>300</v>
+      </c>
+      <c r="F345">
+        <v>22409</v>
+      </c>
+      <c r="G345">
+        <v>329425</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <f>DATE(2024,5,29)</f>
+        <v>45441</v>
+      </c>
+      <c r="B346">
+        <v>8600</v>
+      </c>
+      <c r="C346">
+        <v>144649</v>
+      </c>
+      <c r="D346">
+        <v>1717</v>
+      </c>
+      <c r="E346">
+        <v>300</v>
+      </c>
+      <c r="F346">
+        <v>22371</v>
+      </c>
+      <c r="G346">
+        <v>329544</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <f>DATE(2024,5,28)</f>
+        <v>45440</v>
+      </c>
+      <c r="B347">
+        <v>8600</v>
+      </c>
+      <c r="C347">
+        <v>144517</v>
+      </c>
+      <c r="D347">
+        <v>1717</v>
+      </c>
+      <c r="E347">
+        <v>300</v>
+      </c>
+      <c r="F347">
+        <v>22258</v>
+      </c>
+      <c r="G347">
+        <v>329293</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <f>DATE(2024,5,27)</f>
+        <v>45439</v>
+      </c>
+      <c r="B348">
+        <v>8600</v>
+      </c>
+      <c r="C348">
+        <v>144483</v>
+      </c>
+      <c r="D348">
+        <v>1717</v>
+      </c>
+      <c r="E348">
+        <v>300</v>
+      </c>
+      <c r="F348">
+        <v>22182</v>
+      </c>
+      <c r="G348">
+        <v>326832</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <f>DATE(2024,5,24)</f>
+        <v>45436</v>
+      </c>
+      <c r="B349">
+        <v>8600</v>
+      </c>
+      <c r="C349">
+        <v>144404</v>
+      </c>
+      <c r="D349">
+        <v>1717</v>
+      </c>
+      <c r="E349">
+        <v>300</v>
+      </c>
+      <c r="F349">
+        <v>22087</v>
+      </c>
+      <c r="G349">
+        <v>326226</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <f>DATE(2024,5,23)</f>
+        <v>45435</v>
+      </c>
+      <c r="B350">
+        <v>8600</v>
+      </c>
+      <c r="C350">
+        <v>144303</v>
+      </c>
+      <c r="D350">
+        <v>1717</v>
+      </c>
+      <c r="E350">
+        <v>300</v>
+      </c>
+      <c r="F350">
+        <v>22019</v>
+      </c>
+      <c r="G350">
+        <v>326314</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <f>DATE(2024,5,22)</f>
+        <v>45434</v>
+      </c>
+      <c r="B351">
+        <v>8600</v>
+      </c>
+      <c r="C351">
+        <v>143799</v>
+      </c>
+      <c r="D351">
+        <v>1717</v>
+      </c>
+      <c r="E351">
+        <v>300</v>
+      </c>
+      <c r="F351">
+        <v>21955</v>
+      </c>
+      <c r="G351">
+        <v>325224</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <f>DATE(2024,5,21)</f>
+        <v>45433</v>
+      </c>
+      <c r="B352">
+        <v>8600</v>
+      </c>
+      <c r="C352">
+        <v>143504</v>
+      </c>
+      <c r="D352">
+        <v>1717</v>
+      </c>
+      <c r="E352">
+        <v>300</v>
+      </c>
+      <c r="F352">
+        <v>21668</v>
+      </c>
+      <c r="G352">
+        <v>325214</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <f>DATE(2024,5,20)</f>
+        <v>45432</v>
+      </c>
+      <c r="B353">
+        <v>8600</v>
+      </c>
+      <c r="C353">
+        <v>143301</v>
+      </c>
+      <c r="D353">
+        <v>1717</v>
+      </c>
+      <c r="E353">
+        <v>300</v>
+      </c>
+      <c r="F353">
+        <v>21513</v>
+      </c>
+      <c r="G353">
+        <v>323298</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <f>DATE(2024,5,17)</f>
+        <v>45429</v>
+      </c>
+      <c r="B354">
+        <v>8600</v>
+      </c>
+      <c r="C354">
+        <v>143216</v>
+      </c>
+      <c r="D354">
+        <v>1717</v>
+      </c>
+      <c r="E354">
+        <v>300</v>
+      </c>
+      <c r="F354">
+        <v>21277</v>
+      </c>
+      <c r="G354">
+        <v>322522</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <f>DATE(2024,5,16)</f>
+        <v>45428</v>
+      </c>
+      <c r="B355">
+        <v>8600</v>
+      </c>
+      <c r="C355">
+        <v>143687</v>
+      </c>
+      <c r="D355">
+        <v>1717</v>
+      </c>
+      <c r="E355">
+        <v>300</v>
+      </c>
+      <c r="F355">
+        <v>21296</v>
+      </c>
+      <c r="G355">
+        <v>321366</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <f>DATE(2024,5,15)</f>
+        <v>45427</v>
+      </c>
+      <c r="B356">
+        <v>8600</v>
+      </c>
+      <c r="C356">
+        <v>142393</v>
+      </c>
+      <c r="D356">
+        <v>1717</v>
+      </c>
+      <c r="E356">
+        <v>300</v>
+      </c>
+      <c r="F356">
+        <v>22492</v>
+      </c>
+      <c r="G356">
+        <v>318191</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <f>DATE(2024,5,14)</f>
+        <v>45426</v>
+      </c>
+      <c r="B357">
+        <v>8600</v>
+      </c>
+      <c r="C357">
+        <v>141530</v>
+      </c>
+      <c r="D357">
+        <v>1717</v>
+      </c>
+      <c r="E357">
+        <v>300</v>
+      </c>
+      <c r="F357">
+        <v>22281</v>
+      </c>
+      <c r="G357">
+        <v>315931</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <f>DATE(2024,5,13)</f>
+        <v>45425</v>
+      </c>
+      <c r="B358">
+        <v>8600</v>
+      </c>
+      <c r="C358">
+        <v>141416</v>
+      </c>
+      <c r="D358">
+        <v>1717</v>
+      </c>
+      <c r="E358">
+        <v>300</v>
+      </c>
+      <c r="F358">
+        <v>22275</v>
+      </c>
+      <c r="G358">
+        <v>313456</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <f>DATE(2024,5,10)</f>
+        <v>45422</v>
+      </c>
+      <c r="B359">
+        <v>8600</v>
+      </c>
+      <c r="C359">
+        <v>141262</v>
+      </c>
+      <c r="D359">
+        <v>1717</v>
+      </c>
+      <c r="E359">
+        <v>300</v>
+      </c>
+      <c r="F359">
+        <v>22227</v>
+      </c>
+      <c r="G359">
+        <v>313285</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <f>DATE(2024,5,9)</f>
+        <v>45421</v>
+      </c>
+      <c r="B360">
+        <v>8600</v>
+      </c>
+      <c r="C360">
+        <v>141298</v>
+      </c>
+      <c r="D360">
+        <v>1717</v>
+      </c>
+      <c r="E360">
+        <v>300</v>
+      </c>
+      <c r="F360">
+        <v>22196</v>
+      </c>
+      <c r="G360">
+        <v>312377</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <f>DATE(2024,5,8)</f>
+        <v>45420</v>
+      </c>
+      <c r="B361">
+        <v>8600</v>
+      </c>
+      <c r="C361">
+        <v>141363</v>
+      </c>
+      <c r="D361">
+        <v>1717</v>
+      </c>
+      <c r="E361">
+        <v>300</v>
+      </c>
+      <c r="F361">
+        <v>22183</v>
+      </c>
+      <c r="G361">
+        <v>311572</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <f>DATE(2024,5,7)</f>
+        <v>45419</v>
+      </c>
+      <c r="B362">
+        <v>8600</v>
+      </c>
+      <c r="C362">
+        <v>141182</v>
+      </c>
+      <c r="D362">
+        <v>1719</v>
+      </c>
+      <c r="E362">
+        <v>300</v>
+      </c>
+      <c r="F362">
+        <v>22183</v>
+      </c>
+      <c r="G362">
+        <v>311125</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <f>DATE(2024,5,6)</f>
+        <v>45418</v>
+      </c>
+      <c r="B363">
+        <v>8600</v>
+      </c>
+      <c r="C363">
+        <v>141441</v>
+      </c>
+      <c r="D363">
+        <v>1721</v>
+      </c>
+      <c r="E363">
+        <v>300</v>
+      </c>
+      <c r="F363">
+        <v>22100</v>
+      </c>
+      <c r="G363">
+        <v>306017</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <f>DATE(2024,5,3)</f>
+        <v>45415</v>
+      </c>
+      <c r="B364">
+        <v>8600</v>
+      </c>
+      <c r="C364">
+        <v>141508</v>
+      </c>
+      <c r="D364">
+        <v>1721</v>
+      </c>
+      <c r="E364">
+        <v>300</v>
+      </c>
+      <c r="F364">
+        <v>22095</v>
+      </c>
+      <c r="G364">
+        <v>304693</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <f>DATE(2024,5,2)</f>
+        <v>45414</v>
+      </c>
+      <c r="B365">
+        <v>250</v>
+      </c>
+      <c r="C365">
+        <v>133954</v>
+      </c>
+      <c r="D365">
+        <v>1722</v>
+      </c>
+      <c r="E365">
+        <v>300</v>
+      </c>
+      <c r="F365">
+        <v>21159</v>
+      </c>
+      <c r="G365">
+        <v>305873</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <f>DATE(2024,5,1)</f>
+        <v>45413</v>
+      </c>
+      <c r="B366">
+        <v>250</v>
+      </c>
+      <c r="C366">
+        <v>133409</v>
+      </c>
+      <c r="D366">
+        <v>1720</v>
+      </c>
+      <c r="E366">
+        <v>300</v>
+      </c>
+      <c r="F366">
+        <v>20851</v>
+      </c>
+      <c r="G366">
+        <v>300835</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <f>DATE(2024,4,30)</f>
+        <v>45412</v>
+      </c>
+      <c r="B367">
+        <v>250</v>
+      </c>
+      <c r="C367">
+        <v>133314</v>
+      </c>
+      <c r="D367">
+        <v>1720</v>
+      </c>
+      <c r="E367">
+        <v>300</v>
+      </c>
+      <c r="F367">
+        <v>20833</v>
+      </c>
+      <c r="G367">
+        <v>300518</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <f>DATE(2024,4,29)</f>
+        <v>45411</v>
+      </c>
+      <c r="B368">
+        <v>250</v>
+      </c>
+      <c r="C368">
+        <v>130858</v>
+      </c>
+      <c r="D368">
+        <v>1719</v>
+      </c>
+      <c r="E368">
+        <v>300</v>
+      </c>
+      <c r="F368">
+        <v>20790</v>
+      </c>
+      <c r="G368">
+        <v>299350</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <f>DATE(2024,4,26)</f>
+        <v>45408</v>
+      </c>
+      <c r="B369">
+        <v>250</v>
+      </c>
+      <c r="C369">
+        <v>130675</v>
+      </c>
+      <c r="D369">
+        <v>1718</v>
+      </c>
+      <c r="E369">
+        <v>300</v>
+      </c>
+      <c r="F369">
+        <v>20567</v>
+      </c>
+      <c r="G369">
+        <v>297800</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <f>DATE(2024,4,25)</f>
+        <v>45407</v>
+      </c>
+      <c r="B370">
+        <v>250</v>
+      </c>
+      <c r="C370">
+        <v>130520</v>
+      </c>
+      <c r="D370">
+        <v>1718</v>
+      </c>
+      <c r="E370">
+        <v>300</v>
+      </c>
+      <c r="F370">
+        <v>20360</v>
+      </c>
+      <c r="G370">
+        <v>295607</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <f>DATE(2024,4,24)</f>
+        <v>45406</v>
+      </c>
+      <c r="B371">
+        <v>250</v>
+      </c>
+      <c r="C371">
+        <v>128942</v>
+      </c>
+      <c r="D371">
+        <v>1718</v>
+      </c>
+      <c r="E371">
+        <v>300</v>
+      </c>
+      <c r="F371">
+        <v>20334</v>
+      </c>
+      <c r="G371">
+        <v>292075</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <f>DATE(2024,4,23)</f>
+        <v>45405</v>
+      </c>
+      <c r="B372">
+        <v>250</v>
+      </c>
+      <c r="C372">
+        <v>127061</v>
+      </c>
+      <c r="D372">
+        <v>1716</v>
+      </c>
+      <c r="E372">
+        <v>300</v>
+      </c>
+      <c r="F372">
+        <v>20182</v>
+      </c>
+      <c r="G372">
+        <v>288230</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <f>DATE(2024,4,22)</f>
+        <v>45404</v>
+      </c>
+      <c r="B373">
+        <v>250</v>
+      </c>
+      <c r="C373">
+        <v>126938</v>
+      </c>
+      <c r="D373">
+        <v>1715</v>
+      </c>
+      <c r="E373">
+        <v>300</v>
+      </c>
+      <c r="F373">
+        <v>19561</v>
+      </c>
+      <c r="G373">
+        <v>286331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <f>DATE(2024,4,19)</f>
+        <v>45401</v>
+      </c>
+      <c r="B374">
+        <v>250</v>
+      </c>
+      <c r="C374">
+        <v>120467</v>
+      </c>
+      <c r="D374">
+        <v>1711</v>
+      </c>
+      <c r="E374">
+        <v>300</v>
+      </c>
+      <c r="F374">
+        <v>19509</v>
+      </c>
+      <c r="G374">
+        <v>282241</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <f>DATE(2024,4,18)</f>
+        <v>45400</v>
+      </c>
+      <c r="B375">
+        <v>250</v>
+      </c>
+      <c r="C375">
+        <v>120558</v>
+      </c>
+      <c r="D375">
+        <v>1707</v>
+      </c>
+      <c r="E375">
+        <v>300</v>
+      </c>
+      <c r="F375">
+        <v>19176</v>
+      </c>
+      <c r="G375">
+        <v>283273</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <f>DATE(2024,4,17)</f>
+        <v>45399</v>
+      </c>
+      <c r="B376">
+        <v>250</v>
+      </c>
+      <c r="C376">
+        <v>119421</v>
+      </c>
+      <c r="D376">
+        <v>1696</v>
+      </c>
+      <c r="E376">
+        <v>300</v>
+      </c>
+      <c r="F376">
+        <v>18974</v>
+      </c>
+      <c r="G376">
+        <v>285563</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <f>DATE(2024,4,16)</f>
+        <v>45398</v>
+      </c>
+      <c r="B377">
+        <v>250</v>
+      </c>
+      <c r="C377">
+        <v>119365</v>
+      </c>
+      <c r="D377">
+        <v>1699</v>
+      </c>
+      <c r="E377">
+        <v>300</v>
+      </c>
+      <c r="F377">
+        <v>18691</v>
+      </c>
+      <c r="G377">
+        <v>286818</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <f>DATE(2024,4,15)</f>
+        <v>45397</v>
+      </c>
+      <c r="B378">
+        <v>250</v>
+      </c>
+      <c r="C378">
+        <v>118369</v>
+      </c>
+      <c r="D378">
+        <v>1703</v>
+      </c>
+      <c r="E378">
+        <v>300</v>
+      </c>
+      <c r="F378">
+        <v>18558</v>
+      </c>
+      <c r="G378">
+        <v>287937</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <f>DATE(2024,4,12)</f>
+        <v>45394</v>
+      </c>
+      <c r="B379">
+        <v>250</v>
+      </c>
+      <c r="C379">
+        <v>118347</v>
+      </c>
+      <c r="D379">
+        <v>1705</v>
+      </c>
+      <c r="E379">
+        <v>300</v>
+      </c>
+      <c r="F379">
+        <v>18440</v>
+      </c>
+      <c r="G379">
+        <v>289544</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <f>DATE(2024,4,11)</f>
+        <v>45393</v>
+      </c>
+      <c r="B380">
+        <v>250</v>
+      </c>
+      <c r="C380">
+        <v>117910</v>
+      </c>
+      <c r="D380">
+        <v>1660</v>
+      </c>
+      <c r="E380">
+        <v>300</v>
+      </c>
+      <c r="F380">
+        <v>18393</v>
+      </c>
+      <c r="G380">
+        <v>290698</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <f>DATE(2024,4,10)</f>
+        <v>45392</v>
+      </c>
+      <c r="B381">
+        <v>250</v>
+      </c>
+      <c r="C381">
+        <v>115881</v>
+      </c>
+      <c r="D381">
+        <v>1660</v>
+      </c>
+      <c r="E381">
+        <v>300</v>
+      </c>
+      <c r="F381">
+        <v>17973</v>
+      </c>
+      <c r="G381">
+        <v>292220</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <f>DATE(2024,4,9)</f>
+        <v>45391</v>
+      </c>
+      <c r="B382">
+        <v>250</v>
+      </c>
+      <c r="C382">
+        <v>115841</v>
+      </c>
+      <c r="D382">
+        <v>1660</v>
+      </c>
+      <c r="E382">
+        <v>300</v>
+      </c>
+      <c r="F382">
+        <v>17929</v>
+      </c>
+      <c r="G382">
+        <v>290662</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <f>DATE(2024,4,8)</f>
+        <v>45390</v>
+      </c>
+      <c r="B383">
+        <v>250</v>
+      </c>
+      <c r="C383">
+        <v>114679</v>
+      </c>
+      <c r="D383">
+        <v>1660</v>
+      </c>
+      <c r="E383">
+        <v>300</v>
+      </c>
+      <c r="F383">
+        <v>17269</v>
+      </c>
+      <c r="G383">
+        <v>301156</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <f>DATE(2024,4,5)</f>
+        <v>45387</v>
+      </c>
+      <c r="B384">
+        <v>250</v>
+      </c>
+      <c r="C384">
+        <v>112976</v>
+      </c>
+      <c r="D384">
+        <v>1660</v>
+      </c>
+      <c r="E384">
+        <v>300</v>
+      </c>
+      <c r="F384">
+        <v>17213</v>
+      </c>
+      <c r="G384">
+        <v>301216</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <f>DATE(2024,4,4)</f>
+        <v>45386</v>
+      </c>
+      <c r="B385">
+        <v>250</v>
+      </c>
+      <c r="C385">
+        <v>110302</v>
+      </c>
+      <c r="D385">
+        <v>1625</v>
+      </c>
+      <c r="E385">
+        <v>300</v>
+      </c>
+      <c r="F385">
+        <v>16108</v>
+      </c>
+      <c r="G385">
+        <v>303135</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <f>DATE(2024,4,3)</f>
+        <v>45385</v>
+      </c>
+      <c r="B386">
+        <v>250</v>
+      </c>
+      <c r="C386">
+        <v>110550</v>
+      </c>
+      <c r="D386">
+        <v>1624</v>
+      </c>
+      <c r="E386">
+        <v>300</v>
+      </c>
+      <c r="F386">
+        <v>16088</v>
+      </c>
+      <c r="G386">
+        <v>303974</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <f>DATE(2024,4,2)</f>
+        <v>45384</v>
+      </c>
+      <c r="B387">
+        <v>250</v>
+      </c>
+      <c r="C387">
+        <v>107649</v>
+      </c>
+      <c r="D387">
+        <v>1624</v>
+      </c>
+      <c r="E387">
+        <v>300</v>
+      </c>
+      <c r="F387">
+        <v>15631</v>
+      </c>
+      <c r="G387">
+        <v>305461</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <f>DATE(2024,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="B388">
+        <v>250</v>
+      </c>
+      <c r="C388">
+        <v>107063</v>
+      </c>
+      <c r="D388">
+        <v>1624</v>
+      </c>
+      <c r="E388">
+        <v>300</v>
+      </c>
+      <c r="F388">
+        <v>14785</v>
+      </c>
+      <c r="G388">
+        <v>305049</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <f>DATE(2024,3,28)</f>
+        <v>45379</v>
+      </c>
+      <c r="B389">
+        <v>250</v>
+      </c>
+      <c r="C389">
+        <v>107063</v>
+      </c>
+      <c r="D389">
+        <v>1624</v>
+      </c>
+      <c r="E389">
+        <v>300</v>
+      </c>
+      <c r="F389">
+        <v>14785</v>
+      </c>
+      <c r="G389">
+        <v>305054</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <f>DATE(2024,3,27)</f>
+        <v>45378</v>
+      </c>
+      <c r="B390">
+        <v>250</v>
+      </c>
+      <c r="C390">
+        <v>106963</v>
+      </c>
+      <c r="D390">
+        <v>1624</v>
+      </c>
+      <c r="E390">
+        <v>300</v>
+      </c>
+      <c r="F390">
+        <v>14459</v>
+      </c>
+      <c r="G390">
+        <v>303156</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <f>DATE(2024,3,26)</f>
+        <v>45377</v>
+      </c>
+      <c r="B391">
+        <v>250</v>
+      </c>
+      <c r="C391">
+        <v>104300</v>
+      </c>
+      <c r="D391">
+        <v>1618</v>
+      </c>
+      <c r="E391">
+        <v>300</v>
+      </c>
+      <c r="F391">
+        <v>14251</v>
+      </c>
+      <c r="G391">
+        <v>299462</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <f>DATE(2024,3,25)</f>
+        <v>45376</v>
+      </c>
+      <c r="B392">
+        <v>250</v>
+      </c>
+      <c r="C392">
+        <v>102934</v>
+      </c>
+      <c r="D392">
+        <v>1618</v>
+      </c>
+      <c r="E392">
+        <v>300</v>
+      </c>
+      <c r="F392">
+        <v>13820</v>
+      </c>
+      <c r="G392">
+        <v>297131</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <f>DATE(2024,3,22)</f>
+        <v>45373</v>
+      </c>
+      <c r="B393">
+        <v>250</v>
+      </c>
+      <c r="C393">
+        <v>102051</v>
+      </c>
+      <c r="D393">
+        <v>1618</v>
+      </c>
+      <c r="E393">
+        <v>300</v>
+      </c>
+      <c r="F393">
+        <v>13531</v>
+      </c>
+      <c r="G393">
+        <v>297063</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <f>DATE(2024,3,21)</f>
+        <v>45372</v>
+      </c>
+      <c r="B394">
+        <v>250</v>
+      </c>
+      <c r="C394">
+        <v>98012</v>
+      </c>
+      <c r="D394">
+        <v>1618</v>
+      </c>
+      <c r="E394">
+        <v>300</v>
+      </c>
+      <c r="F394">
+        <v>13160</v>
+      </c>
+      <c r="G394">
+        <v>294791</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <f>DATE(2024,3,20)</f>
+        <v>45371</v>
+      </c>
+      <c r="B395">
+        <v>250</v>
+      </c>
+      <c r="C395">
+        <v>97101</v>
+      </c>
+      <c r="D395">
+        <v>1618</v>
+      </c>
+      <c r="E395">
+        <v>300</v>
+      </c>
+      <c r="F395">
+        <v>12961</v>
+      </c>
+      <c r="G395">
+        <v>292958</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <f>DATE(2024,3,19)</f>
+        <v>45370</v>
+      </c>
+      <c r="B396">
+        <v>250</v>
+      </c>
+      <c r="C396">
+        <v>96645</v>
+      </c>
+      <c r="D396">
+        <v>1618</v>
+      </c>
+      <c r="E396">
+        <v>300</v>
+      </c>
+      <c r="F396">
+        <v>12649</v>
+      </c>
+      <c r="G396">
+        <v>293112</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <f>DATE(2024,3,18)</f>
+        <v>45369</v>
+      </c>
+      <c r="B397">
+        <v>250</v>
+      </c>
+      <c r="C397">
+        <v>95512</v>
+      </c>
+      <c r="D397">
+        <v>1618</v>
+      </c>
+      <c r="E397">
+        <v>300</v>
+      </c>
+      <c r="F397">
+        <v>12377</v>
+      </c>
+      <c r="G397">
+        <v>295129</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <f>DATE(2024,3,15)</f>
+        <v>45366</v>
+      </c>
+      <c r="B398">
+        <v>250</v>
+      </c>
+      <c r="C398">
+        <v>95780</v>
+      </c>
+      <c r="D398">
+        <v>1616</v>
+      </c>
+      <c r="E398">
+        <v>300</v>
+      </c>
+      <c r="F398">
+        <v>12136</v>
+      </c>
+      <c r="G398">
+        <v>294097</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <f>DATE(2024,3,14)</f>
+        <v>45365</v>
+      </c>
+      <c r="B399">
+        <v>250</v>
+      </c>
+      <c r="C399">
+        <v>95452</v>
+      </c>
+      <c r="D399">
+        <v>1616</v>
+      </c>
+      <c r="E399">
+        <v>300</v>
+      </c>
+      <c r="F399">
+        <v>12147</v>
+      </c>
+      <c r="G399">
+        <v>289989</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <f>DATE(2024,3,13)</f>
+        <v>45364</v>
+      </c>
+      <c r="B400">
+        <v>250</v>
+      </c>
+      <c r="C400">
+        <v>94597</v>
+      </c>
+      <c r="D400">
+        <v>1616</v>
+      </c>
+      <c r="E400">
+        <v>300</v>
+      </c>
+      <c r="F400">
+        <v>12110</v>
+      </c>
+      <c r="G400">
+        <v>293878</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <f>DATE(2024,3,12)</f>
+        <v>45363</v>
+      </c>
+      <c r="B401">
+        <v>250</v>
+      </c>
+      <c r="C401">
+        <v>93432</v>
+      </c>
+      <c r="D401">
+        <v>1616</v>
+      </c>
+      <c r="E401">
+        <v>300</v>
+      </c>
+      <c r="F401">
+        <v>12094</v>
+      </c>
+      <c r="G401">
+        <v>289607</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <f>DATE(2024,3,11)</f>
+        <v>45362</v>
+      </c>
+      <c r="B402">
+        <v>250</v>
+      </c>
+      <c r="C402">
+        <v>92770</v>
+      </c>
+      <c r="D402">
+        <v>1617</v>
+      </c>
+      <c r="E402">
+        <v>300</v>
+      </c>
+      <c r="F402">
+        <v>12114</v>
+      </c>
+      <c r="G402">
+        <v>289219</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <f>DATE(2024,3,8)</f>
+        <v>45359</v>
+      </c>
+      <c r="B403">
+        <v>250</v>
+      </c>
+      <c r="C403">
+        <v>91876</v>
+      </c>
+      <c r="D403">
+        <v>1617</v>
+      </c>
+      <c r="E403">
+        <v>300</v>
+      </c>
+      <c r="F403">
+        <v>11840</v>
+      </c>
+      <c r="G403">
+        <v>287330</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <f>DATE(2024,3,7)</f>
+        <v>45358</v>
+      </c>
+      <c r="B404">
+        <v>250</v>
+      </c>
+      <c r="C404">
+        <v>91422</v>
+      </c>
+      <c r="D404">
+        <v>1617</v>
+      </c>
+      <c r="E404">
+        <v>300</v>
+      </c>
+      <c r="F404">
+        <v>11238</v>
+      </c>
+      <c r="G404">
+        <v>285313</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <f>DATE(2024,3,6)</f>
+        <v>45357</v>
+      </c>
+      <c r="B405">
+        <v>250</v>
+      </c>
+      <c r="C405">
+        <v>89388</v>
+      </c>
+      <c r="D405">
+        <v>1615</v>
+      </c>
+      <c r="E405">
+        <v>300</v>
+      </c>
+      <c r="F405">
+        <v>11188</v>
+      </c>
+      <c r="G405">
+        <v>282480</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <f>DATE(2024,3,5)</f>
+        <v>45356</v>
+      </c>
+      <c r="B406">
+        <v>250</v>
+      </c>
+      <c r="C406">
+        <v>86525</v>
+      </c>
+      <c r="D406">
+        <v>1613</v>
+      </c>
+      <c r="E406">
+        <v>300</v>
+      </c>
+      <c r="F406">
+        <v>10924</v>
+      </c>
+      <c r="G406">
+        <v>282222</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <f>DATE(2024,3,4)</f>
+        <v>45355</v>
+      </c>
+      <c r="B407">
+        <v>250</v>
+      </c>
+      <c r="C407">
+        <v>86083</v>
+      </c>
+      <c r="D407">
+        <v>1263</v>
+      </c>
+      <c r="E407">
+        <v>300</v>
+      </c>
+      <c r="F407">
+        <v>10746</v>
+      </c>
+      <c r="G407">
+        <v>286353</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <f>DATE(2024,3,1)</f>
+        <v>45352</v>
+      </c>
+      <c r="B408">
+        <v>250</v>
+      </c>
+      <c r="C408">
+        <v>83808</v>
+      </c>
+      <c r="D408">
+        <v>1263</v>
+      </c>
+      <c r="E408">
+        <v>300</v>
+      </c>
+      <c r="F408">
+        <v>10593</v>
+      </c>
+      <c r="G408">
+        <v>282907</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <f>DATE(2024,2,29)</f>
+        <v>45351</v>
+      </c>
+      <c r="B409">
+        <v>250</v>
+      </c>
+      <c r="C409">
+        <v>81526</v>
+      </c>
+      <c r="D409">
+        <v>1263</v>
+      </c>
+      <c r="E409">
+        <v>300</v>
+      </c>
+      <c r="F409">
+        <v>10436</v>
+      </c>
+      <c r="G409">
+        <v>281610</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <f>DATE(2024,2,28)</f>
+        <v>45350</v>
+      </c>
+      <c r="B410">
+        <v>250</v>
+      </c>
+      <c r="C410">
+        <v>80777</v>
+      </c>
+      <c r="D410">
+        <v>1263</v>
+      </c>
+      <c r="E410">
+        <v>300</v>
+      </c>
+      <c r="F410">
+        <v>10448</v>
+      </c>
+      <c r="G410">
+        <v>283709</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <f>DATE(2024,2,27)</f>
+        <v>45349</v>
+      </c>
+      <c r="B411">
+        <v>250</v>
+      </c>
+      <c r="C411">
+        <v>80663</v>
+      </c>
+      <c r="D411">
+        <v>1257</v>
+      </c>
+      <c r="E411">
+        <v>300</v>
+      </c>
+      <c r="F411">
+        <v>10228</v>
+      </c>
+      <c r="G411">
+        <v>287829</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <f>DATE(2024,2,26)</f>
+        <v>45348</v>
+      </c>
+      <c r="B412">
+        <v>250</v>
+      </c>
+      <c r="C412">
+        <v>80354</v>
+      </c>
+      <c r="D412">
+        <v>1256</v>
+      </c>
+      <c r="E412">
+        <v>300</v>
+      </c>
+      <c r="F412">
+        <v>10141</v>
+      </c>
+      <c r="G412">
+        <v>289628</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <f>DATE(2024,2,23)</f>
+        <v>45345</v>
+      </c>
+      <c r="B413">
+        <v>250</v>
+      </c>
+      <c r="C413">
+        <v>78220</v>
+      </c>
+      <c r="D413">
+        <v>1256</v>
+      </c>
+      <c r="E413">
+        <v>300</v>
+      </c>
+      <c r="F413">
+        <v>10084</v>
+      </c>
+      <c r="G413">
+        <v>289803</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <f>DATE(2024,2,22)</f>
+        <v>45344</v>
+      </c>
+      <c r="B414">
+        <v>250</v>
+      </c>
+      <c r="C414">
+        <v>77246</v>
+      </c>
+      <c r="D414">
+        <v>1247</v>
+      </c>
+      <c r="E414">
+        <v>300</v>
+      </c>
+      <c r="F414">
+        <v>10005</v>
+      </c>
+      <c r="G414">
+        <v>289539</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <f>DATE(2024,2,21)</f>
+        <v>45343</v>
+      </c>
+      <c r="B415">
+        <v>250</v>
+      </c>
+      <c r="C415">
+        <v>75307</v>
+      </c>
+      <c r="D415">
+        <v>1234</v>
+      </c>
+      <c r="E415">
+        <v>300</v>
+      </c>
+      <c r="F415">
+        <v>10005</v>
+      </c>
+      <c r="G415">
+        <v>288096</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <f>DATE(2024,2,20)</f>
+        <v>45342</v>
+      </c>
+      <c r="B416">
+        <v>250</v>
+      </c>
+      <c r="C416">
+        <v>74662</v>
+      </c>
+      <c r="D416">
+        <v>1234</v>
+      </c>
+      <c r="E416">
+        <v>300</v>
+      </c>
+      <c r="F416">
+        <v>10023</v>
+      </c>
+      <c r="G416">
+        <v>288407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <f>DATE(2024,2,19)</f>
+        <v>45341</v>
+      </c>
+      <c r="B417">
+        <v>250</v>
+      </c>
+      <c r="C417">
+        <v>74208</v>
+      </c>
+      <c r="D417">
+        <v>1234</v>
+      </c>
+      <c r="E417">
+        <v>300</v>
+      </c>
+      <c r="F417">
+        <v>10034</v>
+      </c>
+      <c r="G417">
+        <v>290705</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <f>DATE(2024,2,16)</f>
+        <v>45338</v>
+      </c>
+      <c r="B418">
+        <v>250</v>
+      </c>
+      <c r="C418">
+        <v>73447</v>
+      </c>
+      <c r="D418">
+        <v>1211</v>
+      </c>
+      <c r="E418">
+        <v>100</v>
+      </c>
+      <c r="F418">
+        <v>9953</v>
+      </c>
+      <c r="G418">
+        <v>286053</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <f>DATE(2024,2,15)</f>
+        <v>45337</v>
+      </c>
+      <c r="B419">
+        <v>250</v>
+      </c>
+      <c r="C419">
+        <v>72666</v>
+      </c>
+      <c r="D419">
+        <v>1211</v>
+      </c>
+      <c r="E419">
+        <v>100</v>
+      </c>
+      <c r="F419">
+        <v>9785</v>
+      </c>
+      <c r="G419">
+        <v>285842</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <f>DATE(2024,2,14)</f>
+        <v>45336</v>
+      </c>
+      <c r="B420">
+        <v>250</v>
+      </c>
+      <c r="C420">
+        <v>72735</v>
+      </c>
+      <c r="D420">
+        <v>1211</v>
+      </c>
+      <c r="E420">
+        <v>100</v>
+      </c>
+      <c r="F420">
+        <v>9557</v>
+      </c>
+      <c r="G420">
+        <v>286484</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <f>DATE(2024,2,13)</f>
+        <v>45335</v>
+      </c>
+      <c r="B421">
+        <v>250</v>
+      </c>
+      <c r="C421">
+        <v>71375</v>
+      </c>
+      <c r="D421">
+        <v>1212</v>
+      </c>
+      <c r="E421">
+        <v>100</v>
+      </c>
+      <c r="F421">
+        <v>9520</v>
+      </c>
+      <c r="G421">
+        <v>287140</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <f>DATE(2024,2,12)</f>
+        <v>45334</v>
+      </c>
+      <c r="B422">
+        <v>250</v>
+      </c>
+      <c r="C422">
+        <v>70085</v>
+      </c>
+      <c r="D422">
+        <v>1212</v>
+      </c>
+      <c r="E422">
+        <v>100</v>
+      </c>
+      <c r="F422">
+        <v>9471</v>
+      </c>
+      <c r="G422">
+        <v>286130</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <f>DATE(2024,2,9)</f>
+        <v>45331</v>
+      </c>
+      <c r="B423">
+        <v>250</v>
+      </c>
+      <c r="C423">
+        <v>69624</v>
+      </c>
+      <c r="D423">
+        <v>1223</v>
+      </c>
+      <c r="E423">
+        <v>100</v>
+      </c>
+      <c r="F423">
+        <v>9187</v>
+      </c>
+      <c r="G423">
+        <v>284512</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <f>DATE(2024,2,8)</f>
+        <v>45330</v>
+      </c>
+      <c r="B424">
+        <v>250</v>
+      </c>
+      <c r="C424">
+        <v>69807</v>
+      </c>
+      <c r="D424">
+        <v>1226</v>
+      </c>
+      <c r="E424">
+        <v>100</v>
+      </c>
+      <c r="F424">
+        <v>9051</v>
+      </c>
+      <c r="G424">
+        <v>280639</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <f>DATE(2024,2,7)</f>
+        <v>45329</v>
+      </c>
+      <c r="B425">
+        <v>250</v>
+      </c>
+      <c r="C425">
+        <v>69621</v>
+      </c>
+      <c r="D425">
+        <v>1226</v>
+      </c>
+      <c r="E425">
+        <v>100</v>
+      </c>
+      <c r="F425">
+        <v>9018</v>
+      </c>
+      <c r="G425">
+        <v>277076</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <f>DATE(2024,2,6)</f>
+        <v>45328</v>
+      </c>
+      <c r="B426">
+        <v>250</v>
+      </c>
+      <c r="C426">
+        <v>69154</v>
+      </c>
+      <c r="D426">
+        <v>1201</v>
+      </c>
+      <c r="E426">
+        <v>100</v>
+      </c>
+      <c r="F426">
+        <v>8393</v>
+      </c>
+      <c r="G426">
+        <v>278078</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <f>DATE(2024,2,5)</f>
+        <v>45327</v>
+      </c>
+      <c r="B427">
+        <v>250</v>
+      </c>
+      <c r="C427">
+        <v>68946</v>
+      </c>
+      <c r="D427">
+        <v>1201</v>
+      </c>
+      <c r="E427">
+        <v>100</v>
+      </c>
+      <c r="F427">
+        <v>7946</v>
+      </c>
+      <c r="G427">
+        <v>277917</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <f>DATE(2024,2,2)</f>
+        <v>45324</v>
+      </c>
+      <c r="B428">
+        <v>250</v>
+      </c>
+      <c r="C428">
+        <v>68148</v>
+      </c>
+      <c r="D428">
+        <v>1201</v>
+      </c>
+      <c r="E428">
+        <v>100</v>
+      </c>
+      <c r="F428">
+        <v>7769</v>
+      </c>
+      <c r="G428">
+        <v>275630</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <f>DATE(2024,2,1)</f>
+        <v>45323</v>
+      </c>
+      <c r="B429">
+        <v>250</v>
+      </c>
+      <c r="C429">
+        <v>65014</v>
+      </c>
+      <c r="D429">
+        <v>1201</v>
+      </c>
+      <c r="E429">
+        <v>100</v>
+      </c>
+      <c r="F429">
+        <v>7725</v>
+      </c>
+      <c r="G429">
+        <v>275328</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <f>DATE(2024,1,31)</f>
+        <v>45322</v>
+      </c>
+      <c r="B430">
+        <v>250</v>
+      </c>
+      <c r="C430">
+        <v>63840</v>
+      </c>
+      <c r="D430">
+        <v>1201</v>
+      </c>
+      <c r="E430">
+        <v>100</v>
+      </c>
+      <c r="F430">
+        <v>7249</v>
+      </c>
+      <c r="G430">
+        <v>272614</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <f>DATE(2024,1,30)</f>
+        <v>45321</v>
+      </c>
+      <c r="B431">
+        <v>250</v>
+      </c>
+      <c r="C431">
+        <v>63316</v>
+      </c>
+      <c r="D431">
+        <v>1201</v>
+      </c>
+      <c r="E431">
+        <v>100</v>
+      </c>
+      <c r="F431">
+        <v>7086</v>
+      </c>
+      <c r="G431">
+        <v>272609</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <f>DATE(2024,1,29)</f>
+        <v>45320</v>
+      </c>
+      <c r="B432">
+        <v>250</v>
+      </c>
+      <c r="C432">
+        <v>63060</v>
+      </c>
+      <c r="D432">
+        <v>1201</v>
+      </c>
+      <c r="E432">
+        <v>100</v>
+      </c>
+      <c r="F432">
+        <v>7092</v>
+      </c>
+      <c r="G432">
+        <v>269994</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <f>DATE(2024,1,26)</f>
+        <v>45317</v>
+      </c>
+      <c r="B433">
+        <v>250</v>
+      </c>
+      <c r="C433">
+        <v>62176</v>
+      </c>
+      <c r="D433">
+        <v>1201</v>
+      </c>
+      <c r="E433">
+        <v>100</v>
+      </c>
+      <c r="F433">
+        <v>6785</v>
+      </c>
+      <c r="G433">
+        <v>269839</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
+      </c>
+      <c r="B434">
+        <v>250</v>
+      </c>
+      <c r="C434">
+        <v>61597</v>
+      </c>
+      <c r="D434">
+        <v>1201</v>
+      </c>
+      <c r="E434">
+        <v>100</v>
+      </c>
+      <c r="F434">
+        <v>6735</v>
+      </c>
+      <c r="G434">
+        <v>268418</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <f>DATE(2024,1,24)</f>
+        <v>45315</v>
+      </c>
+      <c r="B435">
+        <v>250</v>
+      </c>
+      <c r="C435">
+        <v>61140</v>
+      </c>
+      <c r="D435">
+        <v>1201</v>
+      </c>
+      <c r="E435">
+        <v>100</v>
+      </c>
+      <c r="F435">
+        <v>6688</v>
+      </c>
+      <c r="G435">
+        <v>263929</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <f>DATE(2024,1,23)</f>
+        <v>45314</v>
+      </c>
+      <c r="B436">
+        <v>250</v>
+      </c>
+      <c r="C436">
+        <v>60769</v>
+      </c>
+      <c r="D436">
+        <v>1201</v>
+      </c>
+      <c r="E436">
+        <v>100</v>
+      </c>
+      <c r="F436">
+        <v>6665</v>
+      </c>
+      <c r="G436">
+        <v>264950</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <f>DATE(2024,1,22)</f>
+        <v>45313</v>
+      </c>
+      <c r="B437">
+        <v>250</v>
+      </c>
+      <c r="C437">
+        <v>60591</v>
+      </c>
+      <c r="D437">
+        <v>1201</v>
+      </c>
+      <c r="E437">
+        <v>100</v>
+      </c>
+      <c r="F437">
+        <v>6654</v>
+      </c>
+      <c r="G437">
+        <v>265672</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <f>DATE(2024,1,19)</f>
+        <v>45310</v>
+      </c>
+      <c r="B438">
+        <v>250</v>
+      </c>
+      <c r="C438">
+        <v>60422</v>
+      </c>
+      <c r="D438">
+        <v>1150</v>
+      </c>
+      <c r="E438">
+        <v>100</v>
+      </c>
+      <c r="F438">
+        <v>6564</v>
+      </c>
+      <c r="G438">
+        <v>264703</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <f>DATE(2024,1,18)</f>
+        <v>45309</v>
+      </c>
+      <c r="B439">
+        <v>250</v>
+      </c>
+      <c r="C439">
+        <v>58938</v>
+      </c>
+      <c r="D439">
+        <v>1150</v>
+      </c>
+      <c r="E439">
+        <v>100</v>
+      </c>
+      <c r="F439">
+        <v>6790</v>
+      </c>
+      <c r="G439">
+        <v>263531</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <f>DATE(2024,1,17)</f>
+        <v>45308</v>
+      </c>
+      <c r="B440">
+        <v>250</v>
+      </c>
+      <c r="C440">
+        <v>59301</v>
+      </c>
+      <c r="D440">
+        <v>1150</v>
+      </c>
+      <c r="E440">
+        <v>100</v>
+      </c>
+      <c r="F440">
+        <v>6654</v>
+      </c>
+      <c r="G440">
+        <v>261762</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <f>DATE(2024,1,16)</f>
+        <v>45307</v>
+      </c>
+      <c r="B441">
+        <v>250</v>
+      </c>
+      <c r="C441">
+        <v>58904</v>
+      </c>
+      <c r="D441">
+        <v>1147</v>
+      </c>
+      <c r="E441">
+        <v>100</v>
+      </c>
+      <c r="F441">
+        <v>6698</v>
+      </c>
+      <c r="G441">
+        <v>260611</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <f>DATE(2024,1,15)</f>
+        <v>45306</v>
+      </c>
+      <c r="B442">
+        <v>250</v>
+      </c>
+      <c r="C442">
+        <v>57648</v>
+      </c>
+      <c r="D442">
+        <v>1147</v>
+      </c>
+      <c r="E442">
+        <v>100</v>
+      </c>
+      <c r="F442">
+        <v>6644</v>
+      </c>
+      <c r="G442">
+        <v>259218</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <f>DATE(2024,1,12)</f>
+        <v>45303</v>
+      </c>
+      <c r="B443">
+        <v>250</v>
+      </c>
+      <c r="C443">
+        <v>57057</v>
+      </c>
+      <c r="D443">
+        <v>1146</v>
+      </c>
+      <c r="E443">
+        <v>100</v>
+      </c>
+      <c r="F443">
+        <v>6643</v>
+      </c>
+      <c r="G443">
+        <v>260801</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <f>DATE(2024,1,11)</f>
+        <v>45302</v>
+      </c>
+      <c r="B444">
+        <v>250</v>
+      </c>
+      <c r="C444">
+        <v>55935</v>
+      </c>
+      <c r="D444">
+        <v>1146</v>
+      </c>
+      <c r="E444">
+        <v>100</v>
+      </c>
+      <c r="F444">
+        <v>6527</v>
+      </c>
+      <c r="G444">
+        <v>256467</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <f>DATE(2024,1,10)</f>
+        <v>45301</v>
+      </c>
+      <c r="B445">
+        <v>250</v>
+      </c>
+      <c r="C445">
+        <v>55501</v>
+      </c>
+      <c r="D445">
+        <v>1096</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>6392</v>
+      </c>
+      <c r="G445">
+        <v>252367</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <f>DATE(2024,1,9)</f>
+        <v>45300</v>
+      </c>
+      <c r="B446">
+        <v>250</v>
+      </c>
+      <c r="C446">
+        <v>55350</v>
+      </c>
+      <c r="D446">
+        <v>1078</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>6370</v>
+      </c>
+      <c r="G446">
+        <v>247917</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <f>DATE(2024,1,8)</f>
+        <v>45299</v>
+      </c>
+      <c r="B447">
+        <v>250</v>
+      </c>
+      <c r="C447">
+        <v>54987</v>
+      </c>
+      <c r="D447">
+        <v>1078</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>6357</v>
+      </c>
+      <c r="G447">
+        <v>247220</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <f>DATE(2024,1,5)</f>
+        <v>45296</v>
+      </c>
+      <c r="B448">
+        <v>250</v>
+      </c>
+      <c r="C448">
+        <v>54755</v>
+      </c>
+      <c r="D448">
+        <v>1028</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>6236</v>
+      </c>
+      <c r="G448">
+        <v>246559</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <f>DATE(2024,1,4)</f>
+        <v>45295</v>
+      </c>
+      <c r="B449">
+        <v>250</v>
+      </c>
+      <c r="C449">
+        <v>54607</v>
+      </c>
+      <c r="D449">
+        <v>1028</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>6206</v>
+      </c>
+      <c r="G449">
+        <v>247085</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <f>DATE(2024,1,3)</f>
+        <v>45294</v>
+      </c>
+      <c r="B450">
+        <v>250</v>
+      </c>
+      <c r="C450">
+        <v>54900</v>
+      </c>
+      <c r="D450">
+        <v>865</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>6193</v>
+      </c>
+      <c r="G450">
+        <v>245981</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <f>DATE(2024,1,2)</f>
+        <v>45293</v>
+      </c>
+      <c r="B451">
+        <v>250</v>
+      </c>
+      <c r="C451">
+        <v>54851</v>
+      </c>
+      <c r="D451">
+        <v>565</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>6189</v>
+      </c>
+      <c r="G451">
+        <v>246427</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <f>DATE(2023,12,29)</f>
+        <v>45289</v>
+      </c>
+      <c r="B452">
+        <v>250</v>
+      </c>
+      <c r="C452">
+        <v>54955</v>
+      </c>
+      <c r="D452">
+        <v>565</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>6200</v>
+      </c>
+      <c r="G452">
+        <v>246338</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <f>DATE(2023,12,28)</f>
+        <v>45288</v>
+      </c>
+      <c r="B453">
+        <v>250</v>
+      </c>
+      <c r="C453">
+        <v>55442</v>
+      </c>
+      <c r="D453">
+        <v>565</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>6369</v>
+      </c>
+      <c r="G453">
+        <v>247527</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <f>DATE(2023,12,27)</f>
+        <v>45287</v>
+      </c>
+      <c r="B454">
+        <v>250</v>
+      </c>
+      <c r="C454">
+        <v>55792</v>
+      </c>
+      <c r="D454">
+        <v>565</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>6366</v>
+      </c>
+      <c r="G454">
+        <v>249272</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <f>DATE(2023,12,22)</f>
+        <v>45282</v>
+      </c>
+      <c r="B455">
+        <v>250</v>
+      </c>
+      <c r="C455">
+        <v>55948</v>
+      </c>
+      <c r="D455">
+        <v>565</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>6460</v>
+      </c>
+      <c r="G455">
+        <v>250381</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <f>DATE(2023,12,21)</f>
+        <v>45281</v>
+      </c>
+      <c r="B456">
+        <v>250</v>
+      </c>
+      <c r="C456">
+        <v>55909</v>
+      </c>
+      <c r="D456">
+        <v>565</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>6523</v>
+      </c>
+      <c r="G456">
+        <v>251461</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <f>DATE(2023,12,20)</f>
+        <v>45280</v>
+      </c>
+      <c r="B457">
+        <v>250</v>
+      </c>
+      <c r="C457">
+        <v>55639</v>
+      </c>
+      <c r="D457">
+        <v>565</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>6473</v>
+      </c>
+      <c r="G457">
+        <v>256416</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <f>DATE(2023,12,19)</f>
+        <v>45279</v>
+      </c>
+      <c r="B458">
+        <v>250</v>
+      </c>
+      <c r="C458">
+        <v>55151</v>
+      </c>
+      <c r="D458">
+        <v>565</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>6363</v>
+      </c>
+      <c r="G458">
+        <v>253872</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <f>DATE(2023,12,18)</f>
+        <v>45278</v>
+      </c>
+      <c r="B459">
+        <v>250</v>
+      </c>
+      <c r="C459">
+        <v>54804</v>
+      </c>
+      <c r="D459">
+        <v>565</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>6325</v>
+      </c>
+      <c r="G459">
+        <v>255186</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <f>DATE(2023,12,15)</f>
+        <v>45275</v>
+      </c>
+      <c r="B460">
+        <v>250</v>
+      </c>
+      <c r="C460">
+        <v>54518</v>
+      </c>
+      <c r="D460">
+        <v>564</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>6284</v>
+      </c>
+      <c r="G460">
+        <v>254672</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <f>DATE(2023,12,14)</f>
+        <v>45274</v>
+      </c>
+      <c r="B461">
+        <v>250</v>
+      </c>
+      <c r="C461">
+        <v>54475</v>
+      </c>
+      <c r="D461">
+        <v>564</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>6270</v>
+      </c>
+      <c r="G461">
+        <v>250208</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <f>DATE(2023,12,13)</f>
+        <v>45273</v>
+      </c>
+      <c r="B462">
+        <v>250</v>
+      </c>
+      <c r="C462">
+        <v>54264</v>
+      </c>
+      <c r="D462">
+        <v>556</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>6134</v>
+      </c>
+      <c r="G462">
+        <v>244281</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <f>DATE(2023,12,12)</f>
+        <v>45272</v>
+      </c>
+      <c r="B463">
+        <v>250</v>
+      </c>
+      <c r="C463">
+        <v>54010</v>
+      </c>
+      <c r="D463">
+        <v>554</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>6000</v>
+      </c>
+      <c r="G463">
+        <v>238510</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <f>DATE(2023,12,11)</f>
+        <v>45271</v>
+      </c>
+      <c r="B464">
+        <v>250</v>
+      </c>
+      <c r="C464">
+        <v>53481</v>
+      </c>
+      <c r="D464">
+        <v>554</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>5902</v>
+      </c>
+      <c r="G464">
+        <v>236567</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <f>DATE(2023,12,8)</f>
+        <v>45268</v>
+      </c>
+      <c r="B465">
+        <v>250</v>
+      </c>
+      <c r="C465">
+        <v>52619</v>
+      </c>
+      <c r="D465">
+        <v>554</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>5852</v>
+      </c>
+      <c r="G465">
+        <v>229673</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <f>DATE(2023,12,7)</f>
+        <v>45267</v>
+      </c>
+      <c r="B466">
+        <v>250</v>
+      </c>
+      <c r="C466">
+        <v>52449</v>
+      </c>
+      <c r="D466">
+        <v>552</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>5904</v>
+      </c>
+      <c r="G466">
+        <v>225345</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <f>DATE(2023,12,6)</f>
+        <v>45266</v>
+      </c>
+      <c r="B467">
+        <v>250</v>
+      </c>
+      <c r="C467">
+        <v>52382</v>
+      </c>
+      <c r="D467">
+        <v>552</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>5883</v>
+      </c>
+      <c r="G467">
+        <v>222650</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <f>DATE(2023,12,5)</f>
+        <v>45265</v>
+      </c>
+      <c r="B468">
+        <v>250</v>
+      </c>
+      <c r="C468">
+        <v>52182</v>
+      </c>
+      <c r="D468">
+        <v>551</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>5871</v>
+      </c>
+      <c r="G468">
+        <v>218709</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <f>DATE(2023,12,4)</f>
+        <v>45264</v>
+      </c>
+      <c r="B469">
+        <v>250</v>
+      </c>
+      <c r="C469">
+        <v>51543</v>
+      </c>
+      <c r="D469">
+        <v>550</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>5701</v>
+      </c>
+      <c r="G469">
+        <v>215774</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <f>DATE(2023,12,1)</f>
+        <v>45261</v>
+      </c>
+      <c r="B470">
+        <v>250</v>
+      </c>
+      <c r="C470">
+        <v>50602</v>
+      </c>
+      <c r="D470">
+        <v>550</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>5518</v>
+      </c>
+      <c r="G470">
+        <v>212578</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <f>DATE(2023,11,30)</f>
+        <v>45260</v>
+      </c>
+      <c r="B471">
+        <v>250</v>
+      </c>
+      <c r="C471">
+        <v>50234</v>
+      </c>
+      <c r="D471">
+        <v>550</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>5240</v>
+      </c>
+      <c r="G471">
+        <v>213850</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <f>DATE(2023,11,29)</f>
+        <v>45259</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>49673</v>
+      </c>
+      <c r="D472">
+        <v>550</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>5233</v>
+      </c>
+      <c r="G472">
+        <v>213239</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <f>DATE(2023,11,28)</f>
+        <v>45258</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>49719</v>
+      </c>
+      <c r="D473">
+        <v>550</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>5142</v>
+      </c>
+      <c r="G473">
+        <v>211469</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <f>DATE(2023,11,27)</f>
+        <v>45257</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>49389</v>
+      </c>
+      <c r="D474">
+        <v>550</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>5093</v>
+      </c>
+      <c r="G474">
+        <v>209958</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <f>DATE(2023,11,24)</f>
+        <v>45254</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>49290</v>
+      </c>
+      <c r="D475">
+        <v>550</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>4716</v>
+      </c>
+      <c r="G475">
+        <v>209484</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <f>DATE(2023,11,23)</f>
+        <v>45253</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>48959</v>
+      </c>
+      <c r="D476">
+        <v>550</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>4628</v>
+      </c>
+      <c r="G476">
+        <v>209789</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <f>DATE(2023,11,22)</f>
+        <v>45252</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>48040</v>
+      </c>
+      <c r="D477">
+        <v>550</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>4625</v>
+      </c>
+      <c r="G477">
+        <v>208775</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <f>DATE(2023,11,21)</f>
+        <v>45251</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>48130</v>
+      </c>
+      <c r="D478">
+        <v>550</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>4602</v>
+      </c>
+      <c r="G478">
+        <v>207248</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <f>DATE(2023,11,20)</f>
+        <v>45250</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>48039</v>
+      </c>
+      <c r="D479">
+        <v>550</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>4549</v>
+      </c>
+      <c r="G479">
+        <v>205237</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <f>DATE(2023,11,17)</f>
+        <v>45247</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>48159</v>
+      </c>
+      <c r="D480">
+        <v>550</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>4579</v>
+      </c>
+      <c r="G480">
+        <v>204243</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <f>DATE(2023,11,16)</f>
+        <v>45246</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>47963</v>
+      </c>
+      <c r="D481">
+        <v>550</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>4412</v>
+      </c>
+      <c r="G481">
+        <v>203325</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <f>DATE(2023,11,15)</f>
+        <v>45245</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>47482</v>
+      </c>
+      <c r="D482">
+        <v>550</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>4352</v>
+      </c>
+      <c r="G482">
+        <v>201830</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <f>DATE(2023,11,14)</f>
+        <v>45244</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>47579</v>
+      </c>
+      <c r="D483">
+        <v>550</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>4298</v>
+      </c>
+      <c r="G483">
+        <v>201219</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <f>DATE(2023,11,13)</f>
+        <v>45243</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>47417</v>
+      </c>
+      <c r="D484">
+        <v>550</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>4285</v>
+      </c>
+      <c r="G484">
+        <v>199845</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <f>DATE(2023,11,10)</f>
+        <v>45240</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>47426</v>
+      </c>
+      <c r="D485">
+        <v>550</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>4238</v>
+      </c>
+      <c r="G485">
+        <v>197850</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <f>DATE(2023,11,9)</f>
+        <v>45239</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>47466</v>
+      </c>
+      <c r="D486">
+        <v>550</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>4175</v>
+      </c>
+      <c r="G486">
+        <v>196481</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <f>DATE(2023,11,8)</f>
+        <v>45238</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>47068</v>
+      </c>
+      <c r="D487">
+        <v>550</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>4187</v>
+      </c>
+      <c r="G487">
+        <v>195412</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <f>DATE(2023,11,7)</f>
+        <v>45237</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>47038</v>
+      </c>
+      <c r="D488">
+        <v>550</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>4147</v>
+      </c>
+      <c r="G488">
+        <v>193413</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <f>DATE(2023,11,6)</f>
+        <v>45236</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>46954</v>
+      </c>
+      <c r="D489">
+        <v>550</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>4096</v>
+      </c>
+      <c r="G489">
+        <v>192109</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <f>DATE(2023,11,3)</f>
+        <v>45233</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>46945</v>
+      </c>
+      <c r="D490">
+        <v>550</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>4085</v>
+      </c>
+      <c r="G490">
+        <v>191973</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <f>DATE(2023,11,2)</f>
+        <v>45232</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>46873</v>
+      </c>
+      <c r="D491">
+        <v>550</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>4084</v>
+      </c>
+      <c r="G491">
+        <v>190363</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <f>DATE(2023,11,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>46583</v>
+      </c>
+      <c r="D492">
+        <v>550</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>4061</v>
+      </c>
+      <c r="G492">
+        <v>183545</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <f>DATE(2023,10,31)</f>
+        <v>45230</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>46507</v>
+      </c>
+      <c r="D493">
+        <v>550</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>4051</v>
+      </c>
+      <c r="G493">
+        <v>182432</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <f>DATE(2023,10,30)</f>
+        <v>45229</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>46171</v>
+      </c>
+      <c r="D494">
+        <v>550</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>4013</v>
+      </c>
+      <c r="G494">
+        <v>181377</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <f>DATE(2023,10,27)</f>
+        <v>45226</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>45922</v>
+      </c>
+      <c r="D495">
+        <v>550</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>4015</v>
+      </c>
+      <c r="G495">
+        <v>178666</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <f>DATE(2023,10,26)</f>
+        <v>45225</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>45713</v>
+      </c>
+      <c r="D496">
+        <v>550</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>3960</v>
+      </c>
+      <c r="G496">
+        <v>177231</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <f>DATE(2023,10,25)</f>
+        <v>45224</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>44941</v>
+      </c>
+      <c r="D497">
+        <v>550</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>3960</v>
+      </c>
+      <c r="G497">
+        <v>175766</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <f>DATE(2023,10,24)</f>
+        <v>45223</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>44427</v>
+      </c>
+      <c r="D498">
+        <v>550</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>3951</v>
+      </c>
+      <c r="G498">
+        <v>174304</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <f>DATE(2023,10,23)</f>
+        <v>45222</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>44208</v>
+      </c>
+      <c r="D499">
+        <v>550</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>3959</v>
+      </c>
+      <c r="G499">
+        <v>173611</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <f>DATE(2023,10,20)</f>
+        <v>45219</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>43735</v>
+      </c>
+      <c r="D500">
+        <v>550</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>3854</v>
+      </c>
+      <c r="G500">
+        <v>172932</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <f>DATE(2023,10,19)</f>
+        <v>45218</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>42715</v>
+      </c>
+      <c r="D501">
+        <v>550</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>3752</v>
+      </c>
+      <c r="G501">
+        <v>172430</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <f>DATE(2023,10,18)</f>
+        <v>45217</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>42541</v>
+      </c>
+      <c r="D502">
+        <v>550</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>4519</v>
+      </c>
+      <c r="G502">
+        <v>172351</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <f>DATE(2023,10,17)</f>
+        <v>45216</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>42061</v>
+      </c>
+      <c r="D503">
+        <v>550</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>4515</v>
+      </c>
+      <c r="G503">
+        <v>171924</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <f>DATE(2023,10,16)</f>
+        <v>45215</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>42049</v>
+      </c>
+      <c r="D504">
+        <v>550</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>4490</v>
+      </c>
+      <c r="G504">
+        <v>171339</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <f>DATE(2023,10,13)</f>
+        <v>45212</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>41956</v>
+      </c>
+      <c r="D505">
+        <v>550</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>4508</v>
+      </c>
+      <c r="G505">
+        <v>171202</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <f>DATE(2023,10,12)</f>
+        <v>45211</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>41844</v>
+      </c>
+      <c r="D506">
+        <v>550</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>4508</v>
+      </c>
+      <c r="G506">
+        <v>170978</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <f>DATE(2023,10,11)</f>
+        <v>45210</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>41754</v>
+      </c>
+      <c r="D507">
+        <v>550</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>4511</v>
+      </c>
+      <c r="G507">
+        <v>170511</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <f>DATE(2023,10,10)</f>
+        <v>45209</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508">
+        <v>41524</v>
+      </c>
+      <c r="D508">
+        <v>550</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>4510</v>
+      </c>
+      <c r="G508">
+        <v>169980</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <f>DATE(2023,10,9)</f>
+        <v>45208</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>40762</v>
+      </c>
+      <c r="D509">
+        <v>550</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+      <c r="F509">
+        <v>4510</v>
+      </c>
+      <c r="G509">
+        <v>169139</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <f>DATE(2023,10,6)</f>
+        <v>45205</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+      <c r="C510">
+        <v>40523</v>
+      </c>
+      <c r="D510">
+        <v>250</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>4510</v>
+      </c>
+      <c r="G510">
+        <v>168284</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <f>DATE(2023,10,5)</f>
+        <v>45204</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>40394</v>
+      </c>
+      <c r="D511">
+        <v>250</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>4507</v>
+      </c>
+      <c r="G511">
+        <v>167196</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <f>DATE(2023,10,4)</f>
+        <v>45203</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>38999</v>
+      </c>
+      <c r="D512">
+        <v>250</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="F512">
+        <v>4508</v>
+      </c>
+      <c r="G512">
+        <v>167423</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <f>DATE(2023,10,3)</f>
+        <v>45202</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>38632</v>
+      </c>
+      <c r="D513">
+        <v>250</v>
+      </c>
+      <c r="E513">
+        <v>0</v>
+      </c>
+      <c r="F513">
+        <v>4428</v>
+      </c>
+      <c r="G513">
+        <v>166654</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <f>DATE(2023,10,2)</f>
+        <v>45201</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>38363</v>
+      </c>
+      <c r="D514">
+        <v>250</v>
+      </c>
+      <c r="E514">
+        <v>0</v>
+      </c>
+      <c r="F514">
+        <v>4427</v>
+      </c>
+      <c r="G514">
+        <v>165032</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <f>DATE(2023,9,29)</f>
+        <v>45198</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>38116</v>
+      </c>
+      <c r="D515">
+        <v>250</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>4422</v>
+      </c>
+      <c r="G515">
+        <v>164493</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <f>DATE(2023,9,28)</f>
+        <v>45197</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>38178</v>
+      </c>
+      <c r="D516">
+        <v>250</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>4424</v>
+      </c>
+      <c r="G516">
+        <v>164192</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <f>DATE(2023,9,27)</f>
+        <v>45196</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>38146</v>
+      </c>
+      <c r="D517">
+        <v>250</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>4476</v>
+      </c>
+      <c r="G517">
+        <v>163084</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <f>DATE(2023,9,26)</f>
+        <v>45195</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+      <c r="C518">
+        <v>37965</v>
+      </c>
+      <c r="D518">
+        <v>250</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>4471</v>
+      </c>
+      <c r="G518">
+        <v>161811</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <f>DATE(2023,9,25)</f>
+        <v>45194</v>
+      </c>
+      <c r="C519">
+        <v>37846</v>
+      </c>
+      <c r="D519">
+        <v>250</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>4477</v>
+      </c>
+      <c r="G519">
+        <v>161092</v>
       </c>
     </row>
   </sheetData>
@@ -12901,7 +19241,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13091,8 +19431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442243D9-4218-47E5-B1C6-11A6FD7776C5}">
   <dimension ref="A1:D519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA9F3D-375A-444E-AF08-4BAA8FFD60D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C52719-238D-4B06-9A3F-FECDB6919D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm\.dd\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\.dd\.yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1063,7 @@
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>79.31</v>
+        <v>79.319999999999993</v>
         <stp/>
         <stp>ECF 10!-ICN</stp>
         <stp>Bid</stp>
@@ -1077,7 +1077,7 @@
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>80.290000000000006</v>
+        <v>80.3</v>
         <stp/>
         <stp>ECF 12!-ICN</stp>
         <stp>Bid</stp>
@@ -1091,14 +1091,14 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>81.05</v>
+        <v>81.069999999999993</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>81.61</v>
+        <v>81.63</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
@@ -1343,7 +1343,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>333</v>
+        <v>343</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1799,8 +1799,8 @@
         <stp>Open Interest</stp>
         <tr r="I35" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>78.11</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Last</stp>
@@ -1821,7 +1821,7 @@
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>76.739999999999995</v>
+        <v>76.760000000000005</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Last</stp>
@@ -2037,8 +2037,8 @@
         <stp>High</stp>
         <tr r="D7" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>78.11</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>High</stp>
@@ -2855,21 +2855,21 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>78.31</v>
+        <v>78.33</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>78.77</v>
+        <v>78.78</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>77.77</v>
+        <v>77.790000000000006</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
@@ -2883,42 +2883,42 @@
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>78.11</v>
+        <v>78.13</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>76.739999999999995</v>
+        <v>76.760000000000005</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>77.260000000000005</v>
+        <v>77.28</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>76.47</v>
+        <v>76.489999999999995</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>76.61</v>
+        <v>76.63</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>76.33</v>
+        <v>76.349999999999994</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3428,8 +3428,8 @@
         <stp>High</stp>
         <tr r="D36" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>78.11</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Low</stp>
@@ -3541,7 +3541,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>2997</v>
+        <v>3018</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3562,7 +3562,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>630</v>
+        <v>635</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3576,14 +3576,14 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>24701</v>
+        <v>24951</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3806,15 +3806,15 @@
         <stp>Change</stp>
         <tr r="C7" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>0.51999999999999602</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Change</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>0.53000000000000114</v>
+        <v>0.55000000000001137</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Change</stp>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>76.33</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>76.47</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>76.61</v>
+        <v>76.63</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
@@ -5012,11 +5012,11 @@
       </c>
       <c r="B5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Last")</f>
-        <v>76.739999999999995</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="C5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Change")</f>
-        <v>0.53000000000000114</v>
+        <v>0.55000000000001137</v>
       </c>
       <c r="D5">
         <f>RTD("esrtd",,"ECF 4!-ICN","High")</f>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>76.739999999999995</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
-        <v>24701</v>
+        <v>24951</v>
       </c>
       <c r="I5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Open Interest")</f>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>77.260000000000005</v>
+        <v>77.28</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>77.77</v>
+        <v>77.790000000000006</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
@@ -5136,25 +5136,25 @@
         <f>RTD("esrtd",,"ECF 7!-ICN","Symbol")</f>
         <v>ECF 26Q-ICN</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C8" t="str">
+        <v>78.11</v>
+      </c>
+      <c r="C8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D8" t="str">
+        <v>0.51999999999999602</v>
+      </c>
+      <c r="D8">
         <f>RTD("esrtd",,"ECF 7!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>78.11</v>
+      </c>
+      <c r="E8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Low")</f>
-        <v/>
+        <v>78.11</v>
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>78.11</v>
+        <v>78.13</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Open Interest")</f>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>78.31</v>
+        <v>78.33</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>78.77</v>
+        <v>78.78</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
-        <v>2997</v>
+        <v>3018</v>
       </c>
       <c r="I10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Open Interest")</f>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Bid")</f>
-        <v>79.31</v>
+        <v>79.319999999999993</v>
       </c>
       <c r="G11">
         <f>RTD("esrtd",,"ECF 10!-ICN","Ask")</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Bid")</f>
-        <v>80.290000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="G13">
         <f>RTD("esrtd",,"ECF 12!-ICN","Ask")</f>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>81.05</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="I14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Open Interest")</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>81.61</v>
+        <v>81.63</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
@@ -7366,8 +7366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
   <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="M507" sqref="M507"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="H489" sqref="H489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19431,8 +19431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442243D9-4218-47E5-B1C6-11A6FD7776C5}">
   <dimension ref="A1:D519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EUA OI & forward.xlsx
+++ b/EUA OI & forward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D0903-5D76-4750-B2B4-4724ED382B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885D5360-0F0B-4F3D-B60E-359ADEE73A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B22DC3-2E15-4E6E-A8BA-B0C58ABA9AA9}"/>
   </bookViews>
@@ -876,8 +876,8 @@
         <stp>Symbol</stp>
         <tr r="A23" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>1.0000000000000009E-2</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Change</stp>
@@ -1017,7 +1017,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>81.489999999999995</v>
+        <v>81.59</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Ask</stp>
@@ -1031,21 +1031,21 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>80.78</v>
+        <v>80.88</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>82.18</v>
+        <v>82.28</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>85.34</v>
+        <v>85.44</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Ask</stp>
@@ -1073,7 +1073,7 @@
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>80.650000000000006</v>
+        <v>80.760000000000005</v>
         <stp/>
         <stp>ECF 11!-ICN</stp>
         <stp>Bid</stp>
@@ -1094,21 +1094,21 @@
         <tr r="J27" s="1"/>
       </tp>
       <tp>
-        <v>81.44</v>
+        <v>81.55</v>
         <stp/>
         <stp>ECF 13!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>82.04</v>
+        <v>82.15</v>
         <stp/>
         <stp>ECF 14!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F15" s="1"/>
       </tp>
       <tp>
-        <v>80.95</v>
+        <v>81.010000000000005</v>
         <stp/>
         <stp>ECF 15!-ICN</stp>
         <stp>Bid</stp>
@@ -1233,8 +1233,8 @@
         <stp>Cumulative Volume</stp>
         <tr r="H26" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Last</stp>
@@ -1520,8 +1520,8 @@
         <stp>Symbol</stp>
         <tr r="A27" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>High</stp>
@@ -1767,8 +1767,8 @@
         <stp>Low</stp>
         <tr r="E20" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
+      <tp>
+        <v>-0.53</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Low</stp>
@@ -1908,7 +1908,7 @@
         <tr r="I59" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>7</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -1978,7 +1978,7 @@
         <tr r="I39" s="1"/>
       </tp>
       <tp>
-        <v>77.150000000000006</v>
+        <v>77.28</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Last</stp>
@@ -2020,7 +2020,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>77.16</v>
+        <v>76.930000000000007</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Last</stp>
@@ -2139,7 +2139,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>-0.53</v>
+        <v>-0.52</v>
         <stp/>
         <stp>ECF 8!:ECF9!-ICN</stp>
         <stp>Ask</stp>
@@ -2641,7 +2641,7 @@
         <tr r="G28" s="1"/>
       </tp>
       <tp>
-        <v>1.18</v>
+        <v>1.23</v>
         <stp/>
         <stp>ECF 14!:ECF15!-ICN</stp>
         <stp>Ask</stp>
@@ -2760,63 +2760,63 @@
         <tr r="B26" s="1"/>
       </tp>
       <tp>
-        <v>77.73</v>
+        <v>77.83</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>78.28</v>
+        <v>78.38</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>78.599999999999994</v>
+        <v>78.69</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>78.81</v>
+        <v>78.91</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>76.959999999999994</v>
+        <v>77.05</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>77.09</v>
+        <v>77.19</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>77.19</v>
+        <v>77.290000000000006</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>79.22</v>
+        <v>79.319999999999993</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Ask</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>79.78</v>
+        <v>79.88</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Ask</stp>
@@ -2858,21 +2858,21 @@
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>79.17</v>
+        <v>79.28</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>79.69</v>
+        <v>79.8</v>
         <stp/>
         <stp>ECF 9!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>78.55</v>
+        <v>78.66</v>
         <stp/>
         <stp>ECF 6!-ICN</stp>
         <stp>Bid</stp>
@@ -2886,42 +2886,42 @@
         <tr r="B14" s="1"/>
       </tp>
       <tp>
-        <v>78.72</v>
+        <v>78.83</v>
         <stp/>
         <stp>ECF 7!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>77.69</v>
+        <v>77.8</v>
         <stp/>
         <stp>ECF 4!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>78.2</v>
+        <v>78.31</v>
         <stp/>
         <stp>ECF 5!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>77.040000000000006</v>
+        <v>77.150000000000006</v>
         <stp/>
         <stp>ECF 2!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>77.16</v>
+        <v>77.27</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Bid</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>76.92</v>
+        <v>77.010000000000005</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Bid</stp>
@@ -3348,7 +3348,7 @@
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>76.98</v>
+        <v>76.930000000000007</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Low</stp>
@@ -3537,7 +3537,7 @@
         <tr r="E55" s="1"/>
       </tp>
       <tp>
-        <v>758</v>
+        <v>790</v>
         <stp/>
         <stp>ECF 8!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3558,14 +3558,14 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>6296</v>
+        <v>6678</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Cumulative Volume</stp>
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>38</v>
+        <v>58</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Cumulative Volume</stp>
@@ -3789,14 +3789,14 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>-0.96999999999999886</v>
+        <v>-0.84000000000000341</v>
         <stp/>
         <stp>ECF 3!-ICN</stp>
         <stp>Change</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>-0.71000000000000796</v>
+        <v>-0.93999999999999773</v>
         <stp/>
         <stp>ECF 1!-ICN</stp>
         <stp>Change</stp>
@@ -4889,11 +4889,11 @@
       </c>
       <c r="B2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Last")</f>
-        <v>77.16</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="C2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Change")</f>
-        <v>-0.71000000000000796</v>
+        <v>-0.93999999999999773</v>
       </c>
       <c r="D2">
         <f>RTD("esrtd",,"ECF 1!-ICN","High")</f>
@@ -4901,19 +4901,19 @@
       </c>
       <c r="E2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Low")</f>
-        <v>76.98</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="F2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Bid")</f>
-        <v>76.92</v>
+        <v>77.010000000000005</v>
       </c>
       <c r="G2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Ask")</f>
-        <v>76.959999999999994</v>
+        <v>77.05</v>
       </c>
       <c r="H2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Cumulative Volume")</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <f>RTD("esrtd",,"ECF 1!-ICN","Open Interest")</f>
@@ -4947,11 +4947,11 @@
       </c>
       <c r="F3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Bid")</f>
-        <v>77.040000000000006</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="G3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Ask")</f>
-        <v>77.09</v>
+        <v>77.19</v>
       </c>
       <c r="H3">
         <f>RTD("esrtd",,"ECF 2!-ICN","Cumulative Volume")</f>
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Last")</f>
-        <v>77.150000000000006</v>
+        <v>77.28</v>
       </c>
       <c r="C4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Change")</f>
-        <v>-0.96999999999999886</v>
+        <v>-0.84000000000000341</v>
       </c>
       <c r="D4">
         <f>RTD("esrtd",,"ECF 3!-ICN","High")</f>
@@ -4989,15 +4989,15 @@
       </c>
       <c r="F4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Bid")</f>
-        <v>77.16</v>
+        <v>77.27</v>
       </c>
       <c r="G4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Ask")</f>
-        <v>77.19</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="H4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Cumulative Volume")</f>
-        <v>6296</v>
+        <v>6678</v>
       </c>
       <c r="I4">
         <f>RTD("esrtd",,"ECF 3!-ICN","Open Interest")</f>
@@ -5031,11 +5031,11 @@
       </c>
       <c r="F5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Bid")</f>
-        <v>77.69</v>
+        <v>77.8</v>
       </c>
       <c r="G5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Ask")</f>
-        <v>77.73</v>
+        <v>77.83</v>
       </c>
       <c r="H5">
         <f>RTD("esrtd",,"ECF 4!-ICN","Cumulative Volume")</f>
@@ -5073,11 +5073,11 @@
       </c>
       <c r="F6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Bid")</f>
-        <v>78.2</v>
+        <v>78.31</v>
       </c>
       <c r="G6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Ask")</f>
-        <v>78.28</v>
+        <v>78.38</v>
       </c>
       <c r="H6">
         <f>RTD("esrtd",,"ECF 5!-ICN","Cumulative Volume")</f>
@@ -5115,11 +5115,11 @@
       </c>
       <c r="F7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Bid")</f>
-        <v>78.55</v>
+        <v>78.66</v>
       </c>
       <c r="G7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Ask")</f>
-        <v>78.599999999999994</v>
+        <v>78.69</v>
       </c>
       <c r="H7">
         <f>RTD("esrtd",,"ECF 6!-ICN","Cumulative Volume")</f>
@@ -5157,11 +5157,11 @@
       </c>
       <c r="F8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Bid")</f>
-        <v>78.72</v>
+        <v>78.83</v>
       </c>
       <c r="G8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Ask")</f>
-        <v>78.81</v>
+        <v>78.91</v>
       </c>
       <c r="H8">
         <f>RTD("esrtd",,"ECF 7!-ICN","Cumulative Volume")</f>
@@ -5199,15 +5199,15 @@
       </c>
       <c r="F9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Bid")</f>
-        <v>79.17</v>
+        <v>79.28</v>
       </c>
       <c r="G9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Ask")</f>
-        <v>79.22</v>
+        <v>79.319999999999993</v>
       </c>
       <c r="H9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Cumulative Volume")</f>
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="I9">
         <f>RTD("esrtd",,"ECF 8!-ICN","Open Interest")</f>
@@ -5241,11 +5241,11 @@
       </c>
       <c r="F10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Bid")</f>
-        <v>79.69</v>
+        <v>79.8</v>
       </c>
       <c r="G10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Ask")</f>
-        <v>79.78</v>
+        <v>79.88</v>
       </c>
       <c r="H10">
         <f>RTD("esrtd",,"ECF 9!-ICN","Cumulative Volume")</f>
@@ -5325,11 +5325,11 @@
       </c>
       <c r="F12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Bid")</f>
-        <v>80.650000000000006</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Ask")</f>
-        <v>80.78</v>
+        <v>80.88</v>
       </c>
       <c r="H12">
         <f>RTD("esrtd",,"ECF 11!-ICN","Cumulative Volume")</f>
@@ -5409,11 +5409,11 @@
       </c>
       <c r="F14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Bid")</f>
-        <v>81.44</v>
+        <v>81.55</v>
       </c>
       <c r="G14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Ask")</f>
-        <v>81.489999999999995</v>
+        <v>81.59</v>
       </c>
       <c r="H14">
         <f>RTD("esrtd",,"ECF 13!-ICN","Cumulative Volume")</f>
@@ -5451,11 +5451,11 @@
       </c>
       <c r="F15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Bid")</f>
-        <v>82.04</v>
+        <v>82.15</v>
       </c>
       <c r="G15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Ask")</f>
-        <v>82.18</v>
+        <v>82.28</v>
       </c>
       <c r="H15">
         <f>RTD("esrtd",,"ECF 14!-ICN","Cumulative Volume")</f>
@@ -5493,11 +5493,11 @@
       </c>
       <c r="F16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Bid")</f>
-        <v>80.95</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="G16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Ask")</f>
-        <v>85.34</v>
+        <v>85.44</v>
       </c>
       <c r="H16">
         <f>RTD("esrtd",,"ECF 15!-ICN","Cumulative Volume")</f>
@@ -5811,21 +5811,21 @@
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Symbol")</f>
         <v>ECF 26Z:ECF27H-ICN</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Last")</f>
-        <v/>
-      </c>
-      <c r="C24" t="str">
+        <v>-0.53</v>
+      </c>
+      <c r="C24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Change")</f>
-        <v/>
-      </c>
-      <c r="D24" t="str">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","High")</f>
-        <v/>
-      </c>
-      <c r="E24" t="str">
+        <v>-0.53</v>
+      </c>
+      <c r="E24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Low")</f>
-        <v/>
+        <v>-0.53</v>
       </c>
       <c r="F24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Bid")</f>
@@ -5833,11 +5833,11 @@
       </c>
       <c r="G24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Ask")</f>
-        <v>-0.53</v>
+        <v>-0.52</v>
       </c>
       <c r="H24">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Cumulative Volume")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" t="str">
         <f>RTD("esrtd",,"ECF 8!:ECF9!-ICN","Open Interest")</f>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="G29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Ask")</f>
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="H29">
         <f>RTD("esrtd",,"ECF 14!:ECF15!-ICN","Cumulative Volume")</f>
@@ -7367,10 +7367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053F4F31-6B9E-4045-873B-79C91B1C2E5F}">
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="P294" sqref="P294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11796,83 +11796,83 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <f>DATE(2024,12,25)</f>
-        <v>45651</v>
+        <f>DATE(2024,12,24)</f>
+        <v>45650</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>294548</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>13728</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>9023</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>71630</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <f>DATE(2024,12,24)</f>
-        <v>45650</v>
+        <f>DATE(2024,12,23)</f>
+        <v>45649</v>
       </c>
       <c r="B212">
-        <v>294548</v>
+        <v>295328</v>
       </c>
       <c r="C212">
-        <v>13728</v>
+        <v>13078</v>
       </c>
       <c r="D212">
         <v>9023</v>
       </c>
       <c r="E212">
-        <v>71630</v>
+        <v>71607</v>
       </c>
       <c r="F212">
-        <v>7841</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <f>DATE(2024,12,23)</f>
-        <v>45649</v>
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
       </c>
       <c r="B213">
-        <v>295328</v>
+        <v>295576</v>
       </c>
       <c r="C213">
-        <v>13078</v>
+        <v>12928</v>
       </c>
       <c r="D213">
         <v>9023</v>
       </c>
       <c r="E213">
-        <v>71607</v>
+        <v>71234</v>
       </c>
       <c r="F213">
-        <v>7838</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2024,12,19)</f>
+        <v>45645</v>
       </c>
       <c r="B214">
-        <v>295576</v>
+        <v>297267</v>
       </c>
       <c r="C214">
-        <v>12928</v>
+        <v>12825</v>
       </c>
       <c r="D214">
         <v>9023</v>
       </c>
       <c r="E214">
-        <v>71234</v>
+        <v>71235</v>
       </c>
       <c r="F214">
         <v>7826</v>
@@ -11880,32 +11880,32 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <f>DATE(2024,12,19)</f>
-        <v>45645</v>
+        <f>DATE(2024,12,18)</f>
+        <v>45644</v>
       </c>
       <c r="B215">
-        <v>297267</v>
+        <v>301001</v>
       </c>
       <c r="C215">
-        <v>12825</v>
+        <v>11878</v>
       </c>
       <c r="D215">
-        <v>9023</v>
+        <v>6745</v>
       </c>
       <c r="E215">
-        <v>71235</v>
+        <v>70647</v>
       </c>
       <c r="F215">
-        <v>7826</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <f>DATE(2024,12,18)</f>
-        <v>45644</v>
+        <f>DATE(2024,12,17)</f>
+        <v>45643</v>
       </c>
       <c r="B216">
-        <v>301001</v>
+        <v>298481</v>
       </c>
       <c r="C216">
         <v>11878</v>
@@ -11914,139 +11914,142 @@
         <v>6745</v>
       </c>
       <c r="E216">
-        <v>70647</v>
+        <v>70240</v>
       </c>
       <c r="F216">
-        <v>7833</v>
+        <v>7801</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <f>DATE(2024,12,17)</f>
-        <v>45643</v>
+        <f>DATE(2024,12,16)</f>
+        <v>45642</v>
       </c>
       <c r="B217">
-        <v>298481</v>
+        <v>294651</v>
       </c>
       <c r="C217">
-        <v>11878</v>
+        <v>11550</v>
       </c>
       <c r="D217">
         <v>6745</v>
       </c>
       <c r="E217">
-        <v>70240</v>
+        <v>69820</v>
       </c>
       <c r="F217">
-        <v>7801</v>
+        <v>7919</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>236119</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <f>DATE(2024,12,16)</f>
-        <v>45642</v>
+        <f>DATE(2024,12,13)</f>
+        <v>45639</v>
       </c>
       <c r="B218">
-        <v>294651</v>
+        <v>293743</v>
       </c>
       <c r="C218">
-        <v>11550</v>
+        <v>11552</v>
       </c>
       <c r="D218">
         <v>6745</v>
       </c>
       <c r="E218">
-        <v>69820</v>
+        <v>69282</v>
       </c>
       <c r="F218">
-        <v>7919</v>
+        <v>7728</v>
       </c>
       <c r="G218">
-        <v>236119</v>
+        <v>238631</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <f>DATE(2024,12,13)</f>
-        <v>45639</v>
+        <f>DATE(2024,12,12)</f>
+        <v>45638</v>
       </c>
       <c r="B219">
-        <v>293743</v>
+        <v>288113</v>
       </c>
       <c r="C219">
-        <v>11552</v>
+        <v>11508</v>
       </c>
       <c r="D219">
         <v>6745</v>
       </c>
       <c r="E219">
-        <v>69282</v>
+        <v>69248</v>
       </c>
       <c r="F219">
-        <v>7728</v>
+        <v>7699</v>
       </c>
       <c r="G219">
-        <v>238631</v>
+        <v>244224</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <f>DATE(2024,12,12)</f>
-        <v>45638</v>
+        <f>DATE(2024,12,11)</f>
+        <v>45637</v>
       </c>
       <c r="B220">
-        <v>288113</v>
+        <v>283521</v>
       </c>
       <c r="C220">
-        <v>11508</v>
+        <v>11465</v>
       </c>
       <c r="D220">
         <v>6745</v>
       </c>
       <c r="E220">
-        <v>69248</v>
+        <v>68433</v>
       </c>
       <c r="F220">
-        <v>7699</v>
+        <v>7606</v>
       </c>
       <c r="G220">
-        <v>244224</v>
+        <v>250883</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <f>DATE(2024,12,11)</f>
-        <v>45637</v>
+        <f>DATE(2024,12,10)</f>
+        <v>45636</v>
       </c>
       <c r="B221">
-        <v>283521</v>
+        <v>278267</v>
       </c>
       <c r="C221">
-        <v>11465</v>
+        <v>11221</v>
       </c>
       <c r="D221">
         <v>6745</v>
       </c>
       <c r="E221">
-        <v>68433</v>
+        <v>68330</v>
       </c>
       <c r="F221">
-        <v>7606</v>
+        <v>7551</v>
       </c>
       <c r="G221">
-        <v>250883</v>
+        <v>272021</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <f>DATE(2024,12,10)</f>
-        <v>45636</v>
+        <f>DATE(2024,12,9)</f>
+        <v>45635</v>
       </c>
       <c r="B222">
-        <v>278267</v>
+        <v>271912</v>
       </c>
       <c r="C222">
         <v>11221</v>
@@ -12055,94 +12058,94 @@
         <v>6745</v>
       </c>
       <c r="E222">
-        <v>68330</v>
+        <v>67798</v>
       </c>
       <c r="F222">
-        <v>7551</v>
+        <v>7476</v>
       </c>
       <c r="G222">
-        <v>272021</v>
+        <v>282208</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <f>DATE(2024,12,9)</f>
-        <v>45635</v>
+        <f>DATE(2024,12,6)</f>
+        <v>45632</v>
       </c>
       <c r="B223">
-        <v>271912</v>
+        <v>262513</v>
       </c>
       <c r="C223">
-        <v>11221</v>
+        <v>11153</v>
       </c>
       <c r="D223">
         <v>6745</v>
       </c>
       <c r="E223">
-        <v>67798</v>
+        <v>67781</v>
       </c>
       <c r="F223">
-        <v>7476</v>
+        <v>7241</v>
       </c>
       <c r="G223">
-        <v>282208</v>
+        <v>309974</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <f>DATE(2024,12,6)</f>
-        <v>45632</v>
+        <f>DATE(2024,12,5)</f>
+        <v>45631</v>
       </c>
       <c r="B224">
-        <v>262513</v>
+        <v>259235</v>
       </c>
       <c r="C224">
-        <v>11153</v>
+        <v>11112</v>
       </c>
       <c r="D224">
         <v>6745</v>
       </c>
       <c r="E224">
-        <v>67781</v>
+        <v>67474</v>
       </c>
       <c r="F224">
-        <v>7241</v>
+        <v>7205</v>
       </c>
       <c r="G224">
-        <v>309974</v>
+        <v>316854</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <f>DATE(2024,12,5)</f>
-        <v>45631</v>
+        <f>DATE(2024,12,4)</f>
+        <v>45630</v>
       </c>
       <c r="B225">
-        <v>259235</v>
+        <v>254567</v>
       </c>
       <c r="C225">
-        <v>11112</v>
+        <v>10602</v>
       </c>
       <c r="D225">
         <v>6745</v>
       </c>
       <c r="E225">
-        <v>67474</v>
+        <v>67195</v>
       </c>
       <c r="F225">
-        <v>7205</v>
+        <v>7202</v>
       </c>
       <c r="G225">
-        <v>316854</v>
+        <v>317900</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <f>DATE(2024,12,4)</f>
-        <v>45630</v>
+        <f>DATE(2024,12,3)</f>
+        <v>45629</v>
       </c>
       <c r="B226">
-        <v>254567</v>
+        <v>250176</v>
       </c>
       <c r="C226">
         <v>10602</v>
@@ -12151,118 +12154,118 @@
         <v>6745</v>
       </c>
       <c r="E226">
-        <v>67195</v>
+        <v>66414</v>
       </c>
       <c r="F226">
-        <v>7202</v>
+        <v>7129</v>
       </c>
       <c r="G226">
-        <v>317900</v>
+        <v>323554</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <f>DATE(2024,12,3)</f>
-        <v>45629</v>
+        <f>DATE(2024,12,2)</f>
+        <v>45628</v>
       </c>
       <c r="B227">
-        <v>250176</v>
+        <v>247746</v>
       </c>
       <c r="C227">
-        <v>10602</v>
+        <v>10565</v>
       </c>
       <c r="D227">
         <v>6745</v>
       </c>
       <c r="E227">
-        <v>66414</v>
+        <v>64844</v>
       </c>
       <c r="F227">
-        <v>7129</v>
+        <v>7623</v>
       </c>
       <c r="G227">
-        <v>323554</v>
+        <v>329030</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <f>DATE(2024,12,2)</f>
-        <v>45628</v>
+        <f>DATE(2024,11,29)</f>
+        <v>45625</v>
       </c>
       <c r="B228">
-        <v>247746</v>
+        <v>246043</v>
       </c>
       <c r="C228">
-        <v>10565</v>
+        <v>10529</v>
       </c>
       <c r="D228">
         <v>6745</v>
       </c>
       <c r="E228">
-        <v>64844</v>
+        <v>64045</v>
       </c>
       <c r="F228">
-        <v>7623</v>
+        <v>7656</v>
       </c>
       <c r="G228">
-        <v>329030</v>
+        <v>332063</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <f>DATE(2024,11,29)</f>
-        <v>45625</v>
+        <f>DATE(2024,11,28)</f>
+        <v>45624</v>
       </c>
       <c r="B229">
-        <v>246043</v>
+        <v>244430</v>
       </c>
       <c r="C229">
-        <v>10529</v>
+        <v>10469</v>
       </c>
       <c r="D229">
         <v>6745</v>
       </c>
       <c r="E229">
-        <v>64045</v>
+        <v>63744</v>
       </c>
       <c r="F229">
-        <v>7656</v>
+        <v>7463</v>
       </c>
       <c r="G229">
-        <v>332063</v>
+        <v>332902</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <f>DATE(2024,11,28)</f>
-        <v>45624</v>
+        <f>DATE(2024,11,27)</f>
+        <v>45623</v>
       </c>
       <c r="B230">
-        <v>244430</v>
+        <v>243229</v>
       </c>
       <c r="C230">
-        <v>10469</v>
+        <v>10465</v>
       </c>
       <c r="D230">
-        <v>6745</v>
+        <v>6695</v>
       </c>
       <c r="E230">
-        <v>63744</v>
+        <v>62851</v>
       </c>
       <c r="F230">
-        <v>7463</v>
+        <v>7140</v>
       </c>
       <c r="G230">
-        <v>332902</v>
+        <v>334774</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <f>DATE(2024,11,27)</f>
-        <v>45623</v>
+        <f>DATE(2024,11,26)</f>
+        <v>45622</v>
       </c>
       <c r="B231">
-        <v>243229</v>
+        <v>241479</v>
       </c>
       <c r="C231">
         <v>10465</v>
@@ -12271,46 +12274,46 @@
         <v>6695</v>
       </c>
       <c r="E231">
-        <v>62851</v>
+        <v>62679</v>
       </c>
       <c r="F231">
-        <v>7140</v>
+        <v>7118</v>
       </c>
       <c r="G231">
-        <v>334774</v>
+        <v>339732</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <f>DATE(2024,11,26)</f>
-        <v>45622</v>
+        <f>DATE(2024,11,25)</f>
+        <v>45621</v>
       </c>
       <c r="B232">
-        <v>241479</v>
+        <v>237969</v>
       </c>
       <c r="C232">
         <v>10465</v>
       </c>
       <c r="D232">
-        <v>6695</v>
+        <v>6595</v>
       </c>
       <c r="E232">
-        <v>62679</v>
+        <v>62260</v>
       </c>
       <c r="F232">
-        <v>7118</v>
+        <v>7130</v>
       </c>
       <c r="G232">
-        <v>339732</v>
+        <v>346078</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <f>DATE(2024,11,25)</f>
-        <v>45621</v>
+        <f>DATE(2024,11,22)</f>
+        <v>45618</v>
       </c>
       <c r="B233">
-        <v>237969</v>
+        <v>241559</v>
       </c>
       <c r="C233">
         <v>10465</v>
@@ -12319,22 +12322,22 @@
         <v>6595</v>
       </c>
       <c r="E233">
-        <v>62260</v>
+        <v>62018</v>
       </c>
       <c r="F233">
-        <v>7130</v>
+        <v>7116</v>
       </c>
       <c r="G233">
-        <v>346078</v>
+        <v>349180</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <f>DATE(2024,11,22)</f>
-        <v>45618</v>
+        <f>DATE(2024,11,21)</f>
+        <v>45617</v>
       </c>
       <c r="B234">
-        <v>241559</v>
+        <v>240880</v>
       </c>
       <c r="C234">
         <v>10465</v>
@@ -12343,94 +12346,94 @@
         <v>6595</v>
       </c>
       <c r="E234">
-        <v>62018</v>
+        <v>60231</v>
       </c>
       <c r="F234">
-        <v>7116</v>
+        <v>7131</v>
       </c>
       <c r="G234">
-        <v>349180</v>
+        <v>359378</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <f>DATE(2024,11,21)</f>
-        <v>45617</v>
+        <f>DATE(2024,11,20)</f>
+        <v>45616</v>
       </c>
       <c r="B235">
-        <v>240880</v>
+        <v>242718</v>
       </c>
       <c r="C235">
-        <v>10465</v>
+        <v>10410</v>
       </c>
       <c r="D235">
-        <v>6595</v>
+        <v>6245</v>
       </c>
       <c r="E235">
-        <v>60231</v>
+        <v>59530</v>
       </c>
       <c r="F235">
-        <v>7131</v>
+        <v>7022</v>
       </c>
       <c r="G235">
-        <v>359378</v>
+        <v>363160</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <f>DATE(2024,11,20)</f>
-        <v>45616</v>
+        <f>DATE(2024,11,19)</f>
+        <v>45615</v>
       </c>
       <c r="B236">
-        <v>242718</v>
+        <v>242146</v>
       </c>
       <c r="C236">
         <v>10410</v>
       </c>
       <c r="D236">
-        <v>6245</v>
+        <v>6238</v>
       </c>
       <c r="E236">
-        <v>59530</v>
+        <v>59300</v>
       </c>
       <c r="F236">
-        <v>7022</v>
+        <v>6602</v>
       </c>
       <c r="G236">
-        <v>363160</v>
+        <v>363424</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <f>DATE(2024,11,19)</f>
-        <v>45615</v>
+        <f>DATE(2024,11,18)</f>
+        <v>45614</v>
       </c>
       <c r="B237">
-        <v>242146</v>
+        <v>240186</v>
       </c>
       <c r="C237">
-        <v>10410</v>
+        <v>9470</v>
       </c>
       <c r="D237">
         <v>6238</v>
       </c>
       <c r="E237">
-        <v>59300</v>
+        <v>58316</v>
       </c>
       <c r="F237">
-        <v>6602</v>
+        <v>6592</v>
       </c>
       <c r="G237">
-        <v>363424</v>
+        <v>368896</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <f>DATE(2024,11,18)</f>
-        <v>45614</v>
+        <f>DATE(2024,11,15)</f>
+        <v>45611</v>
       </c>
       <c r="B238">
-        <v>240186</v>
+        <v>240124</v>
       </c>
       <c r="C238">
         <v>9470</v>
@@ -12439,46 +12442,46 @@
         <v>6238</v>
       </c>
       <c r="E238">
-        <v>58316</v>
+        <v>58006</v>
       </c>
       <c r="F238">
-        <v>6592</v>
+        <v>6588</v>
       </c>
       <c r="G238">
-        <v>368896</v>
+        <v>367017</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <f>DATE(2024,11,15)</f>
-        <v>45611</v>
+        <f>DATE(2024,11,14)</f>
+        <v>45610</v>
       </c>
       <c r="B239">
-        <v>240124</v>
+        <v>239097</v>
       </c>
       <c r="C239">
-        <v>9470</v>
+        <v>9474</v>
       </c>
       <c r="D239">
         <v>6238</v>
       </c>
       <c r="E239">
-        <v>58006</v>
+        <v>57910</v>
       </c>
       <c r="F239">
-        <v>6588</v>
+        <v>6591</v>
       </c>
       <c r="G239">
-        <v>367017</v>
+        <v>370048</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <f>DATE(2024,11,14)</f>
-        <v>45610</v>
+        <f>DATE(2024,11,13)</f>
+        <v>45609</v>
       </c>
       <c r="B240">
-        <v>239097</v>
+        <v>236767</v>
       </c>
       <c r="C240">
         <v>9474</v>
@@ -12487,46 +12490,46 @@
         <v>6238</v>
       </c>
       <c r="E240">
-        <v>57910</v>
+        <v>56984</v>
       </c>
       <c r="F240">
         <v>6591</v>
       </c>
       <c r="G240">
-        <v>370048</v>
+        <v>371081</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <f>DATE(2024,11,13)</f>
-        <v>45609</v>
+        <f>DATE(2024,11,12)</f>
+        <v>45608</v>
       </c>
       <c r="B241">
-        <v>236767</v>
+        <v>237379</v>
       </c>
       <c r="C241">
-        <v>9474</v>
+        <v>9469</v>
       </c>
       <c r="D241">
-        <v>6238</v>
+        <v>6208</v>
       </c>
       <c r="E241">
-        <v>56984</v>
+        <v>56896</v>
       </c>
       <c r="F241">
-        <v>6591</v>
+        <v>6744</v>
       </c>
       <c r="G241">
-        <v>371081</v>
+        <v>377282</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <f>DATE(2024,11,12)</f>
-        <v>45608</v>
+        <f>DATE(2024,11,11)</f>
+        <v>45607</v>
       </c>
       <c r="B242">
-        <v>237379</v>
+        <v>236910</v>
       </c>
       <c r="C242">
         <v>9469</v>
@@ -12535,118 +12538,118 @@
         <v>6208</v>
       </c>
       <c r="E242">
-        <v>56896</v>
+        <v>56929</v>
       </c>
       <c r="F242">
-        <v>6744</v>
+        <v>6755</v>
       </c>
       <c r="G242">
-        <v>377282</v>
+        <v>379654</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <f>DATE(2024,11,11)</f>
-        <v>45607</v>
+        <f>DATE(2024,11,8)</f>
+        <v>45604</v>
       </c>
       <c r="B243">
-        <v>236910</v>
+        <v>235001</v>
       </c>
       <c r="C243">
-        <v>9469</v>
+        <v>9519</v>
       </c>
       <c r="D243">
         <v>6208</v>
       </c>
       <c r="E243">
-        <v>56929</v>
+        <v>56515</v>
       </c>
       <c r="F243">
         <v>6755</v>
       </c>
       <c r="G243">
-        <v>379654</v>
+        <v>377527</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <f>DATE(2024,11,8)</f>
-        <v>45604</v>
+        <f>DATE(2024,11,7)</f>
+        <v>45603</v>
       </c>
       <c r="B244">
-        <v>235001</v>
+        <v>231619</v>
       </c>
       <c r="C244">
-        <v>9519</v>
+        <v>9619</v>
       </c>
       <c r="D244">
         <v>6208</v>
       </c>
       <c r="E244">
-        <v>56515</v>
+        <v>56072</v>
       </c>
       <c r="F244">
-        <v>6755</v>
+        <v>6692</v>
       </c>
       <c r="G244">
-        <v>377527</v>
+        <v>377881</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <f>DATE(2024,11,7)</f>
-        <v>45603</v>
+        <f>DATE(2024,11,6)</f>
+        <v>45602</v>
       </c>
       <c r="B245">
-        <v>231619</v>
+        <v>230601</v>
       </c>
       <c r="C245">
-        <v>9619</v>
+        <v>9690</v>
       </c>
       <c r="D245">
-        <v>6208</v>
+        <v>6108</v>
       </c>
       <c r="E245">
-        <v>56072</v>
+        <v>55998</v>
       </c>
       <c r="F245">
-        <v>6692</v>
+        <v>6708</v>
       </c>
       <c r="G245">
-        <v>377881</v>
+        <v>380268</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <f>DATE(2024,11,6)</f>
-        <v>45602</v>
+        <f>DATE(2024,11,5)</f>
+        <v>45601</v>
       </c>
       <c r="B246">
-        <v>230601</v>
+        <v>230374</v>
       </c>
       <c r="C246">
-        <v>9690</v>
+        <v>9677</v>
       </c>
       <c r="D246">
-        <v>6108</v>
+        <v>5923</v>
       </c>
       <c r="E246">
-        <v>55998</v>
+        <v>54727</v>
       </c>
       <c r="F246">
-        <v>6708</v>
+        <v>6556</v>
       </c>
       <c r="G246">
-        <v>380268</v>
+        <v>380625</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <f>DATE(2024,11,5)</f>
-        <v>45601</v>
+        <f>DATE(2024,11,4)</f>
+        <v>45600</v>
       </c>
       <c r="B247">
-        <v>230374</v>
+        <v>229045</v>
       </c>
       <c r="C247">
         <v>9677</v>
@@ -12655,46 +12658,46 @@
         <v>5923</v>
       </c>
       <c r="E247">
-        <v>54727</v>
+        <v>54404</v>
       </c>
       <c r="F247">
-        <v>6556</v>
+        <v>6199</v>
       </c>
       <c r="G247">
-        <v>380625</v>
+        <v>380345</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <f>DATE(2024,11,4)</f>
-        <v>45600</v>
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
       </c>
       <c r="B248">
-        <v>229045</v>
+        <v>227307</v>
       </c>
       <c r="C248">
-        <v>9677</v>
+        <v>9567</v>
       </c>
       <c r="D248">
         <v>5923</v>
       </c>
       <c r="E248">
-        <v>54404</v>
+        <v>54456</v>
       </c>
       <c r="F248">
-        <v>6199</v>
+        <v>6084</v>
       </c>
       <c r="G248">
-        <v>380345</v>
+        <v>380760</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <f>DATE(2024,11,1)</f>
-        <v>45597</v>
+        <f>DATE(2024,10,31)</f>
+        <v>45596</v>
       </c>
       <c r="B249">
-        <v>227307</v>
+        <v>227231</v>
       </c>
       <c r="C249">
         <v>9567</v>
@@ -12703,70 +12706,70 @@
         <v>5923</v>
       </c>
       <c r="E249">
-        <v>54456</v>
+        <v>53878</v>
       </c>
       <c r="F249">
-        <v>6084</v>
+        <v>6135</v>
       </c>
       <c r="G249">
-        <v>380760</v>
+        <v>381074</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <f>DATE(2024,10,31)</f>
-        <v>45596</v>
+        <f>DATE(2024,10,30)</f>
+        <v>45595</v>
       </c>
       <c r="B250">
-        <v>227231</v>
+        <v>226655</v>
       </c>
       <c r="C250">
-        <v>9567</v>
+        <v>9547</v>
       </c>
       <c r="D250">
         <v>5923</v>
       </c>
       <c r="E250">
-        <v>53878</v>
+        <v>53986</v>
       </c>
       <c r="F250">
-        <v>6135</v>
+        <v>6032</v>
       </c>
       <c r="G250">
-        <v>381074</v>
+        <v>377423</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <f>DATE(2024,10,30)</f>
-        <v>45595</v>
+        <f>DATE(2024,10,29)</f>
+        <v>45594</v>
       </c>
       <c r="B251">
-        <v>226655</v>
+        <v>226326</v>
       </c>
       <c r="C251">
-        <v>9547</v>
+        <v>9540</v>
       </c>
       <c r="D251">
         <v>5923</v>
       </c>
       <c r="E251">
-        <v>53986</v>
+        <v>53441</v>
       </c>
       <c r="F251">
-        <v>6032</v>
+        <v>5932</v>
       </c>
       <c r="G251">
-        <v>377423</v>
+        <v>379961</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <f>DATE(2024,10,29)</f>
-        <v>45594</v>
+        <f>DATE(2024,10,28)</f>
+        <v>45593</v>
       </c>
       <c r="B252">
-        <v>226326</v>
+        <v>225848</v>
       </c>
       <c r="C252">
         <v>9540</v>
@@ -12775,22 +12778,22 @@
         <v>5923</v>
       </c>
       <c r="E252">
-        <v>53441</v>
+        <v>52683</v>
       </c>
       <c r="F252">
-        <v>5932</v>
+        <v>5929</v>
       </c>
       <c r="G252">
-        <v>379961</v>
+        <v>383677</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <f>DATE(2024,10,28)</f>
-        <v>45593</v>
+        <f>DATE(2024,10,25)</f>
+        <v>45590</v>
       </c>
       <c r="B253">
-        <v>225848</v>
+        <v>225509</v>
       </c>
       <c r="C253">
         <v>9540</v>
@@ -12799,22 +12802,22 @@
         <v>5923</v>
       </c>
       <c r="E253">
-        <v>52683</v>
+        <v>52453</v>
       </c>
       <c r="F253">
         <v>5929</v>
       </c>
       <c r="G253">
-        <v>383677</v>
+        <v>385602</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <f>DATE(2024,10,25)</f>
-        <v>45590</v>
+        <f>DATE(2024,10,24)</f>
+        <v>45589</v>
       </c>
       <c r="B254">
-        <v>225509</v>
+        <v>227510</v>
       </c>
       <c r="C254">
         <v>9540</v>
@@ -12823,22 +12826,22 @@
         <v>5923</v>
       </c>
       <c r="E254">
-        <v>52453</v>
+        <v>51188</v>
       </c>
       <c r="F254">
-        <v>5929</v>
+        <v>5940</v>
       </c>
       <c r="G254">
-        <v>385602</v>
+        <v>389085</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <f>DATE(2024,10,24)</f>
-        <v>45589</v>
+        <f>DATE(2024,10,23)</f>
+        <v>45588</v>
       </c>
       <c r="B255">
-        <v>227510</v>
+        <v>226876</v>
       </c>
       <c r="C255">
         <v>9540</v>
@@ -12847,22 +12850,22 @@
         <v>5923</v>
       </c>
       <c r="E255">
-        <v>51188</v>
+        <v>51133</v>
       </c>
       <c r="F255">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="G255">
-        <v>389085</v>
+        <v>389968</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <f>DATE(2024,10,23)</f>
-        <v>45588</v>
+        <f>DATE(2024,10,22)</f>
+        <v>45587</v>
       </c>
       <c r="B256">
-        <v>226876</v>
+        <v>227039</v>
       </c>
       <c r="C256">
         <v>9540</v>
@@ -12871,70 +12874,70 @@
         <v>5923</v>
       </c>
       <c r="E256">
-        <v>51133</v>
+        <v>51049</v>
       </c>
       <c r="F256">
-        <v>5939</v>
+        <v>6093</v>
       </c>
       <c r="G256">
-        <v>389968</v>
+        <v>391398</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <f>DATE(2024,10,22)</f>
-        <v>45587</v>
+        <f>DATE(2024,10,21)</f>
+        <v>45586</v>
       </c>
       <c r="B257">
-        <v>227039</v>
+        <v>225342</v>
       </c>
       <c r="C257">
-        <v>9540</v>
+        <v>9536</v>
       </c>
       <c r="D257">
         <v>5923</v>
       </c>
       <c r="E257">
-        <v>51049</v>
+        <v>51091</v>
       </c>
       <c r="F257">
-        <v>6093</v>
+        <v>6103</v>
       </c>
       <c r="G257">
-        <v>391398</v>
+        <v>389463</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <f>DATE(2024,10,21)</f>
-        <v>45586</v>
+        <f>DATE(2024,10,18)</f>
+        <v>45583</v>
       </c>
       <c r="B258">
-        <v>225342</v>
+        <v>224244</v>
       </c>
       <c r="C258">
         <v>9536</v>
       </c>
       <c r="D258">
-        <v>5923</v>
+        <v>5723</v>
       </c>
       <c r="E258">
-        <v>51091</v>
+        <v>51028</v>
       </c>
       <c r="F258">
-        <v>6103</v>
+        <v>6093</v>
       </c>
       <c r="G258">
-        <v>389463</v>
+        <v>387564</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <f>DATE(2024,10,18)</f>
-        <v>45583</v>
+        <f>DATE(2024,10,17)</f>
+        <v>45582</v>
       </c>
       <c r="B259">
-        <v>224244</v>
+        <v>223763</v>
       </c>
       <c r="C259">
         <v>9536</v>
@@ -12943,94 +12946,94 @@
         <v>5723</v>
       </c>
       <c r="E259">
-        <v>51028</v>
+        <v>50423</v>
       </c>
       <c r="F259">
-        <v>6093</v>
+        <v>6080</v>
       </c>
       <c r="G259">
-        <v>387564</v>
+        <v>386770</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <f>DATE(2024,10,17)</f>
-        <v>45582</v>
+        <f>DATE(2024,10,16)</f>
+        <v>45581</v>
       </c>
       <c r="B260">
-        <v>223763</v>
+        <v>221765</v>
       </c>
       <c r="C260">
-        <v>9536</v>
+        <v>9538</v>
       </c>
       <c r="D260">
         <v>5723</v>
       </c>
       <c r="E260">
-        <v>50423</v>
+        <v>49665</v>
       </c>
       <c r="F260">
         <v>6080</v>
       </c>
       <c r="G260">
-        <v>386770</v>
+        <v>386277</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <f>DATE(2024,10,16)</f>
-        <v>45581</v>
+        <f>DATE(2024,10,15)</f>
+        <v>45580</v>
       </c>
       <c r="B261">
-        <v>221765</v>
+        <v>221165</v>
       </c>
       <c r="C261">
-        <v>9538</v>
+        <v>9530</v>
       </c>
       <c r="D261">
         <v>5723</v>
       </c>
       <c r="E261">
-        <v>49665</v>
+        <v>48992</v>
       </c>
       <c r="F261">
-        <v>6080</v>
+        <v>5899</v>
       </c>
       <c r="G261">
-        <v>386277</v>
+        <v>385968</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <f>DATE(2024,10,15)</f>
-        <v>45580</v>
+        <f>DATE(2024,10,14)</f>
+        <v>45579</v>
       </c>
       <c r="B262">
-        <v>221165</v>
+        <v>220105</v>
       </c>
       <c r="C262">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="D262">
         <v>5723</v>
       </c>
       <c r="E262">
-        <v>48992</v>
+        <v>48124</v>
       </c>
       <c r="F262">
-        <v>5899</v>
+        <v>5789</v>
       </c>
       <c r="G262">
-        <v>385968</v>
+        <v>386732</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <f>DATE(2024,10,14)</f>
-        <v>45579</v>
+        <f>DATE(2024,10,11)</f>
+        <v>45576</v>
       </c>
       <c r="B263">
-        <v>220105</v>
+        <v>219760</v>
       </c>
       <c r="C263">
         <v>9485</v>
@@ -13039,22 +13042,22 @@
         <v>5723</v>
       </c>
       <c r="E263">
-        <v>48124</v>
+        <v>47918</v>
       </c>
       <c r="F263">
-        <v>5789</v>
+        <v>5807</v>
       </c>
       <c r="G263">
-        <v>386732</v>
+        <v>386382</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <f>DATE(2024,10,11)</f>
-        <v>45576</v>
+        <f>DATE(2024,10,10)</f>
+        <v>45575</v>
       </c>
       <c r="B264">
-        <v>219760</v>
+        <v>218844</v>
       </c>
       <c r="C264">
         <v>9485</v>
@@ -13063,94 +13066,94 @@
         <v>5723</v>
       </c>
       <c r="E264">
-        <v>47918</v>
+        <v>47824</v>
       </c>
       <c r="F264">
-        <v>5807</v>
+        <v>5937</v>
       </c>
       <c r="G264">
-        <v>386382</v>
+        <v>389537</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <f>DATE(2024,10,10)</f>
-        <v>45575</v>
+        <f>DATE(2024,10,9)</f>
+        <v>45574</v>
       </c>
       <c r="B265">
-        <v>218844</v>
+        <v>218706</v>
       </c>
       <c r="C265">
-        <v>9485</v>
+        <v>9480</v>
       </c>
       <c r="D265">
         <v>5723</v>
       </c>
       <c r="E265">
-        <v>47824</v>
+        <v>47848</v>
       </c>
       <c r="F265">
-        <v>5937</v>
+        <v>5784</v>
       </c>
       <c r="G265">
-        <v>389537</v>
+        <v>392335</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <f>DATE(2024,10,9)</f>
-        <v>45574</v>
+        <f>DATE(2024,10,8)</f>
+        <v>45573</v>
       </c>
       <c r="B266">
-        <v>218706</v>
+        <v>213895</v>
       </c>
       <c r="C266">
-        <v>9480</v>
+        <v>8979</v>
       </c>
       <c r="D266">
         <v>5723</v>
       </c>
       <c r="E266">
-        <v>47848</v>
+        <v>47418</v>
       </c>
       <c r="F266">
-        <v>5784</v>
+        <v>5763</v>
       </c>
       <c r="G266">
-        <v>392335</v>
+        <v>393311</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <f>DATE(2024,10,8)</f>
-        <v>45573</v>
+        <f>DATE(2024,10,7)</f>
+        <v>45572</v>
       </c>
       <c r="B267">
-        <v>213895</v>
+        <v>212171</v>
       </c>
       <c r="C267">
-        <v>8979</v>
+        <v>8549</v>
       </c>
       <c r="D267">
         <v>5723</v>
       </c>
       <c r="E267">
-        <v>47418</v>
+        <v>46991</v>
       </c>
       <c r="F267">
-        <v>5763</v>
+        <v>5700</v>
       </c>
       <c r="G267">
-        <v>393311</v>
+        <v>393040</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <f>DATE(2024,10,7)</f>
-        <v>45572</v>
+        <f>DATE(2024,10,4)</f>
+        <v>45569</v>
       </c>
       <c r="B268">
-        <v>212171</v>
+        <v>211471</v>
       </c>
       <c r="C268">
         <v>8549</v>
@@ -13159,118 +13162,118 @@
         <v>5723</v>
       </c>
       <c r="E268">
-        <v>46991</v>
+        <v>46777</v>
       </c>
       <c r="F268">
-        <v>5700</v>
+        <v>5679</v>
       </c>
       <c r="G268">
-        <v>393040</v>
+        <v>414837</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <f>DATE(2024,10,4)</f>
-        <v>45569</v>
+        <f>DATE(2024,10,3)</f>
+        <v>45568</v>
       </c>
       <c r="B269">
-        <v>211471</v>
+        <v>210463</v>
       </c>
       <c r="C269">
-        <v>8549</v>
+        <v>8530</v>
       </c>
       <c r="D269">
         <v>5723</v>
       </c>
       <c r="E269">
-        <v>46777</v>
+        <v>46762</v>
       </c>
       <c r="F269">
-        <v>5679</v>
+        <v>5572</v>
       </c>
       <c r="G269">
-        <v>414837</v>
+        <v>413145</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <f>DATE(2024,10,3)</f>
-        <v>45568</v>
+        <f>DATE(2024,10,2)</f>
+        <v>45567</v>
       </c>
       <c r="B270">
-        <v>210463</v>
+        <v>210552</v>
       </c>
       <c r="C270">
-        <v>8530</v>
+        <v>8527</v>
       </c>
       <c r="D270">
         <v>5723</v>
       </c>
       <c r="E270">
-        <v>46762</v>
+        <v>46600</v>
       </c>
       <c r="F270">
-        <v>5572</v>
+        <v>5540</v>
       </c>
       <c r="G270">
-        <v>413145</v>
+        <v>412005</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <f>DATE(2024,10,2)</f>
-        <v>45567</v>
+        <f>DATE(2024,10,1)</f>
+        <v>45566</v>
       </c>
       <c r="B271">
-        <v>210552</v>
+        <v>203830</v>
       </c>
       <c r="C271">
         <v>8527</v>
       </c>
       <c r="D271">
-        <v>5723</v>
+        <v>5473</v>
       </c>
       <c r="E271">
-        <v>46600</v>
+        <v>45716</v>
       </c>
       <c r="F271">
-        <v>5540</v>
+        <v>5401</v>
       </c>
       <c r="G271">
-        <v>412005</v>
+        <v>405300</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <f>DATE(2024,10,1)</f>
-        <v>45566</v>
+        <f>DATE(2024,9,30)</f>
+        <v>45565</v>
       </c>
       <c r="B272">
-        <v>203830</v>
+        <v>197874</v>
       </c>
       <c r="C272">
-        <v>8527</v>
+        <v>8436</v>
       </c>
       <c r="D272">
         <v>5473</v>
       </c>
       <c r="E272">
-        <v>45716</v>
+        <v>45261</v>
       </c>
       <c r="F272">
-        <v>5401</v>
+        <v>5302</v>
       </c>
       <c r="G272">
-        <v>405300</v>
+        <v>398090</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <f>DATE(2024,9,30)</f>
-        <v>45565</v>
+        <f>DATE(2024,9,27)</f>
+        <v>45562</v>
       </c>
       <c r="B273">
-        <v>197874</v>
+        <v>197129</v>
       </c>
       <c r="C273">
         <v>8436</v>
@@ -13279,46 +13282,46 @@
         <v>5473</v>
       </c>
       <c r="E273">
-        <v>45261</v>
+        <v>45232</v>
       </c>
       <c r="F273">
-        <v>5302</v>
+        <v>5283</v>
       </c>
       <c r="G273">
-        <v>398090</v>
+        <v>396531</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <f>DATE(2024,9,27)</f>
-        <v>45562</v>
+        <f>DATE(2024,9,26)</f>
+        <v>45561</v>
       </c>
       <c r="B274">
-        <v>197129</v>
+        <v>196698</v>
       </c>
       <c r="C274">
         <v>8436</v>
       </c>
       <c r="D274">
-        <v>5473</v>
+        <v>5355</v>
       </c>
       <c r="E274">
-        <v>45232</v>
+        <v>45271</v>
       </c>
       <c r="F274">
-        <v>5283</v>
+        <v>5219</v>
       </c>
       <c r="G274">
-        <v>396531</v>
+        <v>396747</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <f>DATE(2024,9,26)</f>
-        <v>45561</v>
+        <f>DATE(2024,9,25)</f>
+        <v>45560</v>
       </c>
       <c r="B275">
-        <v>196698</v>
+        <v>194595</v>
       </c>
       <c r="C275">
         <v>8436</v>
@@ -13327,22 +13330,22 @@
         <v>5355</v>
       </c>
       <c r="E275">
-        <v>45271</v>
+        <v>45226</v>
       </c>
       <c r="F275">
-        <v>5219</v>
+        <v>5202</v>
       </c>
       <c r="G275">
-        <v>396747</v>
+        <v>392421</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <f>DATE(2024,9,25)</f>
-        <v>45560</v>
+        <f>DATE(2024,9,24)</f>
+        <v>45559</v>
       </c>
       <c r="B276">
-        <v>194595</v>
+        <v>193567</v>
       </c>
       <c r="C276">
         <v>8436</v>
@@ -13351,22 +13354,22 @@
         <v>5355</v>
       </c>
       <c r="E276">
-        <v>45226</v>
+        <v>45184</v>
       </c>
       <c r="F276">
-        <v>5202</v>
+        <v>5133</v>
       </c>
       <c r="G276">
-        <v>392421</v>
+        <v>389549</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <f>DATE(2024,9,24)</f>
-        <v>45559</v>
+        <f>DATE(2024,9,23)</f>
+        <v>45558</v>
       </c>
       <c r="B277">
-        <v>193567</v>
+        <v>192155</v>
       </c>
       <c r="C277">
         <v>8436</v>
@@ -13375,22 +13378,22 @@
         <v>5355</v>
       </c>
       <c r="E277">
-        <v>45184</v>
+        <v>45282</v>
       </c>
       <c r="F277">
-        <v>5133</v>
+        <v>5096</v>
       </c>
       <c r="G277">
-        <v>389549</v>
+        <v>388015</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <f>DATE(2024,9,23)</f>
-        <v>45558</v>
+        <f>DATE(2024,9,20)</f>
+        <v>45555</v>
       </c>
       <c r="B278">
-        <v>192155</v>
+        <v>190546</v>
       </c>
       <c r="C278">
         <v>8436</v>
@@ -13399,22 +13402,22 @@
         <v>5355</v>
       </c>
       <c r="E278">
-        <v>45282</v>
+        <v>44347</v>
       </c>
       <c r="F278">
-        <v>5096</v>
+        <v>5055</v>
       </c>
       <c r="G278">
-        <v>388015</v>
+        <v>385967</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <f>DATE(2024,9,20)</f>
-        <v>45555</v>
+        <f>DATE(2024,9,19)</f>
+        <v>45554</v>
       </c>
       <c r="B279">
-        <v>190546</v>
+        <v>190387</v>
       </c>
       <c r="C279">
         <v>8436</v>
@@ -13423,70 +13426,70 @@
         <v>5355</v>
       </c>
       <c r="E279">
-        <v>44347</v>
+        <v>44138</v>
       </c>
       <c r="F279">
         <v>5055</v>
       </c>
       <c r="G279">
-        <v>385967</v>
+        <v>386025</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <f>DATE(2024,9,19)</f>
-        <v>45554</v>
+        <f>DATE(2024,9,18)</f>
+        <v>45553</v>
       </c>
       <c r="B280">
-        <v>190387</v>
+        <v>189493</v>
       </c>
       <c r="C280">
-        <v>8436</v>
+        <v>8411</v>
       </c>
       <c r="D280">
         <v>5355</v>
       </c>
       <c r="E280">
-        <v>44138</v>
+        <v>43888</v>
       </c>
       <c r="F280">
-        <v>5055</v>
+        <v>5016</v>
       </c>
       <c r="G280">
-        <v>386025</v>
+        <v>381654</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <f>DATE(2024,9,18)</f>
-        <v>45553</v>
+        <f>DATE(2024,9,17)</f>
+        <v>45552</v>
       </c>
       <c r="B281">
-        <v>189493</v>
+        <v>189036</v>
       </c>
       <c r="C281">
-        <v>8411</v>
+        <v>8405</v>
       </c>
       <c r="D281">
         <v>5355</v>
       </c>
       <c r="E281">
-        <v>43888</v>
+        <v>43717</v>
       </c>
       <c r="F281">
-        <v>5016</v>
+        <v>5082</v>
       </c>
       <c r="G281">
-        <v>381654</v>
+        <v>380589</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <f>DATE(2024,9,17)</f>
-        <v>45552</v>
+        <f>DATE(2024,9,16)</f>
+        <v>45551</v>
       </c>
       <c r="B282">
-        <v>189036</v>
+        <v>189674</v>
       </c>
       <c r="C282">
         <v>8405</v>
@@ -13495,46 +13498,46 @@
         <v>5355</v>
       </c>
       <c r="E282">
-        <v>43717</v>
+        <v>42926</v>
       </c>
       <c r="F282">
-        <v>5082</v>
+        <v>4980</v>
       </c>
       <c r="G282">
-        <v>380589</v>
+        <v>381133</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <f>DATE(2024,9,16)</f>
-        <v>45551</v>
+        <f>DATE(2024,9,13)</f>
+        <v>45548</v>
       </c>
       <c r="B283">
-        <v>189674</v>
+        <v>190449</v>
       </c>
       <c r="C283">
-        <v>8405</v>
+        <v>8368</v>
       </c>
       <c r="D283">
         <v>5355</v>
       </c>
       <c r="E283">
-        <v>42926</v>
+        <v>42350</v>
       </c>
       <c r="F283">
-        <v>4980</v>
+        <v>4702</v>
       </c>
       <c r="G283">
-        <v>381133</v>
+        <v>378833</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <f>DATE(2024,9,13)</f>
-        <v>45548</v>
+        <f>DATE(2024,9,12)</f>
+        <v>45547</v>
       </c>
       <c r="B284">
-        <v>190449</v>
+        <v>190306</v>
       </c>
       <c r="C284">
         <v>8368</v>
@@ -13543,118 +13546,118 @@
         <v>5355</v>
       </c>
       <c r="E284">
-        <v>42350</v>
+        <v>42577</v>
       </c>
       <c r="F284">
-        <v>4702</v>
+        <v>4640</v>
       </c>
       <c r="G284">
-        <v>378833</v>
+        <v>376051</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <f>DATE(2024,9,12)</f>
-        <v>45547</v>
+        <f>DATE(2024,9,11)</f>
+        <v>45546</v>
       </c>
       <c r="B285">
-        <v>190306</v>
+        <v>190071</v>
       </c>
       <c r="C285">
-        <v>8368</v>
+        <v>8367</v>
       </c>
       <c r="D285">
         <v>5355</v>
       </c>
       <c r="E285">
-        <v>42577</v>
+        <v>42349</v>
       </c>
       <c r="F285">
-        <v>4640</v>
+        <v>4630</v>
       </c>
       <c r="G285">
-        <v>376051</v>
+        <v>372897</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <f>DATE(2024,9,11)</f>
-        <v>45546</v>
+        <f>DATE(2024,9,10)</f>
+        <v>45545</v>
       </c>
       <c r="B286">
-        <v>190071</v>
+        <v>191308</v>
       </c>
       <c r="C286">
-        <v>8367</v>
+        <v>8357</v>
       </c>
       <c r="D286">
         <v>5355</v>
       </c>
       <c r="E286">
-        <v>42349</v>
+        <v>41864</v>
       </c>
       <c r="F286">
-        <v>4630</v>
+        <v>4572</v>
       </c>
       <c r="G286">
-        <v>372897</v>
+        <v>371505</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <f>DATE(2024,9,10)</f>
-        <v>45545</v>
+        <f>DATE(2024,9,9)</f>
+        <v>45544</v>
       </c>
       <c r="B287">
-        <v>191308</v>
+        <v>190241</v>
       </c>
       <c r="C287">
-        <v>8357</v>
+        <v>7636</v>
       </c>
       <c r="D287">
         <v>5355</v>
       </c>
       <c r="E287">
-        <v>41864</v>
+        <v>41723</v>
       </c>
       <c r="F287">
-        <v>4572</v>
+        <v>4492</v>
       </c>
       <c r="G287">
-        <v>371505</v>
+        <v>369933</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <f>DATE(2024,9,9)</f>
-        <v>45544</v>
+        <f>DATE(2024,9,6)</f>
+        <v>45541</v>
       </c>
       <c r="B288">
-        <v>190241</v>
+        <v>188662</v>
       </c>
       <c r="C288">
-        <v>7636</v>
+        <v>7083</v>
       </c>
       <c r="D288">
         <v>5355</v>
       </c>
       <c r="E288">
-        <v>41723</v>
+        <v>41637</v>
       </c>
       <c r="F288">
-        <v>4492</v>
+        <v>4441</v>
       </c>
       <c r="G288">
-        <v>369933</v>
+        <v>368659</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <f>DATE(2024,9,6)</f>
-        <v>45541</v>
+        <f>DATE(2024,9,5)</f>
+        <v>45540</v>
       </c>
       <c r="B289">
-        <v>188662</v>
+        <v>181332</v>
       </c>
       <c r="C289">
         <v>7083</v>
@@ -13663,70 +13666,70 @@
         <v>5355</v>
       </c>
       <c r="E289">
-        <v>41637</v>
+        <v>40826</v>
       </c>
       <c r="F289">
-        <v>4441</v>
+        <v>4418</v>
       </c>
       <c r="G289">
-        <v>368659</v>
+        <v>372667</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <f>DATE(2024,9,5)</f>
-        <v>45540</v>
+        <f>DATE(2024,9,4)</f>
+        <v>45539</v>
       </c>
       <c r="B290">
-        <v>181332</v>
+        <v>180006</v>
       </c>
       <c r="C290">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="D290">
         <v>5355</v>
       </c>
       <c r="E290">
-        <v>40826</v>
+        <v>39752</v>
       </c>
       <c r="F290">
-        <v>4418</v>
+        <v>4365</v>
       </c>
       <c r="G290">
-        <v>372667</v>
+        <v>373027</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <f>DATE(2024,9,4)</f>
-        <v>45539</v>
+        <f>DATE(2024,9,3)</f>
+        <v>45538</v>
       </c>
       <c r="B291">
-        <v>180006</v>
+        <v>178478</v>
       </c>
       <c r="C291">
-        <v>7082</v>
+        <v>7061</v>
       </c>
       <c r="D291">
         <v>5355</v>
       </c>
       <c r="E291">
-        <v>39752</v>
+        <v>39608</v>
       </c>
       <c r="F291">
-        <v>4365</v>
+        <v>4218</v>
       </c>
       <c r="G291">
-        <v>373027</v>
+        <v>374203</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <f>DATE(2024,9,3)</f>
-        <v>45538</v>
+        <f>DATE(2024,9,2)</f>
+        <v>45537</v>
       </c>
       <c r="B292">
-        <v>178478</v>
+        <v>177750</v>
       </c>
       <c r="C292">
         <v>7061</v>
@@ -13735,22 +13738,22 @@
         <v>5355</v>
       </c>
       <c r="E292">
-        <v>39608</v>
+        <v>39391</v>
       </c>
       <c r="F292">
-        <v>4218</v>
+        <v>4187</v>
       </c>
       <c r="G292">
-        <v>374203</v>
+        <v>370115</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <f>DATE(2024,9,2)</f>
-        <v>45537</v>
+        <f>DATE(2024,8,30)</f>
+        <v>45534</v>
       </c>
       <c r="B293">
-        <v>177750</v>
+        <v>177653</v>
       </c>
       <c r="C293">
         <v>7061</v>
@@ -13759,22 +13762,22 @@
         <v>5355</v>
       </c>
       <c r="E293">
-        <v>39391</v>
+        <v>39276</v>
       </c>
       <c r="F293">
         <v>4187</v>
       </c>
       <c r="G293">
-        <v>370115</v>
+        <v>370621</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <f>DATE(2024,8,30)</f>
-        <v>45534</v>
+        <f>DATE(2024,8,29)</f>
+        <v>45533</v>
       </c>
       <c r="B294">
-        <v>177653</v>
+        <v>176674</v>
       </c>
       <c r="C294">
         <v>7061</v>
@@ -13783,22 +13786,22 @@
         <v>5355</v>
       </c>
       <c r="E294">
-        <v>39276</v>
+        <v>39072</v>
       </c>
       <c r="F294">
-        <v>4187</v>
+        <v>4177</v>
       </c>
       <c r="G294">
-        <v>370621</v>
+        <v>372277</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <f>DATE(2024,8,29)</f>
-        <v>45533</v>
+        <f>DATE(2024,8,28)</f>
+        <v>45532</v>
       </c>
       <c r="B295">
-        <v>176674</v>
+        <v>176117</v>
       </c>
       <c r="C295">
         <v>7061</v>
@@ -13807,22 +13810,22 @@
         <v>5355</v>
       </c>
       <c r="E295">
-        <v>39072</v>
+        <v>37790</v>
       </c>
       <c r="F295">
-        <v>4177</v>
+        <v>3827</v>
       </c>
       <c r="G295">
-        <v>372277</v>
+        <v>372699</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <f>DATE(2024,8,28)</f>
-        <v>45532</v>
+        <f>DATE(2024,8,27)</f>
+        <v>45531</v>
       </c>
       <c r="B296">
-        <v>176117</v>
+        <v>175271</v>
       </c>
       <c r="C296">
         <v>7061</v>
@@ -13831,22 +13834,22 @@
         <v>5355</v>
       </c>
       <c r="E296">
-        <v>37790</v>
+        <v>37787</v>
       </c>
       <c r="F296">
-        <v>3827</v>
+        <v>3737</v>
       </c>
       <c r="G296">
-        <v>372699</v>
+        <v>371185</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <f>DATE(2024,8,27)</f>
-        <v>45531</v>
+        <f>DATE(2024,8,26)</f>
+        <v>45530</v>
       </c>
       <c r="B297">
-        <v>175271</v>
+        <v>175115</v>
       </c>
       <c r="C297">
         <v>7061</v>
@@ -13855,22 +13858,22 @@
         <v>5355</v>
       </c>
       <c r="E297">
-        <v>37787</v>
+        <v>37432</v>
       </c>
       <c r="F297">
         <v>3737</v>
       </c>
       <c r="G297">
-        <v>371185</v>
+        <v>368185</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <f>DATE(2024,8,26)</f>
-        <v>45530</v>
+        <f>DATE(2024,8,23)</f>
+        <v>45527</v>
       </c>
       <c r="B298">
-        <v>175115</v>
+        <v>174789</v>
       </c>
       <c r="C298">
         <v>7061</v>
@@ -13879,22 +13882,22 @@
         <v>5355</v>
       </c>
       <c r="E298">
-        <v>37432</v>
+        <v>37384</v>
       </c>
       <c r="F298">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="G298">
-        <v>368185</v>
+        <v>367336</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <f>DATE(2024,8,23)</f>
-        <v>45527</v>
+        <f>DATE(2024,8,22)</f>
+        <v>45526</v>
       </c>
       <c r="B299">
-        <v>174789</v>
+        <v>174481</v>
       </c>
       <c r="C299">
         <v>7061</v>
@@ -13903,22 +13906,22 @@
         <v>5355</v>
       </c>
       <c r="E299">
-        <v>37384</v>
+        <v>36792</v>
       </c>
       <c r="F299">
-        <v>3736</v>
+        <v>3718</v>
       </c>
       <c r="G299">
-        <v>367336</v>
+        <v>367127</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <f>DATE(2024,8,22)</f>
-        <v>45526</v>
+        <f>DATE(2024,8,21)</f>
+        <v>45525</v>
       </c>
       <c r="B300">
-        <v>174481</v>
+        <v>174081</v>
       </c>
       <c r="C300">
         <v>7061</v>
@@ -13927,22 +13930,22 @@
         <v>5355</v>
       </c>
       <c r="E300">
-        <v>36792</v>
+        <v>36678</v>
       </c>
       <c r="F300">
-        <v>3718</v>
+        <v>3708</v>
       </c>
       <c r="G300">
-        <v>367127</v>
+        <v>363999</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <f>DATE(2024,8,21)</f>
-        <v>45525</v>
+        <f>DATE(2024,8,20)</f>
+        <v>45524</v>
       </c>
       <c r="B301">
-        <v>174081</v>
+        <v>173956</v>
       </c>
       <c r="C301">
         <v>7061</v>
@@ -13951,46 +13954,46 @@
         <v>5355</v>
       </c>
       <c r="E301">
-        <v>36678</v>
+        <v>36528</v>
       </c>
       <c r="F301">
         <v>3708</v>
       </c>
       <c r="G301">
-        <v>363999</v>
+        <v>363977</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <f>DATE(2024,8,20)</f>
-        <v>45524</v>
+        <f>DATE(2024,8,19)</f>
+        <v>45523</v>
       </c>
       <c r="B302">
-        <v>173956</v>
+        <v>173342</v>
       </c>
       <c r="C302">
-        <v>7061</v>
+        <v>7050</v>
       </c>
       <c r="D302">
         <v>5355</v>
       </c>
       <c r="E302">
-        <v>36528</v>
+        <v>35628</v>
       </c>
       <c r="F302">
-        <v>3708</v>
+        <v>4205</v>
       </c>
       <c r="G302">
-        <v>363977</v>
+        <v>364945</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <f>DATE(2024,8,19)</f>
-        <v>45523</v>
+        <f>DATE(2024,8,16)</f>
+        <v>45520</v>
       </c>
       <c r="B303">
-        <v>173342</v>
+        <v>172958</v>
       </c>
       <c r="C303">
         <v>7050</v>
@@ -13999,22 +14002,22 @@
         <v>5355</v>
       </c>
       <c r="E303">
-        <v>35628</v>
+        <v>35526</v>
       </c>
       <c r="F303">
-        <v>4205</v>
+        <v>4207</v>
       </c>
       <c r="G303">
-        <v>364945</v>
+        <v>364313</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
-        <f>DATE(2024,8,16)</f>
-        <v>45520</v>
+        <f>DATE(2024,8,15)</f>
+        <v>45519</v>
       </c>
       <c r="B304">
-        <v>172958</v>
+        <v>172595</v>
       </c>
       <c r="C304">
         <v>7050</v>
@@ -14023,22 +14026,22 @@
         <v>5355</v>
       </c>
       <c r="E304">
-        <v>35526</v>
+        <v>35430</v>
       </c>
       <c r="F304">
         <v>4207</v>
       </c>
       <c r="G304">
-        <v>364313</v>
+        <v>364324</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <f>DATE(2024,8,15)</f>
-        <v>45519</v>
+        <f>DATE(2024,8,14)</f>
+        <v>45518</v>
       </c>
       <c r="B305">
-        <v>172595</v>
+        <v>171517</v>
       </c>
       <c r="C305">
         <v>7050</v>
@@ -14047,94 +14050,94 @@
         <v>5355</v>
       </c>
       <c r="E305">
-        <v>35430</v>
+        <v>35292</v>
       </c>
       <c r="F305">
         <v>4207</v>
       </c>
       <c r="G305">
-        <v>364324</v>
+        <v>364817</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <f>DATE(2024,8,14)</f>
-        <v>45518</v>
+        <f>DATE(2024,8,13)</f>
+        <v>45517</v>
       </c>
       <c r="B306">
-        <v>171517</v>
+        <v>171117</v>
       </c>
       <c r="C306">
-        <v>7050</v>
+        <v>7037</v>
       </c>
       <c r="D306">
         <v>5355</v>
       </c>
       <c r="E306">
-        <v>35292</v>
+        <v>35189</v>
       </c>
       <c r="F306">
-        <v>4207</v>
+        <v>4155</v>
       </c>
       <c r="G306">
-        <v>364817</v>
+        <v>362022</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <f>DATE(2024,8,13)</f>
-        <v>45517</v>
+        <f>DATE(2024,8,12)</f>
+        <v>45516</v>
       </c>
       <c r="B307">
-        <v>171117</v>
+        <v>171091</v>
       </c>
       <c r="C307">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="D307">
         <v>5355</v>
       </c>
       <c r="E307">
-        <v>35189</v>
+        <v>35118</v>
       </c>
       <c r="F307">
-        <v>4155</v>
+        <v>4150</v>
       </c>
       <c r="G307">
-        <v>362022</v>
+        <v>362516</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <f>DATE(2024,8,12)</f>
-        <v>45516</v>
+        <f>DATE(2024,8,9)</f>
+        <v>45513</v>
       </c>
       <c r="B308">
-        <v>171091</v>
+        <v>171297</v>
       </c>
       <c r="C308">
-        <v>7036</v>
+        <v>7037</v>
       </c>
       <c r="D308">
         <v>5355</v>
       </c>
       <c r="E308">
-        <v>35118</v>
+        <v>35039</v>
       </c>
       <c r="F308">
-        <v>4150</v>
+        <v>4154</v>
       </c>
       <c r="G308">
-        <v>362516</v>
+        <v>362925</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <f>DATE(2024,8,9)</f>
-        <v>45513</v>
+        <f>DATE(2024,8,8)</f>
+        <v>45512</v>
       </c>
       <c r="B309">
-        <v>171297</v>
+        <v>171422</v>
       </c>
       <c r="C309">
         <v>7037</v>
@@ -14143,22 +14146,22 @@
         <v>5355</v>
       </c>
       <c r="E309">
-        <v>35039</v>
+        <v>34917</v>
       </c>
       <c r="F309">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="G309">
-        <v>362925</v>
+        <v>362435</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <f>DATE(2024,8,8)</f>
-        <v>45512</v>
+        <f>DATE(2024,8,7)</f>
+        <v>45511</v>
       </c>
       <c r="B310">
-        <v>171422</v>
+        <v>170526</v>
       </c>
       <c r="C310">
         <v>7037</v>
@@ -14167,22 +14170,22 @@
         <v>5355</v>
       </c>
       <c r="E310">
-        <v>34917</v>
+        <v>34467</v>
       </c>
       <c r="F310">
-        <v>4153</v>
+        <v>4150</v>
       </c>
       <c r="G310">
-        <v>362435</v>
+        <v>362445</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <f>DATE(2024,8,7)</f>
-        <v>45511</v>
+        <f>DATE(2024,8,6)</f>
+        <v>45510</v>
       </c>
       <c r="B311">
-        <v>170526</v>
+        <v>169899</v>
       </c>
       <c r="C311">
         <v>7037</v>
@@ -14191,22 +14194,22 @@
         <v>5355</v>
       </c>
       <c r="E311">
-        <v>34467</v>
+        <v>34403</v>
       </c>
       <c r="F311">
-        <v>4150</v>
+        <v>4152</v>
       </c>
       <c r="G311">
-        <v>362445</v>
+        <v>362409</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <f>DATE(2024,8,6)</f>
-        <v>45510</v>
+        <f>DATE(2024,8,5)</f>
+        <v>45509</v>
       </c>
       <c r="B312">
-        <v>169899</v>
+        <v>169100</v>
       </c>
       <c r="C312">
         <v>7037</v>
@@ -14215,46 +14218,46 @@
         <v>5355</v>
       </c>
       <c r="E312">
-        <v>34403</v>
+        <v>34726</v>
       </c>
       <c r="F312">
         <v>4152</v>
       </c>
       <c r="G312">
-        <v>362409</v>
+        <v>362639</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <f>DATE(2024,8,5)</f>
-        <v>45509</v>
+        <f>DATE(2024,8,2)</f>
+        <v>45506</v>
       </c>
       <c r="B313">
-        <v>169100</v>
+        <v>167969</v>
       </c>
       <c r="C313">
-        <v>7037</v>
+        <v>7026</v>
       </c>
       <c r="D313">
-        <v>5355</v>
+        <v>4505</v>
       </c>
       <c r="E313">
-        <v>34726</v>
+        <v>35249</v>
       </c>
       <c r="F313">
-        <v>4152</v>
+        <v>4060</v>
       </c>
       <c r="G313">
-        <v>362639</v>
+        <v>364941</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <f>DATE(2024,8,2)</f>
-        <v>45506</v>
+        <f>DATE(2024,8,1)</f>
+        <v>45505</v>
       </c>
       <c r="B314">
-        <v>167969</v>
+        <v>167889</v>
       </c>
       <c r="C314">
         <v>7026</v>
@@ -14263,46 +14266,46 @@
         <v>4505</v>
       </c>
       <c r="E314">
-        <v>35249</v>
+        <v>34918</v>
       </c>
       <c r="F314">
-        <v>4060</v>
+        <v>4063</v>
       </c>
       <c r="G314">
-        <v>364941</v>
+        <v>366962</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <f>DATE(2024,8,1)</f>
-        <v>45505</v>
+        <f>DATE(2024,7,31)</f>
+        <v>45504</v>
       </c>
       <c r="B315">
-        <v>167889</v>
+        <v>167681</v>
       </c>
       <c r="C315">
-        <v>7026</v>
+        <v>7002</v>
       </c>
       <c r="D315">
         <v>4505</v>
       </c>
       <c r="E315">
-        <v>34918</v>
+        <v>34508</v>
       </c>
       <c r="F315">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="G315">
-        <v>366962</v>
+        <v>368504</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <f>DATE(2024,7,31)</f>
-        <v>45504</v>
+        <f>DATE(2024,7,30)</f>
+        <v>45503</v>
       </c>
       <c r="B316">
-        <v>167681</v>
+        <v>167790</v>
       </c>
       <c r="C316">
         <v>7002</v>
@@ -14311,22 +14314,22 @@
         <v>4505</v>
       </c>
       <c r="E316">
-        <v>34508</v>
+        <v>32751</v>
       </c>
       <c r="F316">
-        <v>4064</v>
+        <v>3958</v>
       </c>
       <c r="G316">
-        <v>368504</v>
+        <v>370149</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <f>DATE(2024,7,30)</f>
-        <v>45503</v>
+        <f>DATE(2024,7,29)</f>
+        <v>45502</v>
       </c>
       <c r="B317">
-        <v>167790</v>
+        <v>167500</v>
       </c>
       <c r="C317">
         <v>7002</v>
@@ -14335,22 +14338,22 @@
         <v>4505</v>
       </c>
       <c r="E317">
-        <v>32751</v>
+        <v>32202</v>
       </c>
       <c r="F317">
-        <v>3958</v>
+        <v>3946</v>
       </c>
       <c r="G317">
-        <v>370149</v>
+        <v>368552</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <f>DATE(2024,7,29)</f>
-        <v>45502</v>
+        <f>DATE(2024,7,26)</f>
+        <v>45499</v>
       </c>
       <c r="B318">
-        <v>167500</v>
+        <v>166817</v>
       </c>
       <c r="C318">
         <v>7002</v>
@@ -14359,22 +14362,22 @@
         <v>4505</v>
       </c>
       <c r="E318">
-        <v>32202</v>
+        <v>32244</v>
       </c>
       <c r="F318">
         <v>3946</v>
       </c>
       <c r="G318">
-        <v>368552</v>
+        <v>367607</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <f>DATE(2024,7,26)</f>
-        <v>45499</v>
+        <f>DATE(2024,7,25)</f>
+        <v>45498</v>
       </c>
       <c r="B319">
-        <v>166817</v>
+        <v>166425</v>
       </c>
       <c r="C319">
         <v>7002</v>
@@ -14383,22 +14386,22 @@
         <v>4505</v>
       </c>
       <c r="E319">
-        <v>32244</v>
+        <v>32154</v>
       </c>
       <c r="F319">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="G319">
-        <v>367607</v>
+        <v>372183</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <f>DATE(2024,7,25)</f>
-        <v>45498</v>
+        <f>DATE(2024,7,24)</f>
+        <v>45497</v>
       </c>
       <c r="B320">
-        <v>166425</v>
+        <v>166297</v>
       </c>
       <c r="C320">
         <v>7002</v>
@@ -14407,22 +14410,22 @@
         <v>4505</v>
       </c>
       <c r="E320">
-        <v>32154</v>
+        <v>31506</v>
       </c>
       <c r="F320">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="G320">
-        <v>372183</v>
+        <v>372504</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
-        <f>DATE(2024,7,24)</f>
-        <v>45497</v>
+        <f>DATE(2024,7,23)</f>
+        <v>45496</v>
       </c>
       <c r="B321">
-        <v>166297</v>
+        <v>164885</v>
       </c>
       <c r="C321">
         <v>7002</v>
@@ -14431,70 +14434,70 @@
         <v>4505</v>
       </c>
       <c r="E321">
-        <v>31506</v>
+        <v>30714</v>
       </c>
       <c r="F321">
-        <v>3941</v>
+        <v>3923</v>
       </c>
       <c r="G321">
-        <v>372504</v>
+        <v>372909</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <f>DATE(2024,7,23)</f>
-        <v>45496</v>
+        <f>DATE(2024,7,22)</f>
+        <v>45495</v>
       </c>
       <c r="B322">
-        <v>164885</v>
+        <v>165646</v>
       </c>
       <c r="C322">
-        <v>7002</v>
+        <v>4002</v>
       </c>
       <c r="D322">
         <v>4505</v>
       </c>
       <c r="E322">
-        <v>30714</v>
+        <v>30702</v>
       </c>
       <c r="F322">
-        <v>3923</v>
+        <v>3915</v>
       </c>
       <c r="G322">
-        <v>372909</v>
+        <v>372152</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <f>DATE(2024,7,22)</f>
-        <v>45495</v>
+        <f>DATE(2024,7,19)</f>
+        <v>45492</v>
       </c>
       <c r="B323">
-        <v>165646</v>
+        <v>165167</v>
       </c>
       <c r="C323">
         <v>4002</v>
       </c>
       <c r="D323">
-        <v>4505</v>
+        <v>4255</v>
       </c>
       <c r="E323">
-        <v>30702</v>
+        <v>30035</v>
       </c>
       <c r="F323">
-        <v>3915</v>
+        <v>3887</v>
       </c>
       <c r="G323">
-        <v>372152</v>
+        <v>368656</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <f>DATE(2024,7,19)</f>
-        <v>45492</v>
+        <f>DATE(2024,7,18)</f>
+        <v>45491</v>
       </c>
       <c r="B324">
-        <v>165167</v>
+        <v>164764</v>
       </c>
       <c r="C324">
         <v>4002</v>
@@ -14503,22 +14506,22 @@
         <v>4255</v>
       </c>
       <c r="E324">
-        <v>30035</v>
+        <v>29951</v>
       </c>
       <c r="F324">
-        <v>3887</v>
+        <v>3863</v>
       </c>
       <c r="G324">
-        <v>368656</v>
+        <v>367825</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <f>DATE(2024,7,18)</f>
-        <v>45491</v>
+        <f>DATE(2024,7,17)</f>
+        <v>45490</v>
       </c>
       <c r="B325">
-        <v>164764</v>
+        <v>164639</v>
       </c>
       <c r="C325">
         <v>4002</v>
@@ -14527,22 +14530,22 @@
         <v>4255</v>
       </c>
       <c r="E325">
-        <v>29951</v>
+        <v>29547</v>
       </c>
       <c r="F325">
-        <v>3863</v>
+        <v>3783</v>
       </c>
       <c r="G325">
-        <v>367825</v>
+        <v>366585</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <f>DATE(2024,7,17)</f>
-        <v>45490</v>
+        <f>DATE(2024,7,16)</f>
+        <v>45489</v>
       </c>
       <c r="B326">
-        <v>164639</v>
+        <v>163811</v>
       </c>
       <c r="C326">
         <v>4002</v>
@@ -14551,70 +14554,70 @@
         <v>4255</v>
       </c>
       <c r="E326">
-        <v>29547</v>
+        <v>29351</v>
       </c>
       <c r="F326">
-        <v>3783</v>
+        <v>3776</v>
       </c>
       <c r="G326">
-        <v>366585</v>
+        <v>363416</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <f>DATE(2024,7,16)</f>
-        <v>45489</v>
+        <f>DATE(2024,7,15)</f>
+        <v>45488</v>
       </c>
       <c r="B327">
-        <v>163811</v>
+        <v>163718</v>
       </c>
       <c r="C327">
-        <v>4002</v>
+        <v>3991</v>
       </c>
       <c r="D327">
         <v>4255</v>
       </c>
       <c r="E327">
-        <v>29351</v>
+        <v>29640</v>
       </c>
       <c r="F327">
-        <v>3776</v>
+        <v>3749</v>
       </c>
       <c r="G327">
-        <v>363416</v>
+        <v>363566</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <f>DATE(2024,7,15)</f>
-        <v>45488</v>
+        <f>DATE(2024,7,12)</f>
+        <v>45485</v>
       </c>
       <c r="B328">
-        <v>163718</v>
+        <v>164274</v>
       </c>
       <c r="C328">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="D328">
         <v>4255</v>
       </c>
       <c r="E328">
-        <v>29640</v>
+        <v>29658</v>
       </c>
       <c r="F328">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="G328">
-        <v>363566</v>
+        <v>362207</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <f>DATE(2024,7,12)</f>
-        <v>45485</v>
+        <f>DATE(2024,7,11)</f>
+        <v>45484</v>
       </c>
       <c r="B329">
-        <v>164274</v>
+        <v>163356</v>
       </c>
       <c r="C329">
         <v>3990</v>
@@ -14623,22 +14626,22 @@
         <v>4255</v>
       </c>
       <c r="E329">
-        <v>29658</v>
+        <v>29273</v>
       </c>
       <c r="F329">
-        <v>3748</v>
+        <v>3718</v>
       </c>
       <c r="G329">
-        <v>362207</v>
+        <v>363359</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <f>DATE(2024,7,11)</f>
-        <v>45484</v>
+        <f>DATE(2024,7,10)</f>
+        <v>45483</v>
       </c>
       <c r="B330">
-        <v>163356</v>
+        <v>162986</v>
       </c>
       <c r="C330">
         <v>3990</v>
@@ -14647,22 +14650,22 @@
         <v>4255</v>
       </c>
       <c r="E330">
-        <v>29273</v>
+        <v>29464</v>
       </c>
       <c r="F330">
-        <v>3718</v>
+        <v>3703</v>
       </c>
       <c r="G330">
-        <v>363359</v>
+        <v>363609</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <f>DATE(2024,7,10)</f>
-        <v>45483</v>
+        <f>DATE(2024,7,9)</f>
+        <v>45482</v>
       </c>
       <c r="B331">
-        <v>162986</v>
+        <v>160065</v>
       </c>
       <c r="C331">
         <v>3990</v>
@@ -14671,22 +14674,22 @@
         <v>4255</v>
       </c>
       <c r="E331">
-        <v>29464</v>
+        <v>29434</v>
       </c>
       <c r="F331">
-        <v>3703</v>
+        <v>3693</v>
       </c>
       <c r="G331">
-        <v>363609</v>
+        <v>362325</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <f>DATE(2024,7,9)</f>
-        <v>45482</v>
+        <f>DATE(2024,7,8)</f>
+        <v>45481</v>
       </c>
       <c r="B332">
-        <v>160065</v>
+        <v>159894</v>
       </c>
       <c r="C332">
         <v>3990</v>
@@ -14695,94 +14698,94 @@
         <v>4255</v>
       </c>
       <c r="E332">
-        <v>29434</v>
+        <v>29249</v>
       </c>
       <c r="F332">
-        <v>3693</v>
+        <v>3659</v>
       </c>
       <c r="G332">
-        <v>362325</v>
+        <v>361404</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <f>DATE(2024,7,8)</f>
-        <v>45481</v>
+        <f>DATE(2024,7,5)</f>
+        <v>45478</v>
       </c>
       <c r="B333">
-        <v>159894</v>
+        <v>157897</v>
       </c>
       <c r="C333">
-        <v>3990</v>
+        <v>3940</v>
       </c>
       <c r="D333">
-        <v>4255</v>
+        <v>3755</v>
       </c>
       <c r="E333">
-        <v>29249</v>
+        <v>28867</v>
       </c>
       <c r="F333">
-        <v>3659</v>
+        <v>3564</v>
       </c>
       <c r="G333">
-        <v>361404</v>
+        <v>359688</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <f>DATE(2024,7,5)</f>
-        <v>45478</v>
+        <f>DATE(2024,7,4)</f>
+        <v>45477</v>
       </c>
       <c r="B334">
-        <v>157897</v>
+        <v>161709</v>
       </c>
       <c r="C334">
-        <v>3940</v>
+        <v>1940</v>
       </c>
       <c r="D334">
-        <v>3755</v>
+        <v>455</v>
       </c>
       <c r="E334">
-        <v>28867</v>
+        <v>27475</v>
       </c>
       <c r="F334">
-        <v>3564</v>
+        <v>3549</v>
       </c>
       <c r="G334">
-        <v>359688</v>
+        <v>359778</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <f>DATE(2024,7,4)</f>
-        <v>45477</v>
+        <f>DATE(2024,7,3)</f>
+        <v>45476</v>
       </c>
       <c r="B335">
-        <v>161709</v>
+        <v>160541</v>
       </c>
       <c r="C335">
         <v>1940</v>
       </c>
       <c r="D335">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="E335">
-        <v>27475</v>
+        <v>27107</v>
       </c>
       <c r="F335">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="G335">
-        <v>359778</v>
+        <v>359447</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <f>DATE(2024,7,3)</f>
-        <v>45476</v>
+        <f>DATE(2024,7,2)</f>
+        <v>45475</v>
       </c>
       <c r="B336">
-        <v>160541</v>
+        <v>161889</v>
       </c>
       <c r="C336">
         <v>1940</v>
@@ -14791,70 +14794,70 @@
         <v>300</v>
       </c>
       <c r="E336">
-        <v>27107</v>
+        <v>26946</v>
       </c>
       <c r="F336">
-        <v>3546</v>
+        <v>3539</v>
       </c>
       <c r="G336">
-        <v>359447</v>
+        <v>358571</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <f>DATE(2024,7,2)</f>
-        <v>45475</v>
+        <f>DATE(2024,7,1)</f>
+        <v>45474</v>
       </c>
       <c r="B337">
-        <v>161889</v>
+        <v>160176</v>
       </c>
       <c r="C337">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D337">
         <v>300</v>
       </c>
       <c r="E337">
-        <v>26946</v>
+        <v>26516</v>
       </c>
       <c r="F337">
         <v>3539</v>
       </c>
       <c r="G337">
-        <v>358571</v>
+        <v>357779</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <f>DATE(2024,7,1)</f>
-        <v>45474</v>
+        <f>DATE(2024,6,28)</f>
+        <v>45471</v>
       </c>
       <c r="B338">
-        <v>160176</v>
+        <v>159890</v>
       </c>
       <c r="C338">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D338">
         <v>300</v>
       </c>
       <c r="E338">
-        <v>26516</v>
+        <v>26407</v>
       </c>
       <c r="F338">
-        <v>3539</v>
+        <v>3523</v>
       </c>
       <c r="G338">
-        <v>357779</v>
+        <v>357843</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <f>DATE(2024,6,28)</f>
-        <v>45471</v>
+        <f>DATE(2024,6,27)</f>
+        <v>45470</v>
       </c>
       <c r="B339">
-        <v>159890</v>
+        <v>160257</v>
       </c>
       <c r="C339">
         <v>1940</v>
@@ -14863,46 +14866,46 @@
         <v>300</v>
       </c>
       <c r="E339">
-        <v>26407</v>
+        <v>26254</v>
       </c>
       <c r="F339">
-        <v>3523</v>
+        <v>3518</v>
       </c>
       <c r="G339">
-        <v>357843</v>
+        <v>358346</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <f>DATE(2024,6,27)</f>
-        <v>45470</v>
+        <f>DATE(2024,6,26)</f>
+        <v>45469</v>
       </c>
       <c r="B340">
-        <v>160257</v>
+        <v>159993</v>
       </c>
       <c r="C340">
-        <v>1940</v>
+        <v>1890</v>
       </c>
       <c r="D340">
         <v>300</v>
       </c>
       <c r="E340">
-        <v>26254</v>
+        <v>25985</v>
       </c>
       <c r="F340">
-        <v>3518</v>
+        <v>3437</v>
       </c>
       <c r="G340">
-        <v>358346</v>
+        <v>355843</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <f>DATE(2024,6,26)</f>
-        <v>45469</v>
+        <f>DATE(2024,6,25)</f>
+        <v>45468</v>
       </c>
       <c r="B341">
-        <v>159993</v>
+        <v>160264</v>
       </c>
       <c r="C341">
         <v>1890</v>
@@ -14911,70 +14914,70 @@
         <v>300</v>
       </c>
       <c r="E341">
-        <v>25985</v>
+        <v>25802</v>
       </c>
       <c r="F341">
-        <v>3437</v>
+        <v>3402</v>
       </c>
       <c r="G341">
-        <v>355843</v>
+        <v>354577</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <f>DATE(2024,6,25)</f>
-        <v>45468</v>
+        <f>DATE(2024,6,24)</f>
+        <v>45467</v>
       </c>
       <c r="B342">
-        <v>160264</v>
+        <v>159409</v>
       </c>
       <c r="C342">
-        <v>1890</v>
+        <v>1840</v>
       </c>
       <c r="D342">
         <v>300</v>
       </c>
       <c r="E342">
-        <v>25802</v>
+        <v>25467</v>
       </c>
       <c r="F342">
-        <v>3402</v>
+        <v>3321</v>
       </c>
       <c r="G342">
-        <v>354577</v>
+        <v>353485</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <f>DATE(2024,6,24)</f>
-        <v>45467</v>
+        <f>DATE(2024,6,21)</f>
+        <v>45464</v>
       </c>
       <c r="B343">
-        <v>159409</v>
+        <v>158226</v>
       </c>
       <c r="C343">
-        <v>1840</v>
+        <v>1790</v>
       </c>
       <c r="D343">
         <v>300</v>
       </c>
       <c r="E343">
-        <v>25467</v>
+        <v>25151</v>
       </c>
       <c r="F343">
-        <v>3321</v>
+        <v>3280</v>
       </c>
       <c r="G343">
-        <v>353485</v>
+        <v>349260</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <f>DATE(2024,6,21)</f>
-        <v>45464</v>
+        <f>DATE(2024,6,20)</f>
+        <v>45463</v>
       </c>
       <c r="B344">
-        <v>158226</v>
+        <v>155505</v>
       </c>
       <c r="C344">
         <v>1790</v>
@@ -14983,22 +14986,22 @@
         <v>300</v>
       </c>
       <c r="E344">
-        <v>25151</v>
+        <v>24818</v>
       </c>
       <c r="F344">
-        <v>3280</v>
+        <v>3098</v>
       </c>
       <c r="G344">
-        <v>349260</v>
+        <v>342937</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <f>DATE(2024,6,20)</f>
-        <v>45463</v>
+        <f>DATE(2024,6,19)</f>
+        <v>45462</v>
       </c>
       <c r="B345">
-        <v>155505</v>
+        <v>153770</v>
       </c>
       <c r="C345">
         <v>1790</v>
@@ -15007,22 +15010,22 @@
         <v>300</v>
       </c>
       <c r="E345">
-        <v>24818</v>
+        <v>24633</v>
       </c>
       <c r="F345">
-        <v>3098</v>
+        <v>3117</v>
       </c>
       <c r="G345">
-        <v>342937</v>
+        <v>342582</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <f>DATE(2024,6,19)</f>
-        <v>45462</v>
+        <f>DATE(2024,6,18)</f>
+        <v>45461</v>
       </c>
       <c r="B346">
-        <v>153770</v>
+        <v>153737</v>
       </c>
       <c r="C346">
         <v>1790</v>
@@ -15031,22 +15034,22 @@
         <v>300</v>
       </c>
       <c r="E346">
-        <v>24633</v>
+        <v>24553</v>
       </c>
       <c r="F346">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="G346">
-        <v>342582</v>
+        <v>346400</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <f>DATE(2024,6,18)</f>
-        <v>45461</v>
+        <f>DATE(2024,6,17)</f>
+        <v>45460</v>
       </c>
       <c r="B347">
-        <v>153737</v>
+        <v>153579</v>
       </c>
       <c r="C347">
         <v>1790</v>
@@ -15055,22 +15058,22 @@
         <v>300</v>
       </c>
       <c r="E347">
-        <v>24553</v>
+        <v>24376</v>
       </c>
       <c r="F347">
-        <v>3116</v>
+        <v>3361</v>
       </c>
       <c r="G347">
-        <v>346400</v>
+        <v>338785</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <f>DATE(2024,6,17)</f>
-        <v>45460</v>
+        <f>DATE(2024,6,14)</f>
+        <v>45457</v>
       </c>
       <c r="B348">
-        <v>153579</v>
+        <v>153559</v>
       </c>
       <c r="C348">
         <v>1790</v>
@@ -15079,22 +15082,22 @@
         <v>300</v>
       </c>
       <c r="E348">
-        <v>24376</v>
+        <v>24272</v>
       </c>
       <c r="F348">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="G348">
-        <v>338785</v>
+        <v>338682</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <f>DATE(2024,6,14)</f>
-        <v>45457</v>
+        <f>DATE(2024,6,13)</f>
+        <v>45456</v>
       </c>
       <c r="B349">
-        <v>153559</v>
+        <v>148000</v>
       </c>
       <c r="C349">
         <v>1790</v>
@@ -15103,46 +15106,46 @@
         <v>300</v>
       </c>
       <c r="E349">
-        <v>24272</v>
+        <v>23667</v>
       </c>
       <c r="F349">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="G349">
-        <v>338682</v>
+        <v>334373</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <f>DATE(2024,6,13)</f>
-        <v>45456</v>
+        <f>DATE(2024,6,12)</f>
+        <v>45455</v>
       </c>
       <c r="B350">
-        <v>148000</v>
+        <v>147981</v>
       </c>
       <c r="C350">
-        <v>1790</v>
+        <v>1760</v>
       </c>
       <c r="D350">
         <v>300</v>
       </c>
       <c r="E350">
-        <v>23667</v>
+        <v>23606</v>
       </c>
       <c r="F350">
         <v>3355</v>
       </c>
       <c r="G350">
-        <v>334373</v>
+        <v>333805</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <f>DATE(2024,6,12)</f>
-        <v>45455</v>
+        <f>DATE(2024,6,11)</f>
+        <v>45454</v>
       </c>
       <c r="B351">
-        <v>147981</v>
+        <v>147524</v>
       </c>
       <c r="C351">
         <v>1760</v>
@@ -15151,22 +15154,22 @@
         <v>300</v>
       </c>
       <c r="E351">
-        <v>23606</v>
+        <v>23505</v>
       </c>
       <c r="F351">
-        <v>3355</v>
+        <v>3348</v>
       </c>
       <c r="G351">
-        <v>333805</v>
+        <v>333575</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <f>DATE(2024,6,11)</f>
-        <v>45454</v>
+        <f>DATE(2024,6,10)</f>
+        <v>45453</v>
       </c>
       <c r="B352">
-        <v>147524</v>
+        <v>146438</v>
       </c>
       <c r="C352">
         <v>1760</v>
@@ -15175,22 +15178,22 @@
         <v>300</v>
       </c>
       <c r="E352">
-        <v>23505</v>
+        <v>23394</v>
       </c>
       <c r="F352">
         <v>3348</v>
       </c>
       <c r="G352">
-        <v>333575</v>
+        <v>331242</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <f>DATE(2024,6,10)</f>
-        <v>45453</v>
+        <f>DATE(2024,6,7)</f>
+        <v>45450</v>
       </c>
       <c r="B353">
-        <v>146438</v>
+        <v>146728</v>
       </c>
       <c r="C353">
         <v>1760</v>
@@ -15199,22 +15202,22 @@
         <v>300</v>
       </c>
       <c r="E353">
-        <v>23394</v>
+        <v>23318</v>
       </c>
       <c r="F353">
         <v>3348</v>
       </c>
       <c r="G353">
-        <v>331242</v>
+        <v>331118</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
-        <f>DATE(2024,6,7)</f>
-        <v>45450</v>
+        <f>DATE(2024,6,6)</f>
+        <v>45449</v>
       </c>
       <c r="B354">
-        <v>146728</v>
+        <v>145469</v>
       </c>
       <c r="C354">
         <v>1760</v>
@@ -15223,22 +15226,22 @@
         <v>300</v>
       </c>
       <c r="E354">
-        <v>23318</v>
+        <v>23226</v>
       </c>
       <c r="F354">
         <v>3348</v>
       </c>
       <c r="G354">
-        <v>331118</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <f>DATE(2024,6,6)</f>
-        <v>45449</v>
+        <f>DATE(2024,6,5)</f>
+        <v>45448</v>
       </c>
       <c r="B355">
-        <v>145469</v>
+        <v>145667</v>
       </c>
       <c r="C355">
         <v>1760</v>
@@ -15247,70 +15250,70 @@
         <v>300</v>
       </c>
       <c r="E355">
-        <v>23226</v>
+        <v>23126</v>
       </c>
       <c r="F355">
         <v>3348</v>
       </c>
       <c r="G355">
-        <v>330186</v>
+        <v>330342</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <f>DATE(2024,6,5)</f>
-        <v>45448</v>
+        <f>DATE(2024,6,4)</f>
+        <v>45447</v>
       </c>
       <c r="B356">
-        <v>145667</v>
+        <v>145957</v>
       </c>
       <c r="C356">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="D356">
         <v>300</v>
       </c>
       <c r="E356">
-        <v>23126</v>
+        <v>22659</v>
       </c>
       <c r="F356">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="G356">
-        <v>330342</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <f>DATE(2024,6,4)</f>
-        <v>45447</v>
+        <f>DATE(2024,6,3)</f>
+        <v>45446</v>
       </c>
       <c r="B357">
-        <v>145957</v>
+        <v>146098</v>
       </c>
       <c r="C357">
-        <v>1754</v>
+        <v>1728</v>
       </c>
       <c r="D357">
         <v>300</v>
       </c>
       <c r="E357">
-        <v>22659</v>
+        <v>22600</v>
       </c>
       <c r="F357">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="G357">
-        <v>330000</v>
+        <v>330170</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <f>DATE(2024,6,3)</f>
-        <v>45446</v>
+        <f>DATE(2024,5,31)</f>
+        <v>45443</v>
       </c>
       <c r="B358">
-        <v>146098</v>
+        <v>145778</v>
       </c>
       <c r="C358">
         <v>1728</v>
@@ -15319,46 +15322,46 @@
         <v>300</v>
       </c>
       <c r="E358">
-        <v>22600</v>
+        <v>22480</v>
       </c>
       <c r="F358">
         <v>3349</v>
       </c>
       <c r="G358">
-        <v>330170</v>
+        <v>329627</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <f>DATE(2024,5,31)</f>
-        <v>45443</v>
+        <f>DATE(2024,5,30)</f>
+        <v>45442</v>
       </c>
       <c r="B359">
-        <v>145778</v>
+        <v>145416</v>
       </c>
       <c r="C359">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="D359">
         <v>300</v>
       </c>
       <c r="E359">
-        <v>22480</v>
+        <v>22409</v>
       </c>
       <c r="F359">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="G359">
-        <v>329627</v>
+        <v>329425</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <f>DATE(2024,5,30)</f>
-        <v>45442</v>
+        <f>DATE(2024,5,29)</f>
+        <v>45441</v>
       </c>
       <c r="B360">
-        <v>145416</v>
+        <v>144649</v>
       </c>
       <c r="C360">
         <v>1717</v>
@@ -15367,22 +15370,22 @@
         <v>300</v>
       </c>
       <c r="E360">
-        <v>22409</v>
+        <v>22371</v>
       </c>
       <c r="F360">
-        <v>3347</v>
+        <v>3339</v>
       </c>
       <c r="G360">
-        <v>329425</v>
+        <v>329544</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <f>DATE(2024,5,29)</f>
-        <v>45441</v>
+        <f>DATE(2024,5,28)</f>
+        <v>45440</v>
       </c>
       <c r="B361">
-        <v>144649</v>
+        <v>144517</v>
       </c>
       <c r="C361">
         <v>1717</v>
@@ -15391,22 +15394,22 @@
         <v>300</v>
       </c>
       <c r="E361">
-        <v>22371</v>
+        <v>22258</v>
       </c>
       <c r="F361">
-        <v>3339</v>
+        <v>3315</v>
       </c>
       <c r="G361">
-        <v>329544</v>
+        <v>329293</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <f>DATE(2024,5,28)</f>
-        <v>45440</v>
+        <f>DATE(2024,5,27)</f>
+        <v>45439</v>
       </c>
       <c r="B362">
-        <v>144517</v>
+        <v>144483</v>
       </c>
       <c r="C362">
         <v>1717</v>
@@ -15415,22 +15418,22 @@
         <v>300</v>
       </c>
       <c r="E362">
-        <v>22258</v>
+        <v>22182</v>
       </c>
       <c r="F362">
         <v>3315</v>
       </c>
       <c r="G362">
-        <v>329293</v>
+        <v>326832</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <f>DATE(2024,5,27)</f>
-        <v>45439</v>
+        <f>DATE(2024,5,24)</f>
+        <v>45436</v>
       </c>
       <c r="B363">
-        <v>144483</v>
+        <v>144404</v>
       </c>
       <c r="C363">
         <v>1717</v>
@@ -15439,22 +15442,22 @@
         <v>300</v>
       </c>
       <c r="E363">
-        <v>22182</v>
+        <v>22087</v>
       </c>
       <c r="F363">
         <v>3315</v>
       </c>
       <c r="G363">
-        <v>326832</v>
+        <v>326226</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <f>DATE(2024,5,24)</f>
-        <v>45436</v>
+        <f>DATE(2024,5,23)</f>
+        <v>45435</v>
       </c>
       <c r="B364">
-        <v>144404</v>
+        <v>144303</v>
       </c>
       <c r="C364">
         <v>1717</v>
@@ -15463,22 +15466,22 @@
         <v>300</v>
       </c>
       <c r="E364">
-        <v>22087</v>
+        <v>22019</v>
       </c>
       <c r="F364">
-        <v>3315</v>
+        <v>3288</v>
       </c>
       <c r="G364">
-        <v>326226</v>
+        <v>326314</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <f>DATE(2024,5,23)</f>
-        <v>45435</v>
+        <f>DATE(2024,5,22)</f>
+        <v>45434</v>
       </c>
       <c r="B365">
-        <v>144303</v>
+        <v>143799</v>
       </c>
       <c r="C365">
         <v>1717</v>
@@ -15487,22 +15490,22 @@
         <v>300</v>
       </c>
       <c r="E365">
-        <v>22019</v>
+        <v>21955</v>
       </c>
       <c r="F365">
-        <v>3288</v>
+        <v>3267</v>
       </c>
       <c r="G365">
-        <v>326314</v>
+        <v>325224</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <f>DATE(2024,5,22)</f>
-        <v>45434</v>
+        <f>DATE(2024,5,21)</f>
+        <v>45433</v>
       </c>
       <c r="B366">
-        <v>143799</v>
+        <v>143504</v>
       </c>
       <c r="C366">
         <v>1717</v>
@@ -15511,22 +15514,22 @@
         <v>300</v>
       </c>
       <c r="E366">
-        <v>21955</v>
+        <v>21668</v>
       </c>
       <c r="F366">
-        <v>3267</v>
+        <v>3243</v>
       </c>
       <c r="G366">
-        <v>325224</v>
+        <v>325214</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <f>DATE(2024,5,21)</f>
-        <v>45433</v>
+        <f>DATE(2024,5,20)</f>
+        <v>45432</v>
       </c>
       <c r="B367">
-        <v>143504</v>
+        <v>143301</v>
       </c>
       <c r="C367">
         <v>1717</v>
@@ -15535,22 +15538,22 @@
         <v>300</v>
       </c>
       <c r="E367">
-        <v>21668</v>
+        <v>21513</v>
       </c>
       <c r="F367">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="G367">
-        <v>325214</v>
+        <v>323298</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <f>DATE(2024,5,20)</f>
-        <v>45432</v>
+        <f>DATE(2024,5,17)</f>
+        <v>45429</v>
       </c>
       <c r="B368">
-        <v>143301</v>
+        <v>143216</v>
       </c>
       <c r="C368">
         <v>1717</v>
@@ -15559,22 +15562,22 @@
         <v>300</v>
       </c>
       <c r="E368">
-        <v>21513</v>
+        <v>21277</v>
       </c>
       <c r="F368">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="G368">
-        <v>323298</v>
+        <v>322522</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <f>DATE(2024,5,17)</f>
-        <v>45429</v>
+        <f>DATE(2024,5,16)</f>
+        <v>45428</v>
       </c>
       <c r="B369">
-        <v>143216</v>
+        <v>143687</v>
       </c>
       <c r="C369">
         <v>1717</v>
@@ -15583,22 +15586,22 @@
         <v>300</v>
       </c>
       <c r="E369">
-        <v>21277</v>
+        <v>21296</v>
       </c>
       <c r="F369">
-        <v>3247</v>
+        <v>3239</v>
       </c>
       <c r="G369">
-        <v>322522</v>
+        <v>321366</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <f>DATE(2024,5,16)</f>
-        <v>45428</v>
+        <f>DATE(2024,5,15)</f>
+        <v>45427</v>
       </c>
       <c r="B370">
-        <v>143687</v>
+        <v>142393</v>
       </c>
       <c r="C370">
         <v>1717</v>
@@ -15607,22 +15610,22 @@
         <v>300</v>
       </c>
       <c r="E370">
-        <v>21296</v>
+        <v>22492</v>
       </c>
       <c r="F370">
-        <v>3239</v>
+        <v>3338</v>
       </c>
       <c r="G370">
-        <v>321366</v>
+        <v>318191</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <f>DATE(2024,5,15)</f>
-        <v>45427</v>
+        <f>DATE(2024,5,14)</f>
+        <v>45426</v>
       </c>
       <c r="B371">
-        <v>142393</v>
+        <v>141530</v>
       </c>
       <c r="C371">
         <v>1717</v>
@@ -15631,22 +15634,22 @@
         <v>300</v>
       </c>
       <c r="E371">
-        <v>22492</v>
+        <v>22281</v>
       </c>
       <c r="F371">
         <v>3338</v>
       </c>
       <c r="G371">
-        <v>318191</v>
+        <v>315931</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <f>DATE(2024,5,14)</f>
-        <v>45426</v>
+        <f>DATE(2024,5,13)</f>
+        <v>45425</v>
       </c>
       <c r="B372">
-        <v>141530</v>
+        <v>141416</v>
       </c>
       <c r="C372">
         <v>1717</v>
@@ -15655,22 +15658,22 @@
         <v>300</v>
       </c>
       <c r="E372">
-        <v>22281</v>
+        <v>22275</v>
       </c>
       <c r="F372">
         <v>3338</v>
       </c>
       <c r="G372">
-        <v>315931</v>
+        <v>313456</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <f>DATE(2024,5,13)</f>
-        <v>45425</v>
+        <f>DATE(2024,5,10)</f>
+        <v>45422</v>
       </c>
       <c r="B373">
-        <v>141416</v>
+        <v>141262</v>
       </c>
       <c r="C373">
         <v>1717</v>
@@ -15679,22 +15682,22 @@
         <v>300</v>
       </c>
       <c r="E373">
-        <v>22275</v>
+        <v>22227</v>
       </c>
       <c r="F373">
-        <v>3338</v>
+        <v>3358</v>
       </c>
       <c r="G373">
-        <v>313456</v>
+        <v>313285</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <f>DATE(2024,5,10)</f>
-        <v>45422</v>
+        <f>DATE(2024,5,9)</f>
+        <v>45421</v>
       </c>
       <c r="B374">
-        <v>141262</v>
+        <v>141298</v>
       </c>
       <c r="C374">
         <v>1717</v>
@@ -15703,22 +15706,22 @@
         <v>300</v>
       </c>
       <c r="E374">
-        <v>22227</v>
+        <v>22196</v>
       </c>
       <c r="F374">
-        <v>3358</v>
+        <v>3364</v>
       </c>
       <c r="G374">
-        <v>313285</v>
+        <v>312377</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <f>DATE(2024,5,9)</f>
-        <v>45421</v>
+        <f>DATE(2024,5,8)</f>
+        <v>45420</v>
       </c>
       <c r="B375">
-        <v>141298</v>
+        <v>141363</v>
       </c>
       <c r="C375">
         <v>1717</v>
@@ -15727,25 +15730,25 @@
         <v>300</v>
       </c>
       <c r="E375">
-        <v>22196</v>
+        <v>22183</v>
       </c>
       <c r="F375">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="G375">
-        <v>312377</v>
+        <v>311572</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <f>DATE(2024,5,8)</f>
-        <v>45420</v>
+        <f>DATE(2024,5,7)</f>
+        <v>45419</v>
       </c>
       <c r="B376">
-        <v>141363</v>
+        <v>141182</v>
       </c>
       <c r="C376">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D376">
         <v>300</v>
@@ -15754,43 +15757,43 @@
         <v>22183</v>
       </c>
       <c r="F376">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="G376">
-        <v>311572</v>
+        <v>311125</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <f>DATE(2024,5,7)</f>
-        <v>45419</v>
+        <f>DATE(2024,5,6)</f>
+        <v>45418</v>
       </c>
       <c r="B377">
-        <v>141182</v>
+        <v>141441</v>
       </c>
       <c r="C377">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D377">
         <v>300</v>
       </c>
       <c r="E377">
-        <v>22183</v>
+        <v>22100</v>
       </c>
       <c r="F377">
-        <v>3366</v>
+        <v>3387</v>
       </c>
       <c r="G377">
-        <v>311125</v>
+        <v>306017</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <f>DATE(2024,5,6)</f>
-        <v>45418</v>
+        <f>DATE(2024,5,3)</f>
+        <v>45415</v>
       </c>
       <c r="B378">
-        <v>141441</v>
+        <v>141508</v>
       </c>
       <c r="C378">
         <v>1721</v>
@@ -15799,70 +15802,70 @@
         <v>300</v>
       </c>
       <c r="E378">
-        <v>22100</v>
+        <v>22095</v>
       </c>
       <c r="F378">
-        <v>3387</v>
+        <v>3381</v>
       </c>
       <c r="G378">
-        <v>306017</v>
+        <v>304693</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <f>DATE(2024,5,3)</f>
-        <v>45415</v>
+        <f>DATE(2024,5,2)</f>
+        <v>45414</v>
       </c>
       <c r="B379">
-        <v>141508</v>
+        <v>133954</v>
       </c>
       <c r="C379">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D379">
         <v>300</v>
       </c>
       <c r="E379">
-        <v>22095</v>
+        <v>21159</v>
       </c>
       <c r="F379">
-        <v>3381</v>
+        <v>3388</v>
       </c>
       <c r="G379">
-        <v>304693</v>
+        <v>305873</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <f>DATE(2024,5,2)</f>
-        <v>45414</v>
+        <f>DATE(2024,5,1)</f>
+        <v>45413</v>
       </c>
       <c r="B380">
-        <v>133954</v>
+        <v>133409</v>
       </c>
       <c r="C380">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D380">
         <v>300</v>
       </c>
       <c r="E380">
-        <v>21159</v>
+        <v>20851</v>
       </c>
       <c r="F380">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="G380">
-        <v>305873</v>
+        <v>300835</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <f>DATE(2024,5,1)</f>
-        <v>45413</v>
+        <f>DATE(2024,4,30)</f>
+        <v>45412</v>
       </c>
       <c r="B381">
-        <v>133409</v>
+        <v>133314</v>
       </c>
       <c r="C381">
         <v>1720</v>
@@ -15871,70 +15874,70 @@
         <v>300</v>
       </c>
       <c r="E381">
-        <v>20851</v>
+        <v>20833</v>
       </c>
       <c r="F381">
         <v>3389</v>
       </c>
       <c r="G381">
-        <v>300835</v>
+        <v>300518</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <f>DATE(2024,4,30)</f>
-        <v>45412</v>
+        <f>DATE(2024,4,29)</f>
+        <v>45411</v>
       </c>
       <c r="B382">
-        <v>133314</v>
+        <v>130858</v>
       </c>
       <c r="C382">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D382">
         <v>300</v>
       </c>
       <c r="E382">
-        <v>20833</v>
+        <v>20790</v>
       </c>
       <c r="F382">
-        <v>3389</v>
+        <v>3437</v>
       </c>
       <c r="G382">
-        <v>300518</v>
+        <v>299350</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <f>DATE(2024,4,29)</f>
-        <v>45411</v>
+        <f>DATE(2024,4,26)</f>
+        <v>45408</v>
       </c>
       <c r="B383">
-        <v>130858</v>
+        <v>130675</v>
       </c>
       <c r="C383">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D383">
         <v>300</v>
       </c>
       <c r="E383">
-        <v>20790</v>
+        <v>20567</v>
       </c>
       <c r="F383">
-        <v>3437</v>
+        <v>3457</v>
       </c>
       <c r="G383">
-        <v>299350</v>
+        <v>297800</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <f>DATE(2024,4,26)</f>
-        <v>45408</v>
+        <f>DATE(2024,4,25)</f>
+        <v>45407</v>
       </c>
       <c r="B384">
-        <v>130675</v>
+        <v>130520</v>
       </c>
       <c r="C384">
         <v>1718</v>
@@ -15943,22 +15946,22 @@
         <v>300</v>
       </c>
       <c r="E384">
-        <v>20567</v>
+        <v>20360</v>
       </c>
       <c r="F384">
-        <v>3457</v>
+        <v>3466</v>
       </c>
       <c r="G384">
-        <v>297800</v>
+        <v>295607</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <f>DATE(2024,4,25)</f>
-        <v>45407</v>
+        <f>DATE(2024,4,24)</f>
+        <v>45406</v>
       </c>
       <c r="B385">
-        <v>130520</v>
+        <v>128942</v>
       </c>
       <c r="C385">
         <v>1718</v>
@@ -15967,238 +15970,238 @@
         <v>300</v>
       </c>
       <c r="E385">
-        <v>20360</v>
+        <v>20334</v>
       </c>
       <c r="F385">
         <v>3466</v>
       </c>
       <c r="G385">
-        <v>295607</v>
+        <v>292075</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <f>DATE(2024,4,24)</f>
-        <v>45406</v>
+        <f>DATE(2024,4,23)</f>
+        <v>45405</v>
       </c>
       <c r="B386">
-        <v>128942</v>
+        <v>127061</v>
       </c>
       <c r="C386">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D386">
         <v>300</v>
       </c>
       <c r="E386">
-        <v>20334</v>
+        <v>20182</v>
       </c>
       <c r="F386">
-        <v>3466</v>
+        <v>3447</v>
       </c>
       <c r="G386">
-        <v>292075</v>
+        <v>288230</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <f>DATE(2024,4,23)</f>
-        <v>45405</v>
+        <f>DATE(2024,4,22)</f>
+        <v>45404</v>
       </c>
       <c r="B387">
-        <v>127061</v>
+        <v>126938</v>
       </c>
       <c r="C387">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D387">
         <v>300</v>
       </c>
       <c r="E387">
-        <v>20182</v>
+        <v>19561</v>
       </c>
       <c r="F387">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="G387">
-        <v>288230</v>
+        <v>286331</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <f>DATE(2024,4,22)</f>
-        <v>45404</v>
+        <f>DATE(2024,4,19)</f>
+        <v>45401</v>
       </c>
       <c r="B388">
-        <v>126938</v>
+        <v>120467</v>
       </c>
       <c r="C388">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D388">
         <v>300</v>
       </c>
       <c r="E388">
-        <v>19561</v>
+        <v>19509</v>
       </c>
       <c r="F388">
-        <v>3445</v>
+        <v>3418</v>
       </c>
       <c r="G388">
-        <v>286331</v>
+        <v>282241</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <f>DATE(2024,4,19)</f>
-        <v>45401</v>
+        <f>DATE(2024,4,18)</f>
+        <v>45400</v>
       </c>
       <c r="B389">
-        <v>120467</v>
+        <v>120558</v>
       </c>
       <c r="C389">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D389">
         <v>300</v>
       </c>
       <c r="E389">
-        <v>19509</v>
+        <v>19176</v>
       </c>
       <c r="F389">
-        <v>3418</v>
+        <v>3425</v>
       </c>
       <c r="G389">
-        <v>282241</v>
+        <v>283273</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <f>DATE(2024,4,18)</f>
-        <v>45400</v>
+        <f>DATE(2024,4,17)</f>
+        <v>45399</v>
       </c>
       <c r="B390">
-        <v>120558</v>
+        <v>119421</v>
       </c>
       <c r="C390">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="D390">
         <v>300</v>
       </c>
       <c r="E390">
-        <v>19176</v>
+        <v>18974</v>
       </c>
       <c r="F390">
         <v>3425</v>
       </c>
       <c r="G390">
-        <v>283273</v>
+        <v>285563</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <f>DATE(2024,4,17)</f>
-        <v>45399</v>
+        <f>DATE(2024,4,16)</f>
+        <v>45398</v>
       </c>
       <c r="B391">
-        <v>119421</v>
+        <v>119365</v>
       </c>
       <c r="C391">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="D391">
         <v>300</v>
       </c>
       <c r="E391">
-        <v>18974</v>
+        <v>18691</v>
       </c>
       <c r="F391">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="G391">
-        <v>285563</v>
+        <v>286818</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <f>DATE(2024,4,16)</f>
-        <v>45398</v>
+        <f>DATE(2024,4,15)</f>
+        <v>45397</v>
       </c>
       <c r="B392">
-        <v>119365</v>
+        <v>118369</v>
       </c>
       <c r="C392">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="D392">
         <v>300</v>
       </c>
       <c r="E392">
-        <v>18691</v>
+        <v>18558</v>
       </c>
       <c r="F392">
-        <v>3424</v>
+        <v>3416</v>
       </c>
       <c r="G392">
-        <v>286818</v>
+        <v>287937</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
-        <f>DATE(2024,4,15)</f>
-        <v>45397</v>
+        <f>DATE(2024,4,12)</f>
+        <v>45394</v>
       </c>
       <c r="B393">
-        <v>118369</v>
+        <v>118347</v>
       </c>
       <c r="C393">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="D393">
         <v>300</v>
       </c>
       <c r="E393">
-        <v>18558</v>
+        <v>18440</v>
       </c>
       <c r="F393">
         <v>3416</v>
       </c>
       <c r="G393">
-        <v>287937</v>
+        <v>289544</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <f>DATE(2024,4,12)</f>
-        <v>45394</v>
+        <f>DATE(2024,4,11)</f>
+        <v>45393</v>
       </c>
       <c r="B394">
-        <v>118347</v>
+        <v>117910</v>
       </c>
       <c r="C394">
-        <v>1705</v>
+        <v>1660</v>
       </c>
       <c r="D394">
         <v>300</v>
       </c>
       <c r="E394">
-        <v>18440</v>
+        <v>18393</v>
       </c>
       <c r="F394">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="G394">
-        <v>289544</v>
+        <v>290698</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
-        <f>DATE(2024,4,11)</f>
-        <v>45393</v>
+        <f>DATE(2024,4,10)</f>
+        <v>45392</v>
       </c>
       <c r="B395">
-        <v>117910</v>
+        <v>115881</v>
       </c>
       <c r="C395">
         <v>1660</v>
@@ -16207,22 +16210,22 @@
         <v>300</v>
       </c>
       <c r="E395">
-        <v>18393</v>
+        <v>17973</v>
       </c>
       <c r="F395">
-        <v>3419</v>
+        <v>3377</v>
       </c>
       <c r="G395">
-        <v>290698</v>
+        <v>292220</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
-        <f>DATE(2024,4,10)</f>
-        <v>45392</v>
+        <f>DATE(2024,4,9)</f>
+        <v>45391</v>
       </c>
       <c r="B396">
-        <v>115881</v>
+        <v>115841</v>
       </c>
       <c r="C396">
         <v>1660</v>
@@ -16231,22 +16234,22 @@
         <v>300</v>
       </c>
       <c r="E396">
-        <v>17973</v>
+        <v>17929</v>
       </c>
       <c r="F396">
         <v>3377</v>
       </c>
       <c r="G396">
-        <v>292220</v>
+        <v>290662</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
-        <f>DATE(2024,4,9)</f>
-        <v>45391</v>
+        <f>DATE(2024,4,8)</f>
+        <v>45390</v>
       </c>
       <c r="B397">
-        <v>115841</v>
+        <v>114679</v>
       </c>
       <c r="C397">
         <v>1660</v>
@@ -16255,22 +16258,22 @@
         <v>300</v>
       </c>
       <c r="E397">
-        <v>17929</v>
+        <v>17269</v>
       </c>
       <c r="F397">
-        <v>3377</v>
+        <v>3365</v>
       </c>
       <c r="G397">
-        <v>290662</v>
+        <v>301156</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <f>DATE(2024,4,8)</f>
-        <v>45390</v>
+        <f>DATE(2024,4,5)</f>
+        <v>45387</v>
       </c>
       <c r="B398">
-        <v>114679</v>
+        <v>112976</v>
       </c>
       <c r="C398">
         <v>1660</v>
@@ -16279,70 +16282,70 @@
         <v>300</v>
       </c>
       <c r="E398">
-        <v>17269</v>
+        <v>17213</v>
       </c>
       <c r="F398">
-        <v>3365</v>
+        <v>3478</v>
       </c>
       <c r="G398">
-        <v>301156</v>
+        <v>301216</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
-        <f>DATE(2024,4,5)</f>
-        <v>45387</v>
+        <f>DATE(2024,4,4)</f>
+        <v>45386</v>
       </c>
       <c r="B399">
-        <v>112976</v>
+        <v>110302</v>
       </c>
       <c r="C399">
-        <v>1660</v>
+        <v>1625</v>
       </c>
       <c r="D399">
         <v>300</v>
       </c>
       <c r="E399">
-        <v>17213</v>
+        <v>16108</v>
       </c>
       <c r="F399">
-        <v>3478</v>
+        <v>3228</v>
       </c>
       <c r="G399">
-        <v>301216</v>
+        <v>303135</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
-        <f>DATE(2024,4,4)</f>
-        <v>45386</v>
+        <f>DATE(2024,4,3)</f>
+        <v>45385</v>
       </c>
       <c r="B400">
-        <v>110302</v>
+        <v>110550</v>
       </c>
       <c r="C400">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D400">
         <v>300</v>
       </c>
       <c r="E400">
-        <v>16108</v>
+        <v>16088</v>
       </c>
       <c r="F400">
         <v>3228</v>
       </c>
       <c r="G400">
-        <v>303135</v>
+        <v>303974</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
-        <f>DATE(2024,4,3)</f>
-        <v>45385</v>
+        <f>DATE(2024,4,2)</f>
+        <v>45384</v>
       </c>
       <c r="B401">
-        <v>110550</v>
+        <v>107649</v>
       </c>
       <c r="C401">
         <v>1624</v>
@@ -16351,22 +16354,22 @@
         <v>300</v>
       </c>
       <c r="E401">
-        <v>16088</v>
+        <v>15631</v>
       </c>
       <c r="F401">
-        <v>3228</v>
+        <v>3132</v>
       </c>
       <c r="G401">
-        <v>303974</v>
+        <v>305461</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <f>DATE(2024,4,2)</f>
-        <v>45384</v>
+        <f>DATE(2024,4,1)</f>
+        <v>45383</v>
       </c>
       <c r="B402">
-        <v>107649</v>
+        <v>107063</v>
       </c>
       <c r="C402">
         <v>1624</v>
@@ -16375,19 +16378,19 @@
         <v>300</v>
       </c>
       <c r="E402">
-        <v>15631</v>
+        <v>14785</v>
       </c>
       <c r="F402">
-        <v>3132</v>
+        <v>2654</v>
       </c>
       <c r="G402">
-        <v>305461</v>
+        <v>305049</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
-        <f>DATE(2024,4,1)</f>
-        <v>45383</v>
+        <f>DATE(2024,3,28)</f>
+        <v>45379</v>
       </c>
       <c r="B403">
         <v>107063</v>
@@ -16405,16 +16408,16 @@
         <v>2654</v>
       </c>
       <c r="G403">
-        <v>305049</v>
+        <v>305054</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
-        <f>DATE(2024,3,28)</f>
-        <v>45379</v>
+        <f>DATE(2024,3,27)</f>
+        <v>45378</v>
       </c>
       <c r="B404">
-        <v>107063</v>
+        <v>106963</v>
       </c>
       <c r="C404">
         <v>1624</v>
@@ -16423,46 +16426,46 @@
         <v>300</v>
       </c>
       <c r="E404">
-        <v>14785</v>
+        <v>14459</v>
       </c>
       <c r="F404">
         <v>2654</v>
       </c>
       <c r="G404">
-        <v>305054</v>
+        <v>303156</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
-        <f>DATE(2024,3,27)</f>
-        <v>45378</v>
+        <f>DATE(2024,3,26)</f>
+        <v>45377</v>
       </c>
       <c r="B405">
-        <v>106963</v>
+        <v>104300</v>
       </c>
       <c r="C405">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="D405">
         <v>300</v>
       </c>
       <c r="E405">
-        <v>14459</v>
+        <v>14251</v>
       </c>
       <c r="F405">
-        <v>2654</v>
+        <v>2670</v>
       </c>
       <c r="G405">
-        <v>303156</v>
+        <v>299462</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
-        <f>DATE(2024,3,26)</f>
-        <v>45377</v>
+        <f>DATE(2024,3,25)</f>
+        <v>45376</v>
       </c>
       <c r="B406">
-        <v>104300</v>
+        <v>102934</v>
       </c>
       <c r="C406">
         <v>1618</v>
@@ -16471,22 +16474,22 @@
         <v>300</v>
       </c>
       <c r="E406">
-        <v>14251</v>
+        <v>13820</v>
       </c>
       <c r="F406">
-        <v>2670</v>
+        <v>2656</v>
       </c>
       <c r="G406">
-        <v>299462</v>
+        <v>297131</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
-        <f>DATE(2024,3,25)</f>
-        <v>45376</v>
+        <f>DATE(2024,3,22)</f>
+        <v>45373</v>
       </c>
       <c r="B407">
-        <v>102934</v>
+        <v>102051</v>
       </c>
       <c r="C407">
         <v>1618</v>
@@ -16495,22 +16498,22 @@
         <v>300</v>
       </c>
       <c r="E407">
-        <v>13820</v>
+        <v>13531</v>
       </c>
       <c r="F407">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="G407">
-        <v>297131</v>
+        <v>297063</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
-        <f>DATE(2024,3,22)</f>
-        <v>45373</v>
+        <f>DATE(2024,3,21)</f>
+        <v>45372</v>
       </c>
       <c r="B408">
-        <v>102051</v>
+        <v>98012</v>
       </c>
       <c r="C408">
         <v>1618</v>
@@ -16519,22 +16522,22 @@
         <v>300</v>
       </c>
       <c r="E408">
-        <v>13531</v>
+        <v>13160</v>
       </c>
       <c r="F408">
-        <v>2651</v>
+        <v>2502</v>
       </c>
       <c r="G408">
-        <v>297063</v>
+        <v>294791</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
-        <f>DATE(2024,3,21)</f>
-        <v>45372</v>
+        <f>DATE(2024,3,20)</f>
+        <v>45371</v>
       </c>
       <c r="B409">
-        <v>98012</v>
+        <v>97101</v>
       </c>
       <c r="C409">
         <v>1618</v>
@@ -16543,22 +16546,22 @@
         <v>300</v>
       </c>
       <c r="E409">
-        <v>13160</v>
+        <v>12961</v>
       </c>
       <c r="F409">
-        <v>2502</v>
+        <v>2425</v>
       </c>
       <c r="G409">
-        <v>294791</v>
+        <v>292958</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
-        <f>DATE(2024,3,20)</f>
-        <v>45371</v>
+        <f>DATE(2024,3,19)</f>
+        <v>45370</v>
       </c>
       <c r="B410">
-        <v>97101</v>
+        <v>96645</v>
       </c>
       <c r="C410">
         <v>1618</v>
@@ -16567,22 +16570,22 @@
         <v>300</v>
       </c>
       <c r="E410">
-        <v>12961</v>
+        <v>12649</v>
       </c>
       <c r="F410">
-        <v>2425</v>
+        <v>2410</v>
       </c>
       <c r="G410">
-        <v>292958</v>
+        <v>293112</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
-        <f>DATE(2024,3,19)</f>
-        <v>45370</v>
+        <f>DATE(2024,3,18)</f>
+        <v>45369</v>
       </c>
       <c r="B411">
-        <v>96645</v>
+        <v>95512</v>
       </c>
       <c r="C411">
         <v>1618</v>
@@ -16591,46 +16594,46 @@
         <v>300</v>
       </c>
       <c r="E411">
-        <v>12649</v>
+        <v>12377</v>
       </c>
       <c r="F411">
-        <v>2410</v>
+        <v>2395</v>
       </c>
       <c r="G411">
-        <v>293112</v>
+        <v>295129</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
-        <f>DATE(2024,3,18)</f>
-        <v>45369</v>
+        <f>DATE(2024,3,15)</f>
+        <v>45366</v>
       </c>
       <c r="B412">
-        <v>95512</v>
+        <v>95780</v>
       </c>
       <c r="C412">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D412">
         <v>300</v>
       </c>
       <c r="E412">
-        <v>12377</v>
+        <v>12136</v>
       </c>
       <c r="F412">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="G412">
-        <v>295129</v>
+        <v>294097</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
-        <f>DATE(2024,3,15)</f>
-        <v>45366</v>
+        <f>DATE(2024,3,14)</f>
+        <v>45365</v>
       </c>
       <c r="B413">
-        <v>95780</v>
+        <v>95452</v>
       </c>
       <c r="C413">
         <v>1616</v>
@@ -16639,22 +16642,22 @@
         <v>300</v>
       </c>
       <c r="E413">
-        <v>12136</v>
+        <v>12147</v>
       </c>
       <c r="F413">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="G413">
-        <v>294097</v>
+        <v>289989</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
-        <f>DATE(2024,3,14)</f>
-        <v>45365</v>
+        <f>DATE(2024,3,13)</f>
+        <v>45364</v>
       </c>
       <c r="B414">
-        <v>95452</v>
+        <v>94597</v>
       </c>
       <c r="C414">
         <v>1616</v>
@@ -16663,22 +16666,22 @@
         <v>300</v>
       </c>
       <c r="E414">
-        <v>12147</v>
+        <v>12110</v>
       </c>
       <c r="F414">
         <v>2394</v>
       </c>
       <c r="G414">
-        <v>289989</v>
+        <v>293878</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
-        <f>DATE(2024,3,13)</f>
-        <v>45364</v>
+        <f>DATE(2024,3,12)</f>
+        <v>45363</v>
       </c>
       <c r="B415">
-        <v>94597</v>
+        <v>93432</v>
       </c>
       <c r="C415">
         <v>1616</v>
@@ -16687,46 +16690,46 @@
         <v>300</v>
       </c>
       <c r="E415">
-        <v>12110</v>
+        <v>12094</v>
       </c>
       <c r="F415">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="G415">
-        <v>293878</v>
+        <v>289607</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
-        <f>DATE(2024,3,12)</f>
-        <v>45363</v>
+        <f>DATE(2024,3,11)</f>
+        <v>45362</v>
       </c>
       <c r="B416">
-        <v>93432</v>
+        <v>92770</v>
       </c>
       <c r="C416">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D416">
         <v>300</v>
       </c>
       <c r="E416">
-        <v>12094</v>
+        <v>12114</v>
       </c>
       <c r="F416">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="G416">
-        <v>289607</v>
+        <v>289219</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
-        <f>DATE(2024,3,11)</f>
-        <v>45362</v>
+        <f>DATE(2024,3,8)</f>
+        <v>45359</v>
       </c>
       <c r="B417">
-        <v>92770</v>
+        <v>91876</v>
       </c>
       <c r="C417">
         <v>1617</v>
@@ -16735,22 +16738,22 @@
         <v>300</v>
       </c>
       <c r="E417">
-        <v>12114</v>
+        <v>11840</v>
       </c>
       <c r="F417">
         <v>2392</v>
       </c>
       <c r="G417">
-        <v>289219</v>
+        <v>287330</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
-        <f>DATE(2024,3,8)</f>
-        <v>45359</v>
+        <f>DATE(2024,3,7)</f>
+        <v>45358</v>
       </c>
       <c r="B418">
-        <v>91876</v>
+        <v>91422</v>
       </c>
       <c r="C418">
         <v>1617</v>
@@ -16759,94 +16762,94 @@
         <v>300</v>
       </c>
       <c r="E418">
-        <v>11840</v>
+        <v>11238</v>
       </c>
       <c r="F418">
-        <v>2392</v>
+        <v>2362</v>
       </c>
       <c r="G418">
-        <v>287330</v>
+        <v>285313</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
-        <f>DATE(2024,3,7)</f>
-        <v>45358</v>
+        <f>DATE(2024,3,6)</f>
+        <v>45357</v>
       </c>
       <c r="B419">
-        <v>91422</v>
+        <v>89388</v>
       </c>
       <c r="C419">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D419">
         <v>300</v>
       </c>
       <c r="E419">
-        <v>11238</v>
+        <v>11188</v>
       </c>
       <c r="F419">
-        <v>2362</v>
+        <v>2599</v>
       </c>
       <c r="G419">
-        <v>285313</v>
+        <v>282480</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
-        <f>DATE(2024,3,6)</f>
-        <v>45357</v>
+        <f>DATE(2024,3,5)</f>
+        <v>45356</v>
       </c>
       <c r="B420">
-        <v>89388</v>
+        <v>86525</v>
       </c>
       <c r="C420">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D420">
         <v>300</v>
       </c>
       <c r="E420">
-        <v>11188</v>
+        <v>10924</v>
       </c>
       <c r="F420">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="G420">
-        <v>282480</v>
+        <v>282222</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
-        <f>DATE(2024,3,5)</f>
-        <v>45356</v>
+        <f>DATE(2024,3,4)</f>
+        <v>45355</v>
       </c>
       <c r="B421">
-        <v>86525</v>
+        <v>86083</v>
       </c>
       <c r="C421">
-        <v>1613</v>
+        <v>1263</v>
       </c>
       <c r="D421">
         <v>300</v>
       </c>
       <c r="E421">
-        <v>10924</v>
+        <v>10746</v>
       </c>
       <c r="F421">
-        <v>2600</v>
+        <v>2592</v>
       </c>
       <c r="G421">
-        <v>282222</v>
+        <v>286353</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
-        <f>DATE(2024,3,4)</f>
-        <v>45355</v>
+        <f>DATE(2024,3,1)</f>
+        <v>45352</v>
       </c>
       <c r="B422">
-        <v>86083</v>
+        <v>83808</v>
       </c>
       <c r="C422">
         <v>1263</v>
@@ -16855,22 +16858,22 @@
         <v>300</v>
       </c>
       <c r="E422">
-        <v>10746</v>
+        <v>10593</v>
       </c>
       <c r="F422">
-        <v>2592</v>
+        <v>2597</v>
       </c>
       <c r="G422">
-        <v>286353</v>
+        <v>282907</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
-        <f>DATE(2024,3,1)</f>
-        <v>45352</v>
+        <f>DATE(2024,2,29)</f>
+        <v>45351</v>
       </c>
       <c r="B423">
-        <v>83808</v>
+        <v>81526</v>
       </c>
       <c r="C423">
         <v>1263</v>
@@ -16879,22 +16882,22 @@
         <v>300</v>
       </c>
       <c r="E423">
-        <v>10593</v>
+        <v>10436</v>
       </c>
       <c r="F423">
         <v>2597</v>
       </c>
       <c r="G423">
-        <v>282907</v>
+        <v>281610</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
-        <f>DATE(2024,2,29)</f>
-        <v>45351</v>
+        <f>DATE(2024,2,28)</f>
+        <v>45350</v>
       </c>
       <c r="B424">
-        <v>81526</v>
+        <v>80777</v>
       </c>
       <c r="C424">
         <v>1263</v>
@@ -16903,70 +16906,70 @@
         <v>300</v>
       </c>
       <c r="E424">
-        <v>10436</v>
+        <v>10448</v>
       </c>
       <c r="F424">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="G424">
-        <v>281610</v>
+        <v>283709</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
-        <f>DATE(2024,2,28)</f>
-        <v>45350</v>
+        <f>DATE(2024,2,27)</f>
+        <v>45349</v>
       </c>
       <c r="B425">
-        <v>80777</v>
+        <v>80663</v>
       </c>
       <c r="C425">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D425">
         <v>300</v>
       </c>
       <c r="E425">
-        <v>10448</v>
+        <v>10228</v>
       </c>
       <c r="F425">
-        <v>2602</v>
+        <v>2564</v>
       </c>
       <c r="G425">
-        <v>283709</v>
+        <v>287829</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
-        <f>DATE(2024,2,27)</f>
-        <v>45349</v>
+        <f>DATE(2024,2,26)</f>
+        <v>45348</v>
       </c>
       <c r="B426">
-        <v>80663</v>
+        <v>80354</v>
       </c>
       <c r="C426">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D426">
         <v>300</v>
       </c>
       <c r="E426">
-        <v>10228</v>
+        <v>10141</v>
       </c>
       <c r="F426">
-        <v>2564</v>
+        <v>2546</v>
       </c>
       <c r="G426">
-        <v>287829</v>
+        <v>289628</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
-        <f>DATE(2024,2,26)</f>
-        <v>45348</v>
+        <f>DATE(2024,2,23)</f>
+        <v>45345</v>
       </c>
       <c r="B427">
-        <v>80354</v>
+        <v>78220</v>
       </c>
       <c r="C427">
         <v>1256</v>
@@ -16975,49 +16978,49 @@
         <v>300</v>
       </c>
       <c r="E427">
-        <v>10141</v>
+        <v>10084</v>
       </c>
       <c r="F427">
         <v>2546</v>
       </c>
       <c r="G427">
-        <v>289628</v>
+        <v>289803</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
-        <f>DATE(2024,2,23)</f>
-        <v>45345</v>
+        <f>DATE(2024,2,22)</f>
+        <v>45344</v>
       </c>
       <c r="B428">
-        <v>78220</v>
+        <v>77246</v>
       </c>
       <c r="C428">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="D428">
         <v>300</v>
       </c>
       <c r="E428">
-        <v>10084</v>
+        <v>10005</v>
       </c>
       <c r="F428">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="G428">
-        <v>289803</v>
+        <v>289539</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
-        <f>DATE(2024,2,22)</f>
-        <v>45344</v>
+        <f>DATE(2024,2,21)</f>
+        <v>45343</v>
       </c>
       <c r="B429">
-        <v>77246</v>
+        <v>75307</v>
       </c>
       <c r="C429">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="D429">
         <v>300</v>
@@ -17026,19 +17029,19 @@
         <v>10005</v>
       </c>
       <c r="F429">
-        <v>2541</v>
+        <v>2510</v>
       </c>
       <c r="G429">
-        <v>289539</v>
+        <v>288096</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
-        <f>DATE(2024,2,21)</f>
-        <v>45343</v>
+        <f>DATE(2024,2,20)</f>
+        <v>45342</v>
       </c>
       <c r="B430">
-        <v>75307</v>
+        <v>74662</v>
       </c>
       <c r="C430">
         <v>1234</v>
@@ -17047,22 +17050,22 @@
         <v>300</v>
       </c>
       <c r="E430">
-        <v>10005</v>
+        <v>10023</v>
       </c>
       <c r="F430">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="G430">
-        <v>288096</v>
+        <v>288407</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
-        <f>DATE(2024,2,20)</f>
-        <v>45342</v>
+        <f>DATE(2024,2,19)</f>
+        <v>45341</v>
       </c>
       <c r="B431">
-        <v>74662</v>
+        <v>74208</v>
       </c>
       <c r="C431">
         <v>1234</v>
@@ -17071,46 +17074,46 @@
         <v>300</v>
       </c>
       <c r="E431">
-        <v>10023</v>
+        <v>10034</v>
       </c>
       <c r="F431">
-        <v>2507</v>
+        <v>2415</v>
       </c>
       <c r="G431">
-        <v>288407</v>
+        <v>290705</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
-        <f>DATE(2024,2,19)</f>
-        <v>45341</v>
+        <f>DATE(2024,2,16)</f>
+        <v>45338</v>
       </c>
       <c r="B432">
-        <v>74208</v>
+        <v>73447</v>
       </c>
       <c r="C432">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="D432">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E432">
-        <v>10034</v>
+        <v>9953</v>
       </c>
       <c r="F432">
-        <v>2415</v>
+        <v>2376</v>
       </c>
       <c r="G432">
-        <v>290705</v>
+        <v>286053</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
-        <f>DATE(2024,2,16)</f>
-        <v>45338</v>
+        <f>DATE(2024,2,15)</f>
+        <v>45337</v>
       </c>
       <c r="B433">
-        <v>73447</v>
+        <v>72666</v>
       </c>
       <c r="C433">
         <v>1211</v>
@@ -17119,22 +17122,22 @@
         <v>100</v>
       </c>
       <c r="E433">
-        <v>9953</v>
+        <v>9785</v>
       </c>
       <c r="F433">
-        <v>2376</v>
+        <v>2349</v>
       </c>
       <c r="G433">
-        <v>286053</v>
+        <v>285842</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
-        <f>DATE(2024,2,15)</f>
-        <v>45337</v>
+        <f>DATE(2024,2,14)</f>
+        <v>45336</v>
       </c>
       <c r="B434">
-        <v>72666</v>
+        <v>72735</v>
       </c>
       <c r="C434">
         <v>1211</v>
@@ -17143,46 +17146,46 @@
         <v>100</v>
       </c>
       <c r="E434">
-        <v>9785</v>
+        <v>9557</v>
       </c>
       <c r="F434">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="G434">
-        <v>285842</v>
+        <v>286484</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
-        <f>DATE(2024,2,14)</f>
-        <v>45336</v>
+        <f>DATE(2024,2,13)</f>
+        <v>45335</v>
       </c>
       <c r="B435">
-        <v>72735</v>
+        <v>71375</v>
       </c>
       <c r="C435">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D435">
         <v>100</v>
       </c>
       <c r="E435">
-        <v>9557</v>
+        <v>9520</v>
       </c>
       <c r="F435">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="G435">
-        <v>286484</v>
+        <v>287140</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
-        <f>DATE(2024,2,13)</f>
-        <v>45335</v>
+        <f>DATE(2024,2,12)</f>
+        <v>45334</v>
       </c>
       <c r="B436">
-        <v>71375</v>
+        <v>70085</v>
       </c>
       <c r="C436">
         <v>1212</v>
@@ -17191,70 +17194,70 @@
         <v>100</v>
       </c>
       <c r="E436">
-        <v>9520</v>
+        <v>9471</v>
       </c>
       <c r="F436">
-        <v>2340</v>
+        <v>2368</v>
       </c>
       <c r="G436">
-        <v>287140</v>
+        <v>286130</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
-        <f>DATE(2024,2,12)</f>
-        <v>45334</v>
+        <f>DATE(2024,2,9)</f>
+        <v>45331</v>
       </c>
       <c r="B437">
-        <v>70085</v>
+        <v>69624</v>
       </c>
       <c r="C437">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="D437">
         <v>100</v>
       </c>
       <c r="E437">
-        <v>9471</v>
+        <v>9187</v>
       </c>
       <c r="F437">
-        <v>2368</v>
+        <v>2352</v>
       </c>
       <c r="G437">
-        <v>286130</v>
+        <v>284512</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
-        <f>DATE(2024,2,9)</f>
-        <v>45331</v>
+        <f>DATE(2024,2,8)</f>
+        <v>45330</v>
       </c>
       <c r="B438">
-        <v>69624</v>
+        <v>69807</v>
       </c>
       <c r="C438">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="D438">
         <v>100</v>
       </c>
       <c r="E438">
-        <v>9187</v>
+        <v>9051</v>
       </c>
       <c r="F438">
-        <v>2352</v>
+        <v>2308</v>
       </c>
       <c r="G438">
-        <v>284512</v>
+        <v>280639</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
-        <f>DATE(2024,2,8)</f>
-        <v>45330</v>
+        <f>DATE(2024,2,7)</f>
+        <v>45329</v>
       </c>
       <c r="B439">
-        <v>69807</v>
+        <v>69621</v>
       </c>
       <c r="C439">
         <v>1226</v>
@@ -17263,46 +17266,46 @@
         <v>100</v>
       </c>
       <c r="E439">
-        <v>9051</v>
+        <v>9018</v>
       </c>
       <c r="F439">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="G439">
-        <v>280639</v>
+        <v>277076</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
-        <f>DATE(2024,2,7)</f>
-        <v>45329</v>
+        <f>DATE(2024,2,6)</f>
+        <v>45328</v>
       </c>
       <c r="B440">
-        <v>69621</v>
+        <v>69154</v>
       </c>
       <c r="C440">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="D440">
         <v>100</v>
       </c>
       <c r="E440">
-        <v>9018</v>
+        <v>8393</v>
       </c>
       <c r="F440">
-        <v>2298</v>
+        <v>2233</v>
       </c>
       <c r="G440">
-        <v>277076</v>
+        <v>278078</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
-        <f>DATE(2024,2,6)</f>
-        <v>45328</v>
+        <f>DATE(2024,2,5)</f>
+        <v>45327</v>
       </c>
       <c r="B441">
-        <v>69154</v>
+        <v>68946</v>
       </c>
       <c r="C441">
         <v>1201</v>
@@ -17311,22 +17314,22 @@
         <v>100</v>
       </c>
       <c r="E441">
-        <v>8393</v>
+        <v>7946</v>
       </c>
       <c r="F441">
-        <v>2233</v>
+        <v>2185</v>
       </c>
       <c r="G441">
-        <v>278078</v>
+        <v>277917</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
-        <f>DATE(2024,2,5)</f>
-        <v>45327</v>
+        <f>DATE(2024,2,2)</f>
+        <v>45324</v>
       </c>
       <c r="B442">
-        <v>68946</v>
+        <v>68148</v>
       </c>
       <c r="C442">
         <v>1201</v>
@@ -17335,22 +17338,22 @@
         <v>100</v>
       </c>
       <c r="E442">
-        <v>7946</v>
+        <v>7769</v>
       </c>
       <c r="F442">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="G442">
-        <v>277917</v>
+        <v>275630</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
-        <f>DATE(2024,2,2)</f>
-        <v>45324</v>
+        <f>DATE(2024,2,1)</f>
+        <v>45323</v>
       </c>
       <c r="B443">
-        <v>68148</v>
+        <v>65014</v>
       </c>
       <c r="C443">
         <v>1201</v>
@@ -17359,22 +17362,22 @@
         <v>100</v>
       </c>
       <c r="E443">
-        <v>7769</v>
+        <v>7725</v>
       </c>
       <c r="F443">
         <v>2183</v>
       </c>
       <c r="G443">
-        <v>275630</v>
+        <v>275328</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
-        <f>DATE(2024,2,1)</f>
-        <v>45323</v>
+        <f>DATE(2024,1,31)</f>
+        <v>45322</v>
       </c>
       <c r="B444">
-        <v>65014</v>
+        <v>63840</v>
       </c>
       <c r="C444">
         <v>1201</v>
@@ -17383,22 +17386,22 @@
         <v>100</v>
       </c>
       <c r="E444">
-        <v>7725</v>
+        <v>7249</v>
       </c>
       <c r="F444">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="G444">
-        <v>275328</v>
+        <v>272614</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
-        <f>DATE(2024,1,31)</f>
-        <v>45322</v>
+        <f>DATE(2024,1,30)</f>
+        <v>45321</v>
       </c>
       <c r="B445">
-        <v>63840</v>
+        <v>63316</v>
       </c>
       <c r="C445">
         <v>1201</v>
@@ -17407,22 +17410,22 @@
         <v>100</v>
       </c>
       <c r="E445">
-        <v>7249</v>
+        <v>7086</v>
       </c>
       <c r="F445">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="G445">
-        <v>272614</v>
+        <v>272609</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
-        <f>DATE(2024,1,30)</f>
-        <v>45321</v>
+        <f>DATE(2024,1,29)</f>
+        <v>45320</v>
       </c>
       <c r="B446">
-        <v>63316</v>
+        <v>63060</v>
       </c>
       <c r="C446">
         <v>1201</v>
@@ -17431,22 +17434,22 @@
         <v>100</v>
       </c>
       <c r="E446">
-        <v>7086</v>
+        <v>7092</v>
       </c>
       <c r="F446">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="G446">
-        <v>272609</v>
+        <v>269994</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
-        <f>DATE(2024,1,29)</f>
-        <v>45320</v>
+        <f>DATE(2024,1,26)</f>
+        <v>45317</v>
       </c>
       <c r="B447">
-        <v>63060</v>
+        <v>62176</v>
       </c>
       <c r="C447">
         <v>1201</v>
@@ -17455,22 +17458,22 @@
         <v>100</v>
       </c>
       <c r="E447">
-        <v>7092</v>
+        <v>6785</v>
       </c>
       <c r="F447">
         <v>2175</v>
       </c>
       <c r="G447">
-        <v>269994</v>
+        <v>269839</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
-        <f>DATE(2024,1,26)</f>
-        <v>45317</v>
+        <f>DATE(2024,1,25)</f>
+        <v>45316</v>
       </c>
       <c r="B448">
-        <v>62176</v>
+        <v>61597</v>
       </c>
       <c r="C448">
         <v>1201</v>
@@ -17479,22 +17482,22 @@
         <v>100</v>
       </c>
       <c r="E448">
-        <v>6785</v>
+        <v>6735</v>
       </c>
       <c r="F448">
-        <v>2175</v>
+        <v>2150</v>
       </c>
       <c r="G448">
-        <v>269839</v>
+        <v>268418</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
-        <f>DATE(2024,1,25)</f>
-        <v>45316</v>
+        <f>DATE(2024,1,24)</f>
+        <v>45315</v>
       </c>
       <c r="B449">
-        <v>61597</v>
+        <v>61140</v>
       </c>
       <c r="C449">
         <v>1201</v>
@@ -17503,22 +17506,22 @@
         <v>100</v>
       </c>
       <c r="E449">
-        <v>6735</v>
+        <v>6688</v>
       </c>
       <c r="F449">
-        <v>2150</v>
+        <v>1977</v>
       </c>
       <c r="G449">
-        <v>268418</v>
+        <v>263929</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
-        <f>DATE(2024,1,24)</f>
-        <v>45315</v>
+        <f>DATE(2024,1,23)</f>
+        <v>45314</v>
       </c>
       <c r="B450">
-        <v>61140</v>
+        <v>60769</v>
       </c>
       <c r="C450">
         <v>1201</v>
@@ -17527,22 +17530,22 @@
         <v>100</v>
       </c>
       <c r="E450">
-        <v>6688</v>
+        <v>6665</v>
       </c>
       <c r="F450">
         <v>1977</v>
       </c>
       <c r="G450">
-        <v>263929</v>
+        <v>264950</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
-        <f>DATE(2024,1,23)</f>
-        <v>45314</v>
+        <f>DATE(2024,1,22)</f>
+        <v>45313</v>
       </c>
       <c r="B451">
-        <v>60769</v>
+        <v>60591</v>
       </c>
       <c r="C451">
         <v>1201</v>
@@ -17551,46 +17554,46 @@
         <v>100</v>
       </c>
       <c r="E451">
-        <v>6665</v>
+        <v>6654</v>
       </c>
       <c r="F451">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="G451">
-        <v>264950</v>
+        <v>265672</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
-        <f>DATE(2024,1,22)</f>
-        <v>45313</v>
+        <f>DATE(2024,1,19)</f>
+        <v>45310</v>
       </c>
       <c r="B452">
-        <v>60591</v>
+        <v>60422</v>
       </c>
       <c r="C452">
-        <v>1201</v>
+        <v>1150</v>
       </c>
       <c r="D452">
         <v>100</v>
       </c>
       <c r="E452">
-        <v>6654</v>
+        <v>6564</v>
       </c>
       <c r="F452">
-        <v>1972</v>
+        <v>1880</v>
       </c>
       <c r="G452">
-        <v>265672</v>
+        <v>264703</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
-        <f>DATE(2024,1,19)</f>
-        <v>45310</v>
+        <f>DATE(2024,1,18)</f>
+        <v>45309</v>
       </c>
       <c r="B453">
-        <v>60422</v>
+        <v>58938</v>
       </c>
       <c r="C453">
         <v>1150</v>
@@ -17599,22 +17602,22 @@
         <v>100</v>
       </c>
       <c r="E453">
-        <v>6564</v>
+        <v>6790</v>
       </c>
       <c r="F453">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="G453">
-        <v>264703</v>
+        <v>263531</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
-        <f>DATE(2024,1,18)</f>
-        <v>45309</v>
+        <f>DATE(2024,1,17)</f>
+        <v>45308</v>
       </c>
       <c r="B454">
-        <v>58938</v>
+        <v>59301</v>
       </c>
       <c r="C454">
         <v>1150</v>
@@ -17623,46 +17626,46 @@
         <v>100</v>
       </c>
       <c r="E454">
-        <v>6790</v>
+        <v>6654</v>
       </c>
       <c r="F454">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="G454">
-        <v>263531</v>
+        <v>261762</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
-        <f>DATE(2024,1,17)</f>
-        <v>45308</v>
+        <f>DATE(2024,1,16)</f>
+        <v>45307</v>
       </c>
       <c r="B455">
-        <v>59301</v>
+        <v>58904</v>
       </c>
       <c r="C455">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D455">
         <v>100</v>
       </c>
       <c r="E455">
-        <v>6654</v>
+        <v>6698</v>
       </c>
       <c r="F455">
         <v>1886</v>
       </c>
       <c r="G455">
-        <v>261762</v>
+        <v>260611</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
-        <f>DATE(2024,1,16)</f>
-        <v>45307</v>
+        <f>DATE(2024,1,15)</f>
+        <v>45306</v>
       </c>
       <c r="B456">
-        <v>58904</v>
+        <v>57648</v>
       </c>
       <c r="C456">
         <v>1147</v>
@@ -17671,46 +17674,46 @@
         <v>100</v>
       </c>
       <c r="E456">
-        <v>6698</v>
+        <v>6644</v>
       </c>
       <c r="F456">
         <v>1886</v>
       </c>
       <c r="G456">
-        <v>260611</v>
+        <v>259218</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
-        <f>DATE(2024,1,15)</f>
-        <v>45306</v>
+        <f>DATE(2024,1,12)</f>
+        <v>45303</v>
       </c>
       <c r="B457">
-        <v>57648</v>
+        <v>57057</v>
       </c>
       <c r="C457">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D457">
         <v>100</v>
       </c>
       <c r="E457">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="F457">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="G457">
-        <v>259218</v>
+        <v>260801</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
-        <f>DATE(2024,1,12)</f>
-        <v>45303</v>
+        <f>DATE(2024,1,11)</f>
+        <v>45302</v>
       </c>
       <c r="B458">
-        <v>57057</v>
+        <v>55935</v>
       </c>
       <c r="C458">
         <v>1146</v>
@@ -17719,70 +17722,70 @@
         <v>100</v>
       </c>
       <c r="E458">
-        <v>6643</v>
+        <v>6527</v>
       </c>
       <c r="F458">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="G458">
-        <v>260801</v>
+        <v>256467</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
-        <f>DATE(2024,1,11)</f>
-        <v>45302</v>
+        <f>DATE(2024,1,10)</f>
+        <v>45301</v>
       </c>
       <c r="B459">
-        <v>55935</v>
+        <v>55501</v>
       </c>
       <c r="C459">
-        <v>1146</v>
+        <v>1096</v>
       </c>
       <c r="D459">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E459">
-        <v>6527</v>
+        <v>6392</v>
       </c>
       <c r="F459">
         <v>1871</v>
       </c>
       <c r="G459">
-        <v>256467</v>
+        <v>252367</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
-        <f>DATE(2024,1,10)</f>
-        <v>45301</v>
+        <f>DATE(2024,1,9)</f>
+        <v>45300</v>
       </c>
       <c r="B460">
-        <v>55501</v>
+        <v>55350</v>
       </c>
       <c r="C460">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="D460">
         <v>0</v>
       </c>
       <c r="E460">
-        <v>6392</v>
+        <v>6370</v>
       </c>
       <c r="F460">
         <v>1871</v>
       </c>
       <c r="G460">
-        <v>252367</v>
+        <v>247917</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
-        <f>DATE(2024,1,9)</f>
-        <v>45300</v>
+        <f>DATE(2024,1,8)</f>
+        <v>45299</v>
       </c>
       <c r="B461">
-        <v>55350</v>
+        <v>54987</v>
       </c>
       <c r="C461">
         <v>1078</v>
@@ -17791,46 +17794,46 @@
         <v>0</v>
       </c>
       <c r="E461">
-        <v>6370</v>
+        <v>6357</v>
       </c>
       <c r="F461">
         <v>1871</v>
       </c>
       <c r="G461">
-        <v>247917</v>
+        <v>247220</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
-        <f>DATE(2024,1,8)</f>
-        <v>45299</v>
+        <f>DATE(2024,1,5)</f>
+        <v>45296</v>
       </c>
       <c r="B462">
-        <v>54987</v>
+        <v>54755</v>
       </c>
       <c r="C462">
-        <v>1078</v>
+        <v>1028</v>
       </c>
       <c r="D462">
         <v>0</v>
       </c>
       <c r="E462">
-        <v>6357</v>
+        <v>6236</v>
       </c>
       <c r="F462">
         <v>1871</v>
       </c>
       <c r="G462">
-        <v>247220</v>
+        <v>246559</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
-        <f>DATE(2024,1,5)</f>
-        <v>45296</v>
+        <f>DATE(2024,1,4)</f>
+        <v>45295</v>
       </c>
       <c r="B463">
-        <v>54755</v>
+        <v>54607</v>
       </c>
       <c r="C463">
         <v>1028</v>
@@ -17839,70 +17842,70 @@
         <v>0</v>
       </c>
       <c r="E463">
-        <v>6236</v>
+        <v>6206</v>
       </c>
       <c r="F463">
         <v>1871</v>
       </c>
       <c r="G463">
-        <v>246559</v>
+        <v>247085</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
-        <f>DATE(2024,1,4)</f>
-        <v>45295</v>
+        <f>DATE(2024,1,3)</f>
+        <v>45294</v>
       </c>
       <c r="B464">
-        <v>54607</v>
+        <v>54900</v>
       </c>
       <c r="C464">
-        <v>1028</v>
+        <v>865</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>6206</v>
+        <v>6193</v>
       </c>
       <c r="F464">
         <v>1871</v>
       </c>
       <c r="G464">
-        <v>247085</v>
+        <v>245981</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
-        <f>DATE(2024,1,3)</f>
-        <v>45294</v>
+        <f>DATE(2024,1,2)</f>
+        <v>45293</v>
       </c>
       <c r="B465">
-        <v>54900</v>
+        <v>54851</v>
       </c>
       <c r="C465">
-        <v>865</v>
+        <v>565</v>
       </c>
       <c r="D465">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>6193</v>
+        <v>6189</v>
       </c>
       <c r="F465">
         <v>1871</v>
       </c>
       <c r="G465">
-        <v>245981</v>
+        <v>246427</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
-        <f>DATE(2024,1,2)</f>
-        <v>45293</v>
+        <f>DATE(2023,12,29)</f>
+        <v>45289</v>
       </c>
       <c r="B466">
-        <v>54851</v>
+        <v>54955</v>
       </c>
       <c r="C466">
         <v>565</v>
@@ -17911,22 +17914,22 @@
         <v>0</v>
       </c>
       <c r="E466">
-        <v>6189</v>
+        <v>6200</v>
       </c>
       <c r="F466">
         <v>1871</v>
       </c>
       <c r="G466">
-        <v>246427</v>
+        <v>246338</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
-        <f>DATE(2023,12,29)</f>
-        <v>45289</v>
+        <f>DATE(2023,12,28)</f>
+        <v>45288</v>
       </c>
       <c r="B467">
-        <v>54955</v>
+        <v>55442</v>
       </c>
       <c r="C467">
         <v>565</v>
@@ -17935,22 +17938,22 @@
         <v>0</v>
       </c>
       <c r="E467">
-        <v>6200</v>
+        <v>6369</v>
       </c>
       <c r="F467">
-        <v>1871</v>
+        <v>1900</v>
       </c>
       <c r="G467">
-        <v>246338</v>
+        <v>247527</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
-        <f>DATE(2023,12,28)</f>
-        <v>45288</v>
+        <f>DATE(2023,12,27)</f>
+        <v>45287</v>
       </c>
       <c r="B468">
-        <v>55442</v>
+        <v>55792</v>
       </c>
       <c r="C468">
         <v>565</v>
@@ -17959,22 +17962,22 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>6369</v>
+        <v>6366</v>
       </c>
       <c r="F468">
         <v>1900</v>
       </c>
       <c r="G468">
-        <v>247527</v>
+        <v>249272</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
-        <f>DATE(2023,12,27)</f>
-        <v>45287</v>
+        <f>DATE(2023,12,22)</f>
+        <v>45282</v>
       </c>
       <c r="B469">
-        <v>55792</v>
+        <v>55948</v>
       </c>
       <c r="C469">
         <v>565</v>
@@ -17983,22 +17986,22 @@
         <v>0</v>
       </c>
       <c r="E469">
-        <v>6366</v>
+        <v>6460</v>
       </c>
       <c r="F469">
         <v>1900</v>
       </c>
       <c r="G469">
-        <v>249272</v>
+        <v>250381</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
-        <f>DATE(2023,12,22)</f>
-        <v>45282</v>
+        <f>DATE(2023,12,21)</f>
+        <v>45281</v>
       </c>
       <c r="B470">
-        <v>55948</v>
+        <v>55909</v>
       </c>
       <c r="C470">
         <v>565</v>
@@ -18007,22 +18010,22 @@
         <v>0</v>
       </c>
       <c r="E470">
-        <v>6460</v>
+        <v>6523</v>
       </c>
       <c r="F470">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="G470">
-        <v>250381</v>
+        <v>251461</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
-        <f>DATE(2023,12,21)</f>
-        <v>45281</v>
+        <f>DATE(2023,12,20)</f>
+        <v>45280</v>
       </c>
       <c r="B471">
-        <v>55909</v>
+        <v>55639</v>
       </c>
       <c r="C471">
         <v>565</v>
@@ -18031,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="E471">
-        <v>6523</v>
+        <v>6473</v>
       </c>
       <c r="F471">
         <v>1905</v>
       </c>
       <c r="G471">
-        <v>251461</v>
+        <v>256416</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
-        <f>DATE(2023,12,20)</f>
-        <v>45280</v>
+        <f>DATE(2023,12,19)</f>
+        <v>45279</v>
       </c>
       <c r="B472">
-        <v>55639</v>
+        <v>55151</v>
       </c>
       <c r="C472">
         <v>565</v>
@@ -18055,22 +18058,22 @@
         <v>0</v>
       </c>
       <c r="E472">
-        <v>6473</v>
+        <v>6363</v>
       </c>
       <c r="F472">
         <v>1905</v>
       </c>
       <c r="G472">
-        <v>256416</v>
+        <v>253872</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
-        <f>DATE(2023,12,19)</f>
-        <v>45279</v>
+        <f>DATE(2023,12,18)</f>
+        <v>45278</v>
       </c>
       <c r="B473">
-        <v>55151</v>
+        <v>54804</v>
       </c>
       <c r="C473">
         <v>565</v>
@@ -18079,46 +18082,46 @@
         <v>0</v>
       </c>
       <c r="E473">
-        <v>6363</v>
+        <v>6325</v>
       </c>
       <c r="F473">
-        <v>1905</v>
+        <v>1971</v>
       </c>
       <c r="G473">
-        <v>253872</v>
+        <v>255186</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
-        <f>DATE(2023,12,18)</f>
-        <v>45278</v>
+        <f>DATE(2023,12,15)</f>
+        <v>45275</v>
       </c>
       <c r="B474">
-        <v>54804</v>
+        <v>54518</v>
       </c>
       <c r="C474">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D474">
         <v>0</v>
       </c>
       <c r="E474">
-        <v>6325</v>
+        <v>6284</v>
       </c>
       <c r="F474">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="G474">
-        <v>255186</v>
+        <v>254672</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
-        <f>DATE(2023,12,15)</f>
-        <v>45275</v>
+        <f>DATE(2023,12,14)</f>
+        <v>45274</v>
       </c>
       <c r="B475">
-        <v>54518</v>
+        <v>54475</v>
       </c>
       <c r="C475">
         <v>564</v>
@@ -18127,70 +18130,70 @@
         <v>0</v>
       </c>
       <c r="E475">
-        <v>6284</v>
+        <v>6270</v>
       </c>
       <c r="F475">
         <v>1972</v>
       </c>
       <c r="G475">
-        <v>254672</v>
+        <v>250208</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
-        <f>DATE(2023,12,14)</f>
-        <v>45274</v>
+        <f>DATE(2023,12,13)</f>
+        <v>45273</v>
       </c>
       <c r="B476">
-        <v>54475</v>
+        <v>54264</v>
       </c>
       <c r="C476">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D476">
         <v>0</v>
       </c>
       <c r="E476">
-        <v>6270</v>
+        <v>6134</v>
       </c>
       <c r="F476">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="G476">
-        <v>250208</v>
+        <v>244281</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
-        <f>DATE(2023,12,13)</f>
-        <v>45273</v>
+        <f>DATE(2023,12,12)</f>
+        <v>45272</v>
       </c>
       <c r="B477">
-        <v>54264</v>
+        <v>54010</v>
       </c>
       <c r="C477">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>6134</v>
+        <v>6000</v>
       </c>
       <c r="F477">
         <v>1970</v>
       </c>
       <c r="G477">
-        <v>244281</v>
+        <v>238510</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
-        <f>DATE(2023,12,12)</f>
-        <v>45272</v>
+        <f>DATE(2023,12,11)</f>
+        <v>45271</v>
       </c>
       <c r="B478">
-        <v>54010</v>
+        <v>53481</v>
       </c>
       <c r="C478">
         <v>554</v>
@@ -18199,22 +18202,22 @@
         <v>0</v>
       </c>
       <c r="E478">
-        <v>6000</v>
+        <v>5902</v>
       </c>
       <c r="F478">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="G478">
-        <v>238510</v>
+        <v>236567</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
-        <f>DATE(2023,12,11)</f>
-        <v>45271</v>
+        <f>DATE(2023,12,8)</f>
+        <v>45268</v>
       </c>
       <c r="B479">
-        <v>53481</v>
+        <v>52619</v>
       </c>
       <c r="C479">
         <v>554</v>
@@ -18223,46 +18226,46 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>5902</v>
+        <v>5852</v>
       </c>
       <c r="F479">
         <v>1971</v>
       </c>
       <c r="G479">
-        <v>236567</v>
+        <v>229673</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
-        <f>DATE(2023,12,8)</f>
-        <v>45268</v>
+        <f>DATE(2023,12,7)</f>
+        <v>45267</v>
       </c>
       <c r="B480">
-        <v>52619</v>
+        <v>52449</v>
       </c>
       <c r="C480">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D480">
         <v>0</v>
       </c>
       <c r="E480">
-        <v>5852</v>
+        <v>5904</v>
       </c>
       <c r="F480">
         <v>1971</v>
       </c>
       <c r="G480">
-        <v>229673</v>
+        <v>225345</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
-        <f>DATE(2023,12,7)</f>
-        <v>45267</v>
+        <f>DATE(2023,12,6)</f>
+        <v>45266</v>
       </c>
       <c r="B481">
-        <v>52449</v>
+        <v>52382</v>
       </c>
       <c r="C481">
         <v>552</v>
@@ -18271,70 +18274,70 @@
         <v>0</v>
       </c>
       <c r="E481">
-        <v>5904</v>
+        <v>5883</v>
       </c>
       <c r="F481">
         <v>1971</v>
       </c>
       <c r="G481">
-        <v>225345</v>
+        <v>222650</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
-        <f>DATE(2023,12,6)</f>
-        <v>45266</v>
+        <f>DATE(2023,12,5)</f>
+        <v>45265</v>
       </c>
       <c r="B482">
-        <v>52382</v>
+        <v>52182</v>
       </c>
       <c r="C482">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D482">
         <v>0</v>
       </c>
       <c r="E482">
-        <v>5883</v>
+        <v>5871</v>
       </c>
       <c r="F482">
         <v>1971</v>
       </c>
       <c r="G482">
-        <v>222650</v>
+        <v>218709</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
-        <f>DATE(2023,12,5)</f>
-        <v>45265</v>
+        <f>DATE(2023,12,4)</f>
+        <v>45264</v>
       </c>
       <c r="B483">
-        <v>52182</v>
+        <v>51543</v>
       </c>
       <c r="C483">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D483">
         <v>0</v>
       </c>
       <c r="E483">
-        <v>5871</v>
+        <v>5701</v>
       </c>
       <c r="F483">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="G483">
-        <v>218709</v>
+        <v>215774</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
-        <f>DATE(2023,12,4)</f>
-        <v>45264</v>
+        <f>DATE(2023,12,1)</f>
+        <v>45261</v>
       </c>
       <c r="B484">
-        <v>51543</v>
+        <v>50602</v>
       </c>
       <c r="C484">
         <v>550</v>
@@ -18343,22 +18346,22 @@
         <v>0</v>
       </c>
       <c r="E484">
-        <v>5701</v>
+        <v>5518</v>
       </c>
       <c r="F484">
         <v>1972</v>
       </c>
       <c r="G484">
-        <v>215774</v>
+        <v>212578</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
-        <f>DATE(2023,12,1)</f>
-        <v>45261</v>
+        <f>DATE(2023,11,30)</f>
+        <v>45260</v>
       </c>
       <c r="B485">
-        <v>50602</v>
+        <v>50234</v>
       </c>
       <c r="C485">
         <v>550</v>
@@ -18367,22 +18370,22 @@
         <v>0</v>
       </c>
       <c r="E485">
-        <v>5518</v>
+        <v>5240</v>
       </c>
       <c r="F485">
         <v>1972</v>
       </c>
       <c r="G485">
-        <v>212578</v>
+        <v>213850</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
-        <f>DATE(2023,11,30)</f>
-        <v>45260</v>
+        <f>DATE(2023,11,29)</f>
+        <v>45259</v>
       </c>
       <c r="B486">
-        <v>50234</v>
+        <v>49673</v>
       </c>
       <c r="C486">
         <v>550</v>
@@ -18391,22 +18394,22 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>5240</v>
+        <v>5233</v>
       </c>
       <c r="F486">
         <v>1972</v>
       </c>
       <c r="G486">
-        <v>213850</v>
+        <v>213239</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
-        <f>DATE(2023,11,29)</f>
-        <v>45259</v>
+        <f>DATE(2023,11,28)</f>
+        <v>45258</v>
       </c>
       <c r="B487">
-        <v>49673</v>
+        <v>49719</v>
       </c>
       <c r="C487">
         <v>550</v>
@@ -18415,22 +18418,22 @@
         <v>0</v>
       </c>
       <c r="E487">
-        <v>5233</v>
+        <v>5142</v>
       </c>
       <c r="F487">
         <v>1972</v>
       </c>
       <c r="G487">
-        <v>213239</v>
+        <v>211469</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
-        <f>DATE(2023,11,28)</f>
-        <v>45258</v>
+        <f>DATE(2023,11,27)</f>
+        <v>45257</v>
       </c>
       <c r="B488">
-        <v>49719</v>
+        <v>49389</v>
       </c>
       <c r="C488">
         <v>550</v>
@@ -18439,22 +18442,22 @@
         <v>0</v>
       </c>
       <c r="E488">
-        <v>5142</v>
+        <v>5093</v>
       </c>
       <c r="F488">
         <v>1972</v>
       </c>
       <c r="G488">
-        <v>211469</v>
+        <v>209958</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
-        <f>DATE(2023,11,27)</f>
-        <v>45257</v>
+        <f>DATE(2023,11,24)</f>
+        <v>45254</v>
       </c>
       <c r="B489">
-        <v>49389</v>
+        <v>49290</v>
       </c>
       <c r="C489">
         <v>550</v>
@@ -18463,22 +18466,22 @@
         <v>0</v>
       </c>
       <c r="E489">
-        <v>5093</v>
+        <v>4716</v>
       </c>
       <c r="F489">
         <v>1972</v>
       </c>
       <c r="G489">
-        <v>209958</v>
+        <v>209484</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
-        <f>DATE(2023,11,24)</f>
-        <v>45254</v>
+        <f>DATE(2023,11,23)</f>
+        <v>45253</v>
       </c>
       <c r="B490">
-        <v>49290</v>
+        <v>48959</v>
       </c>
       <c r="C490">
         <v>550</v>
@@ -18487,22 +18490,22 @@
         <v>0</v>
       </c>
       <c r="E490">
-        <v>4716</v>
+        <v>4628</v>
       </c>
       <c r="F490">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="G490">
-        <v>209484</v>
+        <v>209789</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
-        <f>DATE(2023,11,23)</f>
-        <v>45253</v>
+        <f>DATE(2023,11,22)</f>
+        <v>45252</v>
       </c>
       <c r="B491">
-        <v>48959</v>
+        <v>48040</v>
       </c>
       <c r="C491">
         <v>550</v>
@@ -18511,22 +18514,22 @@
         <v>0</v>
       </c>
       <c r="E491">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="F491">
         <v>1969</v>
       </c>
       <c r="G491">
-        <v>209789</v>
+        <v>208775</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
-        <f>DATE(2023,11,22)</f>
-        <v>45252</v>
+        <f>DATE(2023,11,21)</f>
+        <v>45251</v>
       </c>
       <c r="B492">
-        <v>48040</v>
+        <v>48130</v>
       </c>
       <c r="C492">
         <v>550</v>
@@ -18535,22 +18538,22 @@
         <v>0</v>
       </c>
       <c r="E492">
-        <v>4625</v>
+        <v>4602</v>
       </c>
       <c r="F492">
         <v>1969</v>
       </c>
       <c r="G492">
-        <v>208775</v>
+        <v>207248</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
-        <f>DATE(2023,11,21)</f>
-        <v>45251</v>
+        <f>DATE(2023,11,20)</f>
+        <v>45250</v>
       </c>
       <c r="B493">
-        <v>48130</v>
+        <v>48039</v>
       </c>
       <c r="C493">
         <v>550</v>
@@ -18559,22 +18562,22 @@
         <v>0</v>
       </c>
       <c r="E493">
-        <v>4602</v>
+        <v>4549</v>
       </c>
       <c r="F493">
-        <v>1969</v>
+        <v>1944</v>
       </c>
       <c r="G493">
-        <v>207248</v>
+        <v>205237</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
-        <f>DATE(2023,11,20)</f>
-        <v>45250</v>
+        <f>DATE(2023,11,17)</f>
+        <v>45247</v>
       </c>
       <c r="B494">
-        <v>48039</v>
+        <v>48159</v>
       </c>
       <c r="C494">
         <v>550</v>
@@ -18583,22 +18586,22 @@
         <v>0</v>
       </c>
       <c r="E494">
-        <v>4549</v>
+        <v>4579</v>
       </c>
       <c r="F494">
-        <v>1944</v>
+        <v>1912</v>
       </c>
       <c r="G494">
-        <v>205237</v>
+        <v>204243</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
-        <f>DATE(2023,11,17)</f>
-        <v>45247</v>
+        <f>DATE(2023,11,16)</f>
+        <v>45246</v>
       </c>
       <c r="B495">
-        <v>48159</v>
+        <v>47963</v>
       </c>
       <c r="C495">
         <v>550</v>
@@ -18607,22 +18610,22 @@
         <v>0</v>
       </c>
       <c r="E495">
-        <v>4579</v>
+        <v>4412</v>
       </c>
       <c r="F495">
         <v>1912</v>
       </c>
       <c r="G495">
-        <v>204243</v>
+        <v>203325</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
-        <f>DATE(2023,11,16)</f>
-        <v>45246</v>
+        <f>DATE(2023,11,15)</f>
+        <v>45245</v>
       </c>
       <c r="B496">
-        <v>47963</v>
+        <v>47482</v>
       </c>
       <c r="C496">
         <v>550</v>
@@ -18631,22 +18634,22 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>4412</v>
+        <v>4352</v>
       </c>
       <c r="F496">
         <v>1912</v>
       </c>
       <c r="G496">
-        <v>203325</v>
+        <v>201830</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
-        <f>DATE(2023,11,15)</f>
-        <v>45245</v>
+        <f>DATE(2023,11,14)</f>
+        <v>45244</v>
       </c>
       <c r="B497">
-        <v>47482</v>
+        <v>47579</v>
       </c>
       <c r="C497">
         <v>550</v>
@@ -18655,22 +18658,22 @@
         <v>0</v>
       </c>
       <c r="E497">
-        <v>4352</v>
+        <v>4298</v>
       </c>
       <c r="F497">
         <v>1912</v>
       </c>
       <c r="G497">
-        <v>201830</v>
+        <v>201219</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
-        <f>DATE(2023,11,14)</f>
-        <v>45244</v>
+        <f>DATE(2023,11,13)</f>
+        <v>45243</v>
       </c>
       <c r="B498">
-        <v>47579</v>
+        <v>47417</v>
       </c>
       <c r="C498">
         <v>550</v>
@@ -18679,22 +18682,22 @@
         <v>0</v>
       </c>
       <c r="E498">
-        <v>4298</v>
+        <v>4285</v>
       </c>
       <c r="F498">
         <v>1912</v>
       </c>
       <c r="G498">
-        <v>201219</v>
+        <v>199845</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
-        <f>DATE(2023,11,13)</f>
-        <v>45243</v>
+        <f>DATE(2023,11,10)</f>
+        <v>45240</v>
       </c>
       <c r="B499">
-        <v>47417</v>
+        <v>47426</v>
       </c>
       <c r="C499">
         <v>550</v>
@@ -18703,22 +18706,22 @@
         <v>0</v>
       </c>
       <c r="E499">
-        <v>4285</v>
+        <v>4238</v>
       </c>
       <c r="F499">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="G499">
-        <v>199845</v>
+        <v>197850</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
-        <f>DATE(2023,11,10)</f>
-        <v>45240</v>
+        <f>DATE(2023,11,9)</f>
+        <v>45239</v>
       </c>
       <c r="B500">
-        <v>47426</v>
+        <v>47466</v>
       </c>
       <c r="C500">
         <v>550</v>
@@ -18727,22 +18730,22 @@
         <v>0</v>
       </c>
       <c r="E500">
-        <v>4238</v>
+        <v>4175</v>
       </c>
       <c r="F500">
         <v>1909</v>
       </c>
       <c r="G500">
-        <v>197850</v>
+        <v>196481</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
-        <f>DATE(2023,11,9)</f>
-        <v>45239</v>
+        <f>DATE(2023,11,8)</f>
+        <v>45238</v>
       </c>
       <c r="B501">
-        <v>47466</v>
+        <v>47068</v>
       </c>
       <c r="C501">
         <v>550</v>
@@ -18751,22 +18754,22 @@
         <v>0</v>
       </c>
       <c r="E501">
-        <v>4175</v>
+        <v>4187</v>
       </c>
       <c r="F501">
         <v>1909</v>
       </c>
       <c r="G501">
-        <v>196481</v>
+        <v>195412</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
-        <f>DATE(2023,11,8)</f>
-        <v>45238</v>
+        <f>DATE(2023,11,7)</f>
+        <v>45237</v>
       </c>
       <c r="B502">
-        <v>47068</v>
+        <v>47038</v>
       </c>
       <c r="C502">
         <v>550</v>
@@ -18775,22 +18778,22 @@
         <v>0</v>
       </c>
       <c r="E502">
-        <v>4187</v>
+        <v>4147</v>
       </c>
       <c r="F502">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="G502">
-        <v>195412</v>
+        <v>193413</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
-        <f>DATE(2023,11,7)</f>
-        <v>45237</v>
+        <f>DATE(2023,11,6)</f>
+        <v>45236</v>
       </c>
       <c r="B503">
-        <v>47038</v>
+        <v>46954</v>
       </c>
       <c r="C503">
         <v>550</v>
@@ -18799,22 +18802,22 @@
         <v>0</v>
       </c>
       <c r="E503">
-        <v>4147</v>
+        <v>4096</v>
       </c>
       <c r="F503">
         <v>1916</v>
       </c>
       <c r="G503">
-        <v>193413</v>
+        <v>192109</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
-        <f>DATE(2023,11,6)</f>
-        <v>45236</v>
+        <f>DATE(2023,11,3)</f>
+        <v>45233</v>
       </c>
       <c r="B504">
-        <v>46954</v>
+        <v>46945</v>
       </c>
       <c r="C504">
         <v>550</v>
@@ -18823,22 +18826,22 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>4096</v>
+        <v>4085</v>
       </c>
       <c r="F504">
         <v>1916</v>
       </c>
       <c r="G504">
-        <v>192109</v>
+        <v>191973</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
-        <f>DATE(2023,11,3)</f>
-        <v>45233</v>
+        <f>DATE(2023,11,2)</f>
+        <v>45232</v>
       </c>
       <c r="B505">
-        <v>46945</v>
+        <v>46873</v>
       </c>
       <c r="C505">
         <v>550</v>
@@ -18847,22 +18850,22 @@
         <v>0</v>
       </c>
       <c r="E505">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="F505">
         <v>1916</v>
       </c>
       <c r="G505">
-        <v>191973</v>
+        <v>190363</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
-        <f>DATE(2023,11,2)</f>
-        <v>45232</v>
+        <f>DATE(2023,11,1)</f>
+        <v>45231</v>
       </c>
       <c r="B506">
-        <v>46873</v>
+        <v>46583</v>
       </c>
       <c r="C506">
         <v>550</v>
@@ -18871,22 +18874,22 @@
         <v>0</v>
       </c>
       <c r="E506">
-        <v>4084</v>
+        <v>4061</v>
       </c>
       <c r="F506">
         <v>1916</v>
       </c>
       <c r="G506">
-        <v>190363</v>
+        <v>183545</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
-        <f>DATE(2023,11,1)</f>
-        <v>45231</v>
+        <f>DATE(2023,10,31)</f>
+        <v>45230</v>
       </c>
       <c r="B507">
-        <v>46583</v>
+        <v>46507</v>
       </c>
       <c r="C507">
         <v>550</v>
@@ -18895,22 +18898,22 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>4061</v>
+        <v>4051</v>
       </c>
       <c r="F507">
         <v>1916</v>
       </c>
       <c r="G507">
-        <v>183545</v>
+        <v>182432</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
-        <f>DATE(2023,10,31)</f>
-        <v>45230</v>
+        <f>DATE(2023,10,30)</f>
+        <v>45229</v>
       </c>
       <c r="B508">
-        <v>46507</v>
+        <v>46171</v>
       </c>
       <c r="C508">
         <v>550</v>
@@ -18919,22 +18922,22 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>4051</v>
+        <v>4013</v>
       </c>
       <c r="F508">
         <v>1916</v>
       </c>
       <c r="G508">
-        <v>182432</v>
+        <v>181377</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
-        <f>DATE(2023,10,30)</f>
-        <v>45229</v>
+        <f>DATE(2023,10,27)</f>
+        <v>45226</v>
       </c>
       <c r="B509">
-        <v>46171</v>
+        <v>45922</v>
       </c>
       <c r="C509">
         <v>550</v>
@@ -18943,22 +18946,22 @@
         <v>0</v>
       </c>
       <c r="E509">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="F509">
         <v>1916</v>
       </c>
       <c r="G509">
-        <v>181377</v>
+        <v>178666</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
-        <f>DATE(2023,10,27)</f>
-        <v>45226</v>
+        <f>DATE(2023,10,26)</f>
+        <v>45225</v>
       </c>
       <c r="B510">
-        <v>45922</v>
+        <v>45713</v>
       </c>
       <c r="C510">
         <v>550</v>
@@ -18967,22 +18970,22 @@
         <v>0</v>
       </c>
       <c r="E510">
-        <v>4015</v>
+        <v>3960</v>
       </c>
       <c r="F510">
-        <v>1916</v>
+        <v>1892</v>
       </c>
       <c r="G510">
-        <v>178666</v>
+        <v>177231</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
-        <f>DATE(2023,10,26)</f>
-        <v>45225</v>
+        <f>DATE(2023,10,25)</f>
+        <v>45224</v>
       </c>
       <c r="B511">
-        <v>45713</v>
+        <v>44941</v>
       </c>
       <c r="C511">
         <v>550</v>
@@ -18997,16 +19000,16 @@
         <v>1892</v>
       </c>
       <c r="G511">
-        <v>177231</v>
+        <v>175766</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
-        <f>DATE(2023,10,25)</f>
-        <v>45224</v>
+        <f>DATE(2023,10,24)</f>
+        <v>45223</v>
       </c>
       <c r="B512">
-        <v>44941</v>
+        <v>44427</v>
       </c>
       <c r="C512">
         <v>550</v>
@@ -19015,22 +19018,22 @@
         <v>0</v>
       </c>
       <c r="E512">
-        <v>3960</v>
+        <v>3951</v>
       </c>
       <c r="F512">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="G512">
-        <v>175766</v>
+        <v>174304</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
-        <f>DATE(2023,10,24)</f>
-        <v>45223</v>
+        <f>DATE(2023,10,23)</f>
+        <v>45222</v>
       </c>
       <c r="B513">
-        <v>44427</v>
+        <v>44208</v>
       </c>
       <c r="C513">
         <v>550</v>
@@ -19039,22 +19042,22 @@
         <v>0</v>
       </c>
       <c r="E513">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="F513">
-        <v>1887</v>
+        <v>2030</v>
       </c>
       <c r="G513">
-        <v>174304</v>
+        <v>173611</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
-        <f>DATE(2023,10,23)</f>
-        <v>45222</v>
+        <f>DATE(2023,10,20)</f>
+        <v>45219</v>
       </c>
       <c r="B514">
-        <v>44208</v>
+        <v>43735</v>
       </c>
       <c r="C514">
         <v>550</v>
@@ -19063,22 +19066,22 @@
         <v>0</v>
       </c>
       <c r="E514">
-        <v>3959</v>
+        <v>3854</v>
       </c>
       <c r="F514">
         <v>2030</v>
       </c>
       <c r="G514">
-        <v>173611</v>
+        <v>172932</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
-        <f>DATE(2023,10,20)</f>
-        <v>45219</v>
+        <f>DATE(2023,10,19)</f>
+        <v>45218</v>
       </c>
       <c r="B515">
-        <v>43735</v>
+        <v>42715</v>
       </c>
       <c r="C515">
         <v>550</v>
@@ -19087,22 +19090,22 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>3854</v>
+        <v>3752</v>
       </c>
       <c r="F515">
         <v>2030</v>
       </c>
       <c r="G515">
-        <v>172932</v>
+        <v>172430</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
-        <f>DATE(2023,10,19)</f>
-        <v>45218</v>
+        <f>DATE(2023,10,18)</f>
+        <v>45217</v>
       </c>
       <c r="B516">
-        <v>42715</v>
+        <v>42541</v>
       </c>
       <c r="C516">
         <v>550</v>
@@ -19111,22 +19114,22 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>3752</v>
+        <v>4519</v>
       </c>
       <c r="F516">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="G516">
-        <v>172430</v>
+        <v>172351</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
-        <f>DATE(2023,10,18)</f>
-        <v>45217</v>
+        <f>DATE(2023,10,17)</f>
+        <v>45216</v>
       </c>
       <c r="B517">
-        <v>42541</v>
+        <v>42061</v>
       </c>
       <c r="C517">
         <v>550</v>
@@ -19135,22 +19138,22 @@
         <v>0</v>
       </c>
       <c r="E517">
-        <v>4519</v>
+        <v>4515</v>
       </c>
       <c r="F517">
         <v>2027</v>
       </c>
       <c r="G517">
-        <v>172351</v>
+        <v>171924</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
-        <f>DATE(2023,10,17)</f>
-        <v>45216</v>
+        <f>DATE(2023,10,16)</f>
+        <v>45215</v>
       </c>
       <c r="B518">
-        <v>42061</v>
+        <v>42049</v>
       </c>
       <c r="C518">
         <v>550</v>
@@ -19159,36 +19162,12 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>4515</v>
+        <v>4490</v>
       </c>
       <c r="F518">
         <v>2027</v>
       </c>
       <c r="G518">
-        <v>171924</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="3">
-        <f>DATE(2023,10,16)</f>
-        <v>45215</v>
-      </c>
-      <c r="B519">
-        <v>42049</v>
-      </c>
-      <c r="C519">
-        <v>550</v>
-      </c>
-      <c r="D519">
-        <v>0</v>
-      </c>
-      <c r="E519">
-        <v>4490</v>
-      </c>
-      <c r="F519">
-        <v>2027</v>
-      </c>
-      <c r="G519">
         <v>171339</v>
       </c>
     </row>
